--- a/Cplusplus/设计模式.xlsx
+++ b/Cplusplus/设计模式.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="设计模式概览" sheetId="1" r:id="rId1"/>
     <sheet name="面向对象设计原则" sheetId="5" r:id="rId2"/>
-    <sheet name="参照" sheetId="4" r:id="rId3"/>
+    <sheet name="简单工厂模式" sheetId="6" r:id="rId3"/>
+    <sheet name="参照" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="153">
   <si>
     <t>★</t>
   </si>
@@ -529,6 +530,106 @@
   </si>
   <si>
     <t>类的结构设计上，每一个类都应该降低其成员变量和成员函数的访问权限。</t>
+  </si>
+  <si>
+    <t>简单工厂模式简介</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建型模式关注对象的创建过程，在软件开发中应用非常广泛。</t>
+  </si>
+  <si>
+    <t>创建型模式描述如何将对象的创建和使用分离</t>
+  </si>
+  <si>
+    <t>让用户在使用对象过程中无须关心对象的创建细节，从而降低系统耦合度，并且让系统易于修改和扩展。</t>
+  </si>
+  <si>
+    <t>简单工厂模式是最简单的设计模式之一，其实它并不属于Gof的23种设计模式</t>
+  </si>
+  <si>
+    <t>但应用也十分频繁，同时也是其余创建模式的基础</t>
+  </si>
+  <si>
+    <t>简单工厂应用举例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一个体育用品生产厂（这即是一个工厂Factory），该工厂可以根据客户需求生产篮球、足球和排球。</t>
+  </si>
+  <si>
+    <t>篮球、足球和排球被成为产品（Product），产品的名称可以被成为参数。</t>
+  </si>
+  <si>
+    <t>Factory</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>basketball</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>football</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>volleyball</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>create</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户Jungle需要时可以向工厂提供产品参数，工厂根据产品参数生产对应产品，客户Jungle并不需要关心产品的生产过程细节。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Customer
+Jungle</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>简单工厂基本实现流程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>由上述例子，可以很容易总结出简单工厂的实现流程:</t>
+  </si>
+  <si>
+    <t>设计一个抽象产品类，它包含一些公共方法的实现:</t>
+  </si>
+  <si>
+    <t>从抽象产品类中派生出多个具体产品类，如篮球类、足球类、排球类，具体产品类中实现具体产品生产的相关代码；</t>
+  </si>
+  <si>
+    <t>设计一个工厂类，工厂类中提供一个生产各种产品的工厂方法，该方法根据传入参数（产品名称）创建不同的具体产品类对象；</t>
+  </si>
+  <si>
+    <t>客户只需调用工厂类的工厂方法，并传入具体产品参数，即可得到一个具体产品对象。</t>
+  </si>
+  <si>
+    <t>简单工厂定义</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>简单工厂模式:定义一个简单工厂类，它可以根据参数的不同返回不同类的实例，被创建的实例通常都具有共同的父类</t>
+  </si>
+  <si>
+    <t>简单工厂模式结构</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>从简单工厂模式的定义和例子可以看出，在简单工厂模式中，大体上有3个角色：</t>
+  </si>
+  <si>
+    <t>工厂(Factory）:根据客户提供的具体产品类的参数，创建具体产品实例；</t>
+  </si>
+  <si>
+    <t>抽象产品(AbstractProduct):具体产品类的基类，包含创建产品的公共方法；</t>
+  </si>
+  <si>
+    <t>具体产品(ConcreteProduct):抽象产品的派生类，包含具体产品特有的实现方法，是简单工厂模式的创建目标。</t>
   </si>
 </sst>
 </file>
@@ -611,7 +712,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -855,13 +956,73 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -886,53 +1047,17 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -958,17 +1083,83 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -977,6 +1168,317 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>190499</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>161193</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>7327</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>162781</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="直接箭头连接符 5"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1377461" y="2718289"/>
+          <a:ext cx="1201616" cy="1588"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>197826</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>14654</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>1589</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="直接箭头连接符 6"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1384788" y="3062655"/>
+          <a:ext cx="1201616" cy="1588"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>183172</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>168520</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>170108</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="直接箭头连接符 7"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1370134" y="3399693"/>
+          <a:ext cx="1201616" cy="1588"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>190499</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>161193</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>7327</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>162781</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="直接箭头连接符 8"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3553557" y="2718289"/>
+          <a:ext cx="1201616" cy="1588"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>197826</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>14654</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>1589</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="10" name="直接箭头连接符 9"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3560884" y="3077309"/>
+          <a:ext cx="1201616" cy="1588"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>190499</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>168520</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>7327</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>170108</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="直接箭头连接符 10"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3553557" y="3399693"/>
+          <a:ext cx="1201616" cy="1588"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:sysClr val="windowText" lastClr="000000"/>
+          </a:solidFill>
+          <a:headEnd type="none" w="med" len="med"/>
+          <a:tailEnd type="triangle" w="med" len="med"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1266,7 +1768,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A3:AZ83"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5"/>
   <cols>
@@ -1717,58 +2221,58 @@
       <c r="AZ42" s="4"/>
     </row>
     <row r="43" spans="1:52">
-      <c r="A43" s="32"/>
-      <c r="B43" s="32"/>
-      <c r="C43" s="32"/>
-      <c r="D43" s="33"/>
-      <c r="E43" s="32"/>
-      <c r="F43" s="32"/>
-      <c r="G43" s="32"/>
-      <c r="H43" s="32"/>
-      <c r="I43" s="32"/>
-      <c r="J43" s="32"/>
-      <c r="K43" s="32"/>
-      <c r="L43" s="32"/>
-      <c r="M43" s="32"/>
-      <c r="N43" s="32"/>
-      <c r="O43" s="32"/>
-      <c r="P43" s="32"/>
-      <c r="Q43" s="32"/>
-      <c r="R43" s="32"/>
-      <c r="S43" s="32"/>
-      <c r="T43" s="32"/>
-      <c r="U43" s="32"/>
-      <c r="V43" s="32"/>
-      <c r="W43" s="32"/>
-      <c r="X43" s="32"/>
-      <c r="Y43" s="32"/>
-      <c r="Z43" s="32"/>
-      <c r="AA43" s="32"/>
-      <c r="AB43" s="32"/>
-      <c r="AC43" s="32"/>
-      <c r="AD43" s="32"/>
-      <c r="AE43" s="32"/>
-      <c r="AF43" s="32"/>
-      <c r="AG43" s="32"/>
-      <c r="AH43" s="32"/>
-      <c r="AI43" s="32"/>
-      <c r="AJ43" s="32"/>
-      <c r="AK43" s="32"/>
-      <c r="AL43" s="32"/>
-      <c r="AM43" s="32"/>
-      <c r="AN43" s="32"/>
-      <c r="AO43" s="32"/>
-      <c r="AP43" s="32"/>
-      <c r="AQ43" s="32"/>
-      <c r="AR43" s="32"/>
-      <c r="AS43" s="32"/>
-      <c r="AT43" s="32"/>
-      <c r="AU43" s="32"/>
-      <c r="AV43" s="32"/>
-      <c r="AW43" s="32"/>
-      <c r="AX43" s="32"/>
-      <c r="AY43" s="32"/>
-      <c r="AZ43" s="32"/>
+      <c r="A43" s="8"/>
+      <c r="B43" s="8"/>
+      <c r="C43" s="8"/>
+      <c r="D43" s="9"/>
+      <c r="E43" s="8"/>
+      <c r="F43" s="8"/>
+      <c r="G43" s="8"/>
+      <c r="H43" s="8"/>
+      <c r="I43" s="8"/>
+      <c r="J43" s="8"/>
+      <c r="K43" s="8"/>
+      <c r="L43" s="8"/>
+      <c r="M43" s="8"/>
+      <c r="N43" s="8"/>
+      <c r="O43" s="8"/>
+      <c r="P43" s="8"/>
+      <c r="Q43" s="8"/>
+      <c r="R43" s="8"/>
+      <c r="S43" s="8"/>
+      <c r="T43" s="8"/>
+      <c r="U43" s="8"/>
+      <c r="V43" s="8"/>
+      <c r="W43" s="8"/>
+      <c r="X43" s="8"/>
+      <c r="Y43" s="8"/>
+      <c r="Z43" s="8"/>
+      <c r="AA43" s="8"/>
+      <c r="AB43" s="8"/>
+      <c r="AC43" s="8"/>
+      <c r="AD43" s="8"/>
+      <c r="AE43" s="8"/>
+      <c r="AF43" s="8"/>
+      <c r="AG43" s="8"/>
+      <c r="AH43" s="8"/>
+      <c r="AI43" s="8"/>
+      <c r="AJ43" s="8"/>
+      <c r="AK43" s="8"/>
+      <c r="AL43" s="8"/>
+      <c r="AM43" s="8"/>
+      <c r="AN43" s="8"/>
+      <c r="AO43" s="8"/>
+      <c r="AP43" s="8"/>
+      <c r="AQ43" s="8"/>
+      <c r="AR43" s="8"/>
+      <c r="AS43" s="8"/>
+      <c r="AT43" s="8"/>
+      <c r="AU43" s="8"/>
+      <c r="AV43" s="8"/>
+      <c r="AW43" s="8"/>
+      <c r="AX43" s="8"/>
+      <c r="AY43" s="8"/>
+      <c r="AZ43" s="8"/>
     </row>
     <row r="44" spans="1:52">
       <c r="D44" s="5" t="s">
@@ -1992,217 +2496,217 @@
     </row>
     <row r="61" spans="4:40" ht="14.25" thickBot="1"/>
     <row r="62" spans="4:40" ht="14.25" thickBot="1">
-      <c r="D62" s="24" t="s">
+      <c r="D62" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="E62" s="25"/>
-      <c r="F62" s="25"/>
-      <c r="G62" s="25"/>
-      <c r="H62" s="25"/>
-      <c r="I62" s="25"/>
-      <c r="J62" s="25"/>
-      <c r="K62" s="25"/>
-      <c r="L62" s="25"/>
-      <c r="M62" s="25"/>
-      <c r="N62" s="25"/>
-      <c r="O62" s="25"/>
-      <c r="P62" s="25"/>
-      <c r="Q62" s="25"/>
-      <c r="R62" s="25"/>
-      <c r="S62" s="25"/>
-      <c r="T62" s="25"/>
-      <c r="U62" s="25"/>
-      <c r="V62" s="25"/>
-      <c r="W62" s="25"/>
-      <c r="X62" s="25"/>
-      <c r="Y62" s="25"/>
-      <c r="Z62" s="25"/>
-      <c r="AA62" s="25"/>
-      <c r="AB62" s="25"/>
-      <c r="AC62" s="25"/>
-      <c r="AD62" s="25"/>
-      <c r="AE62" s="25"/>
-      <c r="AF62" s="25"/>
-      <c r="AG62" s="25"/>
-      <c r="AH62" s="25"/>
-      <c r="AI62" s="25"/>
-      <c r="AJ62" s="25"/>
-      <c r="AK62" s="25"/>
-      <c r="AL62" s="25"/>
-      <c r="AM62" s="25"/>
-      <c r="AN62" s="26"/>
+      <c r="E62" s="13"/>
+      <c r="F62" s="13"/>
+      <c r="G62" s="13"/>
+      <c r="H62" s="13"/>
+      <c r="I62" s="13"/>
+      <c r="J62" s="13"/>
+      <c r="K62" s="13"/>
+      <c r="L62" s="13"/>
+      <c r="M62" s="13"/>
+      <c r="N62" s="13"/>
+      <c r="O62" s="13"/>
+      <c r="P62" s="13"/>
+      <c r="Q62" s="13"/>
+      <c r="R62" s="13"/>
+      <c r="S62" s="13"/>
+      <c r="T62" s="13"/>
+      <c r="U62" s="13"/>
+      <c r="V62" s="13"/>
+      <c r="W62" s="13"/>
+      <c r="X62" s="13"/>
+      <c r="Y62" s="13"/>
+      <c r="Z62" s="13"/>
+      <c r="AA62" s="13"/>
+      <c r="AB62" s="13"/>
+      <c r="AC62" s="13"/>
+      <c r="AD62" s="13"/>
+      <c r="AE62" s="13"/>
+      <c r="AF62" s="13"/>
+      <c r="AG62" s="13"/>
+      <c r="AH62" s="13"/>
+      <c r="AI62" s="13"/>
+      <c r="AJ62" s="13"/>
+      <c r="AK62" s="13"/>
+      <c r="AL62" s="13"/>
+      <c r="AM62" s="13"/>
+      <c r="AN62" s="14"/>
     </row>
     <row r="63" spans="4:40" ht="14.25" thickBot="1">
-      <c r="D63" s="27" t="s">
+      <c r="D63" s="15" t="s">
         <v>47</v>
       </c>
-      <c r="E63" s="28"/>
-      <c r="F63" s="28"/>
-      <c r="G63" s="28"/>
-      <c r="H63" s="28"/>
-      <c r="I63" s="28"/>
-      <c r="J63" s="28"/>
-      <c r="K63" s="29" t="s">
+      <c r="E63" s="16"/>
+      <c r="F63" s="16"/>
+      <c r="G63" s="16"/>
+      <c r="H63" s="16"/>
+      <c r="I63" s="16"/>
+      <c r="J63" s="16"/>
+      <c r="K63" s="17" t="s">
         <v>39</v>
       </c>
-      <c r="L63" s="30"/>
-      <c r="M63" s="30"/>
-      <c r="N63" s="30"/>
-      <c r="O63" s="30"/>
-      <c r="P63" s="30"/>
-      <c r="Q63" s="30"/>
-      <c r="R63" s="30"/>
-      <c r="S63" s="30"/>
-      <c r="T63" s="30"/>
-      <c r="U63" s="30"/>
-      <c r="V63" s="30"/>
-      <c r="W63" s="30"/>
-      <c r="X63" s="30"/>
-      <c r="Y63" s="30"/>
-      <c r="Z63" s="30"/>
-      <c r="AA63" s="30"/>
-      <c r="AB63" s="30"/>
-      <c r="AC63" s="30"/>
-      <c r="AD63" s="30"/>
-      <c r="AE63" s="30"/>
-      <c r="AF63" s="30"/>
-      <c r="AG63" s="30"/>
-      <c r="AH63" s="30"/>
-      <c r="AI63" s="30"/>
-      <c r="AJ63" s="30"/>
-      <c r="AK63" s="30"/>
-      <c r="AL63" s="30"/>
-      <c r="AM63" s="30"/>
-      <c r="AN63" s="31"/>
+      <c r="L63" s="18"/>
+      <c r="M63" s="18"/>
+      <c r="N63" s="18"/>
+      <c r="O63" s="18"/>
+      <c r="P63" s="18"/>
+      <c r="Q63" s="18"/>
+      <c r="R63" s="18"/>
+      <c r="S63" s="18"/>
+      <c r="T63" s="18"/>
+      <c r="U63" s="18"/>
+      <c r="V63" s="18"/>
+      <c r="W63" s="18"/>
+      <c r="X63" s="18"/>
+      <c r="Y63" s="18"/>
+      <c r="Z63" s="18"/>
+      <c r="AA63" s="18"/>
+      <c r="AB63" s="18"/>
+      <c r="AC63" s="18"/>
+      <c r="AD63" s="18"/>
+      <c r="AE63" s="18"/>
+      <c r="AF63" s="18"/>
+      <c r="AG63" s="18"/>
+      <c r="AH63" s="18"/>
+      <c r="AI63" s="18"/>
+      <c r="AJ63" s="18"/>
+      <c r="AK63" s="18"/>
+      <c r="AL63" s="18"/>
+      <c r="AM63" s="18"/>
+      <c r="AN63" s="19"/>
     </row>
     <row r="64" spans="4:40">
-      <c r="D64" s="14" t="s">
+      <c r="D64" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="E64" s="12"/>
-      <c r="F64" s="12"/>
-      <c r="G64" s="12"/>
-      <c r="H64" s="12"/>
-      <c r="I64" s="12"/>
-      <c r="J64" s="13"/>
-      <c r="K64" s="11" t="s">
+      <c r="E64" s="21"/>
+      <c r="F64" s="21"/>
+      <c r="G64" s="21"/>
+      <c r="H64" s="21"/>
+      <c r="I64" s="21"/>
+      <c r="J64" s="22"/>
+      <c r="K64" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="L64" s="12"/>
-      <c r="M64" s="12"/>
-      <c r="N64" s="12"/>
-      <c r="O64" s="12"/>
-      <c r="P64" s="12"/>
-      <c r="Q64" s="12"/>
-      <c r="R64" s="12"/>
-      <c r="S64" s="12"/>
-      <c r="T64" s="12"/>
-      <c r="U64" s="12"/>
-      <c r="V64" s="12"/>
-      <c r="W64" s="12"/>
-      <c r="X64" s="12"/>
-      <c r="Y64" s="12"/>
-      <c r="Z64" s="12"/>
-      <c r="AA64" s="12"/>
-      <c r="AB64" s="12"/>
-      <c r="AC64" s="12"/>
-      <c r="AD64" s="12"/>
-      <c r="AE64" s="12"/>
-      <c r="AF64" s="12"/>
-      <c r="AG64" s="12"/>
-      <c r="AH64" s="12"/>
-      <c r="AI64" s="12"/>
-      <c r="AJ64" s="12"/>
-      <c r="AK64" s="12"/>
-      <c r="AL64" s="12"/>
-      <c r="AM64" s="12"/>
-      <c r="AN64" s="15"/>
+      <c r="L64" s="21"/>
+      <c r="M64" s="21"/>
+      <c r="N64" s="21"/>
+      <c r="O64" s="21"/>
+      <c r="P64" s="21"/>
+      <c r="Q64" s="21"/>
+      <c r="R64" s="21"/>
+      <c r="S64" s="21"/>
+      <c r="T64" s="21"/>
+      <c r="U64" s="21"/>
+      <c r="V64" s="21"/>
+      <c r="W64" s="21"/>
+      <c r="X64" s="21"/>
+      <c r="Y64" s="21"/>
+      <c r="Z64" s="21"/>
+      <c r="AA64" s="21"/>
+      <c r="AB64" s="21"/>
+      <c r="AC64" s="21"/>
+      <c r="AD64" s="21"/>
+      <c r="AE64" s="21"/>
+      <c r="AF64" s="21"/>
+      <c r="AG64" s="21"/>
+      <c r="AH64" s="21"/>
+      <c r="AI64" s="21"/>
+      <c r="AJ64" s="21"/>
+      <c r="AK64" s="21"/>
+      <c r="AL64" s="21"/>
+      <c r="AM64" s="21"/>
+      <c r="AN64" s="30"/>
     </row>
     <row r="65" spans="1:52">
-      <c r="D65" s="16" t="s">
+      <c r="D65" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="E65" s="9"/>
-      <c r="F65" s="9"/>
-      <c r="G65" s="9"/>
-      <c r="H65" s="9"/>
-      <c r="I65" s="9"/>
-      <c r="J65" s="10"/>
-      <c r="K65" s="8" t="s">
+      <c r="E65" s="24"/>
+      <c r="F65" s="24"/>
+      <c r="G65" s="24"/>
+      <c r="H65" s="24"/>
+      <c r="I65" s="24"/>
+      <c r="J65" s="25"/>
+      <c r="K65" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="L65" s="9"/>
-      <c r="M65" s="9"/>
-      <c r="N65" s="9"/>
-      <c r="O65" s="9"/>
-      <c r="P65" s="9"/>
-      <c r="Q65" s="9"/>
-      <c r="R65" s="9"/>
-      <c r="S65" s="9"/>
-      <c r="T65" s="9"/>
-      <c r="U65" s="9"/>
-      <c r="V65" s="9"/>
-      <c r="W65" s="9"/>
-      <c r="X65" s="9"/>
-      <c r="Y65" s="9"/>
-      <c r="Z65" s="9"/>
-      <c r="AA65" s="9"/>
-      <c r="AB65" s="9"/>
-      <c r="AC65" s="9"/>
-      <c r="AD65" s="9"/>
-      <c r="AE65" s="9"/>
-      <c r="AF65" s="9"/>
-      <c r="AG65" s="9"/>
-      <c r="AH65" s="9"/>
-      <c r="AI65" s="9"/>
-      <c r="AJ65" s="9"/>
-      <c r="AK65" s="9"/>
-      <c r="AL65" s="9"/>
-      <c r="AM65" s="9"/>
-      <c r="AN65" s="17"/>
+      <c r="L65" s="24"/>
+      <c r="M65" s="24"/>
+      <c r="N65" s="24"/>
+      <c r="O65" s="24"/>
+      <c r="P65" s="24"/>
+      <c r="Q65" s="24"/>
+      <c r="R65" s="24"/>
+      <c r="S65" s="24"/>
+      <c r="T65" s="24"/>
+      <c r="U65" s="24"/>
+      <c r="V65" s="24"/>
+      <c r="W65" s="24"/>
+      <c r="X65" s="24"/>
+      <c r="Y65" s="24"/>
+      <c r="Z65" s="24"/>
+      <c r="AA65" s="24"/>
+      <c r="AB65" s="24"/>
+      <c r="AC65" s="24"/>
+      <c r="AD65" s="24"/>
+      <c r="AE65" s="24"/>
+      <c r="AF65" s="24"/>
+      <c r="AG65" s="24"/>
+      <c r="AH65" s="24"/>
+      <c r="AI65" s="24"/>
+      <c r="AJ65" s="24"/>
+      <c r="AK65" s="24"/>
+      <c r="AL65" s="24"/>
+      <c r="AM65" s="24"/>
+      <c r="AN65" s="32"/>
     </row>
     <row r="66" spans="1:52" ht="30" customHeight="1" thickBot="1">
-      <c r="D66" s="18" t="s">
+      <c r="D66" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="E66" s="19"/>
-      <c r="F66" s="19"/>
-      <c r="G66" s="19"/>
-      <c r="H66" s="19"/>
-      <c r="I66" s="19"/>
-      <c r="J66" s="20"/>
-      <c r="K66" s="21" t="s">
+      <c r="E66" s="27"/>
+      <c r="F66" s="27"/>
+      <c r="G66" s="27"/>
+      <c r="H66" s="27"/>
+      <c r="I66" s="27"/>
+      <c r="J66" s="28"/>
+      <c r="K66" s="33" t="s">
         <v>45</v>
       </c>
-      <c r="L66" s="22"/>
-      <c r="M66" s="22"/>
-      <c r="N66" s="22"/>
-      <c r="O66" s="22"/>
-      <c r="P66" s="22"/>
-      <c r="Q66" s="22"/>
-      <c r="R66" s="22"/>
-      <c r="S66" s="22"/>
-      <c r="T66" s="22"/>
-      <c r="U66" s="22"/>
-      <c r="V66" s="22"/>
-      <c r="W66" s="22"/>
-      <c r="X66" s="22"/>
-      <c r="Y66" s="22"/>
-      <c r="Z66" s="22"/>
-      <c r="AA66" s="22"/>
-      <c r="AB66" s="22"/>
-      <c r="AC66" s="22"/>
-      <c r="AD66" s="22"/>
-      <c r="AE66" s="22"/>
-      <c r="AF66" s="22"/>
-      <c r="AG66" s="22"/>
-      <c r="AH66" s="22"/>
-      <c r="AI66" s="22"/>
-      <c r="AJ66" s="22"/>
-      <c r="AK66" s="22"/>
-      <c r="AL66" s="22"/>
-      <c r="AM66" s="22"/>
-      <c r="AN66" s="23"/>
+      <c r="L66" s="34"/>
+      <c r="M66" s="34"/>
+      <c r="N66" s="34"/>
+      <c r="O66" s="34"/>
+      <c r="P66" s="34"/>
+      <c r="Q66" s="34"/>
+      <c r="R66" s="34"/>
+      <c r="S66" s="34"/>
+      <c r="T66" s="34"/>
+      <c r="U66" s="34"/>
+      <c r="V66" s="34"/>
+      <c r="W66" s="34"/>
+      <c r="X66" s="34"/>
+      <c r="Y66" s="34"/>
+      <c r="Z66" s="34"/>
+      <c r="AA66" s="34"/>
+      <c r="AB66" s="34"/>
+      <c r="AC66" s="34"/>
+      <c r="AD66" s="34"/>
+      <c r="AE66" s="34"/>
+      <c r="AF66" s="34"/>
+      <c r="AG66" s="34"/>
+      <c r="AH66" s="34"/>
+      <c r="AI66" s="34"/>
+      <c r="AJ66" s="34"/>
+      <c r="AK66" s="34"/>
+      <c r="AL66" s="34"/>
+      <c r="AM66" s="34"/>
+      <c r="AN66" s="35"/>
     </row>
     <row r="69" spans="1:52">
       <c r="A69" s="4"/>
@@ -2331,15 +2835,15 @@
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="D66:J66"/>
+    <mergeCell ref="K64:AN64"/>
+    <mergeCell ref="K65:AN65"/>
+    <mergeCell ref="K66:AN66"/>
     <mergeCell ref="D62:AN62"/>
     <mergeCell ref="D63:J63"/>
     <mergeCell ref="K63:AN63"/>
     <mergeCell ref="D64:J64"/>
     <mergeCell ref="D65:J65"/>
-    <mergeCell ref="D66:J66"/>
-    <mergeCell ref="K64:AN64"/>
-    <mergeCell ref="K65:AN65"/>
-    <mergeCell ref="K66:AN66"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2351,7 +2855,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A3:BR122"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="E132" sqref="E132"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5"/>
   <sheetData>
@@ -2517,165 +3023,165 @@
       <c r="AZ18" s="4"/>
     </row>
     <row r="20" spans="1:70">
-      <c r="D20" s="34"/>
-      <c r="E20" s="34"/>
-      <c r="F20" s="34"/>
-      <c r="G20" s="34"/>
-      <c r="H20" s="34"/>
-      <c r="I20" s="34"/>
-      <c r="J20" s="34"/>
-      <c r="K20" s="34"/>
-      <c r="L20" s="34"/>
-      <c r="M20" s="34"/>
-      <c r="N20" s="34"/>
-      <c r="O20" s="34"/>
-      <c r="P20" s="34"/>
-      <c r="Q20" s="34"/>
-      <c r="R20" s="34"/>
-      <c r="S20" s="34"/>
-      <c r="T20" s="34"/>
-      <c r="U20" s="34"/>
-      <c r="V20" s="34"/>
-      <c r="W20" s="34"/>
-      <c r="X20" s="34"/>
-      <c r="Y20" s="34"/>
-      <c r="Z20" s="34"/>
-      <c r="AA20" s="34"/>
-      <c r="AB20" s="34"/>
-      <c r="AC20" s="34"/>
-      <c r="AD20" s="34"/>
-      <c r="AE20" s="34"/>
-      <c r="AF20" s="34"/>
+      <c r="D20" s="10"/>
+      <c r="E20" s="10"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="10"/>
+      <c r="K20" s="10"/>
+      <c r="L20" s="10"/>
+      <c r="M20" s="10"/>
+      <c r="N20" s="10"/>
+      <c r="O20" s="10"/>
+      <c r="P20" s="10"/>
+      <c r="Q20" s="10"/>
+      <c r="R20" s="10"/>
+      <c r="S20" s="10"/>
+      <c r="T20" s="10"/>
+      <c r="U20" s="10"/>
+      <c r="V20" s="10"/>
+      <c r="W20" s="10"/>
+      <c r="X20" s="10"/>
+      <c r="Y20" s="10"/>
+      <c r="Z20" s="10"/>
+      <c r="AA20" s="10"/>
+      <c r="AB20" s="10"/>
+      <c r="AC20" s="10"/>
+      <c r="AD20" s="10"/>
+      <c r="AE20" s="10"/>
+      <c r="AF20" s="10"/>
     </row>
     <row r="21" spans="1:70">
-      <c r="D21" s="34"/>
+      <c r="D21" s="10"/>
       <c r="E21" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="F21" s="34"/>
-      <c r="G21" s="34"/>
-      <c r="H21" s="34"/>
-      <c r="I21" s="34"/>
-      <c r="J21" s="34"/>
-      <c r="K21" s="34"/>
-      <c r="L21" s="34"/>
-      <c r="M21" s="34"/>
-      <c r="N21" s="34"/>
-      <c r="O21" s="34"/>
-      <c r="P21" s="34"/>
-      <c r="Q21" s="34"/>
-      <c r="R21" s="34"/>
-      <c r="S21" s="34"/>
-      <c r="T21" s="34"/>
-      <c r="U21" s="34"/>
-      <c r="V21" s="34"/>
-      <c r="W21" s="34"/>
-      <c r="X21" s="34"/>
-      <c r="Y21" s="34"/>
-      <c r="Z21" s="34"/>
-      <c r="AA21" s="34"/>
-      <c r="AB21" s="34"/>
-      <c r="AC21" s="34"/>
-      <c r="AD21" s="34"/>
-      <c r="AE21" s="34"/>
-      <c r="AF21" s="34"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="10"/>
+      <c r="K21" s="10"/>
+      <c r="L21" s="10"/>
+      <c r="M21" s="10"/>
+      <c r="N21" s="10"/>
+      <c r="O21" s="10"/>
+      <c r="P21" s="10"/>
+      <c r="Q21" s="10"/>
+      <c r="R21" s="10"/>
+      <c r="S21" s="10"/>
+      <c r="T21" s="10"/>
+      <c r="U21" s="10"/>
+      <c r="V21" s="10"/>
+      <c r="W21" s="10"/>
+      <c r="X21" s="10"/>
+      <c r="Y21" s="10"/>
+      <c r="Z21" s="10"/>
+      <c r="AA21" s="10"/>
+      <c r="AB21" s="10"/>
+      <c r="AC21" s="10"/>
+      <c r="AD21" s="10"/>
+      <c r="AE21" s="10"/>
+      <c r="AF21" s="10"/>
     </row>
     <row r="22" spans="1:70">
-      <c r="D22" s="34"/>
+      <c r="D22" s="10"/>
       <c r="E22" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="F22" s="34"/>
-      <c r="G22" s="34"/>
-      <c r="H22" s="34"/>
-      <c r="I22" s="34"/>
-      <c r="J22" s="34"/>
-      <c r="K22" s="34"/>
-      <c r="L22" s="34"/>
-      <c r="M22" s="34"/>
-      <c r="N22" s="34"/>
-      <c r="O22" s="34"/>
-      <c r="P22" s="34"/>
-      <c r="Q22" s="34"/>
-      <c r="R22" s="34"/>
-      <c r="S22" s="34"/>
-      <c r="T22" s="34"/>
-      <c r="U22" s="34"/>
-      <c r="V22" s="34"/>
-      <c r="W22" s="34"/>
-      <c r="X22" s="34"/>
-      <c r="Y22" s="34"/>
-      <c r="Z22" s="34"/>
-      <c r="AA22" s="34"/>
-      <c r="AB22" s="34"/>
-      <c r="AC22" s="34"/>
-      <c r="AD22" s="34"/>
-      <c r="AE22" s="34"/>
-      <c r="AF22" s="34"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="10"/>
+      <c r="K22" s="10"/>
+      <c r="L22" s="10"/>
+      <c r="M22" s="10"/>
+      <c r="N22" s="10"/>
+      <c r="O22" s="10"/>
+      <c r="P22" s="10"/>
+      <c r="Q22" s="10"/>
+      <c r="R22" s="10"/>
+      <c r="S22" s="10"/>
+      <c r="T22" s="10"/>
+      <c r="U22" s="10"/>
+      <c r="V22" s="10"/>
+      <c r="W22" s="10"/>
+      <c r="X22" s="10"/>
+      <c r="Y22" s="10"/>
+      <c r="Z22" s="10"/>
+      <c r="AA22" s="10"/>
+      <c r="AB22" s="10"/>
+      <c r="AC22" s="10"/>
+      <c r="AD22" s="10"/>
+      <c r="AE22" s="10"/>
+      <c r="AF22" s="10"/>
     </row>
     <row r="23" spans="1:70">
-      <c r="D23" s="34"/>
+      <c r="D23" s="10"/>
       <c r="E23" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="F23" s="34"/>
-      <c r="G23" s="34"/>
-      <c r="H23" s="34"/>
-      <c r="I23" s="34"/>
-      <c r="J23" s="34"/>
-      <c r="K23" s="34"/>
-      <c r="L23" s="34"/>
-      <c r="M23" s="34"/>
-      <c r="N23" s="34"/>
-      <c r="O23" s="34"/>
-      <c r="P23" s="34"/>
-      <c r="Q23" s="34"/>
-      <c r="R23" s="34"/>
-      <c r="S23" s="34"/>
-      <c r="T23" s="34"/>
-      <c r="U23" s="34"/>
-      <c r="V23" s="34"/>
-      <c r="W23" s="34"/>
-      <c r="X23" s="34"/>
-      <c r="Y23" s="34"/>
-      <c r="Z23" s="34"/>
-      <c r="AA23" s="34"/>
-      <c r="AB23" s="34"/>
-      <c r="AC23" s="34"/>
-      <c r="AD23" s="34"/>
-      <c r="AE23" s="34"/>
-      <c r="AF23" s="34"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="10"/>
+      <c r="K23" s="10"/>
+      <c r="L23" s="10"/>
+      <c r="M23" s="10"/>
+      <c r="N23" s="10"/>
+      <c r="O23" s="10"/>
+      <c r="P23" s="10"/>
+      <c r="Q23" s="10"/>
+      <c r="R23" s="10"/>
+      <c r="S23" s="10"/>
+      <c r="T23" s="10"/>
+      <c r="U23" s="10"/>
+      <c r="V23" s="10"/>
+      <c r="W23" s="10"/>
+      <c r="X23" s="10"/>
+      <c r="Y23" s="10"/>
+      <c r="Z23" s="10"/>
+      <c r="AA23" s="10"/>
+      <c r="AB23" s="10"/>
+      <c r="AC23" s="10"/>
+      <c r="AD23" s="10"/>
+      <c r="AE23" s="10"/>
+      <c r="AF23" s="10"/>
     </row>
     <row r="24" spans="1:70">
-      <c r="D24" s="34"/>
-      <c r="E24" s="34"/>
-      <c r="F24" s="34"/>
-      <c r="G24" s="34"/>
-      <c r="H24" s="34"/>
-      <c r="I24" s="34"/>
-      <c r="J24" s="34"/>
-      <c r="K24" s="34"/>
-      <c r="L24" s="34"/>
-      <c r="M24" s="34"/>
-      <c r="N24" s="34"/>
-      <c r="O24" s="34"/>
-      <c r="P24" s="34"/>
-      <c r="Q24" s="34"/>
-      <c r="R24" s="34"/>
-      <c r="S24" s="34"/>
-      <c r="T24" s="34"/>
-      <c r="U24" s="34"/>
-      <c r="V24" s="34"/>
-      <c r="W24" s="34"/>
-      <c r="X24" s="34"/>
-      <c r="Y24" s="34"/>
-      <c r="Z24" s="34"/>
-      <c r="AA24" s="34"/>
-      <c r="AB24" s="34"/>
-      <c r="AC24" s="34"/>
-      <c r="AD24" s="34"/>
-      <c r="AE24" s="34"/>
-      <c r="AF24" s="34"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="10"/>
+      <c r="J24" s="10"/>
+      <c r="K24" s="10"/>
+      <c r="L24" s="10"/>
+      <c r="M24" s="10"/>
+      <c r="N24" s="10"/>
+      <c r="O24" s="10"/>
+      <c r="P24" s="10"/>
+      <c r="Q24" s="10"/>
+      <c r="R24" s="10"/>
+      <c r="S24" s="10"/>
+      <c r="T24" s="10"/>
+      <c r="U24" s="10"/>
+      <c r="V24" s="10"/>
+      <c r="W24" s="10"/>
+      <c r="X24" s="10"/>
+      <c r="Y24" s="10"/>
+      <c r="Z24" s="10"/>
+      <c r="AA24" s="10"/>
+      <c r="AB24" s="10"/>
+      <c r="AC24" s="10"/>
+      <c r="AD24" s="10"/>
+      <c r="AE24" s="10"/>
+      <c r="AF24" s="10"/>
     </row>
     <row r="26" spans="1:70">
       <c r="D26" s="2" t="s">
@@ -2683,353 +3189,353 @@
       </c>
     </row>
     <row r="28" spans="1:70">
-      <c r="D28" s="34"/>
-      <c r="E28" s="34"/>
-      <c r="F28" s="34"/>
-      <c r="G28" s="34"/>
-      <c r="H28" s="34"/>
-      <c r="I28" s="34"/>
-      <c r="J28" s="34"/>
-      <c r="K28" s="34"/>
-      <c r="L28" s="34"/>
-      <c r="M28" s="34"/>
-      <c r="N28" s="34"/>
-      <c r="O28" s="34"/>
-      <c r="P28" s="34"/>
-      <c r="Q28" s="34"/>
-      <c r="R28" s="34"/>
-      <c r="S28" s="34"/>
-      <c r="T28" s="34"/>
-      <c r="U28" s="34"/>
-      <c r="V28" s="34"/>
-      <c r="W28" s="34"/>
-      <c r="X28" s="34"/>
-      <c r="Y28" s="34"/>
-      <c r="Z28" s="34"/>
-      <c r="AA28" s="34"/>
-      <c r="AB28" s="34"/>
-      <c r="AC28" s="34"/>
-      <c r="AD28" s="34"/>
-      <c r="AE28" s="34"/>
-      <c r="AF28" s="34"/>
-      <c r="AG28" s="34"/>
-      <c r="AH28" s="34"/>
-      <c r="AI28" s="34"/>
-      <c r="AJ28" s="34"/>
-      <c r="AK28" s="34"/>
-      <c r="AL28" s="34"/>
-      <c r="AM28" s="34"/>
-      <c r="AN28" s="34"/>
-      <c r="AO28" s="34"/>
-      <c r="AP28" s="34"/>
-      <c r="AQ28" s="34"/>
-      <c r="AR28" s="34"/>
-      <c r="AS28" s="34"/>
-      <c r="AT28" s="34"/>
-      <c r="AU28" s="34"/>
-      <c r="AV28" s="34"/>
-      <c r="AW28" s="34"/>
-      <c r="AX28" s="34"/>
-      <c r="AY28" s="34"/>
-      <c r="AZ28" s="34"/>
-      <c r="BA28" s="34"/>
-      <c r="BB28" s="34"/>
-      <c r="BC28" s="34"/>
-      <c r="BD28" s="34"/>
-      <c r="BE28" s="34"/>
-      <c r="BF28" s="34"/>
-      <c r="BG28" s="34"/>
-      <c r="BH28" s="34"/>
-      <c r="BI28" s="34"/>
-      <c r="BJ28" s="34"/>
-      <c r="BK28" s="34"/>
-      <c r="BL28" s="34"/>
-      <c r="BM28" s="34"/>
-      <c r="BN28" s="34"/>
-      <c r="BO28" s="34"/>
-      <c r="BP28" s="34"/>
-      <c r="BQ28" s="34"/>
-      <c r="BR28" s="34"/>
+      <c r="D28" s="10"/>
+      <c r="E28" s="10"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="10"/>
+      <c r="I28" s="10"/>
+      <c r="J28" s="10"/>
+      <c r="K28" s="10"/>
+      <c r="L28" s="10"/>
+      <c r="M28" s="10"/>
+      <c r="N28" s="10"/>
+      <c r="O28" s="10"/>
+      <c r="P28" s="10"/>
+      <c r="Q28" s="10"/>
+      <c r="R28" s="10"/>
+      <c r="S28" s="10"/>
+      <c r="T28" s="10"/>
+      <c r="U28" s="10"/>
+      <c r="V28" s="10"/>
+      <c r="W28" s="10"/>
+      <c r="X28" s="10"/>
+      <c r="Y28" s="10"/>
+      <c r="Z28" s="10"/>
+      <c r="AA28" s="10"/>
+      <c r="AB28" s="10"/>
+      <c r="AC28" s="10"/>
+      <c r="AD28" s="10"/>
+      <c r="AE28" s="10"/>
+      <c r="AF28" s="10"/>
+      <c r="AG28" s="10"/>
+      <c r="AH28" s="10"/>
+      <c r="AI28" s="10"/>
+      <c r="AJ28" s="10"/>
+      <c r="AK28" s="10"/>
+      <c r="AL28" s="10"/>
+      <c r="AM28" s="10"/>
+      <c r="AN28" s="10"/>
+      <c r="AO28" s="10"/>
+      <c r="AP28" s="10"/>
+      <c r="AQ28" s="10"/>
+      <c r="AR28" s="10"/>
+      <c r="AS28" s="10"/>
+      <c r="AT28" s="10"/>
+      <c r="AU28" s="10"/>
+      <c r="AV28" s="10"/>
+      <c r="AW28" s="10"/>
+      <c r="AX28" s="10"/>
+      <c r="AY28" s="10"/>
+      <c r="AZ28" s="10"/>
+      <c r="BA28" s="10"/>
+      <c r="BB28" s="10"/>
+      <c r="BC28" s="10"/>
+      <c r="BD28" s="10"/>
+      <c r="BE28" s="10"/>
+      <c r="BF28" s="10"/>
+      <c r="BG28" s="10"/>
+      <c r="BH28" s="10"/>
+      <c r="BI28" s="10"/>
+      <c r="BJ28" s="10"/>
+      <c r="BK28" s="10"/>
+      <c r="BL28" s="10"/>
+      <c r="BM28" s="10"/>
+      <c r="BN28" s="10"/>
+      <c r="BO28" s="10"/>
+      <c r="BP28" s="10"/>
+      <c r="BQ28" s="10"/>
+      <c r="BR28" s="10"/>
     </row>
     <row r="29" spans="1:70">
-      <c r="D29" s="34"/>
+      <c r="D29" s="10"/>
       <c r="E29" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="F29" s="34"/>
-      <c r="G29" s="34"/>
-      <c r="H29" s="34"/>
-      <c r="I29" s="34"/>
-      <c r="J29" s="34"/>
-      <c r="K29" s="34"/>
-      <c r="L29" s="34"/>
-      <c r="M29" s="34"/>
-      <c r="N29" s="34"/>
-      <c r="O29" s="34"/>
-      <c r="P29" s="34"/>
-      <c r="Q29" s="34"/>
-      <c r="R29" s="34"/>
-      <c r="S29" s="34"/>
-      <c r="T29" s="34"/>
-      <c r="U29" s="34"/>
-      <c r="V29" s="34"/>
-      <c r="W29" s="34"/>
-      <c r="X29" s="34"/>
-      <c r="Y29" s="34"/>
-      <c r="Z29" s="34"/>
-      <c r="AA29" s="34"/>
-      <c r="AB29" s="34"/>
-      <c r="AC29" s="34"/>
-      <c r="AD29" s="34"/>
-      <c r="AE29" s="34"/>
-      <c r="AF29" s="34"/>
-      <c r="AG29" s="34"/>
-      <c r="AH29" s="34"/>
-      <c r="AI29" s="34"/>
-      <c r="AJ29" s="34"/>
-      <c r="AK29" s="34"/>
-      <c r="AL29" s="34"/>
-      <c r="AM29" s="34"/>
-      <c r="AN29" s="34"/>
-      <c r="AO29" s="34"/>
-      <c r="AP29" s="34"/>
-      <c r="AQ29" s="34"/>
-      <c r="AR29" s="34"/>
-      <c r="AS29" s="34"/>
-      <c r="AT29" s="34"/>
-      <c r="AU29" s="34"/>
-      <c r="AV29" s="34"/>
-      <c r="AW29" s="34"/>
-      <c r="AX29" s="34"/>
-      <c r="AY29" s="34"/>
-      <c r="AZ29" s="34"/>
-      <c r="BA29" s="34"/>
-      <c r="BB29" s="34"/>
-      <c r="BC29" s="34"/>
-      <c r="BD29" s="34"/>
-      <c r="BE29" s="34"/>
-      <c r="BF29" s="34"/>
-      <c r="BG29" s="34"/>
-      <c r="BH29" s="34"/>
-      <c r="BI29" s="34"/>
-      <c r="BJ29" s="34"/>
-      <c r="BK29" s="34"/>
-      <c r="BL29" s="34"/>
-      <c r="BM29" s="34"/>
-      <c r="BN29" s="34"/>
-      <c r="BO29" s="34"/>
-      <c r="BP29" s="34"/>
-      <c r="BQ29" s="34"/>
-      <c r="BR29" s="34"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="10"/>
+      <c r="I29" s="10"/>
+      <c r="J29" s="10"/>
+      <c r="K29" s="10"/>
+      <c r="L29" s="10"/>
+      <c r="M29" s="10"/>
+      <c r="N29" s="10"/>
+      <c r="O29" s="10"/>
+      <c r="P29" s="10"/>
+      <c r="Q29" s="10"/>
+      <c r="R29" s="10"/>
+      <c r="S29" s="10"/>
+      <c r="T29" s="10"/>
+      <c r="U29" s="10"/>
+      <c r="V29" s="10"/>
+      <c r="W29" s="10"/>
+      <c r="X29" s="10"/>
+      <c r="Y29" s="10"/>
+      <c r="Z29" s="10"/>
+      <c r="AA29" s="10"/>
+      <c r="AB29" s="10"/>
+      <c r="AC29" s="10"/>
+      <c r="AD29" s="10"/>
+      <c r="AE29" s="10"/>
+      <c r="AF29" s="10"/>
+      <c r="AG29" s="10"/>
+      <c r="AH29" s="10"/>
+      <c r="AI29" s="10"/>
+      <c r="AJ29" s="10"/>
+      <c r="AK29" s="10"/>
+      <c r="AL29" s="10"/>
+      <c r="AM29" s="10"/>
+      <c r="AN29" s="10"/>
+      <c r="AO29" s="10"/>
+      <c r="AP29" s="10"/>
+      <c r="AQ29" s="10"/>
+      <c r="AR29" s="10"/>
+      <c r="AS29" s="10"/>
+      <c r="AT29" s="10"/>
+      <c r="AU29" s="10"/>
+      <c r="AV29" s="10"/>
+      <c r="AW29" s="10"/>
+      <c r="AX29" s="10"/>
+      <c r="AY29" s="10"/>
+      <c r="AZ29" s="10"/>
+      <c r="BA29" s="10"/>
+      <c r="BB29" s="10"/>
+      <c r="BC29" s="10"/>
+      <c r="BD29" s="10"/>
+      <c r="BE29" s="10"/>
+      <c r="BF29" s="10"/>
+      <c r="BG29" s="10"/>
+      <c r="BH29" s="10"/>
+      <c r="BI29" s="10"/>
+      <c r="BJ29" s="10"/>
+      <c r="BK29" s="10"/>
+      <c r="BL29" s="10"/>
+      <c r="BM29" s="10"/>
+      <c r="BN29" s="10"/>
+      <c r="BO29" s="10"/>
+      <c r="BP29" s="10"/>
+      <c r="BQ29" s="10"/>
+      <c r="BR29" s="10"/>
     </row>
     <row r="30" spans="1:70">
-      <c r="D30" s="34"/>
-      <c r="E30" s="34"/>
-      <c r="F30" s="34"/>
-      <c r="G30" s="34"/>
-      <c r="H30" s="34"/>
-      <c r="I30" s="34"/>
-      <c r="J30" s="34"/>
-      <c r="K30" s="34"/>
-      <c r="L30" s="34"/>
-      <c r="M30" s="34"/>
-      <c r="N30" s="34"/>
-      <c r="O30" s="34"/>
-      <c r="P30" s="34"/>
-      <c r="Q30" s="34"/>
-      <c r="R30" s="34"/>
-      <c r="S30" s="34"/>
-      <c r="T30" s="34"/>
-      <c r="U30" s="34"/>
-      <c r="V30" s="34"/>
-      <c r="W30" s="34"/>
-      <c r="X30" s="34"/>
-      <c r="Y30" s="34"/>
-      <c r="Z30" s="34"/>
-      <c r="AA30" s="34"/>
-      <c r="AB30" s="34"/>
-      <c r="AC30" s="34"/>
-      <c r="AD30" s="34"/>
-      <c r="AE30" s="34"/>
-      <c r="AF30" s="34"/>
-      <c r="AG30" s="34"/>
-      <c r="AH30" s="34"/>
-      <c r="AI30" s="34"/>
-      <c r="AJ30" s="34"/>
-      <c r="AK30" s="34"/>
-      <c r="AL30" s="34"/>
-      <c r="AM30" s="34"/>
-      <c r="AN30" s="34"/>
-      <c r="AO30" s="34"/>
-      <c r="AP30" s="34"/>
-      <c r="AQ30" s="34"/>
-      <c r="AR30" s="34"/>
-      <c r="AS30" s="34"/>
-      <c r="AT30" s="34"/>
-      <c r="AU30" s="34"/>
-      <c r="AV30" s="34"/>
-      <c r="AW30" s="34"/>
-      <c r="AX30" s="34"/>
-      <c r="AY30" s="34"/>
-      <c r="AZ30" s="34"/>
-      <c r="BA30" s="34"/>
-      <c r="BB30" s="34"/>
-      <c r="BC30" s="34"/>
-      <c r="BD30" s="34"/>
-      <c r="BE30" s="34"/>
-      <c r="BF30" s="34"/>
-      <c r="BG30" s="34"/>
-      <c r="BH30" s="34"/>
-      <c r="BI30" s="34"/>
-      <c r="BJ30" s="34"/>
-      <c r="BK30" s="34"/>
-      <c r="BL30" s="34"/>
-      <c r="BM30" s="34"/>
-      <c r="BN30" s="34"/>
-      <c r="BO30" s="34"/>
-      <c r="BP30" s="34"/>
-      <c r="BQ30" s="34"/>
-      <c r="BR30" s="34"/>
+      <c r="D30" s="10"/>
+      <c r="E30" s="10"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="10"/>
+      <c r="I30" s="10"/>
+      <c r="J30" s="10"/>
+      <c r="K30" s="10"/>
+      <c r="L30" s="10"/>
+      <c r="M30" s="10"/>
+      <c r="N30" s="10"/>
+      <c r="O30" s="10"/>
+      <c r="P30" s="10"/>
+      <c r="Q30" s="10"/>
+      <c r="R30" s="10"/>
+      <c r="S30" s="10"/>
+      <c r="T30" s="10"/>
+      <c r="U30" s="10"/>
+      <c r="V30" s="10"/>
+      <c r="W30" s="10"/>
+      <c r="X30" s="10"/>
+      <c r="Y30" s="10"/>
+      <c r="Z30" s="10"/>
+      <c r="AA30" s="10"/>
+      <c r="AB30" s="10"/>
+      <c r="AC30" s="10"/>
+      <c r="AD30" s="10"/>
+      <c r="AE30" s="10"/>
+      <c r="AF30" s="10"/>
+      <c r="AG30" s="10"/>
+      <c r="AH30" s="10"/>
+      <c r="AI30" s="10"/>
+      <c r="AJ30" s="10"/>
+      <c r="AK30" s="10"/>
+      <c r="AL30" s="10"/>
+      <c r="AM30" s="10"/>
+      <c r="AN30" s="10"/>
+      <c r="AO30" s="10"/>
+      <c r="AP30" s="10"/>
+      <c r="AQ30" s="10"/>
+      <c r="AR30" s="10"/>
+      <c r="AS30" s="10"/>
+      <c r="AT30" s="10"/>
+      <c r="AU30" s="10"/>
+      <c r="AV30" s="10"/>
+      <c r="AW30" s="10"/>
+      <c r="AX30" s="10"/>
+      <c r="AY30" s="10"/>
+      <c r="AZ30" s="10"/>
+      <c r="BA30" s="10"/>
+      <c r="BB30" s="10"/>
+      <c r="BC30" s="10"/>
+      <c r="BD30" s="10"/>
+      <c r="BE30" s="10"/>
+      <c r="BF30" s="10"/>
+      <c r="BG30" s="10"/>
+      <c r="BH30" s="10"/>
+      <c r="BI30" s="10"/>
+      <c r="BJ30" s="10"/>
+      <c r="BK30" s="10"/>
+      <c r="BL30" s="10"/>
+      <c r="BM30" s="10"/>
+      <c r="BN30" s="10"/>
+      <c r="BO30" s="10"/>
+      <c r="BP30" s="10"/>
+      <c r="BQ30" s="10"/>
+      <c r="BR30" s="10"/>
     </row>
     <row r="31" spans="1:70">
-      <c r="D31" s="34"/>
+      <c r="D31" s="10"/>
       <c r="E31" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="F31" s="34"/>
-      <c r="G31" s="34"/>
-      <c r="H31" s="34"/>
-      <c r="I31" s="34"/>
-      <c r="J31" s="34"/>
-      <c r="K31" s="34"/>
-      <c r="L31" s="34"/>
-      <c r="M31" s="34"/>
-      <c r="N31" s="34"/>
-      <c r="O31" s="34"/>
-      <c r="P31" s="34"/>
-      <c r="Q31" s="34"/>
-      <c r="R31" s="34"/>
-      <c r="S31" s="34"/>
-      <c r="T31" s="34"/>
-      <c r="U31" s="34"/>
-      <c r="V31" s="34"/>
-      <c r="W31" s="34"/>
-      <c r="X31" s="34"/>
-      <c r="Y31" s="34"/>
-      <c r="Z31" s="34"/>
-      <c r="AA31" s="34"/>
-      <c r="AB31" s="34"/>
-      <c r="AC31" s="34"/>
-      <c r="AD31" s="34"/>
-      <c r="AE31" s="34"/>
-      <c r="AF31" s="34"/>
-      <c r="AG31" s="34"/>
-      <c r="AH31" s="34"/>
-      <c r="AI31" s="34"/>
-      <c r="AJ31" s="34"/>
-      <c r="AK31" s="34"/>
-      <c r="AL31" s="34"/>
-      <c r="AM31" s="34"/>
-      <c r="AN31" s="34"/>
-      <c r="AO31" s="34"/>
-      <c r="AP31" s="34"/>
-      <c r="AQ31" s="34"/>
-      <c r="AR31" s="34"/>
-      <c r="AS31" s="34"/>
-      <c r="AT31" s="34"/>
-      <c r="AU31" s="34"/>
-      <c r="AV31" s="34"/>
-      <c r="AW31" s="34"/>
-      <c r="AX31" s="34"/>
-      <c r="AY31" s="34"/>
-      <c r="AZ31" s="34"/>
-      <c r="BA31" s="34"/>
-      <c r="BB31" s="34"/>
-      <c r="BC31" s="34"/>
-      <c r="BD31" s="34"/>
-      <c r="BE31" s="34"/>
-      <c r="BF31" s="34"/>
-      <c r="BG31" s="34"/>
-      <c r="BH31" s="34"/>
-      <c r="BI31" s="34"/>
-      <c r="BJ31" s="34"/>
-      <c r="BK31" s="34"/>
-      <c r="BL31" s="34"/>
-      <c r="BM31" s="34"/>
-      <c r="BN31" s="34"/>
-      <c r="BO31" s="34"/>
-      <c r="BP31" s="34"/>
-      <c r="BQ31" s="34"/>
-      <c r="BR31" s="34"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="10"/>
+      <c r="I31" s="10"/>
+      <c r="J31" s="10"/>
+      <c r="K31" s="10"/>
+      <c r="L31" s="10"/>
+      <c r="M31" s="10"/>
+      <c r="N31" s="10"/>
+      <c r="O31" s="10"/>
+      <c r="P31" s="10"/>
+      <c r="Q31" s="10"/>
+      <c r="R31" s="10"/>
+      <c r="S31" s="10"/>
+      <c r="T31" s="10"/>
+      <c r="U31" s="10"/>
+      <c r="V31" s="10"/>
+      <c r="W31" s="10"/>
+      <c r="X31" s="10"/>
+      <c r="Y31" s="10"/>
+      <c r="Z31" s="10"/>
+      <c r="AA31" s="10"/>
+      <c r="AB31" s="10"/>
+      <c r="AC31" s="10"/>
+      <c r="AD31" s="10"/>
+      <c r="AE31" s="10"/>
+      <c r="AF31" s="10"/>
+      <c r="AG31" s="10"/>
+      <c r="AH31" s="10"/>
+      <c r="AI31" s="10"/>
+      <c r="AJ31" s="10"/>
+      <c r="AK31" s="10"/>
+      <c r="AL31" s="10"/>
+      <c r="AM31" s="10"/>
+      <c r="AN31" s="10"/>
+      <c r="AO31" s="10"/>
+      <c r="AP31" s="10"/>
+      <c r="AQ31" s="10"/>
+      <c r="AR31" s="10"/>
+      <c r="AS31" s="10"/>
+      <c r="AT31" s="10"/>
+      <c r="AU31" s="10"/>
+      <c r="AV31" s="10"/>
+      <c r="AW31" s="10"/>
+      <c r="AX31" s="10"/>
+      <c r="AY31" s="10"/>
+      <c r="AZ31" s="10"/>
+      <c r="BA31" s="10"/>
+      <c r="BB31" s="10"/>
+      <c r="BC31" s="10"/>
+      <c r="BD31" s="10"/>
+      <c r="BE31" s="10"/>
+      <c r="BF31" s="10"/>
+      <c r="BG31" s="10"/>
+      <c r="BH31" s="10"/>
+      <c r="BI31" s="10"/>
+      <c r="BJ31" s="10"/>
+      <c r="BK31" s="10"/>
+      <c r="BL31" s="10"/>
+      <c r="BM31" s="10"/>
+      <c r="BN31" s="10"/>
+      <c r="BO31" s="10"/>
+      <c r="BP31" s="10"/>
+      <c r="BQ31" s="10"/>
+      <c r="BR31" s="10"/>
     </row>
     <row r="32" spans="1:70">
-      <c r="D32" s="34"/>
-      <c r="E32" s="34"/>
-      <c r="F32" s="34"/>
-      <c r="G32" s="34"/>
-      <c r="H32" s="34"/>
-      <c r="I32" s="34"/>
-      <c r="J32" s="34"/>
-      <c r="K32" s="34"/>
-      <c r="L32" s="34"/>
-      <c r="M32" s="34"/>
-      <c r="N32" s="34"/>
-      <c r="O32" s="34"/>
-      <c r="P32" s="34"/>
-      <c r="Q32" s="34"/>
-      <c r="R32" s="34"/>
-      <c r="S32" s="34"/>
-      <c r="T32" s="34"/>
-      <c r="U32" s="34"/>
-      <c r="V32" s="34"/>
-      <c r="W32" s="34"/>
-      <c r="X32" s="34"/>
-      <c r="Y32" s="34"/>
-      <c r="Z32" s="34"/>
-      <c r="AA32" s="34"/>
-      <c r="AB32" s="34"/>
-      <c r="AC32" s="34"/>
-      <c r="AD32" s="34"/>
-      <c r="AE32" s="34"/>
-      <c r="AF32" s="34"/>
-      <c r="AG32" s="34"/>
-      <c r="AH32" s="34"/>
-      <c r="AI32" s="34"/>
-      <c r="AJ32" s="34"/>
-      <c r="AK32" s="34"/>
-      <c r="AL32" s="34"/>
-      <c r="AM32" s="34"/>
-      <c r="AN32" s="34"/>
-      <c r="AO32" s="34"/>
-      <c r="AP32" s="34"/>
-      <c r="AQ32" s="34"/>
-      <c r="AR32" s="34"/>
-      <c r="AS32" s="34"/>
-      <c r="AT32" s="34"/>
-      <c r="AU32" s="34"/>
-      <c r="AV32" s="34"/>
-      <c r="AW32" s="34"/>
-      <c r="AX32" s="34"/>
-      <c r="AY32" s="34"/>
-      <c r="AZ32" s="34"/>
-      <c r="BA32" s="34"/>
-      <c r="BB32" s="34"/>
-      <c r="BC32" s="34"/>
-      <c r="BD32" s="34"/>
-      <c r="BE32" s="34"/>
-      <c r="BF32" s="34"/>
-      <c r="BG32" s="34"/>
-      <c r="BH32" s="34"/>
-      <c r="BI32" s="34"/>
-      <c r="BJ32" s="34"/>
-      <c r="BK32" s="34"/>
-      <c r="BL32" s="34"/>
-      <c r="BM32" s="34"/>
-      <c r="BN32" s="34"/>
-      <c r="BO32" s="34"/>
-      <c r="BP32" s="34"/>
-      <c r="BQ32" s="34"/>
-      <c r="BR32" s="34"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="10"/>
+      <c r="H32" s="10"/>
+      <c r="I32" s="10"/>
+      <c r="J32" s="10"/>
+      <c r="K32" s="10"/>
+      <c r="L32" s="10"/>
+      <c r="M32" s="10"/>
+      <c r="N32" s="10"/>
+      <c r="O32" s="10"/>
+      <c r="P32" s="10"/>
+      <c r="Q32" s="10"/>
+      <c r="R32" s="10"/>
+      <c r="S32" s="10"/>
+      <c r="T32" s="10"/>
+      <c r="U32" s="10"/>
+      <c r="V32" s="10"/>
+      <c r="W32" s="10"/>
+      <c r="X32" s="10"/>
+      <c r="Y32" s="10"/>
+      <c r="Z32" s="10"/>
+      <c r="AA32" s="10"/>
+      <c r="AB32" s="10"/>
+      <c r="AC32" s="10"/>
+      <c r="AD32" s="10"/>
+      <c r="AE32" s="10"/>
+      <c r="AF32" s="10"/>
+      <c r="AG32" s="10"/>
+      <c r="AH32" s="10"/>
+      <c r="AI32" s="10"/>
+      <c r="AJ32" s="10"/>
+      <c r="AK32" s="10"/>
+      <c r="AL32" s="10"/>
+      <c r="AM32" s="10"/>
+      <c r="AN32" s="10"/>
+      <c r="AO32" s="10"/>
+      <c r="AP32" s="10"/>
+      <c r="AQ32" s="10"/>
+      <c r="AR32" s="10"/>
+      <c r="AS32" s="10"/>
+      <c r="AT32" s="10"/>
+      <c r="AU32" s="10"/>
+      <c r="AV32" s="10"/>
+      <c r="AW32" s="10"/>
+      <c r="AX32" s="10"/>
+      <c r="AY32" s="10"/>
+      <c r="AZ32" s="10"/>
+      <c r="BA32" s="10"/>
+      <c r="BB32" s="10"/>
+      <c r="BC32" s="10"/>
+      <c r="BD32" s="10"/>
+      <c r="BE32" s="10"/>
+      <c r="BF32" s="10"/>
+      <c r="BG32" s="10"/>
+      <c r="BH32" s="10"/>
+      <c r="BI32" s="10"/>
+      <c r="BJ32" s="10"/>
+      <c r="BK32" s="10"/>
+      <c r="BL32" s="10"/>
+      <c r="BM32" s="10"/>
+      <c r="BN32" s="10"/>
+      <c r="BO32" s="10"/>
+      <c r="BP32" s="10"/>
+      <c r="BQ32" s="10"/>
+      <c r="BR32" s="10"/>
     </row>
     <row r="34" spans="1:52">
       <c r="D34" t="s">
@@ -3115,69 +3621,69 @@
       <c r="AZ41" s="4"/>
     </row>
     <row r="43" spans="1:52">
-      <c r="D43" s="34"/>
-      <c r="E43" s="34"/>
-      <c r="F43" s="34"/>
-      <c r="G43" s="34"/>
-      <c r="H43" s="34"/>
-      <c r="I43" s="34"/>
-      <c r="J43" s="34"/>
-      <c r="K43" s="34"/>
-      <c r="L43" s="34"/>
-      <c r="M43" s="34"/>
-      <c r="N43" s="34"/>
-      <c r="O43" s="34"/>
-      <c r="P43" s="34"/>
-      <c r="Q43" s="34"/>
-      <c r="R43" s="34"/>
-      <c r="S43" s="34"/>
-      <c r="T43" s="34"/>
-      <c r="U43" s="34"/>
-      <c r="V43" s="34"/>
+      <c r="D43" s="10"/>
+      <c r="E43" s="10"/>
+      <c r="F43" s="10"/>
+      <c r="G43" s="10"/>
+      <c r="H43" s="10"/>
+      <c r="I43" s="10"/>
+      <c r="J43" s="10"/>
+      <c r="K43" s="10"/>
+      <c r="L43" s="10"/>
+      <c r="M43" s="10"/>
+      <c r="N43" s="10"/>
+      <c r="O43" s="10"/>
+      <c r="P43" s="10"/>
+      <c r="Q43" s="10"/>
+      <c r="R43" s="10"/>
+      <c r="S43" s="10"/>
+      <c r="T43" s="10"/>
+      <c r="U43" s="10"/>
+      <c r="V43" s="10"/>
     </row>
     <row r="44" spans="1:52">
-      <c r="D44" s="34"/>
+      <c r="D44" s="10"/>
       <c r="E44" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="F44" s="34"/>
-      <c r="G44" s="34"/>
-      <c r="H44" s="34"/>
-      <c r="I44" s="34"/>
-      <c r="J44" s="34"/>
-      <c r="K44" s="34"/>
-      <c r="L44" s="34"/>
-      <c r="M44" s="34"/>
-      <c r="N44" s="34"/>
-      <c r="O44" s="34"/>
-      <c r="P44" s="34"/>
-      <c r="Q44" s="34"/>
-      <c r="R44" s="34"/>
-      <c r="S44" s="34"/>
-      <c r="T44" s="34"/>
-      <c r="U44" s="34"/>
-      <c r="V44" s="34"/>
+      <c r="F44" s="10"/>
+      <c r="G44" s="10"/>
+      <c r="H44" s="10"/>
+      <c r="I44" s="10"/>
+      <c r="J44" s="10"/>
+      <c r="K44" s="10"/>
+      <c r="L44" s="10"/>
+      <c r="M44" s="10"/>
+      <c r="N44" s="10"/>
+      <c r="O44" s="10"/>
+      <c r="P44" s="10"/>
+      <c r="Q44" s="10"/>
+      <c r="R44" s="10"/>
+      <c r="S44" s="10"/>
+      <c r="T44" s="10"/>
+      <c r="U44" s="10"/>
+      <c r="V44" s="10"/>
     </row>
     <row r="45" spans="1:52">
-      <c r="D45" s="34"/>
-      <c r="E45" s="34"/>
-      <c r="F45" s="34"/>
-      <c r="G45" s="34"/>
-      <c r="H45" s="34"/>
-      <c r="I45" s="34"/>
-      <c r="J45" s="34"/>
-      <c r="K45" s="34"/>
-      <c r="L45" s="34"/>
-      <c r="M45" s="34"/>
-      <c r="N45" s="34"/>
-      <c r="O45" s="34"/>
-      <c r="P45" s="34"/>
-      <c r="Q45" s="34"/>
-      <c r="R45" s="34"/>
-      <c r="S45" s="34"/>
-      <c r="T45" s="34"/>
-      <c r="U45" s="34"/>
-      <c r="V45" s="34"/>
+      <c r="D45" s="10"/>
+      <c r="E45" s="10"/>
+      <c r="F45" s="10"/>
+      <c r="G45" s="10"/>
+      <c r="H45" s="10"/>
+      <c r="I45" s="10"/>
+      <c r="J45" s="10"/>
+      <c r="K45" s="10"/>
+      <c r="L45" s="10"/>
+      <c r="M45" s="10"/>
+      <c r="N45" s="10"/>
+      <c r="O45" s="10"/>
+      <c r="P45" s="10"/>
+      <c r="Q45" s="10"/>
+      <c r="R45" s="10"/>
+      <c r="S45" s="10"/>
+      <c r="T45" s="10"/>
+      <c r="U45" s="10"/>
+      <c r="V45" s="10"/>
     </row>
     <row r="47" spans="1:52">
       <c r="D47" t="s">
@@ -3198,12 +3704,12 @@
       <c r="D50" s="3"/>
     </row>
     <row r="51" spans="1:52">
-      <c r="D51" s="35" t="s">
+      <c r="D51" s="11" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="52" spans="1:52">
-      <c r="D52" s="35" t="s">
+      <c r="D52" s="11" t="s">
         <v>85</v>
       </c>
     </row>
@@ -3271,90 +3777,90 @@
       <c r="AZ56" s="4"/>
     </row>
     <row r="58" spans="1:52">
-      <c r="D58" s="34"/>
-      <c r="E58" s="34"/>
-      <c r="F58" s="34"/>
-      <c r="G58" s="34"/>
-      <c r="H58" s="34"/>
-      <c r="I58" s="34"/>
-      <c r="J58" s="34"/>
-      <c r="K58" s="34"/>
-      <c r="L58" s="34"/>
-      <c r="M58" s="34"/>
-      <c r="N58" s="34"/>
-      <c r="O58" s="34"/>
-      <c r="P58" s="34"/>
-      <c r="Q58" s="34"/>
-      <c r="R58" s="34"/>
-      <c r="S58" s="34"/>
-      <c r="T58" s="34"/>
-      <c r="U58" s="34"/>
-      <c r="V58" s="34"/>
-      <c r="W58" s="34"/>
-      <c r="X58" s="34"/>
-      <c r="Y58" s="34"/>
-      <c r="Z58" s="34"/>
-      <c r="AA58" s="34"/>
-      <c r="AB58" s="34"/>
-      <c r="AC58" s="34"/>
+      <c r="D58" s="10"/>
+      <c r="E58" s="10"/>
+      <c r="F58" s="10"/>
+      <c r="G58" s="10"/>
+      <c r="H58" s="10"/>
+      <c r="I58" s="10"/>
+      <c r="J58" s="10"/>
+      <c r="K58" s="10"/>
+      <c r="L58" s="10"/>
+      <c r="M58" s="10"/>
+      <c r="N58" s="10"/>
+      <c r="O58" s="10"/>
+      <c r="P58" s="10"/>
+      <c r="Q58" s="10"/>
+      <c r="R58" s="10"/>
+      <c r="S58" s="10"/>
+      <c r="T58" s="10"/>
+      <c r="U58" s="10"/>
+      <c r="V58" s="10"/>
+      <c r="W58" s="10"/>
+      <c r="X58" s="10"/>
+      <c r="Y58" s="10"/>
+      <c r="Z58" s="10"/>
+      <c r="AA58" s="10"/>
+      <c r="AB58" s="10"/>
+      <c r="AC58" s="10"/>
     </row>
     <row r="59" spans="1:52">
-      <c r="D59" s="34"/>
+      <c r="D59" s="10"/>
       <c r="E59" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="F59" s="34"/>
-      <c r="G59" s="34"/>
-      <c r="H59" s="34"/>
-      <c r="I59" s="34"/>
-      <c r="J59" s="34"/>
-      <c r="K59" s="34"/>
-      <c r="L59" s="34"/>
-      <c r="M59" s="34"/>
-      <c r="N59" s="34"/>
-      <c r="O59" s="34"/>
-      <c r="P59" s="34"/>
-      <c r="Q59" s="34"/>
-      <c r="R59" s="34"/>
-      <c r="S59" s="34"/>
-      <c r="T59" s="34"/>
-      <c r="U59" s="34"/>
-      <c r="V59" s="34"/>
-      <c r="W59" s="34"/>
-      <c r="X59" s="34"/>
-      <c r="Y59" s="34"/>
-      <c r="Z59" s="34"/>
-      <c r="AA59" s="34"/>
-      <c r="AB59" s="34"/>
-      <c r="AC59" s="34"/>
+      <c r="F59" s="10"/>
+      <c r="G59" s="10"/>
+      <c r="H59" s="10"/>
+      <c r="I59" s="10"/>
+      <c r="J59" s="10"/>
+      <c r="K59" s="10"/>
+      <c r="L59" s="10"/>
+      <c r="M59" s="10"/>
+      <c r="N59" s="10"/>
+      <c r="O59" s="10"/>
+      <c r="P59" s="10"/>
+      <c r="Q59" s="10"/>
+      <c r="R59" s="10"/>
+      <c r="S59" s="10"/>
+      <c r="T59" s="10"/>
+      <c r="U59" s="10"/>
+      <c r="V59" s="10"/>
+      <c r="W59" s="10"/>
+      <c r="X59" s="10"/>
+      <c r="Y59" s="10"/>
+      <c r="Z59" s="10"/>
+      <c r="AA59" s="10"/>
+      <c r="AB59" s="10"/>
+      <c r="AC59" s="10"/>
     </row>
     <row r="60" spans="1:52">
-      <c r="D60" s="34"/>
-      <c r="E60" s="34"/>
-      <c r="F60" s="34"/>
-      <c r="G60" s="34"/>
-      <c r="H60" s="34"/>
-      <c r="I60" s="34"/>
-      <c r="J60" s="34"/>
-      <c r="K60" s="34"/>
-      <c r="L60" s="34"/>
-      <c r="M60" s="34"/>
-      <c r="N60" s="34"/>
-      <c r="O60" s="34"/>
-      <c r="P60" s="34"/>
-      <c r="Q60" s="34"/>
-      <c r="R60" s="34"/>
-      <c r="S60" s="34"/>
-      <c r="T60" s="34"/>
-      <c r="U60" s="34"/>
-      <c r="V60" s="34"/>
-      <c r="W60" s="34"/>
-      <c r="X60" s="34"/>
-      <c r="Y60" s="34"/>
-      <c r="Z60" s="34"/>
-      <c r="AA60" s="34"/>
-      <c r="AB60" s="34"/>
-      <c r="AC60" s="34"/>
+      <c r="D60" s="10"/>
+      <c r="E60" s="10"/>
+      <c r="F60" s="10"/>
+      <c r="G60" s="10"/>
+      <c r="H60" s="10"/>
+      <c r="I60" s="10"/>
+      <c r="J60" s="10"/>
+      <c r="K60" s="10"/>
+      <c r="L60" s="10"/>
+      <c r="M60" s="10"/>
+      <c r="N60" s="10"/>
+      <c r="O60" s="10"/>
+      <c r="P60" s="10"/>
+      <c r="Q60" s="10"/>
+      <c r="R60" s="10"/>
+      <c r="S60" s="10"/>
+      <c r="T60" s="10"/>
+      <c r="U60" s="10"/>
+      <c r="V60" s="10"/>
+      <c r="W60" s="10"/>
+      <c r="X60" s="10"/>
+      <c r="Y60" s="10"/>
+      <c r="Z60" s="10"/>
+      <c r="AA60" s="10"/>
+      <c r="AB60" s="10"/>
+      <c r="AC60" s="10"/>
     </row>
     <row r="62" spans="1:52">
       <c r="D62" t="s">
@@ -3435,138 +3941,138 @@
       <c r="AZ69" s="4"/>
     </row>
     <row r="71" spans="1:52">
-      <c r="D71" s="34"/>
-      <c r="E71" s="34"/>
-      <c r="F71" s="34"/>
-      <c r="G71" s="34"/>
-      <c r="H71" s="34"/>
-      <c r="I71" s="34"/>
-      <c r="J71" s="34"/>
-      <c r="K71" s="34"/>
-      <c r="L71" s="34"/>
-      <c r="M71" s="34"/>
-      <c r="N71" s="34"/>
-      <c r="O71" s="34"/>
-      <c r="P71" s="34"/>
-      <c r="Q71" s="34"/>
-      <c r="R71" s="34"/>
-      <c r="S71" s="34"/>
-      <c r="T71" s="34"/>
-      <c r="U71" s="34"/>
-      <c r="V71" s="34"/>
-      <c r="W71" s="34"/>
-      <c r="X71" s="34"/>
-      <c r="Y71" s="34"/>
-      <c r="Z71" s="34"/>
-      <c r="AA71" s="34"/>
-      <c r="AB71" s="34"/>
-      <c r="AC71" s="34"/>
-      <c r="AD71" s="34"/>
-      <c r="AE71" s="34"/>
-      <c r="AF71" s="34"/>
-      <c r="AG71" s="34"/>
-      <c r="AH71" s="34"/>
-      <c r="AI71" s="34"/>
-      <c r="AJ71" s="34"/>
-      <c r="AK71" s="34"/>
-      <c r="AL71" s="34"/>
-      <c r="AM71" s="34"/>
-      <c r="AN71" s="34"/>
-      <c r="AO71" s="34"/>
-      <c r="AP71" s="34"/>
-      <c r="AQ71" s="34"/>
-      <c r="AR71" s="34"/>
-      <c r="AS71" s="34"/>
+      <c r="D71" s="10"/>
+      <c r="E71" s="10"/>
+      <c r="F71" s="10"/>
+      <c r="G71" s="10"/>
+      <c r="H71" s="10"/>
+      <c r="I71" s="10"/>
+      <c r="J71" s="10"/>
+      <c r="K71" s="10"/>
+      <c r="L71" s="10"/>
+      <c r="M71" s="10"/>
+      <c r="N71" s="10"/>
+      <c r="O71" s="10"/>
+      <c r="P71" s="10"/>
+      <c r="Q71" s="10"/>
+      <c r="R71" s="10"/>
+      <c r="S71" s="10"/>
+      <c r="T71" s="10"/>
+      <c r="U71" s="10"/>
+      <c r="V71" s="10"/>
+      <c r="W71" s="10"/>
+      <c r="X71" s="10"/>
+      <c r="Y71" s="10"/>
+      <c r="Z71" s="10"/>
+      <c r="AA71" s="10"/>
+      <c r="AB71" s="10"/>
+      <c r="AC71" s="10"/>
+      <c r="AD71" s="10"/>
+      <c r="AE71" s="10"/>
+      <c r="AF71" s="10"/>
+      <c r="AG71" s="10"/>
+      <c r="AH71" s="10"/>
+      <c r="AI71" s="10"/>
+      <c r="AJ71" s="10"/>
+      <c r="AK71" s="10"/>
+      <c r="AL71" s="10"/>
+      <c r="AM71" s="10"/>
+      <c r="AN71" s="10"/>
+      <c r="AO71" s="10"/>
+      <c r="AP71" s="10"/>
+      <c r="AQ71" s="10"/>
+      <c r="AR71" s="10"/>
+      <c r="AS71" s="10"/>
     </row>
     <row r="72" spans="1:52">
-      <c r="D72" s="34"/>
+      <c r="D72" s="10"/>
       <c r="E72" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="F72" s="34"/>
-      <c r="G72" s="34"/>
-      <c r="H72" s="34"/>
-      <c r="I72" s="34"/>
-      <c r="J72" s="34"/>
-      <c r="K72" s="34"/>
-      <c r="L72" s="34"/>
-      <c r="M72" s="34"/>
-      <c r="N72" s="34"/>
-      <c r="O72" s="34"/>
-      <c r="P72" s="34"/>
-      <c r="Q72" s="34"/>
-      <c r="R72" s="34"/>
-      <c r="S72" s="34"/>
-      <c r="T72" s="34"/>
-      <c r="U72" s="34"/>
-      <c r="V72" s="34"/>
-      <c r="W72" s="34"/>
-      <c r="X72" s="34"/>
-      <c r="Y72" s="34"/>
-      <c r="Z72" s="34"/>
-      <c r="AA72" s="34"/>
-      <c r="AB72" s="34"/>
-      <c r="AC72" s="34"/>
-      <c r="AD72" s="34"/>
-      <c r="AE72" s="34"/>
-      <c r="AF72" s="34"/>
-      <c r="AG72" s="34"/>
-      <c r="AH72" s="34"/>
-      <c r="AI72" s="34"/>
-      <c r="AJ72" s="34"/>
-      <c r="AK72" s="34"/>
-      <c r="AL72" s="34"/>
-      <c r="AM72" s="34"/>
-      <c r="AN72" s="34"/>
-      <c r="AO72" s="34"/>
-      <c r="AP72" s="34"/>
-      <c r="AQ72" s="34"/>
-      <c r="AR72" s="34"/>
-      <c r="AS72" s="34"/>
+      <c r="F72" s="10"/>
+      <c r="G72" s="10"/>
+      <c r="H72" s="10"/>
+      <c r="I72" s="10"/>
+      <c r="J72" s="10"/>
+      <c r="K72" s="10"/>
+      <c r="L72" s="10"/>
+      <c r="M72" s="10"/>
+      <c r="N72" s="10"/>
+      <c r="O72" s="10"/>
+      <c r="P72" s="10"/>
+      <c r="Q72" s="10"/>
+      <c r="R72" s="10"/>
+      <c r="S72" s="10"/>
+      <c r="T72" s="10"/>
+      <c r="U72" s="10"/>
+      <c r="V72" s="10"/>
+      <c r="W72" s="10"/>
+      <c r="X72" s="10"/>
+      <c r="Y72" s="10"/>
+      <c r="Z72" s="10"/>
+      <c r="AA72" s="10"/>
+      <c r="AB72" s="10"/>
+      <c r="AC72" s="10"/>
+      <c r="AD72" s="10"/>
+      <c r="AE72" s="10"/>
+      <c r="AF72" s="10"/>
+      <c r="AG72" s="10"/>
+      <c r="AH72" s="10"/>
+      <c r="AI72" s="10"/>
+      <c r="AJ72" s="10"/>
+      <c r="AK72" s="10"/>
+      <c r="AL72" s="10"/>
+      <c r="AM72" s="10"/>
+      <c r="AN72" s="10"/>
+      <c r="AO72" s="10"/>
+      <c r="AP72" s="10"/>
+      <c r="AQ72" s="10"/>
+      <c r="AR72" s="10"/>
+      <c r="AS72" s="10"/>
     </row>
     <row r="73" spans="1:52">
-      <c r="D73" s="34"/>
-      <c r="E73" s="34"/>
-      <c r="F73" s="34"/>
-      <c r="G73" s="34"/>
-      <c r="H73" s="34"/>
-      <c r="I73" s="34"/>
-      <c r="J73" s="34"/>
-      <c r="K73" s="34"/>
-      <c r="L73" s="34"/>
-      <c r="M73" s="34"/>
-      <c r="N73" s="34"/>
-      <c r="O73" s="34"/>
-      <c r="P73" s="34"/>
-      <c r="Q73" s="34"/>
-      <c r="R73" s="34"/>
-      <c r="S73" s="34"/>
-      <c r="T73" s="34"/>
-      <c r="U73" s="34"/>
-      <c r="V73" s="34"/>
-      <c r="W73" s="34"/>
-      <c r="X73" s="34"/>
-      <c r="Y73" s="34"/>
-      <c r="Z73" s="34"/>
-      <c r="AA73" s="34"/>
-      <c r="AB73" s="34"/>
-      <c r="AC73" s="34"/>
-      <c r="AD73" s="34"/>
-      <c r="AE73" s="34"/>
-      <c r="AF73" s="34"/>
-      <c r="AG73" s="34"/>
-      <c r="AH73" s="34"/>
-      <c r="AI73" s="34"/>
-      <c r="AJ73" s="34"/>
-      <c r="AK73" s="34"/>
-      <c r="AL73" s="34"/>
-      <c r="AM73" s="34"/>
-      <c r="AN73" s="34"/>
-      <c r="AO73" s="34"/>
-      <c r="AP73" s="34"/>
-      <c r="AQ73" s="34"/>
-      <c r="AR73" s="34"/>
-      <c r="AS73" s="34"/>
+      <c r="D73" s="10"/>
+      <c r="E73" s="10"/>
+      <c r="F73" s="10"/>
+      <c r="G73" s="10"/>
+      <c r="H73" s="10"/>
+      <c r="I73" s="10"/>
+      <c r="J73" s="10"/>
+      <c r="K73" s="10"/>
+      <c r="L73" s="10"/>
+      <c r="M73" s="10"/>
+      <c r="N73" s="10"/>
+      <c r="O73" s="10"/>
+      <c r="P73" s="10"/>
+      <c r="Q73" s="10"/>
+      <c r="R73" s="10"/>
+      <c r="S73" s="10"/>
+      <c r="T73" s="10"/>
+      <c r="U73" s="10"/>
+      <c r="V73" s="10"/>
+      <c r="W73" s="10"/>
+      <c r="X73" s="10"/>
+      <c r="Y73" s="10"/>
+      <c r="Z73" s="10"/>
+      <c r="AA73" s="10"/>
+      <c r="AB73" s="10"/>
+      <c r="AC73" s="10"/>
+      <c r="AD73" s="10"/>
+      <c r="AE73" s="10"/>
+      <c r="AF73" s="10"/>
+      <c r="AG73" s="10"/>
+      <c r="AH73" s="10"/>
+      <c r="AI73" s="10"/>
+      <c r="AJ73" s="10"/>
+      <c r="AK73" s="10"/>
+      <c r="AL73" s="10"/>
+      <c r="AM73" s="10"/>
+      <c r="AN73" s="10"/>
+      <c r="AO73" s="10"/>
+      <c r="AP73" s="10"/>
+      <c r="AQ73" s="10"/>
+      <c r="AR73" s="10"/>
+      <c r="AS73" s="10"/>
     </row>
     <row r="75" spans="1:52">
       <c r="D75" t="s">
@@ -3657,75 +4163,75 @@
       <c r="AZ84" s="4"/>
     </row>
     <row r="86" spans="1:52">
-      <c r="D86" s="34"/>
-      <c r="E86" s="34"/>
-      <c r="F86" s="34"/>
-      <c r="G86" s="34"/>
-      <c r="H86" s="34"/>
-      <c r="I86" s="34"/>
-      <c r="J86" s="34"/>
-      <c r="K86" s="34"/>
-      <c r="L86" s="34"/>
-      <c r="M86" s="34"/>
-      <c r="N86" s="34"/>
-      <c r="O86" s="34"/>
-      <c r="P86" s="34"/>
-      <c r="Q86" s="34"/>
-      <c r="R86" s="34"/>
-      <c r="S86" s="34"/>
-      <c r="T86" s="34"/>
-      <c r="U86" s="34"/>
-      <c r="V86" s="34"/>
-      <c r="W86" s="34"/>
-      <c r="X86" s="34"/>
+      <c r="D86" s="10"/>
+      <c r="E86" s="10"/>
+      <c r="F86" s="10"/>
+      <c r="G86" s="10"/>
+      <c r="H86" s="10"/>
+      <c r="I86" s="10"/>
+      <c r="J86" s="10"/>
+      <c r="K86" s="10"/>
+      <c r="L86" s="10"/>
+      <c r="M86" s="10"/>
+      <c r="N86" s="10"/>
+      <c r="O86" s="10"/>
+      <c r="P86" s="10"/>
+      <c r="Q86" s="10"/>
+      <c r="R86" s="10"/>
+      <c r="S86" s="10"/>
+      <c r="T86" s="10"/>
+      <c r="U86" s="10"/>
+      <c r="V86" s="10"/>
+      <c r="W86" s="10"/>
+      <c r="X86" s="10"/>
     </row>
     <row r="87" spans="1:52">
-      <c r="D87" s="34"/>
+      <c r="D87" s="10"/>
       <c r="E87" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="F87" s="34"/>
-      <c r="G87" s="34"/>
-      <c r="H87" s="34"/>
-      <c r="I87" s="34"/>
-      <c r="J87" s="34"/>
-      <c r="K87" s="34"/>
-      <c r="L87" s="34"/>
-      <c r="M87" s="34"/>
-      <c r="N87" s="34"/>
-      <c r="O87" s="34"/>
-      <c r="P87" s="34"/>
-      <c r="Q87" s="34"/>
-      <c r="R87" s="34"/>
-      <c r="S87" s="34"/>
-      <c r="T87" s="34"/>
-      <c r="U87" s="34"/>
-      <c r="V87" s="34"/>
-      <c r="W87" s="34"/>
-      <c r="X87" s="34"/>
+      <c r="F87" s="10"/>
+      <c r="G87" s="10"/>
+      <c r="H87" s="10"/>
+      <c r="I87" s="10"/>
+      <c r="J87" s="10"/>
+      <c r="K87" s="10"/>
+      <c r="L87" s="10"/>
+      <c r="M87" s="10"/>
+      <c r="N87" s="10"/>
+      <c r="O87" s="10"/>
+      <c r="P87" s="10"/>
+      <c r="Q87" s="10"/>
+      <c r="R87" s="10"/>
+      <c r="S87" s="10"/>
+      <c r="T87" s="10"/>
+      <c r="U87" s="10"/>
+      <c r="V87" s="10"/>
+      <c r="W87" s="10"/>
+      <c r="X87" s="10"/>
     </row>
     <row r="88" spans="1:52">
-      <c r="D88" s="34"/>
-      <c r="E88" s="34"/>
-      <c r="F88" s="34"/>
-      <c r="G88" s="34"/>
-      <c r="H88" s="34"/>
-      <c r="I88" s="34"/>
-      <c r="J88" s="34"/>
-      <c r="K88" s="34"/>
-      <c r="L88" s="34"/>
-      <c r="M88" s="34"/>
-      <c r="N88" s="34"/>
-      <c r="O88" s="34"/>
-      <c r="P88" s="34"/>
-      <c r="Q88" s="34"/>
-      <c r="R88" s="34"/>
-      <c r="S88" s="34"/>
-      <c r="T88" s="34"/>
-      <c r="U88" s="34"/>
-      <c r="V88" s="34"/>
-      <c r="W88" s="34"/>
-      <c r="X88" s="34"/>
+      <c r="D88" s="10"/>
+      <c r="E88" s="10"/>
+      <c r="F88" s="10"/>
+      <c r="G88" s="10"/>
+      <c r="H88" s="10"/>
+      <c r="I88" s="10"/>
+      <c r="J88" s="10"/>
+      <c r="K88" s="10"/>
+      <c r="L88" s="10"/>
+      <c r="M88" s="10"/>
+      <c r="N88" s="10"/>
+      <c r="O88" s="10"/>
+      <c r="P88" s="10"/>
+      <c r="Q88" s="10"/>
+      <c r="R88" s="10"/>
+      <c r="S88" s="10"/>
+      <c r="T88" s="10"/>
+      <c r="U88" s="10"/>
+      <c r="V88" s="10"/>
+      <c r="W88" s="10"/>
+      <c r="X88" s="10"/>
     </row>
     <row r="90" spans="1:52">
       <c r="D90" t="s">
@@ -3806,90 +4312,90 @@
       <c r="AZ96" s="4"/>
     </row>
     <row r="98" spans="1:52">
-      <c r="D98" s="34"/>
-      <c r="E98" s="34"/>
-      <c r="F98" s="34"/>
-      <c r="G98" s="34"/>
-      <c r="H98" s="34"/>
-      <c r="I98" s="34"/>
-      <c r="J98" s="34"/>
-      <c r="K98" s="34"/>
-      <c r="L98" s="34"/>
-      <c r="M98" s="34"/>
-      <c r="N98" s="34"/>
-      <c r="O98" s="34"/>
-      <c r="P98" s="34"/>
-      <c r="Q98" s="34"/>
-      <c r="R98" s="34"/>
-      <c r="S98" s="34"/>
-      <c r="T98" s="34"/>
-      <c r="U98" s="34"/>
-      <c r="V98" s="34"/>
-      <c r="W98" s="34"/>
-      <c r="X98" s="34"/>
-      <c r="Y98" s="34"/>
-      <c r="Z98" s="34"/>
-      <c r="AA98" s="34"/>
-      <c r="AB98" s="34"/>
-      <c r="AC98" s="34"/>
+      <c r="D98" s="10"/>
+      <c r="E98" s="10"/>
+      <c r="F98" s="10"/>
+      <c r="G98" s="10"/>
+      <c r="H98" s="10"/>
+      <c r="I98" s="10"/>
+      <c r="J98" s="10"/>
+      <c r="K98" s="10"/>
+      <c r="L98" s="10"/>
+      <c r="M98" s="10"/>
+      <c r="N98" s="10"/>
+      <c r="O98" s="10"/>
+      <c r="P98" s="10"/>
+      <c r="Q98" s="10"/>
+      <c r="R98" s="10"/>
+      <c r="S98" s="10"/>
+      <c r="T98" s="10"/>
+      <c r="U98" s="10"/>
+      <c r="V98" s="10"/>
+      <c r="W98" s="10"/>
+      <c r="X98" s="10"/>
+      <c r="Y98" s="10"/>
+      <c r="Z98" s="10"/>
+      <c r="AA98" s="10"/>
+      <c r="AB98" s="10"/>
+      <c r="AC98" s="10"/>
     </row>
     <row r="99" spans="1:52">
-      <c r="D99" s="34"/>
+      <c r="D99" s="10"/>
       <c r="E99" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="F99" s="34"/>
-      <c r="G99" s="34"/>
-      <c r="H99" s="34"/>
-      <c r="I99" s="34"/>
-      <c r="J99" s="34"/>
-      <c r="K99" s="34"/>
-      <c r="L99" s="34"/>
-      <c r="M99" s="34"/>
-      <c r="N99" s="34"/>
-      <c r="O99" s="34"/>
-      <c r="P99" s="34"/>
-      <c r="Q99" s="34"/>
-      <c r="R99" s="34"/>
-      <c r="S99" s="34"/>
-      <c r="T99" s="34"/>
-      <c r="U99" s="34"/>
-      <c r="V99" s="34"/>
-      <c r="W99" s="34"/>
-      <c r="X99" s="34"/>
-      <c r="Y99" s="34"/>
-      <c r="Z99" s="34"/>
-      <c r="AA99" s="34"/>
-      <c r="AB99" s="34"/>
-      <c r="AC99" s="34"/>
+      <c r="F99" s="10"/>
+      <c r="G99" s="10"/>
+      <c r="H99" s="10"/>
+      <c r="I99" s="10"/>
+      <c r="J99" s="10"/>
+      <c r="K99" s="10"/>
+      <c r="L99" s="10"/>
+      <c r="M99" s="10"/>
+      <c r="N99" s="10"/>
+      <c r="O99" s="10"/>
+      <c r="P99" s="10"/>
+      <c r="Q99" s="10"/>
+      <c r="R99" s="10"/>
+      <c r="S99" s="10"/>
+      <c r="T99" s="10"/>
+      <c r="U99" s="10"/>
+      <c r="V99" s="10"/>
+      <c r="W99" s="10"/>
+      <c r="X99" s="10"/>
+      <c r="Y99" s="10"/>
+      <c r="Z99" s="10"/>
+      <c r="AA99" s="10"/>
+      <c r="AB99" s="10"/>
+      <c r="AC99" s="10"/>
     </row>
     <row r="100" spans="1:52">
-      <c r="D100" s="34"/>
-      <c r="E100" s="34"/>
-      <c r="F100" s="34"/>
-      <c r="G100" s="34"/>
-      <c r="H100" s="34"/>
-      <c r="I100" s="34"/>
-      <c r="J100" s="34"/>
-      <c r="K100" s="34"/>
-      <c r="L100" s="34"/>
-      <c r="M100" s="34"/>
-      <c r="N100" s="34"/>
-      <c r="O100" s="34"/>
-      <c r="P100" s="34"/>
-      <c r="Q100" s="34"/>
-      <c r="R100" s="34"/>
-      <c r="S100" s="34"/>
-      <c r="T100" s="34"/>
-      <c r="U100" s="34"/>
-      <c r="V100" s="34"/>
-      <c r="W100" s="34"/>
-      <c r="X100" s="34"/>
-      <c r="Y100" s="34"/>
-      <c r="Z100" s="34"/>
-      <c r="AA100" s="34"/>
-      <c r="AB100" s="34"/>
-      <c r="AC100" s="34"/>
+      <c r="D100" s="10"/>
+      <c r="E100" s="10"/>
+      <c r="F100" s="10"/>
+      <c r="G100" s="10"/>
+      <c r="H100" s="10"/>
+      <c r="I100" s="10"/>
+      <c r="J100" s="10"/>
+      <c r="K100" s="10"/>
+      <c r="L100" s="10"/>
+      <c r="M100" s="10"/>
+      <c r="N100" s="10"/>
+      <c r="O100" s="10"/>
+      <c r="P100" s="10"/>
+      <c r="Q100" s="10"/>
+      <c r="R100" s="10"/>
+      <c r="S100" s="10"/>
+      <c r="T100" s="10"/>
+      <c r="U100" s="10"/>
+      <c r="V100" s="10"/>
+      <c r="W100" s="10"/>
+      <c r="X100" s="10"/>
+      <c r="Y100" s="10"/>
+      <c r="Z100" s="10"/>
+      <c r="AA100" s="10"/>
+      <c r="AB100" s="10"/>
+      <c r="AC100" s="10"/>
     </row>
     <row r="102" spans="1:52">
       <c r="D102" t="s">
@@ -3985,126 +4491,126 @@
       <c r="AZ111" s="4"/>
     </row>
     <row r="113" spans="4:41">
-      <c r="D113" s="34"/>
-      <c r="E113" s="34"/>
-      <c r="F113" s="34"/>
-      <c r="G113" s="34"/>
-      <c r="H113" s="34"/>
-      <c r="I113" s="34"/>
-      <c r="J113" s="34"/>
-      <c r="K113" s="34"/>
-      <c r="L113" s="34"/>
-      <c r="M113" s="34"/>
-      <c r="N113" s="34"/>
-      <c r="O113" s="34"/>
-      <c r="P113" s="34"/>
-      <c r="Q113" s="34"/>
-      <c r="R113" s="34"/>
-      <c r="S113" s="34"/>
-      <c r="T113" s="34"/>
-      <c r="U113" s="34"/>
-      <c r="V113" s="34"/>
-      <c r="W113" s="34"/>
-      <c r="X113" s="34"/>
-      <c r="Y113" s="34"/>
-      <c r="Z113" s="34"/>
-      <c r="AA113" s="34"/>
-      <c r="AB113" s="34"/>
-      <c r="AC113" s="34"/>
-      <c r="AD113" s="34"/>
-      <c r="AE113" s="34"/>
-      <c r="AF113" s="34"/>
-      <c r="AG113" s="34"/>
-      <c r="AH113" s="34"/>
-      <c r="AI113" s="34"/>
-      <c r="AJ113" s="34"/>
-      <c r="AK113" s="34"/>
-      <c r="AL113" s="34"/>
-      <c r="AM113" s="34"/>
-      <c r="AN113" s="34"/>
-      <c r="AO113" s="34"/>
+      <c r="D113" s="10"/>
+      <c r="E113" s="10"/>
+      <c r="F113" s="10"/>
+      <c r="G113" s="10"/>
+      <c r="H113" s="10"/>
+      <c r="I113" s="10"/>
+      <c r="J113" s="10"/>
+      <c r="K113" s="10"/>
+      <c r="L113" s="10"/>
+      <c r="M113" s="10"/>
+      <c r="N113" s="10"/>
+      <c r="O113" s="10"/>
+      <c r="P113" s="10"/>
+      <c r="Q113" s="10"/>
+      <c r="R113" s="10"/>
+      <c r="S113" s="10"/>
+      <c r="T113" s="10"/>
+      <c r="U113" s="10"/>
+      <c r="V113" s="10"/>
+      <c r="W113" s="10"/>
+      <c r="X113" s="10"/>
+      <c r="Y113" s="10"/>
+      <c r="Z113" s="10"/>
+      <c r="AA113" s="10"/>
+      <c r="AB113" s="10"/>
+      <c r="AC113" s="10"/>
+      <c r="AD113" s="10"/>
+      <c r="AE113" s="10"/>
+      <c r="AF113" s="10"/>
+      <c r="AG113" s="10"/>
+      <c r="AH113" s="10"/>
+      <c r="AI113" s="10"/>
+      <c r="AJ113" s="10"/>
+      <c r="AK113" s="10"/>
+      <c r="AL113" s="10"/>
+      <c r="AM113" s="10"/>
+      <c r="AN113" s="10"/>
+      <c r="AO113" s="10"/>
     </row>
     <row r="114" spans="4:41">
-      <c r="D114" s="34"/>
+      <c r="D114" s="10"/>
       <c r="E114" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="F114" s="34"/>
-      <c r="G114" s="34"/>
-      <c r="H114" s="34"/>
-      <c r="I114" s="34"/>
-      <c r="J114" s="34"/>
-      <c r="K114" s="34"/>
-      <c r="L114" s="34"/>
-      <c r="M114" s="34"/>
-      <c r="N114" s="34"/>
-      <c r="O114" s="34"/>
-      <c r="P114" s="34"/>
-      <c r="Q114" s="34"/>
-      <c r="R114" s="34"/>
-      <c r="S114" s="34"/>
-      <c r="T114" s="34"/>
-      <c r="U114" s="34"/>
-      <c r="V114" s="34"/>
-      <c r="W114" s="34"/>
-      <c r="X114" s="34"/>
-      <c r="Y114" s="34"/>
-      <c r="Z114" s="34"/>
-      <c r="AA114" s="34"/>
-      <c r="AB114" s="34"/>
-      <c r="AC114" s="34"/>
-      <c r="AD114" s="34"/>
-      <c r="AE114" s="34"/>
-      <c r="AF114" s="34"/>
-      <c r="AG114" s="34"/>
-      <c r="AH114" s="34"/>
-      <c r="AI114" s="34"/>
-      <c r="AJ114" s="34"/>
-      <c r="AK114" s="34"/>
-      <c r="AL114" s="34"/>
-      <c r="AM114" s="34"/>
-      <c r="AN114" s="34"/>
-      <c r="AO114" s="34"/>
+      <c r="F114" s="10"/>
+      <c r="G114" s="10"/>
+      <c r="H114" s="10"/>
+      <c r="I114" s="10"/>
+      <c r="J114" s="10"/>
+      <c r="K114" s="10"/>
+      <c r="L114" s="10"/>
+      <c r="M114" s="10"/>
+      <c r="N114" s="10"/>
+      <c r="O114" s="10"/>
+      <c r="P114" s="10"/>
+      <c r="Q114" s="10"/>
+      <c r="R114" s="10"/>
+      <c r="S114" s="10"/>
+      <c r="T114" s="10"/>
+      <c r="U114" s="10"/>
+      <c r="V114" s="10"/>
+      <c r="W114" s="10"/>
+      <c r="X114" s="10"/>
+      <c r="Y114" s="10"/>
+      <c r="Z114" s="10"/>
+      <c r="AA114" s="10"/>
+      <c r="AB114" s="10"/>
+      <c r="AC114" s="10"/>
+      <c r="AD114" s="10"/>
+      <c r="AE114" s="10"/>
+      <c r="AF114" s="10"/>
+      <c r="AG114" s="10"/>
+      <c r="AH114" s="10"/>
+      <c r="AI114" s="10"/>
+      <c r="AJ114" s="10"/>
+      <c r="AK114" s="10"/>
+      <c r="AL114" s="10"/>
+      <c r="AM114" s="10"/>
+      <c r="AN114" s="10"/>
+      <c r="AO114" s="10"/>
     </row>
     <row r="115" spans="4:41">
-      <c r="D115" s="34"/>
-      <c r="E115" s="34"/>
-      <c r="F115" s="34"/>
-      <c r="G115" s="34"/>
-      <c r="H115" s="34"/>
-      <c r="I115" s="34"/>
-      <c r="J115" s="34"/>
-      <c r="K115" s="34"/>
-      <c r="L115" s="34"/>
-      <c r="M115" s="34"/>
-      <c r="N115" s="34"/>
-      <c r="O115" s="34"/>
-      <c r="P115" s="34"/>
-      <c r="Q115" s="34"/>
-      <c r="R115" s="34"/>
-      <c r="S115" s="34"/>
-      <c r="T115" s="34"/>
-      <c r="U115" s="34"/>
-      <c r="V115" s="34"/>
-      <c r="W115" s="34"/>
-      <c r="X115" s="34"/>
-      <c r="Y115" s="34"/>
-      <c r="Z115" s="34"/>
-      <c r="AA115" s="34"/>
-      <c r="AB115" s="34"/>
-      <c r="AC115" s="34"/>
-      <c r="AD115" s="34"/>
-      <c r="AE115" s="34"/>
-      <c r="AF115" s="34"/>
-      <c r="AG115" s="34"/>
-      <c r="AH115" s="34"/>
-      <c r="AI115" s="34"/>
-      <c r="AJ115" s="34"/>
-      <c r="AK115" s="34"/>
-      <c r="AL115" s="34"/>
-      <c r="AM115" s="34"/>
-      <c r="AN115" s="34"/>
-      <c r="AO115" s="34"/>
+      <c r="D115" s="10"/>
+      <c r="E115" s="10"/>
+      <c r="F115" s="10"/>
+      <c r="G115" s="10"/>
+      <c r="H115" s="10"/>
+      <c r="I115" s="10"/>
+      <c r="J115" s="10"/>
+      <c r="K115" s="10"/>
+      <c r="L115" s="10"/>
+      <c r="M115" s="10"/>
+      <c r="N115" s="10"/>
+      <c r="O115" s="10"/>
+      <c r="P115" s="10"/>
+      <c r="Q115" s="10"/>
+      <c r="R115" s="10"/>
+      <c r="S115" s="10"/>
+      <c r="T115" s="10"/>
+      <c r="U115" s="10"/>
+      <c r="V115" s="10"/>
+      <c r="W115" s="10"/>
+      <c r="X115" s="10"/>
+      <c r="Y115" s="10"/>
+      <c r="Z115" s="10"/>
+      <c r="AA115" s="10"/>
+      <c r="AB115" s="10"/>
+      <c r="AC115" s="10"/>
+      <c r="AD115" s="10"/>
+      <c r="AE115" s="10"/>
+      <c r="AF115" s="10"/>
+      <c r="AG115" s="10"/>
+      <c r="AH115" s="10"/>
+      <c r="AI115" s="10"/>
+      <c r="AJ115" s="10"/>
+      <c r="AK115" s="10"/>
+      <c r="AL115" s="10"/>
+      <c r="AM115" s="10"/>
+      <c r="AN115" s="10"/>
+      <c r="AO115" s="10"/>
     </row>
     <row r="117" spans="4:41">
       <c r="D117" t="s">
@@ -4143,6 +4649,714 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A3:BC53"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="3" spans="1:55">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="4"/>
+      <c r="S3" s="4"/>
+      <c r="T3" s="4"/>
+      <c r="U3" s="4"/>
+      <c r="V3" s="4"/>
+      <c r="W3" s="4"/>
+      <c r="X3" s="4"/>
+      <c r="Y3" s="4"/>
+      <c r="Z3" s="4"/>
+      <c r="AA3" s="4"/>
+      <c r="AB3" s="4"/>
+      <c r="AC3" s="4"/>
+      <c r="AD3" s="4"/>
+      <c r="AE3" s="4"/>
+      <c r="AF3" s="4"/>
+      <c r="AG3" s="4"/>
+      <c r="AH3" s="4"/>
+      <c r="AI3" s="4"/>
+      <c r="AJ3" s="4"/>
+      <c r="AK3" s="4"/>
+      <c r="AL3" s="4"/>
+      <c r="AM3" s="4"/>
+      <c r="AN3" s="4"/>
+      <c r="AO3" s="4"/>
+      <c r="AP3" s="4"/>
+      <c r="AQ3" s="4"/>
+      <c r="AR3" s="4"/>
+      <c r="AS3" s="4"/>
+      <c r="AT3" s="4"/>
+      <c r="AU3" s="4"/>
+      <c r="AV3" s="4"/>
+      <c r="AW3" s="4"/>
+      <c r="AX3" s="4"/>
+      <c r="AY3" s="4"/>
+      <c r="AZ3" s="4"/>
+      <c r="BA3" s="4"/>
+      <c r="BB3" s="4"/>
+      <c r="BC3" s="4"/>
+    </row>
+    <row r="5" spans="1:55">
+      <c r="D5" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="6" spans="1:55">
+      <c r="D6" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="7" spans="1:55">
+      <c r="D7" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="9" spans="1:55">
+      <c r="D9" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="10" spans="1:55">
+      <c r="D10" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="13" spans="1:55">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+      <c r="N13" s="4"/>
+      <c r="O13" s="4"/>
+      <c r="P13" s="4"/>
+      <c r="Q13" s="4"/>
+      <c r="R13" s="4"/>
+      <c r="S13" s="4"/>
+      <c r="T13" s="4"/>
+      <c r="U13" s="4"/>
+      <c r="V13" s="4"/>
+      <c r="W13" s="4"/>
+      <c r="X13" s="4"/>
+      <c r="Y13" s="4"/>
+      <c r="Z13" s="4"/>
+      <c r="AA13" s="4"/>
+      <c r="AB13" s="4"/>
+      <c r="AC13" s="4"/>
+      <c r="AD13" s="4"/>
+      <c r="AE13" s="4"/>
+      <c r="AF13" s="4"/>
+      <c r="AG13" s="4"/>
+      <c r="AH13" s="4"/>
+      <c r="AI13" s="4"/>
+      <c r="AJ13" s="4"/>
+      <c r="AK13" s="4"/>
+      <c r="AL13" s="4"/>
+      <c r="AM13" s="4"/>
+      <c r="AN13" s="4"/>
+      <c r="AO13" s="4"/>
+      <c r="AP13" s="4"/>
+      <c r="AQ13" s="4"/>
+      <c r="AR13" s="4"/>
+      <c r="AS13" s="4"/>
+      <c r="AT13" s="4"/>
+      <c r="AU13" s="4"/>
+      <c r="AV13" s="4"/>
+      <c r="AW13" s="4"/>
+      <c r="AX13" s="4"/>
+      <c r="AY13" s="4"/>
+      <c r="AZ13" s="4"/>
+      <c r="BA13" s="4"/>
+      <c r="BB13" s="4"/>
+      <c r="BC13" s="4"/>
+    </row>
+    <row r="14" spans="1:55" ht="14.25" thickBot="1"/>
+    <row r="15" spans="1:55" ht="14.25" thickBot="1">
+      <c r="N15" s="36" t="s">
+        <v>133</v>
+      </c>
+      <c r="O15" s="37"/>
+      <c r="P15" s="37"/>
+      <c r="Q15" s="37"/>
+      <c r="R15" s="38"/>
+    </row>
+    <row r="16" spans="1:55">
+      <c r="D16" s="45" t="s">
+        <v>139</v>
+      </c>
+      <c r="E16" s="37"/>
+      <c r="F16" s="37"/>
+      <c r="G16" s="38"/>
+      <c r="I16" t="s">
+        <v>134</v>
+      </c>
+      <c r="N16" s="39"/>
+      <c r="O16" s="40"/>
+      <c r="P16" s="40"/>
+      <c r="Q16" s="40"/>
+      <c r="R16" s="41"/>
+      <c r="T16" t="s">
+        <v>137</v>
+      </c>
+      <c r="Y16" s="36" t="s">
+        <v>134</v>
+      </c>
+      <c r="Z16" s="37"/>
+      <c r="AA16" s="37"/>
+      <c r="AB16" s="37"/>
+      <c r="AC16" s="38"/>
+    </row>
+    <row r="17" spans="1:55" ht="14.25" thickBot="1">
+      <c r="D17" s="39"/>
+      <c r="E17" s="40"/>
+      <c r="F17" s="40"/>
+      <c r="G17" s="41"/>
+      <c r="N17" s="39"/>
+      <c r="O17" s="40"/>
+      <c r="P17" s="40"/>
+      <c r="Q17" s="40"/>
+      <c r="R17" s="41"/>
+      <c r="Y17" s="42"/>
+      <c r="Z17" s="43"/>
+      <c r="AA17" s="43"/>
+      <c r="AB17" s="43"/>
+      <c r="AC17" s="44"/>
+    </row>
+    <row r="18" spans="1:55">
+      <c r="D18" s="39"/>
+      <c r="E18" s="40"/>
+      <c r="F18" s="40"/>
+      <c r="G18" s="41"/>
+      <c r="I18" t="s">
+        <v>135</v>
+      </c>
+      <c r="N18" s="39"/>
+      <c r="O18" s="40"/>
+      <c r="P18" s="40"/>
+      <c r="Q18" s="40"/>
+      <c r="R18" s="41"/>
+      <c r="T18" t="s">
+        <v>137</v>
+      </c>
+      <c r="Y18" s="36" t="s">
+        <v>135</v>
+      </c>
+      <c r="Z18" s="37"/>
+      <c r="AA18" s="37"/>
+      <c r="AB18" s="37"/>
+      <c r="AC18" s="38"/>
+    </row>
+    <row r="19" spans="1:55" ht="14.25" thickBot="1">
+      <c r="D19" s="39"/>
+      <c r="E19" s="40"/>
+      <c r="F19" s="40"/>
+      <c r="G19" s="41"/>
+      <c r="N19" s="39"/>
+      <c r="O19" s="40"/>
+      <c r="P19" s="40"/>
+      <c r="Q19" s="40"/>
+      <c r="R19" s="41"/>
+      <c r="Y19" s="42"/>
+      <c r="Z19" s="43"/>
+      <c r="AA19" s="43"/>
+      <c r="AB19" s="43"/>
+      <c r="AC19" s="44"/>
+    </row>
+    <row r="20" spans="1:55" ht="14.25" thickBot="1">
+      <c r="D20" s="42"/>
+      <c r="E20" s="43"/>
+      <c r="F20" s="43"/>
+      <c r="G20" s="44"/>
+      <c r="I20" t="s">
+        <v>136</v>
+      </c>
+      <c r="N20" s="39"/>
+      <c r="O20" s="40"/>
+      <c r="P20" s="40"/>
+      <c r="Q20" s="40"/>
+      <c r="R20" s="41"/>
+      <c r="T20" t="s">
+        <v>137</v>
+      </c>
+      <c r="Y20" s="39" t="s">
+        <v>136</v>
+      </c>
+      <c r="Z20" s="40"/>
+      <c r="AA20" s="40"/>
+      <c r="AB20" s="40"/>
+      <c r="AC20" s="41"/>
+    </row>
+    <row r="21" spans="1:55" ht="14.25" thickBot="1">
+      <c r="N21" s="42"/>
+      <c r="O21" s="43"/>
+      <c r="P21" s="43"/>
+      <c r="Q21" s="43"/>
+      <c r="R21" s="44"/>
+      <c r="Y21" s="42"/>
+      <c r="Z21" s="43"/>
+      <c r="AA21" s="43"/>
+      <c r="AB21" s="43"/>
+      <c r="AC21" s="44"/>
+    </row>
+    <row r="23" spans="1:55">
+      <c r="D23" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="24" spans="1:55">
+      <c r="D24" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="25" spans="1:55">
+      <c r="D25" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="26" spans="1:55">
+      <c r="D26" s="3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="28" spans="1:55">
+      <c r="A28" s="4"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4"/>
+      <c r="K28" s="4"/>
+      <c r="L28" s="4"/>
+      <c r="M28" s="4"/>
+      <c r="N28" s="4"/>
+      <c r="O28" s="4"/>
+      <c r="P28" s="4"/>
+      <c r="Q28" s="4"/>
+      <c r="R28" s="4"/>
+      <c r="S28" s="4"/>
+      <c r="T28" s="4"/>
+      <c r="U28" s="4"/>
+      <c r="V28" s="4"/>
+      <c r="W28" s="4"/>
+      <c r="X28" s="4"/>
+      <c r="Y28" s="4"/>
+      <c r="Z28" s="4"/>
+      <c r="AA28" s="4"/>
+      <c r="AB28" s="4"/>
+      <c r="AC28" s="4"/>
+      <c r="AD28" s="4"/>
+      <c r="AE28" s="4"/>
+      <c r="AF28" s="4"/>
+      <c r="AG28" s="4"/>
+      <c r="AH28" s="4"/>
+      <c r="AI28" s="4"/>
+      <c r="AJ28" s="4"/>
+      <c r="AK28" s="4"/>
+      <c r="AL28" s="4"/>
+      <c r="AM28" s="4"/>
+      <c r="AN28" s="4"/>
+      <c r="AO28" s="4"/>
+      <c r="AP28" s="4"/>
+      <c r="AQ28" s="4"/>
+      <c r="AR28" s="4"/>
+      <c r="AS28" s="4"/>
+      <c r="AT28" s="4"/>
+      <c r="AU28" s="4"/>
+      <c r="AV28" s="4"/>
+      <c r="AW28" s="4"/>
+      <c r="AX28" s="4"/>
+      <c r="AY28" s="4"/>
+      <c r="AZ28" s="4"/>
+      <c r="BA28" s="4"/>
+      <c r="BB28" s="4"/>
+      <c r="BC28" s="4"/>
+    </row>
+    <row r="30" spans="1:55">
+      <c r="D30" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="31" spans="1:55">
+      <c r="D31" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="32" spans="1:55">
+      <c r="D32" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="33" spans="1:55">
+      <c r="D33" s="5"/>
+      <c r="E33" s="2"/>
+    </row>
+    <row r="34" spans="1:55">
+      <c r="D34" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="35" spans="1:55">
+      <c r="D35" s="5"/>
+      <c r="E35" s="2"/>
+    </row>
+    <row r="36" spans="1:55">
+      <c r="D36" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="39" spans="1:55">
+      <c r="A39" s="4"/>
+      <c r="B39" s="4"/>
+      <c r="C39" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="4"/>
+      <c r="H39" s="4"/>
+      <c r="I39" s="4"/>
+      <c r="J39" s="4"/>
+      <c r="K39" s="4"/>
+      <c r="L39" s="4"/>
+      <c r="M39" s="4"/>
+      <c r="N39" s="4"/>
+      <c r="O39" s="4"/>
+      <c r="P39" s="4"/>
+      <c r="Q39" s="4"/>
+      <c r="R39" s="4"/>
+      <c r="S39" s="4"/>
+      <c r="T39" s="4"/>
+      <c r="U39" s="4"/>
+      <c r="V39" s="4"/>
+      <c r="W39" s="4"/>
+      <c r="X39" s="4"/>
+      <c r="Y39" s="4"/>
+      <c r="Z39" s="4"/>
+      <c r="AA39" s="4"/>
+      <c r="AB39" s="4"/>
+      <c r="AC39" s="4"/>
+      <c r="AD39" s="4"/>
+      <c r="AE39" s="4"/>
+      <c r="AF39" s="4"/>
+      <c r="AG39" s="4"/>
+      <c r="AH39" s="4"/>
+      <c r="AI39" s="4"/>
+      <c r="AJ39" s="4"/>
+      <c r="AK39" s="4"/>
+      <c r="AL39" s="4"/>
+      <c r="AM39" s="4"/>
+      <c r="AN39" s="4"/>
+      <c r="AO39" s="4"/>
+      <c r="AP39" s="4"/>
+      <c r="AQ39" s="4"/>
+      <c r="AR39" s="4"/>
+      <c r="AS39" s="4"/>
+      <c r="AT39" s="4"/>
+      <c r="AU39" s="4"/>
+      <c r="AV39" s="4"/>
+      <c r="AW39" s="4"/>
+      <c r="AX39" s="4"/>
+      <c r="AY39" s="4"/>
+      <c r="AZ39" s="4"/>
+      <c r="BA39" s="4"/>
+      <c r="BB39" s="4"/>
+      <c r="BC39" s="4"/>
+    </row>
+    <row r="41" spans="1:55">
+      <c r="D41" s="10"/>
+      <c r="E41" s="10"/>
+      <c r="F41" s="10"/>
+      <c r="G41" s="10"/>
+      <c r="H41" s="10"/>
+      <c r="I41" s="10"/>
+      <c r="J41" s="10"/>
+      <c r="K41" s="10"/>
+      <c r="L41" s="10"/>
+      <c r="M41" s="10"/>
+      <c r="N41" s="10"/>
+      <c r="O41" s="10"/>
+      <c r="P41" s="10"/>
+      <c r="Q41" s="10"/>
+      <c r="R41" s="10"/>
+      <c r="S41" s="10"/>
+      <c r="T41" s="10"/>
+      <c r="U41" s="10"/>
+      <c r="V41" s="10"/>
+      <c r="W41" s="10"/>
+      <c r="X41" s="10"/>
+      <c r="Y41" s="10"/>
+      <c r="Z41" s="10"/>
+      <c r="AA41" s="10"/>
+      <c r="AB41" s="10"/>
+      <c r="AC41" s="10"/>
+      <c r="AD41" s="10"/>
+      <c r="AE41" s="10"/>
+      <c r="AF41" s="10"/>
+      <c r="AG41" s="10"/>
+      <c r="AH41" s="10"/>
+      <c r="AI41" s="10"/>
+      <c r="AJ41" s="10"/>
+      <c r="AK41" s="10"/>
+      <c r="AL41" s="10"/>
+      <c r="AM41" s="10"/>
+      <c r="AN41" s="10"/>
+      <c r="AO41" s="10"/>
+      <c r="AP41" s="10"/>
+      <c r="AQ41" s="10"/>
+    </row>
+    <row r="42" spans="1:55">
+      <c r="D42" s="10"/>
+      <c r="E42" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="F42" s="10"/>
+      <c r="G42" s="10"/>
+      <c r="H42" s="10"/>
+      <c r="I42" s="10"/>
+      <c r="J42" s="10"/>
+      <c r="K42" s="10"/>
+      <c r="L42" s="10"/>
+      <c r="M42" s="10"/>
+      <c r="N42" s="10"/>
+      <c r="O42" s="10"/>
+      <c r="P42" s="10"/>
+      <c r="Q42" s="10"/>
+      <c r="R42" s="10"/>
+      <c r="S42" s="10"/>
+      <c r="T42" s="10"/>
+      <c r="U42" s="10"/>
+      <c r="V42" s="10"/>
+      <c r="W42" s="10"/>
+      <c r="X42" s="10"/>
+      <c r="Y42" s="10"/>
+      <c r="Z42" s="10"/>
+      <c r="AA42" s="10"/>
+      <c r="AB42" s="10"/>
+      <c r="AC42" s="10"/>
+      <c r="AD42" s="10"/>
+      <c r="AE42" s="10"/>
+      <c r="AF42" s="10"/>
+      <c r="AG42" s="10"/>
+      <c r="AH42" s="10"/>
+      <c r="AI42" s="10"/>
+      <c r="AJ42" s="10"/>
+      <c r="AK42" s="10"/>
+      <c r="AL42" s="10"/>
+      <c r="AM42" s="10"/>
+      <c r="AN42" s="10"/>
+      <c r="AO42" s="10"/>
+      <c r="AP42" s="10"/>
+      <c r="AQ42" s="10"/>
+    </row>
+    <row r="43" spans="1:55">
+      <c r="D43" s="10"/>
+      <c r="E43" s="10"/>
+      <c r="F43" s="10"/>
+      <c r="G43" s="10"/>
+      <c r="H43" s="10"/>
+      <c r="I43" s="10"/>
+      <c r="J43" s="10"/>
+      <c r="K43" s="10"/>
+      <c r="L43" s="10"/>
+      <c r="M43" s="10"/>
+      <c r="N43" s="10"/>
+      <c r="O43" s="10"/>
+      <c r="P43" s="10"/>
+      <c r="Q43" s="10"/>
+      <c r="R43" s="10"/>
+      <c r="S43" s="10"/>
+      <c r="T43" s="10"/>
+      <c r="U43" s="10"/>
+      <c r="V43" s="10"/>
+      <c r="W43" s="10"/>
+      <c r="X43" s="10"/>
+      <c r="Y43" s="10"/>
+      <c r="Z43" s="10"/>
+      <c r="AA43" s="10"/>
+      <c r="AB43" s="10"/>
+      <c r="AC43" s="10"/>
+      <c r="AD43" s="10"/>
+      <c r="AE43" s="10"/>
+      <c r="AF43" s="10"/>
+      <c r="AG43" s="10"/>
+      <c r="AH43" s="10"/>
+      <c r="AI43" s="10"/>
+      <c r="AJ43" s="10"/>
+      <c r="AK43" s="10"/>
+      <c r="AL43" s="10"/>
+      <c r="AM43" s="10"/>
+      <c r="AN43" s="10"/>
+      <c r="AO43" s="10"/>
+      <c r="AP43" s="10"/>
+      <c r="AQ43" s="10"/>
+    </row>
+    <row r="46" spans="1:55">
+      <c r="A46" s="4"/>
+      <c r="B46" s="4"/>
+      <c r="C46" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="E46" s="4"/>
+      <c r="F46" s="4"/>
+      <c r="G46" s="4"/>
+      <c r="H46" s="4"/>
+      <c r="I46" s="4"/>
+      <c r="J46" s="4"/>
+      <c r="K46" s="4"/>
+      <c r="L46" s="4"/>
+      <c r="M46" s="4"/>
+      <c r="N46" s="4"/>
+      <c r="O46" s="4"/>
+      <c r="P46" s="4"/>
+      <c r="Q46" s="4"/>
+      <c r="R46" s="4"/>
+      <c r="S46" s="4"/>
+      <c r="T46" s="4"/>
+      <c r="U46" s="4"/>
+      <c r="V46" s="4"/>
+      <c r="W46" s="4"/>
+      <c r="X46" s="4"/>
+      <c r="Y46" s="4"/>
+      <c r="Z46" s="4"/>
+      <c r="AA46" s="4"/>
+      <c r="AB46" s="4"/>
+      <c r="AC46" s="4"/>
+      <c r="AD46" s="4"/>
+      <c r="AE46" s="4"/>
+      <c r="AF46" s="4"/>
+      <c r="AG46" s="4"/>
+      <c r="AH46" s="4"/>
+      <c r="AI46" s="4"/>
+      <c r="AJ46" s="4"/>
+      <c r="AK46" s="4"/>
+      <c r="AL46" s="4"/>
+      <c r="AM46" s="4"/>
+      <c r="AN46" s="4"/>
+      <c r="AO46" s="4"/>
+      <c r="AP46" s="4"/>
+      <c r="AQ46" s="4"/>
+      <c r="AR46" s="4"/>
+      <c r="AS46" s="4"/>
+      <c r="AT46" s="4"/>
+      <c r="AU46" s="4"/>
+      <c r="AV46" s="4"/>
+      <c r="AW46" s="4"/>
+      <c r="AX46" s="4"/>
+      <c r="AY46" s="4"/>
+      <c r="AZ46" s="4"/>
+      <c r="BA46" s="4"/>
+      <c r="BB46" s="4"/>
+      <c r="BC46" s="4"/>
+    </row>
+    <row r="48" spans="1:55">
+      <c r="D48" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="49" spans="4:5">
+      <c r="D49" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="50" spans="4:5">
+      <c r="D50" s="5"/>
+      <c r="E50" s="2"/>
+    </row>
+    <row r="51" spans="4:5">
+      <c r="D51" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="52" spans="4:5">
+      <c r="D52" s="5"/>
+      <c r="E52" s="2"/>
+    </row>
+    <row r="53" spans="4:5">
+      <c r="D53" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="D16:G20"/>
+    <mergeCell ref="N15:R21"/>
+    <mergeCell ref="Y16:AC17"/>
+    <mergeCell ref="Y18:AC19"/>
+    <mergeCell ref="Y20:AC21"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B8"/>
   <sheetViews>

--- a/Cplusplus/设计模式.xlsx
+++ b/Cplusplus/设计模式.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="96" windowWidth="19200" windowHeight="11640" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="设计模式概览" sheetId="1" r:id="rId1"/>
@@ -17,12 +17,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="154">
   <si>
     <t>★</t>
-  </si>
-  <si>
-    <t>https://zhuanlan.zhihu.com/p/94877789</t>
   </si>
   <si>
     <t>设计模式概述</t>
@@ -631,12 +628,19 @@
   <si>
     <t>具体产品(ConcreteProduct):抽象产品的派生类，包含具体产品特有的实现方法，是简单工厂模式的创建目标。</t>
   </si>
+  <si>
+    <t>https://zhuanlan.zhihu.com/p/94877789</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>简单工厂模式UML类图如下:</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="6">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -685,6 +689,15 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -1017,12 +1030,15 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1059,6 +1075,42 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1086,53 +1138,17 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1159,14 +1175,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -1478,11 +1503,85 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>130245</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>29307</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>32926</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>146741</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="675368" y="10093569"/>
+          <a:ext cx="4445373" cy="3024757"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF">
+            <a:shade val="85000"/>
+          </a:srgbClr>
+        </a:solidFill>
+        <a:ln w="88900" cap="sq">
+          <a:solidFill>
+            <a:srgbClr val="FFFFFF"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="55000" dist="18000" dir="5400000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="40000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:scene3d>
+          <a:camera prst="orthographicFront"/>
+          <a:lightRig rig="twoPt" dir="t">
+            <a:rot lat="0" lon="0" rev="7200000"/>
+          </a:lightRig>
+        </a:scene3d>
+        <a:sp3d>
+          <a:bevelT w="25400" h="19050"/>
+          <a:contourClr>
+            <a:srgbClr val="FFFFFF"/>
+          </a:contourClr>
+        </a:sp3d>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1556,6 +1655,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -1590,6 +1690,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1765,16 +1866,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:AZ83"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="2.6640625" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="16384" width="2.625" style="5"/>
+    <col min="1" max="16384" width="2.6640625" style="5"/>
   </cols>
   <sheetData>
     <row r="3" spans="1:52">
@@ -1784,7 +1885,7 @@
         <v>0</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
@@ -1837,17 +1938,17 @@
     </row>
     <row r="5" spans="1:52">
       <c r="D5" s="5" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:52">
       <c r="D6" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:52">
       <c r="D7" s="5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:52">
@@ -1857,7 +1958,7 @@
         <v>0</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
@@ -1910,32 +2011,32 @@
     </row>
     <row r="11" spans="1:52">
       <c r="D11" s="5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:52">
       <c r="D12" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:52">
       <c r="D13" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:52">
       <c r="D14" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:52">
       <c r="D15" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="1:52">
       <c r="D16" s="5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="4:38">
@@ -1979,7 +2080,7 @@
       <c r="D18" s="6"/>
       <c r="E18" s="6"/>
       <c r="F18" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G18" s="6"/>
       <c r="H18" s="6"/>
@@ -2018,7 +2119,7 @@
       <c r="D19" s="6"/>
       <c r="E19" s="6"/>
       <c r="F19" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G19" s="6"/>
       <c r="H19" s="6"/>
@@ -2092,74 +2193,74 @@
     </row>
     <row r="22" spans="4:38">
       <c r="D22" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" spans="4:38">
       <c r="D24" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="25" spans="4:38">
       <c r="D25" s="5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="27" spans="4:38">
       <c r="D27" s="5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="29" spans="4:38">
       <c r="D29" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="30" spans="4:38">
       <c r="F30" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="32" spans="4:38">
       <c r="D32" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="33" spans="1:52">
       <c r="F33" s="5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35" spans="1:52">
       <c r="D35" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="36" spans="1:52">
       <c r="F36" s="5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="38" spans="1:52">
       <c r="D38" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="39" spans="1:52">
       <c r="F39" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="42" spans="1:52">
@@ -2169,7 +2270,7 @@
         <v>0</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E42" s="4"/>
       <c r="F42" s="4"/>
@@ -2276,7 +2377,7 @@
     </row>
     <row r="44" spans="1:52">
       <c r="D44" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="45" spans="1:52">
@@ -2324,7 +2425,7 @@
       <c r="D46" s="6"/>
       <c r="E46" s="6"/>
       <c r="F46" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G46" s="6"/>
       <c r="H46" s="6"/>
@@ -2367,7 +2468,7 @@
       <c r="D47" s="6"/>
       <c r="E47" s="6"/>
       <c r="F47" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="G47" s="6"/>
       <c r="H47" s="6"/>
@@ -2449,264 +2550,264 @@
     </row>
     <row r="50" spans="4:40">
       <c r="D50" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="52" spans="4:40">
       <c r="D52" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="54" spans="4:40">
       <c r="D54" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="56" spans="4:40">
       <c r="D56" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="58" spans="4:40">
       <c r="D58" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="59" spans="4:40">
       <c r="D59" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="60" spans="4:40">
       <c r="D60" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="61" spans="4:40" ht="15" thickBot="1"/>
+    <row r="62" spans="4:40" ht="15" thickBot="1">
+      <c r="D62" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="E62" s="25"/>
+      <c r="F62" s="25"/>
+      <c r="G62" s="25"/>
+      <c r="H62" s="25"/>
+      <c r="I62" s="25"/>
+      <c r="J62" s="25"/>
+      <c r="K62" s="25"/>
+      <c r="L62" s="25"/>
+      <c r="M62" s="25"/>
+      <c r="N62" s="25"/>
+      <c r="O62" s="25"/>
+      <c r="P62" s="25"/>
+      <c r="Q62" s="25"/>
+      <c r="R62" s="25"/>
+      <c r="S62" s="25"/>
+      <c r="T62" s="25"/>
+      <c r="U62" s="25"/>
+      <c r="V62" s="25"/>
+      <c r="W62" s="25"/>
+      <c r="X62" s="25"/>
+      <c r="Y62" s="25"/>
+      <c r="Z62" s="25"/>
+      <c r="AA62" s="25"/>
+      <c r="AB62" s="25"/>
+      <c r="AC62" s="25"/>
+      <c r="AD62" s="25"/>
+      <c r="AE62" s="25"/>
+      <c r="AF62" s="25"/>
+      <c r="AG62" s="25"/>
+      <c r="AH62" s="25"/>
+      <c r="AI62" s="25"/>
+      <c r="AJ62" s="25"/>
+      <c r="AK62" s="25"/>
+      <c r="AL62" s="25"/>
+      <c r="AM62" s="25"/>
+      <c r="AN62" s="26"/>
+    </row>
+    <row r="63" spans="4:40" ht="15" thickBot="1">
+      <c r="D63" s="27" t="s">
+        <v>46</v>
+      </c>
+      <c r="E63" s="28"/>
+      <c r="F63" s="28"/>
+      <c r="G63" s="28"/>
+      <c r="H63" s="28"/>
+      <c r="I63" s="28"/>
+      <c r="J63" s="28"/>
+      <c r="K63" s="29" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="61" spans="4:40" ht="14.25" thickBot="1"/>
-    <row r="62" spans="4:40" ht="14.25" thickBot="1">
-      <c r="D62" s="12" t="s">
-        <v>46</v>
-      </c>
-      <c r="E62" s="13"/>
-      <c r="F62" s="13"/>
-      <c r="G62" s="13"/>
-      <c r="H62" s="13"/>
-      <c r="I62" s="13"/>
-      <c r="J62" s="13"/>
-      <c r="K62" s="13"/>
-      <c r="L62" s="13"/>
-      <c r="M62" s="13"/>
-      <c r="N62" s="13"/>
-      <c r="O62" s="13"/>
-      <c r="P62" s="13"/>
-      <c r="Q62" s="13"/>
-      <c r="R62" s="13"/>
-      <c r="S62" s="13"/>
-      <c r="T62" s="13"/>
-      <c r="U62" s="13"/>
-      <c r="V62" s="13"/>
-      <c r="W62" s="13"/>
-      <c r="X62" s="13"/>
-      <c r="Y62" s="13"/>
-      <c r="Z62" s="13"/>
-      <c r="AA62" s="13"/>
-      <c r="AB62" s="13"/>
-      <c r="AC62" s="13"/>
-      <c r="AD62" s="13"/>
-      <c r="AE62" s="13"/>
-      <c r="AF62" s="13"/>
-      <c r="AG62" s="13"/>
-      <c r="AH62" s="13"/>
-      <c r="AI62" s="13"/>
-      <c r="AJ62" s="13"/>
-      <c r="AK62" s="13"/>
-      <c r="AL62" s="13"/>
-      <c r="AM62" s="13"/>
-      <c r="AN62" s="14"/>
-    </row>
-    <row r="63" spans="4:40" ht="14.25" thickBot="1">
-      <c r="D63" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="E63" s="16"/>
-      <c r="F63" s="16"/>
-      <c r="G63" s="16"/>
-      <c r="H63" s="16"/>
-      <c r="I63" s="16"/>
-      <c r="J63" s="16"/>
-      <c r="K63" s="17" t="s">
+      <c r="L63" s="30"/>
+      <c r="M63" s="30"/>
+      <c r="N63" s="30"/>
+      <c r="O63" s="30"/>
+      <c r="P63" s="30"/>
+      <c r="Q63" s="30"/>
+      <c r="R63" s="30"/>
+      <c r="S63" s="30"/>
+      <c r="T63" s="30"/>
+      <c r="U63" s="30"/>
+      <c r="V63" s="30"/>
+      <c r="W63" s="30"/>
+      <c r="X63" s="30"/>
+      <c r="Y63" s="30"/>
+      <c r="Z63" s="30"/>
+      <c r="AA63" s="30"/>
+      <c r="AB63" s="30"/>
+      <c r="AC63" s="30"/>
+      <c r="AD63" s="30"/>
+      <c r="AE63" s="30"/>
+      <c r="AF63" s="30"/>
+      <c r="AG63" s="30"/>
+      <c r="AH63" s="30"/>
+      <c r="AI63" s="30"/>
+      <c r="AJ63" s="30"/>
+      <c r="AK63" s="30"/>
+      <c r="AL63" s="30"/>
+      <c r="AM63" s="30"/>
+      <c r="AN63" s="31"/>
+    </row>
+    <row r="64" spans="4:40">
+      <c r="D64" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="L63" s="18"/>
-      <c r="M63" s="18"/>
-      <c r="N63" s="18"/>
-      <c r="O63" s="18"/>
-      <c r="P63" s="18"/>
-      <c r="Q63" s="18"/>
-      <c r="R63" s="18"/>
-      <c r="S63" s="18"/>
-      <c r="T63" s="18"/>
-      <c r="U63" s="18"/>
-      <c r="V63" s="18"/>
-      <c r="W63" s="18"/>
-      <c r="X63" s="18"/>
-      <c r="Y63" s="18"/>
-      <c r="Z63" s="18"/>
-      <c r="AA63" s="18"/>
-      <c r="AB63" s="18"/>
-      <c r="AC63" s="18"/>
-      <c r="AD63" s="18"/>
-      <c r="AE63" s="18"/>
-      <c r="AF63" s="18"/>
-      <c r="AG63" s="18"/>
-      <c r="AH63" s="18"/>
-      <c r="AI63" s="18"/>
-      <c r="AJ63" s="18"/>
-      <c r="AK63" s="18"/>
-      <c r="AL63" s="18"/>
-      <c r="AM63" s="18"/>
-      <c r="AN63" s="19"/>
-    </row>
-    <row r="64" spans="4:40">
-      <c r="D64" s="20" t="s">
+      <c r="E64" s="16"/>
+      <c r="F64" s="16"/>
+      <c r="G64" s="16"/>
+      <c r="H64" s="16"/>
+      <c r="I64" s="16"/>
+      <c r="J64" s="33"/>
+      <c r="K64" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="L64" s="16"/>
+      <c r="M64" s="16"/>
+      <c r="N64" s="16"/>
+      <c r="O64" s="16"/>
+      <c r="P64" s="16"/>
+      <c r="Q64" s="16"/>
+      <c r="R64" s="16"/>
+      <c r="S64" s="16"/>
+      <c r="T64" s="16"/>
+      <c r="U64" s="16"/>
+      <c r="V64" s="16"/>
+      <c r="W64" s="16"/>
+      <c r="X64" s="16"/>
+      <c r="Y64" s="16"/>
+      <c r="Z64" s="16"/>
+      <c r="AA64" s="16"/>
+      <c r="AB64" s="16"/>
+      <c r="AC64" s="16"/>
+      <c r="AD64" s="16"/>
+      <c r="AE64" s="16"/>
+      <c r="AF64" s="16"/>
+      <c r="AG64" s="16"/>
+      <c r="AH64" s="16"/>
+      <c r="AI64" s="16"/>
+      <c r="AJ64" s="16"/>
+      <c r="AK64" s="16"/>
+      <c r="AL64" s="16"/>
+      <c r="AM64" s="16"/>
+      <c r="AN64" s="17"/>
+    </row>
+    <row r="65" spans="1:52">
+      <c r="D65" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="E64" s="21"/>
-      <c r="F64" s="21"/>
-      <c r="G64" s="21"/>
-      <c r="H64" s="21"/>
-      <c r="I64" s="21"/>
-      <c r="J64" s="22"/>
-      <c r="K64" s="29" t="s">
+      <c r="E65" s="19"/>
+      <c r="F65" s="19"/>
+      <c r="G65" s="19"/>
+      <c r="H65" s="19"/>
+      <c r="I65" s="19"/>
+      <c r="J65" s="35"/>
+      <c r="K65" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="L64" s="21"/>
-      <c r="M64" s="21"/>
-      <c r="N64" s="21"/>
-      <c r="O64" s="21"/>
-      <c r="P64" s="21"/>
-      <c r="Q64" s="21"/>
-      <c r="R64" s="21"/>
-      <c r="S64" s="21"/>
-      <c r="T64" s="21"/>
-      <c r="U64" s="21"/>
-      <c r="V64" s="21"/>
-      <c r="W64" s="21"/>
-      <c r="X64" s="21"/>
-      <c r="Y64" s="21"/>
-      <c r="Z64" s="21"/>
-      <c r="AA64" s="21"/>
-      <c r="AB64" s="21"/>
-      <c r="AC64" s="21"/>
-      <c r="AD64" s="21"/>
-      <c r="AE64" s="21"/>
-      <c r="AF64" s="21"/>
-      <c r="AG64" s="21"/>
-      <c r="AH64" s="21"/>
-      <c r="AI64" s="21"/>
-      <c r="AJ64" s="21"/>
-      <c r="AK64" s="21"/>
-      <c r="AL64" s="21"/>
-      <c r="AM64" s="21"/>
-      <c r="AN64" s="30"/>
-    </row>
-    <row r="65" spans="1:52">
-      <c r="D65" s="23" t="s">
+      <c r="L65" s="19"/>
+      <c r="M65" s="19"/>
+      <c r="N65" s="19"/>
+      <c r="O65" s="19"/>
+      <c r="P65" s="19"/>
+      <c r="Q65" s="19"/>
+      <c r="R65" s="19"/>
+      <c r="S65" s="19"/>
+      <c r="T65" s="19"/>
+      <c r="U65" s="19"/>
+      <c r="V65" s="19"/>
+      <c r="W65" s="19"/>
+      <c r="X65" s="19"/>
+      <c r="Y65" s="19"/>
+      <c r="Z65" s="19"/>
+      <c r="AA65" s="19"/>
+      <c r="AB65" s="19"/>
+      <c r="AC65" s="19"/>
+      <c r="AD65" s="19"/>
+      <c r="AE65" s="19"/>
+      <c r="AF65" s="19"/>
+      <c r="AG65" s="19"/>
+      <c r="AH65" s="19"/>
+      <c r="AI65" s="19"/>
+      <c r="AJ65" s="19"/>
+      <c r="AK65" s="19"/>
+      <c r="AL65" s="19"/>
+      <c r="AM65" s="19"/>
+      <c r="AN65" s="20"/>
+    </row>
+    <row r="66" spans="1:52" ht="30" customHeight="1" thickBot="1">
+      <c r="D66" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="E65" s="24"/>
-      <c r="F65" s="24"/>
-      <c r="G65" s="24"/>
-      <c r="H65" s="24"/>
-      <c r="I65" s="24"/>
-      <c r="J65" s="25"/>
-      <c r="K65" s="31" t="s">
+      <c r="E66" s="13"/>
+      <c r="F66" s="13"/>
+      <c r="G66" s="13"/>
+      <c r="H66" s="13"/>
+      <c r="I66" s="13"/>
+      <c r="J66" s="14"/>
+      <c r="K66" s="21" t="s">
         <v>44</v>
       </c>
-      <c r="L65" s="24"/>
-      <c r="M65" s="24"/>
-      <c r="N65" s="24"/>
-      <c r="O65" s="24"/>
-      <c r="P65" s="24"/>
-      <c r="Q65" s="24"/>
-      <c r="R65" s="24"/>
-      <c r="S65" s="24"/>
-      <c r="T65" s="24"/>
-      <c r="U65" s="24"/>
-      <c r="V65" s="24"/>
-      <c r="W65" s="24"/>
-      <c r="X65" s="24"/>
-      <c r="Y65" s="24"/>
-      <c r="Z65" s="24"/>
-      <c r="AA65" s="24"/>
-      <c r="AB65" s="24"/>
-      <c r="AC65" s="24"/>
-      <c r="AD65" s="24"/>
-      <c r="AE65" s="24"/>
-      <c r="AF65" s="24"/>
-      <c r="AG65" s="24"/>
-      <c r="AH65" s="24"/>
-      <c r="AI65" s="24"/>
-      <c r="AJ65" s="24"/>
-      <c r="AK65" s="24"/>
-      <c r="AL65" s="24"/>
-      <c r="AM65" s="24"/>
-      <c r="AN65" s="32"/>
-    </row>
-    <row r="66" spans="1:52" ht="30" customHeight="1" thickBot="1">
-      <c r="D66" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="E66" s="27"/>
-      <c r="F66" s="27"/>
-      <c r="G66" s="27"/>
-      <c r="H66" s="27"/>
-      <c r="I66" s="27"/>
-      <c r="J66" s="28"/>
-      <c r="K66" s="33" t="s">
-        <v>45</v>
-      </c>
-      <c r="L66" s="34"/>
-      <c r="M66" s="34"/>
-      <c r="N66" s="34"/>
-      <c r="O66" s="34"/>
-      <c r="P66" s="34"/>
-      <c r="Q66" s="34"/>
-      <c r="R66" s="34"/>
-      <c r="S66" s="34"/>
-      <c r="T66" s="34"/>
-      <c r="U66" s="34"/>
-      <c r="V66" s="34"/>
-      <c r="W66" s="34"/>
-      <c r="X66" s="34"/>
-      <c r="Y66" s="34"/>
-      <c r="Z66" s="34"/>
-      <c r="AA66" s="34"/>
-      <c r="AB66" s="34"/>
-      <c r="AC66" s="34"/>
-      <c r="AD66" s="34"/>
-      <c r="AE66" s="34"/>
-      <c r="AF66" s="34"/>
-      <c r="AG66" s="34"/>
-      <c r="AH66" s="34"/>
-      <c r="AI66" s="34"/>
-      <c r="AJ66" s="34"/>
-      <c r="AK66" s="34"/>
-      <c r="AL66" s="34"/>
-      <c r="AM66" s="34"/>
-      <c r="AN66" s="35"/>
+      <c r="L66" s="22"/>
+      <c r="M66" s="22"/>
+      <c r="N66" s="22"/>
+      <c r="O66" s="22"/>
+      <c r="P66" s="22"/>
+      <c r="Q66" s="22"/>
+      <c r="R66" s="22"/>
+      <c r="S66" s="22"/>
+      <c r="T66" s="22"/>
+      <c r="U66" s="22"/>
+      <c r="V66" s="22"/>
+      <c r="W66" s="22"/>
+      <c r="X66" s="22"/>
+      <c r="Y66" s="22"/>
+      <c r="Z66" s="22"/>
+      <c r="AA66" s="22"/>
+      <c r="AB66" s="22"/>
+      <c r="AC66" s="22"/>
+      <c r="AD66" s="22"/>
+      <c r="AE66" s="22"/>
+      <c r="AF66" s="22"/>
+      <c r="AG66" s="22"/>
+      <c r="AH66" s="22"/>
+      <c r="AI66" s="22"/>
+      <c r="AJ66" s="22"/>
+      <c r="AK66" s="22"/>
+      <c r="AL66" s="22"/>
+      <c r="AM66" s="22"/>
+      <c r="AN66" s="23"/>
     </row>
     <row r="69" spans="1:52">
       <c r="A69" s="4"/>
@@ -2715,7 +2816,7 @@
         <v>0</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E69" s="4"/>
       <c r="F69" s="4"/>
@@ -2768,25 +2869,25 @@
     </row>
     <row r="71" spans="1:52">
       <c r="D71" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="72" spans="1:52">
       <c r="D72" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="73" spans="1:52">
       <c r="D73" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="75" spans="1:52">
       <c r="D75" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="76" spans="1:52">
@@ -2794,10 +2895,10 @@
     </row>
     <row r="77" spans="1:52">
       <c r="D77" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="78" spans="1:52">
@@ -2805,10 +2906,10 @@
     </row>
     <row r="79" spans="1:52">
       <c r="D79" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="80" spans="1:52">
@@ -2816,10 +2917,10 @@
     </row>
     <row r="81" spans="4:5">
       <c r="D81" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="82" spans="4:5">
@@ -2827,10 +2928,10 @@
     </row>
     <row r="83" spans="4:5">
       <c r="D83" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -2852,14 +2953,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:BR122"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A88" workbookViewId="0">
       <selection activeCell="E132" sqref="E132"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="2.6640625" defaultRowHeight="14.4"/>
   <sheetData>
     <row r="3" spans="1:52">
       <c r="A3" s="4"/>
@@ -2868,7 +2969,7 @@
         <v>0</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
@@ -2921,47 +3022,47 @@
     </row>
     <row r="5" spans="1:52">
       <c r="D5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:52">
       <c r="D6" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:52">
       <c r="D8" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:52">
       <c r="D9" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:52">
       <c r="D11" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:52">
       <c r="D12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="13" spans="1:52">
       <c r="D13" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="14" spans="1:52">
       <c r="D14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="15" spans="1:52">
       <c r="D15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="18" spans="1:70">
@@ -2971,7 +3072,7 @@
         <v>0</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E18" s="4"/>
       <c r="F18" s="4"/>
@@ -3056,7 +3157,7 @@
     <row r="21" spans="1:70">
       <c r="D21" s="10"/>
       <c r="E21" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F21" s="10"/>
       <c r="G21" s="10"/>
@@ -3089,7 +3190,7 @@
     <row r="22" spans="1:70">
       <c r="D22" s="10"/>
       <c r="E22" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F22" s="10"/>
       <c r="G22" s="10"/>
@@ -3122,7 +3223,7 @@
     <row r="23" spans="1:70">
       <c r="D23" s="10"/>
       <c r="E23" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F23" s="10"/>
       <c r="G23" s="10"/>
@@ -3185,7 +3286,7 @@
     </row>
     <row r="26" spans="1:70">
       <c r="D26" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="28" spans="1:70">
@@ -3260,7 +3361,7 @@
     <row r="29" spans="1:70">
       <c r="D29" s="10"/>
       <c r="E29" s="7" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F29" s="10"/>
       <c r="G29" s="10"/>
@@ -3400,7 +3501,7 @@
     <row r="31" spans="1:70">
       <c r="D31" s="10"/>
       <c r="E31" s="7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F31" s="10"/>
       <c r="G31" s="10"/>
@@ -3539,27 +3640,27 @@
     </row>
     <row r="34" spans="1:52">
       <c r="D34" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="35" spans="1:52">
       <c r="D35" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="36" spans="1:52">
       <c r="D36" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="37" spans="1:52">
       <c r="D37" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="38" spans="1:52">
       <c r="D38" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="41" spans="1:52">
@@ -3569,7 +3670,7 @@
         <v>0</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E41" s="4"/>
       <c r="F41" s="4"/>
@@ -3644,7 +3745,7 @@
     <row r="44" spans="1:52">
       <c r="D44" s="10"/>
       <c r="E44" s="7" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F44" s="10"/>
       <c r="G44" s="10"/>
@@ -3687,17 +3788,17 @@
     </row>
     <row r="47" spans="1:52">
       <c r="D47" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="48" spans="1:52">
       <c r="D48" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="49" spans="1:52">
       <c r="D49" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="50" spans="1:52">
@@ -3705,17 +3806,17 @@
     </row>
     <row r="51" spans="1:52">
       <c r="D51" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="52" spans="1:52">
       <c r="D52" s="11" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="53" spans="1:52">
       <c r="D53" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="56" spans="1:52">
@@ -3725,7 +3826,7 @@
         <v>0</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E56" s="4"/>
       <c r="F56" s="4"/>
@@ -3807,7 +3908,7 @@
     <row r="59" spans="1:52">
       <c r="D59" s="10"/>
       <c r="E59" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F59" s="10"/>
       <c r="G59" s="10"/>
@@ -3864,22 +3965,22 @@
     </row>
     <row r="62" spans="1:52">
       <c r="D62" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="63" spans="1:52">
       <c r="D63" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="65" spans="1:52">
       <c r="D65" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="66" spans="1:52">
       <c r="D66" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="69" spans="1:52">
@@ -3889,7 +3990,7 @@
         <v>0</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E69" s="4"/>
       <c r="F69" s="4"/>
@@ -3987,7 +4088,7 @@
     <row r="72" spans="1:52">
       <c r="D72" s="10"/>
       <c r="E72" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F72" s="10"/>
       <c r="G72" s="10"/>
@@ -4076,32 +4177,32 @@
     </row>
     <row r="75" spans="1:52">
       <c r="D75" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="76" spans="1:52">
       <c r="D76" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="78" spans="1:52">
       <c r="D78" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="79" spans="1:52">
       <c r="D79" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="80" spans="1:52">
       <c r="D80" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="81" spans="1:52">
       <c r="D81" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="84" spans="1:52">
@@ -4111,7 +4212,7 @@
         <v>0</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E84" s="4"/>
       <c r="F84" s="4"/>
@@ -4188,7 +4289,7 @@
     <row r="87" spans="1:52">
       <c r="D87" s="10"/>
       <c r="E87" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F87" s="10"/>
       <c r="G87" s="10"/>
@@ -4235,22 +4336,22 @@
     </row>
     <row r="90" spans="1:52">
       <c r="D90" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="91" spans="1:52">
       <c r="D91" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="92" spans="1:52">
       <c r="D92" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="93" spans="1:52">
       <c r="D93" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="96" spans="1:52">
@@ -4260,7 +4361,7 @@
         <v>0</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E96" s="4"/>
       <c r="F96" s="4"/>
@@ -4342,7 +4443,7 @@
     <row r="99" spans="1:52">
       <c r="D99" s="10"/>
       <c r="E99" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F99" s="10"/>
       <c r="G99" s="10"/>
@@ -4399,37 +4500,37 @@
     </row>
     <row r="102" spans="1:52">
       <c r="D102" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="103" spans="1:52">
       <c r="D103" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="104" spans="1:52">
       <c r="D104" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="105" spans="1:52">
       <c r="D105" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="106" spans="1:52">
       <c r="D106" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="107" spans="1:52">
       <c r="D107" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="108" spans="1:52">
       <c r="D108" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="111" spans="1:52">
@@ -4439,7 +4540,7 @@
         <v>0</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E111" s="4"/>
       <c r="F111" s="4"/>
@@ -4533,7 +4634,7 @@
     <row r="114" spans="4:41">
       <c r="D114" s="10"/>
       <c r="E114" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="F114" s="10"/>
       <c r="G114" s="10"/>
@@ -4614,32 +4715,32 @@
     </row>
     <row r="117" spans="4:41">
       <c r="D117" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="118" spans="4:41">
       <c r="D118" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="119" spans="4:41">
       <c r="D119" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="120" spans="4:41">
       <c r="D120" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="121" spans="4:41">
       <c r="D121" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="122" spans="4:41">
       <c r="D122" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>
@@ -4649,12 +4750,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A3:BC53"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:BC55"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A58" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="AH64" sqref="AH64"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="2.6640625" defaultRowHeight="14.4"/>
   <sheetData>
     <row r="3" spans="1:55">
       <c r="A3" s="4"/>
@@ -4663,7 +4766,7 @@
         <v>0</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
@@ -4719,27 +4822,27 @@
     </row>
     <row r="5" spans="1:55">
       <c r="D5" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="6" spans="1:55">
       <c r="D6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="7" spans="1:55">
       <c r="D7" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="9" spans="1:55">
       <c r="D9" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="10" spans="1:55">
       <c r="D10" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="13" spans="1:55">
@@ -4749,7 +4852,7 @@
         <v>0</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
@@ -4803,10 +4906,10 @@
       <c r="BB13" s="4"/>
       <c r="BC13" s="4"/>
     </row>
-    <row r="14" spans="1:55" ht="14.25" thickBot="1"/>
-    <row r="15" spans="1:55" ht="14.25" thickBot="1">
-      <c r="N15" s="36" t="s">
-        <v>133</v>
+    <row r="14" spans="1:55" ht="15" thickBot="1"/>
+    <row r="15" spans="1:55" ht="15" thickBot="1">
+      <c r="N15" s="45" t="s">
+        <v>132</v>
       </c>
       <c r="O15" s="37"/>
       <c r="P15" s="37"/>
@@ -4814,14 +4917,14 @@
       <c r="R15" s="38"/>
     </row>
     <row r="16" spans="1:55">
-      <c r="D16" s="45" t="s">
-        <v>139</v>
+      <c r="D16" s="36" t="s">
+        <v>138</v>
       </c>
       <c r="E16" s="37"/>
       <c r="F16" s="37"/>
       <c r="G16" s="38"/>
       <c r="I16" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="N16" s="39"/>
       <c r="O16" s="40"/>
@@ -4829,17 +4932,17 @@
       <c r="Q16" s="40"/>
       <c r="R16" s="41"/>
       <c r="T16" t="s">
-        <v>137</v>
-      </c>
-      <c r="Y16" s="36" t="s">
-        <v>134</v>
+        <v>136</v>
+      </c>
+      <c r="Y16" s="45" t="s">
+        <v>133</v>
       </c>
       <c r="Z16" s="37"/>
       <c r="AA16" s="37"/>
       <c r="AB16" s="37"/>
       <c r="AC16" s="38"/>
     </row>
-    <row r="17" spans="1:55" ht="14.25" thickBot="1">
+    <row r="17" spans="1:55" ht="15" thickBot="1">
       <c r="D17" s="39"/>
       <c r="E17" s="40"/>
       <c r="F17" s="40"/>
@@ -4861,7 +4964,7 @@
       <c r="F18" s="40"/>
       <c r="G18" s="41"/>
       <c r="I18" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="N18" s="39"/>
       <c r="O18" s="40"/>
@@ -4869,17 +4972,17 @@
       <c r="Q18" s="40"/>
       <c r="R18" s="41"/>
       <c r="T18" t="s">
-        <v>137</v>
-      </c>
-      <c r="Y18" s="36" t="s">
-        <v>135</v>
+        <v>136</v>
+      </c>
+      <c r="Y18" s="45" t="s">
+        <v>134</v>
       </c>
       <c r="Z18" s="37"/>
       <c r="AA18" s="37"/>
       <c r="AB18" s="37"/>
       <c r="AC18" s="38"/>
     </row>
-    <row r="19" spans="1:55" ht="14.25" thickBot="1">
+    <row r="19" spans="1:55" ht="15" thickBot="1">
       <c r="D19" s="39"/>
       <c r="E19" s="40"/>
       <c r="F19" s="40"/>
@@ -4895,13 +4998,13 @@
       <c r="AB19" s="43"/>
       <c r="AC19" s="44"/>
     </row>
-    <row r="20" spans="1:55" ht="14.25" thickBot="1">
+    <row r="20" spans="1:55" ht="15" thickBot="1">
       <c r="D20" s="42"/>
       <c r="E20" s="43"/>
       <c r="F20" s="43"/>
       <c r="G20" s="44"/>
       <c r="I20" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="N20" s="39"/>
       <c r="O20" s="40"/>
@@ -4909,17 +5012,17 @@
       <c r="Q20" s="40"/>
       <c r="R20" s="41"/>
       <c r="T20" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="Y20" s="39" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="Z20" s="40"/>
       <c r="AA20" s="40"/>
       <c r="AB20" s="40"/>
       <c r="AC20" s="41"/>
     </row>
-    <row r="21" spans="1:55" ht="14.25" thickBot="1">
+    <row r="21" spans="1:55" ht="15" thickBot="1">
       <c r="N21" s="42"/>
       <c r="O21" s="43"/>
       <c r="P21" s="43"/>
@@ -4933,22 +5036,22 @@
     </row>
     <row r="23" spans="1:55">
       <c r="D23" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="24" spans="1:55">
       <c r="D24" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="25" spans="1:55">
       <c r="D25" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="26" spans="1:55">
       <c r="D26" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="28" spans="1:55">
@@ -4958,7 +5061,7 @@
         <v>0</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E28" s="4"/>
       <c r="F28" s="4"/>
@@ -5014,20 +5117,20 @@
     </row>
     <row r="30" spans="1:55">
       <c r="D30" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="31" spans="1:55">
       <c r="D31" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="32" spans="1:55">
       <c r="D32" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="33" spans="1:55">
@@ -5036,10 +5139,10 @@
     </row>
     <row r="34" spans="1:55">
       <c r="D34" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="35" spans="1:55">
@@ -5048,10 +5151,10 @@
     </row>
     <row r="36" spans="1:55">
       <c r="D36" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="39" spans="1:55">
@@ -5061,7 +5164,7 @@
         <v>0</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E39" s="4"/>
       <c r="F39" s="4"/>
@@ -5160,7 +5263,7 @@
     <row r="42" spans="1:55">
       <c r="D42" s="10"/>
       <c r="E42" s="7" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F42" s="10"/>
       <c r="G42" s="10"/>
@@ -5250,7 +5353,7 @@
         <v>0</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="E46" s="4"/>
       <c r="F46" s="4"/>
@@ -5306,15 +5409,15 @@
     </row>
     <row r="48" spans="1:55">
       <c r="D48" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="49" spans="4:5">
       <c r="D49" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="50" spans="4:5">
@@ -5323,10 +5426,10 @@
     </row>
     <row r="51" spans="4:5">
       <c r="D51" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="52" spans="4:5">
@@ -5335,10 +5438,15 @@
     </row>
     <row r="53" spans="4:5">
       <c r="D53" s="5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
+      </c>
+    </row>
+    <row r="55" spans="4:5">
+      <c r="D55" t="s">
+        <v>153</v>
       </c>
     </row>
   </sheetData>
@@ -5357,22 +5465,25 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="8" spans="2:2">
-      <c r="B8" t="s">
-        <v>1</v>
+      <c r="B8" s="46" t="s">
+        <v>152</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B8" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Cplusplus/设计模式.xlsx
+++ b/Cplusplus/设计模式.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="19200" windowHeight="11640" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="设计模式概览" sheetId="1" r:id="rId1"/>
@@ -16,14 +16,15 @@
     <sheet name="原型模式" sheetId="10" r:id="rId7"/>
     <sheet name="单例模式" sheetId="11" r:id="rId8"/>
     <sheet name="适配器模式" sheetId="12" r:id="rId9"/>
-    <sheet name="参照" sheetId="4" r:id="rId10"/>
+    <sheet name="桥接模式" sheetId="13" r:id="rId10"/>
+    <sheet name="参照" sheetId="4" r:id="rId11"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1306" uniqueCount="670">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1545" uniqueCount="783">
   <si>
     <t>★</t>
   </si>
@@ -2328,6 +2329,357 @@
       <t>，并将其封装在客户所需功能的接口里，达到最终的适配目的。</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>适配器模式代码实例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>场景:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>路径规划包括两个阶段：首先读取并解析工程图文件，得到其中的点、直线坐标；</t>
+  </si>
+  <si>
+    <t>其次根据需求计算加工路径。软件控制器（Controller）上，系统点击“路径规划”按钮就自动完成上述过程。</t>
+  </si>
+  <si>
+    <t>Jungle已经封装好一个类DxfParser，该类可以读取后缀名为dxf的工程图文件</t>
+  </si>
+  <si>
+    <t>并解析其中的点、线，保存到路径列表里。另一个类PathPlanner用于计算加工路径。</t>
+  </si>
+  <si>
+    <t>目标抽象类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//目标抽象类</t>
+  </si>
+  <si>
+    <t>class Controller</t>
+  </si>
+  <si>
+    <t>Controller(){}</t>
+  </si>
+  <si>
+    <t>virtual void pathPlanning() = 0;</t>
+  </si>
+  <si>
+    <t>适配者类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//适配者类DxfParser</t>
+  </si>
+  <si>
+    <t>class DxfParser</t>
+  </si>
+  <si>
+    <t>DxfParser(){}</t>
+  </si>
+  <si>
+    <t>void parseFile(){</t>
+  </si>
+  <si>
+    <t>printf("解析文件提取数据\n");</t>
+  </si>
+  <si>
+    <t>class PathPlanner</t>
+  </si>
+  <si>
+    <t>PathPlanner(){}</t>
+  </si>
+  <si>
+    <t>void calculate(){</t>
+  </si>
+  <si>
+    <t>printf("计算加工路径\n");</t>
+  </si>
+  <si>
+    <t>//适配者类PathPlanner</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>适配器类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//适配器类Adapter</t>
+  </si>
+  <si>
+    <t>class Adapter:public Controller</t>
+  </si>
+  <si>
+    <t>Adapter(){</t>
+  </si>
+  <si>
+    <t>dxfParser = new DxfParser();</t>
+  </si>
+  <si>
+    <t>pathPlanner = new PathPlanner();</t>
+  </si>
+  <si>
+    <t>void pathPlanning(){</t>
+  </si>
+  <si>
+    <t>printf("路径规划：\n");</t>
+  </si>
+  <si>
+    <t>dxfParser-&gt;parseFile();</t>
+  </si>
+  <si>
+    <t>pathPlanner-&gt;calculate();</t>
+  </si>
+  <si>
+    <t>DxfParser   *dxfParser;</t>
+  </si>
+  <si>
+    <t>PathPlanner *pathPlanner;</t>
+  </si>
+  <si>
+    <t>客户端代码示例</t>
+  </si>
+  <si>
+    <t>#include "AdapterPattern.h"</t>
+  </si>
+  <si>
+    <t>Controller *controller = new Adapter();</t>
+  </si>
+  <si>
+    <t>controller-&gt;pathPlanning();</t>
+  </si>
+  <si>
+    <t>适配器模式总结</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>将目标类和适配者类解耦，引入一个适配器类实现代码重用，无需修改原有结构；</t>
+  </si>
+  <si>
+    <t>增加类的透明和复用，对于客户端而言，适配者类是透明的；</t>
+  </si>
+  <si>
+    <t>对象适配器可以把不同适配者适配到同一个目标（对象适配器）；</t>
+  </si>
+  <si>
+    <t>对编程语言的限制：Java不支持多重继承，一次最多只能适配一个适配者类，不能同时适配多个适配者类；</t>
+  </si>
+  <si>
+    <t>系统需要使用一些现有的类，但这些类的接口不符合系统需要，或者没有这些类的源代码；</t>
+  </si>
+  <si>
+    <t>想创建一个重复使用的类，用于和一些彼此没有太大关联的类一起工作。</t>
+  </si>
+  <si>
+    <t>如果系统中的某个类存在两个独立变化的维度，通过桥接模式可以将这两个维度分离开来，使两者独立扩展。</t>
+  </si>
+  <si>
+    <t>如同上述实例，Jungle想用手机玩游戏，手机和游戏是两个独立变化的维度，增加一个游戏对手机没有影响，增加一个手机对游戏也没有影响。</t>
+  </si>
+  <si>
+    <t>手机上可以安装游戏，而游戏必须在手机上玩，从这个角度而言，手机和游戏之间存在较强的耦合。</t>
+  </si>
+  <si>
+    <t>但两者可以很好的解耦，且解耦后扩展灵活：</t>
+  </si>
+  <si>
+    <t>所有游戏安装在一个手机上，新出一个游戏，新安装就ok！买了新手机，同样可以装上所有游戏。这就是桥接模式：</t>
+  </si>
+  <si>
+    <t>桥接模式:将抽象部分与它的实现部分解耦，使得两者都能够独立变化。</t>
+  </si>
+  <si>
+    <t>桥接模式将两个独立变化的维度设计成两个独立的继承等级结构（而不会将两者耦合在一起形成多层继承结构）</t>
+  </si>
+  <si>
+    <t>在抽象层将二者建立起一个抽象关联，该关联关系类似一座桥，将两个独立的等级结构连接起来，故曰“桥接模式”。</t>
+  </si>
+  <si>
+    <t>桥接模式结构</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Abstraction(抽象类):定义抽象类的接口（抽象接口），由聚合关系可知，抽象类中包含一个Implementor类型的对象，它与Implementor之间有关联关系，既可以包含抽象业务方法，也可以包含具体业务方法；</t>
+  </si>
+  <si>
+    <t>Implementor(实现类接口):定义实现类的接口，这个接口可以与Abstraction类的接口不同。一般而言，实现类接口只定义基本操作，而抽象类的接口还可能会做更多复杂的操作。</t>
+  </si>
+  <si>
+    <t>RefinedAbstraction(扩充抽象类):具体类，实现在抽象类中定义的接口，可以调用在Implementor中定义的方法；</t>
+  </si>
+  <si>
+    <t>ConcreteImplementor(具体实现类):具体实现了Implementor接口，在不同的具体实现类中实现不同的具体操作。运行时ConcreteImplementor将替换父类。</t>
+  </si>
+  <si>
+    <t>简言之，在Abstraction类中维护一个Implementor类指针，需要采用不同的实现方式的时候只需要传入不同的Implementor派生类就可以了。</t>
+  </si>
+  <si>
+    <t>桥接模式代码实例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新手机上能够迅速在新手机上安装（setup）并玩（play）游戏</t>
+  </si>
+  <si>
+    <t>新增加一个游戏时Jungle能够在已有手机上安装并play</t>
+  </si>
+  <si>
+    <t>实现类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//实现类接口</t>
+  </si>
+  <si>
+    <t>class Game</t>
+  </si>
+  <si>
+    <t>Game(){}</t>
+  </si>
+  <si>
+    <t>virtual void play() = 0;</t>
+  </si>
+  <si>
+    <t>//具体实现类GameA</t>
+  </si>
+  <si>
+    <t>class GameA:public Game</t>
+  </si>
+  <si>
+    <t>GameA(){}</t>
+  </si>
+  <si>
+    <t>printf("Jungle玩游戏A\n");</t>
+  </si>
+  <si>
+    <t>//具体实现类GameB</t>
+  </si>
+  <si>
+    <t>class GameB :public Game</t>
+  </si>
+  <si>
+    <t>GameB(){}</t>
+  </si>
+  <si>
+    <t>printf("Jungle玩游戏B\n");</t>
+  </si>
+  <si>
+    <t>实现类Game中声明了play的接口，不过它是一个虚方法，其实现在具体实现类GameA和GameB中定义。</t>
+  </si>
+  <si>
+    <t>抽象类和扩充抽象类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//抽象类Phone</t>
+  </si>
+  <si>
+    <t>class Phone</t>
+  </si>
+  <si>
+    <t>Phone(){</t>
+  </si>
+  <si>
+    <t>//安装游戏</t>
+  </si>
+  <si>
+    <t>virtual void setupGame(Game *igame) = 0;</t>
+  </si>
+  <si>
+    <t>Game *game;</t>
+  </si>
+  <si>
+    <t>//扩充抽象类PhoneA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">class PhoneA:public Phone </t>
+  </si>
+  <si>
+    <t>PhoneA(){</t>
+  </si>
+  <si>
+    <t>void setupGame(Game *igame){</t>
+  </si>
+  <si>
+    <t>this-&gt;game = igame;</t>
+  </si>
+  <si>
+    <t>this-&gt;game-&gt;play();</t>
+  </si>
+  <si>
+    <t>//扩充抽象类PhoneB</t>
+  </si>
+  <si>
+    <t>class PhoneB :public Phone</t>
+  </si>
+  <si>
+    <t>PhoneB(){</t>
+  </si>
+  <si>
+    <t>抽象类Phone中也声明了两个虚方法，并且定义了一个实现类的对象，使抽象和实现具有关联关系。而对象的实例化则放在客户端使用时进行。</t>
+  </si>
+  <si>
+    <t>#include "BridgePattern.h"</t>
+  </si>
+  <si>
+    <t>Phone *phone;</t>
+  </si>
+  <si>
+    <t>//Jungle买了PhoneA品牌的手机，想玩游戏A</t>
+  </si>
+  <si>
+    <t>phone = new PhoneA();</t>
+  </si>
+  <si>
+    <t>game = new GameA();</t>
+  </si>
+  <si>
+    <t>phone-&gt;setupGame(game);</t>
+  </si>
+  <si>
+    <t>phone-&gt;play();</t>
+  </si>
+  <si>
+    <t>printf("++++++++++++++++++++++++++++++++++\n");</t>
+  </si>
+  <si>
+    <t>//Jungle想在这个手机上玩游戏B</t>
+  </si>
+  <si>
+    <t>game = new GameB();</t>
+  </si>
+  <si>
+    <t>桥接模式总结</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分离抽象接口与实现部分，使用对象间的关联关系使抽象与实现解耦；</t>
+  </si>
+  <si>
+    <t>桥接模式可以取代多层继承关系，多层继承违背单一职责原则，不利于代码复用；</t>
+  </si>
+  <si>
+    <t>桥接模式提高了系统可扩展性，某个维度需要扩展只需增加实现类接口或者具体实现类，而且不影响另一个维度，符合开闭原则。</t>
+  </si>
+  <si>
+    <t>桥接模式难以理解，因为关联关系建立在抽象层，需要一开始就设计抽象层；</t>
+  </si>
+  <si>
+    <t>如何准确识别系统中的两个维度是应用桥接模式的难点。</t>
+  </si>
+  <si>
+    <t>适用场景:</t>
+  </si>
+  <si>
+    <t>如果一个系统需要在抽象化和具体化之间增加灵活性，避免在两个层次之间增加继承关系，可以使用桥接模式在抽象层建立关联关系；</t>
+  </si>
+  <si>
+    <t>抽象部分和实现部分可以各自扩展而互不影响；</t>
+  </si>
+  <si>
+    <t>一个类存在多个独立变化的维度，可采用桥接模式。</t>
   </si>
 </sst>
 </file>
@@ -2852,6 +3204,60 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2954,57 +3360,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="34" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -3013,9 +3368,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3364,7 +3716,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -5010,6 +5362,49 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>123085</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>123381</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1" descr="Adapter.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="600075" y="4800600"/>
+          <a:ext cx="5923810" cy="3552381"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
@@ -5297,7 +5692,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A3:AZ83"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A34" workbookViewId="0">
       <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
@@ -6025,217 +6420,217 @@
     </row>
     <row r="61" spans="4:40" ht="14.25" thickBot="1"/>
     <row r="62" spans="4:40" ht="14.25" thickBot="1">
-      <c r="D62" s="25" t="s">
+      <c r="D62" s="43" t="s">
         <v>45</v>
       </c>
-      <c r="E62" s="26"/>
-      <c r="F62" s="26"/>
-      <c r="G62" s="26"/>
-      <c r="H62" s="26"/>
-      <c r="I62" s="26"/>
-      <c r="J62" s="26"/>
-      <c r="K62" s="26"/>
-      <c r="L62" s="26"/>
-      <c r="M62" s="26"/>
-      <c r="N62" s="26"/>
-      <c r="O62" s="26"/>
-      <c r="P62" s="26"/>
-      <c r="Q62" s="26"/>
-      <c r="R62" s="26"/>
-      <c r="S62" s="26"/>
-      <c r="T62" s="26"/>
-      <c r="U62" s="26"/>
-      <c r="V62" s="26"/>
-      <c r="W62" s="26"/>
-      <c r="X62" s="26"/>
-      <c r="Y62" s="26"/>
-      <c r="Z62" s="26"/>
-      <c r="AA62" s="26"/>
-      <c r="AB62" s="26"/>
-      <c r="AC62" s="26"/>
-      <c r="AD62" s="26"/>
-      <c r="AE62" s="26"/>
-      <c r="AF62" s="26"/>
-      <c r="AG62" s="26"/>
-      <c r="AH62" s="26"/>
-      <c r="AI62" s="26"/>
-      <c r="AJ62" s="26"/>
-      <c r="AK62" s="26"/>
-      <c r="AL62" s="26"/>
-      <c r="AM62" s="26"/>
-      <c r="AN62" s="27"/>
+      <c r="E62" s="44"/>
+      <c r="F62" s="44"/>
+      <c r="G62" s="44"/>
+      <c r="H62" s="44"/>
+      <c r="I62" s="44"/>
+      <c r="J62" s="44"/>
+      <c r="K62" s="44"/>
+      <c r="L62" s="44"/>
+      <c r="M62" s="44"/>
+      <c r="N62" s="44"/>
+      <c r="O62" s="44"/>
+      <c r="P62" s="44"/>
+      <c r="Q62" s="44"/>
+      <c r="R62" s="44"/>
+      <c r="S62" s="44"/>
+      <c r="T62" s="44"/>
+      <c r="U62" s="44"/>
+      <c r="V62" s="44"/>
+      <c r="W62" s="44"/>
+      <c r="X62" s="44"/>
+      <c r="Y62" s="44"/>
+      <c r="Z62" s="44"/>
+      <c r="AA62" s="44"/>
+      <c r="AB62" s="44"/>
+      <c r="AC62" s="44"/>
+      <c r="AD62" s="44"/>
+      <c r="AE62" s="44"/>
+      <c r="AF62" s="44"/>
+      <c r="AG62" s="44"/>
+      <c r="AH62" s="44"/>
+      <c r="AI62" s="44"/>
+      <c r="AJ62" s="44"/>
+      <c r="AK62" s="44"/>
+      <c r="AL62" s="44"/>
+      <c r="AM62" s="44"/>
+      <c r="AN62" s="45"/>
     </row>
     <row r="63" spans="4:40" ht="14.25" thickBot="1">
-      <c r="D63" s="28" t="s">
+      <c r="D63" s="46" t="s">
         <v>46</v>
       </c>
-      <c r="E63" s="29"/>
-      <c r="F63" s="29"/>
-      <c r="G63" s="29"/>
-      <c r="H63" s="29"/>
-      <c r="I63" s="29"/>
-      <c r="J63" s="29"/>
-      <c r="K63" s="30" t="s">
+      <c r="E63" s="47"/>
+      <c r="F63" s="47"/>
+      <c r="G63" s="47"/>
+      <c r="H63" s="47"/>
+      <c r="I63" s="47"/>
+      <c r="J63" s="47"/>
+      <c r="K63" s="48" t="s">
         <v>38</v>
       </c>
-      <c r="L63" s="31"/>
-      <c r="M63" s="31"/>
-      <c r="N63" s="31"/>
-      <c r="O63" s="31"/>
-      <c r="P63" s="31"/>
-      <c r="Q63" s="31"/>
-      <c r="R63" s="31"/>
-      <c r="S63" s="31"/>
-      <c r="T63" s="31"/>
-      <c r="U63" s="31"/>
-      <c r="V63" s="31"/>
-      <c r="W63" s="31"/>
-      <c r="X63" s="31"/>
-      <c r="Y63" s="31"/>
-      <c r="Z63" s="31"/>
-      <c r="AA63" s="31"/>
-      <c r="AB63" s="31"/>
-      <c r="AC63" s="31"/>
-      <c r="AD63" s="31"/>
-      <c r="AE63" s="31"/>
-      <c r="AF63" s="31"/>
-      <c r="AG63" s="31"/>
-      <c r="AH63" s="31"/>
-      <c r="AI63" s="31"/>
-      <c r="AJ63" s="31"/>
-      <c r="AK63" s="31"/>
-      <c r="AL63" s="31"/>
-      <c r="AM63" s="31"/>
-      <c r="AN63" s="32"/>
+      <c r="L63" s="49"/>
+      <c r="M63" s="49"/>
+      <c r="N63" s="49"/>
+      <c r="O63" s="49"/>
+      <c r="P63" s="49"/>
+      <c r="Q63" s="49"/>
+      <c r="R63" s="49"/>
+      <c r="S63" s="49"/>
+      <c r="T63" s="49"/>
+      <c r="U63" s="49"/>
+      <c r="V63" s="49"/>
+      <c r="W63" s="49"/>
+      <c r="X63" s="49"/>
+      <c r="Y63" s="49"/>
+      <c r="Z63" s="49"/>
+      <c r="AA63" s="49"/>
+      <c r="AB63" s="49"/>
+      <c r="AC63" s="49"/>
+      <c r="AD63" s="49"/>
+      <c r="AE63" s="49"/>
+      <c r="AF63" s="49"/>
+      <c r="AG63" s="49"/>
+      <c r="AH63" s="49"/>
+      <c r="AI63" s="49"/>
+      <c r="AJ63" s="49"/>
+      <c r="AK63" s="49"/>
+      <c r="AL63" s="49"/>
+      <c r="AM63" s="49"/>
+      <c r="AN63" s="50"/>
     </row>
     <row r="64" spans="4:40">
-      <c r="D64" s="33" t="s">
+      <c r="D64" s="51" t="s">
         <v>39</v>
       </c>
-      <c r="E64" s="17"/>
-      <c r="F64" s="17"/>
-      <c r="G64" s="17"/>
-      <c r="H64" s="17"/>
-      <c r="I64" s="17"/>
-      <c r="J64" s="34"/>
-      <c r="K64" s="16" t="s">
+      <c r="E64" s="35"/>
+      <c r="F64" s="35"/>
+      <c r="G64" s="35"/>
+      <c r="H64" s="35"/>
+      <c r="I64" s="35"/>
+      <c r="J64" s="52"/>
+      <c r="K64" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="L64" s="17"/>
-      <c r="M64" s="17"/>
-      <c r="N64" s="17"/>
-      <c r="O64" s="17"/>
-      <c r="P64" s="17"/>
-      <c r="Q64" s="17"/>
-      <c r="R64" s="17"/>
-      <c r="S64" s="17"/>
-      <c r="T64" s="17"/>
-      <c r="U64" s="17"/>
-      <c r="V64" s="17"/>
-      <c r="W64" s="17"/>
-      <c r="X64" s="17"/>
-      <c r="Y64" s="17"/>
-      <c r="Z64" s="17"/>
-      <c r="AA64" s="17"/>
-      <c r="AB64" s="17"/>
-      <c r="AC64" s="17"/>
-      <c r="AD64" s="17"/>
-      <c r="AE64" s="17"/>
-      <c r="AF64" s="17"/>
-      <c r="AG64" s="17"/>
-      <c r="AH64" s="17"/>
-      <c r="AI64" s="17"/>
-      <c r="AJ64" s="17"/>
-      <c r="AK64" s="17"/>
-      <c r="AL64" s="17"/>
-      <c r="AM64" s="17"/>
-      <c r="AN64" s="18"/>
+      <c r="L64" s="35"/>
+      <c r="M64" s="35"/>
+      <c r="N64" s="35"/>
+      <c r="O64" s="35"/>
+      <c r="P64" s="35"/>
+      <c r="Q64" s="35"/>
+      <c r="R64" s="35"/>
+      <c r="S64" s="35"/>
+      <c r="T64" s="35"/>
+      <c r="U64" s="35"/>
+      <c r="V64" s="35"/>
+      <c r="W64" s="35"/>
+      <c r="X64" s="35"/>
+      <c r="Y64" s="35"/>
+      <c r="Z64" s="35"/>
+      <c r="AA64" s="35"/>
+      <c r="AB64" s="35"/>
+      <c r="AC64" s="35"/>
+      <c r="AD64" s="35"/>
+      <c r="AE64" s="35"/>
+      <c r="AF64" s="35"/>
+      <c r="AG64" s="35"/>
+      <c r="AH64" s="35"/>
+      <c r="AI64" s="35"/>
+      <c r="AJ64" s="35"/>
+      <c r="AK64" s="35"/>
+      <c r="AL64" s="35"/>
+      <c r="AM64" s="35"/>
+      <c r="AN64" s="36"/>
     </row>
     <row r="65" spans="1:52">
-      <c r="D65" s="35" t="s">
+      <c r="D65" s="53" t="s">
         <v>40</v>
       </c>
-      <c r="E65" s="20"/>
-      <c r="F65" s="20"/>
-      <c r="G65" s="20"/>
-      <c r="H65" s="20"/>
-      <c r="I65" s="20"/>
-      <c r="J65" s="36"/>
-      <c r="K65" s="19" t="s">
+      <c r="E65" s="38"/>
+      <c r="F65" s="38"/>
+      <c r="G65" s="38"/>
+      <c r="H65" s="38"/>
+      <c r="I65" s="38"/>
+      <c r="J65" s="54"/>
+      <c r="K65" s="37" t="s">
         <v>43</v>
       </c>
-      <c r="L65" s="20"/>
-      <c r="M65" s="20"/>
-      <c r="N65" s="20"/>
-      <c r="O65" s="20"/>
-      <c r="P65" s="20"/>
-      <c r="Q65" s="20"/>
-      <c r="R65" s="20"/>
-      <c r="S65" s="20"/>
-      <c r="T65" s="20"/>
-      <c r="U65" s="20"/>
-      <c r="V65" s="20"/>
-      <c r="W65" s="20"/>
-      <c r="X65" s="20"/>
-      <c r="Y65" s="20"/>
-      <c r="Z65" s="20"/>
-      <c r="AA65" s="20"/>
-      <c r="AB65" s="20"/>
-      <c r="AC65" s="20"/>
-      <c r="AD65" s="20"/>
-      <c r="AE65" s="20"/>
-      <c r="AF65" s="20"/>
-      <c r="AG65" s="20"/>
-      <c r="AH65" s="20"/>
-      <c r="AI65" s="20"/>
-      <c r="AJ65" s="20"/>
-      <c r="AK65" s="20"/>
-      <c r="AL65" s="20"/>
-      <c r="AM65" s="20"/>
-      <c r="AN65" s="21"/>
+      <c r="L65" s="38"/>
+      <c r="M65" s="38"/>
+      <c r="N65" s="38"/>
+      <c r="O65" s="38"/>
+      <c r="P65" s="38"/>
+      <c r="Q65" s="38"/>
+      <c r="R65" s="38"/>
+      <c r="S65" s="38"/>
+      <c r="T65" s="38"/>
+      <c r="U65" s="38"/>
+      <c r="V65" s="38"/>
+      <c r="W65" s="38"/>
+      <c r="X65" s="38"/>
+      <c r="Y65" s="38"/>
+      <c r="Z65" s="38"/>
+      <c r="AA65" s="38"/>
+      <c r="AB65" s="38"/>
+      <c r="AC65" s="38"/>
+      <c r="AD65" s="38"/>
+      <c r="AE65" s="38"/>
+      <c r="AF65" s="38"/>
+      <c r="AG65" s="38"/>
+      <c r="AH65" s="38"/>
+      <c r="AI65" s="38"/>
+      <c r="AJ65" s="38"/>
+      <c r="AK65" s="38"/>
+      <c r="AL65" s="38"/>
+      <c r="AM65" s="38"/>
+      <c r="AN65" s="39"/>
     </row>
     <row r="66" spans="1:52" ht="30" customHeight="1" thickBot="1">
-      <c r="D66" s="13" t="s">
+      <c r="D66" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="E66" s="14"/>
-      <c r="F66" s="14"/>
-      <c r="G66" s="14"/>
-      <c r="H66" s="14"/>
-      <c r="I66" s="14"/>
-      <c r="J66" s="15"/>
-      <c r="K66" s="22" t="s">
+      <c r="E66" s="32"/>
+      <c r="F66" s="32"/>
+      <c r="G66" s="32"/>
+      <c r="H66" s="32"/>
+      <c r="I66" s="32"/>
+      <c r="J66" s="33"/>
+      <c r="K66" s="40" t="s">
         <v>44</v>
       </c>
-      <c r="L66" s="23"/>
-      <c r="M66" s="23"/>
-      <c r="N66" s="23"/>
-      <c r="O66" s="23"/>
-      <c r="P66" s="23"/>
-      <c r="Q66" s="23"/>
-      <c r="R66" s="23"/>
-      <c r="S66" s="23"/>
-      <c r="T66" s="23"/>
-      <c r="U66" s="23"/>
-      <c r="V66" s="23"/>
-      <c r="W66" s="23"/>
-      <c r="X66" s="23"/>
-      <c r="Y66" s="23"/>
-      <c r="Z66" s="23"/>
-      <c r="AA66" s="23"/>
-      <c r="AB66" s="23"/>
-      <c r="AC66" s="23"/>
-      <c r="AD66" s="23"/>
-      <c r="AE66" s="23"/>
-      <c r="AF66" s="23"/>
-      <c r="AG66" s="23"/>
-      <c r="AH66" s="23"/>
-      <c r="AI66" s="23"/>
-      <c r="AJ66" s="23"/>
-      <c r="AK66" s="23"/>
-      <c r="AL66" s="23"/>
-      <c r="AM66" s="23"/>
-      <c r="AN66" s="24"/>
+      <c r="L66" s="41"/>
+      <c r="M66" s="41"/>
+      <c r="N66" s="41"/>
+      <c r="O66" s="41"/>
+      <c r="P66" s="41"/>
+      <c r="Q66" s="41"/>
+      <c r="R66" s="41"/>
+      <c r="S66" s="41"/>
+      <c r="T66" s="41"/>
+      <c r="U66" s="41"/>
+      <c r="V66" s="41"/>
+      <c r="W66" s="41"/>
+      <c r="X66" s="41"/>
+      <c r="Y66" s="41"/>
+      <c r="Z66" s="41"/>
+      <c r="AA66" s="41"/>
+      <c r="AB66" s="41"/>
+      <c r="AC66" s="41"/>
+      <c r="AD66" s="41"/>
+      <c r="AE66" s="41"/>
+      <c r="AF66" s="41"/>
+      <c r="AG66" s="41"/>
+      <c r="AH66" s="41"/>
+      <c r="AI66" s="41"/>
+      <c r="AJ66" s="41"/>
+      <c r="AK66" s="41"/>
+      <c r="AL66" s="41"/>
+      <c r="AM66" s="41"/>
+      <c r="AN66" s="42"/>
     </row>
     <row r="69" spans="1:52">
       <c r="A69" s="4"/>
@@ -6382,10 +6777,3013 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A3:AZ188"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A124" workbookViewId="0">
+      <selection activeCell="P180" sqref="P180"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="3" spans="1:52">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>654</v>
+      </c>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="4"/>
+      <c r="S3" s="4"/>
+      <c r="T3" s="4"/>
+      <c r="U3" s="4"/>
+      <c r="V3" s="4"/>
+      <c r="W3" s="4"/>
+      <c r="X3" s="4"/>
+      <c r="Y3" s="4"/>
+      <c r="Z3" s="4"/>
+      <c r="AA3" s="4"/>
+      <c r="AB3" s="4"/>
+      <c r="AC3" s="4"/>
+      <c r="AD3" s="4"/>
+      <c r="AE3" s="4"/>
+      <c r="AF3" s="4"/>
+      <c r="AG3" s="4"/>
+      <c r="AH3" s="4"/>
+      <c r="AI3" s="4"/>
+      <c r="AJ3" s="4"/>
+      <c r="AK3" s="4"/>
+      <c r="AL3" s="4"/>
+      <c r="AM3" s="4"/>
+      <c r="AN3" s="4"/>
+      <c r="AO3" s="4"/>
+      <c r="AP3" s="4"/>
+      <c r="AQ3" s="4"/>
+      <c r="AR3" s="4"/>
+      <c r="AS3" s="4"/>
+      <c r="AT3" s="4"/>
+      <c r="AU3" s="4"/>
+      <c r="AV3" s="4"/>
+      <c r="AW3" s="4"/>
+      <c r="AX3" s="4"/>
+      <c r="AY3" s="4"/>
+      <c r="AZ3" s="4"/>
+    </row>
+    <row r="5" spans="1:52">
+      <c r="D5" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="6" spans="1:52">
+      <c r="D6" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="7" spans="1:52">
+      <c r="D7" t="s">
+        <v>717</v>
+      </c>
+    </row>
+    <row r="9" spans="1:52">
+      <c r="D9" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="10" spans="1:52">
+      <c r="D10" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="12" spans="1:52">
+      <c r="D12" s="10"/>
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="10"/>
+      <c r="M12" s="10"/>
+      <c r="N12" s="10"/>
+      <c r="O12" s="10"/>
+      <c r="P12" s="10"/>
+      <c r="Q12" s="10"/>
+      <c r="R12" s="10"/>
+      <c r="S12" s="10"/>
+      <c r="T12" s="10"/>
+      <c r="U12" s="10"/>
+      <c r="V12" s="10"/>
+      <c r="W12" s="10"/>
+      <c r="X12" s="10"/>
+      <c r="Y12" s="10"/>
+      <c r="Z12" s="10"/>
+      <c r="AA12" s="10"/>
+      <c r="AB12" s="10"/>
+      <c r="AC12" s="10"/>
+    </row>
+    <row r="13" spans="1:52">
+      <c r="D13" s="10"/>
+      <c r="E13" s="7" t="s">
+        <v>720</v>
+      </c>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="10"/>
+      <c r="M13" s="10"/>
+      <c r="N13" s="10"/>
+      <c r="O13" s="10"/>
+      <c r="P13" s="10"/>
+      <c r="Q13" s="10"/>
+      <c r="R13" s="10"/>
+      <c r="S13" s="10"/>
+      <c r="T13" s="10"/>
+      <c r="U13" s="10"/>
+      <c r="V13" s="10"/>
+      <c r="W13" s="10"/>
+      <c r="X13" s="10"/>
+      <c r="Y13" s="10"/>
+      <c r="Z13" s="10"/>
+      <c r="AA13" s="10"/>
+      <c r="AB13" s="10"/>
+      <c r="AC13" s="10"/>
+    </row>
+    <row r="14" spans="1:52">
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="10"/>
+      <c r="M14" s="10"/>
+      <c r="N14" s="10"/>
+      <c r="O14" s="10"/>
+      <c r="P14" s="10"/>
+      <c r="Q14" s="10"/>
+      <c r="R14" s="10"/>
+      <c r="S14" s="10"/>
+      <c r="T14" s="10"/>
+      <c r="U14" s="10"/>
+      <c r="V14" s="10"/>
+      <c r="W14" s="10"/>
+      <c r="X14" s="10"/>
+      <c r="Y14" s="10"/>
+      <c r="Z14" s="10"/>
+      <c r="AA14" s="10"/>
+      <c r="AB14" s="10"/>
+      <c r="AC14" s="10"/>
+    </row>
+    <row r="16" spans="1:52">
+      <c r="D16" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="17" spans="1:52">
+      <c r="D17" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="20" spans="1:52">
+      <c r="A20" s="4"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>723</v>
+      </c>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
+      <c r="M20" s="4"/>
+      <c r="N20" s="4"/>
+      <c r="O20" s="4"/>
+      <c r="P20" s="4"/>
+      <c r="Q20" s="4"/>
+      <c r="R20" s="4"/>
+      <c r="S20" s="4"/>
+      <c r="T20" s="4"/>
+      <c r="U20" s="4"/>
+      <c r="V20" s="4"/>
+      <c r="W20" s="4"/>
+      <c r="X20" s="4"/>
+      <c r="Y20" s="4"/>
+      <c r="Z20" s="4"/>
+      <c r="AA20" s="4"/>
+      <c r="AB20" s="4"/>
+      <c r="AC20" s="4"/>
+      <c r="AD20" s="4"/>
+      <c r="AE20" s="4"/>
+      <c r="AF20" s="4"/>
+      <c r="AG20" s="4"/>
+      <c r="AH20" s="4"/>
+      <c r="AI20" s="4"/>
+      <c r="AJ20" s="4"/>
+      <c r="AK20" s="4"/>
+      <c r="AL20" s="4"/>
+      <c r="AM20" s="4"/>
+      <c r="AN20" s="4"/>
+      <c r="AO20" s="4"/>
+      <c r="AP20" s="4"/>
+      <c r="AQ20" s="4"/>
+      <c r="AR20" s="4"/>
+      <c r="AS20" s="4"/>
+      <c r="AT20" s="4"/>
+      <c r="AU20" s="4"/>
+      <c r="AV20" s="4"/>
+      <c r="AW20" s="4"/>
+      <c r="AX20" s="4"/>
+      <c r="AY20" s="4"/>
+      <c r="AZ20" s="4"/>
+    </row>
+    <row r="22" spans="1:52">
+      <c r="D22" t="s">
+        <v>26</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="23" spans="1:52">
+      <c r="D23" t="s">
+        <v>26</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="24" spans="1:52">
+      <c r="D24" t="s">
+        <v>26</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="25" spans="1:52">
+      <c r="D25" t="s">
+        <v>26</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="27" spans="1:52">
+      <c r="D27" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="57" spans="1:52">
+      <c r="A57" s="4"/>
+      <c r="B57" s="4"/>
+      <c r="C57" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>729</v>
+      </c>
+      <c r="E57" s="4"/>
+      <c r="F57" s="4"/>
+      <c r="G57" s="4"/>
+      <c r="H57" s="4"/>
+      <c r="I57" s="4"/>
+      <c r="J57" s="4"/>
+      <c r="K57" s="4"/>
+      <c r="L57" s="4"/>
+      <c r="M57" s="4"/>
+      <c r="N57" s="4"/>
+      <c r="O57" s="4"/>
+      <c r="P57" s="4"/>
+      <c r="Q57" s="4"/>
+      <c r="R57" s="4"/>
+      <c r="S57" s="4"/>
+      <c r="T57" s="4"/>
+      <c r="U57" s="4"/>
+      <c r="V57" s="4"/>
+      <c r="W57" s="4"/>
+      <c r="X57" s="4"/>
+      <c r="Y57" s="4"/>
+      <c r="Z57" s="4"/>
+      <c r="AA57" s="4"/>
+      <c r="AB57" s="4"/>
+      <c r="AC57" s="4"/>
+      <c r="AD57" s="4"/>
+      <c r="AE57" s="4"/>
+      <c r="AF57" s="4"/>
+      <c r="AG57" s="4"/>
+      <c r="AH57" s="4"/>
+      <c r="AI57" s="4"/>
+      <c r="AJ57" s="4"/>
+      <c r="AK57" s="4"/>
+      <c r="AL57" s="4"/>
+      <c r="AM57" s="4"/>
+      <c r="AN57" s="4"/>
+      <c r="AO57" s="4"/>
+      <c r="AP57" s="4"/>
+      <c r="AQ57" s="4"/>
+      <c r="AR57" s="4"/>
+      <c r="AS57" s="4"/>
+      <c r="AT57" s="4"/>
+      <c r="AU57" s="4"/>
+      <c r="AV57" s="4"/>
+      <c r="AW57" s="4"/>
+      <c r="AX57" s="4"/>
+      <c r="AY57" s="4"/>
+      <c r="AZ57" s="4"/>
+    </row>
+    <row r="59" spans="1:52">
+      <c r="D59" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="60" spans="1:52">
+      <c r="D60" s="10"/>
+      <c r="E60" s="10"/>
+      <c r="F60" s="10"/>
+      <c r="G60" s="10"/>
+      <c r="H60" s="10"/>
+      <c r="I60" s="10"/>
+      <c r="J60" s="10"/>
+      <c r="K60" s="10"/>
+      <c r="L60" s="10"/>
+      <c r="M60" s="10"/>
+      <c r="N60" s="10"/>
+      <c r="O60" s="10"/>
+      <c r="P60" s="10"/>
+      <c r="Q60" s="10"/>
+      <c r="R60" s="10"/>
+      <c r="S60" s="10"/>
+      <c r="T60" s="10"/>
+      <c r="U60" s="10"/>
+      <c r="V60" s="10"/>
+      <c r="W60" s="10"/>
+      <c r="X60" s="10"/>
+      <c r="Y60" s="10"/>
+      <c r="Z60" s="10"/>
+      <c r="AA60" s="10"/>
+    </row>
+    <row r="61" spans="1:52">
+      <c r="D61" s="10"/>
+      <c r="E61" s="7" t="s">
+        <v>730</v>
+      </c>
+      <c r="F61" s="10"/>
+      <c r="G61" s="10"/>
+      <c r="H61" s="10"/>
+      <c r="I61" s="10"/>
+      <c r="J61" s="10"/>
+      <c r="K61" s="10"/>
+      <c r="L61" s="10"/>
+      <c r="M61" s="10"/>
+      <c r="N61" s="10"/>
+      <c r="O61" s="10"/>
+      <c r="P61" s="10"/>
+      <c r="Q61" s="10"/>
+      <c r="R61" s="10"/>
+      <c r="S61" s="10"/>
+      <c r="T61" s="10"/>
+      <c r="U61" s="10"/>
+      <c r="V61" s="10"/>
+      <c r="W61" s="10"/>
+      <c r="X61" s="10"/>
+      <c r="Y61" s="10"/>
+      <c r="Z61" s="10"/>
+      <c r="AA61" s="10"/>
+    </row>
+    <row r="62" spans="1:52">
+      <c r="D62" s="10"/>
+      <c r="E62" s="7" t="s">
+        <v>731</v>
+      </c>
+      <c r="F62" s="10"/>
+      <c r="G62" s="10"/>
+      <c r="H62" s="10"/>
+      <c r="I62" s="10"/>
+      <c r="J62" s="10"/>
+      <c r="K62" s="10"/>
+      <c r="L62" s="10"/>
+      <c r="M62" s="10"/>
+      <c r="N62" s="10"/>
+      <c r="O62" s="10"/>
+      <c r="P62" s="10"/>
+      <c r="Q62" s="10"/>
+      <c r="R62" s="10"/>
+      <c r="S62" s="10"/>
+      <c r="T62" s="10"/>
+      <c r="U62" s="10"/>
+      <c r="V62" s="10"/>
+      <c r="W62" s="10"/>
+      <c r="X62" s="10"/>
+      <c r="Y62" s="10"/>
+      <c r="Z62" s="10"/>
+      <c r="AA62" s="10"/>
+    </row>
+    <row r="63" spans="1:52">
+      <c r="D63" s="10"/>
+      <c r="E63" s="10"/>
+      <c r="F63" s="10"/>
+      <c r="G63" s="10"/>
+      <c r="H63" s="10"/>
+      <c r="I63" s="10"/>
+      <c r="J63" s="10"/>
+      <c r="K63" s="10"/>
+      <c r="L63" s="10"/>
+      <c r="M63" s="10"/>
+      <c r="N63" s="10"/>
+      <c r="O63" s="10"/>
+      <c r="P63" s="10"/>
+      <c r="Q63" s="10"/>
+      <c r="R63" s="10"/>
+      <c r="S63" s="10"/>
+      <c r="T63" s="10"/>
+      <c r="U63" s="10"/>
+      <c r="V63" s="10"/>
+      <c r="W63" s="10"/>
+      <c r="X63" s="10"/>
+      <c r="Y63" s="10"/>
+      <c r="Z63" s="10"/>
+      <c r="AA63" s="10"/>
+    </row>
+    <row r="65" spans="4:27">
+      <c r="D65" t="s">
+        <v>26</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="66" spans="4:27">
+      <c r="D66" s="10" t="s">
+        <v>733</v>
+      </c>
+      <c r="E66" s="10"/>
+      <c r="F66" s="10"/>
+      <c r="G66" s="10"/>
+      <c r="H66" s="10"/>
+      <c r="I66" s="10"/>
+      <c r="J66" s="10"/>
+      <c r="K66" s="10"/>
+      <c r="L66" s="10"/>
+      <c r="M66" s="10"/>
+      <c r="N66" s="10"/>
+      <c r="O66" s="10"/>
+      <c r="P66" s="10"/>
+      <c r="Q66" s="10"/>
+      <c r="R66" s="10"/>
+      <c r="S66" s="10"/>
+      <c r="T66" s="10"/>
+      <c r="U66" s="10"/>
+      <c r="V66" s="10"/>
+      <c r="W66" s="30"/>
+      <c r="X66" s="30"/>
+      <c r="Y66" s="30"/>
+      <c r="Z66" s="30"/>
+      <c r="AA66" s="30"/>
+    </row>
+    <row r="67" spans="4:27">
+      <c r="D67" s="10" t="s">
+        <v>734</v>
+      </c>
+      <c r="E67" s="10"/>
+      <c r="F67" s="10"/>
+      <c r="G67" s="10"/>
+      <c r="H67" s="10"/>
+      <c r="I67" s="10"/>
+      <c r="J67" s="10"/>
+      <c r="K67" s="10"/>
+      <c r="L67" s="10"/>
+      <c r="M67" s="10"/>
+      <c r="N67" s="10"/>
+      <c r="O67" s="10"/>
+      <c r="P67" s="10"/>
+      <c r="Q67" s="10"/>
+      <c r="R67" s="10"/>
+      <c r="S67" s="10"/>
+      <c r="T67" s="10"/>
+      <c r="U67" s="10"/>
+      <c r="V67" s="10"/>
+      <c r="W67" s="30"/>
+      <c r="X67" s="30"/>
+      <c r="Y67" s="30"/>
+      <c r="Z67" s="30"/>
+      <c r="AA67" s="30"/>
+    </row>
+    <row r="68" spans="4:27">
+      <c r="D68" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="E68" s="10"/>
+      <c r="F68" s="10"/>
+      <c r="G68" s="10"/>
+      <c r="H68" s="10"/>
+      <c r="I68" s="10"/>
+      <c r="J68" s="10"/>
+      <c r="K68" s="10"/>
+      <c r="L68" s="10"/>
+      <c r="M68" s="10"/>
+      <c r="N68" s="10"/>
+      <c r="O68" s="10"/>
+      <c r="P68" s="10"/>
+      <c r="Q68" s="10"/>
+      <c r="R68" s="10"/>
+      <c r="S68" s="10"/>
+      <c r="T68" s="10"/>
+      <c r="U68" s="10"/>
+      <c r="V68" s="10"/>
+      <c r="W68" s="30"/>
+      <c r="X68" s="30"/>
+      <c r="Y68" s="30"/>
+      <c r="Z68" s="30"/>
+      <c r="AA68" s="30"/>
+    </row>
+    <row r="69" spans="4:27">
+      <c r="D69" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="E69" s="10"/>
+      <c r="F69" s="10"/>
+      <c r="G69" s="10"/>
+      <c r="H69" s="10"/>
+      <c r="I69" s="10"/>
+      <c r="J69" s="10"/>
+      <c r="K69" s="10"/>
+      <c r="L69" s="10"/>
+      <c r="M69" s="10"/>
+      <c r="N69" s="10"/>
+      <c r="O69" s="10"/>
+      <c r="P69" s="10"/>
+      <c r="Q69" s="10"/>
+      <c r="R69" s="10"/>
+      <c r="S69" s="10"/>
+      <c r="T69" s="10"/>
+      <c r="U69" s="10"/>
+      <c r="V69" s="10"/>
+      <c r="W69" s="30"/>
+      <c r="X69" s="30"/>
+      <c r="Y69" s="30"/>
+      <c r="Z69" s="30"/>
+      <c r="AA69" s="30"/>
+    </row>
+    <row r="70" spans="4:27">
+      <c r="D70" s="10"/>
+      <c r="E70" s="10" t="s">
+        <v>735</v>
+      </c>
+      <c r="F70" s="10"/>
+      <c r="G70" s="10"/>
+      <c r="H70" s="10"/>
+      <c r="I70" s="10"/>
+      <c r="J70" s="10"/>
+      <c r="K70" s="10"/>
+      <c r="L70" s="10"/>
+      <c r="M70" s="10"/>
+      <c r="N70" s="10"/>
+      <c r="O70" s="10"/>
+      <c r="P70" s="10"/>
+      <c r="Q70" s="10"/>
+      <c r="R70" s="10"/>
+      <c r="S70" s="10"/>
+      <c r="T70" s="10"/>
+      <c r="U70" s="10"/>
+      <c r="V70" s="10"/>
+      <c r="W70" s="30"/>
+      <c r="X70" s="30"/>
+      <c r="Y70" s="30"/>
+      <c r="Z70" s="30"/>
+      <c r="AA70" s="30"/>
+    </row>
+    <row r="71" spans="4:27">
+      <c r="D71" s="10"/>
+      <c r="E71" s="10" t="s">
+        <v>736</v>
+      </c>
+      <c r="F71" s="10"/>
+      <c r="G71" s="10"/>
+      <c r="H71" s="10"/>
+      <c r="I71" s="10"/>
+      <c r="J71" s="10"/>
+      <c r="K71" s="10"/>
+      <c r="L71" s="10"/>
+      <c r="M71" s="10"/>
+      <c r="N71" s="10"/>
+      <c r="O71" s="10"/>
+      <c r="P71" s="10"/>
+      <c r="Q71" s="10"/>
+      <c r="R71" s="10"/>
+      <c r="S71" s="10"/>
+      <c r="T71" s="10"/>
+      <c r="U71" s="10"/>
+      <c r="V71" s="10"/>
+      <c r="W71" s="30"/>
+      <c r="X71" s="30"/>
+      <c r="Y71" s="30"/>
+      <c r="Z71" s="30"/>
+      <c r="AA71" s="30"/>
+    </row>
+    <row r="72" spans="4:27">
+      <c r="D72" s="10" t="s">
+        <v>414</v>
+      </c>
+      <c r="E72" s="10"/>
+      <c r="F72" s="10"/>
+      <c r="G72" s="10"/>
+      <c r="H72" s="10"/>
+      <c r="I72" s="10"/>
+      <c r="J72" s="10"/>
+      <c r="K72" s="10"/>
+      <c r="L72" s="10"/>
+      <c r="M72" s="10"/>
+      <c r="N72" s="10"/>
+      <c r="O72" s="10"/>
+      <c r="P72" s="10"/>
+      <c r="Q72" s="10"/>
+      <c r="R72" s="10"/>
+      <c r="S72" s="10"/>
+      <c r="T72" s="10"/>
+      <c r="U72" s="10"/>
+      <c r="V72" s="10"/>
+      <c r="W72" s="30"/>
+      <c r="X72" s="30"/>
+      <c r="Y72" s="30"/>
+      <c r="Z72" s="30"/>
+      <c r="AA72" s="30"/>
+    </row>
+    <row r="73" spans="4:27">
+      <c r="D73" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="E73" s="10"/>
+      <c r="F73" s="10"/>
+      <c r="G73" s="10"/>
+      <c r="H73" s="10"/>
+      <c r="I73" s="10"/>
+      <c r="J73" s="10"/>
+      <c r="K73" s="10"/>
+      <c r="L73" s="10"/>
+      <c r="M73" s="10"/>
+      <c r="N73" s="10"/>
+      <c r="O73" s="10"/>
+      <c r="P73" s="10"/>
+      <c r="Q73" s="10"/>
+      <c r="R73" s="10"/>
+      <c r="S73" s="10"/>
+      <c r="T73" s="10"/>
+      <c r="U73" s="10"/>
+      <c r="V73" s="10"/>
+      <c r="W73" s="30"/>
+      <c r="X73" s="30"/>
+      <c r="Y73" s="30"/>
+      <c r="Z73" s="30"/>
+      <c r="AA73" s="30"/>
+    </row>
+    <row r="74" spans="4:27">
+      <c r="D74" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="E74" s="10"/>
+      <c r="F74" s="10"/>
+      <c r="G74" s="10"/>
+      <c r="H74" s="10"/>
+      <c r="I74" s="10"/>
+      <c r="J74" s="10"/>
+      <c r="K74" s="10"/>
+      <c r="L74" s="10"/>
+      <c r="M74" s="10"/>
+      <c r="N74" s="10"/>
+      <c r="O74" s="10"/>
+      <c r="P74" s="10"/>
+      <c r="Q74" s="10"/>
+      <c r="R74" s="10"/>
+      <c r="S74" s="10"/>
+      <c r="T74" s="10"/>
+      <c r="U74" s="10"/>
+      <c r="V74" s="10"/>
+      <c r="W74" s="30"/>
+      <c r="X74" s="30"/>
+      <c r="Y74" s="30"/>
+      <c r="Z74" s="30"/>
+      <c r="AA74" s="30"/>
+    </row>
+    <row r="75" spans="4:27">
+      <c r="D75" s="10" t="s">
+        <v>737</v>
+      </c>
+      <c r="E75" s="10"/>
+      <c r="F75" s="10"/>
+      <c r="G75" s="10"/>
+      <c r="H75" s="10"/>
+      <c r="I75" s="10"/>
+      <c r="J75" s="10"/>
+      <c r="K75" s="10"/>
+      <c r="L75" s="10"/>
+      <c r="M75" s="10"/>
+      <c r="N75" s="10"/>
+      <c r="O75" s="10"/>
+      <c r="P75" s="10"/>
+      <c r="Q75" s="10"/>
+      <c r="R75" s="10"/>
+      <c r="S75" s="10"/>
+      <c r="T75" s="10"/>
+      <c r="U75" s="10"/>
+      <c r="V75" s="10"/>
+      <c r="W75" s="30"/>
+      <c r="X75" s="30"/>
+      <c r="Y75" s="30"/>
+      <c r="Z75" s="30"/>
+      <c r="AA75" s="30"/>
+    </row>
+    <row r="76" spans="4:27">
+      <c r="D76" s="10" t="s">
+        <v>738</v>
+      </c>
+      <c r="E76" s="10"/>
+      <c r="F76" s="10"/>
+      <c r="G76" s="10"/>
+      <c r="H76" s="10"/>
+      <c r="I76" s="10"/>
+      <c r="J76" s="10"/>
+      <c r="K76" s="10"/>
+      <c r="L76" s="10"/>
+      <c r="M76" s="10"/>
+      <c r="N76" s="10"/>
+      <c r="O76" s="10"/>
+      <c r="P76" s="10"/>
+      <c r="Q76" s="10"/>
+      <c r="R76" s="10"/>
+      <c r="S76" s="10"/>
+      <c r="T76" s="10"/>
+      <c r="U76" s="10"/>
+      <c r="V76" s="10"/>
+      <c r="W76" s="30"/>
+      <c r="X76" s="30"/>
+      <c r="Y76" s="30"/>
+      <c r="Z76" s="30"/>
+      <c r="AA76" s="30"/>
+    </row>
+    <row r="77" spans="4:27">
+      <c r="D77" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="E77" s="10"/>
+      <c r="F77" s="10"/>
+      <c r="G77" s="10"/>
+      <c r="H77" s="10"/>
+      <c r="I77" s="10"/>
+      <c r="J77" s="10"/>
+      <c r="K77" s="10"/>
+      <c r="L77" s="10"/>
+      <c r="M77" s="10"/>
+      <c r="N77" s="10"/>
+      <c r="O77" s="10"/>
+      <c r="P77" s="10"/>
+      <c r="Q77" s="10"/>
+      <c r="R77" s="10"/>
+      <c r="S77" s="10"/>
+      <c r="T77" s="10"/>
+      <c r="U77" s="10"/>
+      <c r="V77" s="10"/>
+      <c r="W77" s="30"/>
+      <c r="X77" s="30"/>
+      <c r="Y77" s="30"/>
+      <c r="Z77" s="30"/>
+      <c r="AA77" s="30"/>
+    </row>
+    <row r="78" spans="4:27">
+      <c r="D78" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="E78" s="10"/>
+      <c r="F78" s="10"/>
+      <c r="G78" s="10"/>
+      <c r="H78" s="10"/>
+      <c r="I78" s="10"/>
+      <c r="J78" s="10"/>
+      <c r="K78" s="10"/>
+      <c r="L78" s="10"/>
+      <c r="M78" s="10"/>
+      <c r="N78" s="10"/>
+      <c r="O78" s="10"/>
+      <c r="P78" s="10"/>
+      <c r="Q78" s="10"/>
+      <c r="R78" s="10"/>
+      <c r="S78" s="10"/>
+      <c r="T78" s="10"/>
+      <c r="U78" s="10"/>
+      <c r="V78" s="10"/>
+      <c r="W78" s="30"/>
+      <c r="X78" s="30"/>
+      <c r="Y78" s="30"/>
+      <c r="Z78" s="30"/>
+      <c r="AA78" s="30"/>
+    </row>
+    <row r="79" spans="4:27">
+      <c r="D79" s="10"/>
+      <c r="E79" s="10" t="s">
+        <v>739</v>
+      </c>
+      <c r="F79" s="10"/>
+      <c r="G79" s="10"/>
+      <c r="H79" s="10"/>
+      <c r="I79" s="10"/>
+      <c r="J79" s="10"/>
+      <c r="K79" s="10"/>
+      <c r="L79" s="10"/>
+      <c r="M79" s="10"/>
+      <c r="N79" s="10"/>
+      <c r="O79" s="10"/>
+      <c r="P79" s="10"/>
+      <c r="Q79" s="10"/>
+      <c r="R79" s="10"/>
+      <c r="S79" s="10"/>
+      <c r="T79" s="10"/>
+      <c r="U79" s="10"/>
+      <c r="V79" s="10"/>
+      <c r="W79" s="30"/>
+      <c r="X79" s="30"/>
+      <c r="Y79" s="30"/>
+      <c r="Z79" s="30"/>
+      <c r="AA79" s="30"/>
+    </row>
+    <row r="80" spans="4:27">
+      <c r="D80" s="10"/>
+      <c r="E80" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="F80" s="10"/>
+      <c r="G80" s="10"/>
+      <c r="H80" s="10"/>
+      <c r="I80" s="10"/>
+      <c r="J80" s="10"/>
+      <c r="K80" s="10"/>
+      <c r="L80" s="10"/>
+      <c r="M80" s="10"/>
+      <c r="N80" s="10"/>
+      <c r="O80" s="10"/>
+      <c r="P80" s="10"/>
+      <c r="Q80" s="10"/>
+      <c r="R80" s="10"/>
+      <c r="S80" s="10"/>
+      <c r="T80" s="10"/>
+      <c r="U80" s="10"/>
+      <c r="V80" s="10"/>
+      <c r="W80" s="30"/>
+      <c r="X80" s="30"/>
+      <c r="Y80" s="30"/>
+      <c r="Z80" s="30"/>
+      <c r="AA80" s="30"/>
+    </row>
+    <row r="81" spans="4:27">
+      <c r="D81" s="10"/>
+      <c r="E81" s="10"/>
+      <c r="F81" s="10" t="s">
+        <v>740</v>
+      </c>
+      <c r="G81" s="10"/>
+      <c r="H81" s="10"/>
+      <c r="I81" s="10"/>
+      <c r="J81" s="10"/>
+      <c r="K81" s="10"/>
+      <c r="L81" s="10"/>
+      <c r="M81" s="10"/>
+      <c r="N81" s="10"/>
+      <c r="O81" s="10"/>
+      <c r="P81" s="10"/>
+      <c r="Q81" s="10"/>
+      <c r="R81" s="10"/>
+      <c r="S81" s="10"/>
+      <c r="T81" s="10"/>
+      <c r="U81" s="10"/>
+      <c r="V81" s="10"/>
+      <c r="W81" s="30"/>
+      <c r="X81" s="30"/>
+      <c r="Y81" s="30"/>
+      <c r="Z81" s="30"/>
+      <c r="AA81" s="30"/>
+    </row>
+    <row r="82" spans="4:27">
+      <c r="D82" s="10"/>
+      <c r="E82" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="F82" s="10"/>
+      <c r="G82" s="10"/>
+      <c r="H82" s="10"/>
+      <c r="I82" s="10"/>
+      <c r="J82" s="10"/>
+      <c r="K82" s="10"/>
+      <c r="L82" s="10"/>
+      <c r="M82" s="10"/>
+      <c r="N82" s="10"/>
+      <c r="O82" s="10"/>
+      <c r="P82" s="10"/>
+      <c r="Q82" s="10"/>
+      <c r="R82" s="10"/>
+      <c r="S82" s="10"/>
+      <c r="T82" s="10"/>
+      <c r="U82" s="10"/>
+      <c r="V82" s="10"/>
+      <c r="W82" s="30"/>
+      <c r="X82" s="30"/>
+      <c r="Y82" s="30"/>
+      <c r="Z82" s="30"/>
+      <c r="AA82" s="30"/>
+    </row>
+    <row r="83" spans="4:27">
+      <c r="D83" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="E83" s="10"/>
+      <c r="F83" s="10"/>
+      <c r="G83" s="10"/>
+      <c r="H83" s="10"/>
+      <c r="I83" s="10"/>
+      <c r="J83" s="10"/>
+      <c r="K83" s="10"/>
+      <c r="L83" s="10"/>
+      <c r="M83" s="10"/>
+      <c r="N83" s="10"/>
+      <c r="O83" s="10"/>
+      <c r="P83" s="10"/>
+      <c r="Q83" s="10"/>
+      <c r="R83" s="10"/>
+      <c r="S83" s="10"/>
+      <c r="T83" s="10"/>
+      <c r="U83" s="10"/>
+      <c r="V83" s="10"/>
+      <c r="W83" s="30"/>
+      <c r="X83" s="30"/>
+      <c r="Y83" s="30"/>
+      <c r="Z83" s="30"/>
+      <c r="AA83" s="30"/>
+    </row>
+    <row r="84" spans="4:27">
+      <c r="D84" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="E84" s="10"/>
+      <c r="F84" s="10"/>
+      <c r="G84" s="10"/>
+      <c r="H84" s="10"/>
+      <c r="I84" s="10"/>
+      <c r="J84" s="10"/>
+      <c r="K84" s="10"/>
+      <c r="L84" s="10"/>
+      <c r="M84" s="10"/>
+      <c r="N84" s="10"/>
+      <c r="O84" s="10"/>
+      <c r="P84" s="10"/>
+      <c r="Q84" s="10"/>
+      <c r="R84" s="10"/>
+      <c r="S84" s="10"/>
+      <c r="T84" s="10"/>
+      <c r="U84" s="10"/>
+      <c r="V84" s="10"/>
+      <c r="W84" s="30"/>
+      <c r="X84" s="30"/>
+      <c r="Y84" s="30"/>
+      <c r="Z84" s="30"/>
+      <c r="AA84" s="30"/>
+    </row>
+    <row r="85" spans="4:27">
+      <c r="D85" s="10" t="s">
+        <v>741</v>
+      </c>
+      <c r="E85" s="10"/>
+      <c r="F85" s="10"/>
+      <c r="G85" s="10"/>
+      <c r="H85" s="10"/>
+      <c r="I85" s="10"/>
+      <c r="J85" s="10"/>
+      <c r="K85" s="10"/>
+      <c r="L85" s="10"/>
+      <c r="M85" s="10"/>
+      <c r="N85" s="10"/>
+      <c r="O85" s="10"/>
+      <c r="P85" s="10"/>
+      <c r="Q85" s="10"/>
+      <c r="R85" s="10"/>
+      <c r="S85" s="10"/>
+      <c r="T85" s="10"/>
+      <c r="U85" s="10"/>
+      <c r="V85" s="10"/>
+      <c r="W85" s="30"/>
+      <c r="X85" s="30"/>
+      <c r="Y85" s="30"/>
+      <c r="Z85" s="30"/>
+      <c r="AA85" s="30"/>
+    </row>
+    <row r="86" spans="4:27">
+      <c r="D86" s="10" t="s">
+        <v>742</v>
+      </c>
+      <c r="E86" s="10"/>
+      <c r="F86" s="10"/>
+      <c r="G86" s="10"/>
+      <c r="H86" s="10"/>
+      <c r="I86" s="10"/>
+      <c r="J86" s="10"/>
+      <c r="K86" s="10"/>
+      <c r="L86" s="10"/>
+      <c r="M86" s="10"/>
+      <c r="N86" s="10"/>
+      <c r="O86" s="10"/>
+      <c r="P86" s="10"/>
+      <c r="Q86" s="10"/>
+      <c r="R86" s="10"/>
+      <c r="S86" s="10"/>
+      <c r="T86" s="10"/>
+      <c r="U86" s="10"/>
+      <c r="V86" s="10"/>
+      <c r="W86" s="30"/>
+      <c r="X86" s="30"/>
+      <c r="Y86" s="30"/>
+      <c r="Z86" s="30"/>
+      <c r="AA86" s="30"/>
+    </row>
+    <row r="87" spans="4:27">
+      <c r="D87" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="E87" s="10"/>
+      <c r="F87" s="10"/>
+      <c r="G87" s="10"/>
+      <c r="H87" s="10"/>
+      <c r="I87" s="10"/>
+      <c r="J87" s="10"/>
+      <c r="K87" s="10"/>
+      <c r="L87" s="10"/>
+      <c r="M87" s="10"/>
+      <c r="N87" s="10"/>
+      <c r="O87" s="10"/>
+      <c r="P87" s="10"/>
+      <c r="Q87" s="10"/>
+      <c r="R87" s="10"/>
+      <c r="S87" s="10"/>
+      <c r="T87" s="10"/>
+      <c r="U87" s="10"/>
+      <c r="V87" s="10"/>
+      <c r="W87" s="30"/>
+      <c r="X87" s="30"/>
+      <c r="Y87" s="30"/>
+      <c r="Z87" s="30"/>
+      <c r="AA87" s="30"/>
+    </row>
+    <row r="88" spans="4:27">
+      <c r="D88" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="E88" s="10"/>
+      <c r="F88" s="10"/>
+      <c r="G88" s="10"/>
+      <c r="H88" s="10"/>
+      <c r="I88" s="10"/>
+      <c r="J88" s="10"/>
+      <c r="K88" s="10"/>
+      <c r="L88" s="10"/>
+      <c r="M88" s="10"/>
+      <c r="N88" s="10"/>
+      <c r="O88" s="10"/>
+      <c r="P88" s="10"/>
+      <c r="Q88" s="10"/>
+      <c r="R88" s="10"/>
+      <c r="S88" s="10"/>
+      <c r="T88" s="10"/>
+      <c r="U88" s="10"/>
+      <c r="V88" s="10"/>
+      <c r="W88" s="30"/>
+      <c r="X88" s="30"/>
+      <c r="Y88" s="30"/>
+      <c r="Z88" s="30"/>
+      <c r="AA88" s="30"/>
+    </row>
+    <row r="89" spans="4:27">
+      <c r="D89" s="10"/>
+      <c r="E89" s="10" t="s">
+        <v>743</v>
+      </c>
+      <c r="F89" s="10"/>
+      <c r="G89" s="10"/>
+      <c r="H89" s="10"/>
+      <c r="I89" s="10"/>
+      <c r="J89" s="10"/>
+      <c r="K89" s="10"/>
+      <c r="L89" s="10"/>
+      <c r="M89" s="10"/>
+      <c r="N89" s="10"/>
+      <c r="O89" s="10"/>
+      <c r="P89" s="10"/>
+      <c r="Q89" s="10"/>
+      <c r="R89" s="10"/>
+      <c r="S89" s="10"/>
+      <c r="T89" s="10"/>
+      <c r="U89" s="10"/>
+      <c r="V89" s="10"/>
+      <c r="W89" s="30"/>
+      <c r="X89" s="30"/>
+      <c r="Y89" s="30"/>
+      <c r="Z89" s="30"/>
+      <c r="AA89" s="30"/>
+    </row>
+    <row r="90" spans="4:27">
+      <c r="D90" s="10"/>
+      <c r="E90" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="F90" s="10"/>
+      <c r="G90" s="10"/>
+      <c r="H90" s="10"/>
+      <c r="I90" s="10"/>
+      <c r="J90" s="10"/>
+      <c r="K90" s="10"/>
+      <c r="L90" s="10"/>
+      <c r="M90" s="10"/>
+      <c r="N90" s="10"/>
+      <c r="O90" s="10"/>
+      <c r="P90" s="10"/>
+      <c r="Q90" s="10"/>
+      <c r="R90" s="10"/>
+      <c r="S90" s="10"/>
+      <c r="T90" s="10"/>
+      <c r="U90" s="10"/>
+      <c r="V90" s="10"/>
+      <c r="W90" s="30"/>
+      <c r="X90" s="30"/>
+      <c r="Y90" s="30"/>
+      <c r="Z90" s="30"/>
+      <c r="AA90" s="30"/>
+    </row>
+    <row r="91" spans="4:27">
+      <c r="D91" s="10"/>
+      <c r="E91" s="10"/>
+      <c r="F91" s="10" t="s">
+        <v>744</v>
+      </c>
+      <c r="G91" s="10"/>
+      <c r="H91" s="10"/>
+      <c r="I91" s="10"/>
+      <c r="J91" s="10"/>
+      <c r="K91" s="10"/>
+      <c r="L91" s="10"/>
+      <c r="M91" s="10"/>
+      <c r="N91" s="10"/>
+      <c r="O91" s="10"/>
+      <c r="P91" s="10"/>
+      <c r="Q91" s="10"/>
+      <c r="R91" s="10"/>
+      <c r="S91" s="10"/>
+      <c r="T91" s="10"/>
+      <c r="U91" s="10"/>
+      <c r="V91" s="10"/>
+      <c r="W91" s="30"/>
+      <c r="X91" s="30"/>
+      <c r="Y91" s="30"/>
+      <c r="Z91" s="30"/>
+      <c r="AA91" s="30"/>
+    </row>
+    <row r="92" spans="4:27">
+      <c r="D92" s="10"/>
+      <c r="E92" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="F92" s="10"/>
+      <c r="G92" s="10"/>
+      <c r="H92" s="10"/>
+      <c r="I92" s="10"/>
+      <c r="J92" s="10"/>
+      <c r="K92" s="10"/>
+      <c r="L92" s="10"/>
+      <c r="M92" s="10"/>
+      <c r="N92" s="10"/>
+      <c r="O92" s="10"/>
+      <c r="P92" s="10"/>
+      <c r="Q92" s="10"/>
+      <c r="R92" s="10"/>
+      <c r="S92" s="10"/>
+      <c r="T92" s="10"/>
+      <c r="U92" s="10"/>
+      <c r="V92" s="10"/>
+      <c r="W92" s="30"/>
+      <c r="X92" s="30"/>
+      <c r="Y92" s="30"/>
+      <c r="Z92" s="30"/>
+      <c r="AA92" s="30"/>
+    </row>
+    <row r="93" spans="4:27">
+      <c r="D93" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="E93" s="10"/>
+      <c r="F93" s="10"/>
+      <c r="G93" s="10"/>
+      <c r="H93" s="10"/>
+      <c r="I93" s="10"/>
+      <c r="J93" s="10"/>
+      <c r="K93" s="10"/>
+      <c r="L93" s="10"/>
+      <c r="M93" s="10"/>
+      <c r="N93" s="10"/>
+      <c r="O93" s="10"/>
+      <c r="P93" s="10"/>
+      <c r="Q93" s="10"/>
+      <c r="R93" s="10"/>
+      <c r="S93" s="10"/>
+      <c r="T93" s="10"/>
+      <c r="U93" s="10"/>
+      <c r="V93" s="10"/>
+      <c r="W93" s="30"/>
+      <c r="X93" s="30"/>
+      <c r="Y93" s="30"/>
+      <c r="Z93" s="30"/>
+      <c r="AA93" s="30"/>
+    </row>
+    <row r="95" spans="4:27">
+      <c r="D95" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="97" spans="4:22">
+      <c r="D97" t="s">
+        <v>26</v>
+      </c>
+      <c r="E97" s="2" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="98" spans="4:22">
+      <c r="D98" s="10" t="s">
+        <v>747</v>
+      </c>
+      <c r="E98" s="10"/>
+      <c r="F98" s="10"/>
+      <c r="G98" s="10"/>
+      <c r="H98" s="10"/>
+      <c r="I98" s="10"/>
+      <c r="J98" s="10"/>
+      <c r="K98" s="10"/>
+      <c r="L98" s="10"/>
+      <c r="M98" s="10"/>
+      <c r="N98" s="10"/>
+      <c r="O98" s="10"/>
+      <c r="P98" s="10"/>
+      <c r="Q98" s="10"/>
+      <c r="R98" s="10"/>
+      <c r="S98" s="10"/>
+      <c r="T98" s="10"/>
+      <c r="U98" s="10"/>
+      <c r="V98" s="10"/>
+    </row>
+    <row r="99" spans="4:22">
+      <c r="D99" s="10" t="s">
+        <v>748</v>
+      </c>
+      <c r="E99" s="10"/>
+      <c r="F99" s="10"/>
+      <c r="G99" s="10"/>
+      <c r="H99" s="10"/>
+      <c r="I99" s="10"/>
+      <c r="J99" s="10"/>
+      <c r="K99" s="10"/>
+      <c r="L99" s="10"/>
+      <c r="M99" s="10"/>
+      <c r="N99" s="10"/>
+      <c r="O99" s="10"/>
+      <c r="P99" s="10"/>
+      <c r="Q99" s="10"/>
+      <c r="R99" s="10"/>
+      <c r="S99" s="10"/>
+      <c r="T99" s="10"/>
+      <c r="U99" s="10"/>
+      <c r="V99" s="10"/>
+    </row>
+    <row r="100" spans="4:22">
+      <c r="D100" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="E100" s="10"/>
+      <c r="F100" s="10"/>
+      <c r="G100" s="10"/>
+      <c r="H100" s="10"/>
+      <c r="I100" s="10"/>
+      <c r="J100" s="10"/>
+      <c r="K100" s="10"/>
+      <c r="L100" s="10"/>
+      <c r="M100" s="10"/>
+      <c r="N100" s="10"/>
+      <c r="O100" s="10"/>
+      <c r="P100" s="10"/>
+      <c r="Q100" s="10"/>
+      <c r="R100" s="10"/>
+      <c r="S100" s="10"/>
+      <c r="T100" s="10"/>
+      <c r="U100" s="10"/>
+      <c r="V100" s="10"/>
+    </row>
+    <row r="101" spans="4:22">
+      <c r="D101" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="E101" s="10"/>
+      <c r="F101" s="10"/>
+      <c r="G101" s="10"/>
+      <c r="H101" s="10"/>
+      <c r="I101" s="10"/>
+      <c r="J101" s="10"/>
+      <c r="K101" s="10"/>
+      <c r="L101" s="10"/>
+      <c r="M101" s="10"/>
+      <c r="N101" s="10"/>
+      <c r="O101" s="10"/>
+      <c r="P101" s="10"/>
+      <c r="Q101" s="10"/>
+      <c r="R101" s="10"/>
+      <c r="S101" s="10"/>
+      <c r="T101" s="10"/>
+      <c r="U101" s="10"/>
+      <c r="V101" s="10"/>
+    </row>
+    <row r="102" spans="4:22">
+      <c r="D102" s="10"/>
+      <c r="E102" s="10" t="s">
+        <v>749</v>
+      </c>
+      <c r="F102" s="10"/>
+      <c r="G102" s="10"/>
+      <c r="H102" s="10"/>
+      <c r="I102" s="10"/>
+      <c r="J102" s="10"/>
+      <c r="K102" s="10"/>
+      <c r="L102" s="10"/>
+      <c r="M102" s="10"/>
+      <c r="N102" s="10"/>
+      <c r="O102" s="10"/>
+      <c r="P102" s="10"/>
+      <c r="Q102" s="10"/>
+      <c r="R102" s="10"/>
+      <c r="S102" s="10"/>
+      <c r="T102" s="10"/>
+      <c r="U102" s="10"/>
+      <c r="V102" s="10"/>
+    </row>
+    <row r="103" spans="4:22">
+      <c r="D103" s="10"/>
+      <c r="E103" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="F103" s="10"/>
+      <c r="G103" s="10"/>
+      <c r="H103" s="10"/>
+      <c r="I103" s="10"/>
+      <c r="J103" s="10"/>
+      <c r="K103" s="10"/>
+      <c r="L103" s="10"/>
+      <c r="M103" s="10"/>
+      <c r="N103" s="10"/>
+      <c r="O103" s="10"/>
+      <c r="P103" s="10"/>
+      <c r="Q103" s="10"/>
+      <c r="R103" s="10"/>
+      <c r="S103" s="10"/>
+      <c r="T103" s="10"/>
+      <c r="U103" s="10"/>
+      <c r="V103" s="10"/>
+    </row>
+    <row r="104" spans="4:22">
+      <c r="D104" s="10"/>
+      <c r="E104" s="10" t="s">
+        <v>750</v>
+      </c>
+      <c r="F104" s="10"/>
+      <c r="G104" s="10"/>
+      <c r="H104" s="10"/>
+      <c r="I104" s="10"/>
+      <c r="J104" s="10"/>
+      <c r="K104" s="10"/>
+      <c r="L104" s="10"/>
+      <c r="M104" s="10"/>
+      <c r="N104" s="10"/>
+      <c r="O104" s="10"/>
+      <c r="P104" s="10"/>
+      <c r="Q104" s="10"/>
+      <c r="R104" s="10"/>
+      <c r="S104" s="10"/>
+      <c r="T104" s="10"/>
+      <c r="U104" s="10"/>
+      <c r="V104" s="10"/>
+    </row>
+    <row r="105" spans="4:22">
+      <c r="D105" s="10"/>
+      <c r="E105" s="10" t="s">
+        <v>751</v>
+      </c>
+      <c r="F105" s="10"/>
+      <c r="G105" s="10"/>
+      <c r="H105" s="10"/>
+      <c r="I105" s="10"/>
+      <c r="J105" s="10"/>
+      <c r="K105" s="10"/>
+      <c r="L105" s="10"/>
+      <c r="M105" s="10"/>
+      <c r="N105" s="10"/>
+      <c r="O105" s="10"/>
+      <c r="P105" s="10"/>
+      <c r="Q105" s="10"/>
+      <c r="R105" s="10"/>
+      <c r="S105" s="10"/>
+      <c r="T105" s="10"/>
+      <c r="U105" s="10"/>
+      <c r="V105" s="10"/>
+    </row>
+    <row r="106" spans="4:22">
+      <c r="D106" s="10"/>
+      <c r="E106" s="10" t="s">
+        <v>736</v>
+      </c>
+      <c r="F106" s="10"/>
+      <c r="G106" s="10"/>
+      <c r="H106" s="10"/>
+      <c r="I106" s="10"/>
+      <c r="J106" s="10"/>
+      <c r="K106" s="10"/>
+      <c r="L106" s="10"/>
+      <c r="M106" s="10"/>
+      <c r="N106" s="10"/>
+      <c r="O106" s="10"/>
+      <c r="P106" s="10"/>
+      <c r="Q106" s="10"/>
+      <c r="R106" s="10"/>
+      <c r="S106" s="10"/>
+      <c r="T106" s="10"/>
+      <c r="U106" s="10"/>
+      <c r="V106" s="10"/>
+    </row>
+    <row r="107" spans="4:22">
+      <c r="D107" s="10" t="s">
+        <v>414</v>
+      </c>
+      <c r="E107" s="10"/>
+      <c r="F107" s="10"/>
+      <c r="G107" s="10"/>
+      <c r="H107" s="10"/>
+      <c r="I107" s="10"/>
+      <c r="J107" s="10"/>
+      <c r="K107" s="10"/>
+      <c r="L107" s="10"/>
+      <c r="M107" s="10"/>
+      <c r="N107" s="10"/>
+      <c r="O107" s="10"/>
+      <c r="P107" s="10"/>
+      <c r="Q107" s="10"/>
+      <c r="R107" s="10"/>
+      <c r="S107" s="10"/>
+      <c r="T107" s="10"/>
+      <c r="U107" s="10"/>
+      <c r="V107" s="10"/>
+    </row>
+    <row r="108" spans="4:22">
+      <c r="D108" s="10"/>
+      <c r="E108" s="10" t="s">
+        <v>752</v>
+      </c>
+      <c r="F108" s="10"/>
+      <c r="G108" s="10"/>
+      <c r="H108" s="10"/>
+      <c r="I108" s="10"/>
+      <c r="J108" s="10"/>
+      <c r="K108" s="10"/>
+      <c r="L108" s="10"/>
+      <c r="M108" s="10"/>
+      <c r="N108" s="10"/>
+      <c r="O108" s="10"/>
+      <c r="P108" s="10"/>
+      <c r="Q108" s="10"/>
+      <c r="R108" s="10"/>
+      <c r="S108" s="10"/>
+      <c r="T108" s="10"/>
+      <c r="U108" s="10"/>
+      <c r="V108" s="10"/>
+    </row>
+    <row r="109" spans="4:22">
+      <c r="D109" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="E109" s="10"/>
+      <c r="F109" s="10"/>
+      <c r="G109" s="10"/>
+      <c r="H109" s="10"/>
+      <c r="I109" s="10"/>
+      <c r="J109" s="10"/>
+      <c r="K109" s="10"/>
+      <c r="L109" s="10"/>
+      <c r="M109" s="10"/>
+      <c r="N109" s="10"/>
+      <c r="O109" s="10"/>
+      <c r="P109" s="10"/>
+      <c r="Q109" s="10"/>
+      <c r="R109" s="10"/>
+      <c r="S109" s="10"/>
+      <c r="T109" s="10"/>
+      <c r="U109" s="10"/>
+      <c r="V109" s="10"/>
+    </row>
+    <row r="110" spans="4:22">
+      <c r="D110" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="E110" s="10"/>
+      <c r="F110" s="10"/>
+      <c r="G110" s="10"/>
+      <c r="H110" s="10"/>
+      <c r="I110" s="10"/>
+      <c r="J110" s="10"/>
+      <c r="K110" s="10"/>
+      <c r="L110" s="10"/>
+      <c r="M110" s="10"/>
+      <c r="N110" s="10"/>
+      <c r="O110" s="10"/>
+      <c r="P110" s="10"/>
+      <c r="Q110" s="10"/>
+      <c r="R110" s="10"/>
+      <c r="S110" s="10"/>
+      <c r="T110" s="10"/>
+      <c r="U110" s="10"/>
+      <c r="V110" s="10"/>
+    </row>
+    <row r="111" spans="4:22">
+      <c r="D111" s="10" t="s">
+        <v>753</v>
+      </c>
+      <c r="E111" s="10"/>
+      <c r="F111" s="10"/>
+      <c r="G111" s="10"/>
+      <c r="H111" s="10"/>
+      <c r="I111" s="10"/>
+      <c r="J111" s="10"/>
+      <c r="K111" s="10"/>
+      <c r="L111" s="10"/>
+      <c r="M111" s="10"/>
+      <c r="N111" s="10"/>
+      <c r="O111" s="10"/>
+      <c r="P111" s="10"/>
+      <c r="Q111" s="10"/>
+      <c r="R111" s="10"/>
+      <c r="S111" s="10"/>
+      <c r="T111" s="10"/>
+      <c r="U111" s="10"/>
+      <c r="V111" s="10"/>
+    </row>
+    <row r="112" spans="4:22">
+      <c r="D112" s="10" t="s">
+        <v>754</v>
+      </c>
+      <c r="E112" s="10"/>
+      <c r="F112" s="10"/>
+      <c r="G112" s="10"/>
+      <c r="H112" s="10"/>
+      <c r="I112" s="10"/>
+      <c r="J112" s="10"/>
+      <c r="K112" s="10"/>
+      <c r="L112" s="10"/>
+      <c r="M112" s="10"/>
+      <c r="N112" s="10"/>
+      <c r="O112" s="10"/>
+      <c r="P112" s="10"/>
+      <c r="Q112" s="10"/>
+      <c r="R112" s="10"/>
+      <c r="S112" s="10"/>
+      <c r="T112" s="10"/>
+      <c r="U112" s="10"/>
+      <c r="V112" s="10"/>
+    </row>
+    <row r="113" spans="4:22">
+      <c r="D113" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="E113" s="10"/>
+      <c r="F113" s="10"/>
+      <c r="G113" s="10"/>
+      <c r="H113" s="10"/>
+      <c r="I113" s="10"/>
+      <c r="J113" s="10"/>
+      <c r="K113" s="10"/>
+      <c r="L113" s="10"/>
+      <c r="M113" s="10"/>
+      <c r="N113" s="10"/>
+      <c r="O113" s="10"/>
+      <c r="P113" s="10"/>
+      <c r="Q113" s="10"/>
+      <c r="R113" s="10"/>
+      <c r="S113" s="10"/>
+      <c r="T113" s="10"/>
+      <c r="U113" s="10"/>
+      <c r="V113" s="10"/>
+    </row>
+    <row r="114" spans="4:22">
+      <c r="D114" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="E114" s="10"/>
+      <c r="F114" s="10"/>
+      <c r="G114" s="10"/>
+      <c r="H114" s="10"/>
+      <c r="I114" s="10"/>
+      <c r="J114" s="10"/>
+      <c r="K114" s="10"/>
+      <c r="L114" s="10"/>
+      <c r="M114" s="10"/>
+      <c r="N114" s="10"/>
+      <c r="O114" s="10"/>
+      <c r="P114" s="10"/>
+      <c r="Q114" s="10"/>
+      <c r="R114" s="10"/>
+      <c r="S114" s="10"/>
+      <c r="T114" s="10"/>
+      <c r="U114" s="10"/>
+      <c r="V114" s="10"/>
+    </row>
+    <row r="115" spans="4:22">
+      <c r="D115" s="10"/>
+      <c r="E115" s="10" t="s">
+        <v>755</v>
+      </c>
+      <c r="F115" s="10"/>
+      <c r="G115" s="10"/>
+      <c r="H115" s="10"/>
+      <c r="I115" s="10"/>
+      <c r="J115" s="10"/>
+      <c r="K115" s="10"/>
+      <c r="L115" s="10"/>
+      <c r="M115" s="10"/>
+      <c r="N115" s="10"/>
+      <c r="O115" s="10"/>
+      <c r="P115" s="10"/>
+      <c r="Q115" s="10"/>
+      <c r="R115" s="10"/>
+      <c r="S115" s="10"/>
+      <c r="T115" s="10"/>
+      <c r="U115" s="10"/>
+      <c r="V115" s="10"/>
+    </row>
+    <row r="116" spans="4:22">
+      <c r="D116" s="10"/>
+      <c r="E116" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="F116" s="10"/>
+      <c r="G116" s="10"/>
+      <c r="H116" s="10"/>
+      <c r="I116" s="10"/>
+      <c r="J116" s="10"/>
+      <c r="K116" s="10"/>
+      <c r="L116" s="10"/>
+      <c r="M116" s="10"/>
+      <c r="N116" s="10"/>
+      <c r="O116" s="10"/>
+      <c r="P116" s="10"/>
+      <c r="Q116" s="10"/>
+      <c r="R116" s="10"/>
+      <c r="S116" s="10"/>
+      <c r="T116" s="10"/>
+      <c r="U116" s="10"/>
+      <c r="V116" s="10"/>
+    </row>
+    <row r="117" spans="4:22">
+      <c r="D117" s="10"/>
+      <c r="E117" s="10" t="s">
+        <v>750</v>
+      </c>
+      <c r="F117" s="10"/>
+      <c r="G117" s="10"/>
+      <c r="H117" s="10"/>
+      <c r="I117" s="10"/>
+      <c r="J117" s="10"/>
+      <c r="K117" s="10"/>
+      <c r="L117" s="10"/>
+      <c r="M117" s="10"/>
+      <c r="N117" s="10"/>
+      <c r="O117" s="10"/>
+      <c r="P117" s="10"/>
+      <c r="Q117" s="10"/>
+      <c r="R117" s="10"/>
+      <c r="S117" s="10"/>
+      <c r="T117" s="10"/>
+      <c r="U117" s="10"/>
+      <c r="V117" s="10"/>
+    </row>
+    <row r="118" spans="4:22">
+      <c r="D118" s="10"/>
+      <c r="E118" s="10" t="s">
+        <v>756</v>
+      </c>
+      <c r="F118" s="10"/>
+      <c r="G118" s="10"/>
+      <c r="H118" s="10"/>
+      <c r="I118" s="10"/>
+      <c r="J118" s="10"/>
+      <c r="K118" s="10"/>
+      <c r="L118" s="10"/>
+      <c r="M118" s="10"/>
+      <c r="N118" s="10"/>
+      <c r="O118" s="10"/>
+      <c r="P118" s="10"/>
+      <c r="Q118" s="10"/>
+      <c r="R118" s="10"/>
+      <c r="S118" s="10"/>
+      <c r="T118" s="10"/>
+      <c r="U118" s="10"/>
+      <c r="V118" s="10"/>
+    </row>
+    <row r="119" spans="4:22">
+      <c r="D119" s="10"/>
+      <c r="E119" s="10"/>
+      <c r="F119" s="10" t="s">
+        <v>757</v>
+      </c>
+      <c r="G119" s="10"/>
+      <c r="H119" s="10"/>
+      <c r="I119" s="10"/>
+      <c r="J119" s="10"/>
+      <c r="K119" s="10"/>
+      <c r="L119" s="10"/>
+      <c r="M119" s="10"/>
+      <c r="N119" s="10"/>
+      <c r="O119" s="10"/>
+      <c r="P119" s="10"/>
+      <c r="Q119" s="10"/>
+      <c r="R119" s="10"/>
+      <c r="S119" s="10"/>
+      <c r="T119" s="10"/>
+      <c r="U119" s="10"/>
+      <c r="V119" s="10"/>
+    </row>
+    <row r="120" spans="4:22">
+      <c r="D120" s="10"/>
+      <c r="E120" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="F120" s="10"/>
+      <c r="G120" s="10"/>
+      <c r="H120" s="10"/>
+      <c r="I120" s="10"/>
+      <c r="J120" s="10"/>
+      <c r="K120" s="10"/>
+      <c r="L120" s="10"/>
+      <c r="M120" s="10"/>
+      <c r="N120" s="10"/>
+      <c r="O120" s="10"/>
+      <c r="P120" s="10"/>
+      <c r="Q120" s="10"/>
+      <c r="R120" s="10"/>
+      <c r="S120" s="10"/>
+      <c r="T120" s="10"/>
+      <c r="U120" s="10"/>
+      <c r="V120" s="10"/>
+    </row>
+    <row r="121" spans="4:22">
+      <c r="D121" s="10"/>
+      <c r="E121" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="F121" s="10"/>
+      <c r="G121" s="10"/>
+      <c r="H121" s="10"/>
+      <c r="I121" s="10"/>
+      <c r="J121" s="10"/>
+      <c r="K121" s="10"/>
+      <c r="L121" s="10"/>
+      <c r="M121" s="10"/>
+      <c r="N121" s="10"/>
+      <c r="O121" s="10"/>
+      <c r="P121" s="10"/>
+      <c r="Q121" s="10"/>
+      <c r="R121" s="10"/>
+      <c r="S121" s="10"/>
+      <c r="T121" s="10"/>
+      <c r="U121" s="10"/>
+      <c r="V121" s="10"/>
+    </row>
+    <row r="122" spans="4:22">
+      <c r="D122" s="10"/>
+      <c r="E122" s="10"/>
+      <c r="F122" s="10" t="s">
+        <v>758</v>
+      </c>
+      <c r="G122" s="10"/>
+      <c r="H122" s="10"/>
+      <c r="I122" s="10"/>
+      <c r="J122" s="10"/>
+      <c r="K122" s="10"/>
+      <c r="L122" s="10"/>
+      <c r="M122" s="10"/>
+      <c r="N122" s="10"/>
+      <c r="O122" s="10"/>
+      <c r="P122" s="10"/>
+      <c r="Q122" s="10"/>
+      <c r="R122" s="10"/>
+      <c r="S122" s="10"/>
+      <c r="T122" s="10"/>
+      <c r="U122" s="10"/>
+      <c r="V122" s="10"/>
+    </row>
+    <row r="123" spans="4:22">
+      <c r="D123" s="10"/>
+      <c r="E123" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="F123" s="10"/>
+      <c r="G123" s="10"/>
+      <c r="H123" s="10"/>
+      <c r="I123" s="10"/>
+      <c r="J123" s="10"/>
+      <c r="K123" s="10"/>
+      <c r="L123" s="10"/>
+      <c r="M123" s="10"/>
+      <c r="N123" s="10"/>
+      <c r="O123" s="10"/>
+      <c r="P123" s="10"/>
+      <c r="Q123" s="10"/>
+      <c r="R123" s="10"/>
+      <c r="S123" s="10"/>
+      <c r="T123" s="10"/>
+      <c r="U123" s="10"/>
+      <c r="V123" s="10"/>
+    </row>
+    <row r="124" spans="4:22">
+      <c r="D124" s="10" t="s">
+        <v>414</v>
+      </c>
+      <c r="E124" s="10"/>
+      <c r="F124" s="10"/>
+      <c r="G124" s="10"/>
+      <c r="H124" s="10"/>
+      <c r="I124" s="10"/>
+      <c r="J124" s="10"/>
+      <c r="K124" s="10"/>
+      <c r="L124" s="10"/>
+      <c r="M124" s="10"/>
+      <c r="N124" s="10"/>
+      <c r="O124" s="10"/>
+      <c r="P124" s="10"/>
+      <c r="Q124" s="10"/>
+      <c r="R124" s="10"/>
+      <c r="S124" s="10"/>
+      <c r="T124" s="10"/>
+      <c r="U124" s="10"/>
+      <c r="V124" s="10"/>
+    </row>
+    <row r="125" spans="4:22">
+      <c r="D125" s="10"/>
+      <c r="E125" s="10" t="s">
+        <v>752</v>
+      </c>
+      <c r="F125" s="10"/>
+      <c r="G125" s="10"/>
+      <c r="H125" s="10"/>
+      <c r="I125" s="10"/>
+      <c r="J125" s="10"/>
+      <c r="K125" s="10"/>
+      <c r="L125" s="10"/>
+      <c r="M125" s="10"/>
+      <c r="N125" s="10"/>
+      <c r="O125" s="10"/>
+      <c r="P125" s="10"/>
+      <c r="Q125" s="10"/>
+      <c r="R125" s="10"/>
+      <c r="S125" s="10"/>
+      <c r="T125" s="10"/>
+      <c r="U125" s="10"/>
+      <c r="V125" s="10"/>
+    </row>
+    <row r="126" spans="4:22">
+      <c r="D126" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="E126" s="10"/>
+      <c r="F126" s="10"/>
+      <c r="G126" s="10"/>
+      <c r="H126" s="10"/>
+      <c r="I126" s="10"/>
+      <c r="J126" s="10"/>
+      <c r="K126" s="10"/>
+      <c r="L126" s="10"/>
+      <c r="M126" s="10"/>
+      <c r="N126" s="10"/>
+      <c r="O126" s="10"/>
+      <c r="P126" s="10"/>
+      <c r="Q126" s="10"/>
+      <c r="R126" s="10"/>
+      <c r="S126" s="10"/>
+      <c r="T126" s="10"/>
+      <c r="U126" s="10"/>
+      <c r="V126" s="10"/>
+    </row>
+    <row r="127" spans="4:22">
+      <c r="D127" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="E127" s="10"/>
+      <c r="F127" s="10"/>
+      <c r="G127" s="10"/>
+      <c r="H127" s="10"/>
+      <c r="I127" s="10"/>
+      <c r="J127" s="10"/>
+      <c r="K127" s="10"/>
+      <c r="L127" s="10"/>
+      <c r="M127" s="10"/>
+      <c r="N127" s="10"/>
+      <c r="O127" s="10"/>
+      <c r="P127" s="10"/>
+      <c r="Q127" s="10"/>
+      <c r="R127" s="10"/>
+      <c r="S127" s="10"/>
+      <c r="T127" s="10"/>
+      <c r="U127" s="10"/>
+      <c r="V127" s="10"/>
+    </row>
+    <row r="128" spans="4:22">
+      <c r="D128" s="10" t="s">
+        <v>759</v>
+      </c>
+      <c r="E128" s="10"/>
+      <c r="F128" s="10"/>
+      <c r="G128" s="10"/>
+      <c r="H128" s="10"/>
+      <c r="I128" s="10"/>
+      <c r="J128" s="10"/>
+      <c r="K128" s="10"/>
+      <c r="L128" s="10"/>
+      <c r="M128" s="10"/>
+      <c r="N128" s="10"/>
+      <c r="O128" s="10"/>
+      <c r="P128" s="10"/>
+      <c r="Q128" s="10"/>
+      <c r="R128" s="10"/>
+      <c r="S128" s="10"/>
+      <c r="T128" s="10"/>
+      <c r="U128" s="10"/>
+      <c r="V128" s="10"/>
+    </row>
+    <row r="129" spans="4:22">
+      <c r="D129" s="10" t="s">
+        <v>760</v>
+      </c>
+      <c r="E129" s="10"/>
+      <c r="F129" s="10"/>
+      <c r="G129" s="10"/>
+      <c r="H129" s="10"/>
+      <c r="I129" s="10"/>
+      <c r="J129" s="10"/>
+      <c r="K129" s="10"/>
+      <c r="L129" s="10"/>
+      <c r="M129" s="10"/>
+      <c r="N129" s="10"/>
+      <c r="O129" s="10"/>
+      <c r="P129" s="10"/>
+      <c r="Q129" s="10"/>
+      <c r="R129" s="10"/>
+      <c r="S129" s="10"/>
+      <c r="T129" s="10"/>
+      <c r="U129" s="10"/>
+      <c r="V129" s="10"/>
+    </row>
+    <row r="130" spans="4:22">
+      <c r="D130" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="E130" s="10"/>
+      <c r="F130" s="10"/>
+      <c r="G130" s="10"/>
+      <c r="H130" s="10"/>
+      <c r="I130" s="10"/>
+      <c r="J130" s="10"/>
+      <c r="K130" s="10"/>
+      <c r="L130" s="10"/>
+      <c r="M130" s="10"/>
+      <c r="N130" s="10"/>
+      <c r="O130" s="10"/>
+      <c r="P130" s="10"/>
+      <c r="Q130" s="10"/>
+      <c r="R130" s="10"/>
+      <c r="S130" s="10"/>
+      <c r="T130" s="10"/>
+      <c r="U130" s="10"/>
+      <c r="V130" s="10"/>
+    </row>
+    <row r="131" spans="4:22">
+      <c r="D131" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="E131" s="10"/>
+      <c r="F131" s="10"/>
+      <c r="G131" s="10"/>
+      <c r="H131" s="10"/>
+      <c r="I131" s="10"/>
+      <c r="J131" s="10"/>
+      <c r="K131" s="10"/>
+      <c r="L131" s="10"/>
+      <c r="M131" s="10"/>
+      <c r="N131" s="10"/>
+      <c r="O131" s="10"/>
+      <c r="P131" s="10"/>
+      <c r="Q131" s="10"/>
+      <c r="R131" s="10"/>
+      <c r="S131" s="10"/>
+      <c r="T131" s="10"/>
+      <c r="U131" s="10"/>
+      <c r="V131" s="10"/>
+    </row>
+    <row r="132" spans="4:22">
+      <c r="D132" s="10"/>
+      <c r="E132" s="10" t="s">
+        <v>761</v>
+      </c>
+      <c r="F132" s="10"/>
+      <c r="G132" s="10"/>
+      <c r="H132" s="10"/>
+      <c r="I132" s="10"/>
+      <c r="J132" s="10"/>
+      <c r="K132" s="10"/>
+      <c r="L132" s="10"/>
+      <c r="M132" s="10"/>
+      <c r="N132" s="10"/>
+      <c r="O132" s="10"/>
+      <c r="P132" s="10"/>
+      <c r="Q132" s="10"/>
+      <c r="R132" s="10"/>
+      <c r="S132" s="10"/>
+      <c r="T132" s="10"/>
+      <c r="U132" s="10"/>
+      <c r="V132" s="10"/>
+    </row>
+    <row r="133" spans="4:22">
+      <c r="D133" s="10"/>
+      <c r="E133" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="F133" s="10"/>
+      <c r="G133" s="10"/>
+      <c r="H133" s="10"/>
+      <c r="I133" s="10"/>
+      <c r="J133" s="10"/>
+      <c r="K133" s="10"/>
+      <c r="L133" s="10"/>
+      <c r="M133" s="10"/>
+      <c r="N133" s="10"/>
+      <c r="O133" s="10"/>
+      <c r="P133" s="10"/>
+      <c r="Q133" s="10"/>
+      <c r="R133" s="10"/>
+      <c r="S133" s="10"/>
+      <c r="T133" s="10"/>
+      <c r="U133" s="10"/>
+      <c r="V133" s="10"/>
+    </row>
+    <row r="134" spans="4:22">
+      <c r="D134" s="10"/>
+      <c r="E134" s="10" t="s">
+        <v>750</v>
+      </c>
+      <c r="F134" s="10"/>
+      <c r="G134" s="10"/>
+      <c r="H134" s="10"/>
+      <c r="I134" s="10"/>
+      <c r="J134" s="10"/>
+      <c r="K134" s="10"/>
+      <c r="L134" s="10"/>
+      <c r="M134" s="10"/>
+      <c r="N134" s="10"/>
+      <c r="O134" s="10"/>
+      <c r="P134" s="10"/>
+      <c r="Q134" s="10"/>
+      <c r="R134" s="10"/>
+      <c r="S134" s="10"/>
+      <c r="T134" s="10"/>
+      <c r="U134" s="10"/>
+      <c r="V134" s="10"/>
+    </row>
+    <row r="135" spans="4:22">
+      <c r="D135" s="10"/>
+      <c r="E135" s="10" t="s">
+        <v>756</v>
+      </c>
+      <c r="F135" s="10"/>
+      <c r="G135" s="10"/>
+      <c r="H135" s="10"/>
+      <c r="I135" s="10"/>
+      <c r="J135" s="10"/>
+      <c r="K135" s="10"/>
+      <c r="L135" s="10"/>
+      <c r="M135" s="10"/>
+      <c r="N135" s="10"/>
+      <c r="O135" s="10"/>
+      <c r="P135" s="10"/>
+      <c r="Q135" s="10"/>
+      <c r="R135" s="10"/>
+      <c r="S135" s="10"/>
+      <c r="T135" s="10"/>
+      <c r="U135" s="10"/>
+      <c r="V135" s="10"/>
+    </row>
+    <row r="136" spans="4:22">
+      <c r="D136" s="10"/>
+      <c r="E136" s="10"/>
+      <c r="F136" s="10" t="s">
+        <v>757</v>
+      </c>
+      <c r="G136" s="10"/>
+      <c r="H136" s="10"/>
+      <c r="I136" s="10"/>
+      <c r="J136" s="10"/>
+      <c r="K136" s="10"/>
+      <c r="L136" s="10"/>
+      <c r="M136" s="10"/>
+      <c r="N136" s="10"/>
+      <c r="O136" s="10"/>
+      <c r="P136" s="10"/>
+      <c r="Q136" s="10"/>
+      <c r="R136" s="10"/>
+      <c r="S136" s="10"/>
+      <c r="T136" s="10"/>
+      <c r="U136" s="10"/>
+      <c r="V136" s="10"/>
+    </row>
+    <row r="137" spans="4:22">
+      <c r="D137" s="10"/>
+      <c r="E137" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="F137" s="10"/>
+      <c r="G137" s="10"/>
+      <c r="H137" s="10"/>
+      <c r="I137" s="10"/>
+      <c r="J137" s="10"/>
+      <c r="K137" s="10"/>
+      <c r="L137" s="10"/>
+      <c r="M137" s="10"/>
+      <c r="N137" s="10"/>
+      <c r="O137" s="10"/>
+      <c r="P137" s="10"/>
+      <c r="Q137" s="10"/>
+      <c r="R137" s="10"/>
+      <c r="S137" s="10"/>
+      <c r="T137" s="10"/>
+      <c r="U137" s="10"/>
+      <c r="V137" s="10"/>
+    </row>
+    <row r="138" spans="4:22">
+      <c r="D138" s="10"/>
+      <c r="E138" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="F138" s="10"/>
+      <c r="G138" s="10"/>
+      <c r="H138" s="10"/>
+      <c r="I138" s="10"/>
+      <c r="J138" s="10"/>
+      <c r="K138" s="10"/>
+      <c r="L138" s="10"/>
+      <c r="M138" s="10"/>
+      <c r="N138" s="10"/>
+      <c r="O138" s="10"/>
+      <c r="P138" s="10"/>
+      <c r="Q138" s="10"/>
+      <c r="R138" s="10"/>
+      <c r="S138" s="10"/>
+      <c r="T138" s="10"/>
+      <c r="U138" s="10"/>
+      <c r="V138" s="10"/>
+    </row>
+    <row r="139" spans="4:22">
+      <c r="D139" s="10"/>
+      <c r="E139" s="10"/>
+      <c r="F139" s="10" t="s">
+        <v>758</v>
+      </c>
+      <c r="G139" s="10"/>
+      <c r="H139" s="10"/>
+      <c r="I139" s="10"/>
+      <c r="J139" s="10"/>
+      <c r="K139" s="10"/>
+      <c r="L139" s="10"/>
+      <c r="M139" s="10"/>
+      <c r="N139" s="10"/>
+      <c r="O139" s="10"/>
+      <c r="P139" s="10"/>
+      <c r="Q139" s="10"/>
+      <c r="R139" s="10"/>
+      <c r="S139" s="10"/>
+      <c r="T139" s="10"/>
+      <c r="U139" s="10"/>
+      <c r="V139" s="10"/>
+    </row>
+    <row r="140" spans="4:22">
+      <c r="D140" s="10"/>
+      <c r="E140" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="F140" s="10"/>
+      <c r="G140" s="10"/>
+      <c r="H140" s="10"/>
+      <c r="I140" s="10"/>
+      <c r="J140" s="10"/>
+      <c r="K140" s="10"/>
+      <c r="L140" s="10"/>
+      <c r="M140" s="10"/>
+      <c r="N140" s="10"/>
+      <c r="O140" s="10"/>
+      <c r="P140" s="10"/>
+      <c r="Q140" s="10"/>
+      <c r="R140" s="10"/>
+      <c r="S140" s="10"/>
+      <c r="T140" s="10"/>
+      <c r="U140" s="10"/>
+      <c r="V140" s="10"/>
+    </row>
+    <row r="141" spans="4:22">
+      <c r="D141" s="10" t="s">
+        <v>414</v>
+      </c>
+      <c r="E141" s="10"/>
+      <c r="F141" s="10"/>
+      <c r="G141" s="10"/>
+      <c r="H141" s="10"/>
+      <c r="I141" s="10"/>
+      <c r="J141" s="10"/>
+      <c r="K141" s="10"/>
+      <c r="L141" s="10"/>
+      <c r="M141" s="10"/>
+      <c r="N141" s="10"/>
+      <c r="O141" s="10"/>
+      <c r="P141" s="10"/>
+      <c r="Q141" s="10"/>
+      <c r="R141" s="10"/>
+      <c r="S141" s="10"/>
+      <c r="T141" s="10"/>
+      <c r="U141" s="10"/>
+      <c r="V141" s="10"/>
+    </row>
+    <row r="142" spans="4:22">
+      <c r="D142" s="10"/>
+      <c r="E142" s="10" t="s">
+        <v>752</v>
+      </c>
+      <c r="F142" s="10"/>
+      <c r="G142" s="10"/>
+      <c r="H142" s="10"/>
+      <c r="I142" s="10"/>
+      <c r="J142" s="10"/>
+      <c r="K142" s="10"/>
+      <c r="L142" s="10"/>
+      <c r="M142" s="10"/>
+      <c r="N142" s="10"/>
+      <c r="O142" s="10"/>
+      <c r="P142" s="10"/>
+      <c r="Q142" s="10"/>
+      <c r="R142" s="10"/>
+      <c r="S142" s="10"/>
+      <c r="T142" s="10"/>
+      <c r="U142" s="10"/>
+      <c r="V142" s="10"/>
+    </row>
+    <row r="143" spans="4:22">
+      <c r="D143" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="E143" s="10"/>
+      <c r="F143" s="10"/>
+      <c r="G143" s="10"/>
+      <c r="H143" s="10"/>
+      <c r="I143" s="10"/>
+      <c r="J143" s="10"/>
+      <c r="K143" s="10"/>
+      <c r="L143" s="10"/>
+      <c r="M143" s="10"/>
+      <c r="N143" s="10"/>
+      <c r="O143" s="10"/>
+      <c r="P143" s="10"/>
+      <c r="Q143" s="10"/>
+      <c r="R143" s="10"/>
+      <c r="S143" s="10"/>
+      <c r="T143" s="10"/>
+      <c r="U143" s="10"/>
+      <c r="V143" s="10"/>
+    </row>
+    <row r="145" spans="4:22">
+      <c r="D145" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="147" spans="4:22">
+      <c r="D147" t="s">
+        <v>26</v>
+      </c>
+      <c r="E147" s="2" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="148" spans="4:22">
+      <c r="D148" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="E148" s="10"/>
+      <c r="F148" s="10"/>
+      <c r="G148" s="10"/>
+      <c r="H148" s="10"/>
+      <c r="I148" s="10"/>
+      <c r="J148" s="10"/>
+      <c r="K148" s="10"/>
+      <c r="L148" s="10"/>
+      <c r="M148" s="10"/>
+      <c r="N148" s="10"/>
+      <c r="O148" s="10"/>
+      <c r="P148" s="10"/>
+      <c r="Q148" s="10"/>
+      <c r="R148" s="10"/>
+      <c r="S148" s="10"/>
+      <c r="T148" s="10"/>
+      <c r="U148" s="10"/>
+      <c r="V148" s="10"/>
+    </row>
+    <row r="149" spans="4:22">
+      <c r="D149" s="10" t="s">
+        <v>763</v>
+      </c>
+      <c r="E149" s="10"/>
+      <c r="F149" s="10"/>
+      <c r="G149" s="10"/>
+      <c r="H149" s="10"/>
+      <c r="I149" s="10"/>
+      <c r="J149" s="10"/>
+      <c r="K149" s="10"/>
+      <c r="L149" s="10"/>
+      <c r="M149" s="10"/>
+      <c r="N149" s="10"/>
+      <c r="O149" s="10"/>
+      <c r="P149" s="10"/>
+      <c r="Q149" s="10"/>
+      <c r="R149" s="10"/>
+      <c r="S149" s="10"/>
+      <c r="T149" s="10"/>
+      <c r="U149" s="10"/>
+      <c r="V149" s="10"/>
+    </row>
+    <row r="150" spans="4:22">
+      <c r="D150" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="E150" s="10"/>
+      <c r="F150" s="10"/>
+      <c r="G150" s="10"/>
+      <c r="H150" s="10"/>
+      <c r="I150" s="10"/>
+      <c r="J150" s="10"/>
+      <c r="K150" s="10"/>
+      <c r="L150" s="10"/>
+      <c r="M150" s="10"/>
+      <c r="N150" s="10"/>
+      <c r="O150" s="10"/>
+      <c r="P150" s="10"/>
+      <c r="Q150" s="10"/>
+      <c r="R150" s="10"/>
+      <c r="S150" s="10"/>
+      <c r="T150" s="10"/>
+      <c r="U150" s="10"/>
+      <c r="V150" s="10"/>
+    </row>
+    <row r="151" spans="4:22">
+      <c r="D151" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="E151" s="10"/>
+      <c r="F151" s="10"/>
+      <c r="G151" s="10"/>
+      <c r="H151" s="10"/>
+      <c r="I151" s="10"/>
+      <c r="J151" s="10"/>
+      <c r="K151" s="10"/>
+      <c r="L151" s="10"/>
+      <c r="M151" s="10"/>
+      <c r="N151" s="10"/>
+      <c r="O151" s="10"/>
+      <c r="P151" s="10"/>
+      <c r="Q151" s="10"/>
+      <c r="R151" s="10"/>
+      <c r="S151" s="10"/>
+      <c r="T151" s="10"/>
+      <c r="U151" s="10"/>
+      <c r="V151" s="10"/>
+    </row>
+    <row r="152" spans="4:22">
+      <c r="D152" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="E152" s="10"/>
+      <c r="F152" s="10"/>
+      <c r="G152" s="10"/>
+      <c r="H152" s="10"/>
+      <c r="I152" s="10"/>
+      <c r="J152" s="10"/>
+      <c r="K152" s="10"/>
+      <c r="L152" s="10"/>
+      <c r="M152" s="10"/>
+      <c r="N152" s="10"/>
+      <c r="O152" s="10"/>
+      <c r="P152" s="10"/>
+      <c r="Q152" s="10"/>
+      <c r="R152" s="10"/>
+      <c r="S152" s="10"/>
+      <c r="T152" s="10"/>
+      <c r="U152" s="10"/>
+      <c r="V152" s="10"/>
+    </row>
+    <row r="153" spans="4:22">
+      <c r="D153" s="10"/>
+      <c r="E153" s="10" t="s">
+        <v>752</v>
+      </c>
+      <c r="F153" s="10"/>
+      <c r="G153" s="10"/>
+      <c r="H153" s="10"/>
+      <c r="I153" s="10"/>
+      <c r="J153" s="10"/>
+      <c r="K153" s="10"/>
+      <c r="L153" s="10"/>
+      <c r="M153" s="10"/>
+      <c r="N153" s="10"/>
+      <c r="O153" s="10"/>
+      <c r="P153" s="10"/>
+      <c r="Q153" s="10"/>
+      <c r="R153" s="10"/>
+      <c r="S153" s="10"/>
+      <c r="T153" s="10"/>
+      <c r="U153" s="10"/>
+      <c r="V153" s="10"/>
+    </row>
+    <row r="154" spans="4:22">
+      <c r="D154" s="10"/>
+      <c r="E154" s="10" t="s">
+        <v>764</v>
+      </c>
+      <c r="F154" s="10"/>
+      <c r="G154" s="10"/>
+      <c r="H154" s="10"/>
+      <c r="I154" s="10"/>
+      <c r="J154" s="10"/>
+      <c r="K154" s="10"/>
+      <c r="L154" s="10"/>
+      <c r="M154" s="10"/>
+      <c r="N154" s="10"/>
+      <c r="O154" s="10"/>
+      <c r="P154" s="10"/>
+      <c r="Q154" s="10"/>
+      <c r="R154" s="10"/>
+      <c r="S154" s="10"/>
+      <c r="T154" s="10"/>
+      <c r="U154" s="10"/>
+      <c r="V154" s="10"/>
+    </row>
+    <row r="155" spans="4:22">
+      <c r="D155" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="E155" s="10"/>
+      <c r="F155" s="10"/>
+      <c r="G155" s="10"/>
+      <c r="H155" s="10"/>
+      <c r="I155" s="10"/>
+      <c r="J155" s="10"/>
+      <c r="K155" s="10"/>
+      <c r="L155" s="10"/>
+      <c r="M155" s="10"/>
+      <c r="N155" s="10"/>
+      <c r="O155" s="10"/>
+      <c r="P155" s="10"/>
+      <c r="Q155" s="10"/>
+      <c r="R155" s="10"/>
+      <c r="S155" s="10"/>
+      <c r="T155" s="10"/>
+      <c r="U155" s="10"/>
+      <c r="V155" s="10"/>
+    </row>
+    <row r="156" spans="4:22">
+      <c r="D156" s="10"/>
+      <c r="E156" s="10" t="s">
+        <v>765</v>
+      </c>
+      <c r="F156" s="10"/>
+      <c r="G156" s="10"/>
+      <c r="H156" s="10"/>
+      <c r="I156" s="10"/>
+      <c r="J156" s="10"/>
+      <c r="K156" s="10"/>
+      <c r="L156" s="10"/>
+      <c r="M156" s="10"/>
+      <c r="N156" s="10"/>
+      <c r="O156" s="10"/>
+      <c r="P156" s="10"/>
+      <c r="Q156" s="10"/>
+      <c r="R156" s="10"/>
+      <c r="S156" s="10"/>
+      <c r="T156" s="10"/>
+      <c r="U156" s="10"/>
+      <c r="V156" s="10"/>
+    </row>
+    <row r="157" spans="4:22">
+      <c r="D157" s="10"/>
+      <c r="E157" s="10" t="s">
+        <v>766</v>
+      </c>
+      <c r="F157" s="10"/>
+      <c r="G157" s="10"/>
+      <c r="H157" s="10"/>
+      <c r="I157" s="10"/>
+      <c r="J157" s="10"/>
+      <c r="K157" s="10"/>
+      <c r="L157" s="10"/>
+      <c r="M157" s="10"/>
+      <c r="N157" s="10"/>
+      <c r="O157" s="10"/>
+      <c r="P157" s="10"/>
+      <c r="Q157" s="10"/>
+      <c r="R157" s="10"/>
+      <c r="S157" s="10"/>
+      <c r="T157" s="10"/>
+      <c r="U157" s="10"/>
+      <c r="V157" s="10"/>
+    </row>
+    <row r="158" spans="4:22">
+      <c r="D158" s="10"/>
+      <c r="E158" s="10" t="s">
+        <v>767</v>
+      </c>
+      <c r="F158" s="10"/>
+      <c r="G158" s="10"/>
+      <c r="H158" s="10"/>
+      <c r="I158" s="10"/>
+      <c r="J158" s="10"/>
+      <c r="K158" s="10"/>
+      <c r="L158" s="10"/>
+      <c r="M158" s="10"/>
+      <c r="N158" s="10"/>
+      <c r="O158" s="10"/>
+      <c r="P158" s="10"/>
+      <c r="Q158" s="10"/>
+      <c r="R158" s="10"/>
+      <c r="S158" s="10"/>
+      <c r="T158" s="10"/>
+      <c r="U158" s="10"/>
+      <c r="V158" s="10"/>
+    </row>
+    <row r="159" spans="4:22">
+      <c r="D159" s="10"/>
+      <c r="E159" s="10" t="s">
+        <v>768</v>
+      </c>
+      <c r="F159" s="10"/>
+      <c r="G159" s="10"/>
+      <c r="H159" s="10"/>
+      <c r="I159" s="10"/>
+      <c r="J159" s="10"/>
+      <c r="K159" s="10"/>
+      <c r="L159" s="10"/>
+      <c r="M159" s="10"/>
+      <c r="N159" s="10"/>
+      <c r="O159" s="10"/>
+      <c r="P159" s="10"/>
+      <c r="Q159" s="10"/>
+      <c r="R159" s="10"/>
+      <c r="S159" s="10"/>
+      <c r="T159" s="10"/>
+      <c r="U159" s="10"/>
+      <c r="V159" s="10"/>
+    </row>
+    <row r="160" spans="4:22">
+      <c r="D160" s="10"/>
+      <c r="E160" s="10" t="s">
+        <v>769</v>
+      </c>
+      <c r="F160" s="10"/>
+      <c r="G160" s="10"/>
+      <c r="H160" s="10"/>
+      <c r="I160" s="10"/>
+      <c r="J160" s="10"/>
+      <c r="K160" s="10"/>
+      <c r="L160" s="10"/>
+      <c r="M160" s="10"/>
+      <c r="N160" s="10"/>
+      <c r="O160" s="10"/>
+      <c r="P160" s="10"/>
+      <c r="Q160" s="10"/>
+      <c r="R160" s="10"/>
+      <c r="S160" s="10"/>
+      <c r="T160" s="10"/>
+      <c r="U160" s="10"/>
+      <c r="V160" s="10"/>
+    </row>
+    <row r="161" spans="1:52">
+      <c r="D161" s="10"/>
+      <c r="E161" s="10" t="s">
+        <v>770</v>
+      </c>
+      <c r="F161" s="10"/>
+      <c r="G161" s="10"/>
+      <c r="H161" s="10"/>
+      <c r="I161" s="10"/>
+      <c r="J161" s="10"/>
+      <c r="K161" s="10"/>
+      <c r="L161" s="10"/>
+      <c r="M161" s="10"/>
+      <c r="N161" s="10"/>
+      <c r="O161" s="10"/>
+      <c r="P161" s="10"/>
+      <c r="Q161" s="10"/>
+      <c r="R161" s="10"/>
+      <c r="S161" s="10"/>
+      <c r="T161" s="10"/>
+      <c r="U161" s="10"/>
+      <c r="V161" s="10"/>
+    </row>
+    <row r="162" spans="1:52">
+      <c r="D162" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="E162" s="10"/>
+      <c r="F162" s="10"/>
+      <c r="G162" s="10"/>
+      <c r="H162" s="10"/>
+      <c r="I162" s="10"/>
+      <c r="J162" s="10"/>
+      <c r="K162" s="10"/>
+      <c r="L162" s="10"/>
+      <c r="M162" s="10"/>
+      <c r="N162" s="10"/>
+      <c r="O162" s="10"/>
+      <c r="P162" s="10"/>
+      <c r="Q162" s="10"/>
+      <c r="R162" s="10"/>
+      <c r="S162" s="10"/>
+      <c r="T162" s="10"/>
+      <c r="U162" s="10"/>
+      <c r="V162" s="10"/>
+    </row>
+    <row r="163" spans="1:52">
+      <c r="D163" s="10"/>
+      <c r="E163" s="10" t="s">
+        <v>771</v>
+      </c>
+      <c r="F163" s="10"/>
+      <c r="G163" s="10"/>
+      <c r="H163" s="10"/>
+      <c r="I163" s="10"/>
+      <c r="J163" s="10"/>
+      <c r="K163" s="10"/>
+      <c r="L163" s="10"/>
+      <c r="M163" s="10"/>
+      <c r="N163" s="10"/>
+      <c r="O163" s="10"/>
+      <c r="P163" s="10"/>
+      <c r="Q163" s="10"/>
+      <c r="R163" s="10"/>
+      <c r="S163" s="10"/>
+      <c r="T163" s="10"/>
+      <c r="U163" s="10"/>
+      <c r="V163" s="10"/>
+    </row>
+    <row r="164" spans="1:52">
+      <c r="D164" s="10"/>
+      <c r="E164" s="10" t="s">
+        <v>772</v>
+      </c>
+      <c r="F164" s="10"/>
+      <c r="G164" s="10"/>
+      <c r="H164" s="10"/>
+      <c r="I164" s="10"/>
+      <c r="J164" s="10"/>
+      <c r="K164" s="10"/>
+      <c r="L164" s="10"/>
+      <c r="M164" s="10"/>
+      <c r="N164" s="10"/>
+      <c r="O164" s="10"/>
+      <c r="P164" s="10"/>
+      <c r="Q164" s="10"/>
+      <c r="R164" s="10"/>
+      <c r="S164" s="10"/>
+      <c r="T164" s="10"/>
+      <c r="U164" s="10"/>
+      <c r="V164" s="10"/>
+    </row>
+    <row r="165" spans="1:52">
+      <c r="D165" s="10"/>
+      <c r="E165" s="10" t="s">
+        <v>768</v>
+      </c>
+      <c r="F165" s="10"/>
+      <c r="G165" s="10"/>
+      <c r="H165" s="10"/>
+      <c r="I165" s="10"/>
+      <c r="J165" s="10"/>
+      <c r="K165" s="10"/>
+      <c r="L165" s="10"/>
+      <c r="M165" s="10"/>
+      <c r="N165" s="10"/>
+      <c r="O165" s="10"/>
+      <c r="P165" s="10"/>
+      <c r="Q165" s="10"/>
+      <c r="R165" s="10"/>
+      <c r="S165" s="10"/>
+      <c r="T165" s="10"/>
+      <c r="U165" s="10"/>
+      <c r="V165" s="10"/>
+    </row>
+    <row r="166" spans="1:52">
+      <c r="D166" s="10"/>
+      <c r="E166" s="10" t="s">
+        <v>769</v>
+      </c>
+      <c r="F166" s="10"/>
+      <c r="G166" s="10"/>
+      <c r="H166" s="10"/>
+      <c r="I166" s="10"/>
+      <c r="J166" s="10"/>
+      <c r="K166" s="10"/>
+      <c r="L166" s="10"/>
+      <c r="M166" s="10"/>
+      <c r="N166" s="10"/>
+      <c r="O166" s="10"/>
+      <c r="P166" s="10"/>
+      <c r="Q166" s="10"/>
+      <c r="R166" s="10"/>
+      <c r="S166" s="10"/>
+      <c r="T166" s="10"/>
+      <c r="U166" s="10"/>
+      <c r="V166" s="10"/>
+    </row>
+    <row r="167" spans="1:52">
+      <c r="D167" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="E167" s="10"/>
+      <c r="F167" s="10"/>
+      <c r="G167" s="10"/>
+      <c r="H167" s="10"/>
+      <c r="I167" s="10"/>
+      <c r="J167" s="10"/>
+      <c r="K167" s="10"/>
+      <c r="L167" s="10"/>
+      <c r="M167" s="10"/>
+      <c r="N167" s="10"/>
+      <c r="O167" s="10"/>
+      <c r="P167" s="10"/>
+      <c r="Q167" s="10"/>
+      <c r="R167" s="10"/>
+      <c r="S167" s="10"/>
+      <c r="T167" s="10"/>
+      <c r="U167" s="10"/>
+      <c r="V167" s="10"/>
+    </row>
+    <row r="168" spans="1:52">
+      <c r="D168" s="10"/>
+      <c r="E168" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="F168" s="10"/>
+      <c r="G168" s="10"/>
+      <c r="H168" s="10"/>
+      <c r="I168" s="10"/>
+      <c r="J168" s="10"/>
+      <c r="K168" s="10"/>
+      <c r="L168" s="10"/>
+      <c r="M168" s="10"/>
+      <c r="N168" s="10"/>
+      <c r="O168" s="10"/>
+      <c r="P168" s="10"/>
+      <c r="Q168" s="10"/>
+      <c r="R168" s="10"/>
+      <c r="S168" s="10"/>
+      <c r="T168" s="10"/>
+      <c r="U168" s="10"/>
+      <c r="V168" s="10"/>
+    </row>
+    <row r="169" spans="1:52">
+      <c r="D169" s="10"/>
+      <c r="E169" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="F169" s="10"/>
+      <c r="G169" s="10"/>
+      <c r="H169" s="10"/>
+      <c r="I169" s="10"/>
+      <c r="J169" s="10"/>
+      <c r="K169" s="10"/>
+      <c r="L169" s="10"/>
+      <c r="M169" s="10"/>
+      <c r="N169" s="10"/>
+      <c r="O169" s="10"/>
+      <c r="P169" s="10"/>
+      <c r="Q169" s="10"/>
+      <c r="R169" s="10"/>
+      <c r="S169" s="10"/>
+      <c r="T169" s="10"/>
+      <c r="U169" s="10"/>
+      <c r="V169" s="10"/>
+    </row>
+    <row r="170" spans="1:52">
+      <c r="D170" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="E170" s="10"/>
+      <c r="F170" s="10"/>
+      <c r="G170" s="10"/>
+      <c r="H170" s="10"/>
+      <c r="I170" s="10"/>
+      <c r="J170" s="10"/>
+      <c r="K170" s="10"/>
+      <c r="L170" s="10"/>
+      <c r="M170" s="10"/>
+      <c r="N170" s="10"/>
+      <c r="O170" s="10"/>
+      <c r="P170" s="10"/>
+      <c r="Q170" s="10"/>
+      <c r="R170" s="10"/>
+      <c r="S170" s="10"/>
+      <c r="T170" s="10"/>
+      <c r="U170" s="10"/>
+      <c r="V170" s="10"/>
+    </row>
+    <row r="174" spans="1:52">
+      <c r="A174" s="4"/>
+      <c r="B174" s="4"/>
+      <c r="C174" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D174" s="1" t="s">
+        <v>773</v>
+      </c>
+      <c r="E174" s="4"/>
+      <c r="F174" s="4"/>
+      <c r="G174" s="4"/>
+      <c r="H174" s="4"/>
+      <c r="I174" s="4"/>
+      <c r="J174" s="4"/>
+      <c r="K174" s="4"/>
+      <c r="L174" s="4"/>
+      <c r="M174" s="4"/>
+      <c r="N174" s="4"/>
+      <c r="O174" s="4"/>
+      <c r="P174" s="4"/>
+      <c r="Q174" s="4"/>
+      <c r="R174" s="4"/>
+      <c r="S174" s="4"/>
+      <c r="T174" s="4"/>
+      <c r="U174" s="4"/>
+      <c r="V174" s="4"/>
+      <c r="W174" s="4"/>
+      <c r="X174" s="4"/>
+      <c r="Y174" s="4"/>
+      <c r="Z174" s="4"/>
+      <c r="AA174" s="4"/>
+      <c r="AB174" s="4"/>
+      <c r="AC174" s="4"/>
+      <c r="AD174" s="4"/>
+      <c r="AE174" s="4"/>
+      <c r="AF174" s="4"/>
+      <c r="AG174" s="4"/>
+      <c r="AH174" s="4"/>
+      <c r="AI174" s="4"/>
+      <c r="AJ174" s="4"/>
+      <c r="AK174" s="4"/>
+      <c r="AL174" s="4"/>
+      <c r="AM174" s="4"/>
+      <c r="AN174" s="4"/>
+      <c r="AO174" s="4"/>
+      <c r="AP174" s="4"/>
+      <c r="AQ174" s="4"/>
+      <c r="AR174" s="4"/>
+      <c r="AS174" s="4"/>
+      <c r="AT174" s="4"/>
+      <c r="AU174" s="4"/>
+      <c r="AV174" s="4"/>
+      <c r="AW174" s="4"/>
+      <c r="AX174" s="4"/>
+      <c r="AY174" s="4"/>
+      <c r="AZ174" s="4"/>
+    </row>
+    <row r="176" spans="1:52">
+      <c r="D176" s="3" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="177" spans="4:5">
+      <c r="D177" t="s">
+        <v>26</v>
+      </c>
+      <c r="E177" s="2" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="178" spans="4:5">
+      <c r="D178" t="s">
+        <v>26</v>
+      </c>
+      <c r="E178" s="2" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="179" spans="4:5">
+      <c r="D179" t="s">
+        <v>26</v>
+      </c>
+      <c r="E179" s="2" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="181" spans="4:5">
+      <c r="D181" s="3" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="182" spans="4:5">
+      <c r="D182" t="s">
+        <v>26</v>
+      </c>
+      <c r="E182" s="2" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="183" spans="4:5">
+      <c r="D183" t="s">
+        <v>26</v>
+      </c>
+      <c r="E183" s="2" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="185" spans="4:5">
+      <c r="D185" s="3" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="186" spans="4:5">
+      <c r="D186" t="s">
+        <v>26</v>
+      </c>
+      <c r="E186" s="2" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="187" spans="4:5">
+      <c r="D187" t="s">
+        <v>26</v>
+      </c>
+      <c r="E187" s="2" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="188" spans="4:5">
+      <c r="D188" t="s">
+        <v>26</v>
+      </c>
+      <c r="E188" s="2" t="s">
+        <v>782</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="B8"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -8354,131 +11752,131 @@
     </row>
     <row r="14" spans="1:52" ht="14.25" thickBot="1"/>
     <row r="15" spans="1:52" ht="14.25" thickBot="1">
-      <c r="N15" s="46" t="s">
+      <c r="N15" s="64" t="s">
         <v>132</v>
       </c>
-      <c r="O15" s="38"/>
-      <c r="P15" s="38"/>
-      <c r="Q15" s="38"/>
-      <c r="R15" s="39"/>
+      <c r="O15" s="56"/>
+      <c r="P15" s="56"/>
+      <c r="Q15" s="56"/>
+      <c r="R15" s="57"/>
     </row>
     <row r="16" spans="1:52">
-      <c r="D16" s="37" t="s">
+      <c r="D16" s="55" t="s">
         <v>138</v>
       </c>
-      <c r="E16" s="38"/>
-      <c r="F16" s="38"/>
-      <c r="G16" s="39"/>
+      <c r="E16" s="56"/>
+      <c r="F16" s="56"/>
+      <c r="G16" s="57"/>
       <c r="I16" t="s">
         <v>133</v>
       </c>
-      <c r="N16" s="40"/>
-      <c r="O16" s="41"/>
-      <c r="P16" s="41"/>
-      <c r="Q16" s="41"/>
-      <c r="R16" s="42"/>
+      <c r="N16" s="58"/>
+      <c r="O16" s="59"/>
+      <c r="P16" s="59"/>
+      <c r="Q16" s="59"/>
+      <c r="R16" s="60"/>
       <c r="T16" t="s">
         <v>136</v>
       </c>
-      <c r="Y16" s="46" t="s">
+      <c r="Y16" s="64" t="s">
         <v>133</v>
       </c>
-      <c r="Z16" s="38"/>
-      <c r="AA16" s="38"/>
-      <c r="AB16" s="38"/>
-      <c r="AC16" s="39"/>
+      <c r="Z16" s="56"/>
+      <c r="AA16" s="56"/>
+      <c r="AB16" s="56"/>
+      <c r="AC16" s="57"/>
     </row>
     <row r="17" spans="1:52" ht="14.25" thickBot="1">
-      <c r="D17" s="40"/>
-      <c r="E17" s="41"/>
-      <c r="F17" s="41"/>
-      <c r="G17" s="42"/>
-      <c r="N17" s="40"/>
-      <c r="O17" s="41"/>
-      <c r="P17" s="41"/>
-      <c r="Q17" s="41"/>
-      <c r="R17" s="42"/>
-      <c r="Y17" s="43"/>
-      <c r="Z17" s="44"/>
-      <c r="AA17" s="44"/>
-      <c r="AB17" s="44"/>
-      <c r="AC17" s="45"/>
+      <c r="D17" s="58"/>
+      <c r="E17" s="59"/>
+      <c r="F17" s="59"/>
+      <c r="G17" s="60"/>
+      <c r="N17" s="58"/>
+      <c r="O17" s="59"/>
+      <c r="P17" s="59"/>
+      <c r="Q17" s="59"/>
+      <c r="R17" s="60"/>
+      <c r="Y17" s="61"/>
+      <c r="Z17" s="62"/>
+      <c r="AA17" s="62"/>
+      <c r="AB17" s="62"/>
+      <c r="AC17" s="63"/>
     </row>
     <row r="18" spans="1:52">
-      <c r="D18" s="40"/>
-      <c r="E18" s="41"/>
-      <c r="F18" s="41"/>
-      <c r="G18" s="42"/>
+      <c r="D18" s="58"/>
+      <c r="E18" s="59"/>
+      <c r="F18" s="59"/>
+      <c r="G18" s="60"/>
       <c r="I18" t="s">
         <v>134</v>
       </c>
-      <c r="N18" s="40"/>
-      <c r="O18" s="41"/>
-      <c r="P18" s="41"/>
-      <c r="Q18" s="41"/>
-      <c r="R18" s="42"/>
+      <c r="N18" s="58"/>
+      <c r="O18" s="59"/>
+      <c r="P18" s="59"/>
+      <c r="Q18" s="59"/>
+      <c r="R18" s="60"/>
       <c r="T18" t="s">
         <v>136</v>
       </c>
-      <c r="Y18" s="46" t="s">
+      <c r="Y18" s="64" t="s">
         <v>134</v>
       </c>
-      <c r="Z18" s="38"/>
-      <c r="AA18" s="38"/>
-      <c r="AB18" s="38"/>
-      <c r="AC18" s="39"/>
+      <c r="Z18" s="56"/>
+      <c r="AA18" s="56"/>
+      <c r="AB18" s="56"/>
+      <c r="AC18" s="57"/>
     </row>
     <row r="19" spans="1:52" ht="14.25" thickBot="1">
-      <c r="D19" s="40"/>
-      <c r="E19" s="41"/>
-      <c r="F19" s="41"/>
-      <c r="G19" s="42"/>
-      <c r="N19" s="40"/>
-      <c r="O19" s="41"/>
-      <c r="P19" s="41"/>
-      <c r="Q19" s="41"/>
-      <c r="R19" s="42"/>
-      <c r="Y19" s="43"/>
-      <c r="Z19" s="44"/>
-      <c r="AA19" s="44"/>
-      <c r="AB19" s="44"/>
-      <c r="AC19" s="45"/>
+      <c r="D19" s="58"/>
+      <c r="E19" s="59"/>
+      <c r="F19" s="59"/>
+      <c r="G19" s="60"/>
+      <c r="N19" s="58"/>
+      <c r="O19" s="59"/>
+      <c r="P19" s="59"/>
+      <c r="Q19" s="59"/>
+      <c r="R19" s="60"/>
+      <c r="Y19" s="61"/>
+      <c r="Z19" s="62"/>
+      <c r="AA19" s="62"/>
+      <c r="AB19" s="62"/>
+      <c r="AC19" s="63"/>
     </row>
     <row r="20" spans="1:52" ht="14.25" thickBot="1">
-      <c r="D20" s="43"/>
-      <c r="E20" s="44"/>
-      <c r="F20" s="44"/>
-      <c r="G20" s="45"/>
+      <c r="D20" s="61"/>
+      <c r="E20" s="62"/>
+      <c r="F20" s="62"/>
+      <c r="G20" s="63"/>
       <c r="I20" t="s">
         <v>135</v>
       </c>
-      <c r="N20" s="40"/>
-      <c r="O20" s="41"/>
-      <c r="P20" s="41"/>
-      <c r="Q20" s="41"/>
-      <c r="R20" s="42"/>
+      <c r="N20" s="58"/>
+      <c r="O20" s="59"/>
+      <c r="P20" s="59"/>
+      <c r="Q20" s="59"/>
+      <c r="R20" s="60"/>
       <c r="T20" t="s">
         <v>136</v>
       </c>
-      <c r="Y20" s="40" t="s">
+      <c r="Y20" s="58" t="s">
         <v>135</v>
       </c>
-      <c r="Z20" s="41"/>
-      <c r="AA20" s="41"/>
-      <c r="AB20" s="41"/>
-      <c r="AC20" s="42"/>
+      <c r="Z20" s="59"/>
+      <c r="AA20" s="59"/>
+      <c r="AB20" s="59"/>
+      <c r="AC20" s="60"/>
     </row>
     <row r="21" spans="1:52" ht="14.25" thickBot="1">
-      <c r="N21" s="43"/>
-      <c r="O21" s="44"/>
-      <c r="P21" s="44"/>
-      <c r="Q21" s="44"/>
-      <c r="R21" s="45"/>
-      <c r="Y21" s="43"/>
-      <c r="Z21" s="44"/>
-      <c r="AA21" s="44"/>
-      <c r="AB21" s="44"/>
-      <c r="AC21" s="45"/>
+      <c r="N21" s="61"/>
+      <c r="O21" s="62"/>
+      <c r="P21" s="62"/>
+      <c r="Q21" s="62"/>
+      <c r="R21" s="63"/>
+      <c r="Y21" s="61"/>
+      <c r="Z21" s="62"/>
+      <c r="AA21" s="62"/>
+      <c r="AB21" s="62"/>
+      <c r="AC21" s="63"/>
     </row>
     <row r="23" spans="1:52">
       <c r="D23" t="s">
@@ -12028,312 +15426,312 @@
     </row>
     <row r="22" spans="4:44" ht="14.25" thickBot="1"/>
     <row r="23" spans="4:44">
-      <c r="E23" s="37" t="s">
+      <c r="E23" s="55" t="s">
         <v>138</v>
       </c>
-      <c r="F23" s="38"/>
-      <c r="G23" s="38"/>
-      <c r="H23" s="38"/>
-      <c r="I23" s="38"/>
-      <c r="J23" s="39"/>
+      <c r="F23" s="56"/>
+      <c r="G23" s="56"/>
+      <c r="H23" s="56"/>
+      <c r="I23" s="56"/>
+      <c r="J23" s="57"/>
       <c r="L23" t="s">
         <v>241</v>
       </c>
-      <c r="T23" s="46" t="s">
+      <c r="T23" s="64" t="s">
         <v>238</v>
       </c>
-      <c r="U23" s="38"/>
-      <c r="V23" s="38"/>
-      <c r="W23" s="38"/>
-      <c r="X23" s="38"/>
-      <c r="Y23" s="38"/>
-      <c r="Z23" s="38"/>
-      <c r="AA23" s="38"/>
-      <c r="AB23" s="38"/>
-      <c r="AC23" s="38"/>
-      <c r="AD23" s="38"/>
-      <c r="AE23" s="38"/>
-      <c r="AF23" s="39"/>
-      <c r="AL23" s="46" t="s">
+      <c r="U23" s="56"/>
+      <c r="V23" s="56"/>
+      <c r="W23" s="56"/>
+      <c r="X23" s="56"/>
+      <c r="Y23" s="56"/>
+      <c r="Z23" s="56"/>
+      <c r="AA23" s="56"/>
+      <c r="AB23" s="56"/>
+      <c r="AC23" s="56"/>
+      <c r="AD23" s="56"/>
+      <c r="AE23" s="56"/>
+      <c r="AF23" s="57"/>
+      <c r="AL23" s="64" t="s">
         <v>241</v>
       </c>
-      <c r="AM23" s="38"/>
-      <c r="AN23" s="38"/>
-      <c r="AO23" s="38"/>
-      <c r="AP23" s="38"/>
-      <c r="AQ23" s="38"/>
-      <c r="AR23" s="39"/>
+      <c r="AM23" s="56"/>
+      <c r="AN23" s="56"/>
+      <c r="AO23" s="56"/>
+      <c r="AP23" s="56"/>
+      <c r="AQ23" s="56"/>
+      <c r="AR23" s="57"/>
     </row>
     <row r="24" spans="4:44">
-      <c r="E24" s="40"/>
-      <c r="F24" s="41"/>
-      <c r="G24" s="41"/>
-      <c r="H24" s="41"/>
-      <c r="I24" s="41"/>
-      <c r="J24" s="42"/>
-      <c r="T24" s="40"/>
-      <c r="U24" s="41"/>
-      <c r="V24" s="41"/>
-      <c r="W24" s="41"/>
-      <c r="X24" s="41"/>
-      <c r="Y24" s="41"/>
-      <c r="Z24" s="41"/>
-      <c r="AA24" s="41"/>
-      <c r="AB24" s="41"/>
-      <c r="AC24" s="41"/>
-      <c r="AD24" s="41"/>
-      <c r="AE24" s="41"/>
-      <c r="AF24" s="42"/>
+      <c r="E24" s="58"/>
+      <c r="F24" s="59"/>
+      <c r="G24" s="59"/>
+      <c r="H24" s="59"/>
+      <c r="I24" s="59"/>
+      <c r="J24" s="60"/>
+      <c r="T24" s="58"/>
+      <c r="U24" s="59"/>
+      <c r="V24" s="59"/>
+      <c r="W24" s="59"/>
+      <c r="X24" s="59"/>
+      <c r="Y24" s="59"/>
+      <c r="Z24" s="59"/>
+      <c r="AA24" s="59"/>
+      <c r="AB24" s="59"/>
+      <c r="AC24" s="59"/>
+      <c r="AD24" s="59"/>
+      <c r="AE24" s="59"/>
+      <c r="AF24" s="60"/>
       <c r="AH24" t="s">
         <v>244</v>
       </c>
-      <c r="AL24" s="40"/>
-      <c r="AM24" s="41"/>
-      <c r="AN24" s="41"/>
-      <c r="AO24" s="41"/>
-      <c r="AP24" s="41"/>
-      <c r="AQ24" s="41"/>
-      <c r="AR24" s="42"/>
+      <c r="AL24" s="58"/>
+      <c r="AM24" s="59"/>
+      <c r="AN24" s="59"/>
+      <c r="AO24" s="59"/>
+      <c r="AP24" s="59"/>
+      <c r="AQ24" s="59"/>
+      <c r="AR24" s="60"/>
     </row>
     <row r="25" spans="4:44" ht="14.25" thickBot="1">
-      <c r="E25" s="40"/>
-      <c r="F25" s="41"/>
-      <c r="G25" s="41"/>
-      <c r="H25" s="41"/>
-      <c r="I25" s="41"/>
-      <c r="J25" s="42"/>
-      <c r="T25" s="43"/>
-      <c r="U25" s="44"/>
-      <c r="V25" s="44"/>
-      <c r="W25" s="44"/>
-      <c r="X25" s="44"/>
-      <c r="Y25" s="44"/>
-      <c r="Z25" s="44"/>
-      <c r="AA25" s="44"/>
-      <c r="AB25" s="44"/>
-      <c r="AC25" s="44"/>
-      <c r="AD25" s="44"/>
-      <c r="AE25" s="44"/>
-      <c r="AF25" s="45"/>
-      <c r="AL25" s="43"/>
-      <c r="AM25" s="44"/>
-      <c r="AN25" s="44"/>
-      <c r="AO25" s="44"/>
-      <c r="AP25" s="44"/>
-      <c r="AQ25" s="44"/>
-      <c r="AR25" s="45"/>
+      <c r="E25" s="58"/>
+      <c r="F25" s="59"/>
+      <c r="G25" s="59"/>
+      <c r="H25" s="59"/>
+      <c r="I25" s="59"/>
+      <c r="J25" s="60"/>
+      <c r="T25" s="61"/>
+      <c r="U25" s="62"/>
+      <c r="V25" s="62"/>
+      <c r="W25" s="62"/>
+      <c r="X25" s="62"/>
+      <c r="Y25" s="62"/>
+      <c r="Z25" s="62"/>
+      <c r="AA25" s="62"/>
+      <c r="AB25" s="62"/>
+      <c r="AC25" s="62"/>
+      <c r="AD25" s="62"/>
+      <c r="AE25" s="62"/>
+      <c r="AF25" s="63"/>
+      <c r="AL25" s="61"/>
+      <c r="AM25" s="62"/>
+      <c r="AN25" s="62"/>
+      <c r="AO25" s="62"/>
+      <c r="AP25" s="62"/>
+      <c r="AQ25" s="62"/>
+      <c r="AR25" s="63"/>
     </row>
     <row r="26" spans="4:44" ht="14.25" thickBot="1">
-      <c r="E26" s="40"/>
-      <c r="F26" s="41"/>
-      <c r="G26" s="41"/>
-      <c r="H26" s="41"/>
-      <c r="I26" s="41"/>
-      <c r="J26" s="42"/>
+      <c r="E26" s="58"/>
+      <c r="F26" s="59"/>
+      <c r="G26" s="59"/>
+      <c r="H26" s="59"/>
+      <c r="I26" s="59"/>
+      <c r="J26" s="60"/>
     </row>
     <row r="27" spans="4:44">
-      <c r="E27" s="40"/>
-      <c r="F27" s="41"/>
-      <c r="G27" s="41"/>
-      <c r="H27" s="41"/>
-      <c r="I27" s="41"/>
-      <c r="J27" s="42"/>
+      <c r="E27" s="58"/>
+      <c r="F27" s="59"/>
+      <c r="G27" s="59"/>
+      <c r="H27" s="59"/>
+      <c r="I27" s="59"/>
+      <c r="J27" s="60"/>
       <c r="L27" t="s">
         <v>134</v>
       </c>
-      <c r="T27" s="46" t="s">
+      <c r="T27" s="64" t="s">
         <v>239</v>
       </c>
-      <c r="U27" s="38"/>
-      <c r="V27" s="38"/>
-      <c r="W27" s="38"/>
-      <c r="X27" s="38"/>
-      <c r="Y27" s="38"/>
-      <c r="Z27" s="38"/>
-      <c r="AA27" s="38"/>
-      <c r="AB27" s="38"/>
-      <c r="AC27" s="38"/>
-      <c r="AD27" s="38"/>
-      <c r="AE27" s="38"/>
-      <c r="AF27" s="39"/>
+      <c r="U27" s="56"/>
+      <c r="V27" s="56"/>
+      <c r="W27" s="56"/>
+      <c r="X27" s="56"/>
+      <c r="Y27" s="56"/>
+      <c r="Z27" s="56"/>
+      <c r="AA27" s="56"/>
+      <c r="AB27" s="56"/>
+      <c r="AC27" s="56"/>
+      <c r="AD27" s="56"/>
+      <c r="AE27" s="56"/>
+      <c r="AF27" s="57"/>
       <c r="AH27" t="s">
         <v>244</v>
       </c>
-      <c r="AL27" s="46" t="s">
+      <c r="AL27" s="64" t="s">
         <v>242</v>
       </c>
-      <c r="AM27" s="38"/>
-      <c r="AN27" s="38"/>
-      <c r="AO27" s="38"/>
-      <c r="AP27" s="38"/>
-      <c r="AQ27" s="38"/>
-      <c r="AR27" s="39"/>
+      <c r="AM27" s="56"/>
+      <c r="AN27" s="56"/>
+      <c r="AO27" s="56"/>
+      <c r="AP27" s="56"/>
+      <c r="AQ27" s="56"/>
+      <c r="AR27" s="57"/>
     </row>
     <row r="28" spans="4:44">
-      <c r="E28" s="40"/>
-      <c r="F28" s="41"/>
-      <c r="G28" s="41"/>
-      <c r="H28" s="41"/>
-      <c r="I28" s="41"/>
-      <c r="J28" s="42"/>
-      <c r="T28" s="40"/>
-      <c r="U28" s="41"/>
-      <c r="V28" s="41"/>
-      <c r="W28" s="41"/>
-      <c r="X28" s="41"/>
-      <c r="Y28" s="41"/>
-      <c r="Z28" s="41"/>
-      <c r="AA28" s="41"/>
-      <c r="AB28" s="41"/>
-      <c r="AC28" s="41"/>
-      <c r="AD28" s="41"/>
-      <c r="AE28" s="41"/>
-      <c r="AF28" s="42"/>
-      <c r="AL28" s="40"/>
-      <c r="AM28" s="41"/>
-      <c r="AN28" s="41"/>
-      <c r="AO28" s="41"/>
-      <c r="AP28" s="41"/>
-      <c r="AQ28" s="41"/>
-      <c r="AR28" s="42"/>
+      <c r="E28" s="58"/>
+      <c r="F28" s="59"/>
+      <c r="G28" s="59"/>
+      <c r="H28" s="59"/>
+      <c r="I28" s="59"/>
+      <c r="J28" s="60"/>
+      <c r="T28" s="58"/>
+      <c r="U28" s="59"/>
+      <c r="V28" s="59"/>
+      <c r="W28" s="59"/>
+      <c r="X28" s="59"/>
+      <c r="Y28" s="59"/>
+      <c r="Z28" s="59"/>
+      <c r="AA28" s="59"/>
+      <c r="AB28" s="59"/>
+      <c r="AC28" s="59"/>
+      <c r="AD28" s="59"/>
+      <c r="AE28" s="59"/>
+      <c r="AF28" s="60"/>
+      <c r="AL28" s="58"/>
+      <c r="AM28" s="59"/>
+      <c r="AN28" s="59"/>
+      <c r="AO28" s="59"/>
+      <c r="AP28" s="59"/>
+      <c r="AQ28" s="59"/>
+      <c r="AR28" s="60"/>
     </row>
     <row r="29" spans="4:44" ht="14.25" thickBot="1">
-      <c r="E29" s="40"/>
-      <c r="F29" s="41"/>
-      <c r="G29" s="41"/>
-      <c r="H29" s="41"/>
-      <c r="I29" s="41"/>
-      <c r="J29" s="42"/>
-      <c r="T29" s="43"/>
-      <c r="U29" s="44"/>
-      <c r="V29" s="44"/>
-      <c r="W29" s="44"/>
-      <c r="X29" s="44"/>
-      <c r="Y29" s="44"/>
-      <c r="Z29" s="44"/>
-      <c r="AA29" s="44"/>
-      <c r="AB29" s="44"/>
-      <c r="AC29" s="44"/>
-      <c r="AD29" s="44"/>
-      <c r="AE29" s="44"/>
-      <c r="AF29" s="45"/>
-      <c r="AL29" s="43"/>
-      <c r="AM29" s="44"/>
-      <c r="AN29" s="44"/>
-      <c r="AO29" s="44"/>
-      <c r="AP29" s="44"/>
-      <c r="AQ29" s="44"/>
-      <c r="AR29" s="45"/>
+      <c r="E29" s="58"/>
+      <c r="F29" s="59"/>
+      <c r="G29" s="59"/>
+      <c r="H29" s="59"/>
+      <c r="I29" s="59"/>
+      <c r="J29" s="60"/>
+      <c r="T29" s="61"/>
+      <c r="U29" s="62"/>
+      <c r="V29" s="62"/>
+      <c r="W29" s="62"/>
+      <c r="X29" s="62"/>
+      <c r="Y29" s="62"/>
+      <c r="Z29" s="62"/>
+      <c r="AA29" s="62"/>
+      <c r="AB29" s="62"/>
+      <c r="AC29" s="62"/>
+      <c r="AD29" s="62"/>
+      <c r="AE29" s="62"/>
+      <c r="AF29" s="63"/>
+      <c r="AL29" s="61"/>
+      <c r="AM29" s="62"/>
+      <c r="AN29" s="62"/>
+      <c r="AO29" s="62"/>
+      <c r="AP29" s="62"/>
+      <c r="AQ29" s="62"/>
+      <c r="AR29" s="63"/>
     </row>
     <row r="30" spans="4:44" ht="14.25" thickBot="1">
-      <c r="E30" s="40"/>
-      <c r="F30" s="41"/>
-      <c r="G30" s="41"/>
-      <c r="H30" s="41"/>
-      <c r="I30" s="41"/>
-      <c r="J30" s="42"/>
+      <c r="E30" s="58"/>
+      <c r="F30" s="59"/>
+      <c r="G30" s="59"/>
+      <c r="H30" s="59"/>
+      <c r="I30" s="59"/>
+      <c r="J30" s="60"/>
     </row>
     <row r="31" spans="4:44">
-      <c r="E31" s="40"/>
-      <c r="F31" s="41"/>
-      <c r="G31" s="41"/>
-      <c r="H31" s="41"/>
-      <c r="I31" s="41"/>
-      <c r="J31" s="42"/>
+      <c r="E31" s="58"/>
+      <c r="F31" s="59"/>
+      <c r="G31" s="59"/>
+      <c r="H31" s="59"/>
+      <c r="I31" s="59"/>
+      <c r="J31" s="60"/>
       <c r="L31" t="s">
         <v>135</v>
       </c>
-      <c r="T31" s="46" t="s">
+      <c r="T31" s="64" t="s">
         <v>240</v>
       </c>
-      <c r="U31" s="38"/>
-      <c r="V31" s="38"/>
-      <c r="W31" s="38"/>
-      <c r="X31" s="38"/>
-      <c r="Y31" s="38"/>
-      <c r="Z31" s="38"/>
-      <c r="AA31" s="38"/>
-      <c r="AB31" s="38"/>
-      <c r="AC31" s="38"/>
-      <c r="AD31" s="38"/>
-      <c r="AE31" s="38"/>
-      <c r="AF31" s="39"/>
+      <c r="U31" s="56"/>
+      <c r="V31" s="56"/>
+      <c r="W31" s="56"/>
+      <c r="X31" s="56"/>
+      <c r="Y31" s="56"/>
+      <c r="Z31" s="56"/>
+      <c r="AA31" s="56"/>
+      <c r="AB31" s="56"/>
+      <c r="AC31" s="56"/>
+      <c r="AD31" s="56"/>
+      <c r="AE31" s="56"/>
+      <c r="AF31" s="57"/>
       <c r="AH31" t="s">
         <v>244</v>
       </c>
-      <c r="AL31" s="46" t="s">
+      <c r="AL31" s="64" t="s">
         <v>243</v>
       </c>
-      <c r="AM31" s="38"/>
-      <c r="AN31" s="38"/>
-      <c r="AO31" s="38"/>
-      <c r="AP31" s="38"/>
-      <c r="AQ31" s="38"/>
-      <c r="AR31" s="39"/>
+      <c r="AM31" s="56"/>
+      <c r="AN31" s="56"/>
+      <c r="AO31" s="56"/>
+      <c r="AP31" s="56"/>
+      <c r="AQ31" s="56"/>
+      <c r="AR31" s="57"/>
     </row>
     <row r="32" spans="4:44">
-      <c r="E32" s="40"/>
-      <c r="F32" s="41"/>
-      <c r="G32" s="41"/>
-      <c r="H32" s="41"/>
-      <c r="I32" s="41"/>
-      <c r="J32" s="42"/>
-      <c r="T32" s="40"/>
-      <c r="U32" s="41"/>
-      <c r="V32" s="41"/>
-      <c r="W32" s="41"/>
-      <c r="X32" s="41"/>
-      <c r="Y32" s="41"/>
-      <c r="Z32" s="41"/>
-      <c r="AA32" s="41"/>
-      <c r="AB32" s="41"/>
-      <c r="AC32" s="41"/>
-      <c r="AD32" s="41"/>
-      <c r="AE32" s="41"/>
-      <c r="AF32" s="42"/>
-      <c r="AL32" s="40"/>
-      <c r="AM32" s="41"/>
-      <c r="AN32" s="41"/>
-      <c r="AO32" s="41"/>
-      <c r="AP32" s="41"/>
-      <c r="AQ32" s="41"/>
-      <c r="AR32" s="42"/>
+      <c r="E32" s="58"/>
+      <c r="F32" s="59"/>
+      <c r="G32" s="59"/>
+      <c r="H32" s="59"/>
+      <c r="I32" s="59"/>
+      <c r="J32" s="60"/>
+      <c r="T32" s="58"/>
+      <c r="U32" s="59"/>
+      <c r="V32" s="59"/>
+      <c r="W32" s="59"/>
+      <c r="X32" s="59"/>
+      <c r="Y32" s="59"/>
+      <c r="Z32" s="59"/>
+      <c r="AA32" s="59"/>
+      <c r="AB32" s="59"/>
+      <c r="AC32" s="59"/>
+      <c r="AD32" s="59"/>
+      <c r="AE32" s="59"/>
+      <c r="AF32" s="60"/>
+      <c r="AL32" s="58"/>
+      <c r="AM32" s="59"/>
+      <c r="AN32" s="59"/>
+      <c r="AO32" s="59"/>
+      <c r="AP32" s="59"/>
+      <c r="AQ32" s="59"/>
+      <c r="AR32" s="60"/>
     </row>
     <row r="33" spans="4:44" ht="14.25" thickBot="1">
-      <c r="E33" s="40"/>
-      <c r="F33" s="41"/>
-      <c r="G33" s="41"/>
-      <c r="H33" s="41"/>
-      <c r="I33" s="41"/>
-      <c r="J33" s="42"/>
-      <c r="T33" s="43"/>
-      <c r="U33" s="44"/>
-      <c r="V33" s="44"/>
-      <c r="W33" s="44"/>
-      <c r="X33" s="44"/>
-      <c r="Y33" s="44"/>
-      <c r="Z33" s="44"/>
-      <c r="AA33" s="44"/>
-      <c r="AB33" s="44"/>
-      <c r="AC33" s="44"/>
-      <c r="AD33" s="44"/>
-      <c r="AE33" s="44"/>
-      <c r="AF33" s="45"/>
-      <c r="AL33" s="43"/>
-      <c r="AM33" s="44"/>
-      <c r="AN33" s="44"/>
-      <c r="AO33" s="44"/>
-      <c r="AP33" s="44"/>
-      <c r="AQ33" s="44"/>
-      <c r="AR33" s="45"/>
+      <c r="E33" s="58"/>
+      <c r="F33" s="59"/>
+      <c r="G33" s="59"/>
+      <c r="H33" s="59"/>
+      <c r="I33" s="59"/>
+      <c r="J33" s="60"/>
+      <c r="T33" s="61"/>
+      <c r="U33" s="62"/>
+      <c r="V33" s="62"/>
+      <c r="W33" s="62"/>
+      <c r="X33" s="62"/>
+      <c r="Y33" s="62"/>
+      <c r="Z33" s="62"/>
+      <c r="AA33" s="62"/>
+      <c r="AB33" s="62"/>
+      <c r="AC33" s="62"/>
+      <c r="AD33" s="62"/>
+      <c r="AE33" s="62"/>
+      <c r="AF33" s="63"/>
+      <c r="AL33" s="61"/>
+      <c r="AM33" s="62"/>
+      <c r="AN33" s="62"/>
+      <c r="AO33" s="62"/>
+      <c r="AP33" s="62"/>
+      <c r="AQ33" s="62"/>
+      <c r="AR33" s="63"/>
     </row>
     <row r="34" spans="4:44" ht="14.25" thickBot="1">
-      <c r="E34" s="43"/>
-      <c r="F34" s="44"/>
-      <c r="G34" s="44"/>
-      <c r="H34" s="44"/>
-      <c r="I34" s="44"/>
-      <c r="J34" s="45"/>
+      <c r="E34" s="61"/>
+      <c r="F34" s="62"/>
+      <c r="G34" s="62"/>
+      <c r="H34" s="62"/>
+      <c r="I34" s="62"/>
+      <c r="J34" s="63"/>
     </row>
     <row r="38" spans="4:44">
       <c r="D38" t="s">
@@ -15824,312 +19222,312 @@
     </row>
     <row r="28" spans="4:43" ht="14.25" thickBot="1"/>
     <row r="29" spans="4:43">
-      <c r="D29" s="37" t="s">
+      <c r="D29" s="55" t="s">
         <v>138</v>
       </c>
-      <c r="E29" s="38"/>
-      <c r="F29" s="38"/>
-      <c r="G29" s="38"/>
-      <c r="H29" s="38"/>
-      <c r="I29" s="39"/>
+      <c r="E29" s="56"/>
+      <c r="F29" s="56"/>
+      <c r="G29" s="56"/>
+      <c r="H29" s="56"/>
+      <c r="I29" s="57"/>
       <c r="K29" t="s">
         <v>241</v>
       </c>
-      <c r="S29" s="46" t="s">
+      <c r="S29" s="64" t="s">
         <v>238</v>
       </c>
-      <c r="T29" s="38"/>
-      <c r="U29" s="38"/>
-      <c r="V29" s="38"/>
-      <c r="W29" s="38"/>
-      <c r="X29" s="38"/>
-      <c r="Y29" s="38"/>
-      <c r="Z29" s="38"/>
-      <c r="AA29" s="38"/>
-      <c r="AB29" s="38"/>
-      <c r="AC29" s="38"/>
-      <c r="AD29" s="38"/>
-      <c r="AE29" s="39"/>
-      <c r="AK29" s="37" t="s">
+      <c r="T29" s="56"/>
+      <c r="U29" s="56"/>
+      <c r="V29" s="56"/>
+      <c r="W29" s="56"/>
+      <c r="X29" s="56"/>
+      <c r="Y29" s="56"/>
+      <c r="Z29" s="56"/>
+      <c r="AA29" s="56"/>
+      <c r="AB29" s="56"/>
+      <c r="AC29" s="56"/>
+      <c r="AD29" s="56"/>
+      <c r="AE29" s="57"/>
+      <c r="AK29" s="55" t="s">
         <v>306</v>
       </c>
-      <c r="AL29" s="38"/>
-      <c r="AM29" s="38"/>
-      <c r="AN29" s="38"/>
-      <c r="AO29" s="38"/>
-      <c r="AP29" s="38"/>
-      <c r="AQ29" s="39"/>
+      <c r="AL29" s="56"/>
+      <c r="AM29" s="56"/>
+      <c r="AN29" s="56"/>
+      <c r="AO29" s="56"/>
+      <c r="AP29" s="56"/>
+      <c r="AQ29" s="57"/>
     </row>
     <row r="30" spans="4:43">
-      <c r="D30" s="40"/>
-      <c r="E30" s="41"/>
-      <c r="F30" s="41"/>
-      <c r="G30" s="41"/>
-      <c r="H30" s="41"/>
-      <c r="I30" s="42"/>
-      <c r="S30" s="40"/>
-      <c r="T30" s="41"/>
-      <c r="U30" s="41"/>
-      <c r="V30" s="41"/>
-      <c r="W30" s="41"/>
-      <c r="X30" s="41"/>
-      <c r="Y30" s="41"/>
-      <c r="Z30" s="41"/>
-      <c r="AA30" s="41"/>
-      <c r="AB30" s="41"/>
-      <c r="AC30" s="41"/>
-      <c r="AD30" s="41"/>
-      <c r="AE30" s="42"/>
+      <c r="D30" s="58"/>
+      <c r="E30" s="59"/>
+      <c r="F30" s="59"/>
+      <c r="G30" s="59"/>
+      <c r="H30" s="59"/>
+      <c r="I30" s="60"/>
+      <c r="S30" s="58"/>
+      <c r="T30" s="59"/>
+      <c r="U30" s="59"/>
+      <c r="V30" s="59"/>
+      <c r="W30" s="59"/>
+      <c r="X30" s="59"/>
+      <c r="Y30" s="59"/>
+      <c r="Z30" s="59"/>
+      <c r="AA30" s="59"/>
+      <c r="AB30" s="59"/>
+      <c r="AC30" s="59"/>
+      <c r="AD30" s="59"/>
+      <c r="AE30" s="60"/>
       <c r="AG30" t="s">
         <v>244</v>
       </c>
-      <c r="AK30" s="40"/>
-      <c r="AL30" s="41"/>
-      <c r="AM30" s="41"/>
-      <c r="AN30" s="41"/>
-      <c r="AO30" s="41"/>
-      <c r="AP30" s="41"/>
-      <c r="AQ30" s="42"/>
+      <c r="AK30" s="58"/>
+      <c r="AL30" s="59"/>
+      <c r="AM30" s="59"/>
+      <c r="AN30" s="59"/>
+      <c r="AO30" s="59"/>
+      <c r="AP30" s="59"/>
+      <c r="AQ30" s="60"/>
     </row>
     <row r="31" spans="4:43" ht="14.25" thickBot="1">
-      <c r="D31" s="40"/>
-      <c r="E31" s="41"/>
-      <c r="F31" s="41"/>
-      <c r="G31" s="41"/>
-      <c r="H31" s="41"/>
-      <c r="I31" s="42"/>
-      <c r="S31" s="43"/>
-      <c r="T31" s="44"/>
-      <c r="U31" s="44"/>
-      <c r="V31" s="44"/>
-      <c r="W31" s="44"/>
-      <c r="X31" s="44"/>
-      <c r="Y31" s="44"/>
-      <c r="Z31" s="44"/>
-      <c r="AA31" s="44"/>
-      <c r="AB31" s="44"/>
-      <c r="AC31" s="44"/>
-      <c r="AD31" s="44"/>
-      <c r="AE31" s="45"/>
-      <c r="AK31" s="43"/>
-      <c r="AL31" s="44"/>
-      <c r="AM31" s="44"/>
-      <c r="AN31" s="44"/>
-      <c r="AO31" s="44"/>
-      <c r="AP31" s="44"/>
-      <c r="AQ31" s="45"/>
+      <c r="D31" s="58"/>
+      <c r="E31" s="59"/>
+      <c r="F31" s="59"/>
+      <c r="G31" s="59"/>
+      <c r="H31" s="59"/>
+      <c r="I31" s="60"/>
+      <c r="S31" s="61"/>
+      <c r="T31" s="62"/>
+      <c r="U31" s="62"/>
+      <c r="V31" s="62"/>
+      <c r="W31" s="62"/>
+      <c r="X31" s="62"/>
+      <c r="Y31" s="62"/>
+      <c r="Z31" s="62"/>
+      <c r="AA31" s="62"/>
+      <c r="AB31" s="62"/>
+      <c r="AC31" s="62"/>
+      <c r="AD31" s="62"/>
+      <c r="AE31" s="63"/>
+      <c r="AK31" s="61"/>
+      <c r="AL31" s="62"/>
+      <c r="AM31" s="62"/>
+      <c r="AN31" s="62"/>
+      <c r="AO31" s="62"/>
+      <c r="AP31" s="62"/>
+      <c r="AQ31" s="63"/>
     </row>
     <row r="32" spans="4:43" ht="14.25" thickBot="1">
-      <c r="D32" s="40"/>
-      <c r="E32" s="41"/>
-      <c r="F32" s="41"/>
-      <c r="G32" s="41"/>
-      <c r="H32" s="41"/>
-      <c r="I32" s="42"/>
+      <c r="D32" s="58"/>
+      <c r="E32" s="59"/>
+      <c r="F32" s="59"/>
+      <c r="G32" s="59"/>
+      <c r="H32" s="59"/>
+      <c r="I32" s="60"/>
     </row>
     <row r="33" spans="4:43">
-      <c r="D33" s="40"/>
-      <c r="E33" s="41"/>
-      <c r="F33" s="41"/>
-      <c r="G33" s="41"/>
-      <c r="H33" s="41"/>
-      <c r="I33" s="42"/>
+      <c r="D33" s="58"/>
+      <c r="E33" s="59"/>
+      <c r="F33" s="59"/>
+      <c r="G33" s="59"/>
+      <c r="H33" s="59"/>
+      <c r="I33" s="60"/>
       <c r="K33" t="s">
         <v>134</v>
       </c>
-      <c r="S33" s="46" t="s">
+      <c r="S33" s="64" t="s">
         <v>239</v>
       </c>
-      <c r="T33" s="38"/>
-      <c r="U33" s="38"/>
-      <c r="V33" s="38"/>
-      <c r="W33" s="38"/>
-      <c r="X33" s="38"/>
-      <c r="Y33" s="38"/>
-      <c r="Z33" s="38"/>
-      <c r="AA33" s="38"/>
-      <c r="AB33" s="38"/>
-      <c r="AC33" s="38"/>
-      <c r="AD33" s="38"/>
-      <c r="AE33" s="39"/>
+      <c r="T33" s="56"/>
+      <c r="U33" s="56"/>
+      <c r="V33" s="56"/>
+      <c r="W33" s="56"/>
+      <c r="X33" s="56"/>
+      <c r="Y33" s="56"/>
+      <c r="Z33" s="56"/>
+      <c r="AA33" s="56"/>
+      <c r="AB33" s="56"/>
+      <c r="AC33" s="56"/>
+      <c r="AD33" s="56"/>
+      <c r="AE33" s="57"/>
       <c r="AG33" t="s">
         <v>244</v>
       </c>
-      <c r="AK33" s="37" t="s">
+      <c r="AK33" s="55" t="s">
         <v>307</v>
       </c>
-      <c r="AL33" s="38"/>
-      <c r="AM33" s="38"/>
-      <c r="AN33" s="38"/>
-      <c r="AO33" s="38"/>
-      <c r="AP33" s="38"/>
-      <c r="AQ33" s="39"/>
+      <c r="AL33" s="56"/>
+      <c r="AM33" s="56"/>
+      <c r="AN33" s="56"/>
+      <c r="AO33" s="56"/>
+      <c r="AP33" s="56"/>
+      <c r="AQ33" s="57"/>
     </row>
     <row r="34" spans="4:43">
-      <c r="D34" s="40"/>
-      <c r="E34" s="41"/>
-      <c r="F34" s="41"/>
-      <c r="G34" s="41"/>
-      <c r="H34" s="41"/>
-      <c r="I34" s="42"/>
-      <c r="S34" s="40"/>
-      <c r="T34" s="41"/>
-      <c r="U34" s="41"/>
-      <c r="V34" s="41"/>
-      <c r="W34" s="41"/>
-      <c r="X34" s="41"/>
-      <c r="Y34" s="41"/>
-      <c r="Z34" s="41"/>
-      <c r="AA34" s="41"/>
-      <c r="AB34" s="41"/>
-      <c r="AC34" s="41"/>
-      <c r="AD34" s="41"/>
-      <c r="AE34" s="42"/>
-      <c r="AK34" s="40"/>
-      <c r="AL34" s="41"/>
-      <c r="AM34" s="41"/>
-      <c r="AN34" s="41"/>
-      <c r="AO34" s="41"/>
-      <c r="AP34" s="41"/>
-      <c r="AQ34" s="42"/>
+      <c r="D34" s="58"/>
+      <c r="E34" s="59"/>
+      <c r="F34" s="59"/>
+      <c r="G34" s="59"/>
+      <c r="H34" s="59"/>
+      <c r="I34" s="60"/>
+      <c r="S34" s="58"/>
+      <c r="T34" s="59"/>
+      <c r="U34" s="59"/>
+      <c r="V34" s="59"/>
+      <c r="W34" s="59"/>
+      <c r="X34" s="59"/>
+      <c r="Y34" s="59"/>
+      <c r="Z34" s="59"/>
+      <c r="AA34" s="59"/>
+      <c r="AB34" s="59"/>
+      <c r="AC34" s="59"/>
+      <c r="AD34" s="59"/>
+      <c r="AE34" s="60"/>
+      <c r="AK34" s="58"/>
+      <c r="AL34" s="59"/>
+      <c r="AM34" s="59"/>
+      <c r="AN34" s="59"/>
+      <c r="AO34" s="59"/>
+      <c r="AP34" s="59"/>
+      <c r="AQ34" s="60"/>
     </row>
     <row r="35" spans="4:43" ht="14.25" thickBot="1">
-      <c r="D35" s="40"/>
-      <c r="E35" s="41"/>
-      <c r="F35" s="41"/>
-      <c r="G35" s="41"/>
-      <c r="H35" s="41"/>
-      <c r="I35" s="42"/>
-      <c r="S35" s="43"/>
-      <c r="T35" s="44"/>
-      <c r="U35" s="44"/>
-      <c r="V35" s="44"/>
-      <c r="W35" s="44"/>
-      <c r="X35" s="44"/>
-      <c r="Y35" s="44"/>
-      <c r="Z35" s="44"/>
-      <c r="AA35" s="44"/>
-      <c r="AB35" s="44"/>
-      <c r="AC35" s="44"/>
-      <c r="AD35" s="44"/>
-      <c r="AE35" s="45"/>
-      <c r="AK35" s="43"/>
-      <c r="AL35" s="44"/>
-      <c r="AM35" s="44"/>
-      <c r="AN35" s="44"/>
-      <c r="AO35" s="44"/>
-      <c r="AP35" s="44"/>
-      <c r="AQ35" s="45"/>
+      <c r="D35" s="58"/>
+      <c r="E35" s="59"/>
+      <c r="F35" s="59"/>
+      <c r="G35" s="59"/>
+      <c r="H35" s="59"/>
+      <c r="I35" s="60"/>
+      <c r="S35" s="61"/>
+      <c r="T35" s="62"/>
+      <c r="U35" s="62"/>
+      <c r="V35" s="62"/>
+      <c r="W35" s="62"/>
+      <c r="X35" s="62"/>
+      <c r="Y35" s="62"/>
+      <c r="Z35" s="62"/>
+      <c r="AA35" s="62"/>
+      <c r="AB35" s="62"/>
+      <c r="AC35" s="62"/>
+      <c r="AD35" s="62"/>
+      <c r="AE35" s="63"/>
+      <c r="AK35" s="61"/>
+      <c r="AL35" s="62"/>
+      <c r="AM35" s="62"/>
+      <c r="AN35" s="62"/>
+      <c r="AO35" s="62"/>
+      <c r="AP35" s="62"/>
+      <c r="AQ35" s="63"/>
     </row>
     <row r="36" spans="4:43" ht="14.25" thickBot="1">
-      <c r="D36" s="40"/>
-      <c r="E36" s="41"/>
-      <c r="F36" s="41"/>
-      <c r="G36" s="41"/>
-      <c r="H36" s="41"/>
-      <c r="I36" s="42"/>
+      <c r="D36" s="58"/>
+      <c r="E36" s="59"/>
+      <c r="F36" s="59"/>
+      <c r="G36" s="59"/>
+      <c r="H36" s="59"/>
+      <c r="I36" s="60"/>
     </row>
     <row r="37" spans="4:43">
-      <c r="D37" s="40"/>
-      <c r="E37" s="41"/>
-      <c r="F37" s="41"/>
-      <c r="G37" s="41"/>
-      <c r="H37" s="41"/>
-      <c r="I37" s="42"/>
+      <c r="D37" s="58"/>
+      <c r="E37" s="59"/>
+      <c r="F37" s="59"/>
+      <c r="G37" s="59"/>
+      <c r="H37" s="59"/>
+      <c r="I37" s="60"/>
       <c r="K37" t="s">
         <v>135</v>
       </c>
-      <c r="S37" s="46" t="s">
+      <c r="S37" s="64" t="s">
         <v>240</v>
       </c>
-      <c r="T37" s="38"/>
-      <c r="U37" s="38"/>
-      <c r="V37" s="38"/>
-      <c r="W37" s="38"/>
-      <c r="X37" s="38"/>
-      <c r="Y37" s="38"/>
-      <c r="Z37" s="38"/>
-      <c r="AA37" s="38"/>
-      <c r="AB37" s="38"/>
-      <c r="AC37" s="38"/>
-      <c r="AD37" s="38"/>
-      <c r="AE37" s="39"/>
+      <c r="T37" s="56"/>
+      <c r="U37" s="56"/>
+      <c r="V37" s="56"/>
+      <c r="W37" s="56"/>
+      <c r="X37" s="56"/>
+      <c r="Y37" s="56"/>
+      <c r="Z37" s="56"/>
+      <c r="AA37" s="56"/>
+      <c r="AB37" s="56"/>
+      <c r="AC37" s="56"/>
+      <c r="AD37" s="56"/>
+      <c r="AE37" s="57"/>
       <c r="AG37" t="s">
         <v>244</v>
       </c>
-      <c r="AK37" s="37" t="s">
+      <c r="AK37" s="55" t="s">
         <v>308</v>
       </c>
-      <c r="AL37" s="38"/>
-      <c r="AM37" s="38"/>
-      <c r="AN37" s="38"/>
-      <c r="AO37" s="38"/>
-      <c r="AP37" s="38"/>
-      <c r="AQ37" s="39"/>
+      <c r="AL37" s="56"/>
+      <c r="AM37" s="56"/>
+      <c r="AN37" s="56"/>
+      <c r="AO37" s="56"/>
+      <c r="AP37" s="56"/>
+      <c r="AQ37" s="57"/>
     </row>
     <row r="38" spans="4:43">
-      <c r="D38" s="40"/>
-      <c r="E38" s="41"/>
-      <c r="F38" s="41"/>
-      <c r="G38" s="41"/>
-      <c r="H38" s="41"/>
-      <c r="I38" s="42"/>
-      <c r="S38" s="40"/>
-      <c r="T38" s="41"/>
-      <c r="U38" s="41"/>
-      <c r="V38" s="41"/>
-      <c r="W38" s="41"/>
-      <c r="X38" s="41"/>
-      <c r="Y38" s="41"/>
-      <c r="Z38" s="41"/>
-      <c r="AA38" s="41"/>
-      <c r="AB38" s="41"/>
-      <c r="AC38" s="41"/>
-      <c r="AD38" s="41"/>
-      <c r="AE38" s="42"/>
-      <c r="AK38" s="40"/>
-      <c r="AL38" s="41"/>
-      <c r="AM38" s="41"/>
-      <c r="AN38" s="41"/>
-      <c r="AO38" s="41"/>
-      <c r="AP38" s="41"/>
-      <c r="AQ38" s="42"/>
+      <c r="D38" s="58"/>
+      <c r="E38" s="59"/>
+      <c r="F38" s="59"/>
+      <c r="G38" s="59"/>
+      <c r="H38" s="59"/>
+      <c r="I38" s="60"/>
+      <c r="S38" s="58"/>
+      <c r="T38" s="59"/>
+      <c r="U38" s="59"/>
+      <c r="V38" s="59"/>
+      <c r="W38" s="59"/>
+      <c r="X38" s="59"/>
+      <c r="Y38" s="59"/>
+      <c r="Z38" s="59"/>
+      <c r="AA38" s="59"/>
+      <c r="AB38" s="59"/>
+      <c r="AC38" s="59"/>
+      <c r="AD38" s="59"/>
+      <c r="AE38" s="60"/>
+      <c r="AK38" s="58"/>
+      <c r="AL38" s="59"/>
+      <c r="AM38" s="59"/>
+      <c r="AN38" s="59"/>
+      <c r="AO38" s="59"/>
+      <c r="AP38" s="59"/>
+      <c r="AQ38" s="60"/>
     </row>
     <row r="39" spans="4:43" ht="14.25" thickBot="1">
-      <c r="D39" s="40"/>
-      <c r="E39" s="41"/>
-      <c r="F39" s="41"/>
-      <c r="G39" s="41"/>
-      <c r="H39" s="41"/>
-      <c r="I39" s="42"/>
-      <c r="S39" s="43"/>
-      <c r="T39" s="44"/>
-      <c r="U39" s="44"/>
-      <c r="V39" s="44"/>
-      <c r="W39" s="44"/>
-      <c r="X39" s="44"/>
-      <c r="Y39" s="44"/>
-      <c r="Z39" s="44"/>
-      <c r="AA39" s="44"/>
-      <c r="AB39" s="44"/>
-      <c r="AC39" s="44"/>
-      <c r="AD39" s="44"/>
-      <c r="AE39" s="45"/>
-      <c r="AK39" s="43"/>
-      <c r="AL39" s="44"/>
-      <c r="AM39" s="44"/>
-      <c r="AN39" s="44"/>
-      <c r="AO39" s="44"/>
-      <c r="AP39" s="44"/>
-      <c r="AQ39" s="45"/>
+      <c r="D39" s="58"/>
+      <c r="E39" s="59"/>
+      <c r="F39" s="59"/>
+      <c r="G39" s="59"/>
+      <c r="H39" s="59"/>
+      <c r="I39" s="60"/>
+      <c r="S39" s="61"/>
+      <c r="T39" s="62"/>
+      <c r="U39" s="62"/>
+      <c r="V39" s="62"/>
+      <c r="W39" s="62"/>
+      <c r="X39" s="62"/>
+      <c r="Y39" s="62"/>
+      <c r="Z39" s="62"/>
+      <c r="AA39" s="62"/>
+      <c r="AB39" s="62"/>
+      <c r="AC39" s="62"/>
+      <c r="AD39" s="62"/>
+      <c r="AE39" s="63"/>
+      <c r="AK39" s="61"/>
+      <c r="AL39" s="62"/>
+      <c r="AM39" s="62"/>
+      <c r="AN39" s="62"/>
+      <c r="AO39" s="62"/>
+      <c r="AP39" s="62"/>
+      <c r="AQ39" s="63"/>
     </row>
     <row r="40" spans="4:43" ht="14.25" thickBot="1">
-      <c r="D40" s="43"/>
-      <c r="E40" s="44"/>
-      <c r="F40" s="44"/>
-      <c r="G40" s="44"/>
-      <c r="H40" s="44"/>
-      <c r="I40" s="45"/>
+      <c r="D40" s="61"/>
+      <c r="E40" s="62"/>
+      <c r="F40" s="62"/>
+      <c r="G40" s="62"/>
+      <c r="H40" s="62"/>
+      <c r="I40" s="63"/>
     </row>
     <row r="43" spans="4:43">
       <c r="D43" t="s">
@@ -21466,410 +24864,410 @@
       <c r="AW30" s="10"/>
     </row>
     <row r="33" spans="5:38" ht="14.25" thickBot="1">
-      <c r="W33" s="56"/>
-      <c r="X33" s="57"/>
-      <c r="Y33" s="57"/>
-      <c r="Z33" s="57"/>
-      <c r="AA33" s="57"/>
-      <c r="AB33" s="58"/>
+      <c r="W33" s="22"/>
+      <c r="X33" s="23"/>
+      <c r="Y33" s="23"/>
+      <c r="Z33" s="23"/>
+      <c r="AA33" s="23"/>
+      <c r="AB33" s="24"/>
     </row>
     <row r="34" spans="5:38">
-      <c r="W34" s="59"/>
-      <c r="X34" s="46" t="s">
+      <c r="W34" s="25"/>
+      <c r="X34" s="64" t="s">
         <v>391</v>
       </c>
-      <c r="Y34" s="38"/>
-      <c r="Z34" s="38"/>
-      <c r="AA34" s="39"/>
-      <c r="AB34" s="60"/>
+      <c r="Y34" s="56"/>
+      <c r="Z34" s="56"/>
+      <c r="AA34" s="57"/>
+      <c r="AB34" s="26"/>
     </row>
     <row r="35" spans="5:38" ht="14.25" thickBot="1">
-      <c r="W35" s="59"/>
-      <c r="X35" s="43"/>
-      <c r="Y35" s="44"/>
-      <c r="Z35" s="44"/>
-      <c r="AA35" s="45"/>
-      <c r="AB35" s="60"/>
+      <c r="W35" s="25"/>
+      <c r="X35" s="61"/>
+      <c r="Y35" s="62"/>
+      <c r="Z35" s="62"/>
+      <c r="AA35" s="63"/>
+      <c r="AB35" s="26"/>
     </row>
     <row r="36" spans="5:38">
-      <c r="W36" s="59"/>
-      <c r="X36" s="51"/>
-      <c r="Y36" s="51"/>
-      <c r="Z36" s="51"/>
-      <c r="AA36" s="51"/>
-      <c r="AB36" s="60"/>
-      <c r="AH36" s="46" t="s">
+      <c r="W36" s="25"/>
+      <c r="X36" s="17"/>
+      <c r="Y36" s="17"/>
+      <c r="Z36" s="17"/>
+      <c r="AA36" s="17"/>
+      <c r="AB36" s="26"/>
+      <c r="AH36" s="64" t="s">
         <v>395</v>
       </c>
-      <c r="AI36" s="38"/>
-      <c r="AJ36" s="38"/>
-      <c r="AK36" s="38"/>
-      <c r="AL36" s="39"/>
+      <c r="AI36" s="56"/>
+      <c r="AJ36" s="56"/>
+      <c r="AK36" s="56"/>
+      <c r="AL36" s="57"/>
     </row>
     <row r="37" spans="5:38" ht="14.25" thickBot="1">
-      <c r="W37" s="59"/>
-      <c r="X37" s="51"/>
-      <c r="Y37" s="51"/>
-      <c r="Z37" s="51"/>
-      <c r="AA37" s="51"/>
-      <c r="AB37" s="60"/>
-      <c r="AH37" s="40"/>
-      <c r="AI37" s="41"/>
-      <c r="AJ37" s="41"/>
-      <c r="AK37" s="41"/>
-      <c r="AL37" s="42"/>
+      <c r="W37" s="25"/>
+      <c r="X37" s="17"/>
+      <c r="Y37" s="17"/>
+      <c r="Z37" s="17"/>
+      <c r="AA37" s="17"/>
+      <c r="AB37" s="26"/>
+      <c r="AH37" s="58"/>
+      <c r="AI37" s="59"/>
+      <c r="AJ37" s="59"/>
+      <c r="AK37" s="59"/>
+      <c r="AL37" s="60"/>
     </row>
     <row r="38" spans="5:38">
-      <c r="M38" s="46" t="s">
+      <c r="M38" s="64" t="s">
         <v>390</v>
       </c>
-      <c r="N38" s="38"/>
-      <c r="O38" s="38"/>
-      <c r="P38" s="38"/>
-      <c r="Q38" s="39"/>
-      <c r="W38" s="59"/>
-      <c r="X38" s="46" t="s">
+      <c r="N38" s="56"/>
+      <c r="O38" s="56"/>
+      <c r="P38" s="56"/>
+      <c r="Q38" s="57"/>
+      <c r="W38" s="25"/>
+      <c r="X38" s="64" t="s">
         <v>392</v>
       </c>
-      <c r="Y38" s="38"/>
-      <c r="Z38" s="38"/>
-      <c r="AA38" s="39"/>
-      <c r="AB38" s="60"/>
-      <c r="AH38" s="40"/>
-      <c r="AI38" s="41"/>
-      <c r="AJ38" s="41"/>
-      <c r="AK38" s="41"/>
-      <c r="AL38" s="42"/>
+      <c r="Y38" s="56"/>
+      <c r="Z38" s="56"/>
+      <c r="AA38" s="57"/>
+      <c r="AB38" s="26"/>
+      <c r="AH38" s="58"/>
+      <c r="AI38" s="59"/>
+      <c r="AJ38" s="59"/>
+      <c r="AK38" s="59"/>
+      <c r="AL38" s="60"/>
     </row>
     <row r="39" spans="5:38" ht="14.25" thickBot="1">
-      <c r="M39" s="40"/>
-      <c r="N39" s="41"/>
-      <c r="O39" s="41"/>
-      <c r="P39" s="41"/>
-      <c r="Q39" s="42"/>
-      <c r="W39" s="59"/>
-      <c r="X39" s="43"/>
-      <c r="Y39" s="44"/>
-      <c r="Z39" s="44"/>
-      <c r="AA39" s="45"/>
-      <c r="AB39" s="60"/>
-      <c r="AH39" s="40"/>
-      <c r="AI39" s="41"/>
-      <c r="AJ39" s="41"/>
-      <c r="AK39" s="41"/>
-      <c r="AL39" s="42"/>
+      <c r="M39" s="58"/>
+      <c r="N39" s="59"/>
+      <c r="O39" s="59"/>
+      <c r="P39" s="59"/>
+      <c r="Q39" s="60"/>
+      <c r="W39" s="25"/>
+      <c r="X39" s="61"/>
+      <c r="Y39" s="62"/>
+      <c r="Z39" s="62"/>
+      <c r="AA39" s="63"/>
+      <c r="AB39" s="26"/>
+      <c r="AH39" s="58"/>
+      <c r="AI39" s="59"/>
+      <c r="AJ39" s="59"/>
+      <c r="AK39" s="59"/>
+      <c r="AL39" s="60"/>
     </row>
     <row r="40" spans="5:38">
-      <c r="M40" s="40"/>
-      <c r="N40" s="41"/>
-      <c r="O40" s="41"/>
-      <c r="P40" s="41"/>
-      <c r="Q40" s="42"/>
-      <c r="W40" s="59"/>
-      <c r="X40" s="51"/>
-      <c r="Y40" s="51"/>
-      <c r="Z40" s="51"/>
-      <c r="AA40" s="51"/>
-      <c r="AB40" s="60"/>
-      <c r="AH40" s="40"/>
-      <c r="AI40" s="41"/>
-      <c r="AJ40" s="41"/>
-      <c r="AK40" s="41"/>
-      <c r="AL40" s="42"/>
+      <c r="M40" s="58"/>
+      <c r="N40" s="59"/>
+      <c r="O40" s="59"/>
+      <c r="P40" s="59"/>
+      <c r="Q40" s="60"/>
+      <c r="W40" s="25"/>
+      <c r="X40" s="17"/>
+      <c r="Y40" s="17"/>
+      <c r="Z40" s="17"/>
+      <c r="AA40" s="17"/>
+      <c r="AB40" s="26"/>
+      <c r="AH40" s="58"/>
+      <c r="AI40" s="59"/>
+      <c r="AJ40" s="59"/>
+      <c r="AK40" s="59"/>
+      <c r="AL40" s="60"/>
     </row>
     <row r="41" spans="5:38" ht="14.25" thickBot="1">
-      <c r="M41" s="40"/>
-      <c r="N41" s="41"/>
-      <c r="O41" s="41"/>
-      <c r="P41" s="41"/>
-      <c r="Q41" s="42"/>
-      <c r="W41" s="59"/>
-      <c r="X41" s="51"/>
-      <c r="Y41" s="51"/>
-      <c r="Z41" s="51"/>
-      <c r="AA41" s="51"/>
-      <c r="AB41" s="60"/>
-      <c r="AH41" s="40"/>
-      <c r="AI41" s="41"/>
-      <c r="AJ41" s="41"/>
-      <c r="AK41" s="41"/>
-      <c r="AL41" s="42"/>
+      <c r="M41" s="58"/>
+      <c r="N41" s="59"/>
+      <c r="O41" s="59"/>
+      <c r="P41" s="59"/>
+      <c r="Q41" s="60"/>
+      <c r="W41" s="25"/>
+      <c r="X41" s="17"/>
+      <c r="Y41" s="17"/>
+      <c r="Z41" s="17"/>
+      <c r="AA41" s="17"/>
+      <c r="AB41" s="26"/>
+      <c r="AH41" s="58"/>
+      <c r="AI41" s="59"/>
+      <c r="AJ41" s="59"/>
+      <c r="AK41" s="59"/>
+      <c r="AL41" s="60"/>
     </row>
     <row r="42" spans="5:38" ht="14.25" thickBot="1">
-      <c r="M42" s="40"/>
-      <c r="N42" s="41"/>
-      <c r="O42" s="41"/>
-      <c r="P42" s="41"/>
-      <c r="Q42" s="42"/>
-      <c r="W42" s="59"/>
-      <c r="X42" s="46" t="s">
+      <c r="M42" s="58"/>
+      <c r="N42" s="59"/>
+      <c r="O42" s="59"/>
+      <c r="P42" s="59"/>
+      <c r="Q42" s="60"/>
+      <c r="W42" s="25"/>
+      <c r="X42" s="64" t="s">
         <v>393</v>
       </c>
-      <c r="Y42" s="38"/>
-      <c r="Z42" s="38"/>
-      <c r="AA42" s="39"/>
-      <c r="AB42" s="60"/>
-      <c r="AH42" s="43"/>
-      <c r="AI42" s="44"/>
-      <c r="AJ42" s="44"/>
-      <c r="AK42" s="44"/>
-      <c r="AL42" s="45"/>
+      <c r="Y42" s="56"/>
+      <c r="Z42" s="56"/>
+      <c r="AA42" s="57"/>
+      <c r="AB42" s="26"/>
+      <c r="AH42" s="61"/>
+      <c r="AI42" s="62"/>
+      <c r="AJ42" s="62"/>
+      <c r="AK42" s="62"/>
+      <c r="AL42" s="63"/>
     </row>
     <row r="43" spans="5:38" ht="14.25" thickBot="1">
-      <c r="M43" s="40"/>
-      <c r="N43" s="41"/>
-      <c r="O43" s="41"/>
-      <c r="P43" s="41"/>
-      <c r="Q43" s="42"/>
-      <c r="W43" s="59"/>
-      <c r="X43" s="43"/>
-      <c r="Y43" s="44"/>
-      <c r="Z43" s="44"/>
-      <c r="AA43" s="45"/>
-      <c r="AB43" s="60"/>
+      <c r="M43" s="58"/>
+      <c r="N43" s="59"/>
+      <c r="O43" s="59"/>
+      <c r="P43" s="59"/>
+      <c r="Q43" s="60"/>
+      <c r="W43" s="25"/>
+      <c r="X43" s="61"/>
+      <c r="Y43" s="62"/>
+      <c r="Z43" s="62"/>
+      <c r="AA43" s="63"/>
+      <c r="AB43" s="26"/>
     </row>
     <row r="44" spans="5:38" ht="14.25" thickBot="1">
-      <c r="E44" s="37" t="s">
+      <c r="E44" s="55" t="s">
         <v>389</v>
       </c>
-      <c r="F44" s="38"/>
-      <c r="G44" s="38"/>
-      <c r="H44" s="39"/>
-      <c r="M44" s="43"/>
-      <c r="N44" s="44"/>
-      <c r="O44" s="44"/>
-      <c r="P44" s="44"/>
-      <c r="Q44" s="45"/>
-      <c r="W44" s="59"/>
-      <c r="X44" s="51"/>
-      <c r="Y44" s="51"/>
-      <c r="Z44" s="51"/>
-      <c r="AA44" s="51"/>
-      <c r="AB44" s="60"/>
+      <c r="F44" s="56"/>
+      <c r="G44" s="56"/>
+      <c r="H44" s="57"/>
+      <c r="M44" s="61"/>
+      <c r="N44" s="62"/>
+      <c r="O44" s="62"/>
+      <c r="P44" s="62"/>
+      <c r="Q44" s="63"/>
+      <c r="W44" s="25"/>
+      <c r="X44" s="17"/>
+      <c r="Y44" s="17"/>
+      <c r="Z44" s="17"/>
+      <c r="AA44" s="17"/>
+      <c r="AB44" s="26"/>
     </row>
     <row r="45" spans="5:38">
-      <c r="E45" s="40"/>
-      <c r="F45" s="41"/>
-      <c r="G45" s="41"/>
-      <c r="H45" s="42"/>
-      <c r="W45" s="57"/>
-      <c r="X45" s="57"/>
-      <c r="Y45" s="57"/>
-      <c r="Z45" s="57"/>
-      <c r="AA45" s="57"/>
-      <c r="AB45" s="57"/>
+      <c r="E45" s="58"/>
+      <c r="F45" s="59"/>
+      <c r="G45" s="59"/>
+      <c r="H45" s="60"/>
+      <c r="W45" s="23"/>
+      <c r="X45" s="23"/>
+      <c r="Y45" s="23"/>
+      <c r="Z45" s="23"/>
+      <c r="AA45" s="23"/>
+      <c r="AB45" s="23"/>
     </row>
     <row r="46" spans="5:38">
-      <c r="E46" s="40"/>
-      <c r="F46" s="41"/>
-      <c r="G46" s="41"/>
-      <c r="H46" s="42"/>
-      <c r="W46" s="51"/>
-      <c r="X46" s="51"/>
-      <c r="Y46" s="51"/>
-      <c r="Z46" s="51"/>
-      <c r="AA46" s="51"/>
-      <c r="AB46" s="51"/>
+      <c r="E46" s="58"/>
+      <c r="F46" s="59"/>
+      <c r="G46" s="59"/>
+      <c r="H46" s="60"/>
+      <c r="W46" s="17"/>
+      <c r="X46" s="17"/>
+      <c r="Y46" s="17"/>
+      <c r="Z46" s="17"/>
+      <c r="AA46" s="17"/>
+      <c r="AB46" s="17"/>
     </row>
     <row r="47" spans="5:38">
-      <c r="E47" s="40"/>
-      <c r="F47" s="41"/>
-      <c r="G47" s="41"/>
-      <c r="H47" s="42"/>
+      <c r="E47" s="58"/>
+      <c r="F47" s="59"/>
+      <c r="G47" s="59"/>
+      <c r="H47" s="60"/>
     </row>
     <row r="48" spans="5:38">
-      <c r="E48" s="40"/>
-      <c r="F48" s="41"/>
-      <c r="G48" s="41"/>
-      <c r="H48" s="42"/>
+      <c r="E48" s="58"/>
+      <c r="F48" s="59"/>
+      <c r="G48" s="59"/>
+      <c r="H48" s="60"/>
     </row>
     <row r="49" spans="4:38" ht="14.25" thickBot="1">
-      <c r="E49" s="40"/>
-      <c r="F49" s="41"/>
-      <c r="G49" s="41"/>
-      <c r="H49" s="42"/>
-      <c r="W49" s="56"/>
-      <c r="X49" s="57"/>
-      <c r="Y49" s="57"/>
-      <c r="Z49" s="57"/>
-      <c r="AA49" s="57"/>
-      <c r="AB49" s="58"/>
+      <c r="E49" s="58"/>
+      <c r="F49" s="59"/>
+      <c r="G49" s="59"/>
+      <c r="H49" s="60"/>
+      <c r="W49" s="22"/>
+      <c r="X49" s="23"/>
+      <c r="Y49" s="23"/>
+      <c r="Z49" s="23"/>
+      <c r="AA49" s="23"/>
+      <c r="AB49" s="24"/>
     </row>
     <row r="50" spans="4:38" ht="14.25" thickBot="1">
-      <c r="E50" s="40"/>
-      <c r="F50" s="41"/>
-      <c r="G50" s="41"/>
-      <c r="H50" s="42"/>
-      <c r="M50" s="46" t="s">
+      <c r="E50" s="58"/>
+      <c r="F50" s="59"/>
+      <c r="G50" s="59"/>
+      <c r="H50" s="60"/>
+      <c r="M50" s="64" t="s">
         <v>394</v>
       </c>
-      <c r="N50" s="38"/>
-      <c r="O50" s="38"/>
-      <c r="P50" s="38"/>
-      <c r="Q50" s="39"/>
-      <c r="W50" s="59"/>
-      <c r="X50" s="46" t="s">
+      <c r="N50" s="56"/>
+      <c r="O50" s="56"/>
+      <c r="P50" s="56"/>
+      <c r="Q50" s="57"/>
+      <c r="W50" s="25"/>
+      <c r="X50" s="64" t="s">
         <v>391</v>
       </c>
-      <c r="Y50" s="38"/>
-      <c r="Z50" s="38"/>
-      <c r="AA50" s="39"/>
-      <c r="AB50" s="60"/>
+      <c r="Y50" s="56"/>
+      <c r="Z50" s="56"/>
+      <c r="AA50" s="57"/>
+      <c r="AB50" s="26"/>
     </row>
     <row r="51" spans="4:38" ht="14.25" thickBot="1">
-      <c r="E51" s="43"/>
-      <c r="F51" s="44"/>
-      <c r="G51" s="44"/>
-      <c r="H51" s="45"/>
-      <c r="M51" s="40"/>
-      <c r="N51" s="41"/>
-      <c r="O51" s="41"/>
-      <c r="P51" s="41"/>
-      <c r="Q51" s="42"/>
-      <c r="W51" s="59"/>
-      <c r="X51" s="43"/>
-      <c r="Y51" s="44"/>
-      <c r="Z51" s="44"/>
-      <c r="AA51" s="45"/>
-      <c r="AB51" s="60"/>
-      <c r="AH51" s="46" t="s">
+      <c r="E51" s="61"/>
+      <c r="F51" s="62"/>
+      <c r="G51" s="62"/>
+      <c r="H51" s="63"/>
+      <c r="M51" s="58"/>
+      <c r="N51" s="59"/>
+      <c r="O51" s="59"/>
+      <c r="P51" s="59"/>
+      <c r="Q51" s="60"/>
+      <c r="W51" s="25"/>
+      <c r="X51" s="61"/>
+      <c r="Y51" s="62"/>
+      <c r="Z51" s="62"/>
+      <c r="AA51" s="63"/>
+      <c r="AB51" s="26"/>
+      <c r="AH51" s="64" t="s">
         <v>396</v>
       </c>
-      <c r="AI51" s="38"/>
-      <c r="AJ51" s="38"/>
-      <c r="AK51" s="38"/>
-      <c r="AL51" s="39"/>
+      <c r="AI51" s="56"/>
+      <c r="AJ51" s="56"/>
+      <c r="AK51" s="56"/>
+      <c r="AL51" s="57"/>
     </row>
     <row r="52" spans="4:38">
-      <c r="M52" s="40"/>
-      <c r="N52" s="41"/>
-      <c r="O52" s="41"/>
-      <c r="P52" s="41"/>
-      <c r="Q52" s="42"/>
-      <c r="W52" s="59"/>
-      <c r="X52" s="51"/>
-      <c r="Y52" s="51"/>
-      <c r="Z52" s="51"/>
-      <c r="AA52" s="51"/>
-      <c r="AB52" s="60"/>
-      <c r="AH52" s="40"/>
-      <c r="AI52" s="41"/>
-      <c r="AJ52" s="41"/>
-      <c r="AK52" s="41"/>
-      <c r="AL52" s="42"/>
+      <c r="M52" s="58"/>
+      <c r="N52" s="59"/>
+      <c r="O52" s="59"/>
+      <c r="P52" s="59"/>
+      <c r="Q52" s="60"/>
+      <c r="W52" s="25"/>
+      <c r="X52" s="17"/>
+      <c r="Y52" s="17"/>
+      <c r="Z52" s="17"/>
+      <c r="AA52" s="17"/>
+      <c r="AB52" s="26"/>
+      <c r="AH52" s="58"/>
+      <c r="AI52" s="59"/>
+      <c r="AJ52" s="59"/>
+      <c r="AK52" s="59"/>
+      <c r="AL52" s="60"/>
     </row>
     <row r="53" spans="4:38" ht="14.25" thickBot="1">
-      <c r="M53" s="40"/>
-      <c r="N53" s="41"/>
-      <c r="O53" s="41"/>
-      <c r="P53" s="41"/>
-      <c r="Q53" s="42"/>
-      <c r="W53" s="59"/>
-      <c r="X53" s="51"/>
-      <c r="Y53" s="51"/>
-      <c r="Z53" s="51"/>
-      <c r="AA53" s="51"/>
-      <c r="AB53" s="60"/>
-      <c r="AH53" s="40"/>
-      <c r="AI53" s="41"/>
-      <c r="AJ53" s="41"/>
-      <c r="AK53" s="41"/>
-      <c r="AL53" s="42"/>
+      <c r="M53" s="58"/>
+      <c r="N53" s="59"/>
+      <c r="O53" s="59"/>
+      <c r="P53" s="59"/>
+      <c r="Q53" s="60"/>
+      <c r="W53" s="25"/>
+      <c r="X53" s="17"/>
+      <c r="Y53" s="17"/>
+      <c r="Z53" s="17"/>
+      <c r="AA53" s="17"/>
+      <c r="AB53" s="26"/>
+      <c r="AH53" s="58"/>
+      <c r="AI53" s="59"/>
+      <c r="AJ53" s="59"/>
+      <c r="AK53" s="59"/>
+      <c r="AL53" s="60"/>
     </row>
     <row r="54" spans="4:38">
-      <c r="M54" s="40"/>
-      <c r="N54" s="41"/>
-      <c r="O54" s="41"/>
-      <c r="P54" s="41"/>
-      <c r="Q54" s="42"/>
-      <c r="W54" s="59"/>
-      <c r="X54" s="46" t="s">
+      <c r="M54" s="58"/>
+      <c r="N54" s="59"/>
+      <c r="O54" s="59"/>
+      <c r="P54" s="59"/>
+      <c r="Q54" s="60"/>
+      <c r="W54" s="25"/>
+      <c r="X54" s="64" t="s">
         <v>392</v>
       </c>
-      <c r="Y54" s="38"/>
-      <c r="Z54" s="38"/>
-      <c r="AA54" s="39"/>
-      <c r="AB54" s="60"/>
-      <c r="AH54" s="40"/>
-      <c r="AI54" s="41"/>
-      <c r="AJ54" s="41"/>
-      <c r="AK54" s="41"/>
-      <c r="AL54" s="42"/>
+      <c r="Y54" s="56"/>
+      <c r="Z54" s="56"/>
+      <c r="AA54" s="57"/>
+      <c r="AB54" s="26"/>
+      <c r="AH54" s="58"/>
+      <c r="AI54" s="59"/>
+      <c r="AJ54" s="59"/>
+      <c r="AK54" s="59"/>
+      <c r="AL54" s="60"/>
     </row>
     <row r="55" spans="4:38" ht="14.25" thickBot="1">
-      <c r="M55" s="40"/>
-      <c r="N55" s="41"/>
-      <c r="O55" s="41"/>
-      <c r="P55" s="41"/>
-      <c r="Q55" s="42"/>
-      <c r="W55" s="59"/>
-      <c r="X55" s="43"/>
-      <c r="Y55" s="44"/>
-      <c r="Z55" s="44"/>
-      <c r="AA55" s="45"/>
-      <c r="AB55" s="60"/>
-      <c r="AH55" s="40"/>
-      <c r="AI55" s="41"/>
-      <c r="AJ55" s="41"/>
-      <c r="AK55" s="41"/>
-      <c r="AL55" s="42"/>
+      <c r="M55" s="58"/>
+      <c r="N55" s="59"/>
+      <c r="O55" s="59"/>
+      <c r="P55" s="59"/>
+      <c r="Q55" s="60"/>
+      <c r="W55" s="25"/>
+      <c r="X55" s="61"/>
+      <c r="Y55" s="62"/>
+      <c r="Z55" s="62"/>
+      <c r="AA55" s="63"/>
+      <c r="AB55" s="26"/>
+      <c r="AH55" s="58"/>
+      <c r="AI55" s="59"/>
+      <c r="AJ55" s="59"/>
+      <c r="AK55" s="59"/>
+      <c r="AL55" s="60"/>
     </row>
     <row r="56" spans="4:38" ht="14.25" thickBot="1">
-      <c r="M56" s="43"/>
-      <c r="N56" s="44"/>
-      <c r="O56" s="44"/>
-      <c r="P56" s="44"/>
-      <c r="Q56" s="45"/>
-      <c r="W56" s="59"/>
-      <c r="X56" s="51"/>
-      <c r="Y56" s="51"/>
-      <c r="Z56" s="51"/>
-      <c r="AA56" s="51"/>
-      <c r="AB56" s="60"/>
-      <c r="AH56" s="40"/>
-      <c r="AI56" s="41"/>
-      <c r="AJ56" s="41"/>
-      <c r="AK56" s="41"/>
-      <c r="AL56" s="42"/>
+      <c r="M56" s="61"/>
+      <c r="N56" s="62"/>
+      <c r="O56" s="62"/>
+      <c r="P56" s="62"/>
+      <c r="Q56" s="63"/>
+      <c r="W56" s="25"/>
+      <c r="X56" s="17"/>
+      <c r="Y56" s="17"/>
+      <c r="Z56" s="17"/>
+      <c r="AA56" s="17"/>
+      <c r="AB56" s="26"/>
+      <c r="AH56" s="58"/>
+      <c r="AI56" s="59"/>
+      <c r="AJ56" s="59"/>
+      <c r="AK56" s="59"/>
+      <c r="AL56" s="60"/>
     </row>
     <row r="57" spans="4:38" ht="14.25" thickBot="1">
-      <c r="W57" s="59"/>
-      <c r="X57" s="51"/>
-      <c r="Y57" s="51"/>
-      <c r="Z57" s="51"/>
-      <c r="AA57" s="51"/>
-      <c r="AB57" s="60"/>
-      <c r="AH57" s="43"/>
-      <c r="AI57" s="44"/>
-      <c r="AJ57" s="44"/>
-      <c r="AK57" s="44"/>
-      <c r="AL57" s="45"/>
+      <c r="W57" s="25"/>
+      <c r="X57" s="17"/>
+      <c r="Y57" s="17"/>
+      <c r="Z57" s="17"/>
+      <c r="AA57" s="17"/>
+      <c r="AB57" s="26"/>
+      <c r="AH57" s="61"/>
+      <c r="AI57" s="62"/>
+      <c r="AJ57" s="62"/>
+      <c r="AK57" s="62"/>
+      <c r="AL57" s="63"/>
     </row>
     <row r="58" spans="4:38">
-      <c r="W58" s="59"/>
-      <c r="X58" s="46" t="s">
+      <c r="W58" s="25"/>
+      <c r="X58" s="64" t="s">
         <v>393</v>
       </c>
-      <c r="Y58" s="38"/>
-      <c r="Z58" s="38"/>
-      <c r="AA58" s="39"/>
-      <c r="AB58" s="60"/>
+      <c r="Y58" s="56"/>
+      <c r="Z58" s="56"/>
+      <c r="AA58" s="57"/>
+      <c r="AB58" s="26"/>
     </row>
     <row r="59" spans="4:38" ht="14.25" thickBot="1">
-      <c r="W59" s="59"/>
-      <c r="X59" s="43"/>
-      <c r="Y59" s="44"/>
-      <c r="Z59" s="44"/>
-      <c r="AA59" s="45"/>
-      <c r="AB59" s="60"/>
+      <c r="W59" s="25"/>
+      <c r="X59" s="61"/>
+      <c r="Y59" s="62"/>
+      <c r="Z59" s="62"/>
+      <c r="AA59" s="63"/>
+      <c r="AB59" s="26"/>
     </row>
     <row r="60" spans="4:38">
-      <c r="W60" s="61"/>
-      <c r="X60" s="62"/>
-      <c r="Y60" s="62"/>
-      <c r="Z60" s="62"/>
-      <c r="AA60" s="62"/>
-      <c r="AB60" s="63"/>
+      <c r="W60" s="27"/>
+      <c r="X60" s="28"/>
+      <c r="Y60" s="28"/>
+      <c r="Z60" s="28"/>
+      <c r="AA60" s="28"/>
+      <c r="AB60" s="29"/>
     </row>
     <row r="63" spans="4:38">
       <c r="D63" s="2" t="s">
@@ -25452,17 +28850,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="X34:AA35"/>
+    <mergeCell ref="X38:AA39"/>
+    <mergeCell ref="X42:AA43"/>
+    <mergeCell ref="X50:AA51"/>
+    <mergeCell ref="X54:AA55"/>
     <mergeCell ref="X58:AA59"/>
     <mergeCell ref="AH36:AL42"/>
     <mergeCell ref="AH51:AL57"/>
     <mergeCell ref="E44:H51"/>
     <mergeCell ref="M38:Q44"/>
     <mergeCell ref="M50:Q56"/>
-    <mergeCell ref="X34:AA35"/>
-    <mergeCell ref="X38:AA39"/>
-    <mergeCell ref="X42:AA43"/>
-    <mergeCell ref="X50:AA51"/>
-    <mergeCell ref="X54:AA55"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -25824,55 +29222,55 @@
     </row>
     <row r="54" spans="4:20" ht="14.25" thickBot="1"/>
     <row r="55" spans="4:20" ht="14.25" thickBot="1">
-      <c r="E55" s="47"/>
-      <c r="F55" s="48"/>
-      <c r="G55" s="48"/>
-      <c r="H55" s="48"/>
-      <c r="I55" s="49"/>
+      <c r="E55" s="13"/>
+      <c r="F55" s="14"/>
+      <c r="G55" s="14"/>
+      <c r="H55" s="14"/>
+      <c r="I55" s="15"/>
     </row>
     <row r="56" spans="4:20" ht="14.25" thickBot="1">
-      <c r="E56" s="50"/>
-      <c r="F56" s="64" t="s">
+      <c r="E56" s="16"/>
+      <c r="F56" s="65" t="s">
         <v>509</v>
       </c>
-      <c r="G56" s="65"/>
-      <c r="H56" s="66"/>
-      <c r="I56" s="52"/>
+      <c r="G56" s="66"/>
+      <c r="H56" s="67"/>
+      <c r="I56" s="18"/>
     </row>
     <row r="57" spans="4:20">
-      <c r="E57" s="50"/>
-      <c r="F57" s="51"/>
-      <c r="G57" s="51"/>
-      <c r="H57" s="51"/>
-      <c r="I57" s="52"/>
+      <c r="E57" s="16"/>
+      <c r="F57" s="17"/>
+      <c r="G57" s="17"/>
+      <c r="H57" s="17"/>
+      <c r="I57" s="18"/>
     </row>
     <row r="58" spans="4:20" ht="14.25" thickBot="1">
-      <c r="E58" s="50"/>
-      <c r="F58" s="51"/>
-      <c r="G58" s="51"/>
-      <c r="H58" s="51"/>
-      <c r="I58" s="52"/>
+      <c r="E58" s="16"/>
+      <c r="F58" s="17"/>
+      <c r="G58" s="17"/>
+      <c r="H58" s="17"/>
+      <c r="I58" s="18"/>
     </row>
     <row r="59" spans="4:20" ht="14.25" thickBot="1">
-      <c r="E59" s="50"/>
-      <c r="F59" s="64" t="s">
+      <c r="E59" s="16"/>
+      <c r="F59" s="65" t="s">
         <v>510</v>
       </c>
-      <c r="G59" s="65"/>
-      <c r="H59" s="66"/>
-      <c r="I59" s="52"/>
-      <c r="L59" s="64" t="s">
+      <c r="G59" s="66"/>
+      <c r="H59" s="67"/>
+      <c r="I59" s="18"/>
+      <c r="L59" s="65" t="s">
         <v>512</v>
       </c>
-      <c r="M59" s="65"/>
-      <c r="N59" s="66"/>
+      <c r="M59" s="66"/>
+      <c r="N59" s="67"/>
     </row>
     <row r="60" spans="4:20" ht="14.25" thickBot="1">
-      <c r="E60" s="53"/>
-      <c r="F60" s="54"/>
-      <c r="G60" s="54"/>
-      <c r="H60" s="54"/>
-      <c r="I60" s="55"/>
+      <c r="E60" s="19"/>
+      <c r="F60" s="20"/>
+      <c r="G60" s="20"/>
+      <c r="H60" s="20"/>
+      <c r="I60" s="21"/>
     </row>
     <row r="62" spans="4:20" ht="14.25" thickBot="1">
       <c r="F62" s="2" t="s">
@@ -25883,89 +29281,89 @@
       </c>
     </row>
     <row r="63" spans="4:20" ht="14.25" thickBot="1">
-      <c r="E63" s="47"/>
-      <c r="F63" s="48"/>
-      <c r="G63" s="48"/>
-      <c r="H63" s="48"/>
-      <c r="I63" s="49"/>
-      <c r="P63" s="47"/>
-      <c r="Q63" s="48"/>
-      <c r="R63" s="48"/>
-      <c r="S63" s="48"/>
-      <c r="T63" s="49"/>
+      <c r="E63" s="13"/>
+      <c r="F63" s="14"/>
+      <c r="G63" s="14"/>
+      <c r="H63" s="14"/>
+      <c r="I63" s="15"/>
+      <c r="P63" s="13"/>
+      <c r="Q63" s="14"/>
+      <c r="R63" s="14"/>
+      <c r="S63" s="14"/>
+      <c r="T63" s="15"/>
     </row>
     <row r="64" spans="4:20" ht="14.25" thickBot="1">
-      <c r="E64" s="50"/>
-      <c r="F64" s="64" t="s">
+      <c r="E64" s="16"/>
+      <c r="F64" s="65" t="s">
         <v>509</v>
       </c>
-      <c r="G64" s="65"/>
-      <c r="H64" s="66"/>
-      <c r="I64" s="52"/>
-      <c r="P64" s="50"/>
-      <c r="Q64" s="64" t="s">
+      <c r="G64" s="66"/>
+      <c r="H64" s="67"/>
+      <c r="I64" s="18"/>
+      <c r="P64" s="16"/>
+      <c r="Q64" s="65" t="s">
         <v>510</v>
       </c>
-      <c r="R64" s="65"/>
-      <c r="S64" s="66"/>
-      <c r="T64" s="52"/>
+      <c r="R64" s="66"/>
+      <c r="S64" s="67"/>
+      <c r="T64" s="18"/>
     </row>
     <row r="65" spans="1:52">
-      <c r="E65" s="50"/>
-      <c r="F65" s="51"/>
-      <c r="G65" s="51"/>
-      <c r="H65" s="51"/>
-      <c r="I65" s="52"/>
-      <c r="P65" s="50"/>
-      <c r="Q65" s="51"/>
-      <c r="R65" s="51"/>
-      <c r="S65" s="51"/>
-      <c r="T65" s="52"/>
+      <c r="E65" s="16"/>
+      <c r="F65" s="17"/>
+      <c r="G65" s="17"/>
+      <c r="H65" s="17"/>
+      <c r="I65" s="18"/>
+      <c r="P65" s="16"/>
+      <c r="Q65" s="17"/>
+      <c r="R65" s="17"/>
+      <c r="S65" s="17"/>
+      <c r="T65" s="18"/>
     </row>
     <row r="66" spans="1:52" ht="14.25" thickBot="1">
-      <c r="E66" s="50"/>
-      <c r="F66" s="51"/>
-      <c r="G66" s="51"/>
-      <c r="H66" s="51"/>
-      <c r="I66" s="52"/>
-      <c r="P66" s="50"/>
-      <c r="Q66" s="51"/>
-      <c r="R66" s="51"/>
-      <c r="S66" s="51"/>
-      <c r="T66" s="52"/>
+      <c r="E66" s="16"/>
+      <c r="F66" s="17"/>
+      <c r="G66" s="17"/>
+      <c r="H66" s="17"/>
+      <c r="I66" s="18"/>
+      <c r="P66" s="16"/>
+      <c r="Q66" s="17"/>
+      <c r="R66" s="17"/>
+      <c r="S66" s="17"/>
+      <c r="T66" s="18"/>
     </row>
     <row r="67" spans="1:52" ht="14.25" thickBot="1">
-      <c r="E67" s="50"/>
-      <c r="F67" s="64" t="s">
+      <c r="E67" s="16"/>
+      <c r="F67" s="65" t="s">
         <v>510</v>
       </c>
-      <c r="G67" s="65"/>
-      <c r="H67" s="66"/>
-      <c r="I67" s="52"/>
-      <c r="L67" s="64" t="s">
+      <c r="G67" s="66"/>
+      <c r="H67" s="67"/>
+      <c r="I67" s="18"/>
+      <c r="L67" s="65" t="s">
         <v>512</v>
       </c>
-      <c r="M67" s="65"/>
-      <c r="N67" s="66"/>
-      <c r="P67" s="50"/>
-      <c r="Q67" s="64" t="s">
+      <c r="M67" s="66"/>
+      <c r="N67" s="67"/>
+      <c r="P67" s="16"/>
+      <c r="Q67" s="65" t="s">
         <v>509</v>
       </c>
-      <c r="R67" s="65"/>
-      <c r="S67" s="66"/>
-      <c r="T67" s="52"/>
+      <c r="R67" s="66"/>
+      <c r="S67" s="67"/>
+      <c r="T67" s="18"/>
     </row>
     <row r="68" spans="1:52" ht="14.25" thickBot="1">
-      <c r="E68" s="53"/>
-      <c r="F68" s="54"/>
-      <c r="G68" s="54"/>
-      <c r="H68" s="54"/>
-      <c r="I68" s="55"/>
-      <c r="P68" s="53"/>
-      <c r="Q68" s="54"/>
-      <c r="R68" s="54"/>
-      <c r="S68" s="54"/>
-      <c r="T68" s="55"/>
+      <c r="E68" s="19"/>
+      <c r="F68" s="20"/>
+      <c r="G68" s="20"/>
+      <c r="H68" s="20"/>
+      <c r="I68" s="21"/>
+      <c r="P68" s="19"/>
+      <c r="Q68" s="20"/>
+      <c r="R68" s="20"/>
+      <c r="S68" s="20"/>
+      <c r="T68" s="21"/>
     </row>
     <row r="72" spans="1:52">
       <c r="A72" s="4"/>
@@ -33521,7 +36919,7 @@
       <c r="Z187" s="10"/>
     </row>
     <row r="189" spans="4:26">
-      <c r="D189" s="67" t="s">
+      <c r="D189" s="30" t="s">
         <v>645</v>
       </c>
     </row>
@@ -33663,10 +37061,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A3:AZ28"/>
+  <dimension ref="A3:AZ142"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25:AU28"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:AZ3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5"/>
@@ -33986,8 +37384,1683 @@
         <v>667</v>
       </c>
     </row>
+    <row r="51" spans="1:52">
+      <c r="A51" s="4"/>
+      <c r="B51" s="4"/>
+      <c r="C51" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>670</v>
+      </c>
+      <c r="E51" s="4"/>
+      <c r="F51" s="4"/>
+      <c r="G51" s="4"/>
+      <c r="H51" s="4"/>
+      <c r="I51" s="4"/>
+      <c r="J51" s="4"/>
+      <c r="K51" s="4"/>
+      <c r="L51" s="4"/>
+      <c r="M51" s="4"/>
+      <c r="N51" s="4"/>
+      <c r="O51" s="4"/>
+      <c r="P51" s="4"/>
+      <c r="Q51" s="4"/>
+      <c r="R51" s="4"/>
+      <c r="S51" s="4"/>
+      <c r="T51" s="4"/>
+      <c r="U51" s="4"/>
+      <c r="V51" s="4"/>
+      <c r="W51" s="4"/>
+      <c r="X51" s="4"/>
+      <c r="Y51" s="4"/>
+      <c r="Z51" s="4"/>
+      <c r="AA51" s="4"/>
+      <c r="AB51" s="4"/>
+      <c r="AC51" s="4"/>
+      <c r="AD51" s="4"/>
+      <c r="AE51" s="4"/>
+      <c r="AF51" s="4"/>
+      <c r="AG51" s="4"/>
+      <c r="AH51" s="4"/>
+      <c r="AI51" s="4"/>
+      <c r="AJ51" s="4"/>
+      <c r="AK51" s="4"/>
+      <c r="AL51" s="4"/>
+      <c r="AM51" s="4"/>
+      <c r="AN51" s="4"/>
+      <c r="AO51" s="4"/>
+      <c r="AP51" s="4"/>
+      <c r="AQ51" s="4"/>
+      <c r="AR51" s="4"/>
+      <c r="AS51" s="4"/>
+      <c r="AT51" s="4"/>
+      <c r="AU51" s="4"/>
+      <c r="AV51" s="4"/>
+      <c r="AW51" s="4"/>
+      <c r="AX51" s="4"/>
+      <c r="AY51" s="4"/>
+      <c r="AZ51" s="4"/>
+    </row>
+    <row r="53" spans="1:52">
+      <c r="D53" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="54" spans="1:52">
+      <c r="D54" s="10"/>
+      <c r="E54" s="10"/>
+      <c r="F54" s="10"/>
+      <c r="G54" s="10"/>
+      <c r="H54" s="10"/>
+      <c r="I54" s="10"/>
+      <c r="J54" s="10"/>
+      <c r="K54" s="10"/>
+      <c r="L54" s="10"/>
+      <c r="M54" s="10"/>
+      <c r="N54" s="10"/>
+      <c r="O54" s="10"/>
+      <c r="P54" s="10"/>
+      <c r="Q54" s="10"/>
+      <c r="R54" s="10"/>
+      <c r="S54" s="10"/>
+      <c r="T54" s="10"/>
+      <c r="U54" s="10"/>
+      <c r="V54" s="10"/>
+      <c r="W54" s="10"/>
+      <c r="X54" s="10"/>
+      <c r="Y54" s="10"/>
+      <c r="Z54" s="10"/>
+      <c r="AA54" s="10"/>
+      <c r="AB54" s="10"/>
+      <c r="AC54" s="10"/>
+      <c r="AD54" s="10"/>
+      <c r="AE54" s="10"/>
+      <c r="AF54" s="10"/>
+      <c r="AG54" s="10"/>
+      <c r="AH54" s="10"/>
+      <c r="AI54" s="10"/>
+      <c r="AJ54" s="10"/>
+      <c r="AK54" s="10"/>
+      <c r="AL54" s="10"/>
+      <c r="AM54" s="10"/>
+      <c r="AN54" s="10"/>
+      <c r="AO54" s="10"/>
+      <c r="AP54" s="10"/>
+      <c r="AQ54" s="10"/>
+    </row>
+    <row r="55" spans="1:52">
+      <c r="D55" s="10"/>
+      <c r="E55" s="7" t="s">
+        <v>672</v>
+      </c>
+      <c r="F55" s="10"/>
+      <c r="G55" s="10"/>
+      <c r="H55" s="10"/>
+      <c r="I55" s="10"/>
+      <c r="J55" s="10"/>
+      <c r="K55" s="10"/>
+      <c r="L55" s="10"/>
+      <c r="M55" s="10"/>
+      <c r="N55" s="10"/>
+      <c r="O55" s="10"/>
+      <c r="P55" s="10"/>
+      <c r="Q55" s="10"/>
+      <c r="R55" s="10"/>
+      <c r="S55" s="10"/>
+      <c r="T55" s="10"/>
+      <c r="U55" s="10"/>
+      <c r="V55" s="10"/>
+      <c r="W55" s="10"/>
+      <c r="X55" s="10"/>
+      <c r="Y55" s="10"/>
+      <c r="Z55" s="10"/>
+      <c r="AA55" s="10"/>
+      <c r="AB55" s="10"/>
+      <c r="AC55" s="10"/>
+      <c r="AD55" s="10"/>
+      <c r="AE55" s="10"/>
+      <c r="AF55" s="10"/>
+      <c r="AG55" s="10"/>
+      <c r="AH55" s="10"/>
+      <c r="AI55" s="10"/>
+      <c r="AJ55" s="10"/>
+      <c r="AK55" s="10"/>
+      <c r="AL55" s="10"/>
+      <c r="AM55" s="10"/>
+      <c r="AN55" s="10"/>
+      <c r="AO55" s="10"/>
+      <c r="AP55" s="10"/>
+      <c r="AQ55" s="10"/>
+    </row>
+    <row r="56" spans="1:52">
+      <c r="D56" s="10"/>
+      <c r="E56" s="7" t="s">
+        <v>673</v>
+      </c>
+      <c r="F56" s="10"/>
+      <c r="G56" s="10"/>
+      <c r="H56" s="10"/>
+      <c r="I56" s="10"/>
+      <c r="J56" s="10"/>
+      <c r="K56" s="10"/>
+      <c r="L56" s="10"/>
+      <c r="M56" s="10"/>
+      <c r="N56" s="10"/>
+      <c r="O56" s="10"/>
+      <c r="P56" s="10"/>
+      <c r="Q56" s="10"/>
+      <c r="R56" s="10"/>
+      <c r="S56" s="10"/>
+      <c r="T56" s="10"/>
+      <c r="U56" s="10"/>
+      <c r="V56" s="10"/>
+      <c r="W56" s="10"/>
+      <c r="X56" s="10"/>
+      <c r="Y56" s="10"/>
+      <c r="Z56" s="10"/>
+      <c r="AA56" s="10"/>
+      <c r="AB56" s="10"/>
+      <c r="AC56" s="10"/>
+      <c r="AD56" s="10"/>
+      <c r="AE56" s="10"/>
+      <c r="AF56" s="10"/>
+      <c r="AG56" s="10"/>
+      <c r="AH56" s="10"/>
+      <c r="AI56" s="10"/>
+      <c r="AJ56" s="10"/>
+      <c r="AK56" s="10"/>
+      <c r="AL56" s="10"/>
+      <c r="AM56" s="10"/>
+      <c r="AN56" s="10"/>
+      <c r="AO56" s="10"/>
+      <c r="AP56" s="10"/>
+      <c r="AQ56" s="10"/>
+    </row>
+    <row r="57" spans="1:52">
+      <c r="D57" s="10"/>
+      <c r="E57" s="10"/>
+      <c r="F57" s="10"/>
+      <c r="G57" s="10"/>
+      <c r="H57" s="10"/>
+      <c r="I57" s="10"/>
+      <c r="J57" s="10"/>
+      <c r="K57" s="10"/>
+      <c r="L57" s="10"/>
+      <c r="M57" s="10"/>
+      <c r="N57" s="10"/>
+      <c r="O57" s="10"/>
+      <c r="P57" s="10"/>
+      <c r="Q57" s="10"/>
+      <c r="R57" s="10"/>
+      <c r="S57" s="10"/>
+      <c r="T57" s="10"/>
+      <c r="U57" s="10"/>
+      <c r="V57" s="10"/>
+      <c r="W57" s="10"/>
+      <c r="X57" s="10"/>
+      <c r="Y57" s="10"/>
+      <c r="Z57" s="10"/>
+      <c r="AA57" s="10"/>
+      <c r="AB57" s="10"/>
+      <c r="AC57" s="10"/>
+      <c r="AD57" s="10"/>
+      <c r="AE57" s="10"/>
+      <c r="AF57" s="10"/>
+      <c r="AG57" s="10"/>
+      <c r="AH57" s="10"/>
+      <c r="AI57" s="10"/>
+      <c r="AJ57" s="10"/>
+      <c r="AK57" s="10"/>
+      <c r="AL57" s="10"/>
+      <c r="AM57" s="10"/>
+      <c r="AN57" s="10"/>
+      <c r="AO57" s="10"/>
+      <c r="AP57" s="10"/>
+      <c r="AQ57" s="10"/>
+    </row>
+    <row r="58" spans="1:52">
+      <c r="D58" s="10"/>
+      <c r="E58" s="7" t="s">
+        <v>674</v>
+      </c>
+      <c r="F58" s="10"/>
+      <c r="G58" s="10"/>
+      <c r="H58" s="10"/>
+      <c r="I58" s="10"/>
+      <c r="J58" s="10"/>
+      <c r="K58" s="10"/>
+      <c r="L58" s="10"/>
+      <c r="M58" s="10"/>
+      <c r="N58" s="10"/>
+      <c r="O58" s="10"/>
+      <c r="P58" s="10"/>
+      <c r="Q58" s="10"/>
+      <c r="R58" s="10"/>
+      <c r="S58" s="10"/>
+      <c r="T58" s="10"/>
+      <c r="U58" s="10"/>
+      <c r="V58" s="10"/>
+      <c r="W58" s="10"/>
+      <c r="X58" s="10"/>
+      <c r="Y58" s="10"/>
+      <c r="Z58" s="10"/>
+      <c r="AA58" s="10"/>
+      <c r="AB58" s="10"/>
+      <c r="AC58" s="10"/>
+      <c r="AD58" s="10"/>
+      <c r="AE58" s="10"/>
+      <c r="AF58" s="10"/>
+      <c r="AG58" s="10"/>
+      <c r="AH58" s="10"/>
+      <c r="AI58" s="10"/>
+      <c r="AJ58" s="10"/>
+      <c r="AK58" s="10"/>
+      <c r="AL58" s="10"/>
+      <c r="AM58" s="10"/>
+      <c r="AN58" s="10"/>
+      <c r="AO58" s="10"/>
+      <c r="AP58" s="10"/>
+      <c r="AQ58" s="10"/>
+    </row>
+    <row r="59" spans="1:52">
+      <c r="D59" s="10"/>
+      <c r="E59" s="7" t="s">
+        <v>675</v>
+      </c>
+      <c r="F59" s="10"/>
+      <c r="G59" s="10"/>
+      <c r="H59" s="10"/>
+      <c r="I59" s="10"/>
+      <c r="J59" s="10"/>
+      <c r="K59" s="10"/>
+      <c r="L59" s="10"/>
+      <c r="M59" s="10"/>
+      <c r="N59" s="10"/>
+      <c r="O59" s="10"/>
+      <c r="P59" s="10"/>
+      <c r="Q59" s="10"/>
+      <c r="R59" s="10"/>
+      <c r="S59" s="10"/>
+      <c r="T59" s="10"/>
+      <c r="U59" s="10"/>
+      <c r="V59" s="10"/>
+      <c r="W59" s="10"/>
+      <c r="X59" s="10"/>
+      <c r="Y59" s="10"/>
+      <c r="Z59" s="10"/>
+      <c r="AA59" s="10"/>
+      <c r="AB59" s="10"/>
+      <c r="AC59" s="10"/>
+      <c r="AD59" s="10"/>
+      <c r="AE59" s="10"/>
+      <c r="AF59" s="10"/>
+      <c r="AG59" s="10"/>
+      <c r="AH59" s="10"/>
+      <c r="AI59" s="10"/>
+      <c r="AJ59" s="10"/>
+      <c r="AK59" s="10"/>
+      <c r="AL59" s="10"/>
+      <c r="AM59" s="10"/>
+      <c r="AN59" s="10"/>
+      <c r="AO59" s="10"/>
+      <c r="AP59" s="10"/>
+      <c r="AQ59" s="10"/>
+    </row>
+    <row r="60" spans="1:52">
+      <c r="D60" s="10"/>
+      <c r="E60" s="10"/>
+      <c r="F60" s="10"/>
+      <c r="G60" s="10"/>
+      <c r="H60" s="10"/>
+      <c r="I60" s="10"/>
+      <c r="J60" s="10"/>
+      <c r="K60" s="10"/>
+      <c r="L60" s="10"/>
+      <c r="M60" s="10"/>
+      <c r="N60" s="10"/>
+      <c r="O60" s="10"/>
+      <c r="P60" s="10"/>
+      <c r="Q60" s="10"/>
+      <c r="R60" s="10"/>
+      <c r="S60" s="10"/>
+      <c r="T60" s="10"/>
+      <c r="U60" s="10"/>
+      <c r="V60" s="10"/>
+      <c r="W60" s="10"/>
+      <c r="X60" s="10"/>
+      <c r="Y60" s="10"/>
+      <c r="Z60" s="10"/>
+      <c r="AA60" s="10"/>
+      <c r="AB60" s="10"/>
+      <c r="AC60" s="10"/>
+      <c r="AD60" s="10"/>
+      <c r="AE60" s="10"/>
+      <c r="AF60" s="10"/>
+      <c r="AG60" s="10"/>
+      <c r="AH60" s="10"/>
+      <c r="AI60" s="10"/>
+      <c r="AJ60" s="10"/>
+      <c r="AK60" s="10"/>
+      <c r="AL60" s="10"/>
+      <c r="AM60" s="10"/>
+      <c r="AN60" s="10"/>
+      <c r="AO60" s="10"/>
+      <c r="AP60" s="10"/>
+      <c r="AQ60" s="10"/>
+    </row>
+    <row r="62" spans="1:52">
+      <c r="D62" t="s">
+        <v>26</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="63" spans="1:52">
+      <c r="D63" s="10" t="s">
+        <v>677</v>
+      </c>
+      <c r="E63" s="10"/>
+      <c r="F63" s="10"/>
+      <c r="G63" s="10"/>
+      <c r="H63" s="10"/>
+      <c r="I63" s="10"/>
+      <c r="J63" s="10"/>
+      <c r="K63" s="10"/>
+      <c r="L63" s="10"/>
+      <c r="M63" s="10"/>
+      <c r="N63" s="10"/>
+      <c r="O63" s="10"/>
+      <c r="P63" s="10"/>
+      <c r="Q63" s="10"/>
+      <c r="R63" s="10"/>
+      <c r="S63" s="10"/>
+      <c r="T63" s="10"/>
+    </row>
+    <row r="64" spans="1:52">
+      <c r="D64" s="10" t="s">
+        <v>678</v>
+      </c>
+      <c r="E64" s="10"/>
+      <c r="F64" s="10"/>
+      <c r="G64" s="10"/>
+      <c r="H64" s="10"/>
+      <c r="I64" s="10"/>
+      <c r="J64" s="10"/>
+      <c r="K64" s="10"/>
+      <c r="L64" s="10"/>
+      <c r="M64" s="10"/>
+      <c r="N64" s="10"/>
+      <c r="O64" s="10"/>
+      <c r="P64" s="10"/>
+      <c r="Q64" s="10"/>
+      <c r="R64" s="10"/>
+      <c r="S64" s="10"/>
+      <c r="T64" s="10"/>
+    </row>
+    <row r="65" spans="4:20">
+      <c r="D65" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="E65" s="10"/>
+      <c r="F65" s="10"/>
+      <c r="G65" s="10"/>
+      <c r="H65" s="10"/>
+      <c r="I65" s="10"/>
+      <c r="J65" s="10"/>
+      <c r="K65" s="10"/>
+      <c r="L65" s="10"/>
+      <c r="M65" s="10"/>
+      <c r="N65" s="10"/>
+      <c r="O65" s="10"/>
+      <c r="P65" s="10"/>
+      <c r="Q65" s="10"/>
+      <c r="R65" s="10"/>
+      <c r="S65" s="10"/>
+      <c r="T65" s="10"/>
+    </row>
+    <row r="66" spans="4:20">
+      <c r="D66" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="E66" s="10"/>
+      <c r="F66" s="10"/>
+      <c r="G66" s="10"/>
+      <c r="H66" s="10"/>
+      <c r="I66" s="10"/>
+      <c r="J66" s="10"/>
+      <c r="K66" s="10"/>
+      <c r="L66" s="10"/>
+      <c r="M66" s="10"/>
+      <c r="N66" s="10"/>
+      <c r="O66" s="10"/>
+      <c r="P66" s="10"/>
+      <c r="Q66" s="10"/>
+      <c r="R66" s="10"/>
+      <c r="S66" s="10"/>
+      <c r="T66" s="10"/>
+    </row>
+    <row r="67" spans="4:20">
+      <c r="D67" s="10"/>
+      <c r="E67" s="10" t="s">
+        <v>679</v>
+      </c>
+      <c r="F67" s="10"/>
+      <c r="G67" s="10"/>
+      <c r="H67" s="10"/>
+      <c r="I67" s="10"/>
+      <c r="J67" s="10"/>
+      <c r="K67" s="10"/>
+      <c r="L67" s="10"/>
+      <c r="M67" s="10"/>
+      <c r="N67" s="10"/>
+      <c r="O67" s="10"/>
+      <c r="P67" s="10"/>
+      <c r="Q67" s="10"/>
+      <c r="R67" s="10"/>
+      <c r="S67" s="10"/>
+      <c r="T67" s="10"/>
+    </row>
+    <row r="68" spans="4:20">
+      <c r="D68" s="10"/>
+      <c r="E68" s="10" t="s">
+        <v>680</v>
+      </c>
+      <c r="F68" s="10"/>
+      <c r="G68" s="10"/>
+      <c r="H68" s="10"/>
+      <c r="I68" s="10"/>
+      <c r="J68" s="10"/>
+      <c r="K68" s="10"/>
+      <c r="L68" s="10"/>
+      <c r="M68" s="10"/>
+      <c r="N68" s="10"/>
+      <c r="O68" s="10"/>
+      <c r="P68" s="10"/>
+      <c r="Q68" s="10"/>
+      <c r="R68" s="10"/>
+      <c r="S68" s="10"/>
+      <c r="T68" s="10"/>
+    </row>
+    <row r="69" spans="4:20">
+      <c r="D69" s="10" t="s">
+        <v>414</v>
+      </c>
+      <c r="E69" s="10"/>
+      <c r="F69" s="10"/>
+      <c r="G69" s="10"/>
+      <c r="H69" s="10"/>
+      <c r="I69" s="10"/>
+      <c r="J69" s="10"/>
+      <c r="K69" s="10"/>
+      <c r="L69" s="10"/>
+      <c r="M69" s="10"/>
+      <c r="N69" s="10"/>
+      <c r="O69" s="10"/>
+      <c r="P69" s="10"/>
+      <c r="Q69" s="10"/>
+      <c r="R69" s="10"/>
+      <c r="S69" s="10"/>
+      <c r="T69" s="10"/>
+    </row>
+    <row r="70" spans="4:20">
+      <c r="D70" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="E70" s="10"/>
+      <c r="F70" s="10"/>
+      <c r="G70" s="10"/>
+      <c r="H70" s="10"/>
+      <c r="I70" s="10"/>
+      <c r="J70" s="10"/>
+      <c r="K70" s="10"/>
+      <c r="L70" s="10"/>
+      <c r="M70" s="10"/>
+      <c r="N70" s="10"/>
+      <c r="O70" s="10"/>
+      <c r="P70" s="10"/>
+      <c r="Q70" s="10"/>
+      <c r="R70" s="10"/>
+      <c r="S70" s="10"/>
+      <c r="T70" s="10"/>
+    </row>
+    <row r="73" spans="4:20">
+      <c r="D73" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="74" spans="4:20">
+      <c r="D74" s="10" t="s">
+        <v>682</v>
+      </c>
+      <c r="E74" s="10"/>
+      <c r="F74" s="10"/>
+      <c r="G74" s="10"/>
+      <c r="H74" s="10"/>
+      <c r="I74" s="10"/>
+      <c r="J74" s="10"/>
+      <c r="K74" s="10"/>
+      <c r="L74" s="10"/>
+      <c r="M74" s="10"/>
+      <c r="N74" s="10"/>
+      <c r="O74" s="10"/>
+      <c r="P74" s="10"/>
+      <c r="Q74" s="10"/>
+      <c r="R74" s="10"/>
+      <c r="S74" s="10"/>
+      <c r="T74" s="10"/>
+    </row>
+    <row r="75" spans="4:20">
+      <c r="D75" s="10" t="s">
+        <v>683</v>
+      </c>
+      <c r="E75" s="10"/>
+      <c r="F75" s="10"/>
+      <c r="G75" s="10"/>
+      <c r="H75" s="10"/>
+      <c r="I75" s="10"/>
+      <c r="J75" s="10"/>
+      <c r="K75" s="10"/>
+      <c r="L75" s="10"/>
+      <c r="M75" s="10"/>
+      <c r="N75" s="10"/>
+      <c r="O75" s="10"/>
+      <c r="P75" s="10"/>
+      <c r="Q75" s="10"/>
+      <c r="R75" s="10"/>
+      <c r="S75" s="10"/>
+      <c r="T75" s="10"/>
+    </row>
+    <row r="76" spans="4:20">
+      <c r="D76" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="E76" s="10"/>
+      <c r="F76" s="10"/>
+      <c r="G76" s="10"/>
+      <c r="H76" s="10"/>
+      <c r="I76" s="10"/>
+      <c r="J76" s="10"/>
+      <c r="K76" s="10"/>
+      <c r="L76" s="10"/>
+      <c r="M76" s="10"/>
+      <c r="N76" s="10"/>
+      <c r="O76" s="10"/>
+      <c r="P76" s="10"/>
+      <c r="Q76" s="10"/>
+      <c r="R76" s="10"/>
+      <c r="S76" s="10"/>
+      <c r="T76" s="10"/>
+    </row>
+    <row r="77" spans="4:20">
+      <c r="D77" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="E77" s="10"/>
+      <c r="F77" s="10"/>
+      <c r="G77" s="10"/>
+      <c r="H77" s="10"/>
+      <c r="I77" s="10"/>
+      <c r="J77" s="10"/>
+      <c r="K77" s="10"/>
+      <c r="L77" s="10"/>
+      <c r="M77" s="10"/>
+      <c r="N77" s="10"/>
+      <c r="O77" s="10"/>
+      <c r="P77" s="10"/>
+      <c r="Q77" s="10"/>
+      <c r="R77" s="10"/>
+      <c r="S77" s="10"/>
+      <c r="T77" s="10"/>
+    </row>
+    <row r="78" spans="4:20">
+      <c r="D78" s="10"/>
+      <c r="E78" s="10" t="s">
+        <v>684</v>
+      </c>
+      <c r="F78" s="10"/>
+      <c r="G78" s="10"/>
+      <c r="H78" s="10"/>
+      <c r="I78" s="10"/>
+      <c r="J78" s="10"/>
+      <c r="K78" s="10"/>
+      <c r="L78" s="10"/>
+      <c r="M78" s="10"/>
+      <c r="N78" s="10"/>
+      <c r="O78" s="10"/>
+      <c r="P78" s="10"/>
+      <c r="Q78" s="10"/>
+      <c r="R78" s="10"/>
+      <c r="S78" s="10"/>
+      <c r="T78" s="10"/>
+    </row>
+    <row r="79" spans="4:20">
+      <c r="D79" s="10"/>
+      <c r="E79" s="10" t="s">
+        <v>685</v>
+      </c>
+      <c r="F79" s="10"/>
+      <c r="G79" s="10"/>
+      <c r="H79" s="10"/>
+      <c r="I79" s="10"/>
+      <c r="J79" s="10"/>
+      <c r="K79" s="10"/>
+      <c r="L79" s="10"/>
+      <c r="M79" s="10"/>
+      <c r="N79" s="10"/>
+      <c r="O79" s="10"/>
+      <c r="P79" s="10"/>
+      <c r="Q79" s="10"/>
+      <c r="R79" s="10"/>
+      <c r="S79" s="10"/>
+      <c r="T79" s="10"/>
+    </row>
+    <row r="80" spans="4:20">
+      <c r="D80" s="10"/>
+      <c r="E80" s="10"/>
+      <c r="F80" s="10" t="s">
+        <v>686</v>
+      </c>
+      <c r="G80" s="10"/>
+      <c r="H80" s="10"/>
+      <c r="I80" s="10"/>
+      <c r="J80" s="10"/>
+      <c r="K80" s="10"/>
+      <c r="L80" s="10"/>
+      <c r="M80" s="10"/>
+      <c r="N80" s="10"/>
+      <c r="O80" s="10"/>
+      <c r="P80" s="10"/>
+      <c r="Q80" s="10"/>
+      <c r="R80" s="10"/>
+      <c r="S80" s="10"/>
+      <c r="T80" s="10"/>
+    </row>
+    <row r="81" spans="4:20">
+      <c r="D81" s="10"/>
+      <c r="E81" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="F81" s="10"/>
+      <c r="G81" s="10"/>
+      <c r="H81" s="10"/>
+      <c r="I81" s="10"/>
+      <c r="J81" s="10"/>
+      <c r="K81" s="10"/>
+      <c r="L81" s="10"/>
+      <c r="M81" s="10"/>
+      <c r="N81" s="10"/>
+      <c r="O81" s="10"/>
+      <c r="P81" s="10"/>
+      <c r="Q81" s="10"/>
+      <c r="R81" s="10"/>
+      <c r="S81" s="10"/>
+      <c r="T81" s="10"/>
+    </row>
+    <row r="82" spans="4:20">
+      <c r="D82" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="E82" s="10"/>
+      <c r="F82" s="10"/>
+      <c r="G82" s="10"/>
+      <c r="H82" s="10"/>
+      <c r="I82" s="10"/>
+      <c r="J82" s="10"/>
+      <c r="K82" s="10"/>
+      <c r="L82" s="10"/>
+      <c r="M82" s="10"/>
+      <c r="N82" s="10"/>
+      <c r="O82" s="10"/>
+      <c r="P82" s="10"/>
+      <c r="Q82" s="10"/>
+      <c r="R82" s="10"/>
+      <c r="S82" s="10"/>
+      <c r="T82" s="10"/>
+    </row>
+    <row r="83" spans="4:20">
+      <c r="D83" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="E83" s="10"/>
+      <c r="F83" s="10"/>
+      <c r="G83" s="10"/>
+      <c r="H83" s="10"/>
+      <c r="I83" s="10"/>
+      <c r="J83" s="10"/>
+      <c r="K83" s="10"/>
+      <c r="L83" s="10"/>
+      <c r="M83" s="10"/>
+      <c r="N83" s="10"/>
+      <c r="O83" s="10"/>
+      <c r="P83" s="10"/>
+      <c r="Q83" s="10"/>
+      <c r="R83" s="10"/>
+      <c r="S83" s="10"/>
+      <c r="T83" s="10"/>
+    </row>
+    <row r="84" spans="4:20">
+      <c r="D84" s="10" t="s">
+        <v>691</v>
+      </c>
+      <c r="E84" s="10"/>
+      <c r="F84" s="10"/>
+      <c r="G84" s="10"/>
+      <c r="H84" s="10"/>
+      <c r="I84" s="10"/>
+      <c r="J84" s="10"/>
+      <c r="K84" s="10"/>
+      <c r="L84" s="10"/>
+      <c r="M84" s="10"/>
+      <c r="N84" s="10"/>
+      <c r="O84" s="10"/>
+      <c r="P84" s="10"/>
+      <c r="Q84" s="10"/>
+      <c r="R84" s="10"/>
+      <c r="S84" s="10"/>
+      <c r="T84" s="10"/>
+    </row>
+    <row r="85" spans="4:20">
+      <c r="D85" s="10" t="s">
+        <v>687</v>
+      </c>
+      <c r="E85" s="10"/>
+      <c r="F85" s="10"/>
+      <c r="G85" s="10"/>
+      <c r="H85" s="10"/>
+      <c r="I85" s="10"/>
+      <c r="J85" s="10"/>
+      <c r="K85" s="10"/>
+      <c r="L85" s="10"/>
+      <c r="M85" s="10"/>
+      <c r="N85" s="10"/>
+      <c r="O85" s="10"/>
+      <c r="P85" s="10"/>
+      <c r="Q85" s="10"/>
+      <c r="R85" s="10"/>
+      <c r="S85" s="10"/>
+      <c r="T85" s="10"/>
+    </row>
+    <row r="86" spans="4:20">
+      <c r="D86" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="E86" s="10"/>
+      <c r="F86" s="10"/>
+      <c r="G86" s="10"/>
+      <c r="H86" s="10"/>
+      <c r="I86" s="10"/>
+      <c r="J86" s="10"/>
+      <c r="K86" s="10"/>
+      <c r="L86" s="10"/>
+      <c r="M86" s="10"/>
+      <c r="N86" s="10"/>
+      <c r="O86" s="10"/>
+      <c r="P86" s="10"/>
+      <c r="Q86" s="10"/>
+      <c r="R86" s="10"/>
+      <c r="S86" s="10"/>
+      <c r="T86" s="10"/>
+    </row>
+    <row r="87" spans="4:20">
+      <c r="D87" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="E87" s="10"/>
+      <c r="F87" s="10"/>
+      <c r="G87" s="10"/>
+      <c r="H87" s="10"/>
+      <c r="I87" s="10"/>
+      <c r="J87" s="10"/>
+      <c r="K87" s="10"/>
+      <c r="L87" s="10"/>
+      <c r="M87" s="10"/>
+      <c r="N87" s="10"/>
+      <c r="O87" s="10"/>
+      <c r="P87" s="10"/>
+      <c r="Q87" s="10"/>
+      <c r="R87" s="10"/>
+      <c r="S87" s="10"/>
+      <c r="T87" s="10"/>
+    </row>
+    <row r="88" spans="4:20">
+      <c r="D88" s="10"/>
+      <c r="E88" s="10" t="s">
+        <v>688</v>
+      </c>
+      <c r="F88" s="10"/>
+      <c r="G88" s="10"/>
+      <c r="H88" s="10"/>
+      <c r="I88" s="10"/>
+      <c r="J88" s="10"/>
+      <c r="K88" s="10"/>
+      <c r="L88" s="10"/>
+      <c r="M88" s="10"/>
+      <c r="N88" s="10"/>
+      <c r="O88" s="10"/>
+      <c r="P88" s="10"/>
+      <c r="Q88" s="10"/>
+      <c r="R88" s="10"/>
+      <c r="S88" s="10"/>
+      <c r="T88" s="10"/>
+    </row>
+    <row r="89" spans="4:20">
+      <c r="D89" s="10"/>
+      <c r="E89" s="10" t="s">
+        <v>689</v>
+      </c>
+      <c r="F89" s="10"/>
+      <c r="G89" s="10"/>
+      <c r="H89" s="10"/>
+      <c r="I89" s="10"/>
+      <c r="J89" s="10"/>
+      <c r="K89" s="10"/>
+      <c r="L89" s="10"/>
+      <c r="M89" s="10"/>
+      <c r="N89" s="10"/>
+      <c r="O89" s="10"/>
+      <c r="P89" s="10"/>
+      <c r="Q89" s="10"/>
+      <c r="R89" s="10"/>
+      <c r="S89" s="10"/>
+      <c r="T89" s="10"/>
+    </row>
+    <row r="90" spans="4:20">
+      <c r="D90" s="10"/>
+      <c r="E90" s="10"/>
+      <c r="F90" s="10" t="s">
+        <v>690</v>
+      </c>
+      <c r="G90" s="10"/>
+      <c r="H90" s="10"/>
+      <c r="I90" s="10"/>
+      <c r="J90" s="10"/>
+      <c r="K90" s="10"/>
+      <c r="L90" s="10"/>
+      <c r="M90" s="10"/>
+      <c r="N90" s="10"/>
+      <c r="O90" s="10"/>
+      <c r="P90" s="10"/>
+      <c r="Q90" s="10"/>
+      <c r="R90" s="10"/>
+      <c r="S90" s="10"/>
+      <c r="T90" s="10"/>
+    </row>
+    <row r="91" spans="4:20">
+      <c r="D91" s="10"/>
+      <c r="E91" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="F91" s="10"/>
+      <c r="G91" s="10"/>
+      <c r="H91" s="10"/>
+      <c r="I91" s="10"/>
+      <c r="J91" s="10"/>
+      <c r="K91" s="10"/>
+      <c r="L91" s="10"/>
+      <c r="M91" s="10"/>
+      <c r="N91" s="10"/>
+      <c r="O91" s="10"/>
+      <c r="P91" s="10"/>
+      <c r="Q91" s="10"/>
+      <c r="R91" s="10"/>
+      <c r="S91" s="10"/>
+      <c r="T91" s="10"/>
+    </row>
+    <row r="92" spans="4:20">
+      <c r="D92" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="E92" s="10"/>
+      <c r="F92" s="10"/>
+      <c r="G92" s="10"/>
+      <c r="H92" s="10"/>
+      <c r="I92" s="10"/>
+      <c r="J92" s="10"/>
+      <c r="K92" s="10"/>
+      <c r="L92" s="10"/>
+      <c r="M92" s="10"/>
+      <c r="N92" s="10"/>
+      <c r="O92" s="10"/>
+      <c r="P92" s="10"/>
+      <c r="Q92" s="10"/>
+      <c r="R92" s="10"/>
+      <c r="S92" s="10"/>
+      <c r="T92" s="10"/>
+    </row>
+    <row r="95" spans="4:20">
+      <c r="D95" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E95" s="2" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="96" spans="4:20">
+      <c r="D96" s="10" t="s">
+        <v>693</v>
+      </c>
+      <c r="E96" s="10"/>
+      <c r="F96" s="10"/>
+      <c r="G96" s="10"/>
+      <c r="H96" s="10"/>
+      <c r="I96" s="10"/>
+      <c r="J96" s="10"/>
+      <c r="K96" s="10"/>
+      <c r="L96" s="10"/>
+      <c r="M96" s="10"/>
+      <c r="N96" s="10"/>
+      <c r="O96" s="10"/>
+      <c r="P96" s="10"/>
+      <c r="Q96" s="10"/>
+      <c r="R96" s="10"/>
+      <c r="S96" s="10"/>
+      <c r="T96" s="10"/>
+    </row>
+    <row r="97" spans="4:20">
+      <c r="D97" s="10" t="s">
+        <v>694</v>
+      </c>
+      <c r="E97" s="10"/>
+      <c r="F97" s="10"/>
+      <c r="G97" s="10"/>
+      <c r="H97" s="10"/>
+      <c r="I97" s="10"/>
+      <c r="J97" s="10"/>
+      <c r="K97" s="10"/>
+      <c r="L97" s="10"/>
+      <c r="M97" s="10"/>
+      <c r="N97" s="10"/>
+      <c r="O97" s="10"/>
+      <c r="P97" s="10"/>
+      <c r="Q97" s="10"/>
+      <c r="R97" s="10"/>
+      <c r="S97" s="10"/>
+      <c r="T97" s="10"/>
+    </row>
+    <row r="98" spans="4:20">
+      <c r="D98" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="E98" s="10"/>
+      <c r="F98" s="10"/>
+      <c r="G98" s="10"/>
+      <c r="H98" s="10"/>
+      <c r="I98" s="10"/>
+      <c r="J98" s="10"/>
+      <c r="K98" s="10"/>
+      <c r="L98" s="10"/>
+      <c r="M98" s="10"/>
+      <c r="N98" s="10"/>
+      <c r="O98" s="10"/>
+      <c r="P98" s="10"/>
+      <c r="Q98" s="10"/>
+      <c r="R98" s="10"/>
+      <c r="S98" s="10"/>
+      <c r="T98" s="10"/>
+    </row>
+    <row r="99" spans="4:20">
+      <c r="D99" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="E99" s="10"/>
+      <c r="F99" s="10"/>
+      <c r="G99" s="10"/>
+      <c r="H99" s="10"/>
+      <c r="I99" s="10"/>
+      <c r="J99" s="10"/>
+      <c r="K99" s="10"/>
+      <c r="L99" s="10"/>
+      <c r="M99" s="10"/>
+      <c r="N99" s="10"/>
+      <c r="O99" s="10"/>
+      <c r="P99" s="10"/>
+      <c r="Q99" s="10"/>
+      <c r="R99" s="10"/>
+      <c r="S99" s="10"/>
+      <c r="T99" s="10"/>
+    </row>
+    <row r="100" spans="4:20">
+      <c r="D100" s="10"/>
+      <c r="E100" s="10" t="s">
+        <v>695</v>
+      </c>
+      <c r="F100" s="10"/>
+      <c r="G100" s="10"/>
+      <c r="H100" s="10"/>
+      <c r="I100" s="10"/>
+      <c r="J100" s="10"/>
+      <c r="K100" s="10"/>
+      <c r="L100" s="10"/>
+      <c r="M100" s="10"/>
+      <c r="N100" s="10"/>
+      <c r="O100" s="10"/>
+      <c r="P100" s="10"/>
+      <c r="Q100" s="10"/>
+      <c r="R100" s="10"/>
+      <c r="S100" s="10"/>
+      <c r="T100" s="10"/>
+    </row>
+    <row r="101" spans="4:20">
+      <c r="D101" s="10"/>
+      <c r="E101" s="10"/>
+      <c r="F101" s="10" t="s">
+        <v>696</v>
+      </c>
+      <c r="G101" s="10"/>
+      <c r="H101" s="10"/>
+      <c r="I101" s="10"/>
+      <c r="J101" s="10"/>
+      <c r="K101" s="10"/>
+      <c r="L101" s="10"/>
+      <c r="M101" s="10"/>
+      <c r="N101" s="10"/>
+      <c r="O101" s="10"/>
+      <c r="P101" s="10"/>
+      <c r="Q101" s="10"/>
+      <c r="R101" s="10"/>
+      <c r="S101" s="10"/>
+      <c r="T101" s="10"/>
+    </row>
+    <row r="102" spans="4:20">
+      <c r="D102" s="10"/>
+      <c r="E102" s="10"/>
+      <c r="F102" s="10" t="s">
+        <v>697</v>
+      </c>
+      <c r="G102" s="10"/>
+      <c r="H102" s="10"/>
+      <c r="I102" s="10"/>
+      <c r="J102" s="10"/>
+      <c r="K102" s="10"/>
+      <c r="L102" s="10"/>
+      <c r="M102" s="10"/>
+      <c r="N102" s="10"/>
+      <c r="O102" s="10"/>
+      <c r="P102" s="10"/>
+      <c r="Q102" s="10"/>
+      <c r="R102" s="10"/>
+      <c r="S102" s="10"/>
+      <c r="T102" s="10"/>
+    </row>
+    <row r="103" spans="4:20">
+      <c r="D103" s="10"/>
+      <c r="E103" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="F103" s="10"/>
+      <c r="G103" s="10"/>
+      <c r="H103" s="10"/>
+      <c r="I103" s="10"/>
+      <c r="J103" s="10"/>
+      <c r="K103" s="10"/>
+      <c r="L103" s="10"/>
+      <c r="M103" s="10"/>
+      <c r="N103" s="10"/>
+      <c r="O103" s="10"/>
+      <c r="P103" s="10"/>
+      <c r="Q103" s="10"/>
+      <c r="R103" s="10"/>
+      <c r="S103" s="10"/>
+      <c r="T103" s="10"/>
+    </row>
+    <row r="104" spans="4:20">
+      <c r="D104" s="10"/>
+      <c r="E104" s="10" t="s">
+        <v>698</v>
+      </c>
+      <c r="F104" s="10"/>
+      <c r="G104" s="10"/>
+      <c r="H104" s="10"/>
+      <c r="I104" s="10"/>
+      <c r="J104" s="10"/>
+      <c r="K104" s="10"/>
+      <c r="L104" s="10"/>
+      <c r="M104" s="10"/>
+      <c r="N104" s="10"/>
+      <c r="O104" s="10"/>
+      <c r="P104" s="10"/>
+      <c r="Q104" s="10"/>
+      <c r="R104" s="10"/>
+      <c r="S104" s="10"/>
+      <c r="T104" s="10"/>
+    </row>
+    <row r="105" spans="4:20">
+      <c r="D105" s="10"/>
+      <c r="E105" s="10"/>
+      <c r="F105" s="10" t="s">
+        <v>699</v>
+      </c>
+      <c r="G105" s="10"/>
+      <c r="H105" s="10"/>
+      <c r="I105" s="10"/>
+      <c r="J105" s="10"/>
+      <c r="K105" s="10"/>
+      <c r="L105" s="10"/>
+      <c r="M105" s="10"/>
+      <c r="N105" s="10"/>
+      <c r="O105" s="10"/>
+      <c r="P105" s="10"/>
+      <c r="Q105" s="10"/>
+      <c r="R105" s="10"/>
+      <c r="S105" s="10"/>
+      <c r="T105" s="10"/>
+    </row>
+    <row r="106" spans="4:20">
+      <c r="D106" s="10"/>
+      <c r="E106" s="10"/>
+      <c r="F106" s="10" t="s">
+        <v>700</v>
+      </c>
+      <c r="G106" s="10"/>
+      <c r="H106" s="10"/>
+      <c r="I106" s="10"/>
+      <c r="J106" s="10"/>
+      <c r="K106" s="10"/>
+      <c r="L106" s="10"/>
+      <c r="M106" s="10"/>
+      <c r="N106" s="10"/>
+      <c r="O106" s="10"/>
+      <c r="P106" s="10"/>
+      <c r="Q106" s="10"/>
+      <c r="R106" s="10"/>
+      <c r="S106" s="10"/>
+      <c r="T106" s="10"/>
+    </row>
+    <row r="107" spans="4:20">
+      <c r="D107" s="10"/>
+      <c r="E107" s="10"/>
+      <c r="F107" s="10" t="s">
+        <v>701</v>
+      </c>
+      <c r="G107" s="10"/>
+      <c r="H107" s="10"/>
+      <c r="I107" s="10"/>
+      <c r="J107" s="10"/>
+      <c r="K107" s="10"/>
+      <c r="L107" s="10"/>
+      <c r="M107" s="10"/>
+      <c r="N107" s="10"/>
+      <c r="O107" s="10"/>
+      <c r="P107" s="10"/>
+      <c r="Q107" s="10"/>
+      <c r="R107" s="10"/>
+      <c r="S107" s="10"/>
+      <c r="T107" s="10"/>
+    </row>
+    <row r="108" spans="4:20">
+      <c r="D108" s="10"/>
+      <c r="E108" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="F108" s="10"/>
+      <c r="G108" s="10"/>
+      <c r="H108" s="10"/>
+      <c r="I108" s="10"/>
+      <c r="J108" s="10"/>
+      <c r="K108" s="10"/>
+      <c r="L108" s="10"/>
+      <c r="M108" s="10"/>
+      <c r="N108" s="10"/>
+      <c r="O108" s="10"/>
+      <c r="P108" s="10"/>
+      <c r="Q108" s="10"/>
+      <c r="R108" s="10"/>
+      <c r="S108" s="10"/>
+      <c r="T108" s="10"/>
+    </row>
+    <row r="109" spans="4:20">
+      <c r="D109" s="10" t="s">
+        <v>414</v>
+      </c>
+      <c r="E109" s="10"/>
+      <c r="F109" s="10"/>
+      <c r="G109" s="10"/>
+      <c r="H109" s="10"/>
+      <c r="I109" s="10"/>
+      <c r="J109" s="10"/>
+      <c r="K109" s="10"/>
+      <c r="L109" s="10"/>
+      <c r="M109" s="10"/>
+      <c r="N109" s="10"/>
+      <c r="O109" s="10"/>
+      <c r="P109" s="10"/>
+      <c r="Q109" s="10"/>
+      <c r="R109" s="10"/>
+      <c r="S109" s="10"/>
+      <c r="T109" s="10"/>
+    </row>
+    <row r="110" spans="4:20">
+      <c r="D110" s="10"/>
+      <c r="E110" s="10" t="s">
+        <v>702</v>
+      </c>
+      <c r="F110" s="10"/>
+      <c r="G110" s="10"/>
+      <c r="H110" s="10"/>
+      <c r="I110" s="10"/>
+      <c r="J110" s="10"/>
+      <c r="K110" s="10"/>
+      <c r="L110" s="10"/>
+      <c r="M110" s="10"/>
+      <c r="N110" s="10"/>
+      <c r="O110" s="10"/>
+      <c r="P110" s="10"/>
+      <c r="Q110" s="10"/>
+      <c r="R110" s="10"/>
+      <c r="S110" s="10"/>
+      <c r="T110" s="10"/>
+    </row>
+    <row r="111" spans="4:20">
+      <c r="D111" s="10"/>
+      <c r="E111" s="10" t="s">
+        <v>703</v>
+      </c>
+      <c r="F111" s="10"/>
+      <c r="G111" s="10"/>
+      <c r="H111" s="10"/>
+      <c r="I111" s="10"/>
+      <c r="J111" s="10"/>
+      <c r="K111" s="10"/>
+      <c r="L111" s="10"/>
+      <c r="M111" s="10"/>
+      <c r="N111" s="10"/>
+      <c r="O111" s="10"/>
+      <c r="P111" s="10"/>
+      <c r="Q111" s="10"/>
+      <c r="R111" s="10"/>
+      <c r="S111" s="10"/>
+      <c r="T111" s="10"/>
+    </row>
+    <row r="112" spans="4:20">
+      <c r="D112" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="E112" s="10"/>
+      <c r="F112" s="10"/>
+      <c r="G112" s="10"/>
+      <c r="H112" s="10"/>
+      <c r="I112" s="10"/>
+      <c r="J112" s="10"/>
+      <c r="K112" s="10"/>
+      <c r="L112" s="10"/>
+      <c r="M112" s="10"/>
+      <c r="N112" s="10"/>
+      <c r="O112" s="10"/>
+      <c r="P112" s="10"/>
+      <c r="Q112" s="10"/>
+      <c r="R112" s="10"/>
+      <c r="S112" s="10"/>
+      <c r="T112" s="10"/>
+    </row>
+    <row r="115" spans="4:20">
+      <c r="D115" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E115" s="2" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="116" spans="4:20">
+      <c r="D116" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="E116" s="10"/>
+      <c r="F116" s="10"/>
+      <c r="G116" s="10"/>
+      <c r="H116" s="10"/>
+      <c r="I116" s="10"/>
+      <c r="J116" s="10"/>
+      <c r="K116" s="10"/>
+      <c r="L116" s="10"/>
+      <c r="M116" s="10"/>
+      <c r="N116" s="10"/>
+      <c r="O116" s="10"/>
+      <c r="P116" s="10"/>
+      <c r="Q116" s="10"/>
+      <c r="R116" s="10"/>
+      <c r="S116" s="10"/>
+      <c r="T116" s="10"/>
+    </row>
+    <row r="117" spans="4:20">
+      <c r="D117" s="10" t="s">
+        <v>705</v>
+      </c>
+      <c r="E117" s="10"/>
+      <c r="F117" s="10"/>
+      <c r="G117" s="10"/>
+      <c r="H117" s="10"/>
+      <c r="I117" s="10"/>
+      <c r="J117" s="10"/>
+      <c r="K117" s="10"/>
+      <c r="L117" s="10"/>
+      <c r="M117" s="10"/>
+      <c r="N117" s="10"/>
+      <c r="O117" s="10"/>
+      <c r="P117" s="10"/>
+      <c r="Q117" s="10"/>
+      <c r="R117" s="10"/>
+      <c r="S117" s="10"/>
+      <c r="T117" s="10"/>
+    </row>
+    <row r="118" spans="4:20">
+      <c r="D118" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="E118" s="10"/>
+      <c r="F118" s="10"/>
+      <c r="G118" s="10"/>
+      <c r="H118" s="10"/>
+      <c r="I118" s="10"/>
+      <c r="J118" s="10"/>
+      <c r="K118" s="10"/>
+      <c r="L118" s="10"/>
+      <c r="M118" s="10"/>
+      <c r="N118" s="10"/>
+      <c r="O118" s="10"/>
+      <c r="P118" s="10"/>
+      <c r="Q118" s="10"/>
+      <c r="R118" s="10"/>
+      <c r="S118" s="10"/>
+      <c r="T118" s="10"/>
+    </row>
+    <row r="119" spans="4:20">
+      <c r="D119" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="E119" s="10"/>
+      <c r="F119" s="10"/>
+      <c r="G119" s="10"/>
+      <c r="H119" s="10"/>
+      <c r="I119" s="10"/>
+      <c r="J119" s="10"/>
+      <c r="K119" s="10"/>
+      <c r="L119" s="10"/>
+      <c r="M119" s="10"/>
+      <c r="N119" s="10"/>
+      <c r="O119" s="10"/>
+      <c r="P119" s="10"/>
+      <c r="Q119" s="10"/>
+      <c r="R119" s="10"/>
+      <c r="S119" s="10"/>
+      <c r="T119" s="10"/>
+    </row>
+    <row r="120" spans="4:20">
+      <c r="D120" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="E120" s="10"/>
+      <c r="F120" s="10"/>
+      <c r="G120" s="10"/>
+      <c r="H120" s="10"/>
+      <c r="I120" s="10"/>
+      <c r="J120" s="10"/>
+      <c r="K120" s="10"/>
+      <c r="L120" s="10"/>
+      <c r="M120" s="10"/>
+      <c r="N120" s="10"/>
+      <c r="O120" s="10"/>
+      <c r="P120" s="10"/>
+      <c r="Q120" s="10"/>
+      <c r="R120" s="10"/>
+      <c r="S120" s="10"/>
+      <c r="T120" s="10"/>
+    </row>
+    <row r="121" spans="4:20">
+      <c r="D121" s="10"/>
+      <c r="E121" s="10" t="s">
+        <v>706</v>
+      </c>
+      <c r="F121" s="10"/>
+      <c r="G121" s="10"/>
+      <c r="H121" s="10"/>
+      <c r="I121" s="10"/>
+      <c r="J121" s="10"/>
+      <c r="K121" s="10"/>
+      <c r="L121" s="10"/>
+      <c r="M121" s="10"/>
+      <c r="N121" s="10"/>
+      <c r="O121" s="10"/>
+      <c r="P121" s="10"/>
+      <c r="Q121" s="10"/>
+      <c r="R121" s="10"/>
+      <c r="S121" s="10"/>
+      <c r="T121" s="10"/>
+    </row>
+    <row r="122" spans="4:20">
+      <c r="D122" s="10"/>
+      <c r="E122" s="10" t="s">
+        <v>707</v>
+      </c>
+      <c r="F122" s="10"/>
+      <c r="G122" s="10"/>
+      <c r="H122" s="10"/>
+      <c r="I122" s="10"/>
+      <c r="J122" s="10"/>
+      <c r="K122" s="10"/>
+      <c r="L122" s="10"/>
+      <c r="M122" s="10"/>
+      <c r="N122" s="10"/>
+      <c r="O122" s="10"/>
+      <c r="P122" s="10"/>
+      <c r="Q122" s="10"/>
+      <c r="R122" s="10"/>
+      <c r="S122" s="10"/>
+      <c r="T122" s="10"/>
+    </row>
+    <row r="123" spans="4:20">
+      <c r="D123" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="E123" s="10"/>
+      <c r="F123" s="10"/>
+      <c r="G123" s="10"/>
+      <c r="H123" s="10"/>
+      <c r="I123" s="10"/>
+      <c r="J123" s="10"/>
+      <c r="K123" s="10"/>
+      <c r="L123" s="10"/>
+      <c r="M123" s="10"/>
+      <c r="N123" s="10"/>
+      <c r="O123" s="10"/>
+      <c r="P123" s="10"/>
+      <c r="Q123" s="10"/>
+      <c r="R123" s="10"/>
+      <c r="S123" s="10"/>
+      <c r="T123" s="10"/>
+    </row>
+    <row r="124" spans="4:20">
+      <c r="D124" s="10"/>
+      <c r="E124" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="F124" s="10"/>
+      <c r="G124" s="10"/>
+      <c r="H124" s="10"/>
+      <c r="I124" s="10"/>
+      <c r="J124" s="10"/>
+      <c r="K124" s="10"/>
+      <c r="L124" s="10"/>
+      <c r="M124" s="10"/>
+      <c r="N124" s="10"/>
+      <c r="O124" s="10"/>
+      <c r="P124" s="10"/>
+      <c r="Q124" s="10"/>
+      <c r="R124" s="10"/>
+      <c r="S124" s="10"/>
+      <c r="T124" s="10"/>
+    </row>
+    <row r="125" spans="4:20">
+      <c r="D125" s="10"/>
+      <c r="E125" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="F125" s="10"/>
+      <c r="G125" s="10"/>
+      <c r="H125" s="10"/>
+      <c r="I125" s="10"/>
+      <c r="J125" s="10"/>
+      <c r="K125" s="10"/>
+      <c r="L125" s="10"/>
+      <c r="M125" s="10"/>
+      <c r="N125" s="10"/>
+      <c r="O125" s="10"/>
+      <c r="P125" s="10"/>
+      <c r="Q125" s="10"/>
+      <c r="R125" s="10"/>
+      <c r="S125" s="10"/>
+      <c r="T125" s="10"/>
+    </row>
+    <row r="126" spans="4:20">
+      <c r="D126" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="E126" s="10"/>
+      <c r="F126" s="10"/>
+      <c r="G126" s="10"/>
+      <c r="H126" s="10"/>
+      <c r="I126" s="10"/>
+      <c r="J126" s="10"/>
+      <c r="K126" s="10"/>
+      <c r="L126" s="10"/>
+      <c r="M126" s="10"/>
+      <c r="N126" s="10"/>
+      <c r="O126" s="10"/>
+      <c r="P126" s="10"/>
+      <c r="Q126" s="10"/>
+      <c r="R126" s="10"/>
+      <c r="S126" s="10"/>
+      <c r="T126" s="10"/>
+    </row>
+    <row r="130" spans="1:52">
+      <c r="A130" s="4"/>
+      <c r="B130" s="4"/>
+      <c r="C130" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D130" s="1" t="s">
+        <v>708</v>
+      </c>
+      <c r="E130" s="4"/>
+      <c r="F130" s="4"/>
+      <c r="G130" s="4"/>
+      <c r="H130" s="4"/>
+      <c r="I130" s="4"/>
+      <c r="J130" s="4"/>
+      <c r="K130" s="4"/>
+      <c r="L130" s="4"/>
+      <c r="M130" s="4"/>
+      <c r="N130" s="4"/>
+      <c r="O130" s="4"/>
+      <c r="P130" s="4"/>
+      <c r="Q130" s="4"/>
+      <c r="R130" s="4"/>
+      <c r="S130" s="4"/>
+      <c r="T130" s="4"/>
+      <c r="U130" s="4"/>
+      <c r="V130" s="4"/>
+      <c r="W130" s="4"/>
+      <c r="X130" s="4"/>
+      <c r="Y130" s="4"/>
+      <c r="Z130" s="4"/>
+      <c r="AA130" s="4"/>
+      <c r="AB130" s="4"/>
+      <c r="AC130" s="4"/>
+      <c r="AD130" s="4"/>
+      <c r="AE130" s="4"/>
+      <c r="AF130" s="4"/>
+      <c r="AG130" s="4"/>
+      <c r="AH130" s="4"/>
+      <c r="AI130" s="4"/>
+      <c r="AJ130" s="4"/>
+      <c r="AK130" s="4"/>
+      <c r="AL130" s="4"/>
+      <c r="AM130" s="4"/>
+      <c r="AN130" s="4"/>
+      <c r="AO130" s="4"/>
+      <c r="AP130" s="4"/>
+      <c r="AQ130" s="4"/>
+      <c r="AR130" s="4"/>
+      <c r="AS130" s="4"/>
+      <c r="AT130" s="4"/>
+      <c r="AU130" s="4"/>
+      <c r="AV130" s="4"/>
+      <c r="AW130" s="4"/>
+      <c r="AX130" s="4"/>
+      <c r="AY130" s="4"/>
+      <c r="AZ130" s="4"/>
+    </row>
+    <row r="132" spans="1:52">
+      <c r="D132" s="3" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="133" spans="1:52">
+      <c r="D133" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E133" s="2" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="134" spans="1:52">
+      <c r="D134" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E134" s="2" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="135" spans="1:52">
+      <c r="D135" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E135" s="2" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="137" spans="1:52">
+      <c r="D137" s="3" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="138" spans="1:52">
+      <c r="D138" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E138" s="2" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="140" spans="1:52">
+      <c r="D140" s="3" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="141" spans="1:52">
+      <c r="D141" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E141" s="2" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="142" spans="1:52">
+      <c r="D142" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E142" s="2" t="s">
+        <v>714</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Cplusplus/设计模式.xlsx
+++ b/Cplusplus/设计模式.xlsx
@@ -3716,7 +3716,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -5405,6 +5405,49 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>66092</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>123381</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1" descr="Bridge.png"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="600075" y="4800600"/>
+          <a:ext cx="4666667" cy="3552381"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
@@ -6779,9 +6822,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A3:AZ188"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A124" workbookViewId="0">
-      <selection activeCell="P180" sqref="P180"/>
-    </sheetView>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5"/>
   <sheetData>
@@ -9775,6 +9816,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -9783,7 +9825,7 @@
   <dimension ref="B8"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -28850,17 +28892,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="X34:AA35"/>
-    <mergeCell ref="X38:AA39"/>
-    <mergeCell ref="X42:AA43"/>
-    <mergeCell ref="X50:AA51"/>
-    <mergeCell ref="X54:AA55"/>
     <mergeCell ref="X58:AA59"/>
     <mergeCell ref="AH36:AL42"/>
     <mergeCell ref="AH51:AL57"/>
     <mergeCell ref="E44:H51"/>
     <mergeCell ref="M38:Q44"/>
     <mergeCell ref="M50:Q56"/>
+    <mergeCell ref="X34:AA35"/>
+    <mergeCell ref="X38:AA39"/>
+    <mergeCell ref="X42:AA43"/>
+    <mergeCell ref="X50:AA51"/>
+    <mergeCell ref="X54:AA55"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Cplusplus/设计模式.xlsx
+++ b/Cplusplus/设计模式.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1545" uniqueCount="783">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1545" uniqueCount="784">
   <si>
     <t>★</t>
   </si>
@@ -2680,6 +2680,10 @@
   </si>
   <si>
     <t>一个类存在多个独立变化的维度，可采用桥接模式。</t>
+  </si>
+  <si>
+    <t>桥接模式简介</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -3716,7 +3720,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -6822,7 +6826,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A3:AZ188"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="M8" sqref="M8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5"/>
   <sheetData>
@@ -6833,7 +6839,7 @@
         <v>0</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>654</v>
+        <v>783</v>
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
@@ -28892,17 +28898,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="X34:AA35"/>
+    <mergeCell ref="X38:AA39"/>
+    <mergeCell ref="X42:AA43"/>
+    <mergeCell ref="X50:AA51"/>
+    <mergeCell ref="X54:AA55"/>
     <mergeCell ref="X58:AA59"/>
     <mergeCell ref="AH36:AL42"/>
     <mergeCell ref="AH51:AL57"/>
     <mergeCell ref="E44:H51"/>
     <mergeCell ref="M38:Q44"/>
     <mergeCell ref="M50:Q56"/>
-    <mergeCell ref="X34:AA35"/>
-    <mergeCell ref="X38:AA39"/>
-    <mergeCell ref="X42:AA43"/>
-    <mergeCell ref="X50:AA51"/>
-    <mergeCell ref="X54:AA55"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Cplusplus/设计模式.xlsx
+++ b/Cplusplus/设计模式.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="96" windowWidth="19200" windowHeight="11640" tabRatio="739" activeTab="10"/>
+    <workbookView xWindow="0" yWindow="96" windowWidth="19200" windowHeight="11640" tabRatio="739" firstSheet="2" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="设计模式概览" sheetId="1" r:id="rId1"/>
@@ -18,14 +18,16 @@
     <sheet name="适配器模式" sheetId="12" r:id="rId9"/>
     <sheet name="桥接模式" sheetId="13" r:id="rId10"/>
     <sheet name="组合模式" sheetId="14" r:id="rId11"/>
-    <sheet name="参照" sheetId="4" r:id="rId12"/>
+    <sheet name="装饰模式" sheetId="15" r:id="rId12"/>
+    <sheet name="外观模式" sheetId="16" r:id="rId13"/>
+    <sheet name="参照" sheetId="4" r:id="rId14"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1746" uniqueCount="906">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2040" uniqueCount="1070">
   <si>
     <t>★</t>
   </si>
@@ -3066,12 +3068,526 @@
     <t>●</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>装饰模式简介</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>装饰模式可以在不改变一个对象本身功能的基础上给对象增加额外的新行为</t>
+  </si>
+  <si>
+    <t>比如手机，为防止摔坏，可以给手机贴膜或者带上保护套；</t>
+  </si>
+  <si>
+    <t>为美观，可以在保护套上贴卡通贴纸；为便于携带可以增加挂绳</t>
+  </si>
+  <si>
+    <t>装饰模式：动态地给一个对象增加一些额外的职责。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">就扩展功能而言，装饰模式提供了一种比使用子类更加灵活的替代方案。 </t>
+  </si>
+  <si>
+    <t>装饰模式是一种用于替代继承的技术。通过一种无须定义子类的方式给对象动态增加职责，使用对象之间的关联关系取代类之间的继承关系。</t>
+  </si>
+  <si>
+    <t>装饰模式中引入了装饰类，在装饰类中既可以调用待装饰的原有对象的方法，还可以增加新的方法，以扩充原有类的功能。</t>
+  </si>
+  <si>
+    <t>装饰模式结构</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Component(抽象构件):是具体构件类和装饰类的共同基类，声明了在具体构件中定义的方法，客户端可以一致的对待使用装饰前后的对象；</t>
+  </si>
+  <si>
+    <t>ConcreteComponent(具体构件):具体构件定义了构件具体的方法，装饰类可以给它增加更多的功能；</t>
+  </si>
+  <si>
+    <t>Decorator(抽象装饰类):用于给具体构件增加职责，但具体职责在其子类中实现。抽象装饰类通过聚合关系定义一个抽象构件的对象，通过该对象可以调用装饰之前构件的方法，并通过其子类扩展该方法，达到装饰的目的；</t>
+  </si>
+  <si>
+    <t>ConcreteDecorator(具体装饰类):向构件增加新的功能。</t>
+  </si>
+  <si>
+    <t>装饰模式代码实例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>场景:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>给手机带上手机壳、贴上手机贴纸、系上手机挂绳为例，展示装饰模式的代码。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抽象构件类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>具体构件类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//具体构件类</t>
+  </si>
+  <si>
+    <t>class Phone :public Component</t>
+  </si>
+  <si>
+    <t>Phone(){}</t>
+  </si>
+  <si>
+    <t>printf("手机\n");</t>
+  </si>
+  <si>
+    <t>装饰类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抽象装饰类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//抽象装饰类</t>
+  </si>
+  <si>
+    <t>class Decorator :public Component</t>
+  </si>
+  <si>
+    <t>Decorator(){}</t>
+  </si>
+  <si>
+    <t>Decorator(Component *c){</t>
+  </si>
+  <si>
+    <t>this-&gt;component = c;</t>
+  </si>
+  <si>
+    <t>this-&gt;component-&gt;operation();</t>
+  </si>
+  <si>
+    <t>Component *getComponent(){</t>
+  </si>
+  <si>
+    <t>return this-&gt;component;</t>
+  </si>
+  <si>
+    <t>void setComponent(Component *c){</t>
+  </si>
+  <si>
+    <t>Component *component;</t>
+  </si>
+  <si>
+    <t>抽象装饰类中有一个成员对象component，以及setter和getter方法。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>具体装饰类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>具体装饰类一共有三个</t>
+  </si>
+  <si>
+    <t>分别是手机壳装饰类DecoratorShell、贴纸装饰类DecoratorSticker和挂绳装饰类DecoratorRope。</t>
+  </si>
+  <si>
+    <t>每一个具体装饰类都增加了各自新的职责newBehavior。</t>
+  </si>
+  <si>
+    <t>//具体装饰类：手机壳</t>
+  </si>
+  <si>
+    <t>class DecoratorShell:public Decorator</t>
+  </si>
+  <si>
+    <t>DecoratorShell(){}</t>
+  </si>
+  <si>
+    <t>DecoratorShell(Component *c){</t>
+  </si>
+  <si>
+    <t>this-&gt;setComponent(c);</t>
+  </si>
+  <si>
+    <t>this-&gt;getComponent()-&gt;operation();</t>
+  </si>
+  <si>
+    <t>this-&gt;newBehavior();</t>
+  </si>
+  <si>
+    <t>void newBehavior(){</t>
+  </si>
+  <si>
+    <t>printf("装手机壳\n");</t>
+  </si>
+  <si>
+    <t>//具体装饰类：手机贴纸</t>
+  </si>
+  <si>
+    <t>class DecoratorSticker :public Decorator</t>
+  </si>
+  <si>
+    <t>DecoratorSticker(){}</t>
+  </si>
+  <si>
+    <t>DecoratorSticker(Component *c){</t>
+  </si>
+  <si>
+    <t>printf("贴卡通贴纸\n");</t>
+  </si>
+  <si>
+    <t>//具体装饰类：手机挂绳</t>
+  </si>
+  <si>
+    <t>class DecoratorRope :public Decorator</t>
+  </si>
+  <si>
+    <t>DecoratorRope(){}</t>
+  </si>
+  <si>
+    <t>DecoratorRope(Component *c){</t>
+  </si>
+  <si>
+    <t>printf("系手机挂绳\n");</t>
+  </si>
+  <si>
+    <t>客户端代码示例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户端展示了三段代码，分别为三个手机配上不同的装饰：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#include "DecoratorPattern.h"</t>
+  </si>
+  <si>
+    <t>printf("\nJungle的第一个手机：\n");</t>
+  </si>
+  <si>
+    <t>Component *c;</t>
+  </si>
+  <si>
+    <t>Component *com_Shell;</t>
+  </si>
+  <si>
+    <t>c = new Phone();</t>
+  </si>
+  <si>
+    <t>com_Shell = new DecoratorShell(c);</t>
+  </si>
+  <si>
+    <t>com_Shell-&gt;operation();</t>
+  </si>
+  <si>
+    <t>printf("\nJungle的第二个手机：\n");</t>
+  </si>
+  <si>
+    <t>Component *c2;</t>
+  </si>
+  <si>
+    <t>Component *com_Shell2;</t>
+  </si>
+  <si>
+    <t>c2 = new Phone();</t>
+  </si>
+  <si>
+    <t>com_Shell2 = new DecoratorShell(c2);</t>
+  </si>
+  <si>
+    <t>Component *com_Sticker;</t>
+  </si>
+  <si>
+    <t>com_Sticker = new DecoratorSticker(com_Shell2);</t>
+  </si>
+  <si>
+    <t>com_Sticker-&gt;operation();</t>
+  </si>
+  <si>
+    <t>printf("\nJungle的第三个手机：\n");</t>
+  </si>
+  <si>
+    <t>Component *c3;</t>
+  </si>
+  <si>
+    <t>Component *com_Shell3;</t>
+  </si>
+  <si>
+    <t>c3 = new Phone();</t>
+  </si>
+  <si>
+    <t>com_Shell3 = new DecoratorShell(c3);</t>
+  </si>
+  <si>
+    <t>Component *com_Sticker2;</t>
+  </si>
+  <si>
+    <t>com_Sticker2 = new DecoratorSticker(com_Shell3);</t>
+  </si>
+  <si>
+    <t>Component *com_Rope;</t>
+  </si>
+  <si>
+    <t>com_Rope = new DecoratorRope(com_Sticker2);</t>
+  </si>
+  <si>
+    <t>com_Rope-&gt;operation();</t>
+  </si>
+  <si>
+    <t>printf("\n\n");</t>
+  </si>
+  <si>
+    <t>装饰模式总结</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对于扩展一个类的新功能，装饰模式比继承更加灵活；</t>
+  </si>
+  <si>
+    <t>动态扩展一个对象的功能；</t>
+  </si>
+  <si>
+    <t>可以对一个对象进行多次装饰（如上述例子第二个手机和第三个手机）；</t>
+  </si>
+  <si>
+    <t>具体构件类和具体装饰类可以独立变化和扩展，符合开闭原则。</t>
+  </si>
+  <si>
+    <t>装饰模式比继承模式更灵活，但也更容易出错，更难于排错。</t>
+  </si>
+  <si>
+    <t>在不影响其他对象的情况下，给单个对象动态扩展职责；</t>
+  </si>
+  <si>
+    <t>不适宜采用继承的方式进行扩展的时候，可以考虑使用装饰模式。</t>
+  </si>
+  <si>
+    <t>装饰模式中会增加很多小的对象，对象的区别主要在于各种装饰的连接方式不同，而并不是职责不同，大量小对象的产生会占用较多的系统资源；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>外观模式简介</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>外观模式是一种使用频率较高的设计模式，它提供一个外观角色封装多个复杂的子系统，简化客户端与子系统之间的交互，方便客户端使用。</t>
+  </si>
+  <si>
+    <t>外观模式可以降低系统的耦合度。如果没有外观类，不同的客户端在需要和多个不同的子系统交互，系统中将存在复杂的引用关系，如下图。</t>
+  </si>
+  <si>
+    <t>引入了外观类，原有的复杂的引用关系都由外观类实现，不同的客户端只需要与外观类交互。</t>
+  </si>
+  <si>
+    <t>外观模式:为子系统中的一组接口提供一个统一的入口。</t>
+  </si>
+  <si>
+    <t>外观模式定义了一个高层接口，这个接口使得这一子系统更加容易使用。</t>
+  </si>
+  <si>
+    <t>外观模式的应用很多</t>
+  </si>
+  <si>
+    <t>比如浏览器，用户要查找什么东西，不论是浏览知乎、腾讯或者CSDN</t>
+  </si>
+  <si>
+    <t>用户都只需要打开浏览器即可，剩下的搜索工作由浏览器完成。</t>
+  </si>
+  <si>
+    <t>外观模式结构</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Facade(外观角色):外观角色可以知道多个相关子系统的功能，它将所有从客户端发来的请求委派给相应的子系统，传递给相应的子系统处理。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SubSystem(子系统角色):子系统是一个类，或者由多个类组成的类的集合，它实现子系统具体的功能。 </t>
+  </si>
+  <si>
+    <t>电脑主机（Mainframe）中只需要按下主机的开机按钮（powerOn），即可调用其他硬件设备和软件的启动方法</t>
+  </si>
+  <si>
+    <t>如内存（Memory）的自检（selfCheck）、CPU的运行（run）、硬盘（HardDisk）的读取（read）、操作系统（OS）的载入（load）等。</t>
+  </si>
+  <si>
+    <t>如果某一过程发生错误则电脑开机失败。</t>
+  </si>
+  <si>
+    <t>子系统类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本例中一共有4个子系统，因此设计4个类：Memory、CPU、HardDisk和OS，并且每个子系统都有自己独立的流程。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//子系统：内存</t>
+  </si>
+  <si>
+    <t>class Memory</t>
+  </si>
+  <si>
+    <t>Memory(){}</t>
+  </si>
+  <si>
+    <t>void selfCheck(){</t>
+  </si>
+  <si>
+    <t>printf("…………内存自检……\n");</t>
+  </si>
+  <si>
+    <t>//子系统：CPU</t>
+  </si>
+  <si>
+    <t>class CPU</t>
+  </si>
+  <si>
+    <t>CPU(){}</t>
+  </si>
+  <si>
+    <t>void run(){</t>
+  </si>
+  <si>
+    <t>printf("…………运行CPU运行……\n");</t>
+  </si>
+  <si>
+    <t>//子系统：硬盘</t>
+  </si>
+  <si>
+    <t>class HardDisk</t>
+  </si>
+  <si>
+    <t>HardDisk(){}</t>
+  </si>
+  <si>
+    <t>void read(){</t>
+  </si>
+  <si>
+    <t>printf("…………读取硬盘……\n");</t>
+  </si>
+  <si>
+    <t>//子系统：操作系统</t>
+  </si>
+  <si>
+    <t>class OS</t>
+  </si>
+  <si>
+    <t>OS(){}</t>
+  </si>
+  <si>
+    <t>void load(){</t>
+  </si>
+  <si>
+    <t>printf("…………载入操作系统……\n");</t>
+  </si>
+  <si>
+    <t>外观类设计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//外观类</t>
+  </si>
+  <si>
+    <t>Facade(){</t>
+  </si>
+  <si>
+    <t>memory-&gt;selfCheck();</t>
+  </si>
+  <si>
+    <t>cpu-&gt;run();</t>
+  </si>
+  <si>
+    <t>hardDisk-&gt;read();</t>
+  </si>
+  <si>
+    <t>os-&gt;load();</t>
+  </si>
+  <si>
+    <t>Memory *memory;</t>
+  </si>
+  <si>
+    <t>CPU *cpu;</t>
+  </si>
+  <si>
+    <t>HardDisk *hardDisk;</t>
+  </si>
+  <si>
+    <t>OS *os;</t>
+  </si>
+  <si>
+    <t>class Facade</t>
+  </si>
+  <si>
+    <t>memory = new Memory();</t>
+  </si>
+  <si>
+    <t>cpu = new CPU();</t>
+  </si>
+  <si>
+    <t>hardDisk = new HardDisk();</t>
+  </si>
+  <si>
+    <t>os = new OS();</t>
+  </si>
+  <si>
+    <t>void powerOn(){</t>
+  </si>
+  <si>
+    <t>printf("正在开机……\n");</t>
+  </si>
+  <si>
+    <t>printf("开机完成！\n");</t>
+  </si>
+  <si>
+    <t>#include "FacadePattern.h"</t>
+  </si>
+  <si>
+    <t>Facade *facade = new Facade();</t>
+  </si>
+  <si>
+    <t>facade-&gt;powerOn();</t>
+  </si>
+  <si>
+    <t>外观模式代码实例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>外观模式总结</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>外观模式使得客户端不必关心子系统组件，减少了与客户端交互的对象的数量，简化了客户端的编程；</t>
+  </si>
+  <si>
+    <t>外观模式可以大大降低系统的耦合度；</t>
+  </si>
+  <si>
+    <t>子系统的变化并不需要修改客户端，只需要适当修改外观类即可；</t>
+  </si>
+  <si>
+    <t>子系统之间不会相互影响。</t>
+  </si>
+  <si>
+    <t>如果需要增加或者减少子系统，需要修改外观类，违反开闭原则；</t>
+  </si>
+  <si>
+    <t>并不能限制客户端直接与子系统交互，但如果加强限制，又使得系统灵活度降低。</t>
+  </si>
+  <si>
+    <t>为访问一系列复杂的子系统提供一个统一的、简单的入口，可以使用外观模式；</t>
+  </si>
+  <si>
+    <t>客户端与多个子系统之间存在很大依赖，但在客户端编程，又会增加系统耦合度，且使客户端编程复杂，可以使用外观模式。</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3135,6 +3651,23 @@
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -3556,7 +4089,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3648,6 +4181,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3761,7 +4297,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -4157,6 +4696,236 @@
             <a:srgbClr val="FFFFFF"/>
           </a:contourClr>
         </a:sp3d>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>35168</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>52754</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>128834</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>99646</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="615460" y="4050323"/>
+          <a:ext cx="2995128" cy="2045677"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>187569</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>98061</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="580292" y="7268308"/>
+          <a:ext cx="4829908" cy="1915138"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>68580</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>154529</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="571500" y="1280160"/>
+          <a:ext cx="3307080" cy="1434689"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>129540</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>13354</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="609600" y="5318760"/>
+          <a:ext cx="2758440" cy="1461154"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>181707</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>17585</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>137571</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="580292" y="7995138"/>
+          <a:ext cx="5046785" cy="1772941"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -6953,217 +7722,217 @@
     </row>
     <row r="61" spans="4:40" ht="15" thickBot="1"/>
     <row r="62" spans="4:40" ht="15" thickBot="1">
-      <c r="D62" s="43" t="s">
+      <c r="D62" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="E62" s="44"/>
-      <c r="F62" s="44"/>
-      <c r="G62" s="44"/>
-      <c r="H62" s="44"/>
-      <c r="I62" s="44"/>
-      <c r="J62" s="44"/>
-      <c r="K62" s="44"/>
-      <c r="L62" s="44"/>
-      <c r="M62" s="44"/>
-      <c r="N62" s="44"/>
-      <c r="O62" s="44"/>
-      <c r="P62" s="44"/>
-      <c r="Q62" s="44"/>
-      <c r="R62" s="44"/>
-      <c r="S62" s="44"/>
-      <c r="T62" s="44"/>
-      <c r="U62" s="44"/>
-      <c r="V62" s="44"/>
-      <c r="W62" s="44"/>
-      <c r="X62" s="44"/>
-      <c r="Y62" s="44"/>
-      <c r="Z62" s="44"/>
-      <c r="AA62" s="44"/>
-      <c r="AB62" s="44"/>
-      <c r="AC62" s="44"/>
-      <c r="AD62" s="44"/>
-      <c r="AE62" s="44"/>
-      <c r="AF62" s="44"/>
-      <c r="AG62" s="44"/>
-      <c r="AH62" s="44"/>
-      <c r="AI62" s="44"/>
-      <c r="AJ62" s="44"/>
-      <c r="AK62" s="44"/>
-      <c r="AL62" s="44"/>
-      <c r="AM62" s="44"/>
-      <c r="AN62" s="45"/>
+      <c r="E62" s="45"/>
+      <c r="F62" s="45"/>
+      <c r="G62" s="45"/>
+      <c r="H62" s="45"/>
+      <c r="I62" s="45"/>
+      <c r="J62" s="45"/>
+      <c r="K62" s="45"/>
+      <c r="L62" s="45"/>
+      <c r="M62" s="45"/>
+      <c r="N62" s="45"/>
+      <c r="O62" s="45"/>
+      <c r="P62" s="45"/>
+      <c r="Q62" s="45"/>
+      <c r="R62" s="45"/>
+      <c r="S62" s="45"/>
+      <c r="T62" s="45"/>
+      <c r="U62" s="45"/>
+      <c r="V62" s="45"/>
+      <c r="W62" s="45"/>
+      <c r="X62" s="45"/>
+      <c r="Y62" s="45"/>
+      <c r="Z62" s="45"/>
+      <c r="AA62" s="45"/>
+      <c r="AB62" s="45"/>
+      <c r="AC62" s="45"/>
+      <c r="AD62" s="45"/>
+      <c r="AE62" s="45"/>
+      <c r="AF62" s="45"/>
+      <c r="AG62" s="45"/>
+      <c r="AH62" s="45"/>
+      <c r="AI62" s="45"/>
+      <c r="AJ62" s="45"/>
+      <c r="AK62" s="45"/>
+      <c r="AL62" s="45"/>
+      <c r="AM62" s="45"/>
+      <c r="AN62" s="46"/>
     </row>
     <row r="63" spans="4:40" ht="15" thickBot="1">
-      <c r="D63" s="46" t="s">
+      <c r="D63" s="47" t="s">
         <v>46</v>
       </c>
-      <c r="E63" s="47"/>
-      <c r="F63" s="47"/>
-      <c r="G63" s="47"/>
-      <c r="H63" s="47"/>
-      <c r="I63" s="47"/>
-      <c r="J63" s="47"/>
-      <c r="K63" s="48" t="s">
+      <c r="E63" s="48"/>
+      <c r="F63" s="48"/>
+      <c r="G63" s="48"/>
+      <c r="H63" s="48"/>
+      <c r="I63" s="48"/>
+      <c r="J63" s="48"/>
+      <c r="K63" s="49" t="s">
         <v>38</v>
       </c>
-      <c r="L63" s="49"/>
-      <c r="M63" s="49"/>
-      <c r="N63" s="49"/>
-      <c r="O63" s="49"/>
-      <c r="P63" s="49"/>
-      <c r="Q63" s="49"/>
-      <c r="R63" s="49"/>
-      <c r="S63" s="49"/>
-      <c r="T63" s="49"/>
-      <c r="U63" s="49"/>
-      <c r="V63" s="49"/>
-      <c r="W63" s="49"/>
-      <c r="X63" s="49"/>
-      <c r="Y63" s="49"/>
-      <c r="Z63" s="49"/>
-      <c r="AA63" s="49"/>
-      <c r="AB63" s="49"/>
-      <c r="AC63" s="49"/>
-      <c r="AD63" s="49"/>
-      <c r="AE63" s="49"/>
-      <c r="AF63" s="49"/>
-      <c r="AG63" s="49"/>
-      <c r="AH63" s="49"/>
-      <c r="AI63" s="49"/>
-      <c r="AJ63" s="49"/>
-      <c r="AK63" s="49"/>
-      <c r="AL63" s="49"/>
-      <c r="AM63" s="49"/>
-      <c r="AN63" s="50"/>
+      <c r="L63" s="50"/>
+      <c r="M63" s="50"/>
+      <c r="N63" s="50"/>
+      <c r="O63" s="50"/>
+      <c r="P63" s="50"/>
+      <c r="Q63" s="50"/>
+      <c r="R63" s="50"/>
+      <c r="S63" s="50"/>
+      <c r="T63" s="50"/>
+      <c r="U63" s="50"/>
+      <c r="V63" s="50"/>
+      <c r="W63" s="50"/>
+      <c r="X63" s="50"/>
+      <c r="Y63" s="50"/>
+      <c r="Z63" s="50"/>
+      <c r="AA63" s="50"/>
+      <c r="AB63" s="50"/>
+      <c r="AC63" s="50"/>
+      <c r="AD63" s="50"/>
+      <c r="AE63" s="50"/>
+      <c r="AF63" s="50"/>
+      <c r="AG63" s="50"/>
+      <c r="AH63" s="50"/>
+      <c r="AI63" s="50"/>
+      <c r="AJ63" s="50"/>
+      <c r="AK63" s="50"/>
+      <c r="AL63" s="50"/>
+      <c r="AM63" s="50"/>
+      <c r="AN63" s="51"/>
     </row>
     <row r="64" spans="4:40">
-      <c r="D64" s="51" t="s">
+      <c r="D64" s="52" t="s">
         <v>39</v>
       </c>
-      <c r="E64" s="35"/>
-      <c r="F64" s="35"/>
-      <c r="G64" s="35"/>
-      <c r="H64" s="35"/>
-      <c r="I64" s="35"/>
-      <c r="J64" s="52"/>
-      <c r="K64" s="34" t="s">
+      <c r="E64" s="36"/>
+      <c r="F64" s="36"/>
+      <c r="G64" s="36"/>
+      <c r="H64" s="36"/>
+      <c r="I64" s="36"/>
+      <c r="J64" s="53"/>
+      <c r="K64" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="L64" s="35"/>
-      <c r="M64" s="35"/>
-      <c r="N64" s="35"/>
-      <c r="O64" s="35"/>
-      <c r="P64" s="35"/>
-      <c r="Q64" s="35"/>
-      <c r="R64" s="35"/>
-      <c r="S64" s="35"/>
-      <c r="T64" s="35"/>
-      <c r="U64" s="35"/>
-      <c r="V64" s="35"/>
-      <c r="W64" s="35"/>
-      <c r="X64" s="35"/>
-      <c r="Y64" s="35"/>
-      <c r="Z64" s="35"/>
-      <c r="AA64" s="35"/>
-      <c r="AB64" s="35"/>
-      <c r="AC64" s="35"/>
-      <c r="AD64" s="35"/>
-      <c r="AE64" s="35"/>
-      <c r="AF64" s="35"/>
-      <c r="AG64" s="35"/>
-      <c r="AH64" s="35"/>
-      <c r="AI64" s="35"/>
-      <c r="AJ64" s="35"/>
-      <c r="AK64" s="35"/>
-      <c r="AL64" s="35"/>
-      <c r="AM64" s="35"/>
-      <c r="AN64" s="36"/>
+      <c r="L64" s="36"/>
+      <c r="M64" s="36"/>
+      <c r="N64" s="36"/>
+      <c r="O64" s="36"/>
+      <c r="P64" s="36"/>
+      <c r="Q64" s="36"/>
+      <c r="R64" s="36"/>
+      <c r="S64" s="36"/>
+      <c r="T64" s="36"/>
+      <c r="U64" s="36"/>
+      <c r="V64" s="36"/>
+      <c r="W64" s="36"/>
+      <c r="X64" s="36"/>
+      <c r="Y64" s="36"/>
+      <c r="Z64" s="36"/>
+      <c r="AA64" s="36"/>
+      <c r="AB64" s="36"/>
+      <c r="AC64" s="36"/>
+      <c r="AD64" s="36"/>
+      <c r="AE64" s="36"/>
+      <c r="AF64" s="36"/>
+      <c r="AG64" s="36"/>
+      <c r="AH64" s="36"/>
+      <c r="AI64" s="36"/>
+      <c r="AJ64" s="36"/>
+      <c r="AK64" s="36"/>
+      <c r="AL64" s="36"/>
+      <c r="AM64" s="36"/>
+      <c r="AN64" s="37"/>
     </row>
     <row r="65" spans="1:52">
-      <c r="D65" s="53" t="s">
+      <c r="D65" s="54" t="s">
         <v>40</v>
       </c>
-      <c r="E65" s="38"/>
-      <c r="F65" s="38"/>
-      <c r="G65" s="38"/>
-      <c r="H65" s="38"/>
-      <c r="I65" s="38"/>
-      <c r="J65" s="54"/>
-      <c r="K65" s="37" t="s">
+      <c r="E65" s="39"/>
+      <c r="F65" s="39"/>
+      <c r="G65" s="39"/>
+      <c r="H65" s="39"/>
+      <c r="I65" s="39"/>
+      <c r="J65" s="55"/>
+      <c r="K65" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="L65" s="38"/>
-      <c r="M65" s="38"/>
-      <c r="N65" s="38"/>
-      <c r="O65" s="38"/>
-      <c r="P65" s="38"/>
-      <c r="Q65" s="38"/>
-      <c r="R65" s="38"/>
-      <c r="S65" s="38"/>
-      <c r="T65" s="38"/>
-      <c r="U65" s="38"/>
-      <c r="V65" s="38"/>
-      <c r="W65" s="38"/>
-      <c r="X65" s="38"/>
-      <c r="Y65" s="38"/>
-      <c r="Z65" s="38"/>
-      <c r="AA65" s="38"/>
-      <c r="AB65" s="38"/>
-      <c r="AC65" s="38"/>
-      <c r="AD65" s="38"/>
-      <c r="AE65" s="38"/>
-      <c r="AF65" s="38"/>
-      <c r="AG65" s="38"/>
-      <c r="AH65" s="38"/>
-      <c r="AI65" s="38"/>
-      <c r="AJ65" s="38"/>
-      <c r="AK65" s="38"/>
-      <c r="AL65" s="38"/>
-      <c r="AM65" s="38"/>
-      <c r="AN65" s="39"/>
+      <c r="L65" s="39"/>
+      <c r="M65" s="39"/>
+      <c r="N65" s="39"/>
+      <c r="O65" s="39"/>
+      <c r="P65" s="39"/>
+      <c r="Q65" s="39"/>
+      <c r="R65" s="39"/>
+      <c r="S65" s="39"/>
+      <c r="T65" s="39"/>
+      <c r="U65" s="39"/>
+      <c r="V65" s="39"/>
+      <c r="W65" s="39"/>
+      <c r="X65" s="39"/>
+      <c r="Y65" s="39"/>
+      <c r="Z65" s="39"/>
+      <c r="AA65" s="39"/>
+      <c r="AB65" s="39"/>
+      <c r="AC65" s="39"/>
+      <c r="AD65" s="39"/>
+      <c r="AE65" s="39"/>
+      <c r="AF65" s="39"/>
+      <c r="AG65" s="39"/>
+      <c r="AH65" s="39"/>
+      <c r="AI65" s="39"/>
+      <c r="AJ65" s="39"/>
+      <c r="AK65" s="39"/>
+      <c r="AL65" s="39"/>
+      <c r="AM65" s="39"/>
+      <c r="AN65" s="40"/>
     </row>
     <row r="66" spans="1:52" ht="30" customHeight="1" thickBot="1">
-      <c r="D66" s="31" t="s">
+      <c r="D66" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="E66" s="32"/>
-      <c r="F66" s="32"/>
-      <c r="G66" s="32"/>
-      <c r="H66" s="32"/>
-      <c r="I66" s="32"/>
-      <c r="J66" s="33"/>
-      <c r="K66" s="40" t="s">
+      <c r="E66" s="33"/>
+      <c r="F66" s="33"/>
+      <c r="G66" s="33"/>
+      <c r="H66" s="33"/>
+      <c r="I66" s="33"/>
+      <c r="J66" s="34"/>
+      <c r="K66" s="41" t="s">
         <v>44</v>
       </c>
-      <c r="L66" s="41"/>
-      <c r="M66" s="41"/>
-      <c r="N66" s="41"/>
-      <c r="O66" s="41"/>
-      <c r="P66" s="41"/>
-      <c r="Q66" s="41"/>
-      <c r="R66" s="41"/>
-      <c r="S66" s="41"/>
-      <c r="T66" s="41"/>
-      <c r="U66" s="41"/>
-      <c r="V66" s="41"/>
-      <c r="W66" s="41"/>
-      <c r="X66" s="41"/>
-      <c r="Y66" s="41"/>
-      <c r="Z66" s="41"/>
-      <c r="AA66" s="41"/>
-      <c r="AB66" s="41"/>
-      <c r="AC66" s="41"/>
-      <c r="AD66" s="41"/>
-      <c r="AE66" s="41"/>
-      <c r="AF66" s="41"/>
-      <c r="AG66" s="41"/>
-      <c r="AH66" s="41"/>
-      <c r="AI66" s="41"/>
-      <c r="AJ66" s="41"/>
-      <c r="AK66" s="41"/>
-      <c r="AL66" s="41"/>
-      <c r="AM66" s="41"/>
-      <c r="AN66" s="42"/>
+      <c r="L66" s="42"/>
+      <c r="M66" s="42"/>
+      <c r="N66" s="42"/>
+      <c r="O66" s="42"/>
+      <c r="P66" s="42"/>
+      <c r="Q66" s="42"/>
+      <c r="R66" s="42"/>
+      <c r="S66" s="42"/>
+      <c r="T66" s="42"/>
+      <c r="U66" s="42"/>
+      <c r="V66" s="42"/>
+      <c r="W66" s="42"/>
+      <c r="X66" s="42"/>
+      <c r="Y66" s="42"/>
+      <c r="Z66" s="42"/>
+      <c r="AA66" s="42"/>
+      <c r="AB66" s="42"/>
+      <c r="AC66" s="42"/>
+      <c r="AD66" s="42"/>
+      <c r="AE66" s="42"/>
+      <c r="AF66" s="42"/>
+      <c r="AG66" s="42"/>
+      <c r="AH66" s="42"/>
+      <c r="AI66" s="42"/>
+      <c r="AJ66" s="42"/>
+      <c r="AK66" s="42"/>
+      <c r="AL66" s="42"/>
+      <c r="AM66" s="42"/>
+      <c r="AN66" s="43"/>
     </row>
     <row r="69" spans="1:52">
       <c r="A69" s="4"/>
@@ -7312,9 +8081,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:AZ188"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:AZ20"/>
-    </sheetView>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.6640625" defaultRowHeight="14.4"/>
   <sheetData>
@@ -10316,7 +11083,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:AZ249"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
+    <sheetView showGridLines="0" zoomScale="115" zoomScaleNormal="115" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.77734375" defaultRowHeight="14.4"/>
   <sheetData>
@@ -15871,7 +16638,7 @@
       </c>
     </row>
     <row r="237" spans="1:52">
-      <c r="D237" s="68" t="s">
+      <c r="D237" s="31" t="s">
         <v>905</v>
       </c>
       <c r="E237" s="2" t="s">
@@ -15879,7 +16646,7 @@
       </c>
     </row>
     <row r="238" spans="1:52">
-      <c r="D238" s="68" t="s">
+      <c r="D238" s="31" t="s">
         <v>905</v>
       </c>
       <c r="E238" s="2" t="s">
@@ -15887,7 +16654,7 @@
       </c>
     </row>
     <row r="239" spans="1:52">
-      <c r="D239" s="68" t="s">
+      <c r="D239" s="31" t="s">
         <v>905</v>
       </c>
       <c r="E239" s="2" t="s">
@@ -15895,7 +16662,7 @@
       </c>
     </row>
     <row r="240" spans="1:52">
-      <c r="D240" s="68" t="s">
+      <c r="D240" s="31" t="s">
         <v>905</v>
       </c>
       <c r="E240" s="2" t="s">
@@ -15908,7 +16675,7 @@
       </c>
     </row>
     <row r="243" spans="4:5">
-      <c r="D243" s="68" t="s">
+      <c r="D243" s="31" t="s">
         <v>905</v>
       </c>
       <c r="E243" s="2" t="s">
@@ -15926,7 +16693,7 @@
       </c>
     </row>
     <row r="247" spans="4:5">
-      <c r="D247" s="68" t="s">
+      <c r="D247" s="31" t="s">
         <v>905</v>
       </c>
       <c r="E247" s="2" t="s">
@@ -15934,7 +16701,7 @@
       </c>
     </row>
     <row r="248" spans="4:5">
-      <c r="D248" s="68" t="s">
+      <c r="D248" s="31" t="s">
         <v>905</v>
       </c>
       <c r="E248" s="2" t="s">
@@ -15942,7 +16709,7 @@
       </c>
     </row>
     <row r="249" spans="4:5">
-      <c r="D249" s="68" t="s">
+      <c r="D249" s="31" t="s">
         <v>905</v>
       </c>
       <c r="E249" s="2" t="s">
@@ -15958,6 +16725,5880 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:AZ217"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="A196" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D209" sqref="D209"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.77734375" defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="3" spans="1:52">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>906</v>
+      </c>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="4"/>
+      <c r="S3" s="4"/>
+      <c r="T3" s="4"/>
+      <c r="U3" s="4"/>
+      <c r="V3" s="4"/>
+      <c r="W3" s="4"/>
+      <c r="X3" s="4"/>
+      <c r="Y3" s="4"/>
+      <c r="Z3" s="4"/>
+      <c r="AA3" s="4"/>
+      <c r="AB3" s="4"/>
+      <c r="AC3" s="4"/>
+      <c r="AD3" s="4"/>
+      <c r="AE3" s="4"/>
+      <c r="AF3" s="4"/>
+      <c r="AG3" s="4"/>
+      <c r="AH3" s="4"/>
+      <c r="AI3" s="4"/>
+      <c r="AJ3" s="4"/>
+      <c r="AK3" s="4"/>
+      <c r="AL3" s="4"/>
+      <c r="AM3" s="4"/>
+      <c r="AN3" s="4"/>
+      <c r="AO3" s="4"/>
+      <c r="AP3" s="4"/>
+      <c r="AQ3" s="4"/>
+      <c r="AR3" s="4"/>
+      <c r="AS3" s="4"/>
+      <c r="AT3" s="4"/>
+      <c r="AU3" s="4"/>
+      <c r="AV3" s="4"/>
+      <c r="AW3" s="4"/>
+      <c r="AX3" s="4"/>
+      <c r="AY3" s="4"/>
+      <c r="AZ3" s="4"/>
+    </row>
+    <row r="5" spans="1:52">
+      <c r="D5" t="s">
+        <v>907</v>
+      </c>
+    </row>
+    <row r="6" spans="1:52">
+      <c r="D6" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="7" spans="1:52">
+      <c r="D7" t="s">
+        <v>909</v>
+      </c>
+    </row>
+    <row r="8" spans="1:52">
+      <c r="D8" s="69"/>
+      <c r="E8" s="69"/>
+      <c r="F8" s="69"/>
+      <c r="G8" s="69"/>
+      <c r="H8" s="69"/>
+      <c r="I8" s="69"/>
+      <c r="J8" s="69"/>
+      <c r="K8" s="69"/>
+      <c r="L8" s="69"/>
+      <c r="M8" s="69"/>
+      <c r="N8" s="69"/>
+      <c r="O8" s="69"/>
+      <c r="P8" s="69"/>
+      <c r="Q8" s="69"/>
+      <c r="R8" s="69"/>
+      <c r="S8" s="69"/>
+      <c r="T8" s="69"/>
+      <c r="U8" s="69"/>
+      <c r="V8" s="69"/>
+      <c r="W8" s="69"/>
+      <c r="X8" s="69"/>
+      <c r="Y8" s="69"/>
+      <c r="Z8" s="69"/>
+      <c r="AA8" s="69"/>
+      <c r="AB8" s="69"/>
+      <c r="AC8" s="69"/>
+    </row>
+    <row r="9" spans="1:52">
+      <c r="D9" s="69"/>
+      <c r="E9" s="70" t="s">
+        <v>910</v>
+      </c>
+      <c r="F9" s="69"/>
+      <c r="G9" s="69"/>
+      <c r="H9" s="69"/>
+      <c r="I9" s="69"/>
+      <c r="J9" s="69"/>
+      <c r="K9" s="69"/>
+      <c r="L9" s="69"/>
+      <c r="M9" s="69"/>
+      <c r="N9" s="69"/>
+      <c r="O9" s="69"/>
+      <c r="P9" s="69"/>
+      <c r="Q9" s="69"/>
+      <c r="R9" s="69"/>
+      <c r="S9" s="69"/>
+      <c r="T9" s="69"/>
+      <c r="U9" s="69"/>
+      <c r="V9" s="69"/>
+      <c r="W9" s="69"/>
+      <c r="X9" s="69"/>
+      <c r="Y9" s="69"/>
+      <c r="Z9" s="69"/>
+      <c r="AA9" s="69"/>
+      <c r="AB9" s="69"/>
+      <c r="AC9" s="69"/>
+    </row>
+    <row r="10" spans="1:52">
+      <c r="D10" s="69"/>
+      <c r="E10" s="70" t="s">
+        <v>911</v>
+      </c>
+      <c r="F10" s="69"/>
+      <c r="G10" s="69"/>
+      <c r="H10" s="69"/>
+      <c r="I10" s="69"/>
+      <c r="J10" s="69"/>
+      <c r="K10" s="69"/>
+      <c r="L10" s="69"/>
+      <c r="M10" s="69"/>
+      <c r="N10" s="69"/>
+      <c r="O10" s="69"/>
+      <c r="P10" s="69"/>
+      <c r="Q10" s="69"/>
+      <c r="R10" s="69"/>
+      <c r="S10" s="69"/>
+      <c r="T10" s="69"/>
+      <c r="U10" s="69"/>
+      <c r="V10" s="69"/>
+      <c r="W10" s="69"/>
+      <c r="X10" s="69"/>
+      <c r="Y10" s="69"/>
+      <c r="Z10" s="69"/>
+      <c r="AA10" s="69"/>
+      <c r="AB10" s="69"/>
+      <c r="AC10" s="69"/>
+    </row>
+    <row r="11" spans="1:52">
+      <c r="D11" s="69"/>
+      <c r="E11" s="69"/>
+      <c r="F11" s="69"/>
+      <c r="G11" s="69"/>
+      <c r="H11" s="69"/>
+      <c r="I11" s="69"/>
+      <c r="J11" s="69"/>
+      <c r="K11" s="69"/>
+      <c r="L11" s="69"/>
+      <c r="M11" s="69"/>
+      <c r="N11" s="69"/>
+      <c r="O11" s="69"/>
+      <c r="P11" s="69"/>
+      <c r="Q11" s="69"/>
+      <c r="R11" s="69"/>
+      <c r="S11" s="69"/>
+      <c r="T11" s="69"/>
+      <c r="U11" s="69"/>
+      <c r="V11" s="69"/>
+      <c r="W11" s="69"/>
+      <c r="X11" s="69"/>
+      <c r="Y11" s="69"/>
+      <c r="Z11" s="69"/>
+      <c r="AA11" s="69"/>
+      <c r="AB11" s="69"/>
+      <c r="AC11" s="69"/>
+    </row>
+    <row r="13" spans="1:52">
+      <c r="D13" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="14" spans="1:52">
+      <c r="D14" t="s">
+        <v>913</v>
+      </c>
+    </row>
+    <row r="17" spans="1:52">
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>914</v>
+      </c>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
+      <c r="M17" s="4"/>
+      <c r="N17" s="4"/>
+      <c r="O17" s="4"/>
+      <c r="P17" s="4"/>
+      <c r="Q17" s="4"/>
+      <c r="R17" s="4"/>
+      <c r="S17" s="4"/>
+      <c r="T17" s="4"/>
+      <c r="U17" s="4"/>
+      <c r="V17" s="4"/>
+      <c r="W17" s="4"/>
+      <c r="X17" s="4"/>
+      <c r="Y17" s="4"/>
+      <c r="Z17" s="4"/>
+      <c r="AA17" s="4"/>
+      <c r="AB17" s="4"/>
+      <c r="AC17" s="4"/>
+      <c r="AD17" s="4"/>
+      <c r="AE17" s="4"/>
+      <c r="AF17" s="4"/>
+      <c r="AG17" s="4"/>
+      <c r="AH17" s="4"/>
+      <c r="AI17" s="4"/>
+      <c r="AJ17" s="4"/>
+      <c r="AK17" s="4"/>
+      <c r="AL17" s="4"/>
+      <c r="AM17" s="4"/>
+      <c r="AN17" s="4"/>
+      <c r="AO17" s="4"/>
+      <c r="AP17" s="4"/>
+      <c r="AQ17" s="4"/>
+      <c r="AR17" s="4"/>
+      <c r="AS17" s="4"/>
+      <c r="AT17" s="4"/>
+      <c r="AU17" s="4"/>
+      <c r="AV17" s="4"/>
+      <c r="AW17" s="4"/>
+      <c r="AX17" s="4"/>
+      <c r="AY17" s="4"/>
+      <c r="AZ17" s="4"/>
+    </row>
+    <row r="19" spans="1:52">
+      <c r="D19" s="2" t="s">
+        <v>915</v>
+      </c>
+    </row>
+    <row r="20" spans="1:52">
+      <c r="D20" s="2" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="21" spans="1:52">
+      <c r="D21" s="2" t="s">
+        <v>917</v>
+      </c>
+    </row>
+    <row r="22" spans="1:52">
+      <c r="D22" s="2" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="37" spans="1:52">
+      <c r="A37" s="4"/>
+      <c r="B37" s="4"/>
+      <c r="C37" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>919</v>
+      </c>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="4"/>
+      <c r="H37" s="4"/>
+      <c r="I37" s="4"/>
+      <c r="J37" s="4"/>
+      <c r="K37" s="4"/>
+      <c r="L37" s="4"/>
+      <c r="M37" s="4"/>
+      <c r="N37" s="4"/>
+      <c r="O37" s="4"/>
+      <c r="P37" s="4"/>
+      <c r="Q37" s="4"/>
+      <c r="R37" s="4"/>
+      <c r="S37" s="4"/>
+      <c r="T37" s="4"/>
+      <c r="U37" s="4"/>
+      <c r="V37" s="4"/>
+      <c r="W37" s="4"/>
+      <c r="X37" s="4"/>
+      <c r="Y37" s="4"/>
+      <c r="Z37" s="4"/>
+      <c r="AA37" s="4"/>
+      <c r="AB37" s="4"/>
+      <c r="AC37" s="4"/>
+      <c r="AD37" s="4"/>
+      <c r="AE37" s="4"/>
+      <c r="AF37" s="4"/>
+      <c r="AG37" s="4"/>
+      <c r="AH37" s="4"/>
+      <c r="AI37" s="4"/>
+      <c r="AJ37" s="4"/>
+      <c r="AK37" s="4"/>
+      <c r="AL37" s="4"/>
+      <c r="AM37" s="4"/>
+      <c r="AN37" s="4"/>
+      <c r="AO37" s="4"/>
+      <c r="AP37" s="4"/>
+      <c r="AQ37" s="4"/>
+      <c r="AR37" s="4"/>
+      <c r="AS37" s="4"/>
+      <c r="AT37" s="4"/>
+      <c r="AU37" s="4"/>
+      <c r="AV37" s="4"/>
+      <c r="AW37" s="4"/>
+      <c r="AX37" s="4"/>
+      <c r="AY37" s="4"/>
+      <c r="AZ37" s="4"/>
+    </row>
+    <row r="39" spans="1:52">
+      <c r="D39" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="40" spans="1:52">
+      <c r="D40" s="5" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="53" spans="4:18">
+      <c r="D53" s="3" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="54" spans="4:18">
+      <c r="D54" s="10"/>
+      <c r="E54" s="10"/>
+      <c r="F54" s="10"/>
+      <c r="G54" s="10"/>
+      <c r="H54" s="10"/>
+      <c r="I54" s="10"/>
+      <c r="J54" s="10"/>
+      <c r="K54" s="10"/>
+      <c r="L54" s="10"/>
+      <c r="M54" s="10"/>
+      <c r="N54" s="10"/>
+      <c r="O54" s="10"/>
+      <c r="P54" s="10"/>
+      <c r="Q54" s="10"/>
+      <c r="R54" s="10"/>
+    </row>
+    <row r="55" spans="4:18">
+      <c r="D55" s="10"/>
+      <c r="E55" s="7" t="s">
+        <v>813</v>
+      </c>
+      <c r="F55" s="7"/>
+      <c r="G55" s="10"/>
+      <c r="H55" s="10"/>
+      <c r="I55" s="10"/>
+      <c r="J55" s="10"/>
+      <c r="K55" s="10"/>
+      <c r="L55" s="10"/>
+      <c r="M55" s="10"/>
+      <c r="N55" s="10"/>
+      <c r="O55" s="10"/>
+      <c r="P55" s="10"/>
+      <c r="Q55" s="10"/>
+      <c r="R55" s="10"/>
+    </row>
+    <row r="56" spans="4:18">
+      <c r="D56" s="10"/>
+      <c r="E56" s="7" t="s">
+        <v>814</v>
+      </c>
+      <c r="F56" s="7"/>
+      <c r="G56" s="10"/>
+      <c r="H56" s="10"/>
+      <c r="I56" s="10"/>
+      <c r="J56" s="10"/>
+      <c r="K56" s="10"/>
+      <c r="L56" s="10"/>
+      <c r="M56" s="10"/>
+      <c r="N56" s="10"/>
+      <c r="O56" s="10"/>
+      <c r="P56" s="10"/>
+      <c r="Q56" s="10"/>
+      <c r="R56" s="10"/>
+    </row>
+    <row r="57" spans="4:18">
+      <c r="D57" s="10"/>
+      <c r="E57" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="F57" s="7"/>
+      <c r="G57" s="10"/>
+      <c r="H57" s="10"/>
+      <c r="I57" s="10"/>
+      <c r="J57" s="10"/>
+      <c r="K57" s="10"/>
+      <c r="L57" s="10"/>
+      <c r="M57" s="10"/>
+      <c r="N57" s="10"/>
+      <c r="O57" s="10"/>
+      <c r="P57" s="10"/>
+      <c r="Q57" s="10"/>
+      <c r="R57" s="10"/>
+    </row>
+    <row r="58" spans="4:18">
+      <c r="D58" s="10"/>
+      <c r="E58" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="F58" s="7"/>
+      <c r="G58" s="10"/>
+      <c r="H58" s="10"/>
+      <c r="I58" s="10"/>
+      <c r="J58" s="10"/>
+      <c r="K58" s="10"/>
+      <c r="L58" s="10"/>
+      <c r="M58" s="10"/>
+      <c r="N58" s="10"/>
+      <c r="O58" s="10"/>
+      <c r="P58" s="10"/>
+      <c r="Q58" s="10"/>
+      <c r="R58" s="10"/>
+    </row>
+    <row r="59" spans="4:18">
+      <c r="D59" s="10"/>
+      <c r="E59" s="7"/>
+      <c r="F59" s="7" t="s">
+        <v>815</v>
+      </c>
+      <c r="G59" s="10"/>
+      <c r="H59" s="10"/>
+      <c r="I59" s="10"/>
+      <c r="J59" s="10"/>
+      <c r="K59" s="10"/>
+      <c r="L59" s="10"/>
+      <c r="M59" s="10"/>
+      <c r="N59" s="10"/>
+      <c r="O59" s="10"/>
+      <c r="P59" s="10"/>
+      <c r="Q59" s="10"/>
+      <c r="R59" s="10"/>
+    </row>
+    <row r="60" spans="4:18">
+      <c r="D60" s="10"/>
+      <c r="E60" s="7"/>
+      <c r="F60" s="7" t="s">
+        <v>824</v>
+      </c>
+      <c r="G60" s="10"/>
+      <c r="H60" s="10"/>
+      <c r="I60" s="10"/>
+      <c r="J60" s="10"/>
+      <c r="K60" s="10"/>
+      <c r="L60" s="10"/>
+      <c r="M60" s="10"/>
+      <c r="N60" s="10"/>
+      <c r="O60" s="10"/>
+      <c r="P60" s="10"/>
+      <c r="Q60" s="10"/>
+      <c r="R60" s="10"/>
+    </row>
+    <row r="61" spans="4:18">
+      <c r="D61" s="10"/>
+      <c r="E61" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="F61" s="7"/>
+      <c r="G61" s="10"/>
+      <c r="H61" s="10"/>
+      <c r="I61" s="10"/>
+      <c r="J61" s="10"/>
+      <c r="K61" s="10"/>
+      <c r="L61" s="10"/>
+      <c r="M61" s="10"/>
+      <c r="N61" s="10"/>
+      <c r="O61" s="10"/>
+      <c r="P61" s="10"/>
+      <c r="Q61" s="10"/>
+      <c r="R61" s="10"/>
+    </row>
+    <row r="62" spans="4:18">
+      <c r="D62" s="10"/>
+      <c r="E62" s="10"/>
+      <c r="F62" s="10"/>
+      <c r="G62" s="10"/>
+      <c r="H62" s="10"/>
+      <c r="I62" s="10"/>
+      <c r="J62" s="10"/>
+      <c r="K62" s="10"/>
+      <c r="L62" s="10"/>
+      <c r="M62" s="10"/>
+      <c r="N62" s="10"/>
+      <c r="O62" s="10"/>
+      <c r="P62" s="10"/>
+      <c r="Q62" s="10"/>
+      <c r="R62" s="10"/>
+    </row>
+    <row r="64" spans="4:18">
+      <c r="D64" s="3" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="65" spans="4:19">
+      <c r="D65" s="10"/>
+      <c r="E65" s="10"/>
+      <c r="F65" s="10"/>
+      <c r="G65" s="10"/>
+      <c r="H65" s="10"/>
+      <c r="I65" s="10"/>
+      <c r="J65" s="10"/>
+      <c r="K65" s="10"/>
+      <c r="L65" s="10"/>
+      <c r="M65" s="10"/>
+      <c r="N65" s="10"/>
+      <c r="O65" s="10"/>
+      <c r="P65" s="10"/>
+      <c r="Q65" s="10"/>
+      <c r="R65" s="10"/>
+    </row>
+    <row r="66" spans="4:19">
+      <c r="D66" s="10"/>
+      <c r="E66" s="7" t="s">
+        <v>924</v>
+      </c>
+      <c r="F66" s="7"/>
+      <c r="G66" s="7"/>
+      <c r="H66" s="10"/>
+      <c r="I66" s="10"/>
+      <c r="J66" s="10"/>
+      <c r="K66" s="10"/>
+      <c r="L66" s="10"/>
+      <c r="M66" s="10"/>
+      <c r="N66" s="10"/>
+      <c r="O66" s="10"/>
+      <c r="P66" s="10"/>
+      <c r="Q66" s="10"/>
+      <c r="R66" s="10"/>
+    </row>
+    <row r="67" spans="4:19">
+      <c r="D67" s="10"/>
+      <c r="E67" s="7" t="s">
+        <v>925</v>
+      </c>
+      <c r="F67" s="7"/>
+      <c r="G67" s="7"/>
+      <c r="H67" s="10"/>
+      <c r="I67" s="10"/>
+      <c r="J67" s="10"/>
+      <c r="K67" s="10"/>
+      <c r="L67" s="10"/>
+      <c r="M67" s="10"/>
+      <c r="N67" s="10"/>
+      <c r="O67" s="10"/>
+      <c r="P67" s="10"/>
+      <c r="Q67" s="10"/>
+      <c r="R67" s="10"/>
+    </row>
+    <row r="68" spans="4:19">
+      <c r="D68" s="10"/>
+      <c r="E68" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="F68" s="7"/>
+      <c r="G68" s="7"/>
+      <c r="H68" s="10"/>
+      <c r="I68" s="10"/>
+      <c r="J68" s="10"/>
+      <c r="K68" s="10"/>
+      <c r="L68" s="10"/>
+      <c r="M68" s="10"/>
+      <c r="N68" s="10"/>
+      <c r="O68" s="10"/>
+      <c r="P68" s="10"/>
+      <c r="Q68" s="10"/>
+      <c r="R68" s="10"/>
+    </row>
+    <row r="69" spans="4:19">
+      <c r="D69" s="10"/>
+      <c r="E69" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="F69" s="7"/>
+      <c r="G69" s="7"/>
+      <c r="H69" s="10"/>
+      <c r="I69" s="10"/>
+      <c r="J69" s="10"/>
+      <c r="K69" s="10"/>
+      <c r="L69" s="10"/>
+      <c r="M69" s="10"/>
+      <c r="N69" s="10"/>
+      <c r="O69" s="10"/>
+      <c r="P69" s="10"/>
+      <c r="Q69" s="10"/>
+      <c r="R69" s="10"/>
+    </row>
+    <row r="70" spans="4:19">
+      <c r="D70" s="10"/>
+      <c r="E70" s="7"/>
+      <c r="F70" s="7" t="s">
+        <v>926</v>
+      </c>
+      <c r="G70" s="7"/>
+      <c r="H70" s="10"/>
+      <c r="I70" s="10"/>
+      <c r="J70" s="10"/>
+      <c r="K70" s="10"/>
+      <c r="L70" s="10"/>
+      <c r="M70" s="10"/>
+      <c r="N70" s="10"/>
+      <c r="O70" s="10"/>
+      <c r="P70" s="10"/>
+      <c r="Q70" s="10"/>
+      <c r="R70" s="10"/>
+    </row>
+    <row r="71" spans="4:19">
+      <c r="D71" s="10"/>
+      <c r="E71" s="7"/>
+      <c r="F71" s="7" t="s">
+        <v>842</v>
+      </c>
+      <c r="G71" s="7"/>
+      <c r="H71" s="10"/>
+      <c r="I71" s="10"/>
+      <c r="J71" s="10"/>
+      <c r="K71" s="10"/>
+      <c r="L71" s="10"/>
+      <c r="M71" s="10"/>
+      <c r="N71" s="10"/>
+      <c r="O71" s="10"/>
+      <c r="P71" s="10"/>
+      <c r="Q71" s="10"/>
+      <c r="R71" s="10"/>
+    </row>
+    <row r="72" spans="4:19">
+      <c r="D72" s="10"/>
+      <c r="E72" s="7"/>
+      <c r="F72" s="7"/>
+      <c r="G72" s="7" t="s">
+        <v>927</v>
+      </c>
+      <c r="H72" s="10"/>
+      <c r="I72" s="10"/>
+      <c r="J72" s="10"/>
+      <c r="K72" s="10"/>
+      <c r="L72" s="10"/>
+      <c r="M72" s="10"/>
+      <c r="N72" s="10"/>
+      <c r="O72" s="10"/>
+      <c r="P72" s="10"/>
+      <c r="Q72" s="10"/>
+      <c r="R72" s="10"/>
+    </row>
+    <row r="73" spans="4:19">
+      <c r="D73" s="10"/>
+      <c r="E73" s="7"/>
+      <c r="F73" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="G73" s="7"/>
+      <c r="H73" s="10"/>
+      <c r="I73" s="10"/>
+      <c r="J73" s="10"/>
+      <c r="K73" s="10"/>
+      <c r="L73" s="10"/>
+      <c r="M73" s="10"/>
+      <c r="N73" s="10"/>
+      <c r="O73" s="10"/>
+      <c r="P73" s="10"/>
+      <c r="Q73" s="10"/>
+      <c r="R73" s="10"/>
+    </row>
+    <row r="74" spans="4:19">
+      <c r="D74" s="10"/>
+      <c r="E74" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="F74" s="7"/>
+      <c r="G74" s="7"/>
+      <c r="H74" s="10"/>
+      <c r="I74" s="10"/>
+      <c r="J74" s="10"/>
+      <c r="K74" s="10"/>
+      <c r="L74" s="10"/>
+      <c r="M74" s="10"/>
+      <c r="N74" s="10"/>
+      <c r="O74" s="10"/>
+      <c r="P74" s="10"/>
+      <c r="Q74" s="10"/>
+      <c r="R74" s="10"/>
+    </row>
+    <row r="75" spans="4:19">
+      <c r="D75" s="10"/>
+      <c r="E75" s="10"/>
+      <c r="F75" s="10"/>
+      <c r="G75" s="10"/>
+      <c r="H75" s="10"/>
+      <c r="I75" s="10"/>
+      <c r="J75" s="10"/>
+      <c r="K75" s="10"/>
+      <c r="L75" s="10"/>
+      <c r="M75" s="10"/>
+      <c r="N75" s="10"/>
+      <c r="O75" s="10"/>
+      <c r="P75" s="10"/>
+      <c r="Q75" s="10"/>
+      <c r="R75" s="10"/>
+    </row>
+    <row r="77" spans="4:19">
+      <c r="D77" s="3" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="78" spans="4:19">
+      <c r="D78" s="2" t="s">
+        <v>929</v>
+      </c>
+    </row>
+    <row r="79" spans="4:19">
+      <c r="D79" s="10"/>
+      <c r="E79" s="10"/>
+      <c r="F79" s="10"/>
+      <c r="G79" s="10"/>
+      <c r="H79" s="10"/>
+      <c r="I79" s="10"/>
+      <c r="J79" s="10"/>
+      <c r="K79" s="10"/>
+      <c r="L79" s="10"/>
+      <c r="M79" s="10"/>
+      <c r="N79" s="10"/>
+      <c r="O79" s="10"/>
+      <c r="P79" s="10"/>
+      <c r="Q79" s="10"/>
+      <c r="R79" s="10"/>
+      <c r="S79" s="10"/>
+    </row>
+    <row r="80" spans="4:19">
+      <c r="D80" s="10"/>
+      <c r="E80" s="7" t="s">
+        <v>930</v>
+      </c>
+      <c r="F80" s="7"/>
+      <c r="G80" s="7"/>
+      <c r="H80" s="10"/>
+      <c r="I80" s="10"/>
+      <c r="J80" s="10"/>
+      <c r="K80" s="10"/>
+      <c r="L80" s="10"/>
+      <c r="M80" s="10"/>
+      <c r="N80" s="10"/>
+      <c r="O80" s="10"/>
+      <c r="P80" s="10"/>
+      <c r="Q80" s="10"/>
+      <c r="R80" s="10"/>
+      <c r="S80" s="10"/>
+    </row>
+    <row r="81" spans="4:19">
+      <c r="D81" s="10"/>
+      <c r="E81" s="7" t="s">
+        <v>931</v>
+      </c>
+      <c r="F81" s="7"/>
+      <c r="G81" s="7"/>
+      <c r="H81" s="10"/>
+      <c r="I81" s="10"/>
+      <c r="J81" s="10"/>
+      <c r="K81" s="10"/>
+      <c r="L81" s="10"/>
+      <c r="M81" s="10"/>
+      <c r="N81" s="10"/>
+      <c r="O81" s="10"/>
+      <c r="P81" s="10"/>
+      <c r="Q81" s="10"/>
+      <c r="R81" s="10"/>
+      <c r="S81" s="10"/>
+    </row>
+    <row r="82" spans="4:19">
+      <c r="D82" s="10"/>
+      <c r="E82" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="F82" s="7"/>
+      <c r="G82" s="7"/>
+      <c r="H82" s="10"/>
+      <c r="I82" s="10"/>
+      <c r="J82" s="10"/>
+      <c r="K82" s="10"/>
+      <c r="L82" s="10"/>
+      <c r="M82" s="10"/>
+      <c r="N82" s="10"/>
+      <c r="O82" s="10"/>
+      <c r="P82" s="10"/>
+      <c r="Q82" s="10"/>
+      <c r="R82" s="10"/>
+      <c r="S82" s="10"/>
+    </row>
+    <row r="83" spans="4:19">
+      <c r="D83" s="10"/>
+      <c r="E83" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="F83" s="7"/>
+      <c r="G83" s="7"/>
+      <c r="H83" s="10"/>
+      <c r="I83" s="10"/>
+      <c r="J83" s="10"/>
+      <c r="K83" s="10"/>
+      <c r="L83" s="10"/>
+      <c r="M83" s="10"/>
+      <c r="N83" s="10"/>
+      <c r="O83" s="10"/>
+      <c r="P83" s="10"/>
+      <c r="Q83" s="10"/>
+      <c r="R83" s="10"/>
+      <c r="S83" s="10"/>
+    </row>
+    <row r="84" spans="4:19">
+      <c r="D84" s="10"/>
+      <c r="E84" s="7"/>
+      <c r="F84" s="7" t="s">
+        <v>932</v>
+      </c>
+      <c r="G84" s="7"/>
+      <c r="H84" s="10"/>
+      <c r="I84" s="10"/>
+      <c r="J84" s="10"/>
+      <c r="K84" s="10"/>
+      <c r="L84" s="10"/>
+      <c r="M84" s="10"/>
+      <c r="N84" s="10"/>
+      <c r="O84" s="10"/>
+      <c r="P84" s="10"/>
+      <c r="Q84" s="10"/>
+      <c r="R84" s="10"/>
+      <c r="S84" s="10"/>
+    </row>
+    <row r="85" spans="4:19">
+      <c r="D85" s="10"/>
+      <c r="E85" s="7"/>
+      <c r="F85" s="7" t="s">
+        <v>933</v>
+      </c>
+      <c r="G85" s="7"/>
+      <c r="H85" s="10"/>
+      <c r="I85" s="10"/>
+      <c r="J85" s="10"/>
+      <c r="K85" s="10"/>
+      <c r="L85" s="10"/>
+      <c r="M85" s="10"/>
+      <c r="N85" s="10"/>
+      <c r="O85" s="10"/>
+      <c r="P85" s="10"/>
+      <c r="Q85" s="10"/>
+      <c r="R85" s="10"/>
+      <c r="S85" s="10"/>
+    </row>
+    <row r="86" spans="4:19">
+      <c r="D86" s="10"/>
+      <c r="E86" s="7"/>
+      <c r="F86" s="7"/>
+      <c r="G86" s="7" t="s">
+        <v>934</v>
+      </c>
+      <c r="H86" s="10"/>
+      <c r="I86" s="10"/>
+      <c r="J86" s="10"/>
+      <c r="K86" s="10"/>
+      <c r="L86" s="10"/>
+      <c r="M86" s="10"/>
+      <c r="N86" s="10"/>
+      <c r="O86" s="10"/>
+      <c r="P86" s="10"/>
+      <c r="Q86" s="10"/>
+      <c r="R86" s="10"/>
+      <c r="S86" s="10"/>
+    </row>
+    <row r="87" spans="4:19">
+      <c r="D87" s="10"/>
+      <c r="E87" s="7"/>
+      <c r="F87" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="G87" s="7"/>
+      <c r="H87" s="10"/>
+      <c r="I87" s="10"/>
+      <c r="J87" s="10"/>
+      <c r="K87" s="10"/>
+      <c r="L87" s="10"/>
+      <c r="M87" s="10"/>
+      <c r="N87" s="10"/>
+      <c r="O87" s="10"/>
+      <c r="P87" s="10"/>
+      <c r="Q87" s="10"/>
+      <c r="R87" s="10"/>
+      <c r="S87" s="10"/>
+    </row>
+    <row r="88" spans="4:19">
+      <c r="D88" s="10"/>
+      <c r="E88" s="7"/>
+      <c r="F88" s="7" t="s">
+        <v>842</v>
+      </c>
+      <c r="G88" s="7"/>
+      <c r="H88" s="10"/>
+      <c r="I88" s="10"/>
+      <c r="J88" s="10"/>
+      <c r="K88" s="10"/>
+      <c r="L88" s="10"/>
+      <c r="M88" s="10"/>
+      <c r="N88" s="10"/>
+      <c r="O88" s="10"/>
+      <c r="P88" s="10"/>
+      <c r="Q88" s="10"/>
+      <c r="R88" s="10"/>
+      <c r="S88" s="10"/>
+    </row>
+    <row r="89" spans="4:19">
+      <c r="D89" s="10"/>
+      <c r="E89" s="7"/>
+      <c r="F89" s="7"/>
+      <c r="G89" s="7" t="s">
+        <v>935</v>
+      </c>
+      <c r="H89" s="10"/>
+      <c r="I89" s="10"/>
+      <c r="J89" s="10"/>
+      <c r="K89" s="10"/>
+      <c r="L89" s="10"/>
+      <c r="M89" s="10"/>
+      <c r="N89" s="10"/>
+      <c r="O89" s="10"/>
+      <c r="P89" s="10"/>
+      <c r="Q89" s="10"/>
+      <c r="R89" s="10"/>
+      <c r="S89" s="10"/>
+    </row>
+    <row r="90" spans="4:19">
+      <c r="D90" s="10"/>
+      <c r="E90" s="7"/>
+      <c r="F90" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="G90" s="7"/>
+      <c r="H90" s="10"/>
+      <c r="I90" s="10"/>
+      <c r="J90" s="10"/>
+      <c r="K90" s="10"/>
+      <c r="L90" s="10"/>
+      <c r="M90" s="10"/>
+      <c r="N90" s="10"/>
+      <c r="O90" s="10"/>
+      <c r="P90" s="10"/>
+      <c r="Q90" s="10"/>
+      <c r="R90" s="10"/>
+      <c r="S90" s="10"/>
+    </row>
+    <row r="91" spans="4:19">
+      <c r="D91" s="10"/>
+      <c r="E91" s="7"/>
+      <c r="F91" s="7" t="s">
+        <v>936</v>
+      </c>
+      <c r="G91" s="7"/>
+      <c r="H91" s="10"/>
+      <c r="I91" s="10"/>
+      <c r="J91" s="10"/>
+      <c r="K91" s="10"/>
+      <c r="L91" s="10"/>
+      <c r="M91" s="10"/>
+      <c r="N91" s="10"/>
+      <c r="O91" s="10"/>
+      <c r="P91" s="10"/>
+      <c r="Q91" s="10"/>
+      <c r="R91" s="10"/>
+      <c r="S91" s="10"/>
+    </row>
+    <row r="92" spans="4:19">
+      <c r="D92" s="10"/>
+      <c r="E92" s="7"/>
+      <c r="F92" s="7"/>
+      <c r="G92" s="7" t="s">
+        <v>937</v>
+      </c>
+      <c r="H92" s="10"/>
+      <c r="I92" s="10"/>
+      <c r="J92" s="10"/>
+      <c r="K92" s="10"/>
+      <c r="L92" s="10"/>
+      <c r="M92" s="10"/>
+      <c r="N92" s="10"/>
+      <c r="O92" s="10"/>
+      <c r="P92" s="10"/>
+      <c r="Q92" s="10"/>
+      <c r="R92" s="10"/>
+      <c r="S92" s="10"/>
+    </row>
+    <row r="93" spans="4:19">
+      <c r="D93" s="10"/>
+      <c r="E93" s="7"/>
+      <c r="F93" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="G93" s="7"/>
+      <c r="H93" s="10"/>
+      <c r="I93" s="10"/>
+      <c r="J93" s="10"/>
+      <c r="K93" s="10"/>
+      <c r="L93" s="10"/>
+      <c r="M93" s="10"/>
+      <c r="N93" s="10"/>
+      <c r="O93" s="10"/>
+      <c r="P93" s="10"/>
+      <c r="Q93" s="10"/>
+      <c r="R93" s="10"/>
+      <c r="S93" s="10"/>
+    </row>
+    <row r="94" spans="4:19">
+      <c r="D94" s="10"/>
+      <c r="E94" s="7"/>
+      <c r="F94" s="7" t="s">
+        <v>938</v>
+      </c>
+      <c r="G94" s="7"/>
+      <c r="H94" s="10"/>
+      <c r="I94" s="10"/>
+      <c r="J94" s="10"/>
+      <c r="K94" s="10"/>
+      <c r="L94" s="10"/>
+      <c r="M94" s="10"/>
+      <c r="N94" s="10"/>
+      <c r="O94" s="10"/>
+      <c r="P94" s="10"/>
+      <c r="Q94" s="10"/>
+      <c r="R94" s="10"/>
+      <c r="S94" s="10"/>
+    </row>
+    <row r="95" spans="4:19">
+      <c r="D95" s="10"/>
+      <c r="E95" s="7"/>
+      <c r="F95" s="7"/>
+      <c r="G95" s="7" t="s">
+        <v>934</v>
+      </c>
+      <c r="H95" s="10"/>
+      <c r="I95" s="10"/>
+      <c r="J95" s="10"/>
+      <c r="K95" s="10"/>
+      <c r="L95" s="10"/>
+      <c r="M95" s="10"/>
+      <c r="N95" s="10"/>
+      <c r="O95" s="10"/>
+      <c r="P95" s="10"/>
+      <c r="Q95" s="10"/>
+      <c r="R95" s="10"/>
+      <c r="S95" s="10"/>
+    </row>
+    <row r="96" spans="4:19">
+      <c r="D96" s="10"/>
+      <c r="E96" s="7"/>
+      <c r="F96" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="G96" s="7"/>
+      <c r="H96" s="10"/>
+      <c r="I96" s="10"/>
+      <c r="J96" s="10"/>
+      <c r="K96" s="10"/>
+      <c r="L96" s="10"/>
+      <c r="M96" s="10"/>
+      <c r="N96" s="10"/>
+      <c r="O96" s="10"/>
+      <c r="P96" s="10"/>
+      <c r="Q96" s="10"/>
+      <c r="R96" s="10"/>
+      <c r="S96" s="10"/>
+    </row>
+    <row r="97" spans="4:22">
+      <c r="D97" s="10"/>
+      <c r="E97" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="F97" s="7"/>
+      <c r="G97" s="7"/>
+      <c r="H97" s="10"/>
+      <c r="I97" s="10"/>
+      <c r="J97" s="10"/>
+      <c r="K97" s="10"/>
+      <c r="L97" s="10"/>
+      <c r="M97" s="10"/>
+      <c r="N97" s="10"/>
+      <c r="O97" s="10"/>
+      <c r="P97" s="10"/>
+      <c r="Q97" s="10"/>
+      <c r="R97" s="10"/>
+      <c r="S97" s="10"/>
+    </row>
+    <row r="98" spans="4:22">
+      <c r="D98" s="10"/>
+      <c r="E98" s="7"/>
+      <c r="F98" s="7" t="s">
+        <v>939</v>
+      </c>
+      <c r="G98" s="7"/>
+      <c r="H98" s="10"/>
+      <c r="I98" s="10"/>
+      <c r="J98" s="10"/>
+      <c r="K98" s="10"/>
+      <c r="L98" s="10"/>
+      <c r="M98" s="10"/>
+      <c r="N98" s="10"/>
+      <c r="O98" s="10"/>
+      <c r="P98" s="10"/>
+      <c r="Q98" s="10"/>
+      <c r="R98" s="10"/>
+      <c r="S98" s="10"/>
+    </row>
+    <row r="99" spans="4:22">
+      <c r="D99" s="10"/>
+      <c r="E99" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="F99" s="7"/>
+      <c r="G99" s="7"/>
+      <c r="H99" s="10"/>
+      <c r="I99" s="10"/>
+      <c r="J99" s="10"/>
+      <c r="K99" s="10"/>
+      <c r="L99" s="10"/>
+      <c r="M99" s="10"/>
+      <c r="N99" s="10"/>
+      <c r="O99" s="10"/>
+      <c r="P99" s="10"/>
+      <c r="Q99" s="10"/>
+      <c r="R99" s="10"/>
+      <c r="S99" s="10"/>
+    </row>
+    <row r="100" spans="4:22">
+      <c r="D100" s="10"/>
+      <c r="E100" s="10"/>
+      <c r="F100" s="10"/>
+      <c r="G100" s="10"/>
+      <c r="H100" s="10"/>
+      <c r="I100" s="10"/>
+      <c r="J100" s="10"/>
+      <c r="K100" s="10"/>
+      <c r="L100" s="10"/>
+      <c r="M100" s="10"/>
+      <c r="N100" s="10"/>
+      <c r="O100" s="10"/>
+      <c r="P100" s="10"/>
+      <c r="Q100" s="10"/>
+      <c r="R100" s="10"/>
+      <c r="S100" s="10"/>
+    </row>
+    <row r="101" spans="4:22">
+      <c r="D101" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="103" spans="4:22">
+      <c r="D103" s="2" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="104" spans="4:22">
+      <c r="D104" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="105" spans="4:22">
+      <c r="D105" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="106" spans="4:22">
+      <c r="D106" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="107" spans="4:22">
+      <c r="D107" s="10"/>
+      <c r="E107" s="10"/>
+      <c r="F107" s="10"/>
+      <c r="G107" s="10"/>
+      <c r="H107" s="10"/>
+      <c r="I107" s="10"/>
+      <c r="J107" s="10"/>
+      <c r="K107" s="10"/>
+      <c r="L107" s="10"/>
+      <c r="M107" s="10"/>
+      <c r="N107" s="10"/>
+      <c r="O107" s="10"/>
+      <c r="P107" s="10"/>
+      <c r="Q107" s="10"/>
+      <c r="R107" s="10"/>
+      <c r="S107" s="10"/>
+      <c r="T107" s="10"/>
+      <c r="U107" s="10"/>
+      <c r="V107" s="10"/>
+    </row>
+    <row r="108" spans="4:22">
+      <c r="D108" s="10"/>
+      <c r="E108" s="7" t="s">
+        <v>945</v>
+      </c>
+      <c r="F108" s="7"/>
+      <c r="G108" s="7"/>
+      <c r="H108" s="10"/>
+      <c r="I108" s="10"/>
+      <c r="J108" s="10"/>
+      <c r="K108" s="10"/>
+      <c r="L108" s="10"/>
+      <c r="M108" s="10"/>
+      <c r="N108" s="10"/>
+      <c r="O108" s="10"/>
+      <c r="P108" s="10"/>
+      <c r="Q108" s="10"/>
+      <c r="R108" s="10"/>
+      <c r="S108" s="10"/>
+      <c r="T108" s="10"/>
+      <c r="U108" s="10"/>
+      <c r="V108" s="10"/>
+    </row>
+    <row r="109" spans="4:22">
+      <c r="D109" s="10"/>
+      <c r="E109" s="7" t="s">
+        <v>946</v>
+      </c>
+      <c r="F109" s="7"/>
+      <c r="G109" s="7"/>
+      <c r="H109" s="10"/>
+      <c r="I109" s="10"/>
+      <c r="J109" s="10"/>
+      <c r="K109" s="10"/>
+      <c r="L109" s="10"/>
+      <c r="M109" s="10"/>
+      <c r="N109" s="10"/>
+      <c r="O109" s="10"/>
+      <c r="P109" s="10"/>
+      <c r="Q109" s="10"/>
+      <c r="R109" s="10"/>
+      <c r="S109" s="10"/>
+      <c r="T109" s="10"/>
+      <c r="U109" s="10"/>
+      <c r="V109" s="10"/>
+    </row>
+    <row r="110" spans="4:22">
+      <c r="D110" s="10"/>
+      <c r="E110" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="F110" s="7"/>
+      <c r="G110" s="7"/>
+      <c r="H110" s="10"/>
+      <c r="I110" s="10"/>
+      <c r="J110" s="10"/>
+      <c r="K110" s="10"/>
+      <c r="L110" s="10"/>
+      <c r="M110" s="10"/>
+      <c r="N110" s="10"/>
+      <c r="O110" s="10"/>
+      <c r="P110" s="10"/>
+      <c r="Q110" s="10"/>
+      <c r="R110" s="10"/>
+      <c r="S110" s="10"/>
+      <c r="T110" s="10"/>
+      <c r="U110" s="10"/>
+      <c r="V110" s="10"/>
+    </row>
+    <row r="111" spans="4:22">
+      <c r="D111" s="10"/>
+      <c r="E111" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="F111" s="7"/>
+      <c r="G111" s="7"/>
+      <c r="H111" s="10"/>
+      <c r="I111" s="10"/>
+      <c r="J111" s="10"/>
+      <c r="K111" s="10"/>
+      <c r="L111" s="10"/>
+      <c r="M111" s="10"/>
+      <c r="N111" s="10"/>
+      <c r="O111" s="10"/>
+      <c r="P111" s="10"/>
+      <c r="Q111" s="10"/>
+      <c r="R111" s="10"/>
+      <c r="S111" s="10"/>
+      <c r="T111" s="10"/>
+      <c r="U111" s="10"/>
+      <c r="V111" s="10"/>
+    </row>
+    <row r="112" spans="4:22">
+      <c r="D112" s="10"/>
+      <c r="E112" s="7"/>
+      <c r="F112" s="7" t="s">
+        <v>947</v>
+      </c>
+      <c r="G112" s="7"/>
+      <c r="H112" s="10"/>
+      <c r="I112" s="10"/>
+      <c r="J112" s="10"/>
+      <c r="K112" s="10"/>
+      <c r="L112" s="10"/>
+      <c r="M112" s="10"/>
+      <c r="N112" s="10"/>
+      <c r="O112" s="10"/>
+      <c r="P112" s="10"/>
+      <c r="Q112" s="10"/>
+      <c r="R112" s="10"/>
+      <c r="S112" s="10"/>
+      <c r="T112" s="10"/>
+      <c r="U112" s="10"/>
+      <c r="V112" s="10"/>
+    </row>
+    <row r="113" spans="4:22">
+      <c r="D113" s="10"/>
+      <c r="E113" s="7"/>
+      <c r="F113" s="7" t="s">
+        <v>948</v>
+      </c>
+      <c r="G113" s="7"/>
+      <c r="H113" s="10"/>
+      <c r="I113" s="10"/>
+      <c r="J113" s="10"/>
+      <c r="K113" s="10"/>
+      <c r="L113" s="10"/>
+      <c r="M113" s="10"/>
+      <c r="N113" s="10"/>
+      <c r="O113" s="10"/>
+      <c r="P113" s="10"/>
+      <c r="Q113" s="10"/>
+      <c r="R113" s="10"/>
+      <c r="S113" s="10"/>
+      <c r="T113" s="10"/>
+      <c r="U113" s="10"/>
+      <c r="V113" s="10"/>
+    </row>
+    <row r="114" spans="4:22">
+      <c r="D114" s="10"/>
+      <c r="E114" s="7"/>
+      <c r="F114" s="7"/>
+      <c r="G114" s="7" t="s">
+        <v>949</v>
+      </c>
+      <c r="H114" s="10"/>
+      <c r="I114" s="10"/>
+      <c r="J114" s="10"/>
+      <c r="K114" s="10"/>
+      <c r="L114" s="10"/>
+      <c r="M114" s="10"/>
+      <c r="N114" s="10"/>
+      <c r="O114" s="10"/>
+      <c r="P114" s="10"/>
+      <c r="Q114" s="10"/>
+      <c r="R114" s="10"/>
+      <c r="S114" s="10"/>
+      <c r="T114" s="10"/>
+      <c r="U114" s="10"/>
+      <c r="V114" s="10"/>
+    </row>
+    <row r="115" spans="4:22">
+      <c r="D115" s="10"/>
+      <c r="E115" s="7"/>
+      <c r="F115" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="G115" s="7"/>
+      <c r="H115" s="10"/>
+      <c r="I115" s="10"/>
+      <c r="J115" s="10"/>
+      <c r="K115" s="10"/>
+      <c r="L115" s="10"/>
+      <c r="M115" s="10"/>
+      <c r="N115" s="10"/>
+      <c r="O115" s="10"/>
+      <c r="P115" s="10"/>
+      <c r="Q115" s="10"/>
+      <c r="R115" s="10"/>
+      <c r="S115" s="10"/>
+      <c r="T115" s="10"/>
+      <c r="U115" s="10"/>
+      <c r="V115" s="10"/>
+    </row>
+    <row r="116" spans="4:22">
+      <c r="D116" s="10"/>
+      <c r="E116" s="7"/>
+      <c r="F116" s="7" t="s">
+        <v>842</v>
+      </c>
+      <c r="G116" s="7"/>
+      <c r="H116" s="10"/>
+      <c r="I116" s="10"/>
+      <c r="J116" s="10"/>
+      <c r="K116" s="10"/>
+      <c r="L116" s="10"/>
+      <c r="M116" s="10"/>
+      <c r="N116" s="10"/>
+      <c r="O116" s="10"/>
+      <c r="P116" s="10"/>
+      <c r="Q116" s="10"/>
+      <c r="R116" s="10"/>
+      <c r="S116" s="10"/>
+      <c r="T116" s="10"/>
+      <c r="U116" s="10"/>
+      <c r="V116" s="10"/>
+    </row>
+    <row r="117" spans="4:22">
+      <c r="D117" s="10"/>
+      <c r="E117" s="7"/>
+      <c r="F117" s="7"/>
+      <c r="G117" s="7" t="s">
+        <v>950</v>
+      </c>
+      <c r="H117" s="10"/>
+      <c r="I117" s="10"/>
+      <c r="J117" s="10"/>
+      <c r="K117" s="10"/>
+      <c r="L117" s="10"/>
+      <c r="M117" s="10"/>
+      <c r="N117" s="10"/>
+      <c r="O117" s="10"/>
+      <c r="P117" s="10"/>
+      <c r="Q117" s="10"/>
+      <c r="R117" s="10"/>
+      <c r="S117" s="10"/>
+      <c r="T117" s="10"/>
+      <c r="U117" s="10"/>
+      <c r="V117" s="10"/>
+    </row>
+    <row r="118" spans="4:22">
+      <c r="D118" s="10"/>
+      <c r="E118" s="7"/>
+      <c r="F118" s="7"/>
+      <c r="G118" s="7" t="s">
+        <v>951</v>
+      </c>
+      <c r="H118" s="10"/>
+      <c r="I118" s="10"/>
+      <c r="J118" s="10"/>
+      <c r="K118" s="10"/>
+      <c r="L118" s="10"/>
+      <c r="M118" s="10"/>
+      <c r="N118" s="10"/>
+      <c r="O118" s="10"/>
+      <c r="P118" s="10"/>
+      <c r="Q118" s="10"/>
+      <c r="R118" s="10"/>
+      <c r="S118" s="10"/>
+      <c r="T118" s="10"/>
+      <c r="U118" s="10"/>
+      <c r="V118" s="10"/>
+    </row>
+    <row r="119" spans="4:22">
+      <c r="D119" s="10"/>
+      <c r="E119" s="7"/>
+      <c r="F119" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="G119" s="7"/>
+      <c r="H119" s="10"/>
+      <c r="I119" s="10"/>
+      <c r="J119" s="10"/>
+      <c r="K119" s="10"/>
+      <c r="L119" s="10"/>
+      <c r="M119" s="10"/>
+      <c r="N119" s="10"/>
+      <c r="O119" s="10"/>
+      <c r="P119" s="10"/>
+      <c r="Q119" s="10"/>
+      <c r="R119" s="10"/>
+      <c r="S119" s="10"/>
+      <c r="T119" s="10"/>
+      <c r="U119" s="10"/>
+      <c r="V119" s="10"/>
+    </row>
+    <row r="120" spans="4:22">
+      <c r="D120" s="10"/>
+      <c r="E120" s="7"/>
+      <c r="F120" s="7" t="s">
+        <v>952</v>
+      </c>
+      <c r="G120" s="7"/>
+      <c r="H120" s="10"/>
+      <c r="I120" s="10"/>
+      <c r="J120" s="10"/>
+      <c r="K120" s="10"/>
+      <c r="L120" s="10"/>
+      <c r="M120" s="10"/>
+      <c r="N120" s="10"/>
+      <c r="O120" s="10"/>
+      <c r="P120" s="10"/>
+      <c r="Q120" s="10"/>
+      <c r="R120" s="10"/>
+      <c r="S120" s="10"/>
+      <c r="T120" s="10"/>
+      <c r="U120" s="10"/>
+      <c r="V120" s="10"/>
+    </row>
+    <row r="121" spans="4:22">
+      <c r="D121" s="10"/>
+      <c r="E121" s="7"/>
+      <c r="F121" s="7"/>
+      <c r="G121" s="7" t="s">
+        <v>953</v>
+      </c>
+      <c r="H121" s="10"/>
+      <c r="I121" s="10"/>
+      <c r="J121" s="10"/>
+      <c r="K121" s="10"/>
+      <c r="L121" s="10"/>
+      <c r="M121" s="10"/>
+      <c r="N121" s="10"/>
+      <c r="O121" s="10"/>
+      <c r="P121" s="10"/>
+      <c r="Q121" s="10"/>
+      <c r="R121" s="10"/>
+      <c r="S121" s="10"/>
+      <c r="T121" s="10"/>
+      <c r="U121" s="10"/>
+      <c r="V121" s="10"/>
+    </row>
+    <row r="122" spans="4:22">
+      <c r="D122" s="10"/>
+      <c r="E122" s="7"/>
+      <c r="F122" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="G122" s="7"/>
+      <c r="H122" s="10"/>
+      <c r="I122" s="10"/>
+      <c r="J122" s="10"/>
+      <c r="K122" s="10"/>
+      <c r="L122" s="10"/>
+      <c r="M122" s="10"/>
+      <c r="N122" s="10"/>
+      <c r="O122" s="10"/>
+      <c r="P122" s="10"/>
+      <c r="Q122" s="10"/>
+      <c r="R122" s="10"/>
+      <c r="S122" s="10"/>
+      <c r="T122" s="10"/>
+      <c r="U122" s="10"/>
+      <c r="V122" s="10"/>
+    </row>
+    <row r="123" spans="4:22">
+      <c r="D123" s="10"/>
+      <c r="E123" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="F123" s="7"/>
+      <c r="G123" s="7"/>
+      <c r="H123" s="10"/>
+      <c r="I123" s="10"/>
+      <c r="J123" s="10"/>
+      <c r="K123" s="10"/>
+      <c r="L123" s="10"/>
+      <c r="M123" s="10"/>
+      <c r="N123" s="10"/>
+      <c r="O123" s="10"/>
+      <c r="P123" s="10"/>
+      <c r="Q123" s="10"/>
+      <c r="R123" s="10"/>
+      <c r="S123" s="10"/>
+      <c r="T123" s="10"/>
+      <c r="U123" s="10"/>
+      <c r="V123" s="10"/>
+    </row>
+    <row r="124" spans="4:22">
+      <c r="D124" s="10"/>
+      <c r="E124" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="F124" s="7"/>
+      <c r="G124" s="7"/>
+      <c r="H124" s="10"/>
+      <c r="I124" s="10"/>
+      <c r="J124" s="10"/>
+      <c r="K124" s="10"/>
+      <c r="L124" s="10"/>
+      <c r="M124" s="10"/>
+      <c r="N124" s="10"/>
+      <c r="O124" s="10"/>
+      <c r="P124" s="10"/>
+      <c r="Q124" s="10"/>
+      <c r="R124" s="10"/>
+      <c r="S124" s="10"/>
+      <c r="T124" s="10"/>
+      <c r="U124" s="10"/>
+      <c r="V124" s="10"/>
+    </row>
+    <row r="125" spans="4:22">
+      <c r="D125" s="10"/>
+      <c r="E125" s="7" t="s">
+        <v>954</v>
+      </c>
+      <c r="F125" s="7"/>
+      <c r="G125" s="7"/>
+      <c r="H125" s="10"/>
+      <c r="I125" s="10"/>
+      <c r="J125" s="10"/>
+      <c r="K125" s="10"/>
+      <c r="L125" s="10"/>
+      <c r="M125" s="10"/>
+      <c r="N125" s="10"/>
+      <c r="O125" s="10"/>
+      <c r="P125" s="10"/>
+      <c r="Q125" s="10"/>
+      <c r="R125" s="10"/>
+      <c r="S125" s="10"/>
+      <c r="T125" s="10"/>
+      <c r="U125" s="10"/>
+      <c r="V125" s="10"/>
+    </row>
+    <row r="126" spans="4:22">
+      <c r="D126" s="10"/>
+      <c r="E126" s="7" t="s">
+        <v>955</v>
+      </c>
+      <c r="F126" s="7"/>
+      <c r="G126" s="7"/>
+      <c r="H126" s="10"/>
+      <c r="I126" s="10"/>
+      <c r="J126" s="10"/>
+      <c r="K126" s="10"/>
+      <c r="L126" s="10"/>
+      <c r="M126" s="10"/>
+      <c r="N126" s="10"/>
+      <c r="O126" s="10"/>
+      <c r="P126" s="10"/>
+      <c r="Q126" s="10"/>
+      <c r="R126" s="10"/>
+      <c r="S126" s="10"/>
+      <c r="T126" s="10"/>
+      <c r="U126" s="10"/>
+      <c r="V126" s="10"/>
+    </row>
+    <row r="127" spans="4:22">
+      <c r="D127" s="10"/>
+      <c r="E127" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="F127" s="7"/>
+      <c r="G127" s="7"/>
+      <c r="H127" s="10"/>
+      <c r="I127" s="10"/>
+      <c r="J127" s="10"/>
+      <c r="K127" s="10"/>
+      <c r="L127" s="10"/>
+      <c r="M127" s="10"/>
+      <c r="N127" s="10"/>
+      <c r="O127" s="10"/>
+      <c r="P127" s="10"/>
+      <c r="Q127" s="10"/>
+      <c r="R127" s="10"/>
+      <c r="S127" s="10"/>
+      <c r="T127" s="10"/>
+      <c r="U127" s="10"/>
+      <c r="V127" s="10"/>
+    </row>
+    <row r="128" spans="4:22">
+      <c r="D128" s="10"/>
+      <c r="E128" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="F128" s="7"/>
+      <c r="G128" s="7"/>
+      <c r="H128" s="10"/>
+      <c r="I128" s="10"/>
+      <c r="J128" s="10"/>
+      <c r="K128" s="10"/>
+      <c r="L128" s="10"/>
+      <c r="M128" s="10"/>
+      <c r="N128" s="10"/>
+      <c r="O128" s="10"/>
+      <c r="P128" s="10"/>
+      <c r="Q128" s="10"/>
+      <c r="R128" s="10"/>
+      <c r="S128" s="10"/>
+      <c r="T128" s="10"/>
+      <c r="U128" s="10"/>
+      <c r="V128" s="10"/>
+    </row>
+    <row r="129" spans="4:22">
+      <c r="D129" s="10"/>
+      <c r="E129" s="7"/>
+      <c r="F129" s="7" t="s">
+        <v>956</v>
+      </c>
+      <c r="G129" s="7"/>
+      <c r="H129" s="10"/>
+      <c r="I129" s="10"/>
+      <c r="J129" s="10"/>
+      <c r="K129" s="10"/>
+      <c r="L129" s="10"/>
+      <c r="M129" s="10"/>
+      <c r="N129" s="10"/>
+      <c r="O129" s="10"/>
+      <c r="P129" s="10"/>
+      <c r="Q129" s="10"/>
+      <c r="R129" s="10"/>
+      <c r="S129" s="10"/>
+      <c r="T129" s="10"/>
+      <c r="U129" s="10"/>
+      <c r="V129" s="10"/>
+    </row>
+    <row r="130" spans="4:22">
+      <c r="D130" s="10"/>
+      <c r="E130" s="7"/>
+      <c r="F130" s="7" t="s">
+        <v>957</v>
+      </c>
+      <c r="G130" s="7"/>
+      <c r="H130" s="10"/>
+      <c r="I130" s="10"/>
+      <c r="J130" s="10"/>
+      <c r="K130" s="10"/>
+      <c r="L130" s="10"/>
+      <c r="M130" s="10"/>
+      <c r="N130" s="10"/>
+      <c r="O130" s="10"/>
+      <c r="P130" s="10"/>
+      <c r="Q130" s="10"/>
+      <c r="R130" s="10"/>
+      <c r="S130" s="10"/>
+      <c r="T130" s="10"/>
+      <c r="U130" s="10"/>
+      <c r="V130" s="10"/>
+    </row>
+    <row r="131" spans="4:22">
+      <c r="D131" s="10"/>
+      <c r="E131" s="7"/>
+      <c r="F131" s="7"/>
+      <c r="G131" s="7" t="s">
+        <v>949</v>
+      </c>
+      <c r="H131" s="10"/>
+      <c r="I131" s="10"/>
+      <c r="J131" s="10"/>
+      <c r="K131" s="10"/>
+      <c r="L131" s="10"/>
+      <c r="M131" s="10"/>
+      <c r="N131" s="10"/>
+      <c r="O131" s="10"/>
+      <c r="P131" s="10"/>
+      <c r="Q131" s="10"/>
+      <c r="R131" s="10"/>
+      <c r="S131" s="10"/>
+      <c r="T131" s="10"/>
+      <c r="U131" s="10"/>
+      <c r="V131" s="10"/>
+    </row>
+    <row r="132" spans="4:22">
+      <c r="D132" s="10"/>
+      <c r="E132" s="7"/>
+      <c r="F132" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="G132" s="7"/>
+      <c r="H132" s="10"/>
+      <c r="I132" s="10"/>
+      <c r="J132" s="10"/>
+      <c r="K132" s="10"/>
+      <c r="L132" s="10"/>
+      <c r="M132" s="10"/>
+      <c r="N132" s="10"/>
+      <c r="O132" s="10"/>
+      <c r="P132" s="10"/>
+      <c r="Q132" s="10"/>
+      <c r="R132" s="10"/>
+      <c r="S132" s="10"/>
+      <c r="T132" s="10"/>
+      <c r="U132" s="10"/>
+      <c r="V132" s="10"/>
+    </row>
+    <row r="133" spans="4:22">
+      <c r="D133" s="10"/>
+      <c r="E133" s="7"/>
+      <c r="F133" s="7" t="s">
+        <v>842</v>
+      </c>
+      <c r="G133" s="7"/>
+      <c r="H133" s="10"/>
+      <c r="I133" s="10"/>
+      <c r="J133" s="10"/>
+      <c r="K133" s="10"/>
+      <c r="L133" s="10"/>
+      <c r="M133" s="10"/>
+      <c r="N133" s="10"/>
+      <c r="O133" s="10"/>
+      <c r="P133" s="10"/>
+      <c r="Q133" s="10"/>
+      <c r="R133" s="10"/>
+      <c r="S133" s="10"/>
+      <c r="T133" s="10"/>
+      <c r="U133" s="10"/>
+      <c r="V133" s="10"/>
+    </row>
+    <row r="134" spans="4:22">
+      <c r="D134" s="10"/>
+      <c r="E134" s="7"/>
+      <c r="F134" s="7"/>
+      <c r="G134" s="7" t="s">
+        <v>950</v>
+      </c>
+      <c r="H134" s="10"/>
+      <c r="I134" s="10"/>
+      <c r="J134" s="10"/>
+      <c r="K134" s="10"/>
+      <c r="L134" s="10"/>
+      <c r="M134" s="10"/>
+      <c r="N134" s="10"/>
+      <c r="O134" s="10"/>
+      <c r="P134" s="10"/>
+      <c r="Q134" s="10"/>
+      <c r="R134" s="10"/>
+      <c r="S134" s="10"/>
+      <c r="T134" s="10"/>
+      <c r="U134" s="10"/>
+      <c r="V134" s="10"/>
+    </row>
+    <row r="135" spans="4:22">
+      <c r="D135" s="10"/>
+      <c r="E135" s="7"/>
+      <c r="F135" s="7"/>
+      <c r="G135" s="7" t="s">
+        <v>951</v>
+      </c>
+      <c r="H135" s="10"/>
+      <c r="I135" s="10"/>
+      <c r="J135" s="10"/>
+      <c r="K135" s="10"/>
+      <c r="L135" s="10"/>
+      <c r="M135" s="10"/>
+      <c r="N135" s="10"/>
+      <c r="O135" s="10"/>
+      <c r="P135" s="10"/>
+      <c r="Q135" s="10"/>
+      <c r="R135" s="10"/>
+      <c r="S135" s="10"/>
+      <c r="T135" s="10"/>
+      <c r="U135" s="10"/>
+      <c r="V135" s="10"/>
+    </row>
+    <row r="136" spans="4:22">
+      <c r="D136" s="10"/>
+      <c r="E136" s="7"/>
+      <c r="F136" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="G136" s="7"/>
+      <c r="H136" s="10"/>
+      <c r="I136" s="10"/>
+      <c r="J136" s="10"/>
+      <c r="K136" s="10"/>
+      <c r="L136" s="10"/>
+      <c r="M136" s="10"/>
+      <c r="N136" s="10"/>
+      <c r="O136" s="10"/>
+      <c r="P136" s="10"/>
+      <c r="Q136" s="10"/>
+      <c r="R136" s="10"/>
+      <c r="S136" s="10"/>
+      <c r="T136" s="10"/>
+      <c r="U136" s="10"/>
+      <c r="V136" s="10"/>
+    </row>
+    <row r="137" spans="4:22">
+      <c r="D137" s="10"/>
+      <c r="E137" s="7"/>
+      <c r="F137" s="7" t="s">
+        <v>952</v>
+      </c>
+      <c r="G137" s="7"/>
+      <c r="H137" s="10"/>
+      <c r="I137" s="10"/>
+      <c r="J137" s="10"/>
+      <c r="K137" s="10"/>
+      <c r="L137" s="10"/>
+      <c r="M137" s="10"/>
+      <c r="N137" s="10"/>
+      <c r="O137" s="10"/>
+      <c r="P137" s="10"/>
+      <c r="Q137" s="10"/>
+      <c r="R137" s="10"/>
+      <c r="S137" s="10"/>
+      <c r="T137" s="10"/>
+      <c r="U137" s="10"/>
+      <c r="V137" s="10"/>
+    </row>
+    <row r="138" spans="4:22">
+      <c r="D138" s="10"/>
+      <c r="E138" s="7"/>
+      <c r="F138" s="7"/>
+      <c r="G138" s="7" t="s">
+        <v>958</v>
+      </c>
+      <c r="H138" s="10"/>
+      <c r="I138" s="10"/>
+      <c r="J138" s="10"/>
+      <c r="K138" s="10"/>
+      <c r="L138" s="10"/>
+      <c r="M138" s="10"/>
+      <c r="N138" s="10"/>
+      <c r="O138" s="10"/>
+      <c r="P138" s="10"/>
+      <c r="Q138" s="10"/>
+      <c r="R138" s="10"/>
+      <c r="S138" s="10"/>
+      <c r="T138" s="10"/>
+      <c r="U138" s="10"/>
+      <c r="V138" s="10"/>
+    </row>
+    <row r="139" spans="4:22">
+      <c r="D139" s="10"/>
+      <c r="E139" s="7"/>
+      <c r="F139" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="G139" s="7"/>
+      <c r="H139" s="10"/>
+      <c r="I139" s="10"/>
+      <c r="J139" s="10"/>
+      <c r="K139" s="10"/>
+      <c r="L139" s="10"/>
+      <c r="M139" s="10"/>
+      <c r="N139" s="10"/>
+      <c r="O139" s="10"/>
+      <c r="P139" s="10"/>
+      <c r="Q139" s="10"/>
+      <c r="R139" s="10"/>
+      <c r="S139" s="10"/>
+      <c r="T139" s="10"/>
+      <c r="U139" s="10"/>
+      <c r="V139" s="10"/>
+    </row>
+    <row r="140" spans="4:22">
+      <c r="D140" s="10"/>
+      <c r="E140" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="F140" s="7"/>
+      <c r="G140" s="7"/>
+      <c r="H140" s="10"/>
+      <c r="I140" s="10"/>
+      <c r="J140" s="10"/>
+      <c r="K140" s="10"/>
+      <c r="L140" s="10"/>
+      <c r="M140" s="10"/>
+      <c r="N140" s="10"/>
+      <c r="O140" s="10"/>
+      <c r="P140" s="10"/>
+      <c r="Q140" s="10"/>
+      <c r="R140" s="10"/>
+      <c r="S140" s="10"/>
+      <c r="T140" s="10"/>
+      <c r="U140" s="10"/>
+      <c r="V140" s="10"/>
+    </row>
+    <row r="141" spans="4:22">
+      <c r="D141" s="10"/>
+      <c r="E141" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="F141" s="7"/>
+      <c r="G141" s="7"/>
+      <c r="H141" s="10"/>
+      <c r="I141" s="10"/>
+      <c r="J141" s="10"/>
+      <c r="K141" s="10"/>
+      <c r="L141" s="10"/>
+      <c r="M141" s="10"/>
+      <c r="N141" s="10"/>
+      <c r="O141" s="10"/>
+      <c r="P141" s="10"/>
+      <c r="Q141" s="10"/>
+      <c r="R141" s="10"/>
+      <c r="S141" s="10"/>
+      <c r="T141" s="10"/>
+      <c r="U141" s="10"/>
+      <c r="V141" s="10"/>
+    </row>
+    <row r="142" spans="4:22">
+      <c r="D142" s="10"/>
+      <c r="E142" s="7" t="s">
+        <v>959</v>
+      </c>
+      <c r="F142" s="7"/>
+      <c r="G142" s="7"/>
+      <c r="H142" s="10"/>
+      <c r="I142" s="10"/>
+      <c r="J142" s="10"/>
+      <c r="K142" s="10"/>
+      <c r="L142" s="10"/>
+      <c r="M142" s="10"/>
+      <c r="N142" s="10"/>
+      <c r="O142" s="10"/>
+      <c r="P142" s="10"/>
+      <c r="Q142" s="10"/>
+      <c r="R142" s="10"/>
+      <c r="S142" s="10"/>
+      <c r="T142" s="10"/>
+      <c r="U142" s="10"/>
+      <c r="V142" s="10"/>
+    </row>
+    <row r="143" spans="4:22">
+      <c r="D143" s="10"/>
+      <c r="E143" s="7" t="s">
+        <v>960</v>
+      </c>
+      <c r="F143" s="7"/>
+      <c r="G143" s="7"/>
+      <c r="H143" s="10"/>
+      <c r="I143" s="10"/>
+      <c r="J143" s="10"/>
+      <c r="K143" s="10"/>
+      <c r="L143" s="10"/>
+      <c r="M143" s="10"/>
+      <c r="N143" s="10"/>
+      <c r="O143" s="10"/>
+      <c r="P143" s="10"/>
+      <c r="Q143" s="10"/>
+      <c r="R143" s="10"/>
+      <c r="S143" s="10"/>
+      <c r="T143" s="10"/>
+      <c r="U143" s="10"/>
+      <c r="V143" s="10"/>
+    </row>
+    <row r="144" spans="4:22">
+      <c r="D144" s="10"/>
+      <c r="E144" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="F144" s="7"/>
+      <c r="G144" s="7"/>
+      <c r="H144" s="10"/>
+      <c r="I144" s="10"/>
+      <c r="J144" s="10"/>
+      <c r="K144" s="10"/>
+      <c r="L144" s="10"/>
+      <c r="M144" s="10"/>
+      <c r="N144" s="10"/>
+      <c r="O144" s="10"/>
+      <c r="P144" s="10"/>
+      <c r="Q144" s="10"/>
+      <c r="R144" s="10"/>
+      <c r="S144" s="10"/>
+      <c r="T144" s="10"/>
+      <c r="U144" s="10"/>
+      <c r="V144" s="10"/>
+    </row>
+    <row r="145" spans="4:22">
+      <c r="D145" s="10"/>
+      <c r="E145" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="F145" s="7"/>
+      <c r="G145" s="7"/>
+      <c r="H145" s="10"/>
+      <c r="I145" s="10"/>
+      <c r="J145" s="10"/>
+      <c r="K145" s="10"/>
+      <c r="L145" s="10"/>
+      <c r="M145" s="10"/>
+      <c r="N145" s="10"/>
+      <c r="O145" s="10"/>
+      <c r="P145" s="10"/>
+      <c r="Q145" s="10"/>
+      <c r="R145" s="10"/>
+      <c r="S145" s="10"/>
+      <c r="T145" s="10"/>
+      <c r="U145" s="10"/>
+      <c r="V145" s="10"/>
+    </row>
+    <row r="146" spans="4:22">
+      <c r="D146" s="10"/>
+      <c r="E146" s="7"/>
+      <c r="F146" s="7" t="s">
+        <v>961</v>
+      </c>
+      <c r="G146" s="7"/>
+      <c r="H146" s="10"/>
+      <c r="I146" s="10"/>
+      <c r="J146" s="10"/>
+      <c r="K146" s="10"/>
+      <c r="L146" s="10"/>
+      <c r="M146" s="10"/>
+      <c r="N146" s="10"/>
+      <c r="O146" s="10"/>
+      <c r="P146" s="10"/>
+      <c r="Q146" s="10"/>
+      <c r="R146" s="10"/>
+      <c r="S146" s="10"/>
+      <c r="T146" s="10"/>
+      <c r="U146" s="10"/>
+      <c r="V146" s="10"/>
+    </row>
+    <row r="147" spans="4:22">
+      <c r="D147" s="10"/>
+      <c r="E147" s="7"/>
+      <c r="F147" s="7" t="s">
+        <v>962</v>
+      </c>
+      <c r="G147" s="7"/>
+      <c r="H147" s="10"/>
+      <c r="I147" s="10"/>
+      <c r="J147" s="10"/>
+      <c r="K147" s="10"/>
+      <c r="L147" s="10"/>
+      <c r="M147" s="10"/>
+      <c r="N147" s="10"/>
+      <c r="O147" s="10"/>
+      <c r="P147" s="10"/>
+      <c r="Q147" s="10"/>
+      <c r="R147" s="10"/>
+      <c r="S147" s="10"/>
+      <c r="T147" s="10"/>
+      <c r="U147" s="10"/>
+      <c r="V147" s="10"/>
+    </row>
+    <row r="148" spans="4:22">
+      <c r="D148" s="10"/>
+      <c r="E148" s="7"/>
+      <c r="F148" s="7"/>
+      <c r="G148" s="7" t="s">
+        <v>949</v>
+      </c>
+      <c r="H148" s="10"/>
+      <c r="I148" s="10"/>
+      <c r="J148" s="10"/>
+      <c r="K148" s="10"/>
+      <c r="L148" s="10"/>
+      <c r="M148" s="10"/>
+      <c r="N148" s="10"/>
+      <c r="O148" s="10"/>
+      <c r="P148" s="10"/>
+      <c r="Q148" s="10"/>
+      <c r="R148" s="10"/>
+      <c r="S148" s="10"/>
+      <c r="T148" s="10"/>
+      <c r="U148" s="10"/>
+      <c r="V148" s="10"/>
+    </row>
+    <row r="149" spans="4:22">
+      <c r="D149" s="10"/>
+      <c r="E149" s="7"/>
+      <c r="F149" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="G149" s="7"/>
+      <c r="H149" s="10"/>
+      <c r="I149" s="10"/>
+      <c r="J149" s="10"/>
+      <c r="K149" s="10"/>
+      <c r="L149" s="10"/>
+      <c r="M149" s="10"/>
+      <c r="N149" s="10"/>
+      <c r="O149" s="10"/>
+      <c r="P149" s="10"/>
+      <c r="Q149" s="10"/>
+      <c r="R149" s="10"/>
+      <c r="S149" s="10"/>
+      <c r="T149" s="10"/>
+      <c r="U149" s="10"/>
+      <c r="V149" s="10"/>
+    </row>
+    <row r="150" spans="4:22">
+      <c r="D150" s="10"/>
+      <c r="E150" s="7"/>
+      <c r="F150" s="7" t="s">
+        <v>842</v>
+      </c>
+      <c r="G150" s="7"/>
+      <c r="H150" s="10"/>
+      <c r="I150" s="10"/>
+      <c r="J150" s="10"/>
+      <c r="K150" s="10"/>
+      <c r="L150" s="10"/>
+      <c r="M150" s="10"/>
+      <c r="N150" s="10"/>
+      <c r="O150" s="10"/>
+      <c r="P150" s="10"/>
+      <c r="Q150" s="10"/>
+      <c r="R150" s="10"/>
+      <c r="S150" s="10"/>
+      <c r="T150" s="10"/>
+      <c r="U150" s="10"/>
+      <c r="V150" s="10"/>
+    </row>
+    <row r="151" spans="4:22">
+      <c r="D151" s="10"/>
+      <c r="E151" s="7"/>
+      <c r="F151" s="7"/>
+      <c r="G151" s="7" t="s">
+        <v>950</v>
+      </c>
+      <c r="H151" s="10"/>
+      <c r="I151" s="10"/>
+      <c r="J151" s="10"/>
+      <c r="K151" s="10"/>
+      <c r="L151" s="10"/>
+      <c r="M151" s="10"/>
+      <c r="N151" s="10"/>
+      <c r="O151" s="10"/>
+      <c r="P151" s="10"/>
+      <c r="Q151" s="10"/>
+      <c r="R151" s="10"/>
+      <c r="S151" s="10"/>
+      <c r="T151" s="10"/>
+      <c r="U151" s="10"/>
+      <c r="V151" s="10"/>
+    </row>
+    <row r="152" spans="4:22">
+      <c r="D152" s="10"/>
+      <c r="E152" s="7"/>
+      <c r="F152" s="7"/>
+      <c r="G152" s="7" t="s">
+        <v>951</v>
+      </c>
+      <c r="H152" s="10"/>
+      <c r="I152" s="10"/>
+      <c r="J152" s="10"/>
+      <c r="K152" s="10"/>
+      <c r="L152" s="10"/>
+      <c r="M152" s="10"/>
+      <c r="N152" s="10"/>
+      <c r="O152" s="10"/>
+      <c r="P152" s="10"/>
+      <c r="Q152" s="10"/>
+      <c r="R152" s="10"/>
+      <c r="S152" s="10"/>
+      <c r="T152" s="10"/>
+      <c r="U152" s="10"/>
+      <c r="V152" s="10"/>
+    </row>
+    <row r="153" spans="4:22">
+      <c r="D153" s="10"/>
+      <c r="E153" s="7"/>
+      <c r="F153" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="G153" s="7"/>
+      <c r="H153" s="10"/>
+      <c r="I153" s="10"/>
+      <c r="J153" s="10"/>
+      <c r="K153" s="10"/>
+      <c r="L153" s="10"/>
+      <c r="M153" s="10"/>
+      <c r="N153" s="10"/>
+      <c r="O153" s="10"/>
+      <c r="P153" s="10"/>
+      <c r="Q153" s="10"/>
+      <c r="R153" s="10"/>
+      <c r="S153" s="10"/>
+      <c r="T153" s="10"/>
+      <c r="U153" s="10"/>
+      <c r="V153" s="10"/>
+    </row>
+    <row r="154" spans="4:22">
+      <c r="D154" s="10"/>
+      <c r="E154" s="7"/>
+      <c r="F154" s="7" t="s">
+        <v>952</v>
+      </c>
+      <c r="G154" s="7"/>
+      <c r="H154" s="10"/>
+      <c r="I154" s="10"/>
+      <c r="J154" s="10"/>
+      <c r="K154" s="10"/>
+      <c r="L154" s="10"/>
+      <c r="M154" s="10"/>
+      <c r="N154" s="10"/>
+      <c r="O154" s="10"/>
+      <c r="P154" s="10"/>
+      <c r="Q154" s="10"/>
+      <c r="R154" s="10"/>
+      <c r="S154" s="10"/>
+      <c r="T154" s="10"/>
+      <c r="U154" s="10"/>
+      <c r="V154" s="10"/>
+    </row>
+    <row r="155" spans="4:22">
+      <c r="D155" s="10"/>
+      <c r="E155" s="7"/>
+      <c r="F155" s="7"/>
+      <c r="G155" s="7" t="s">
+        <v>963</v>
+      </c>
+      <c r="H155" s="10"/>
+      <c r="I155" s="10"/>
+      <c r="J155" s="10"/>
+      <c r="K155" s="10"/>
+      <c r="L155" s="10"/>
+      <c r="M155" s="10"/>
+      <c r="N155" s="10"/>
+      <c r="O155" s="10"/>
+      <c r="P155" s="10"/>
+      <c r="Q155" s="10"/>
+      <c r="R155" s="10"/>
+      <c r="S155" s="10"/>
+      <c r="T155" s="10"/>
+      <c r="U155" s="10"/>
+      <c r="V155" s="10"/>
+    </row>
+    <row r="156" spans="4:22">
+      <c r="D156" s="10"/>
+      <c r="E156" s="7"/>
+      <c r="F156" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="G156" s="7"/>
+      <c r="H156" s="10"/>
+      <c r="I156" s="10"/>
+      <c r="J156" s="10"/>
+      <c r="K156" s="10"/>
+      <c r="L156" s="10"/>
+      <c r="M156" s="10"/>
+      <c r="N156" s="10"/>
+      <c r="O156" s="10"/>
+      <c r="P156" s="10"/>
+      <c r="Q156" s="10"/>
+      <c r="R156" s="10"/>
+      <c r="S156" s="10"/>
+      <c r="T156" s="10"/>
+      <c r="U156" s="10"/>
+      <c r="V156" s="10"/>
+    </row>
+    <row r="157" spans="4:22">
+      <c r="D157" s="10"/>
+      <c r="E157" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="F157" s="7"/>
+      <c r="G157" s="7"/>
+      <c r="H157" s="10"/>
+      <c r="I157" s="10"/>
+      <c r="J157" s="10"/>
+      <c r="K157" s="10"/>
+      <c r="L157" s="10"/>
+      <c r="M157" s="10"/>
+      <c r="N157" s="10"/>
+      <c r="O157" s="10"/>
+      <c r="P157" s="10"/>
+      <c r="Q157" s="10"/>
+      <c r="R157" s="10"/>
+      <c r="S157" s="10"/>
+      <c r="T157" s="10"/>
+      <c r="U157" s="10"/>
+      <c r="V157" s="10"/>
+    </row>
+    <row r="158" spans="4:22">
+      <c r="D158" s="10"/>
+      <c r="E158" s="10"/>
+      <c r="F158" s="10"/>
+      <c r="G158" s="10"/>
+      <c r="H158" s="10"/>
+      <c r="I158" s="10"/>
+      <c r="J158" s="10"/>
+      <c r="K158" s="10"/>
+      <c r="L158" s="10"/>
+      <c r="M158" s="10"/>
+      <c r="N158" s="10"/>
+      <c r="O158" s="10"/>
+      <c r="P158" s="10"/>
+      <c r="Q158" s="10"/>
+      <c r="R158" s="10"/>
+      <c r="S158" s="10"/>
+      <c r="T158" s="10"/>
+      <c r="U158" s="10"/>
+      <c r="V158" s="10"/>
+    </row>
+    <row r="160" spans="4:22">
+      <c r="D160" s="3" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="161" spans="4:25">
+      <c r="D161" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="162" spans="4:25">
+      <c r="D162" s="10"/>
+      <c r="E162" s="10"/>
+      <c r="F162" s="10"/>
+      <c r="G162" s="10"/>
+      <c r="H162" s="10"/>
+      <c r="I162" s="10"/>
+      <c r="J162" s="10"/>
+      <c r="K162" s="10"/>
+      <c r="L162" s="10"/>
+      <c r="M162" s="10"/>
+      <c r="N162" s="10"/>
+      <c r="O162" s="10"/>
+      <c r="P162" s="10"/>
+      <c r="Q162" s="10"/>
+      <c r="R162" s="10"/>
+      <c r="S162" s="10"/>
+      <c r="T162" s="10"/>
+      <c r="U162" s="10"/>
+      <c r="V162" s="10"/>
+      <c r="W162" s="10"/>
+      <c r="X162" s="10"/>
+      <c r="Y162" s="10"/>
+    </row>
+    <row r="163" spans="4:25">
+      <c r="D163" s="10"/>
+      <c r="E163" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="F163" s="7"/>
+      <c r="G163" s="7"/>
+      <c r="H163" s="10"/>
+      <c r="I163" s="10"/>
+      <c r="J163" s="10"/>
+      <c r="K163" s="10"/>
+      <c r="L163" s="10"/>
+      <c r="M163" s="10"/>
+      <c r="N163" s="10"/>
+      <c r="O163" s="10"/>
+      <c r="P163" s="10"/>
+      <c r="Q163" s="10"/>
+      <c r="R163" s="10"/>
+      <c r="S163" s="10"/>
+      <c r="T163" s="10"/>
+      <c r="U163" s="10"/>
+      <c r="V163" s="10"/>
+      <c r="W163" s="10"/>
+      <c r="X163" s="10"/>
+      <c r="Y163" s="10"/>
+    </row>
+    <row r="164" spans="4:25">
+      <c r="D164" s="10"/>
+      <c r="E164" s="7" t="s">
+        <v>966</v>
+      </c>
+      <c r="F164" s="7"/>
+      <c r="G164" s="7"/>
+      <c r="H164" s="10"/>
+      <c r="I164" s="10"/>
+      <c r="J164" s="10"/>
+      <c r="K164" s="10"/>
+      <c r="L164" s="10"/>
+      <c r="M164" s="10"/>
+      <c r="N164" s="10"/>
+      <c r="O164" s="10"/>
+      <c r="P164" s="10"/>
+      <c r="Q164" s="10"/>
+      <c r="R164" s="10"/>
+      <c r="S164" s="10"/>
+      <c r="T164" s="10"/>
+      <c r="U164" s="10"/>
+      <c r="V164" s="10"/>
+      <c r="W164" s="10"/>
+      <c r="X164" s="10"/>
+      <c r="Y164" s="10"/>
+    </row>
+    <row r="165" spans="4:25">
+      <c r="D165" s="10"/>
+      <c r="E165" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="F165" s="7"/>
+      <c r="G165" s="7"/>
+      <c r="H165" s="10"/>
+      <c r="I165" s="10"/>
+      <c r="J165" s="10"/>
+      <c r="K165" s="10"/>
+      <c r="L165" s="10"/>
+      <c r="M165" s="10"/>
+      <c r="N165" s="10"/>
+      <c r="O165" s="10"/>
+      <c r="P165" s="10"/>
+      <c r="Q165" s="10"/>
+      <c r="R165" s="10"/>
+      <c r="S165" s="10"/>
+      <c r="T165" s="10"/>
+      <c r="U165" s="10"/>
+      <c r="V165" s="10"/>
+      <c r="W165" s="10"/>
+      <c r="X165" s="10"/>
+      <c r="Y165" s="10"/>
+    </row>
+    <row r="166" spans="4:25">
+      <c r="D166" s="10"/>
+      <c r="E166" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="F166" s="7"/>
+      <c r="G166" s="7"/>
+      <c r="H166" s="10"/>
+      <c r="I166" s="10"/>
+      <c r="J166" s="10"/>
+      <c r="K166" s="10"/>
+      <c r="L166" s="10"/>
+      <c r="M166" s="10"/>
+      <c r="N166" s="10"/>
+      <c r="O166" s="10"/>
+      <c r="P166" s="10"/>
+      <c r="Q166" s="10"/>
+      <c r="R166" s="10"/>
+      <c r="S166" s="10"/>
+      <c r="T166" s="10"/>
+      <c r="U166" s="10"/>
+      <c r="V166" s="10"/>
+      <c r="W166" s="10"/>
+      <c r="X166" s="10"/>
+      <c r="Y166" s="10"/>
+    </row>
+    <row r="167" spans="4:25">
+      <c r="D167" s="10"/>
+      <c r="E167" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="F167" s="7"/>
+      <c r="G167" s="7"/>
+      <c r="H167" s="10"/>
+      <c r="I167" s="10"/>
+      <c r="J167" s="10"/>
+      <c r="K167" s="10"/>
+      <c r="L167" s="10"/>
+      <c r="M167" s="10"/>
+      <c r="N167" s="10"/>
+      <c r="O167" s="10"/>
+      <c r="P167" s="10"/>
+      <c r="Q167" s="10"/>
+      <c r="R167" s="10"/>
+      <c r="S167" s="10"/>
+      <c r="T167" s="10"/>
+      <c r="U167" s="10"/>
+      <c r="V167" s="10"/>
+      <c r="W167" s="10"/>
+      <c r="X167" s="10"/>
+      <c r="Y167" s="10"/>
+    </row>
+    <row r="168" spans="4:25">
+      <c r="D168" s="10"/>
+      <c r="E168" s="7"/>
+      <c r="F168" s="7" t="s">
+        <v>967</v>
+      </c>
+      <c r="G168" s="7"/>
+      <c r="H168" s="10"/>
+      <c r="I168" s="10"/>
+      <c r="J168" s="10"/>
+      <c r="K168" s="10"/>
+      <c r="L168" s="10"/>
+      <c r="M168" s="10"/>
+      <c r="N168" s="10"/>
+      <c r="O168" s="10"/>
+      <c r="P168" s="10"/>
+      <c r="Q168" s="10"/>
+      <c r="R168" s="10"/>
+      <c r="S168" s="10"/>
+      <c r="T168" s="10"/>
+      <c r="U168" s="10"/>
+      <c r="V168" s="10"/>
+      <c r="W168" s="10"/>
+      <c r="X168" s="10"/>
+      <c r="Y168" s="10"/>
+    </row>
+    <row r="169" spans="4:25">
+      <c r="D169" s="10"/>
+      <c r="E169" s="7"/>
+      <c r="F169" s="7" t="s">
+        <v>968</v>
+      </c>
+      <c r="G169" s="7"/>
+      <c r="H169" s="10"/>
+      <c r="I169" s="10"/>
+      <c r="J169" s="10"/>
+      <c r="K169" s="10"/>
+      <c r="L169" s="10"/>
+      <c r="M169" s="10"/>
+      <c r="N169" s="10"/>
+      <c r="O169" s="10"/>
+      <c r="P169" s="10"/>
+      <c r="Q169" s="10"/>
+      <c r="R169" s="10"/>
+      <c r="S169" s="10"/>
+      <c r="T169" s="10"/>
+      <c r="U169" s="10"/>
+      <c r="V169" s="10"/>
+      <c r="W169" s="10"/>
+      <c r="X169" s="10"/>
+      <c r="Y169" s="10"/>
+    </row>
+    <row r="170" spans="4:25">
+      <c r="D170" s="10"/>
+      <c r="E170" s="7"/>
+      <c r="F170" s="7" t="s">
+        <v>969</v>
+      </c>
+      <c r="G170" s="7"/>
+      <c r="H170" s="10"/>
+      <c r="I170" s="10"/>
+      <c r="J170" s="10"/>
+      <c r="K170" s="10"/>
+      <c r="L170" s="10"/>
+      <c r="M170" s="10"/>
+      <c r="N170" s="10"/>
+      <c r="O170" s="10"/>
+      <c r="P170" s="10"/>
+      <c r="Q170" s="10"/>
+      <c r="R170" s="10"/>
+      <c r="S170" s="10"/>
+      <c r="T170" s="10"/>
+      <c r="U170" s="10"/>
+      <c r="V170" s="10"/>
+      <c r="W170" s="10"/>
+      <c r="X170" s="10"/>
+      <c r="Y170" s="10"/>
+    </row>
+    <row r="171" spans="4:25">
+      <c r="D171" s="10"/>
+      <c r="E171" s="7"/>
+      <c r="F171" s="7" t="s">
+        <v>970</v>
+      </c>
+      <c r="G171" s="7"/>
+      <c r="H171" s="10"/>
+      <c r="I171" s="10"/>
+      <c r="J171" s="10"/>
+      <c r="K171" s="10"/>
+      <c r="L171" s="10"/>
+      <c r="M171" s="10"/>
+      <c r="N171" s="10"/>
+      <c r="O171" s="10"/>
+      <c r="P171" s="10"/>
+      <c r="Q171" s="10"/>
+      <c r="R171" s="10"/>
+      <c r="S171" s="10"/>
+      <c r="T171" s="10"/>
+      <c r="U171" s="10"/>
+      <c r="V171" s="10"/>
+      <c r="W171" s="10"/>
+      <c r="X171" s="10"/>
+      <c r="Y171" s="10"/>
+    </row>
+    <row r="172" spans="4:25">
+      <c r="D172" s="10"/>
+      <c r="E172" s="7"/>
+      <c r="F172" s="7" t="s">
+        <v>971</v>
+      </c>
+      <c r="G172" s="7"/>
+      <c r="H172" s="10"/>
+      <c r="I172" s="10"/>
+      <c r="J172" s="10"/>
+      <c r="K172" s="10"/>
+      <c r="L172" s="10"/>
+      <c r="M172" s="10"/>
+      <c r="N172" s="10"/>
+      <c r="O172" s="10"/>
+      <c r="P172" s="10"/>
+      <c r="Q172" s="10"/>
+      <c r="R172" s="10"/>
+      <c r="S172" s="10"/>
+      <c r="T172" s="10"/>
+      <c r="U172" s="10"/>
+      <c r="V172" s="10"/>
+      <c r="W172" s="10"/>
+      <c r="X172" s="10"/>
+      <c r="Y172" s="10"/>
+    </row>
+    <row r="173" spans="4:25">
+      <c r="D173" s="10"/>
+      <c r="E173" s="7"/>
+      <c r="F173" s="7" t="s">
+        <v>972</v>
+      </c>
+      <c r="G173" s="7"/>
+      <c r="H173" s="10"/>
+      <c r="I173" s="10"/>
+      <c r="J173" s="10"/>
+      <c r="K173" s="10"/>
+      <c r="L173" s="10"/>
+      <c r="M173" s="10"/>
+      <c r="N173" s="10"/>
+      <c r="O173" s="10"/>
+      <c r="P173" s="10"/>
+      <c r="Q173" s="10"/>
+      <c r="R173" s="10"/>
+      <c r="S173" s="10"/>
+      <c r="T173" s="10"/>
+      <c r="U173" s="10"/>
+      <c r="V173" s="10"/>
+      <c r="W173" s="10"/>
+      <c r="X173" s="10"/>
+      <c r="Y173" s="10"/>
+    </row>
+    <row r="174" spans="4:25">
+      <c r="D174" s="10"/>
+      <c r="E174" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="F174" s="7"/>
+      <c r="G174" s="7"/>
+      <c r="H174" s="10"/>
+      <c r="I174" s="10"/>
+      <c r="J174" s="10"/>
+      <c r="K174" s="10"/>
+      <c r="L174" s="10"/>
+      <c r="M174" s="10"/>
+      <c r="N174" s="10"/>
+      <c r="O174" s="10"/>
+      <c r="P174" s="10"/>
+      <c r="Q174" s="10"/>
+      <c r="R174" s="10"/>
+      <c r="S174" s="10"/>
+      <c r="T174" s="10"/>
+      <c r="U174" s="10"/>
+      <c r="V174" s="10"/>
+      <c r="W174" s="10"/>
+      <c r="X174" s="10"/>
+      <c r="Y174" s="10"/>
+    </row>
+    <row r="175" spans="4:25">
+      <c r="D175" s="10"/>
+      <c r="E175" s="7"/>
+      <c r="F175" s="7" t="s">
+        <v>973</v>
+      </c>
+      <c r="G175" s="7"/>
+      <c r="H175" s="10"/>
+      <c r="I175" s="10"/>
+      <c r="J175" s="10"/>
+      <c r="K175" s="10"/>
+      <c r="L175" s="10"/>
+      <c r="M175" s="10"/>
+      <c r="N175" s="10"/>
+      <c r="O175" s="10"/>
+      <c r="P175" s="10"/>
+      <c r="Q175" s="10"/>
+      <c r="R175" s="10"/>
+      <c r="S175" s="10"/>
+      <c r="T175" s="10"/>
+      <c r="U175" s="10"/>
+      <c r="V175" s="10"/>
+      <c r="W175" s="10"/>
+      <c r="X175" s="10"/>
+      <c r="Y175" s="10"/>
+    </row>
+    <row r="176" spans="4:25">
+      <c r="D176" s="10"/>
+      <c r="E176" s="7"/>
+      <c r="F176" s="7" t="s">
+        <v>974</v>
+      </c>
+      <c r="G176" s="7"/>
+      <c r="H176" s="10"/>
+      <c r="I176" s="10"/>
+      <c r="J176" s="10"/>
+      <c r="K176" s="10"/>
+      <c r="L176" s="10"/>
+      <c r="M176" s="10"/>
+      <c r="N176" s="10"/>
+      <c r="O176" s="10"/>
+      <c r="P176" s="10"/>
+      <c r="Q176" s="10"/>
+      <c r="R176" s="10"/>
+      <c r="S176" s="10"/>
+      <c r="T176" s="10"/>
+      <c r="U176" s="10"/>
+      <c r="V176" s="10"/>
+      <c r="W176" s="10"/>
+      <c r="X176" s="10"/>
+      <c r="Y176" s="10"/>
+    </row>
+    <row r="177" spans="4:25">
+      <c r="D177" s="10"/>
+      <c r="E177" s="7"/>
+      <c r="F177" s="7" t="s">
+        <v>975</v>
+      </c>
+      <c r="G177" s="7"/>
+      <c r="H177" s="10"/>
+      <c r="I177" s="10"/>
+      <c r="J177" s="10"/>
+      <c r="K177" s="10"/>
+      <c r="L177" s="10"/>
+      <c r="M177" s="10"/>
+      <c r="N177" s="10"/>
+      <c r="O177" s="10"/>
+      <c r="P177" s="10"/>
+      <c r="Q177" s="10"/>
+      <c r="R177" s="10"/>
+      <c r="S177" s="10"/>
+      <c r="T177" s="10"/>
+      <c r="U177" s="10"/>
+      <c r="V177" s="10"/>
+      <c r="W177" s="10"/>
+      <c r="X177" s="10"/>
+      <c r="Y177" s="10"/>
+    </row>
+    <row r="178" spans="4:25">
+      <c r="D178" s="10"/>
+      <c r="E178" s="7"/>
+      <c r="F178" s="7" t="s">
+        <v>976</v>
+      </c>
+      <c r="G178" s="7"/>
+      <c r="H178" s="10"/>
+      <c r="I178" s="10"/>
+      <c r="J178" s="10"/>
+      <c r="K178" s="10"/>
+      <c r="L178" s="10"/>
+      <c r="M178" s="10"/>
+      <c r="N178" s="10"/>
+      <c r="O178" s="10"/>
+      <c r="P178" s="10"/>
+      <c r="Q178" s="10"/>
+      <c r="R178" s="10"/>
+      <c r="S178" s="10"/>
+      <c r="T178" s="10"/>
+      <c r="U178" s="10"/>
+      <c r="V178" s="10"/>
+      <c r="W178" s="10"/>
+      <c r="X178" s="10"/>
+      <c r="Y178" s="10"/>
+    </row>
+    <row r="179" spans="4:25">
+      <c r="D179" s="10"/>
+      <c r="E179" s="7"/>
+      <c r="F179" s="7" t="s">
+        <v>977</v>
+      </c>
+      <c r="G179" s="7"/>
+      <c r="H179" s="10"/>
+      <c r="I179" s="10"/>
+      <c r="J179" s="10"/>
+      <c r="K179" s="10"/>
+      <c r="L179" s="10"/>
+      <c r="M179" s="10"/>
+      <c r="N179" s="10"/>
+      <c r="O179" s="10"/>
+      <c r="P179" s="10"/>
+      <c r="Q179" s="10"/>
+      <c r="R179" s="10"/>
+      <c r="S179" s="10"/>
+      <c r="T179" s="10"/>
+      <c r="U179" s="10"/>
+      <c r="V179" s="10"/>
+      <c r="W179" s="10"/>
+      <c r="X179" s="10"/>
+      <c r="Y179" s="10"/>
+    </row>
+    <row r="180" spans="4:25">
+      <c r="D180" s="10"/>
+      <c r="E180" s="7"/>
+      <c r="F180" s="7" t="s">
+        <v>978</v>
+      </c>
+      <c r="G180" s="7"/>
+      <c r="H180" s="10"/>
+      <c r="I180" s="10"/>
+      <c r="J180" s="10"/>
+      <c r="K180" s="10"/>
+      <c r="L180" s="10"/>
+      <c r="M180" s="10"/>
+      <c r="N180" s="10"/>
+      <c r="O180" s="10"/>
+      <c r="P180" s="10"/>
+      <c r="Q180" s="10"/>
+      <c r="R180" s="10"/>
+      <c r="S180" s="10"/>
+      <c r="T180" s="10"/>
+      <c r="U180" s="10"/>
+      <c r="V180" s="10"/>
+      <c r="W180" s="10"/>
+      <c r="X180" s="10"/>
+      <c r="Y180" s="10"/>
+    </row>
+    <row r="181" spans="4:25">
+      <c r="D181" s="10"/>
+      <c r="E181" s="7"/>
+      <c r="F181" s="7" t="s">
+        <v>979</v>
+      </c>
+      <c r="G181" s="7"/>
+      <c r="H181" s="10"/>
+      <c r="I181" s="10"/>
+      <c r="J181" s="10"/>
+      <c r="K181" s="10"/>
+      <c r="L181" s="10"/>
+      <c r="M181" s="10"/>
+      <c r="N181" s="10"/>
+      <c r="O181" s="10"/>
+      <c r="P181" s="10"/>
+      <c r="Q181" s="10"/>
+      <c r="R181" s="10"/>
+      <c r="S181" s="10"/>
+      <c r="T181" s="10"/>
+      <c r="U181" s="10"/>
+      <c r="V181" s="10"/>
+      <c r="W181" s="10"/>
+      <c r="X181" s="10"/>
+      <c r="Y181" s="10"/>
+    </row>
+    <row r="182" spans="4:25">
+      <c r="D182" s="10"/>
+      <c r="E182" s="7"/>
+      <c r="F182" s="7" t="s">
+        <v>980</v>
+      </c>
+      <c r="G182" s="7"/>
+      <c r="H182" s="10"/>
+      <c r="I182" s="10"/>
+      <c r="J182" s="10"/>
+      <c r="K182" s="10"/>
+      <c r="L182" s="10"/>
+      <c r="M182" s="10"/>
+      <c r="N182" s="10"/>
+      <c r="O182" s="10"/>
+      <c r="P182" s="10"/>
+      <c r="Q182" s="10"/>
+      <c r="R182" s="10"/>
+      <c r="S182" s="10"/>
+      <c r="T182" s="10"/>
+      <c r="U182" s="10"/>
+      <c r="V182" s="10"/>
+      <c r="W182" s="10"/>
+      <c r="X182" s="10"/>
+      <c r="Y182" s="10"/>
+    </row>
+    <row r="183" spans="4:25">
+      <c r="D183" s="10"/>
+      <c r="E183" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="F183" s="7"/>
+      <c r="G183" s="7"/>
+      <c r="H183" s="10"/>
+      <c r="I183" s="10"/>
+      <c r="J183" s="10"/>
+      <c r="K183" s="10"/>
+      <c r="L183" s="10"/>
+      <c r="M183" s="10"/>
+      <c r="N183" s="10"/>
+      <c r="O183" s="10"/>
+      <c r="P183" s="10"/>
+      <c r="Q183" s="10"/>
+      <c r="R183" s="10"/>
+      <c r="S183" s="10"/>
+      <c r="T183" s="10"/>
+      <c r="U183" s="10"/>
+      <c r="V183" s="10"/>
+      <c r="W183" s="10"/>
+      <c r="X183" s="10"/>
+      <c r="Y183" s="10"/>
+    </row>
+    <row r="184" spans="4:25">
+      <c r="D184" s="10"/>
+      <c r="E184" s="7"/>
+      <c r="F184" s="7" t="s">
+        <v>981</v>
+      </c>
+      <c r="G184" s="7"/>
+      <c r="H184" s="10"/>
+      <c r="I184" s="10"/>
+      <c r="J184" s="10"/>
+      <c r="K184" s="10"/>
+      <c r="L184" s="10"/>
+      <c r="M184" s="10"/>
+      <c r="N184" s="10"/>
+      <c r="O184" s="10"/>
+      <c r="P184" s="10"/>
+      <c r="Q184" s="10"/>
+      <c r="R184" s="10"/>
+      <c r="S184" s="10"/>
+      <c r="T184" s="10"/>
+      <c r="U184" s="10"/>
+      <c r="V184" s="10"/>
+      <c r="W184" s="10"/>
+      <c r="X184" s="10"/>
+      <c r="Y184" s="10"/>
+    </row>
+    <row r="185" spans="4:25">
+      <c r="D185" s="10"/>
+      <c r="E185" s="7"/>
+      <c r="F185" s="7" t="s">
+        <v>982</v>
+      </c>
+      <c r="G185" s="7"/>
+      <c r="H185" s="10"/>
+      <c r="I185" s="10"/>
+      <c r="J185" s="10"/>
+      <c r="K185" s="10"/>
+      <c r="L185" s="10"/>
+      <c r="M185" s="10"/>
+      <c r="N185" s="10"/>
+      <c r="O185" s="10"/>
+      <c r="P185" s="10"/>
+      <c r="Q185" s="10"/>
+      <c r="R185" s="10"/>
+      <c r="S185" s="10"/>
+      <c r="T185" s="10"/>
+      <c r="U185" s="10"/>
+      <c r="V185" s="10"/>
+      <c r="W185" s="10"/>
+      <c r="X185" s="10"/>
+      <c r="Y185" s="10"/>
+    </row>
+    <row r="186" spans="4:25">
+      <c r="D186" s="10"/>
+      <c r="E186" s="7"/>
+      <c r="F186" s="7" t="s">
+        <v>983</v>
+      </c>
+      <c r="G186" s="7"/>
+      <c r="H186" s="10"/>
+      <c r="I186" s="10"/>
+      <c r="J186" s="10"/>
+      <c r="K186" s="10"/>
+      <c r="L186" s="10"/>
+      <c r="M186" s="10"/>
+      <c r="N186" s="10"/>
+      <c r="O186" s="10"/>
+      <c r="P186" s="10"/>
+      <c r="Q186" s="10"/>
+      <c r="R186" s="10"/>
+      <c r="S186" s="10"/>
+      <c r="T186" s="10"/>
+      <c r="U186" s="10"/>
+      <c r="V186" s="10"/>
+      <c r="W186" s="10"/>
+      <c r="X186" s="10"/>
+      <c r="Y186" s="10"/>
+    </row>
+    <row r="187" spans="4:25">
+      <c r="D187" s="10"/>
+      <c r="E187" s="7"/>
+      <c r="F187" s="7" t="s">
+        <v>984</v>
+      </c>
+      <c r="G187" s="7"/>
+      <c r="H187" s="10"/>
+      <c r="I187" s="10"/>
+      <c r="J187" s="10"/>
+      <c r="K187" s="10"/>
+      <c r="L187" s="10"/>
+      <c r="M187" s="10"/>
+      <c r="N187" s="10"/>
+      <c r="O187" s="10"/>
+      <c r="P187" s="10"/>
+      <c r="Q187" s="10"/>
+      <c r="R187" s="10"/>
+      <c r="S187" s="10"/>
+      <c r="T187" s="10"/>
+      <c r="U187" s="10"/>
+      <c r="V187" s="10"/>
+      <c r="W187" s="10"/>
+      <c r="X187" s="10"/>
+      <c r="Y187" s="10"/>
+    </row>
+    <row r="188" spans="4:25">
+      <c r="D188" s="10"/>
+      <c r="E188" s="7"/>
+      <c r="F188" s="7" t="s">
+        <v>985</v>
+      </c>
+      <c r="G188" s="7"/>
+      <c r="H188" s="10"/>
+      <c r="I188" s="10"/>
+      <c r="J188" s="10"/>
+      <c r="K188" s="10"/>
+      <c r="L188" s="10"/>
+      <c r="M188" s="10"/>
+      <c r="N188" s="10"/>
+      <c r="O188" s="10"/>
+      <c r="P188" s="10"/>
+      <c r="Q188" s="10"/>
+      <c r="R188" s="10"/>
+      <c r="S188" s="10"/>
+      <c r="T188" s="10"/>
+      <c r="U188" s="10"/>
+      <c r="V188" s="10"/>
+      <c r="W188" s="10"/>
+      <c r="X188" s="10"/>
+      <c r="Y188" s="10"/>
+    </row>
+    <row r="189" spans="4:25">
+      <c r="D189" s="10"/>
+      <c r="E189" s="7"/>
+      <c r="F189" s="7" t="s">
+        <v>986</v>
+      </c>
+      <c r="G189" s="7"/>
+      <c r="H189" s="10"/>
+      <c r="I189" s="10"/>
+      <c r="J189" s="10"/>
+      <c r="K189" s="10"/>
+      <c r="L189" s="10"/>
+      <c r="M189" s="10"/>
+      <c r="N189" s="10"/>
+      <c r="O189" s="10"/>
+      <c r="P189" s="10"/>
+      <c r="Q189" s="10"/>
+      <c r="R189" s="10"/>
+      <c r="S189" s="10"/>
+      <c r="T189" s="10"/>
+      <c r="U189" s="10"/>
+      <c r="V189" s="10"/>
+      <c r="W189" s="10"/>
+      <c r="X189" s="10"/>
+      <c r="Y189" s="10"/>
+    </row>
+    <row r="190" spans="4:25">
+      <c r="D190" s="10"/>
+      <c r="E190" s="7"/>
+      <c r="F190" s="7" t="s">
+        <v>987</v>
+      </c>
+      <c r="G190" s="7"/>
+      <c r="H190" s="10"/>
+      <c r="I190" s="10"/>
+      <c r="J190" s="10"/>
+      <c r="K190" s="10"/>
+      <c r="L190" s="10"/>
+      <c r="M190" s="10"/>
+      <c r="N190" s="10"/>
+      <c r="O190" s="10"/>
+      <c r="P190" s="10"/>
+      <c r="Q190" s="10"/>
+      <c r="R190" s="10"/>
+      <c r="S190" s="10"/>
+      <c r="T190" s="10"/>
+      <c r="U190" s="10"/>
+      <c r="V190" s="10"/>
+      <c r="W190" s="10"/>
+      <c r="X190" s="10"/>
+      <c r="Y190" s="10"/>
+    </row>
+    <row r="191" spans="4:25">
+      <c r="D191" s="10"/>
+      <c r="E191" s="7"/>
+      <c r="F191" s="7" t="s">
+        <v>988</v>
+      </c>
+      <c r="G191" s="7"/>
+      <c r="H191" s="10"/>
+      <c r="I191" s="10"/>
+      <c r="J191" s="10"/>
+      <c r="K191" s="10"/>
+      <c r="L191" s="10"/>
+      <c r="M191" s="10"/>
+      <c r="N191" s="10"/>
+      <c r="O191" s="10"/>
+      <c r="P191" s="10"/>
+      <c r="Q191" s="10"/>
+      <c r="R191" s="10"/>
+      <c r="S191" s="10"/>
+      <c r="T191" s="10"/>
+      <c r="U191" s="10"/>
+      <c r="V191" s="10"/>
+      <c r="W191" s="10"/>
+      <c r="X191" s="10"/>
+      <c r="Y191" s="10"/>
+    </row>
+    <row r="192" spans="4:25">
+      <c r="D192" s="10"/>
+      <c r="E192" s="7"/>
+      <c r="F192" s="7" t="s">
+        <v>989</v>
+      </c>
+      <c r="G192" s="7"/>
+      <c r="H192" s="10"/>
+      <c r="I192" s="10"/>
+      <c r="J192" s="10"/>
+      <c r="K192" s="10"/>
+      <c r="L192" s="10"/>
+      <c r="M192" s="10"/>
+      <c r="N192" s="10"/>
+      <c r="O192" s="10"/>
+      <c r="P192" s="10"/>
+      <c r="Q192" s="10"/>
+      <c r="R192" s="10"/>
+      <c r="S192" s="10"/>
+      <c r="T192" s="10"/>
+      <c r="U192" s="10"/>
+      <c r="V192" s="10"/>
+      <c r="W192" s="10"/>
+      <c r="X192" s="10"/>
+      <c r="Y192" s="10"/>
+    </row>
+    <row r="193" spans="1:52">
+      <c r="D193" s="10"/>
+      <c r="E193" s="7"/>
+      <c r="F193" s="7" t="s">
+        <v>990</v>
+      </c>
+      <c r="G193" s="7"/>
+      <c r="H193" s="10"/>
+      <c r="I193" s="10"/>
+      <c r="J193" s="10"/>
+      <c r="K193" s="10"/>
+      <c r="L193" s="10"/>
+      <c r="M193" s="10"/>
+      <c r="N193" s="10"/>
+      <c r="O193" s="10"/>
+      <c r="P193" s="10"/>
+      <c r="Q193" s="10"/>
+      <c r="R193" s="10"/>
+      <c r="S193" s="10"/>
+      <c r="T193" s="10"/>
+      <c r="U193" s="10"/>
+      <c r="V193" s="10"/>
+      <c r="W193" s="10"/>
+      <c r="X193" s="10"/>
+      <c r="Y193" s="10"/>
+    </row>
+    <row r="194" spans="1:52">
+      <c r="D194" s="10"/>
+      <c r="E194" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="F194" s="7"/>
+      <c r="G194" s="7"/>
+      <c r="H194" s="10"/>
+      <c r="I194" s="10"/>
+      <c r="J194" s="10"/>
+      <c r="K194" s="10"/>
+      <c r="L194" s="10"/>
+      <c r="M194" s="10"/>
+      <c r="N194" s="10"/>
+      <c r="O194" s="10"/>
+      <c r="P194" s="10"/>
+      <c r="Q194" s="10"/>
+      <c r="R194" s="10"/>
+      <c r="S194" s="10"/>
+      <c r="T194" s="10"/>
+      <c r="U194" s="10"/>
+      <c r="V194" s="10"/>
+      <c r="W194" s="10"/>
+      <c r="X194" s="10"/>
+      <c r="Y194" s="10"/>
+    </row>
+    <row r="195" spans="1:52">
+      <c r="D195" s="10"/>
+      <c r="E195" s="7"/>
+      <c r="F195" s="7" t="s">
+        <v>991</v>
+      </c>
+      <c r="G195" s="7"/>
+      <c r="H195" s="10"/>
+      <c r="I195" s="10"/>
+      <c r="J195" s="10"/>
+      <c r="K195" s="10"/>
+      <c r="L195" s="10"/>
+      <c r="M195" s="10"/>
+      <c r="N195" s="10"/>
+      <c r="O195" s="10"/>
+      <c r="P195" s="10"/>
+      <c r="Q195" s="10"/>
+      <c r="R195" s="10"/>
+      <c r="S195" s="10"/>
+      <c r="T195" s="10"/>
+      <c r="U195" s="10"/>
+      <c r="V195" s="10"/>
+      <c r="W195" s="10"/>
+      <c r="X195" s="10"/>
+      <c r="Y195" s="10"/>
+    </row>
+    <row r="196" spans="1:52">
+      <c r="D196" s="10"/>
+      <c r="E196" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="F196" s="7"/>
+      <c r="G196" s="7"/>
+      <c r="H196" s="10"/>
+      <c r="I196" s="10"/>
+      <c r="J196" s="10"/>
+      <c r="K196" s="10"/>
+      <c r="L196" s="10"/>
+      <c r="M196" s="10"/>
+      <c r="N196" s="10"/>
+      <c r="O196" s="10"/>
+      <c r="P196" s="10"/>
+      <c r="Q196" s="10"/>
+      <c r="R196" s="10"/>
+      <c r="S196" s="10"/>
+      <c r="T196" s="10"/>
+      <c r="U196" s="10"/>
+      <c r="V196" s="10"/>
+      <c r="W196" s="10"/>
+      <c r="X196" s="10"/>
+      <c r="Y196" s="10"/>
+    </row>
+    <row r="197" spans="1:52">
+      <c r="D197" s="10"/>
+      <c r="E197" s="7"/>
+      <c r="F197" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="G197" s="7"/>
+      <c r="H197" s="10"/>
+      <c r="I197" s="10"/>
+      <c r="J197" s="10"/>
+      <c r="K197" s="10"/>
+      <c r="L197" s="10"/>
+      <c r="M197" s="10"/>
+      <c r="N197" s="10"/>
+      <c r="O197" s="10"/>
+      <c r="P197" s="10"/>
+      <c r="Q197" s="10"/>
+      <c r="R197" s="10"/>
+      <c r="S197" s="10"/>
+      <c r="T197" s="10"/>
+      <c r="U197" s="10"/>
+      <c r="V197" s="10"/>
+      <c r="W197" s="10"/>
+      <c r="X197" s="10"/>
+      <c r="Y197" s="10"/>
+    </row>
+    <row r="198" spans="1:52">
+      <c r="D198" s="10"/>
+      <c r="E198" s="7"/>
+      <c r="F198" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="G198" s="7"/>
+      <c r="H198" s="10"/>
+      <c r="I198" s="10"/>
+      <c r="J198" s="10"/>
+      <c r="K198" s="10"/>
+      <c r="L198" s="10"/>
+      <c r="M198" s="10"/>
+      <c r="N198" s="10"/>
+      <c r="O198" s="10"/>
+      <c r="P198" s="10"/>
+      <c r="Q198" s="10"/>
+      <c r="R198" s="10"/>
+      <c r="S198" s="10"/>
+      <c r="T198" s="10"/>
+      <c r="U198" s="10"/>
+      <c r="V198" s="10"/>
+      <c r="W198" s="10"/>
+      <c r="X198" s="10"/>
+      <c r="Y198" s="10"/>
+    </row>
+    <row r="199" spans="1:52">
+      <c r="D199" s="10"/>
+      <c r="E199" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="F199" s="7"/>
+      <c r="G199" s="7"/>
+      <c r="H199" s="10"/>
+      <c r="I199" s="10"/>
+      <c r="J199" s="10"/>
+      <c r="K199" s="10"/>
+      <c r="L199" s="10"/>
+      <c r="M199" s="10"/>
+      <c r="N199" s="10"/>
+      <c r="O199" s="10"/>
+      <c r="P199" s="10"/>
+      <c r="Q199" s="10"/>
+      <c r="R199" s="10"/>
+      <c r="S199" s="10"/>
+      <c r="T199" s="10"/>
+      <c r="U199" s="10"/>
+      <c r="V199" s="10"/>
+      <c r="W199" s="10"/>
+      <c r="X199" s="10"/>
+      <c r="Y199" s="10"/>
+    </row>
+    <row r="200" spans="1:52">
+      <c r="D200" s="10"/>
+      <c r="E200" s="10"/>
+      <c r="F200" s="10"/>
+      <c r="G200" s="10"/>
+      <c r="H200" s="10"/>
+      <c r="I200" s="10"/>
+      <c r="J200" s="10"/>
+      <c r="K200" s="10"/>
+      <c r="L200" s="10"/>
+      <c r="M200" s="10"/>
+      <c r="N200" s="10"/>
+      <c r="O200" s="10"/>
+      <c r="P200" s="10"/>
+      <c r="Q200" s="10"/>
+      <c r="R200" s="10"/>
+      <c r="S200" s="10"/>
+      <c r="T200" s="10"/>
+      <c r="U200" s="10"/>
+      <c r="V200" s="10"/>
+      <c r="W200" s="10"/>
+      <c r="X200" s="10"/>
+      <c r="Y200" s="10"/>
+    </row>
+    <row r="203" spans="1:52">
+      <c r="A203" s="4"/>
+      <c r="B203" s="4"/>
+      <c r="C203" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D203" s="1" t="s">
+        <v>992</v>
+      </c>
+      <c r="E203" s="4"/>
+      <c r="F203" s="4"/>
+      <c r="G203" s="4"/>
+      <c r="H203" s="4"/>
+      <c r="I203" s="4"/>
+      <c r="J203" s="4"/>
+      <c r="K203" s="4"/>
+      <c r="L203" s="4"/>
+      <c r="M203" s="4"/>
+      <c r="N203" s="4"/>
+      <c r="O203" s="4"/>
+      <c r="P203" s="4"/>
+      <c r="Q203" s="4"/>
+      <c r="R203" s="4"/>
+      <c r="S203" s="4"/>
+      <c r="T203" s="4"/>
+      <c r="U203" s="4"/>
+      <c r="V203" s="4"/>
+      <c r="W203" s="4"/>
+      <c r="X203" s="4"/>
+      <c r="Y203" s="4"/>
+      <c r="Z203" s="4"/>
+      <c r="AA203" s="4"/>
+      <c r="AB203" s="4"/>
+      <c r="AC203" s="4"/>
+      <c r="AD203" s="4"/>
+      <c r="AE203" s="4"/>
+      <c r="AF203" s="4"/>
+      <c r="AG203" s="4"/>
+      <c r="AH203" s="4"/>
+      <c r="AI203" s="4"/>
+      <c r="AJ203" s="4"/>
+      <c r="AK203" s="4"/>
+      <c r="AL203" s="4"/>
+      <c r="AM203" s="4"/>
+      <c r="AN203" s="4"/>
+      <c r="AO203" s="4"/>
+      <c r="AP203" s="4"/>
+      <c r="AQ203" s="4"/>
+      <c r="AR203" s="4"/>
+      <c r="AS203" s="4"/>
+      <c r="AT203" s="4"/>
+      <c r="AU203" s="4"/>
+      <c r="AV203" s="4"/>
+      <c r="AW203" s="4"/>
+      <c r="AX203" s="4"/>
+      <c r="AY203" s="4"/>
+      <c r="AZ203" s="4"/>
+    </row>
+    <row r="205" spans="1:52">
+      <c r="D205" s="3" t="s">
+        <v>893</v>
+      </c>
+    </row>
+    <row r="206" spans="1:52">
+      <c r="D206" s="31" t="s">
+        <v>905</v>
+      </c>
+      <c r="E206" s="2" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="207" spans="1:52">
+      <c r="D207" s="31" t="s">
+        <v>905</v>
+      </c>
+      <c r="E207" s="2" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="208" spans="1:52">
+      <c r="D208" s="31" t="s">
+        <v>905</v>
+      </c>
+      <c r="E208" s="2" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="209" spans="4:5">
+      <c r="D209" s="31" t="s">
+        <v>905</v>
+      </c>
+      <c r="E209" s="2" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="211" spans="4:5">
+      <c r="D211" s="3" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="212" spans="4:5">
+      <c r="D212" s="31" t="s">
+        <v>905</v>
+      </c>
+      <c r="E212" s="2" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="213" spans="4:5">
+      <c r="D213" s="31" t="s">
+        <v>905</v>
+      </c>
+      <c r="E213" s="2" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="215" spans="4:5">
+      <c r="D215" s="3" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="216" spans="4:5">
+      <c r="D216" s="31" t="s">
+        <v>905</v>
+      </c>
+      <c r="E216" s="2" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="217" spans="4:5">
+      <c r="D217" s="31" t="s">
+        <v>905</v>
+      </c>
+      <c r="E217" s="2" t="s">
+        <v>999</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:AZ161"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.77734375" defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="3" spans="1:52">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>1001</v>
+      </c>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="4"/>
+      <c r="S3" s="4"/>
+      <c r="T3" s="4"/>
+      <c r="U3" s="4"/>
+      <c r="V3" s="4"/>
+      <c r="W3" s="4"/>
+      <c r="X3" s="4"/>
+      <c r="Y3" s="4"/>
+      <c r="Z3" s="4"/>
+      <c r="AA3" s="4"/>
+      <c r="AB3" s="4"/>
+      <c r="AC3" s="4"/>
+      <c r="AD3" s="4"/>
+      <c r="AE3" s="4"/>
+      <c r="AF3" s="4"/>
+      <c r="AG3" s="4"/>
+      <c r="AH3" s="4"/>
+      <c r="AI3" s="4"/>
+      <c r="AJ3" s="4"/>
+      <c r="AK3" s="4"/>
+      <c r="AL3" s="4"/>
+      <c r="AM3" s="4"/>
+      <c r="AN3" s="4"/>
+      <c r="AO3" s="4"/>
+      <c r="AP3" s="4"/>
+      <c r="AQ3" s="4"/>
+      <c r="AR3" s="4"/>
+      <c r="AS3" s="4"/>
+      <c r="AT3" s="4"/>
+      <c r="AU3" s="4"/>
+      <c r="AV3" s="4"/>
+      <c r="AW3" s="4"/>
+      <c r="AX3" s="4"/>
+      <c r="AY3" s="4"/>
+      <c r="AZ3" s="4"/>
+    </row>
+    <row r="5" spans="1:52">
+      <c r="D5" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="6" spans="1:52">
+      <c r="D6" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="7" spans="1:52">
+      <c r="D7" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="16" spans="1:52">
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="10"/>
+      <c r="L16" s="10"/>
+      <c r="M16" s="10"/>
+      <c r="N16" s="10"/>
+      <c r="O16" s="10"/>
+      <c r="P16" s="10"/>
+      <c r="Q16" s="10"/>
+      <c r="R16" s="10"/>
+      <c r="S16" s="10"/>
+      <c r="T16" s="10"/>
+      <c r="U16" s="10"/>
+      <c r="V16" s="10"/>
+      <c r="W16" s="10"/>
+      <c r="X16" s="10"/>
+      <c r="Y16" s="10"/>
+      <c r="Z16" s="10"/>
+      <c r="AA16" s="10"/>
+      <c r="AB16" s="10"/>
+      <c r="AC16" s="10"/>
+    </row>
+    <row r="17" spans="1:52">
+      <c r="D17" s="10"/>
+      <c r="E17" s="7" t="s">
+        <v>1005</v>
+      </c>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="10"/>
+      <c r="L17" s="10"/>
+      <c r="M17" s="10"/>
+      <c r="N17" s="10"/>
+      <c r="O17" s="10"/>
+      <c r="P17" s="10"/>
+      <c r="Q17" s="10"/>
+      <c r="R17" s="10"/>
+      <c r="S17" s="10"/>
+      <c r="T17" s="10"/>
+      <c r="U17" s="10"/>
+      <c r="V17" s="10"/>
+      <c r="W17" s="10"/>
+      <c r="X17" s="10"/>
+      <c r="Y17" s="10"/>
+      <c r="Z17" s="10"/>
+      <c r="AA17" s="10"/>
+      <c r="AB17" s="10"/>
+      <c r="AC17" s="10"/>
+    </row>
+    <row r="18" spans="1:52">
+      <c r="D18" s="10"/>
+      <c r="E18" s="7" t="s">
+        <v>1006</v>
+      </c>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="10"/>
+      <c r="K18" s="10"/>
+      <c r="L18" s="10"/>
+      <c r="M18" s="10"/>
+      <c r="N18" s="10"/>
+      <c r="O18" s="10"/>
+      <c r="P18" s="10"/>
+      <c r="Q18" s="10"/>
+      <c r="R18" s="10"/>
+      <c r="S18" s="10"/>
+      <c r="T18" s="10"/>
+      <c r="U18" s="10"/>
+      <c r="V18" s="10"/>
+      <c r="W18" s="10"/>
+      <c r="X18" s="10"/>
+      <c r="Y18" s="10"/>
+      <c r="Z18" s="10"/>
+      <c r="AA18" s="10"/>
+      <c r="AB18" s="10"/>
+      <c r="AC18" s="10"/>
+    </row>
+    <row r="19" spans="1:52">
+      <c r="D19" s="10"/>
+      <c r="E19" s="10"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="10"/>
+      <c r="K19" s="10"/>
+      <c r="L19" s="10"/>
+      <c r="M19" s="10"/>
+      <c r="N19" s="10"/>
+      <c r="O19" s="10"/>
+      <c r="P19" s="10"/>
+      <c r="Q19" s="10"/>
+      <c r="R19" s="10"/>
+      <c r="S19" s="10"/>
+      <c r="T19" s="10"/>
+      <c r="U19" s="10"/>
+      <c r="V19" s="10"/>
+      <c r="W19" s="10"/>
+      <c r="X19" s="10"/>
+      <c r="Y19" s="10"/>
+      <c r="Z19" s="10"/>
+      <c r="AA19" s="10"/>
+      <c r="AB19" s="10"/>
+      <c r="AC19" s="10"/>
+    </row>
+    <row r="21" spans="1:52">
+      <c r="D21" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="22" spans="1:52">
+      <c r="D22" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="23" spans="1:52">
+      <c r="D23" t="s">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="26" spans="1:52">
+      <c r="A26" s="4"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>1010</v>
+      </c>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="4"/>
+      <c r="J26" s="4"/>
+      <c r="K26" s="4"/>
+      <c r="L26" s="4"/>
+      <c r="M26" s="4"/>
+      <c r="N26" s="4"/>
+      <c r="O26" s="4"/>
+      <c r="P26" s="4"/>
+      <c r="Q26" s="4"/>
+      <c r="R26" s="4"/>
+      <c r="S26" s="4"/>
+      <c r="T26" s="4"/>
+      <c r="U26" s="4"/>
+      <c r="V26" s="4"/>
+      <c r="W26" s="4"/>
+      <c r="X26" s="4"/>
+      <c r="Y26" s="4"/>
+      <c r="Z26" s="4"/>
+      <c r="AA26" s="4"/>
+      <c r="AB26" s="4"/>
+      <c r="AC26" s="4"/>
+      <c r="AD26" s="4"/>
+      <c r="AE26" s="4"/>
+      <c r="AF26" s="4"/>
+      <c r="AG26" s="4"/>
+      <c r="AH26" s="4"/>
+      <c r="AI26" s="4"/>
+      <c r="AJ26" s="4"/>
+      <c r="AK26" s="4"/>
+      <c r="AL26" s="4"/>
+      <c r="AM26" s="4"/>
+      <c r="AN26" s="4"/>
+      <c r="AO26" s="4"/>
+      <c r="AP26" s="4"/>
+      <c r="AQ26" s="4"/>
+      <c r="AR26" s="4"/>
+      <c r="AS26" s="4"/>
+      <c r="AT26" s="4"/>
+      <c r="AU26" s="4"/>
+      <c r="AV26" s="4"/>
+      <c r="AW26" s="4"/>
+      <c r="AX26" s="4"/>
+      <c r="AY26" s="4"/>
+      <c r="AZ26" s="4"/>
+    </row>
+    <row r="28" spans="1:52">
+      <c r="D28" s="2" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="29" spans="1:52">
+      <c r="D29" s="2" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="40" spans="1:52">
+      <c r="A40" s="4"/>
+      <c r="B40" s="4"/>
+      <c r="C40" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>1060</v>
+      </c>
+      <c r="E40" s="4"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="4"/>
+      <c r="H40" s="4"/>
+      <c r="I40" s="4"/>
+      <c r="J40" s="4"/>
+      <c r="K40" s="4"/>
+      <c r="L40" s="4"/>
+      <c r="M40" s="4"/>
+      <c r="N40" s="4"/>
+      <c r="O40" s="4"/>
+      <c r="P40" s="4"/>
+      <c r="Q40" s="4"/>
+      <c r="R40" s="4"/>
+      <c r="S40" s="4"/>
+      <c r="T40" s="4"/>
+      <c r="U40" s="4"/>
+      <c r="V40" s="4"/>
+      <c r="W40" s="4"/>
+      <c r="X40" s="4"/>
+      <c r="Y40" s="4"/>
+      <c r="Z40" s="4"/>
+      <c r="AA40" s="4"/>
+      <c r="AB40" s="4"/>
+      <c r="AC40" s="4"/>
+      <c r="AD40" s="4"/>
+      <c r="AE40" s="4"/>
+      <c r="AF40" s="4"/>
+      <c r="AG40" s="4"/>
+      <c r="AH40" s="4"/>
+      <c r="AI40" s="4"/>
+      <c r="AJ40" s="4"/>
+      <c r="AK40" s="4"/>
+      <c r="AL40" s="4"/>
+      <c r="AM40" s="4"/>
+      <c r="AN40" s="4"/>
+      <c r="AO40" s="4"/>
+      <c r="AP40" s="4"/>
+      <c r="AQ40" s="4"/>
+      <c r="AR40" s="4"/>
+      <c r="AS40" s="4"/>
+      <c r="AT40" s="4"/>
+      <c r="AU40" s="4"/>
+      <c r="AV40" s="4"/>
+      <c r="AW40" s="4"/>
+      <c r="AX40" s="4"/>
+      <c r="AY40" s="4"/>
+      <c r="AZ40" s="4"/>
+    </row>
+    <row r="42" spans="1:52">
+      <c r="D42" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="43" spans="1:52">
+      <c r="D43" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="44" spans="1:52">
+      <c r="D44" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="56" spans="4:21">
+      <c r="D56" s="3" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="57" spans="4:21">
+      <c r="D57" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="58" spans="4:21">
+      <c r="D58" s="10"/>
+      <c r="E58" s="10"/>
+      <c r="F58" s="10"/>
+      <c r="G58" s="10"/>
+      <c r="H58" s="10"/>
+      <c r="I58" s="10"/>
+      <c r="J58" s="10"/>
+      <c r="K58" s="10"/>
+      <c r="L58" s="10"/>
+      <c r="M58" s="10"/>
+      <c r="N58" s="10"/>
+      <c r="O58" s="10"/>
+      <c r="P58" s="10"/>
+      <c r="Q58" s="10"/>
+      <c r="R58" s="10"/>
+      <c r="S58" s="10"/>
+      <c r="T58" s="10"/>
+      <c r="U58" s="10"/>
+    </row>
+    <row r="59" spans="4:21">
+      <c r="D59" s="10"/>
+      <c r="E59" s="7" t="s">
+        <v>1018</v>
+      </c>
+      <c r="F59" s="7"/>
+      <c r="G59" s="7"/>
+      <c r="H59" s="10"/>
+      <c r="I59" s="10"/>
+      <c r="J59" s="10"/>
+      <c r="K59" s="10"/>
+      <c r="L59" s="10"/>
+      <c r="M59" s="10"/>
+      <c r="N59" s="10"/>
+      <c r="O59" s="10"/>
+      <c r="P59" s="10"/>
+      <c r="Q59" s="10"/>
+      <c r="R59" s="10"/>
+      <c r="S59" s="10"/>
+      <c r="T59" s="10"/>
+      <c r="U59" s="10"/>
+    </row>
+    <row r="60" spans="4:21">
+      <c r="D60" s="10"/>
+      <c r="E60" s="7" t="s">
+        <v>1019</v>
+      </c>
+      <c r="F60" s="7"/>
+      <c r="G60" s="7"/>
+      <c r="H60" s="10"/>
+      <c r="I60" s="10"/>
+      <c r="J60" s="10"/>
+      <c r="K60" s="10"/>
+      <c r="L60" s="10"/>
+      <c r="M60" s="10"/>
+      <c r="N60" s="10"/>
+      <c r="O60" s="10"/>
+      <c r="P60" s="10"/>
+      <c r="Q60" s="10"/>
+      <c r="R60" s="10"/>
+      <c r="S60" s="10"/>
+      <c r="T60" s="10"/>
+      <c r="U60" s="10"/>
+    </row>
+    <row r="61" spans="4:21">
+      <c r="D61" s="10"/>
+      <c r="E61" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="F61" s="7"/>
+      <c r="G61" s="7"/>
+      <c r="H61" s="10"/>
+      <c r="I61" s="10"/>
+      <c r="J61" s="10"/>
+      <c r="K61" s="10"/>
+      <c r="L61" s="10"/>
+      <c r="M61" s="10"/>
+      <c r="N61" s="10"/>
+      <c r="O61" s="10"/>
+      <c r="P61" s="10"/>
+      <c r="Q61" s="10"/>
+      <c r="R61" s="10"/>
+      <c r="S61" s="10"/>
+      <c r="T61" s="10"/>
+      <c r="U61" s="10"/>
+    </row>
+    <row r="62" spans="4:21">
+      <c r="D62" s="10"/>
+      <c r="E62" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="F62" s="7"/>
+      <c r="G62" s="7"/>
+      <c r="H62" s="10"/>
+      <c r="I62" s="10"/>
+      <c r="J62" s="10"/>
+      <c r="K62" s="10"/>
+      <c r="L62" s="10"/>
+      <c r="M62" s="10"/>
+      <c r="N62" s="10"/>
+      <c r="O62" s="10"/>
+      <c r="P62" s="10"/>
+      <c r="Q62" s="10"/>
+      <c r="R62" s="10"/>
+      <c r="S62" s="10"/>
+      <c r="T62" s="10"/>
+      <c r="U62" s="10"/>
+    </row>
+    <row r="63" spans="4:21">
+      <c r="D63" s="10"/>
+      <c r="E63" s="7"/>
+      <c r="F63" s="7" t="s">
+        <v>1020</v>
+      </c>
+      <c r="G63" s="7"/>
+      <c r="H63" s="10"/>
+      <c r="I63" s="10"/>
+      <c r="J63" s="10"/>
+      <c r="K63" s="10"/>
+      <c r="L63" s="10"/>
+      <c r="M63" s="10"/>
+      <c r="N63" s="10"/>
+      <c r="O63" s="10"/>
+      <c r="P63" s="10"/>
+      <c r="Q63" s="10"/>
+      <c r="R63" s="10"/>
+      <c r="S63" s="10"/>
+      <c r="T63" s="10"/>
+      <c r="U63" s="10"/>
+    </row>
+    <row r="64" spans="4:21">
+      <c r="D64" s="10"/>
+      <c r="E64" s="7"/>
+      <c r="F64" s="7" t="s">
+        <v>1021</v>
+      </c>
+      <c r="G64" s="7"/>
+      <c r="H64" s="10"/>
+      <c r="I64" s="10"/>
+      <c r="J64" s="10"/>
+      <c r="K64" s="10"/>
+      <c r="L64" s="10"/>
+      <c r="M64" s="10"/>
+      <c r="N64" s="10"/>
+      <c r="O64" s="10"/>
+      <c r="P64" s="10"/>
+      <c r="Q64" s="10"/>
+      <c r="R64" s="10"/>
+      <c r="S64" s="10"/>
+      <c r="T64" s="10"/>
+      <c r="U64" s="10"/>
+    </row>
+    <row r="65" spans="4:21">
+      <c r="D65" s="10"/>
+      <c r="E65" s="7"/>
+      <c r="F65" s="7"/>
+      <c r="G65" s="7" t="s">
+        <v>1022</v>
+      </c>
+      <c r="H65" s="10"/>
+      <c r="I65" s="10"/>
+      <c r="J65" s="10"/>
+      <c r="K65" s="10"/>
+      <c r="L65" s="10"/>
+      <c r="M65" s="10"/>
+      <c r="N65" s="10"/>
+      <c r="O65" s="10"/>
+      <c r="P65" s="10"/>
+      <c r="Q65" s="10"/>
+      <c r="R65" s="10"/>
+      <c r="S65" s="10"/>
+      <c r="T65" s="10"/>
+      <c r="U65" s="10"/>
+    </row>
+    <row r="66" spans="4:21">
+      <c r="D66" s="10"/>
+      <c r="E66" s="7"/>
+      <c r="F66" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="G66" s="7"/>
+      <c r="H66" s="10"/>
+      <c r="I66" s="10"/>
+      <c r="J66" s="10"/>
+      <c r="K66" s="10"/>
+      <c r="L66" s="10"/>
+      <c r="M66" s="10"/>
+      <c r="N66" s="10"/>
+      <c r="O66" s="10"/>
+      <c r="P66" s="10"/>
+      <c r="Q66" s="10"/>
+      <c r="R66" s="10"/>
+      <c r="S66" s="10"/>
+      <c r="T66" s="10"/>
+      <c r="U66" s="10"/>
+    </row>
+    <row r="67" spans="4:21">
+      <c r="D67" s="10"/>
+      <c r="E67" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="F67" s="7"/>
+      <c r="G67" s="7"/>
+      <c r="H67" s="10"/>
+      <c r="I67" s="10"/>
+      <c r="J67" s="10"/>
+      <c r="K67" s="10"/>
+      <c r="L67" s="10"/>
+      <c r="M67" s="10"/>
+      <c r="N67" s="10"/>
+      <c r="O67" s="10"/>
+      <c r="P67" s="10"/>
+      <c r="Q67" s="10"/>
+      <c r="R67" s="10"/>
+      <c r="S67" s="10"/>
+      <c r="T67" s="10"/>
+      <c r="U67" s="10"/>
+    </row>
+    <row r="68" spans="4:21">
+      <c r="D68" s="10"/>
+      <c r="E68" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="F68" s="7"/>
+      <c r="G68" s="7"/>
+      <c r="H68" s="10"/>
+      <c r="I68" s="10"/>
+      <c r="J68" s="10"/>
+      <c r="K68" s="10"/>
+      <c r="L68" s="10"/>
+      <c r="M68" s="10"/>
+      <c r="N68" s="10"/>
+      <c r="O68" s="10"/>
+      <c r="P68" s="10"/>
+      <c r="Q68" s="10"/>
+      <c r="R68" s="10"/>
+      <c r="S68" s="10"/>
+      <c r="T68" s="10"/>
+      <c r="U68" s="10"/>
+    </row>
+    <row r="69" spans="4:21">
+      <c r="D69" s="10"/>
+      <c r="E69" s="7" t="s">
+        <v>1023</v>
+      </c>
+      <c r="F69" s="7"/>
+      <c r="G69" s="7"/>
+      <c r="H69" s="10"/>
+      <c r="I69" s="10"/>
+      <c r="J69" s="10"/>
+      <c r="K69" s="10"/>
+      <c r="L69" s="10"/>
+      <c r="M69" s="10"/>
+      <c r="N69" s="10"/>
+      <c r="O69" s="10"/>
+      <c r="P69" s="10"/>
+      <c r="Q69" s="10"/>
+      <c r="R69" s="10"/>
+      <c r="S69" s="10"/>
+      <c r="T69" s="10"/>
+      <c r="U69" s="10"/>
+    </row>
+    <row r="70" spans="4:21">
+      <c r="D70" s="10"/>
+      <c r="E70" s="7" t="s">
+        <v>1024</v>
+      </c>
+      <c r="F70" s="7"/>
+      <c r="G70" s="7"/>
+      <c r="H70" s="10"/>
+      <c r="I70" s="10"/>
+      <c r="J70" s="10"/>
+      <c r="K70" s="10"/>
+      <c r="L70" s="10"/>
+      <c r="M70" s="10"/>
+      <c r="N70" s="10"/>
+      <c r="O70" s="10"/>
+      <c r="P70" s="10"/>
+      <c r="Q70" s="10"/>
+      <c r="R70" s="10"/>
+      <c r="S70" s="10"/>
+      <c r="T70" s="10"/>
+      <c r="U70" s="10"/>
+    </row>
+    <row r="71" spans="4:21">
+      <c r="D71" s="10"/>
+      <c r="E71" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="F71" s="7"/>
+      <c r="G71" s="7"/>
+      <c r="H71" s="10"/>
+      <c r="I71" s="10"/>
+      <c r="J71" s="10"/>
+      <c r="K71" s="10"/>
+      <c r="L71" s="10"/>
+      <c r="M71" s="10"/>
+      <c r="N71" s="10"/>
+      <c r="O71" s="10"/>
+      <c r="P71" s="10"/>
+      <c r="Q71" s="10"/>
+      <c r="R71" s="10"/>
+      <c r="S71" s="10"/>
+      <c r="T71" s="10"/>
+      <c r="U71" s="10"/>
+    </row>
+    <row r="72" spans="4:21">
+      <c r="D72" s="10"/>
+      <c r="E72" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="F72" s="7"/>
+      <c r="G72" s="7"/>
+      <c r="H72" s="10"/>
+      <c r="I72" s="10"/>
+      <c r="J72" s="10"/>
+      <c r="K72" s="10"/>
+      <c r="L72" s="10"/>
+      <c r="M72" s="10"/>
+      <c r="N72" s="10"/>
+      <c r="O72" s="10"/>
+      <c r="P72" s="10"/>
+      <c r="Q72" s="10"/>
+      <c r="R72" s="10"/>
+      <c r="S72" s="10"/>
+      <c r="T72" s="10"/>
+      <c r="U72" s="10"/>
+    </row>
+    <row r="73" spans="4:21">
+      <c r="D73" s="10"/>
+      <c r="E73" s="7"/>
+      <c r="F73" s="7" t="s">
+        <v>1025</v>
+      </c>
+      <c r="G73" s="7"/>
+      <c r="H73" s="10"/>
+      <c r="I73" s="10"/>
+      <c r="J73" s="10"/>
+      <c r="K73" s="10"/>
+      <c r="L73" s="10"/>
+      <c r="M73" s="10"/>
+      <c r="N73" s="10"/>
+      <c r="O73" s="10"/>
+      <c r="P73" s="10"/>
+      <c r="Q73" s="10"/>
+      <c r="R73" s="10"/>
+      <c r="S73" s="10"/>
+      <c r="T73" s="10"/>
+      <c r="U73" s="10"/>
+    </row>
+    <row r="74" spans="4:21">
+      <c r="D74" s="10"/>
+      <c r="E74" s="7"/>
+      <c r="F74" s="7" t="s">
+        <v>1026</v>
+      </c>
+      <c r="G74" s="7"/>
+      <c r="H74" s="10"/>
+      <c r="I74" s="10"/>
+      <c r="J74" s="10"/>
+      <c r="K74" s="10"/>
+      <c r="L74" s="10"/>
+      <c r="M74" s="10"/>
+      <c r="N74" s="10"/>
+      <c r="O74" s="10"/>
+      <c r="P74" s="10"/>
+      <c r="Q74" s="10"/>
+      <c r="R74" s="10"/>
+      <c r="S74" s="10"/>
+      <c r="T74" s="10"/>
+      <c r="U74" s="10"/>
+    </row>
+    <row r="75" spans="4:21">
+      <c r="D75" s="10"/>
+      <c r="E75" s="7"/>
+      <c r="F75" s="7"/>
+      <c r="G75" s="7" t="s">
+        <v>1027</v>
+      </c>
+      <c r="H75" s="10"/>
+      <c r="I75" s="10"/>
+      <c r="J75" s="10"/>
+      <c r="K75" s="10"/>
+      <c r="L75" s="10"/>
+      <c r="M75" s="10"/>
+      <c r="N75" s="10"/>
+      <c r="O75" s="10"/>
+      <c r="P75" s="10"/>
+      <c r="Q75" s="10"/>
+      <c r="R75" s="10"/>
+      <c r="S75" s="10"/>
+      <c r="T75" s="10"/>
+      <c r="U75" s="10"/>
+    </row>
+    <row r="76" spans="4:21">
+      <c r="D76" s="10"/>
+      <c r="E76" s="7"/>
+      <c r="F76" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="G76" s="7"/>
+      <c r="H76" s="10"/>
+      <c r="I76" s="10"/>
+      <c r="J76" s="10"/>
+      <c r="K76" s="10"/>
+      <c r="L76" s="10"/>
+      <c r="M76" s="10"/>
+      <c r="N76" s="10"/>
+      <c r="O76" s="10"/>
+      <c r="P76" s="10"/>
+      <c r="Q76" s="10"/>
+      <c r="R76" s="10"/>
+      <c r="S76" s="10"/>
+      <c r="T76" s="10"/>
+      <c r="U76" s="10"/>
+    </row>
+    <row r="77" spans="4:21">
+      <c r="D77" s="10"/>
+      <c r="E77" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="F77" s="7"/>
+      <c r="G77" s="7"/>
+      <c r="H77" s="10"/>
+      <c r="I77" s="10"/>
+      <c r="J77" s="10"/>
+      <c r="K77" s="10"/>
+      <c r="L77" s="10"/>
+      <c r="M77" s="10"/>
+      <c r="N77" s="10"/>
+      <c r="O77" s="10"/>
+      <c r="P77" s="10"/>
+      <c r="Q77" s="10"/>
+      <c r="R77" s="10"/>
+      <c r="S77" s="10"/>
+      <c r="T77" s="10"/>
+      <c r="U77" s="10"/>
+    </row>
+    <row r="78" spans="4:21">
+      <c r="D78" s="10"/>
+      <c r="E78" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="F78" s="7"/>
+      <c r="G78" s="7"/>
+      <c r="H78" s="10"/>
+      <c r="I78" s="10"/>
+      <c r="J78" s="10"/>
+      <c r="K78" s="10"/>
+      <c r="L78" s="10"/>
+      <c r="M78" s="10"/>
+      <c r="N78" s="10"/>
+      <c r="O78" s="10"/>
+      <c r="P78" s="10"/>
+      <c r="Q78" s="10"/>
+      <c r="R78" s="10"/>
+      <c r="S78" s="10"/>
+      <c r="T78" s="10"/>
+      <c r="U78" s="10"/>
+    </row>
+    <row r="79" spans="4:21">
+      <c r="D79" s="10"/>
+      <c r="E79" s="7" t="s">
+        <v>1028</v>
+      </c>
+      <c r="F79" s="7"/>
+      <c r="G79" s="7"/>
+      <c r="H79" s="10"/>
+      <c r="I79" s="10"/>
+      <c r="J79" s="10"/>
+      <c r="K79" s="10"/>
+      <c r="L79" s="10"/>
+      <c r="M79" s="10"/>
+      <c r="N79" s="10"/>
+      <c r="O79" s="10"/>
+      <c r="P79" s="10"/>
+      <c r="Q79" s="10"/>
+      <c r="R79" s="10"/>
+      <c r="S79" s="10"/>
+      <c r="T79" s="10"/>
+      <c r="U79" s="10"/>
+    </row>
+    <row r="80" spans="4:21">
+      <c r="D80" s="10"/>
+      <c r="E80" s="7" t="s">
+        <v>1029</v>
+      </c>
+      <c r="F80" s="7"/>
+      <c r="G80" s="7"/>
+      <c r="H80" s="10"/>
+      <c r="I80" s="10"/>
+      <c r="J80" s="10"/>
+      <c r="K80" s="10"/>
+      <c r="L80" s="10"/>
+      <c r="M80" s="10"/>
+      <c r="N80" s="10"/>
+      <c r="O80" s="10"/>
+      <c r="P80" s="10"/>
+      <c r="Q80" s="10"/>
+      <c r="R80" s="10"/>
+      <c r="S80" s="10"/>
+      <c r="T80" s="10"/>
+      <c r="U80" s="10"/>
+    </row>
+    <row r="81" spans="4:21">
+      <c r="D81" s="10"/>
+      <c r="E81" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="F81" s="7"/>
+      <c r="G81" s="7"/>
+      <c r="H81" s="10"/>
+      <c r="I81" s="10"/>
+      <c r="J81" s="10"/>
+      <c r="K81" s="10"/>
+      <c r="L81" s="10"/>
+      <c r="M81" s="10"/>
+      <c r="N81" s="10"/>
+      <c r="O81" s="10"/>
+      <c r="P81" s="10"/>
+      <c r="Q81" s="10"/>
+      <c r="R81" s="10"/>
+      <c r="S81" s="10"/>
+      <c r="T81" s="10"/>
+      <c r="U81" s="10"/>
+    </row>
+    <row r="82" spans="4:21">
+      <c r="D82" s="10"/>
+      <c r="E82" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="F82" s="7"/>
+      <c r="G82" s="7"/>
+      <c r="H82" s="10"/>
+      <c r="I82" s="10"/>
+      <c r="J82" s="10"/>
+      <c r="K82" s="10"/>
+      <c r="L82" s="10"/>
+      <c r="M82" s="10"/>
+      <c r="N82" s="10"/>
+      <c r="O82" s="10"/>
+      <c r="P82" s="10"/>
+      <c r="Q82" s="10"/>
+      <c r="R82" s="10"/>
+      <c r="S82" s="10"/>
+      <c r="T82" s="10"/>
+      <c r="U82" s="10"/>
+    </row>
+    <row r="83" spans="4:21">
+      <c r="D83" s="10"/>
+      <c r="E83" s="7"/>
+      <c r="F83" s="7" t="s">
+        <v>1030</v>
+      </c>
+      <c r="G83" s="7"/>
+      <c r="H83" s="10"/>
+      <c r="I83" s="10"/>
+      <c r="J83" s="10"/>
+      <c r="K83" s="10"/>
+      <c r="L83" s="10"/>
+      <c r="M83" s="10"/>
+      <c r="N83" s="10"/>
+      <c r="O83" s="10"/>
+      <c r="P83" s="10"/>
+      <c r="Q83" s="10"/>
+      <c r="R83" s="10"/>
+      <c r="S83" s="10"/>
+      <c r="T83" s="10"/>
+      <c r="U83" s="10"/>
+    </row>
+    <row r="84" spans="4:21">
+      <c r="D84" s="10"/>
+      <c r="E84" s="7"/>
+      <c r="F84" s="7" t="s">
+        <v>1031</v>
+      </c>
+      <c r="G84" s="7"/>
+      <c r="H84" s="10"/>
+      <c r="I84" s="10"/>
+      <c r="J84" s="10"/>
+      <c r="K84" s="10"/>
+      <c r="L84" s="10"/>
+      <c r="M84" s="10"/>
+      <c r="N84" s="10"/>
+      <c r="O84" s="10"/>
+      <c r="P84" s="10"/>
+      <c r="Q84" s="10"/>
+      <c r="R84" s="10"/>
+      <c r="S84" s="10"/>
+      <c r="T84" s="10"/>
+      <c r="U84" s="10"/>
+    </row>
+    <row r="85" spans="4:21">
+      <c r="D85" s="10"/>
+      <c r="E85" s="7"/>
+      <c r="F85" s="7"/>
+      <c r="G85" s="7" t="s">
+        <v>1032</v>
+      </c>
+      <c r="H85" s="10"/>
+      <c r="I85" s="10"/>
+      <c r="J85" s="10"/>
+      <c r="K85" s="10"/>
+      <c r="L85" s="10"/>
+      <c r="M85" s="10"/>
+      <c r="N85" s="10"/>
+      <c r="O85" s="10"/>
+      <c r="P85" s="10"/>
+      <c r="Q85" s="10"/>
+      <c r="R85" s="10"/>
+      <c r="S85" s="10"/>
+      <c r="T85" s="10"/>
+      <c r="U85" s="10"/>
+    </row>
+    <row r="86" spans="4:21">
+      <c r="D86" s="10"/>
+      <c r="E86" s="7"/>
+      <c r="F86" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="G86" s="7"/>
+      <c r="H86" s="10"/>
+      <c r="I86" s="10"/>
+      <c r="J86" s="10"/>
+      <c r="K86" s="10"/>
+      <c r="L86" s="10"/>
+      <c r="M86" s="10"/>
+      <c r="N86" s="10"/>
+      <c r="O86" s="10"/>
+      <c r="P86" s="10"/>
+      <c r="Q86" s="10"/>
+      <c r="R86" s="10"/>
+      <c r="S86" s="10"/>
+      <c r="T86" s="10"/>
+      <c r="U86" s="10"/>
+    </row>
+    <row r="87" spans="4:21">
+      <c r="D87" s="10"/>
+      <c r="E87" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="F87" s="7"/>
+      <c r="G87" s="7"/>
+      <c r="H87" s="10"/>
+      <c r="I87" s="10"/>
+      <c r="J87" s="10"/>
+      <c r="K87" s="10"/>
+      <c r="L87" s="10"/>
+      <c r="M87" s="10"/>
+      <c r="N87" s="10"/>
+      <c r="O87" s="10"/>
+      <c r="P87" s="10"/>
+      <c r="Q87" s="10"/>
+      <c r="R87" s="10"/>
+      <c r="S87" s="10"/>
+      <c r="T87" s="10"/>
+      <c r="U87" s="10"/>
+    </row>
+    <row r="88" spans="4:21">
+      <c r="D88" s="10"/>
+      <c r="E88" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="F88" s="7"/>
+      <c r="G88" s="7"/>
+      <c r="H88" s="10"/>
+      <c r="I88" s="10"/>
+      <c r="J88" s="10"/>
+      <c r="K88" s="10"/>
+      <c r="L88" s="10"/>
+      <c r="M88" s="10"/>
+      <c r="N88" s="10"/>
+      <c r="O88" s="10"/>
+      <c r="P88" s="10"/>
+      <c r="Q88" s="10"/>
+      <c r="R88" s="10"/>
+      <c r="S88" s="10"/>
+      <c r="T88" s="10"/>
+      <c r="U88" s="10"/>
+    </row>
+    <row r="89" spans="4:21">
+      <c r="D89" s="10"/>
+      <c r="E89" s="7" t="s">
+        <v>1033</v>
+      </c>
+      <c r="F89" s="7"/>
+      <c r="G89" s="7"/>
+      <c r="H89" s="10"/>
+      <c r="I89" s="10"/>
+      <c r="J89" s="10"/>
+      <c r="K89" s="10"/>
+      <c r="L89" s="10"/>
+      <c r="M89" s="10"/>
+      <c r="N89" s="10"/>
+      <c r="O89" s="10"/>
+      <c r="P89" s="10"/>
+      <c r="Q89" s="10"/>
+      <c r="R89" s="10"/>
+      <c r="S89" s="10"/>
+      <c r="T89" s="10"/>
+      <c r="U89" s="10"/>
+    </row>
+    <row r="90" spans="4:21">
+      <c r="D90" s="10"/>
+      <c r="E90" s="7" t="s">
+        <v>1034</v>
+      </c>
+      <c r="F90" s="7"/>
+      <c r="G90" s="7"/>
+      <c r="H90" s="10"/>
+      <c r="I90" s="10"/>
+      <c r="J90" s="10"/>
+      <c r="K90" s="10"/>
+      <c r="L90" s="10"/>
+      <c r="M90" s="10"/>
+      <c r="N90" s="10"/>
+      <c r="O90" s="10"/>
+      <c r="P90" s="10"/>
+      <c r="Q90" s="10"/>
+      <c r="R90" s="10"/>
+      <c r="S90" s="10"/>
+      <c r="T90" s="10"/>
+      <c r="U90" s="10"/>
+    </row>
+    <row r="91" spans="4:21">
+      <c r="D91" s="10"/>
+      <c r="E91" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="F91" s="7"/>
+      <c r="G91" s="7"/>
+      <c r="H91" s="10"/>
+      <c r="I91" s="10"/>
+      <c r="J91" s="10"/>
+      <c r="K91" s="10"/>
+      <c r="L91" s="10"/>
+      <c r="M91" s="10"/>
+      <c r="N91" s="10"/>
+      <c r="O91" s="10"/>
+      <c r="P91" s="10"/>
+      <c r="Q91" s="10"/>
+      <c r="R91" s="10"/>
+      <c r="S91" s="10"/>
+      <c r="T91" s="10"/>
+      <c r="U91" s="10"/>
+    </row>
+    <row r="92" spans="4:21">
+      <c r="D92" s="10"/>
+      <c r="E92" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="F92" s="7"/>
+      <c r="G92" s="7"/>
+      <c r="H92" s="10"/>
+      <c r="I92" s="10"/>
+      <c r="J92" s="10"/>
+      <c r="K92" s="10"/>
+      <c r="L92" s="10"/>
+      <c r="M92" s="10"/>
+      <c r="N92" s="10"/>
+      <c r="O92" s="10"/>
+      <c r="P92" s="10"/>
+      <c r="Q92" s="10"/>
+      <c r="R92" s="10"/>
+      <c r="S92" s="10"/>
+      <c r="T92" s="10"/>
+      <c r="U92" s="10"/>
+    </row>
+    <row r="93" spans="4:21">
+      <c r="D93" s="10"/>
+      <c r="E93" s="7"/>
+      <c r="F93" s="7" t="s">
+        <v>1035</v>
+      </c>
+      <c r="G93" s="7"/>
+      <c r="H93" s="10"/>
+      <c r="I93" s="10"/>
+      <c r="J93" s="10"/>
+      <c r="K93" s="10"/>
+      <c r="L93" s="10"/>
+      <c r="M93" s="10"/>
+      <c r="N93" s="10"/>
+      <c r="O93" s="10"/>
+      <c r="P93" s="10"/>
+      <c r="Q93" s="10"/>
+      <c r="R93" s="10"/>
+      <c r="S93" s="10"/>
+      <c r="T93" s="10"/>
+      <c r="U93" s="10"/>
+    </row>
+    <row r="94" spans="4:21">
+      <c r="D94" s="10"/>
+      <c r="E94" s="7"/>
+      <c r="F94" s="7" t="s">
+        <v>1036</v>
+      </c>
+      <c r="G94" s="7"/>
+      <c r="H94" s="10"/>
+      <c r="I94" s="10"/>
+      <c r="J94" s="10"/>
+      <c r="K94" s="10"/>
+      <c r="L94" s="10"/>
+      <c r="M94" s="10"/>
+      <c r="N94" s="10"/>
+      <c r="O94" s="10"/>
+      <c r="P94" s="10"/>
+      <c r="Q94" s="10"/>
+      <c r="R94" s="10"/>
+      <c r="S94" s="10"/>
+      <c r="T94" s="10"/>
+      <c r="U94" s="10"/>
+    </row>
+    <row r="95" spans="4:21">
+      <c r="D95" s="10"/>
+      <c r="E95" s="7"/>
+      <c r="F95" s="7"/>
+      <c r="G95" s="7" t="s">
+        <v>1037</v>
+      </c>
+      <c r="H95" s="10"/>
+      <c r="I95" s="10"/>
+      <c r="J95" s="10"/>
+      <c r="K95" s="10"/>
+      <c r="L95" s="10"/>
+      <c r="M95" s="10"/>
+      <c r="N95" s="10"/>
+      <c r="O95" s="10"/>
+      <c r="P95" s="10"/>
+      <c r="Q95" s="10"/>
+      <c r="R95" s="10"/>
+      <c r="S95" s="10"/>
+      <c r="T95" s="10"/>
+      <c r="U95" s="10"/>
+    </row>
+    <row r="96" spans="4:21">
+      <c r="D96" s="10"/>
+      <c r="E96" s="7"/>
+      <c r="F96" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="G96" s="7"/>
+      <c r="H96" s="10"/>
+      <c r="I96" s="10"/>
+      <c r="J96" s="10"/>
+      <c r="K96" s="10"/>
+      <c r="L96" s="10"/>
+      <c r="M96" s="10"/>
+      <c r="N96" s="10"/>
+      <c r="O96" s="10"/>
+      <c r="P96" s="10"/>
+      <c r="Q96" s="10"/>
+      <c r="R96" s="10"/>
+      <c r="S96" s="10"/>
+      <c r="T96" s="10"/>
+      <c r="U96" s="10"/>
+    </row>
+    <row r="97" spans="4:21">
+      <c r="D97" s="10"/>
+      <c r="E97" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="F97" s="7"/>
+      <c r="G97" s="7"/>
+      <c r="H97" s="10"/>
+      <c r="I97" s="10"/>
+      <c r="J97" s="10"/>
+      <c r="K97" s="10"/>
+      <c r="L97" s="10"/>
+      <c r="M97" s="10"/>
+      <c r="N97" s="10"/>
+      <c r="O97" s="10"/>
+      <c r="P97" s="10"/>
+      <c r="Q97" s="10"/>
+      <c r="R97" s="10"/>
+      <c r="S97" s="10"/>
+      <c r="T97" s="10"/>
+      <c r="U97" s="10"/>
+    </row>
+    <row r="98" spans="4:21">
+      <c r="D98" s="10"/>
+      <c r="E98" s="10"/>
+      <c r="F98" s="10"/>
+      <c r="G98" s="10"/>
+      <c r="H98" s="10"/>
+      <c r="I98" s="10"/>
+      <c r="J98" s="10"/>
+      <c r="K98" s="10"/>
+      <c r="L98" s="10"/>
+      <c r="M98" s="10"/>
+      <c r="N98" s="10"/>
+      <c r="O98" s="10"/>
+      <c r="P98" s="10"/>
+      <c r="Q98" s="10"/>
+      <c r="R98" s="10"/>
+      <c r="S98" s="10"/>
+      <c r="T98" s="10"/>
+      <c r="U98" s="10"/>
+    </row>
+    <row r="101" spans="4:21">
+      <c r="D101" s="3" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="102" spans="4:21">
+      <c r="D102" s="10"/>
+      <c r="E102" s="10"/>
+      <c r="F102" s="10"/>
+      <c r="G102" s="10"/>
+      <c r="H102" s="10"/>
+      <c r="I102" s="10"/>
+      <c r="J102" s="10"/>
+      <c r="K102" s="10"/>
+      <c r="L102" s="10"/>
+      <c r="M102" s="10"/>
+      <c r="N102" s="10"/>
+      <c r="O102" s="10"/>
+      <c r="P102" s="10"/>
+      <c r="Q102" s="10"/>
+      <c r="R102" s="10"/>
+      <c r="S102" s="10"/>
+      <c r="T102" s="10"/>
+      <c r="U102" s="10"/>
+    </row>
+    <row r="103" spans="4:21">
+      <c r="D103" s="10"/>
+      <c r="E103" s="7" t="s">
+        <v>1039</v>
+      </c>
+      <c r="F103" s="7"/>
+      <c r="G103" s="7"/>
+      <c r="H103" s="10"/>
+      <c r="I103" s="10"/>
+      <c r="J103" s="10"/>
+      <c r="K103" s="10"/>
+      <c r="L103" s="10"/>
+      <c r="M103" s="10"/>
+      <c r="N103" s="10"/>
+      <c r="O103" s="10"/>
+      <c r="P103" s="10"/>
+      <c r="Q103" s="10"/>
+      <c r="R103" s="10"/>
+      <c r="S103" s="10"/>
+      <c r="T103" s="10"/>
+      <c r="U103" s="10"/>
+    </row>
+    <row r="104" spans="4:21">
+      <c r="D104" s="10"/>
+      <c r="E104" s="7" t="s">
+        <v>1049</v>
+      </c>
+      <c r="F104" s="7"/>
+      <c r="G104" s="7"/>
+      <c r="H104" s="10"/>
+      <c r="I104" s="10"/>
+      <c r="J104" s="10"/>
+      <c r="K104" s="10"/>
+      <c r="L104" s="10"/>
+      <c r="M104" s="10"/>
+      <c r="N104" s="10"/>
+      <c r="O104" s="10"/>
+      <c r="P104" s="10"/>
+      <c r="Q104" s="10"/>
+      <c r="R104" s="10"/>
+      <c r="S104" s="10"/>
+      <c r="T104" s="10"/>
+      <c r="U104" s="10"/>
+    </row>
+    <row r="105" spans="4:21">
+      <c r="D105" s="10"/>
+      <c r="E105" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="F105" s="7"/>
+      <c r="G105" s="7"/>
+      <c r="H105" s="10"/>
+      <c r="I105" s="10"/>
+      <c r="J105" s="10"/>
+      <c r="K105" s="10"/>
+      <c r="L105" s="10"/>
+      <c r="M105" s="10"/>
+      <c r="N105" s="10"/>
+      <c r="O105" s="10"/>
+      <c r="P105" s="10"/>
+      <c r="Q105" s="10"/>
+      <c r="R105" s="10"/>
+      <c r="S105" s="10"/>
+      <c r="T105" s="10"/>
+      <c r="U105" s="10"/>
+    </row>
+    <row r="106" spans="4:21">
+      <c r="D106" s="10"/>
+      <c r="E106" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="F106" s="7"/>
+      <c r="G106" s="7"/>
+      <c r="H106" s="10"/>
+      <c r="I106" s="10"/>
+      <c r="J106" s="10"/>
+      <c r="K106" s="10"/>
+      <c r="L106" s="10"/>
+      <c r="M106" s="10"/>
+      <c r="N106" s="10"/>
+      <c r="O106" s="10"/>
+      <c r="P106" s="10"/>
+      <c r="Q106" s="10"/>
+      <c r="R106" s="10"/>
+      <c r="S106" s="10"/>
+      <c r="T106" s="10"/>
+      <c r="U106" s="10"/>
+    </row>
+    <row r="107" spans="4:21">
+      <c r="D107" s="10"/>
+      <c r="E107" s="7"/>
+      <c r="F107" s="7" t="s">
+        <v>1040</v>
+      </c>
+      <c r="G107" s="7"/>
+      <c r="H107" s="10"/>
+      <c r="I107" s="10"/>
+      <c r="J107" s="10"/>
+      <c r="K107" s="10"/>
+      <c r="L107" s="10"/>
+      <c r="M107" s="10"/>
+      <c r="N107" s="10"/>
+      <c r="O107" s="10"/>
+      <c r="P107" s="10"/>
+      <c r="Q107" s="10"/>
+      <c r="R107" s="10"/>
+      <c r="S107" s="10"/>
+      <c r="T107" s="10"/>
+      <c r="U107" s="10"/>
+    </row>
+    <row r="108" spans="4:21">
+      <c r="D108" s="10"/>
+      <c r="E108" s="7"/>
+      <c r="F108" s="7"/>
+      <c r="G108" s="7" t="s">
+        <v>1050</v>
+      </c>
+      <c r="H108" s="10"/>
+      <c r="I108" s="10"/>
+      <c r="J108" s="10"/>
+      <c r="K108" s="10"/>
+      <c r="L108" s="10"/>
+      <c r="M108" s="10"/>
+      <c r="N108" s="10"/>
+      <c r="O108" s="10"/>
+      <c r="P108" s="10"/>
+      <c r="Q108" s="10"/>
+      <c r="R108" s="10"/>
+      <c r="S108" s="10"/>
+      <c r="T108" s="10"/>
+      <c r="U108" s="10"/>
+    </row>
+    <row r="109" spans="4:21">
+      <c r="D109" s="10"/>
+      <c r="E109" s="7"/>
+      <c r="F109" s="7"/>
+      <c r="G109" s="7" t="s">
+        <v>1051</v>
+      </c>
+      <c r="H109" s="10"/>
+      <c r="I109" s="10"/>
+      <c r="J109" s="10"/>
+      <c r="K109" s="10"/>
+      <c r="L109" s="10"/>
+      <c r="M109" s="10"/>
+      <c r="N109" s="10"/>
+      <c r="O109" s="10"/>
+      <c r="P109" s="10"/>
+      <c r="Q109" s="10"/>
+      <c r="R109" s="10"/>
+      <c r="S109" s="10"/>
+      <c r="T109" s="10"/>
+      <c r="U109" s="10"/>
+    </row>
+    <row r="110" spans="4:21">
+      <c r="D110" s="10"/>
+      <c r="E110" s="7"/>
+      <c r="F110" s="7"/>
+      <c r="G110" s="7" t="s">
+        <v>1052</v>
+      </c>
+      <c r="H110" s="10"/>
+      <c r="I110" s="10"/>
+      <c r="J110" s="10"/>
+      <c r="K110" s="10"/>
+      <c r="L110" s="10"/>
+      <c r="M110" s="10"/>
+      <c r="N110" s="10"/>
+      <c r="O110" s="10"/>
+      <c r="P110" s="10"/>
+      <c r="Q110" s="10"/>
+      <c r="R110" s="10"/>
+      <c r="S110" s="10"/>
+      <c r="T110" s="10"/>
+      <c r="U110" s="10"/>
+    </row>
+    <row r="111" spans="4:21">
+      <c r="D111" s="10"/>
+      <c r="E111" s="7"/>
+      <c r="F111" s="7"/>
+      <c r="G111" s="7" t="s">
+        <v>1053</v>
+      </c>
+      <c r="H111" s="10"/>
+      <c r="I111" s="10"/>
+      <c r="J111" s="10"/>
+      <c r="K111" s="10"/>
+      <c r="L111" s="10"/>
+      <c r="M111" s="10"/>
+      <c r="N111" s="10"/>
+      <c r="O111" s="10"/>
+      <c r="P111" s="10"/>
+      <c r="Q111" s="10"/>
+      <c r="R111" s="10"/>
+      <c r="S111" s="10"/>
+      <c r="T111" s="10"/>
+      <c r="U111" s="10"/>
+    </row>
+    <row r="112" spans="4:21">
+      <c r="D112" s="10"/>
+      <c r="E112" s="7"/>
+      <c r="F112" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="G112" s="7"/>
+      <c r="H112" s="10"/>
+      <c r="I112" s="10"/>
+      <c r="J112" s="10"/>
+      <c r="K112" s="10"/>
+      <c r="L112" s="10"/>
+      <c r="M112" s="10"/>
+      <c r="N112" s="10"/>
+      <c r="O112" s="10"/>
+      <c r="P112" s="10"/>
+      <c r="Q112" s="10"/>
+      <c r="R112" s="10"/>
+      <c r="S112" s="10"/>
+      <c r="T112" s="10"/>
+      <c r="U112" s="10"/>
+    </row>
+    <row r="113" spans="4:21">
+      <c r="D113" s="10"/>
+      <c r="E113" s="7"/>
+      <c r="F113" s="7" t="s">
+        <v>1054</v>
+      </c>
+      <c r="G113" s="7"/>
+      <c r="H113" s="10"/>
+      <c r="I113" s="10"/>
+      <c r="J113" s="10"/>
+      <c r="K113" s="10"/>
+      <c r="L113" s="10"/>
+      <c r="M113" s="10"/>
+      <c r="N113" s="10"/>
+      <c r="O113" s="10"/>
+      <c r="P113" s="10"/>
+      <c r="Q113" s="10"/>
+      <c r="R113" s="10"/>
+      <c r="S113" s="10"/>
+      <c r="T113" s="10"/>
+      <c r="U113" s="10"/>
+    </row>
+    <row r="114" spans="4:21">
+      <c r="D114" s="10"/>
+      <c r="E114" s="7"/>
+      <c r="F114" s="7"/>
+      <c r="G114" s="7" t="s">
+        <v>1055</v>
+      </c>
+      <c r="H114" s="10"/>
+      <c r="I114" s="10"/>
+      <c r="J114" s="10"/>
+      <c r="K114" s="10"/>
+      <c r="L114" s="10"/>
+      <c r="M114" s="10"/>
+      <c r="N114" s="10"/>
+      <c r="O114" s="10"/>
+      <c r="P114" s="10"/>
+      <c r="Q114" s="10"/>
+      <c r="R114" s="10"/>
+      <c r="S114" s="10"/>
+      <c r="T114" s="10"/>
+      <c r="U114" s="10"/>
+    </row>
+    <row r="115" spans="4:21">
+      <c r="D115" s="10"/>
+      <c r="E115" s="7"/>
+      <c r="F115" s="7"/>
+      <c r="G115" s="7" t="s">
+        <v>1041</v>
+      </c>
+      <c r="H115" s="10"/>
+      <c r="I115" s="10"/>
+      <c r="J115" s="10"/>
+      <c r="K115" s="10"/>
+      <c r="L115" s="10"/>
+      <c r="M115" s="10"/>
+      <c r="N115" s="10"/>
+      <c r="O115" s="10"/>
+      <c r="P115" s="10"/>
+      <c r="Q115" s="10"/>
+      <c r="R115" s="10"/>
+      <c r="S115" s="10"/>
+      <c r="T115" s="10"/>
+      <c r="U115" s="10"/>
+    </row>
+    <row r="116" spans="4:21">
+      <c r="D116" s="10"/>
+      <c r="E116" s="7"/>
+      <c r="F116" s="7"/>
+      <c r="G116" s="7" t="s">
+        <v>1042</v>
+      </c>
+      <c r="H116" s="10"/>
+      <c r="I116" s="10"/>
+      <c r="J116" s="10"/>
+      <c r="K116" s="10"/>
+      <c r="L116" s="10"/>
+      <c r="M116" s="10"/>
+      <c r="N116" s="10"/>
+      <c r="O116" s="10"/>
+      <c r="P116" s="10"/>
+      <c r="Q116" s="10"/>
+      <c r="R116" s="10"/>
+      <c r="S116" s="10"/>
+      <c r="T116" s="10"/>
+      <c r="U116" s="10"/>
+    </row>
+    <row r="117" spans="4:21">
+      <c r="D117" s="10"/>
+      <c r="E117" s="7"/>
+      <c r="F117" s="7"/>
+      <c r="G117" s="7" t="s">
+        <v>1043</v>
+      </c>
+      <c r="H117" s="10"/>
+      <c r="I117" s="10"/>
+      <c r="J117" s="10"/>
+      <c r="K117" s="10"/>
+      <c r="L117" s="10"/>
+      <c r="M117" s="10"/>
+      <c r="N117" s="10"/>
+      <c r="O117" s="10"/>
+      <c r="P117" s="10"/>
+      <c r="Q117" s="10"/>
+      <c r="R117" s="10"/>
+      <c r="S117" s="10"/>
+      <c r="T117" s="10"/>
+      <c r="U117" s="10"/>
+    </row>
+    <row r="118" spans="4:21">
+      <c r="D118" s="10"/>
+      <c r="E118" s="7"/>
+      <c r="F118" s="7"/>
+      <c r="G118" s="7" t="s">
+        <v>1044</v>
+      </c>
+      <c r="H118" s="10"/>
+      <c r="I118" s="10"/>
+      <c r="J118" s="10"/>
+      <c r="K118" s="10"/>
+      <c r="L118" s="10"/>
+      <c r="M118" s="10"/>
+      <c r="N118" s="10"/>
+      <c r="O118" s="10"/>
+      <c r="P118" s="10"/>
+      <c r="Q118" s="10"/>
+      <c r="R118" s="10"/>
+      <c r="S118" s="10"/>
+      <c r="T118" s="10"/>
+      <c r="U118" s="10"/>
+    </row>
+    <row r="119" spans="4:21">
+      <c r="D119" s="10"/>
+      <c r="E119" s="7"/>
+      <c r="F119" s="7"/>
+      <c r="G119" s="7" t="s">
+        <v>1056</v>
+      </c>
+      <c r="H119" s="10"/>
+      <c r="I119" s="10"/>
+      <c r="J119" s="10"/>
+      <c r="K119" s="10"/>
+      <c r="L119" s="10"/>
+      <c r="M119" s="10"/>
+      <c r="N119" s="10"/>
+      <c r="O119" s="10"/>
+      <c r="P119" s="10"/>
+      <c r="Q119" s="10"/>
+      <c r="R119" s="10"/>
+      <c r="S119" s="10"/>
+      <c r="T119" s="10"/>
+      <c r="U119" s="10"/>
+    </row>
+    <row r="120" spans="4:21">
+      <c r="D120" s="10"/>
+      <c r="E120" s="7"/>
+      <c r="F120" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="G120" s="7"/>
+      <c r="H120" s="10"/>
+      <c r="I120" s="10"/>
+      <c r="J120" s="10"/>
+      <c r="K120" s="10"/>
+      <c r="L120" s="10"/>
+      <c r="M120" s="10"/>
+      <c r="N120" s="10"/>
+      <c r="O120" s="10"/>
+      <c r="P120" s="10"/>
+      <c r="Q120" s="10"/>
+      <c r="R120" s="10"/>
+      <c r="S120" s="10"/>
+      <c r="T120" s="10"/>
+      <c r="U120" s="10"/>
+    </row>
+    <row r="121" spans="4:21">
+      <c r="D121" s="10"/>
+      <c r="E121" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="F121" s="7"/>
+      <c r="G121" s="7"/>
+      <c r="H121" s="10"/>
+      <c r="I121" s="10"/>
+      <c r="J121" s="10"/>
+      <c r="K121" s="10"/>
+      <c r="L121" s="10"/>
+      <c r="M121" s="10"/>
+      <c r="N121" s="10"/>
+      <c r="O121" s="10"/>
+      <c r="P121" s="10"/>
+      <c r="Q121" s="10"/>
+      <c r="R121" s="10"/>
+      <c r="S121" s="10"/>
+      <c r="T121" s="10"/>
+      <c r="U121" s="10"/>
+    </row>
+    <row r="122" spans="4:21">
+      <c r="D122" s="10"/>
+      <c r="E122" s="7"/>
+      <c r="F122" s="7" t="s">
+        <v>1045</v>
+      </c>
+      <c r="G122" s="7"/>
+      <c r="H122" s="10"/>
+      <c r="I122" s="10"/>
+      <c r="J122" s="10"/>
+      <c r="K122" s="10"/>
+      <c r="L122" s="10"/>
+      <c r="M122" s="10"/>
+      <c r="N122" s="10"/>
+      <c r="O122" s="10"/>
+      <c r="P122" s="10"/>
+      <c r="Q122" s="10"/>
+      <c r="R122" s="10"/>
+      <c r="S122" s="10"/>
+      <c r="T122" s="10"/>
+      <c r="U122" s="10"/>
+    </row>
+    <row r="123" spans="4:21">
+      <c r="D123" s="10"/>
+      <c r="E123" s="7"/>
+      <c r="F123" s="7" t="s">
+        <v>1046</v>
+      </c>
+      <c r="G123" s="7"/>
+      <c r="H123" s="10"/>
+      <c r="I123" s="10"/>
+      <c r="J123" s="10"/>
+      <c r="K123" s="10"/>
+      <c r="L123" s="10"/>
+      <c r="M123" s="10"/>
+      <c r="N123" s="10"/>
+      <c r="O123" s="10"/>
+      <c r="P123" s="10"/>
+      <c r="Q123" s="10"/>
+      <c r="R123" s="10"/>
+      <c r="S123" s="10"/>
+      <c r="T123" s="10"/>
+      <c r="U123" s="10"/>
+    </row>
+    <row r="124" spans="4:21">
+      <c r="D124" s="10"/>
+      <c r="E124" s="7"/>
+      <c r="F124" s="7" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G124" s="7"/>
+      <c r="H124" s="10"/>
+      <c r="I124" s="10"/>
+      <c r="J124" s="10"/>
+      <c r="K124" s="10"/>
+      <c r="L124" s="10"/>
+      <c r="M124" s="10"/>
+      <c r="N124" s="10"/>
+      <c r="O124" s="10"/>
+      <c r="P124" s="10"/>
+      <c r="Q124" s="10"/>
+      <c r="R124" s="10"/>
+      <c r="S124" s="10"/>
+      <c r="T124" s="10"/>
+      <c r="U124" s="10"/>
+    </row>
+    <row r="125" spans="4:21">
+      <c r="D125" s="10"/>
+      <c r="E125" s="7"/>
+      <c r="F125" s="7" t="s">
+        <v>1048</v>
+      </c>
+      <c r="G125" s="7"/>
+      <c r="H125" s="10"/>
+      <c r="I125" s="10"/>
+      <c r="J125" s="10"/>
+      <c r="K125" s="10"/>
+      <c r="L125" s="10"/>
+      <c r="M125" s="10"/>
+      <c r="N125" s="10"/>
+      <c r="O125" s="10"/>
+      <c r="P125" s="10"/>
+      <c r="Q125" s="10"/>
+      <c r="R125" s="10"/>
+      <c r="S125" s="10"/>
+      <c r="T125" s="10"/>
+      <c r="U125" s="10"/>
+    </row>
+    <row r="126" spans="4:21">
+      <c r="D126" s="10"/>
+      <c r="E126" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="F126" s="7"/>
+      <c r="G126" s="7"/>
+      <c r="H126" s="10"/>
+      <c r="I126" s="10"/>
+      <c r="J126" s="10"/>
+      <c r="K126" s="10"/>
+      <c r="L126" s="10"/>
+      <c r="M126" s="10"/>
+      <c r="N126" s="10"/>
+      <c r="O126" s="10"/>
+      <c r="P126" s="10"/>
+      <c r="Q126" s="10"/>
+      <c r="R126" s="10"/>
+      <c r="S126" s="10"/>
+      <c r="T126" s="10"/>
+      <c r="U126" s="10"/>
+    </row>
+    <row r="127" spans="4:21">
+      <c r="D127" s="10"/>
+      <c r="E127" s="10"/>
+      <c r="F127" s="10"/>
+      <c r="G127" s="10"/>
+      <c r="H127" s="10"/>
+      <c r="I127" s="10"/>
+      <c r="J127" s="10"/>
+      <c r="K127" s="10"/>
+      <c r="L127" s="10"/>
+      <c r="M127" s="10"/>
+      <c r="N127" s="10"/>
+      <c r="O127" s="10"/>
+      <c r="P127" s="10"/>
+      <c r="Q127" s="10"/>
+      <c r="R127" s="10"/>
+      <c r="S127" s="10"/>
+      <c r="T127" s="10"/>
+      <c r="U127" s="10"/>
+    </row>
+    <row r="129" spans="4:21">
+      <c r="D129" s="3" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="130" spans="4:21">
+      <c r="D130" s="10"/>
+      <c r="E130" s="10"/>
+      <c r="F130" s="10"/>
+      <c r="G130" s="10"/>
+      <c r="H130" s="10"/>
+      <c r="I130" s="10"/>
+      <c r="J130" s="10"/>
+      <c r="K130" s="10"/>
+      <c r="L130" s="10"/>
+      <c r="M130" s="10"/>
+      <c r="N130" s="10"/>
+      <c r="O130" s="10"/>
+      <c r="P130" s="10"/>
+      <c r="Q130" s="10"/>
+      <c r="R130" s="10"/>
+      <c r="S130" s="10"/>
+      <c r="T130" s="10"/>
+      <c r="U130" s="10"/>
+    </row>
+    <row r="131" spans="4:21">
+      <c r="D131" s="10"/>
+      <c r="E131" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="F131" s="7"/>
+      <c r="G131" s="10"/>
+      <c r="H131" s="10"/>
+      <c r="I131" s="10"/>
+      <c r="J131" s="10"/>
+      <c r="K131" s="10"/>
+      <c r="L131" s="10"/>
+      <c r="M131" s="10"/>
+      <c r="N131" s="10"/>
+      <c r="O131" s="10"/>
+      <c r="P131" s="10"/>
+      <c r="Q131" s="10"/>
+      <c r="R131" s="10"/>
+      <c r="S131" s="10"/>
+      <c r="T131" s="10"/>
+      <c r="U131" s="10"/>
+    </row>
+    <row r="132" spans="4:21">
+      <c r="D132" s="10"/>
+      <c r="E132" s="7" t="s">
+        <v>1057</v>
+      </c>
+      <c r="F132" s="7"/>
+      <c r="G132" s="10"/>
+      <c r="H132" s="10"/>
+      <c r="I132" s="10"/>
+      <c r="J132" s="10"/>
+      <c r="K132" s="10"/>
+      <c r="L132" s="10"/>
+      <c r="M132" s="10"/>
+      <c r="N132" s="10"/>
+      <c r="O132" s="10"/>
+      <c r="P132" s="10"/>
+      <c r="Q132" s="10"/>
+      <c r="R132" s="10"/>
+      <c r="S132" s="10"/>
+      <c r="T132" s="10"/>
+      <c r="U132" s="10"/>
+    </row>
+    <row r="133" spans="4:21">
+      <c r="D133" s="10"/>
+      <c r="E133" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="F133" s="7"/>
+      <c r="G133" s="10"/>
+      <c r="H133" s="10"/>
+      <c r="I133" s="10"/>
+      <c r="J133" s="10"/>
+      <c r="K133" s="10"/>
+      <c r="L133" s="10"/>
+      <c r="M133" s="10"/>
+      <c r="N133" s="10"/>
+      <c r="O133" s="10"/>
+      <c r="P133" s="10"/>
+      <c r="Q133" s="10"/>
+      <c r="R133" s="10"/>
+      <c r="S133" s="10"/>
+      <c r="T133" s="10"/>
+      <c r="U133" s="10"/>
+    </row>
+    <row r="134" spans="4:21">
+      <c r="D134" s="10"/>
+      <c r="E134" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="F134" s="7"/>
+      <c r="G134" s="10"/>
+      <c r="H134" s="10"/>
+      <c r="I134" s="10"/>
+      <c r="J134" s="10"/>
+      <c r="K134" s="10"/>
+      <c r="L134" s="10"/>
+      <c r="M134" s="10"/>
+      <c r="N134" s="10"/>
+      <c r="O134" s="10"/>
+      <c r="P134" s="10"/>
+      <c r="Q134" s="10"/>
+      <c r="R134" s="10"/>
+      <c r="S134" s="10"/>
+      <c r="T134" s="10"/>
+      <c r="U134" s="10"/>
+    </row>
+    <row r="135" spans="4:21">
+      <c r="D135" s="10"/>
+      <c r="E135" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="F135" s="7"/>
+      <c r="G135" s="10"/>
+      <c r="H135" s="10"/>
+      <c r="I135" s="10"/>
+      <c r="J135" s="10"/>
+      <c r="K135" s="10"/>
+      <c r="L135" s="10"/>
+      <c r="M135" s="10"/>
+      <c r="N135" s="10"/>
+      <c r="O135" s="10"/>
+      <c r="P135" s="10"/>
+      <c r="Q135" s="10"/>
+      <c r="R135" s="10"/>
+      <c r="S135" s="10"/>
+      <c r="T135" s="10"/>
+      <c r="U135" s="10"/>
+    </row>
+    <row r="136" spans="4:21">
+      <c r="D136" s="10"/>
+      <c r="E136" s="7"/>
+      <c r="F136" s="7" t="s">
+        <v>1058</v>
+      </c>
+      <c r="G136" s="10"/>
+      <c r="H136" s="10"/>
+      <c r="I136" s="10"/>
+      <c r="J136" s="10"/>
+      <c r="K136" s="10"/>
+      <c r="L136" s="10"/>
+      <c r="M136" s="10"/>
+      <c r="N136" s="10"/>
+      <c r="O136" s="10"/>
+      <c r="P136" s="10"/>
+      <c r="Q136" s="10"/>
+      <c r="R136" s="10"/>
+      <c r="S136" s="10"/>
+      <c r="T136" s="10"/>
+      <c r="U136" s="10"/>
+    </row>
+    <row r="137" spans="4:21">
+      <c r="D137" s="10"/>
+      <c r="E137" s="7"/>
+      <c r="F137" s="7" t="s">
+        <v>1059</v>
+      </c>
+      <c r="G137" s="10"/>
+      <c r="H137" s="10"/>
+      <c r="I137" s="10"/>
+      <c r="J137" s="10"/>
+      <c r="K137" s="10"/>
+      <c r="L137" s="10"/>
+      <c r="M137" s="10"/>
+      <c r="N137" s="10"/>
+      <c r="O137" s="10"/>
+      <c r="P137" s="10"/>
+      <c r="Q137" s="10"/>
+      <c r="R137" s="10"/>
+      <c r="S137" s="10"/>
+      <c r="T137" s="10"/>
+      <c r="U137" s="10"/>
+    </row>
+    <row r="138" spans="4:21">
+      <c r="D138" s="10"/>
+      <c r="E138" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="F138" s="7"/>
+      <c r="G138" s="10"/>
+      <c r="H138" s="10"/>
+      <c r="I138" s="10"/>
+      <c r="J138" s="10"/>
+      <c r="K138" s="10"/>
+      <c r="L138" s="10"/>
+      <c r="M138" s="10"/>
+      <c r="N138" s="10"/>
+      <c r="O138" s="10"/>
+      <c r="P138" s="10"/>
+      <c r="Q138" s="10"/>
+      <c r="R138" s="10"/>
+      <c r="S138" s="10"/>
+      <c r="T138" s="10"/>
+      <c r="U138" s="10"/>
+    </row>
+    <row r="139" spans="4:21">
+      <c r="D139" s="10"/>
+      <c r="E139" s="7"/>
+      <c r="F139" s="7" t="s">
+        <v>991</v>
+      </c>
+      <c r="G139" s="10"/>
+      <c r="H139" s="10"/>
+      <c r="I139" s="10"/>
+      <c r="J139" s="10"/>
+      <c r="K139" s="10"/>
+      <c r="L139" s="10"/>
+      <c r="M139" s="10"/>
+      <c r="N139" s="10"/>
+      <c r="O139" s="10"/>
+      <c r="P139" s="10"/>
+      <c r="Q139" s="10"/>
+      <c r="R139" s="10"/>
+      <c r="S139" s="10"/>
+      <c r="T139" s="10"/>
+      <c r="U139" s="10"/>
+    </row>
+    <row r="140" spans="4:21">
+      <c r="D140" s="10"/>
+      <c r="E140" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="F140" s="7"/>
+      <c r="G140" s="10"/>
+      <c r="H140" s="10"/>
+      <c r="I140" s="10"/>
+      <c r="J140" s="10"/>
+      <c r="K140" s="10"/>
+      <c r="L140" s="10"/>
+      <c r="M140" s="10"/>
+      <c r="N140" s="10"/>
+      <c r="O140" s="10"/>
+      <c r="P140" s="10"/>
+      <c r="Q140" s="10"/>
+      <c r="R140" s="10"/>
+      <c r="S140" s="10"/>
+      <c r="T140" s="10"/>
+      <c r="U140" s="10"/>
+    </row>
+    <row r="141" spans="4:21">
+      <c r="D141" s="10"/>
+      <c r="E141" s="7"/>
+      <c r="F141" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="G141" s="10"/>
+      <c r="H141" s="10"/>
+      <c r="I141" s="10"/>
+      <c r="J141" s="10"/>
+      <c r="K141" s="10"/>
+      <c r="L141" s="10"/>
+      <c r="M141" s="10"/>
+      <c r="N141" s="10"/>
+      <c r="O141" s="10"/>
+      <c r="P141" s="10"/>
+      <c r="Q141" s="10"/>
+      <c r="R141" s="10"/>
+      <c r="S141" s="10"/>
+      <c r="T141" s="10"/>
+      <c r="U141" s="10"/>
+    </row>
+    <row r="142" spans="4:21">
+      <c r="D142" s="10"/>
+      <c r="E142" s="7"/>
+      <c r="F142" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="G142" s="10"/>
+      <c r="H142" s="10"/>
+      <c r="I142" s="10"/>
+      <c r="J142" s="10"/>
+      <c r="K142" s="10"/>
+      <c r="L142" s="10"/>
+      <c r="M142" s="10"/>
+      <c r="N142" s="10"/>
+      <c r="O142" s="10"/>
+      <c r="P142" s="10"/>
+      <c r="Q142" s="10"/>
+      <c r="R142" s="10"/>
+      <c r="S142" s="10"/>
+      <c r="T142" s="10"/>
+      <c r="U142" s="10"/>
+    </row>
+    <row r="143" spans="4:21">
+      <c r="D143" s="10"/>
+      <c r="E143" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="F143" s="7"/>
+      <c r="G143" s="10"/>
+      <c r="H143" s="10"/>
+      <c r="I143" s="10"/>
+      <c r="J143" s="10"/>
+      <c r="K143" s="10"/>
+      <c r="L143" s="10"/>
+      <c r="M143" s="10"/>
+      <c r="N143" s="10"/>
+      <c r="O143" s="10"/>
+      <c r="P143" s="10"/>
+      <c r="Q143" s="10"/>
+      <c r="R143" s="10"/>
+      <c r="S143" s="10"/>
+      <c r="T143" s="10"/>
+      <c r="U143" s="10"/>
+    </row>
+    <row r="144" spans="4:21">
+      <c r="D144" s="10"/>
+      <c r="E144" s="10"/>
+      <c r="F144" s="10"/>
+      <c r="G144" s="10"/>
+      <c r="H144" s="10"/>
+      <c r="I144" s="10"/>
+      <c r="J144" s="10"/>
+      <c r="K144" s="10"/>
+      <c r="L144" s="10"/>
+      <c r="M144" s="10"/>
+      <c r="N144" s="10"/>
+      <c r="O144" s="10"/>
+      <c r="P144" s="10"/>
+      <c r="Q144" s="10"/>
+      <c r="R144" s="10"/>
+      <c r="S144" s="10"/>
+      <c r="T144" s="10"/>
+      <c r="U144" s="10"/>
+    </row>
+    <row r="147" spans="1:52">
+      <c r="A147" s="4"/>
+      <c r="B147" s="4"/>
+      <c r="C147" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D147" s="1" t="s">
+        <v>1061</v>
+      </c>
+      <c r="E147" s="4"/>
+      <c r="F147" s="4"/>
+      <c r="G147" s="4"/>
+      <c r="H147" s="4"/>
+      <c r="I147" s="4"/>
+      <c r="J147" s="4"/>
+      <c r="K147" s="4"/>
+      <c r="L147" s="4"/>
+      <c r="M147" s="4"/>
+      <c r="N147" s="4"/>
+      <c r="O147" s="4"/>
+      <c r="P147" s="4"/>
+      <c r="Q147" s="4"/>
+      <c r="R147" s="4"/>
+      <c r="S147" s="4"/>
+      <c r="T147" s="4"/>
+      <c r="U147" s="4"/>
+      <c r="V147" s="4"/>
+      <c r="W147" s="4"/>
+      <c r="X147" s="4"/>
+      <c r="Y147" s="4"/>
+      <c r="Z147" s="4"/>
+      <c r="AA147" s="4"/>
+      <c r="AB147" s="4"/>
+      <c r="AC147" s="4"/>
+      <c r="AD147" s="4"/>
+      <c r="AE147" s="4"/>
+      <c r="AF147" s="4"/>
+      <c r="AG147" s="4"/>
+      <c r="AH147" s="4"/>
+      <c r="AI147" s="4"/>
+      <c r="AJ147" s="4"/>
+      <c r="AK147" s="4"/>
+      <c r="AL147" s="4"/>
+      <c r="AM147" s="4"/>
+      <c r="AN147" s="4"/>
+      <c r="AO147" s="4"/>
+      <c r="AP147" s="4"/>
+      <c r="AQ147" s="4"/>
+      <c r="AR147" s="4"/>
+      <c r="AS147" s="4"/>
+      <c r="AT147" s="4"/>
+      <c r="AU147" s="4"/>
+      <c r="AV147" s="4"/>
+      <c r="AW147" s="4"/>
+      <c r="AX147" s="4"/>
+      <c r="AY147" s="4"/>
+      <c r="AZ147" s="4"/>
+    </row>
+    <row r="149" spans="1:52">
+      <c r="D149" s="3" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="150" spans="1:52">
+      <c r="D150" s="31" t="s">
+        <v>905</v>
+      </c>
+      <c r="E150" s="2" t="s">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="151" spans="1:52">
+      <c r="D151" s="31" t="s">
+        <v>905</v>
+      </c>
+      <c r="E151" s="2" t="s">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="152" spans="1:52">
+      <c r="D152" s="31" t="s">
+        <v>905</v>
+      </c>
+      <c r="E152" s="2" t="s">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="153" spans="1:52">
+      <c r="D153" s="31" t="s">
+        <v>905</v>
+      </c>
+      <c r="E153" s="2" t="s">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="155" spans="1:52">
+      <c r="D155" s="3" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="156" spans="1:52">
+      <c r="D156" s="31" t="s">
+        <v>905</v>
+      </c>
+      <c r="E156" s="2" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="157" spans="1:52">
+      <c r="D157" s="31" t="s">
+        <v>905</v>
+      </c>
+      <c r="E157" s="2" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="159" spans="1:52">
+      <c r="D159" s="3" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="160" spans="1:52">
+      <c r="D160" s="31" t="s">
+        <v>905</v>
+      </c>
+      <c r="E160" s="2" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="161" spans="4:5">
+      <c r="D161" s="31" t="s">
+        <v>905</v>
+      </c>
+      <c r="E161" s="2" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B8"/>
   <sheetViews>
@@ -17931,131 +24572,131 @@
     </row>
     <row r="14" spans="1:52" ht="15" thickBot="1"/>
     <row r="15" spans="1:52" ht="15" thickBot="1">
-      <c r="N15" s="64" t="s">
+      <c r="N15" s="65" t="s">
         <v>132</v>
       </c>
-      <c r="O15" s="56"/>
-      <c r="P15" s="56"/>
-      <c r="Q15" s="56"/>
-      <c r="R15" s="57"/>
+      <c r="O15" s="57"/>
+      <c r="P15" s="57"/>
+      <c r="Q15" s="57"/>
+      <c r="R15" s="58"/>
     </row>
     <row r="16" spans="1:52">
-      <c r="D16" s="55" t="s">
+      <c r="D16" s="56" t="s">
         <v>138</v>
       </c>
-      <c r="E16" s="56"/>
-      <c r="F16" s="56"/>
-      <c r="G16" s="57"/>
+      <c r="E16" s="57"/>
+      <c r="F16" s="57"/>
+      <c r="G16" s="58"/>
       <c r="I16" t="s">
         <v>133</v>
       </c>
-      <c r="N16" s="58"/>
-      <c r="O16" s="59"/>
-      <c r="P16" s="59"/>
-      <c r="Q16" s="59"/>
-      <c r="R16" s="60"/>
+      <c r="N16" s="59"/>
+      <c r="O16" s="60"/>
+      <c r="P16" s="60"/>
+      <c r="Q16" s="60"/>
+      <c r="R16" s="61"/>
       <c r="T16" t="s">
         <v>136</v>
       </c>
-      <c r="Y16" s="64" t="s">
+      <c r="Y16" s="65" t="s">
         <v>133</v>
       </c>
-      <c r="Z16" s="56"/>
-      <c r="AA16" s="56"/>
-      <c r="AB16" s="56"/>
-      <c r="AC16" s="57"/>
+      <c r="Z16" s="57"/>
+      <c r="AA16" s="57"/>
+      <c r="AB16" s="57"/>
+      <c r="AC16" s="58"/>
     </row>
     <row r="17" spans="1:52" ht="15" thickBot="1">
-      <c r="D17" s="58"/>
-      <c r="E17" s="59"/>
-      <c r="F17" s="59"/>
-      <c r="G17" s="60"/>
-      <c r="N17" s="58"/>
-      <c r="O17" s="59"/>
-      <c r="P17" s="59"/>
-      <c r="Q17" s="59"/>
-      <c r="R17" s="60"/>
-      <c r="Y17" s="61"/>
-      <c r="Z17" s="62"/>
-      <c r="AA17" s="62"/>
-      <c r="AB17" s="62"/>
-      <c r="AC17" s="63"/>
+      <c r="D17" s="59"/>
+      <c r="E17" s="60"/>
+      <c r="F17" s="60"/>
+      <c r="G17" s="61"/>
+      <c r="N17" s="59"/>
+      <c r="O17" s="60"/>
+      <c r="P17" s="60"/>
+      <c r="Q17" s="60"/>
+      <c r="R17" s="61"/>
+      <c r="Y17" s="62"/>
+      <c r="Z17" s="63"/>
+      <c r="AA17" s="63"/>
+      <c r="AB17" s="63"/>
+      <c r="AC17" s="64"/>
     </row>
     <row r="18" spans="1:52">
-      <c r="D18" s="58"/>
-      <c r="E18" s="59"/>
-      <c r="F18" s="59"/>
-      <c r="G18" s="60"/>
+      <c r="D18" s="59"/>
+      <c r="E18" s="60"/>
+      <c r="F18" s="60"/>
+      <c r="G18" s="61"/>
       <c r="I18" t="s">
         <v>134</v>
       </c>
-      <c r="N18" s="58"/>
-      <c r="O18" s="59"/>
-      <c r="P18" s="59"/>
-      <c r="Q18" s="59"/>
-      <c r="R18" s="60"/>
+      <c r="N18" s="59"/>
+      <c r="O18" s="60"/>
+      <c r="P18" s="60"/>
+      <c r="Q18" s="60"/>
+      <c r="R18" s="61"/>
       <c r="T18" t="s">
         <v>136</v>
       </c>
-      <c r="Y18" s="64" t="s">
+      <c r="Y18" s="65" t="s">
         <v>134</v>
       </c>
-      <c r="Z18" s="56"/>
-      <c r="AA18" s="56"/>
-      <c r="AB18" s="56"/>
-      <c r="AC18" s="57"/>
+      <c r="Z18" s="57"/>
+      <c r="AA18" s="57"/>
+      <c r="AB18" s="57"/>
+      <c r="AC18" s="58"/>
     </row>
     <row r="19" spans="1:52" ht="15" thickBot="1">
-      <c r="D19" s="58"/>
-      <c r="E19" s="59"/>
-      <c r="F19" s="59"/>
-      <c r="G19" s="60"/>
-      <c r="N19" s="58"/>
-      <c r="O19" s="59"/>
-      <c r="P19" s="59"/>
-      <c r="Q19" s="59"/>
-      <c r="R19" s="60"/>
-      <c r="Y19" s="61"/>
-      <c r="Z19" s="62"/>
-      <c r="AA19" s="62"/>
-      <c r="AB19" s="62"/>
-      <c r="AC19" s="63"/>
+      <c r="D19" s="59"/>
+      <c r="E19" s="60"/>
+      <c r="F19" s="60"/>
+      <c r="G19" s="61"/>
+      <c r="N19" s="59"/>
+      <c r="O19" s="60"/>
+      <c r="P19" s="60"/>
+      <c r="Q19" s="60"/>
+      <c r="R19" s="61"/>
+      <c r="Y19" s="62"/>
+      <c r="Z19" s="63"/>
+      <c r="AA19" s="63"/>
+      <c r="AB19" s="63"/>
+      <c r="AC19" s="64"/>
     </row>
     <row r="20" spans="1:52" ht="15" thickBot="1">
-      <c r="D20" s="61"/>
-      <c r="E20" s="62"/>
-      <c r="F20" s="62"/>
-      <c r="G20" s="63"/>
+      <c r="D20" s="62"/>
+      <c r="E20" s="63"/>
+      <c r="F20" s="63"/>
+      <c r="G20" s="64"/>
       <c r="I20" t="s">
         <v>135</v>
       </c>
-      <c r="N20" s="58"/>
-      <c r="O20" s="59"/>
-      <c r="P20" s="59"/>
-      <c r="Q20" s="59"/>
-      <c r="R20" s="60"/>
+      <c r="N20" s="59"/>
+      <c r="O20" s="60"/>
+      <c r="P20" s="60"/>
+      <c r="Q20" s="60"/>
+      <c r="R20" s="61"/>
       <c r="T20" t="s">
         <v>136</v>
       </c>
-      <c r="Y20" s="58" t="s">
+      <c r="Y20" s="59" t="s">
         <v>135</v>
       </c>
-      <c r="Z20" s="59"/>
-      <c r="AA20" s="59"/>
-      <c r="AB20" s="59"/>
-      <c r="AC20" s="60"/>
+      <c r="Z20" s="60"/>
+      <c r="AA20" s="60"/>
+      <c r="AB20" s="60"/>
+      <c r="AC20" s="61"/>
     </row>
     <row r="21" spans="1:52" ht="15" thickBot="1">
-      <c r="N21" s="61"/>
-      <c r="O21" s="62"/>
-      <c r="P21" s="62"/>
-      <c r="Q21" s="62"/>
-      <c r="R21" s="63"/>
-      <c r="Y21" s="61"/>
-      <c r="Z21" s="62"/>
-      <c r="AA21" s="62"/>
-      <c r="AB21" s="62"/>
-      <c r="AC21" s="63"/>
+      <c r="N21" s="62"/>
+      <c r="O21" s="63"/>
+      <c r="P21" s="63"/>
+      <c r="Q21" s="63"/>
+      <c r="R21" s="64"/>
+      <c r="Y21" s="62"/>
+      <c r="Z21" s="63"/>
+      <c r="AA21" s="63"/>
+      <c r="AB21" s="63"/>
+      <c r="AC21" s="64"/>
     </row>
     <row r="23" spans="1:52">
       <c r="D23" t="s">
@@ -21605,312 +28246,312 @@
     </row>
     <row r="22" spans="4:44" ht="15" thickBot="1"/>
     <row r="23" spans="4:44">
-      <c r="E23" s="55" t="s">
+      <c r="E23" s="56" t="s">
         <v>138</v>
       </c>
-      <c r="F23" s="56"/>
-      <c r="G23" s="56"/>
-      <c r="H23" s="56"/>
-      <c r="I23" s="56"/>
-      <c r="J23" s="57"/>
+      <c r="F23" s="57"/>
+      <c r="G23" s="57"/>
+      <c r="H23" s="57"/>
+      <c r="I23" s="57"/>
+      <c r="J23" s="58"/>
       <c r="L23" t="s">
         <v>240</v>
       </c>
-      <c r="T23" s="64" t="s">
+      <c r="T23" s="65" t="s">
         <v>237</v>
       </c>
-      <c r="U23" s="56"/>
-      <c r="V23" s="56"/>
-      <c r="W23" s="56"/>
-      <c r="X23" s="56"/>
-      <c r="Y23" s="56"/>
-      <c r="Z23" s="56"/>
-      <c r="AA23" s="56"/>
-      <c r="AB23" s="56"/>
-      <c r="AC23" s="56"/>
-      <c r="AD23" s="56"/>
-      <c r="AE23" s="56"/>
-      <c r="AF23" s="57"/>
-      <c r="AL23" s="64" t="s">
+      <c r="U23" s="57"/>
+      <c r="V23" s="57"/>
+      <c r="W23" s="57"/>
+      <c r="X23" s="57"/>
+      <c r="Y23" s="57"/>
+      <c r="Z23" s="57"/>
+      <c r="AA23" s="57"/>
+      <c r="AB23" s="57"/>
+      <c r="AC23" s="57"/>
+      <c r="AD23" s="57"/>
+      <c r="AE23" s="57"/>
+      <c r="AF23" s="58"/>
+      <c r="AL23" s="65" t="s">
         <v>240</v>
       </c>
-      <c r="AM23" s="56"/>
-      <c r="AN23" s="56"/>
-      <c r="AO23" s="56"/>
-      <c r="AP23" s="56"/>
-      <c r="AQ23" s="56"/>
-      <c r="AR23" s="57"/>
+      <c r="AM23" s="57"/>
+      <c r="AN23" s="57"/>
+      <c r="AO23" s="57"/>
+      <c r="AP23" s="57"/>
+      <c r="AQ23" s="57"/>
+      <c r="AR23" s="58"/>
     </row>
     <row r="24" spans="4:44">
-      <c r="E24" s="58"/>
-      <c r="F24" s="59"/>
-      <c r="G24" s="59"/>
-      <c r="H24" s="59"/>
-      <c r="I24" s="59"/>
-      <c r="J24" s="60"/>
-      <c r="T24" s="58"/>
-      <c r="U24" s="59"/>
-      <c r="V24" s="59"/>
-      <c r="W24" s="59"/>
-      <c r="X24" s="59"/>
-      <c r="Y24" s="59"/>
-      <c r="Z24" s="59"/>
-      <c r="AA24" s="59"/>
-      <c r="AB24" s="59"/>
-      <c r="AC24" s="59"/>
-      <c r="AD24" s="59"/>
-      <c r="AE24" s="59"/>
-      <c r="AF24" s="60"/>
+      <c r="E24" s="59"/>
+      <c r="F24" s="60"/>
+      <c r="G24" s="60"/>
+      <c r="H24" s="60"/>
+      <c r="I24" s="60"/>
+      <c r="J24" s="61"/>
+      <c r="T24" s="59"/>
+      <c r="U24" s="60"/>
+      <c r="V24" s="60"/>
+      <c r="W24" s="60"/>
+      <c r="X24" s="60"/>
+      <c r="Y24" s="60"/>
+      <c r="Z24" s="60"/>
+      <c r="AA24" s="60"/>
+      <c r="AB24" s="60"/>
+      <c r="AC24" s="60"/>
+      <c r="AD24" s="60"/>
+      <c r="AE24" s="60"/>
+      <c r="AF24" s="61"/>
       <c r="AH24" t="s">
         <v>243</v>
       </c>
-      <c r="AL24" s="58"/>
-      <c r="AM24" s="59"/>
-      <c r="AN24" s="59"/>
-      <c r="AO24" s="59"/>
-      <c r="AP24" s="59"/>
-      <c r="AQ24" s="59"/>
-      <c r="AR24" s="60"/>
+      <c r="AL24" s="59"/>
+      <c r="AM24" s="60"/>
+      <c r="AN24" s="60"/>
+      <c r="AO24" s="60"/>
+      <c r="AP24" s="60"/>
+      <c r="AQ24" s="60"/>
+      <c r="AR24" s="61"/>
     </row>
     <row r="25" spans="4:44" ht="15" thickBot="1">
-      <c r="E25" s="58"/>
-      <c r="F25" s="59"/>
-      <c r="G25" s="59"/>
-      <c r="H25" s="59"/>
-      <c r="I25" s="59"/>
-      <c r="J25" s="60"/>
-      <c r="T25" s="61"/>
-      <c r="U25" s="62"/>
-      <c r="V25" s="62"/>
-      <c r="W25" s="62"/>
-      <c r="X25" s="62"/>
-      <c r="Y25" s="62"/>
-      <c r="Z25" s="62"/>
-      <c r="AA25" s="62"/>
-      <c r="AB25" s="62"/>
-      <c r="AC25" s="62"/>
-      <c r="AD25" s="62"/>
-      <c r="AE25" s="62"/>
-      <c r="AF25" s="63"/>
-      <c r="AL25" s="61"/>
-      <c r="AM25" s="62"/>
-      <c r="AN25" s="62"/>
-      <c r="AO25" s="62"/>
-      <c r="AP25" s="62"/>
-      <c r="AQ25" s="62"/>
-      <c r="AR25" s="63"/>
+      <c r="E25" s="59"/>
+      <c r="F25" s="60"/>
+      <c r="G25" s="60"/>
+      <c r="H25" s="60"/>
+      <c r="I25" s="60"/>
+      <c r="J25" s="61"/>
+      <c r="T25" s="62"/>
+      <c r="U25" s="63"/>
+      <c r="V25" s="63"/>
+      <c r="W25" s="63"/>
+      <c r="X25" s="63"/>
+      <c r="Y25" s="63"/>
+      <c r="Z25" s="63"/>
+      <c r="AA25" s="63"/>
+      <c r="AB25" s="63"/>
+      <c r="AC25" s="63"/>
+      <c r="AD25" s="63"/>
+      <c r="AE25" s="63"/>
+      <c r="AF25" s="64"/>
+      <c r="AL25" s="62"/>
+      <c r="AM25" s="63"/>
+      <c r="AN25" s="63"/>
+      <c r="AO25" s="63"/>
+      <c r="AP25" s="63"/>
+      <c r="AQ25" s="63"/>
+      <c r="AR25" s="64"/>
     </row>
     <row r="26" spans="4:44" ht="15" thickBot="1">
-      <c r="E26" s="58"/>
-      <c r="F26" s="59"/>
-      <c r="G26" s="59"/>
-      <c r="H26" s="59"/>
-      <c r="I26" s="59"/>
-      <c r="J26" s="60"/>
+      <c r="E26" s="59"/>
+      <c r="F26" s="60"/>
+      <c r="G26" s="60"/>
+      <c r="H26" s="60"/>
+      <c r="I26" s="60"/>
+      <c r="J26" s="61"/>
     </row>
     <row r="27" spans="4:44">
-      <c r="E27" s="58"/>
-      <c r="F27" s="59"/>
-      <c r="G27" s="59"/>
-      <c r="H27" s="59"/>
-      <c r="I27" s="59"/>
-      <c r="J27" s="60"/>
+      <c r="E27" s="59"/>
+      <c r="F27" s="60"/>
+      <c r="G27" s="60"/>
+      <c r="H27" s="60"/>
+      <c r="I27" s="60"/>
+      <c r="J27" s="61"/>
       <c r="L27" t="s">
         <v>134</v>
       </c>
-      <c r="T27" s="64" t="s">
+      <c r="T27" s="65" t="s">
         <v>238</v>
       </c>
-      <c r="U27" s="56"/>
-      <c r="V27" s="56"/>
-      <c r="W27" s="56"/>
-      <c r="X27" s="56"/>
-      <c r="Y27" s="56"/>
-      <c r="Z27" s="56"/>
-      <c r="AA27" s="56"/>
-      <c r="AB27" s="56"/>
-      <c r="AC27" s="56"/>
-      <c r="AD27" s="56"/>
-      <c r="AE27" s="56"/>
-      <c r="AF27" s="57"/>
+      <c r="U27" s="57"/>
+      <c r="V27" s="57"/>
+      <c r="W27" s="57"/>
+      <c r="X27" s="57"/>
+      <c r="Y27" s="57"/>
+      <c r="Z27" s="57"/>
+      <c r="AA27" s="57"/>
+      <c r="AB27" s="57"/>
+      <c r="AC27" s="57"/>
+      <c r="AD27" s="57"/>
+      <c r="AE27" s="57"/>
+      <c r="AF27" s="58"/>
       <c r="AH27" t="s">
         <v>243</v>
       </c>
-      <c r="AL27" s="64" t="s">
+      <c r="AL27" s="65" t="s">
         <v>241</v>
       </c>
-      <c r="AM27" s="56"/>
-      <c r="AN27" s="56"/>
-      <c r="AO27" s="56"/>
-      <c r="AP27" s="56"/>
-      <c r="AQ27" s="56"/>
-      <c r="AR27" s="57"/>
+      <c r="AM27" s="57"/>
+      <c r="AN27" s="57"/>
+      <c r="AO27" s="57"/>
+      <c r="AP27" s="57"/>
+      <c r="AQ27" s="57"/>
+      <c r="AR27" s="58"/>
     </row>
     <row r="28" spans="4:44">
-      <c r="E28" s="58"/>
-      <c r="F28" s="59"/>
-      <c r="G28" s="59"/>
-      <c r="H28" s="59"/>
-      <c r="I28" s="59"/>
-      <c r="J28" s="60"/>
-      <c r="T28" s="58"/>
-      <c r="U28" s="59"/>
-      <c r="V28" s="59"/>
-      <c r="W28" s="59"/>
-      <c r="X28" s="59"/>
-      <c r="Y28" s="59"/>
-      <c r="Z28" s="59"/>
-      <c r="AA28" s="59"/>
-      <c r="AB28" s="59"/>
-      <c r="AC28" s="59"/>
-      <c r="AD28" s="59"/>
-      <c r="AE28" s="59"/>
-      <c r="AF28" s="60"/>
-      <c r="AL28" s="58"/>
-      <c r="AM28" s="59"/>
-      <c r="AN28" s="59"/>
-      <c r="AO28" s="59"/>
-      <c r="AP28" s="59"/>
-      <c r="AQ28" s="59"/>
-      <c r="AR28" s="60"/>
+      <c r="E28" s="59"/>
+      <c r="F28" s="60"/>
+      <c r="G28" s="60"/>
+      <c r="H28" s="60"/>
+      <c r="I28" s="60"/>
+      <c r="J28" s="61"/>
+      <c r="T28" s="59"/>
+      <c r="U28" s="60"/>
+      <c r="V28" s="60"/>
+      <c r="W28" s="60"/>
+      <c r="X28" s="60"/>
+      <c r="Y28" s="60"/>
+      <c r="Z28" s="60"/>
+      <c r="AA28" s="60"/>
+      <c r="AB28" s="60"/>
+      <c r="AC28" s="60"/>
+      <c r="AD28" s="60"/>
+      <c r="AE28" s="60"/>
+      <c r="AF28" s="61"/>
+      <c r="AL28" s="59"/>
+      <c r="AM28" s="60"/>
+      <c r="AN28" s="60"/>
+      <c r="AO28" s="60"/>
+      <c r="AP28" s="60"/>
+      <c r="AQ28" s="60"/>
+      <c r="AR28" s="61"/>
     </row>
     <row r="29" spans="4:44" ht="15" thickBot="1">
-      <c r="E29" s="58"/>
-      <c r="F29" s="59"/>
-      <c r="G29" s="59"/>
-      <c r="H29" s="59"/>
-      <c r="I29" s="59"/>
-      <c r="J29" s="60"/>
-      <c r="T29" s="61"/>
-      <c r="U29" s="62"/>
-      <c r="V29" s="62"/>
-      <c r="W29" s="62"/>
-      <c r="X29" s="62"/>
-      <c r="Y29" s="62"/>
-      <c r="Z29" s="62"/>
-      <c r="AA29" s="62"/>
-      <c r="AB29" s="62"/>
-      <c r="AC29" s="62"/>
-      <c r="AD29" s="62"/>
-      <c r="AE29" s="62"/>
-      <c r="AF29" s="63"/>
-      <c r="AL29" s="61"/>
-      <c r="AM29" s="62"/>
-      <c r="AN29" s="62"/>
-      <c r="AO29" s="62"/>
-      <c r="AP29" s="62"/>
-      <c r="AQ29" s="62"/>
-      <c r="AR29" s="63"/>
+      <c r="E29" s="59"/>
+      <c r="F29" s="60"/>
+      <c r="G29" s="60"/>
+      <c r="H29" s="60"/>
+      <c r="I29" s="60"/>
+      <c r="J29" s="61"/>
+      <c r="T29" s="62"/>
+      <c r="U29" s="63"/>
+      <c r="V29" s="63"/>
+      <c r="W29" s="63"/>
+      <c r="X29" s="63"/>
+      <c r="Y29" s="63"/>
+      <c r="Z29" s="63"/>
+      <c r="AA29" s="63"/>
+      <c r="AB29" s="63"/>
+      <c r="AC29" s="63"/>
+      <c r="AD29" s="63"/>
+      <c r="AE29" s="63"/>
+      <c r="AF29" s="64"/>
+      <c r="AL29" s="62"/>
+      <c r="AM29" s="63"/>
+      <c r="AN29" s="63"/>
+      <c r="AO29" s="63"/>
+      <c r="AP29" s="63"/>
+      <c r="AQ29" s="63"/>
+      <c r="AR29" s="64"/>
     </row>
     <row r="30" spans="4:44" ht="15" thickBot="1">
-      <c r="E30" s="58"/>
-      <c r="F30" s="59"/>
-      <c r="G30" s="59"/>
-      <c r="H30" s="59"/>
-      <c r="I30" s="59"/>
-      <c r="J30" s="60"/>
+      <c r="E30" s="59"/>
+      <c r="F30" s="60"/>
+      <c r="G30" s="60"/>
+      <c r="H30" s="60"/>
+      <c r="I30" s="60"/>
+      <c r="J30" s="61"/>
     </row>
     <row r="31" spans="4:44">
-      <c r="E31" s="58"/>
-      <c r="F31" s="59"/>
-      <c r="G31" s="59"/>
-      <c r="H31" s="59"/>
-      <c r="I31" s="59"/>
-      <c r="J31" s="60"/>
+      <c r="E31" s="59"/>
+      <c r="F31" s="60"/>
+      <c r="G31" s="60"/>
+      <c r="H31" s="60"/>
+      <c r="I31" s="60"/>
+      <c r="J31" s="61"/>
       <c r="L31" t="s">
         <v>135</v>
       </c>
-      <c r="T31" s="64" t="s">
+      <c r="T31" s="65" t="s">
         <v>239</v>
       </c>
-      <c r="U31" s="56"/>
-      <c r="V31" s="56"/>
-      <c r="W31" s="56"/>
-      <c r="X31" s="56"/>
-      <c r="Y31" s="56"/>
-      <c r="Z31" s="56"/>
-      <c r="AA31" s="56"/>
-      <c r="AB31" s="56"/>
-      <c r="AC31" s="56"/>
-      <c r="AD31" s="56"/>
-      <c r="AE31" s="56"/>
-      <c r="AF31" s="57"/>
+      <c r="U31" s="57"/>
+      <c r="V31" s="57"/>
+      <c r="W31" s="57"/>
+      <c r="X31" s="57"/>
+      <c r="Y31" s="57"/>
+      <c r="Z31" s="57"/>
+      <c r="AA31" s="57"/>
+      <c r="AB31" s="57"/>
+      <c r="AC31" s="57"/>
+      <c r="AD31" s="57"/>
+      <c r="AE31" s="57"/>
+      <c r="AF31" s="58"/>
       <c r="AH31" t="s">
         <v>243</v>
       </c>
-      <c r="AL31" s="64" t="s">
+      <c r="AL31" s="65" t="s">
         <v>242</v>
       </c>
-      <c r="AM31" s="56"/>
-      <c r="AN31" s="56"/>
-      <c r="AO31" s="56"/>
-      <c r="AP31" s="56"/>
-      <c r="AQ31" s="56"/>
-      <c r="AR31" s="57"/>
+      <c r="AM31" s="57"/>
+      <c r="AN31" s="57"/>
+      <c r="AO31" s="57"/>
+      <c r="AP31" s="57"/>
+      <c r="AQ31" s="57"/>
+      <c r="AR31" s="58"/>
     </row>
     <row r="32" spans="4:44">
-      <c r="E32" s="58"/>
-      <c r="F32" s="59"/>
-      <c r="G32" s="59"/>
-      <c r="H32" s="59"/>
-      <c r="I32" s="59"/>
-      <c r="J32" s="60"/>
-      <c r="T32" s="58"/>
-      <c r="U32" s="59"/>
-      <c r="V32" s="59"/>
-      <c r="W32" s="59"/>
-      <c r="X32" s="59"/>
-      <c r="Y32" s="59"/>
-      <c r="Z32" s="59"/>
-      <c r="AA32" s="59"/>
-      <c r="AB32" s="59"/>
-      <c r="AC32" s="59"/>
-      <c r="AD32" s="59"/>
-      <c r="AE32" s="59"/>
-      <c r="AF32" s="60"/>
-      <c r="AL32" s="58"/>
-      <c r="AM32" s="59"/>
-      <c r="AN32" s="59"/>
-      <c r="AO32" s="59"/>
-      <c r="AP32" s="59"/>
-      <c r="AQ32" s="59"/>
-      <c r="AR32" s="60"/>
+      <c r="E32" s="59"/>
+      <c r="F32" s="60"/>
+      <c r="G32" s="60"/>
+      <c r="H32" s="60"/>
+      <c r="I32" s="60"/>
+      <c r="J32" s="61"/>
+      <c r="T32" s="59"/>
+      <c r="U32" s="60"/>
+      <c r="V32" s="60"/>
+      <c r="W32" s="60"/>
+      <c r="X32" s="60"/>
+      <c r="Y32" s="60"/>
+      <c r="Z32" s="60"/>
+      <c r="AA32" s="60"/>
+      <c r="AB32" s="60"/>
+      <c r="AC32" s="60"/>
+      <c r="AD32" s="60"/>
+      <c r="AE32" s="60"/>
+      <c r="AF32" s="61"/>
+      <c r="AL32" s="59"/>
+      <c r="AM32" s="60"/>
+      <c r="AN32" s="60"/>
+      <c r="AO32" s="60"/>
+      <c r="AP32" s="60"/>
+      <c r="AQ32" s="60"/>
+      <c r="AR32" s="61"/>
     </row>
     <row r="33" spans="4:44" ht="15" thickBot="1">
-      <c r="E33" s="58"/>
-      <c r="F33" s="59"/>
-      <c r="G33" s="59"/>
-      <c r="H33" s="59"/>
-      <c r="I33" s="59"/>
-      <c r="J33" s="60"/>
-      <c r="T33" s="61"/>
-      <c r="U33" s="62"/>
-      <c r="V33" s="62"/>
-      <c r="W33" s="62"/>
-      <c r="X33" s="62"/>
-      <c r="Y33" s="62"/>
-      <c r="Z33" s="62"/>
-      <c r="AA33" s="62"/>
-      <c r="AB33" s="62"/>
-      <c r="AC33" s="62"/>
-      <c r="AD33" s="62"/>
-      <c r="AE33" s="62"/>
-      <c r="AF33" s="63"/>
-      <c r="AL33" s="61"/>
-      <c r="AM33" s="62"/>
-      <c r="AN33" s="62"/>
-      <c r="AO33" s="62"/>
-      <c r="AP33" s="62"/>
-      <c r="AQ33" s="62"/>
-      <c r="AR33" s="63"/>
+      <c r="E33" s="59"/>
+      <c r="F33" s="60"/>
+      <c r="G33" s="60"/>
+      <c r="H33" s="60"/>
+      <c r="I33" s="60"/>
+      <c r="J33" s="61"/>
+      <c r="T33" s="62"/>
+      <c r="U33" s="63"/>
+      <c r="V33" s="63"/>
+      <c r="W33" s="63"/>
+      <c r="X33" s="63"/>
+      <c r="Y33" s="63"/>
+      <c r="Z33" s="63"/>
+      <c r="AA33" s="63"/>
+      <c r="AB33" s="63"/>
+      <c r="AC33" s="63"/>
+      <c r="AD33" s="63"/>
+      <c r="AE33" s="63"/>
+      <c r="AF33" s="64"/>
+      <c r="AL33" s="62"/>
+      <c r="AM33" s="63"/>
+      <c r="AN33" s="63"/>
+      <c r="AO33" s="63"/>
+      <c r="AP33" s="63"/>
+      <c r="AQ33" s="63"/>
+      <c r="AR33" s="64"/>
     </row>
     <row r="34" spans="4:44" ht="15" thickBot="1">
-      <c r="E34" s="61"/>
-      <c r="F34" s="62"/>
-      <c r="G34" s="62"/>
-      <c r="H34" s="62"/>
-      <c r="I34" s="62"/>
-      <c r="J34" s="63"/>
+      <c r="E34" s="62"/>
+      <c r="F34" s="63"/>
+      <c r="G34" s="63"/>
+      <c r="H34" s="63"/>
+      <c r="I34" s="63"/>
+      <c r="J34" s="64"/>
     </row>
     <row r="38" spans="4:44">
       <c r="D38" t="s">
@@ -25401,312 +32042,312 @@
     </row>
     <row r="28" spans="4:43" ht="15" thickBot="1"/>
     <row r="29" spans="4:43">
-      <c r="D29" s="55" t="s">
+      <c r="D29" s="56" t="s">
         <v>138</v>
       </c>
-      <c r="E29" s="56"/>
-      <c r="F29" s="56"/>
-      <c r="G29" s="56"/>
-      <c r="H29" s="56"/>
-      <c r="I29" s="57"/>
+      <c r="E29" s="57"/>
+      <c r="F29" s="57"/>
+      <c r="G29" s="57"/>
+      <c r="H29" s="57"/>
+      <c r="I29" s="58"/>
       <c r="K29" t="s">
         <v>240</v>
       </c>
-      <c r="S29" s="64" t="s">
+      <c r="S29" s="65" t="s">
         <v>237</v>
       </c>
-      <c r="T29" s="56"/>
-      <c r="U29" s="56"/>
-      <c r="V29" s="56"/>
-      <c r="W29" s="56"/>
-      <c r="X29" s="56"/>
-      <c r="Y29" s="56"/>
-      <c r="Z29" s="56"/>
-      <c r="AA29" s="56"/>
-      <c r="AB29" s="56"/>
-      <c r="AC29" s="56"/>
-      <c r="AD29" s="56"/>
-      <c r="AE29" s="57"/>
-      <c r="AK29" s="55" t="s">
+      <c r="T29" s="57"/>
+      <c r="U29" s="57"/>
+      <c r="V29" s="57"/>
+      <c r="W29" s="57"/>
+      <c r="X29" s="57"/>
+      <c r="Y29" s="57"/>
+      <c r="Z29" s="57"/>
+      <c r="AA29" s="57"/>
+      <c r="AB29" s="57"/>
+      <c r="AC29" s="57"/>
+      <c r="AD29" s="57"/>
+      <c r="AE29" s="58"/>
+      <c r="AK29" s="56" t="s">
         <v>305</v>
       </c>
-      <c r="AL29" s="56"/>
-      <c r="AM29" s="56"/>
-      <c r="AN29" s="56"/>
-      <c r="AO29" s="56"/>
-      <c r="AP29" s="56"/>
-      <c r="AQ29" s="57"/>
+      <c r="AL29" s="57"/>
+      <c r="AM29" s="57"/>
+      <c r="AN29" s="57"/>
+      <c r="AO29" s="57"/>
+      <c r="AP29" s="57"/>
+      <c r="AQ29" s="58"/>
     </row>
     <row r="30" spans="4:43">
-      <c r="D30" s="58"/>
-      <c r="E30" s="59"/>
-      <c r="F30" s="59"/>
-      <c r="G30" s="59"/>
-      <c r="H30" s="59"/>
-      <c r="I30" s="60"/>
-      <c r="S30" s="58"/>
-      <c r="T30" s="59"/>
-      <c r="U30" s="59"/>
-      <c r="V30" s="59"/>
-      <c r="W30" s="59"/>
-      <c r="X30" s="59"/>
-      <c r="Y30" s="59"/>
-      <c r="Z30" s="59"/>
-      <c r="AA30" s="59"/>
-      <c r="AB30" s="59"/>
-      <c r="AC30" s="59"/>
-      <c r="AD30" s="59"/>
-      <c r="AE30" s="60"/>
+      <c r="D30" s="59"/>
+      <c r="E30" s="60"/>
+      <c r="F30" s="60"/>
+      <c r="G30" s="60"/>
+      <c r="H30" s="60"/>
+      <c r="I30" s="61"/>
+      <c r="S30" s="59"/>
+      <c r="T30" s="60"/>
+      <c r="U30" s="60"/>
+      <c r="V30" s="60"/>
+      <c r="W30" s="60"/>
+      <c r="X30" s="60"/>
+      <c r="Y30" s="60"/>
+      <c r="Z30" s="60"/>
+      <c r="AA30" s="60"/>
+      <c r="AB30" s="60"/>
+      <c r="AC30" s="60"/>
+      <c r="AD30" s="60"/>
+      <c r="AE30" s="61"/>
       <c r="AG30" t="s">
         <v>243</v>
       </c>
-      <c r="AK30" s="58"/>
-      <c r="AL30" s="59"/>
-      <c r="AM30" s="59"/>
-      <c r="AN30" s="59"/>
-      <c r="AO30" s="59"/>
-      <c r="AP30" s="59"/>
-      <c r="AQ30" s="60"/>
+      <c r="AK30" s="59"/>
+      <c r="AL30" s="60"/>
+      <c r="AM30" s="60"/>
+      <c r="AN30" s="60"/>
+      <c r="AO30" s="60"/>
+      <c r="AP30" s="60"/>
+      <c r="AQ30" s="61"/>
     </row>
     <row r="31" spans="4:43" ht="15" thickBot="1">
-      <c r="D31" s="58"/>
-      <c r="E31" s="59"/>
-      <c r="F31" s="59"/>
-      <c r="G31" s="59"/>
-      <c r="H31" s="59"/>
-      <c r="I31" s="60"/>
-      <c r="S31" s="61"/>
-      <c r="T31" s="62"/>
-      <c r="U31" s="62"/>
-      <c r="V31" s="62"/>
-      <c r="W31" s="62"/>
-      <c r="X31" s="62"/>
-      <c r="Y31" s="62"/>
-      <c r="Z31" s="62"/>
-      <c r="AA31" s="62"/>
-      <c r="AB31" s="62"/>
-      <c r="AC31" s="62"/>
-      <c r="AD31" s="62"/>
-      <c r="AE31" s="63"/>
-      <c r="AK31" s="61"/>
-      <c r="AL31" s="62"/>
-      <c r="AM31" s="62"/>
-      <c r="AN31" s="62"/>
-      <c r="AO31" s="62"/>
-      <c r="AP31" s="62"/>
-      <c r="AQ31" s="63"/>
+      <c r="D31" s="59"/>
+      <c r="E31" s="60"/>
+      <c r="F31" s="60"/>
+      <c r="G31" s="60"/>
+      <c r="H31" s="60"/>
+      <c r="I31" s="61"/>
+      <c r="S31" s="62"/>
+      <c r="T31" s="63"/>
+      <c r="U31" s="63"/>
+      <c r="V31" s="63"/>
+      <c r="W31" s="63"/>
+      <c r="X31" s="63"/>
+      <c r="Y31" s="63"/>
+      <c r="Z31" s="63"/>
+      <c r="AA31" s="63"/>
+      <c r="AB31" s="63"/>
+      <c r="AC31" s="63"/>
+      <c r="AD31" s="63"/>
+      <c r="AE31" s="64"/>
+      <c r="AK31" s="62"/>
+      <c r="AL31" s="63"/>
+      <c r="AM31" s="63"/>
+      <c r="AN31" s="63"/>
+      <c r="AO31" s="63"/>
+      <c r="AP31" s="63"/>
+      <c r="AQ31" s="64"/>
     </row>
     <row r="32" spans="4:43" ht="15" thickBot="1">
-      <c r="D32" s="58"/>
-      <c r="E32" s="59"/>
-      <c r="F32" s="59"/>
-      <c r="G32" s="59"/>
-      <c r="H32" s="59"/>
-      <c r="I32" s="60"/>
+      <c r="D32" s="59"/>
+      <c r="E32" s="60"/>
+      <c r="F32" s="60"/>
+      <c r="G32" s="60"/>
+      <c r="H32" s="60"/>
+      <c r="I32" s="61"/>
     </row>
     <row r="33" spans="4:43">
-      <c r="D33" s="58"/>
-      <c r="E33" s="59"/>
-      <c r="F33" s="59"/>
-      <c r="G33" s="59"/>
-      <c r="H33" s="59"/>
-      <c r="I33" s="60"/>
+      <c r="D33" s="59"/>
+      <c r="E33" s="60"/>
+      <c r="F33" s="60"/>
+      <c r="G33" s="60"/>
+      <c r="H33" s="60"/>
+      <c r="I33" s="61"/>
       <c r="K33" t="s">
         <v>134</v>
       </c>
-      <c r="S33" s="64" t="s">
+      <c r="S33" s="65" t="s">
         <v>238</v>
       </c>
-      <c r="T33" s="56"/>
-      <c r="U33" s="56"/>
-      <c r="V33" s="56"/>
-      <c r="W33" s="56"/>
-      <c r="X33" s="56"/>
-      <c r="Y33" s="56"/>
-      <c r="Z33" s="56"/>
-      <c r="AA33" s="56"/>
-      <c r="AB33" s="56"/>
-      <c r="AC33" s="56"/>
-      <c r="AD33" s="56"/>
-      <c r="AE33" s="57"/>
+      <c r="T33" s="57"/>
+      <c r="U33" s="57"/>
+      <c r="V33" s="57"/>
+      <c r="W33" s="57"/>
+      <c r="X33" s="57"/>
+      <c r="Y33" s="57"/>
+      <c r="Z33" s="57"/>
+      <c r="AA33" s="57"/>
+      <c r="AB33" s="57"/>
+      <c r="AC33" s="57"/>
+      <c r="AD33" s="57"/>
+      <c r="AE33" s="58"/>
       <c r="AG33" t="s">
         <v>243</v>
       </c>
-      <c r="AK33" s="55" t="s">
+      <c r="AK33" s="56" t="s">
         <v>306</v>
       </c>
-      <c r="AL33" s="56"/>
-      <c r="AM33" s="56"/>
-      <c r="AN33" s="56"/>
-      <c r="AO33" s="56"/>
-      <c r="AP33" s="56"/>
-      <c r="AQ33" s="57"/>
+      <c r="AL33" s="57"/>
+      <c r="AM33" s="57"/>
+      <c r="AN33" s="57"/>
+      <c r="AO33" s="57"/>
+      <c r="AP33" s="57"/>
+      <c r="AQ33" s="58"/>
     </row>
     <row r="34" spans="4:43">
-      <c r="D34" s="58"/>
-      <c r="E34" s="59"/>
-      <c r="F34" s="59"/>
-      <c r="G34" s="59"/>
-      <c r="H34" s="59"/>
-      <c r="I34" s="60"/>
-      <c r="S34" s="58"/>
-      <c r="T34" s="59"/>
-      <c r="U34" s="59"/>
-      <c r="V34" s="59"/>
-      <c r="W34" s="59"/>
-      <c r="X34" s="59"/>
-      <c r="Y34" s="59"/>
-      <c r="Z34" s="59"/>
-      <c r="AA34" s="59"/>
-      <c r="AB34" s="59"/>
-      <c r="AC34" s="59"/>
-      <c r="AD34" s="59"/>
-      <c r="AE34" s="60"/>
-      <c r="AK34" s="58"/>
-      <c r="AL34" s="59"/>
-      <c r="AM34" s="59"/>
-      <c r="AN34" s="59"/>
-      <c r="AO34" s="59"/>
-      <c r="AP34" s="59"/>
-      <c r="AQ34" s="60"/>
+      <c r="D34" s="59"/>
+      <c r="E34" s="60"/>
+      <c r="F34" s="60"/>
+      <c r="G34" s="60"/>
+      <c r="H34" s="60"/>
+      <c r="I34" s="61"/>
+      <c r="S34" s="59"/>
+      <c r="T34" s="60"/>
+      <c r="U34" s="60"/>
+      <c r="V34" s="60"/>
+      <c r="W34" s="60"/>
+      <c r="X34" s="60"/>
+      <c r="Y34" s="60"/>
+      <c r="Z34" s="60"/>
+      <c r="AA34" s="60"/>
+      <c r="AB34" s="60"/>
+      <c r="AC34" s="60"/>
+      <c r="AD34" s="60"/>
+      <c r="AE34" s="61"/>
+      <c r="AK34" s="59"/>
+      <c r="AL34" s="60"/>
+      <c r="AM34" s="60"/>
+      <c r="AN34" s="60"/>
+      <c r="AO34" s="60"/>
+      <c r="AP34" s="60"/>
+      <c r="AQ34" s="61"/>
     </row>
     <row r="35" spans="4:43" ht="15" thickBot="1">
-      <c r="D35" s="58"/>
-      <c r="E35" s="59"/>
-      <c r="F35" s="59"/>
-      <c r="G35" s="59"/>
-      <c r="H35" s="59"/>
-      <c r="I35" s="60"/>
-      <c r="S35" s="61"/>
-      <c r="T35" s="62"/>
-      <c r="U35" s="62"/>
-      <c r="V35" s="62"/>
-      <c r="W35" s="62"/>
-      <c r="X35" s="62"/>
-      <c r="Y35" s="62"/>
-      <c r="Z35" s="62"/>
-      <c r="AA35" s="62"/>
-      <c r="AB35" s="62"/>
-      <c r="AC35" s="62"/>
-      <c r="AD35" s="62"/>
-      <c r="AE35" s="63"/>
-      <c r="AK35" s="61"/>
-      <c r="AL35" s="62"/>
-      <c r="AM35" s="62"/>
-      <c r="AN35" s="62"/>
-      <c r="AO35" s="62"/>
-      <c r="AP35" s="62"/>
-      <c r="AQ35" s="63"/>
+      <c r="D35" s="59"/>
+      <c r="E35" s="60"/>
+      <c r="F35" s="60"/>
+      <c r="G35" s="60"/>
+      <c r="H35" s="60"/>
+      <c r="I35" s="61"/>
+      <c r="S35" s="62"/>
+      <c r="T35" s="63"/>
+      <c r="U35" s="63"/>
+      <c r="V35" s="63"/>
+      <c r="W35" s="63"/>
+      <c r="X35" s="63"/>
+      <c r="Y35" s="63"/>
+      <c r="Z35" s="63"/>
+      <c r="AA35" s="63"/>
+      <c r="AB35" s="63"/>
+      <c r="AC35" s="63"/>
+      <c r="AD35" s="63"/>
+      <c r="AE35" s="64"/>
+      <c r="AK35" s="62"/>
+      <c r="AL35" s="63"/>
+      <c r="AM35" s="63"/>
+      <c r="AN35" s="63"/>
+      <c r="AO35" s="63"/>
+      <c r="AP35" s="63"/>
+      <c r="AQ35" s="64"/>
     </row>
     <row r="36" spans="4:43" ht="15" thickBot="1">
-      <c r="D36" s="58"/>
-      <c r="E36" s="59"/>
-      <c r="F36" s="59"/>
-      <c r="G36" s="59"/>
-      <c r="H36" s="59"/>
-      <c r="I36" s="60"/>
+      <c r="D36" s="59"/>
+      <c r="E36" s="60"/>
+      <c r="F36" s="60"/>
+      <c r="G36" s="60"/>
+      <c r="H36" s="60"/>
+      <c r="I36" s="61"/>
     </row>
     <row r="37" spans="4:43">
-      <c r="D37" s="58"/>
-      <c r="E37" s="59"/>
-      <c r="F37" s="59"/>
-      <c r="G37" s="59"/>
-      <c r="H37" s="59"/>
-      <c r="I37" s="60"/>
+      <c r="D37" s="59"/>
+      <c r="E37" s="60"/>
+      <c r="F37" s="60"/>
+      <c r="G37" s="60"/>
+      <c r="H37" s="60"/>
+      <c r="I37" s="61"/>
       <c r="K37" t="s">
         <v>135</v>
       </c>
-      <c r="S37" s="64" t="s">
+      <c r="S37" s="65" t="s">
         <v>239</v>
       </c>
-      <c r="T37" s="56"/>
-      <c r="U37" s="56"/>
-      <c r="V37" s="56"/>
-      <c r="W37" s="56"/>
-      <c r="X37" s="56"/>
-      <c r="Y37" s="56"/>
-      <c r="Z37" s="56"/>
-      <c r="AA37" s="56"/>
-      <c r="AB37" s="56"/>
-      <c r="AC37" s="56"/>
-      <c r="AD37" s="56"/>
-      <c r="AE37" s="57"/>
+      <c r="T37" s="57"/>
+      <c r="U37" s="57"/>
+      <c r="V37" s="57"/>
+      <c r="W37" s="57"/>
+      <c r="X37" s="57"/>
+      <c r="Y37" s="57"/>
+      <c r="Z37" s="57"/>
+      <c r="AA37" s="57"/>
+      <c r="AB37" s="57"/>
+      <c r="AC37" s="57"/>
+      <c r="AD37" s="57"/>
+      <c r="AE37" s="58"/>
       <c r="AG37" t="s">
         <v>243</v>
       </c>
-      <c r="AK37" s="55" t="s">
+      <c r="AK37" s="56" t="s">
         <v>307</v>
       </c>
-      <c r="AL37" s="56"/>
-      <c r="AM37" s="56"/>
-      <c r="AN37" s="56"/>
-      <c r="AO37" s="56"/>
-      <c r="AP37" s="56"/>
-      <c r="AQ37" s="57"/>
+      <c r="AL37" s="57"/>
+      <c r="AM37" s="57"/>
+      <c r="AN37" s="57"/>
+      <c r="AO37" s="57"/>
+      <c r="AP37" s="57"/>
+      <c r="AQ37" s="58"/>
     </row>
     <row r="38" spans="4:43">
-      <c r="D38" s="58"/>
-      <c r="E38" s="59"/>
-      <c r="F38" s="59"/>
-      <c r="G38" s="59"/>
-      <c r="H38" s="59"/>
-      <c r="I38" s="60"/>
-      <c r="S38" s="58"/>
-      <c r="T38" s="59"/>
-      <c r="U38" s="59"/>
-      <c r="V38" s="59"/>
-      <c r="W38" s="59"/>
-      <c r="X38" s="59"/>
-      <c r="Y38" s="59"/>
-      <c r="Z38" s="59"/>
-      <c r="AA38" s="59"/>
-      <c r="AB38" s="59"/>
-      <c r="AC38" s="59"/>
-      <c r="AD38" s="59"/>
-      <c r="AE38" s="60"/>
-      <c r="AK38" s="58"/>
-      <c r="AL38" s="59"/>
-      <c r="AM38" s="59"/>
-      <c r="AN38" s="59"/>
-      <c r="AO38" s="59"/>
-      <c r="AP38" s="59"/>
-      <c r="AQ38" s="60"/>
+      <c r="D38" s="59"/>
+      <c r="E38" s="60"/>
+      <c r="F38" s="60"/>
+      <c r="G38" s="60"/>
+      <c r="H38" s="60"/>
+      <c r="I38" s="61"/>
+      <c r="S38" s="59"/>
+      <c r="T38" s="60"/>
+      <c r="U38" s="60"/>
+      <c r="V38" s="60"/>
+      <c r="W38" s="60"/>
+      <c r="X38" s="60"/>
+      <c r="Y38" s="60"/>
+      <c r="Z38" s="60"/>
+      <c r="AA38" s="60"/>
+      <c r="AB38" s="60"/>
+      <c r="AC38" s="60"/>
+      <c r="AD38" s="60"/>
+      <c r="AE38" s="61"/>
+      <c r="AK38" s="59"/>
+      <c r="AL38" s="60"/>
+      <c r="AM38" s="60"/>
+      <c r="AN38" s="60"/>
+      <c r="AO38" s="60"/>
+      <c r="AP38" s="60"/>
+      <c r="AQ38" s="61"/>
     </row>
     <row r="39" spans="4:43" ht="15" thickBot="1">
-      <c r="D39" s="58"/>
-      <c r="E39" s="59"/>
-      <c r="F39" s="59"/>
-      <c r="G39" s="59"/>
-      <c r="H39" s="59"/>
-      <c r="I39" s="60"/>
-      <c r="S39" s="61"/>
-      <c r="T39" s="62"/>
-      <c r="U39" s="62"/>
-      <c r="V39" s="62"/>
-      <c r="W39" s="62"/>
-      <c r="X39" s="62"/>
-      <c r="Y39" s="62"/>
-      <c r="Z39" s="62"/>
-      <c r="AA39" s="62"/>
-      <c r="AB39" s="62"/>
-      <c r="AC39" s="62"/>
-      <c r="AD39" s="62"/>
-      <c r="AE39" s="63"/>
-      <c r="AK39" s="61"/>
-      <c r="AL39" s="62"/>
-      <c r="AM39" s="62"/>
-      <c r="AN39" s="62"/>
-      <c r="AO39" s="62"/>
-      <c r="AP39" s="62"/>
-      <c r="AQ39" s="63"/>
+      <c r="D39" s="59"/>
+      <c r="E39" s="60"/>
+      <c r="F39" s="60"/>
+      <c r="G39" s="60"/>
+      <c r="H39" s="60"/>
+      <c r="I39" s="61"/>
+      <c r="S39" s="62"/>
+      <c r="T39" s="63"/>
+      <c r="U39" s="63"/>
+      <c r="V39" s="63"/>
+      <c r="W39" s="63"/>
+      <c r="X39" s="63"/>
+      <c r="Y39" s="63"/>
+      <c r="Z39" s="63"/>
+      <c r="AA39" s="63"/>
+      <c r="AB39" s="63"/>
+      <c r="AC39" s="63"/>
+      <c r="AD39" s="63"/>
+      <c r="AE39" s="64"/>
+      <c r="AK39" s="62"/>
+      <c r="AL39" s="63"/>
+      <c r="AM39" s="63"/>
+      <c r="AN39" s="63"/>
+      <c r="AO39" s="63"/>
+      <c r="AP39" s="63"/>
+      <c r="AQ39" s="64"/>
     </row>
     <row r="40" spans="4:43" ht="15" thickBot="1">
-      <c r="D40" s="61"/>
-      <c r="E40" s="62"/>
-      <c r="F40" s="62"/>
-      <c r="G40" s="62"/>
-      <c r="H40" s="62"/>
-      <c r="I40" s="63"/>
+      <c r="D40" s="62"/>
+      <c r="E40" s="63"/>
+      <c r="F40" s="63"/>
+      <c r="G40" s="63"/>
+      <c r="H40" s="63"/>
+      <c r="I40" s="64"/>
     </row>
     <row r="43" spans="4:43">
       <c r="D43" t="s">
@@ -31052,20 +37693,20 @@
     </row>
     <row r="34" spans="5:38">
       <c r="W34" s="25"/>
-      <c r="X34" s="64" t="s">
+      <c r="X34" s="65" t="s">
         <v>390</v>
       </c>
-      <c r="Y34" s="56"/>
-      <c r="Z34" s="56"/>
-      <c r="AA34" s="57"/>
+      <c r="Y34" s="57"/>
+      <c r="Z34" s="57"/>
+      <c r="AA34" s="58"/>
       <c r="AB34" s="26"/>
     </row>
     <row r="35" spans="5:38" ht="15" thickBot="1">
       <c r="W35" s="25"/>
-      <c r="X35" s="61"/>
-      <c r="Y35" s="62"/>
-      <c r="Z35" s="62"/>
-      <c r="AA35" s="63"/>
+      <c r="X35" s="62"/>
+      <c r="Y35" s="63"/>
+      <c r="Z35" s="63"/>
+      <c r="AA35" s="64"/>
       <c r="AB35" s="26"/>
     </row>
     <row r="36" spans="5:38">
@@ -31075,13 +37716,13 @@
       <c r="Z36" s="17"/>
       <c r="AA36" s="17"/>
       <c r="AB36" s="26"/>
-      <c r="AH36" s="64" t="s">
+      <c r="AH36" s="65" t="s">
         <v>394</v>
       </c>
-      <c r="AI36" s="56"/>
-      <c r="AJ36" s="56"/>
-      <c r="AK36" s="56"/>
-      <c r="AL36" s="57"/>
+      <c r="AI36" s="57"/>
+      <c r="AJ36" s="57"/>
+      <c r="AK36" s="57"/>
+      <c r="AL36" s="58"/>
     </row>
     <row r="37" spans="5:38" ht="15" thickBot="1">
       <c r="W37" s="25"/>
@@ -31090,133 +37731,133 @@
       <c r="Z37" s="17"/>
       <c r="AA37" s="17"/>
       <c r="AB37" s="26"/>
-      <c r="AH37" s="58"/>
-      <c r="AI37" s="59"/>
-      <c r="AJ37" s="59"/>
-      <c r="AK37" s="59"/>
-      <c r="AL37" s="60"/>
+      <c r="AH37" s="59"/>
+      <c r="AI37" s="60"/>
+      <c r="AJ37" s="60"/>
+      <c r="AK37" s="60"/>
+      <c r="AL37" s="61"/>
     </row>
     <row r="38" spans="5:38">
-      <c r="M38" s="64" t="s">
+      <c r="M38" s="65" t="s">
         <v>389</v>
       </c>
-      <c r="N38" s="56"/>
-      <c r="O38" s="56"/>
-      <c r="P38" s="56"/>
-      <c r="Q38" s="57"/>
+      <c r="N38" s="57"/>
+      <c r="O38" s="57"/>
+      <c r="P38" s="57"/>
+      <c r="Q38" s="58"/>
       <c r="W38" s="25"/>
-      <c r="X38" s="64" t="s">
+      <c r="X38" s="65" t="s">
         <v>391</v>
       </c>
-      <c r="Y38" s="56"/>
-      <c r="Z38" s="56"/>
-      <c r="AA38" s="57"/>
+      <c r="Y38" s="57"/>
+      <c r="Z38" s="57"/>
+      <c r="AA38" s="58"/>
       <c r="AB38" s="26"/>
-      <c r="AH38" s="58"/>
-      <c r="AI38" s="59"/>
-      <c r="AJ38" s="59"/>
-      <c r="AK38" s="59"/>
-      <c r="AL38" s="60"/>
+      <c r="AH38" s="59"/>
+      <c r="AI38" s="60"/>
+      <c r="AJ38" s="60"/>
+      <c r="AK38" s="60"/>
+      <c r="AL38" s="61"/>
     </row>
     <row r="39" spans="5:38" ht="15" thickBot="1">
-      <c r="M39" s="58"/>
-      <c r="N39" s="59"/>
-      <c r="O39" s="59"/>
-      <c r="P39" s="59"/>
-      <c r="Q39" s="60"/>
+      <c r="M39" s="59"/>
+      <c r="N39" s="60"/>
+      <c r="O39" s="60"/>
+      <c r="P39" s="60"/>
+      <c r="Q39" s="61"/>
       <c r="W39" s="25"/>
-      <c r="X39" s="61"/>
-      <c r="Y39" s="62"/>
-      <c r="Z39" s="62"/>
-      <c r="AA39" s="63"/>
+      <c r="X39" s="62"/>
+      <c r="Y39" s="63"/>
+      <c r="Z39" s="63"/>
+      <c r="AA39" s="64"/>
       <c r="AB39" s="26"/>
-      <c r="AH39" s="58"/>
-      <c r="AI39" s="59"/>
-      <c r="AJ39" s="59"/>
-      <c r="AK39" s="59"/>
-      <c r="AL39" s="60"/>
+      <c r="AH39" s="59"/>
+      <c r="AI39" s="60"/>
+      <c r="AJ39" s="60"/>
+      <c r="AK39" s="60"/>
+      <c r="AL39" s="61"/>
     </row>
     <row r="40" spans="5:38">
-      <c r="M40" s="58"/>
-      <c r="N40" s="59"/>
-      <c r="O40" s="59"/>
-      <c r="P40" s="59"/>
-      <c r="Q40" s="60"/>
+      <c r="M40" s="59"/>
+      <c r="N40" s="60"/>
+      <c r="O40" s="60"/>
+      <c r="P40" s="60"/>
+      <c r="Q40" s="61"/>
       <c r="W40" s="25"/>
       <c r="X40" s="17"/>
       <c r="Y40" s="17"/>
       <c r="Z40" s="17"/>
       <c r="AA40" s="17"/>
       <c r="AB40" s="26"/>
-      <c r="AH40" s="58"/>
-      <c r="AI40" s="59"/>
-      <c r="AJ40" s="59"/>
-      <c r="AK40" s="59"/>
-      <c r="AL40" s="60"/>
+      <c r="AH40" s="59"/>
+      <c r="AI40" s="60"/>
+      <c r="AJ40" s="60"/>
+      <c r="AK40" s="60"/>
+      <c r="AL40" s="61"/>
     </row>
     <row r="41" spans="5:38" ht="15" thickBot="1">
-      <c r="M41" s="58"/>
-      <c r="N41" s="59"/>
-      <c r="O41" s="59"/>
-      <c r="P41" s="59"/>
-      <c r="Q41" s="60"/>
+      <c r="M41" s="59"/>
+      <c r="N41" s="60"/>
+      <c r="O41" s="60"/>
+      <c r="P41" s="60"/>
+      <c r="Q41" s="61"/>
       <c r="W41" s="25"/>
       <c r="X41" s="17"/>
       <c r="Y41" s="17"/>
       <c r="Z41" s="17"/>
       <c r="AA41" s="17"/>
       <c r="AB41" s="26"/>
-      <c r="AH41" s="58"/>
-      <c r="AI41" s="59"/>
-      <c r="AJ41" s="59"/>
-      <c r="AK41" s="59"/>
-      <c r="AL41" s="60"/>
+      <c r="AH41" s="59"/>
+      <c r="AI41" s="60"/>
+      <c r="AJ41" s="60"/>
+      <c r="AK41" s="60"/>
+      <c r="AL41" s="61"/>
     </row>
     <row r="42" spans="5:38" ht="15" thickBot="1">
-      <c r="M42" s="58"/>
-      <c r="N42" s="59"/>
-      <c r="O42" s="59"/>
-      <c r="P42" s="59"/>
-      <c r="Q42" s="60"/>
+      <c r="M42" s="59"/>
+      <c r="N42" s="60"/>
+      <c r="O42" s="60"/>
+      <c r="P42" s="60"/>
+      <c r="Q42" s="61"/>
       <c r="W42" s="25"/>
-      <c r="X42" s="64" t="s">
+      <c r="X42" s="65" t="s">
         <v>392</v>
       </c>
-      <c r="Y42" s="56"/>
-      <c r="Z42" s="56"/>
-      <c r="AA42" s="57"/>
+      <c r="Y42" s="57"/>
+      <c r="Z42" s="57"/>
+      <c r="AA42" s="58"/>
       <c r="AB42" s="26"/>
-      <c r="AH42" s="61"/>
-      <c r="AI42" s="62"/>
-      <c r="AJ42" s="62"/>
-      <c r="AK42" s="62"/>
-      <c r="AL42" s="63"/>
+      <c r="AH42" s="62"/>
+      <c r="AI42" s="63"/>
+      <c r="AJ42" s="63"/>
+      <c r="AK42" s="63"/>
+      <c r="AL42" s="64"/>
     </row>
     <row r="43" spans="5:38" ht="15" thickBot="1">
-      <c r="M43" s="58"/>
-      <c r="N43" s="59"/>
-      <c r="O43" s="59"/>
-      <c r="P43" s="59"/>
-      <c r="Q43" s="60"/>
+      <c r="M43" s="59"/>
+      <c r="N43" s="60"/>
+      <c r="O43" s="60"/>
+      <c r="P43" s="60"/>
+      <c r="Q43" s="61"/>
       <c r="W43" s="25"/>
-      <c r="X43" s="61"/>
-      <c r="Y43" s="62"/>
-      <c r="Z43" s="62"/>
-      <c r="AA43" s="63"/>
+      <c r="X43" s="62"/>
+      <c r="Y43" s="63"/>
+      <c r="Z43" s="63"/>
+      <c r="AA43" s="64"/>
       <c r="AB43" s="26"/>
     </row>
     <row r="44" spans="5:38" ht="15" thickBot="1">
-      <c r="E44" s="55" t="s">
+      <c r="E44" s="56" t="s">
         <v>388</v>
       </c>
-      <c r="F44" s="56"/>
-      <c r="G44" s="56"/>
-      <c r="H44" s="57"/>
-      <c r="M44" s="61"/>
-      <c r="N44" s="62"/>
-      <c r="O44" s="62"/>
-      <c r="P44" s="62"/>
-      <c r="Q44" s="63"/>
+      <c r="F44" s="57"/>
+      <c r="G44" s="57"/>
+      <c r="H44" s="58"/>
+      <c r="M44" s="62"/>
+      <c r="N44" s="63"/>
+      <c r="O44" s="63"/>
+      <c r="P44" s="63"/>
+      <c r="Q44" s="64"/>
       <c r="W44" s="25"/>
       <c r="X44" s="17"/>
       <c r="Y44" s="17"/>
@@ -31225,10 +37866,10 @@
       <c r="AB44" s="26"/>
     </row>
     <row r="45" spans="5:38">
-      <c r="E45" s="58"/>
-      <c r="F45" s="59"/>
-      <c r="G45" s="59"/>
-      <c r="H45" s="60"/>
+      <c r="E45" s="59"/>
+      <c r="F45" s="60"/>
+      <c r="G45" s="60"/>
+      <c r="H45" s="61"/>
       <c r="W45" s="23"/>
       <c r="X45" s="23"/>
       <c r="Y45" s="23"/>
@@ -31237,10 +37878,10 @@
       <c r="AB45" s="23"/>
     </row>
     <row r="46" spans="5:38">
-      <c r="E46" s="58"/>
-      <c r="F46" s="59"/>
-      <c r="G46" s="59"/>
-      <c r="H46" s="60"/>
+      <c r="E46" s="59"/>
+      <c r="F46" s="60"/>
+      <c r="G46" s="60"/>
+      <c r="H46" s="61"/>
       <c r="W46" s="17"/>
       <c r="X46" s="17"/>
       <c r="Y46" s="17"/>
@@ -31249,22 +37890,22 @@
       <c r="AB46" s="17"/>
     </row>
     <row r="47" spans="5:38">
-      <c r="E47" s="58"/>
-      <c r="F47" s="59"/>
-      <c r="G47" s="59"/>
-      <c r="H47" s="60"/>
+      <c r="E47" s="59"/>
+      <c r="F47" s="60"/>
+      <c r="G47" s="60"/>
+      <c r="H47" s="61"/>
     </row>
     <row r="48" spans="5:38">
-      <c r="E48" s="58"/>
-      <c r="F48" s="59"/>
-      <c r="G48" s="59"/>
-      <c r="H48" s="60"/>
+      <c r="E48" s="59"/>
+      <c r="F48" s="60"/>
+      <c r="G48" s="60"/>
+      <c r="H48" s="61"/>
     </row>
     <row r="49" spans="4:38" ht="15" thickBot="1">
-      <c r="E49" s="58"/>
-      <c r="F49" s="59"/>
-      <c r="G49" s="59"/>
-      <c r="H49" s="60"/>
+      <c r="E49" s="59"/>
+      <c r="F49" s="60"/>
+      <c r="G49" s="60"/>
+      <c r="H49" s="61"/>
       <c r="W49" s="22"/>
       <c r="X49" s="23"/>
       <c r="Y49" s="23"/>
@@ -31273,141 +37914,141 @@
       <c r="AB49" s="24"/>
     </row>
     <row r="50" spans="4:38" ht="15" thickBot="1">
-      <c r="E50" s="58"/>
-      <c r="F50" s="59"/>
-      <c r="G50" s="59"/>
-      <c r="H50" s="60"/>
-      <c r="M50" s="64" t="s">
+      <c r="E50" s="59"/>
+      <c r="F50" s="60"/>
+      <c r="G50" s="60"/>
+      <c r="H50" s="61"/>
+      <c r="M50" s="65" t="s">
         <v>393</v>
       </c>
-      <c r="N50" s="56"/>
-      <c r="O50" s="56"/>
-      <c r="P50" s="56"/>
-      <c r="Q50" s="57"/>
+      <c r="N50" s="57"/>
+      <c r="O50" s="57"/>
+      <c r="P50" s="57"/>
+      <c r="Q50" s="58"/>
       <c r="W50" s="25"/>
-      <c r="X50" s="64" t="s">
+      <c r="X50" s="65" t="s">
         <v>390</v>
       </c>
-      <c r="Y50" s="56"/>
-      <c r="Z50" s="56"/>
-      <c r="AA50" s="57"/>
+      <c r="Y50" s="57"/>
+      <c r="Z50" s="57"/>
+      <c r="AA50" s="58"/>
       <c r="AB50" s="26"/>
     </row>
     <row r="51" spans="4:38" ht="15" thickBot="1">
-      <c r="E51" s="61"/>
-      <c r="F51" s="62"/>
-      <c r="G51" s="62"/>
-      <c r="H51" s="63"/>
-      <c r="M51" s="58"/>
-      <c r="N51" s="59"/>
-      <c r="O51" s="59"/>
-      <c r="P51" s="59"/>
-      <c r="Q51" s="60"/>
+      <c r="E51" s="62"/>
+      <c r="F51" s="63"/>
+      <c r="G51" s="63"/>
+      <c r="H51" s="64"/>
+      <c r="M51" s="59"/>
+      <c r="N51" s="60"/>
+      <c r="O51" s="60"/>
+      <c r="P51" s="60"/>
+      <c r="Q51" s="61"/>
       <c r="W51" s="25"/>
-      <c r="X51" s="61"/>
-      <c r="Y51" s="62"/>
-      <c r="Z51" s="62"/>
-      <c r="AA51" s="63"/>
+      <c r="X51" s="62"/>
+      <c r="Y51" s="63"/>
+      <c r="Z51" s="63"/>
+      <c r="AA51" s="64"/>
       <c r="AB51" s="26"/>
-      <c r="AH51" s="64" t="s">
+      <c r="AH51" s="65" t="s">
         <v>395</v>
       </c>
-      <c r="AI51" s="56"/>
-      <c r="AJ51" s="56"/>
-      <c r="AK51" s="56"/>
-      <c r="AL51" s="57"/>
+      <c r="AI51" s="57"/>
+      <c r="AJ51" s="57"/>
+      <c r="AK51" s="57"/>
+      <c r="AL51" s="58"/>
     </row>
     <row r="52" spans="4:38">
-      <c r="M52" s="58"/>
-      <c r="N52" s="59"/>
-      <c r="O52" s="59"/>
-      <c r="P52" s="59"/>
-      <c r="Q52" s="60"/>
+      <c r="M52" s="59"/>
+      <c r="N52" s="60"/>
+      <c r="O52" s="60"/>
+      <c r="P52" s="60"/>
+      <c r="Q52" s="61"/>
       <c r="W52" s="25"/>
       <c r="X52" s="17"/>
       <c r="Y52" s="17"/>
       <c r="Z52" s="17"/>
       <c r="AA52" s="17"/>
       <c r="AB52" s="26"/>
-      <c r="AH52" s="58"/>
-      <c r="AI52" s="59"/>
-      <c r="AJ52" s="59"/>
-      <c r="AK52" s="59"/>
-      <c r="AL52" s="60"/>
+      <c r="AH52" s="59"/>
+      <c r="AI52" s="60"/>
+      <c r="AJ52" s="60"/>
+      <c r="AK52" s="60"/>
+      <c r="AL52" s="61"/>
     </row>
     <row r="53" spans="4:38" ht="15" thickBot="1">
-      <c r="M53" s="58"/>
-      <c r="N53" s="59"/>
-      <c r="O53" s="59"/>
-      <c r="P53" s="59"/>
-      <c r="Q53" s="60"/>
+      <c r="M53" s="59"/>
+      <c r="N53" s="60"/>
+      <c r="O53" s="60"/>
+      <c r="P53" s="60"/>
+      <c r="Q53" s="61"/>
       <c r="W53" s="25"/>
       <c r="X53" s="17"/>
       <c r="Y53" s="17"/>
       <c r="Z53" s="17"/>
       <c r="AA53" s="17"/>
       <c r="AB53" s="26"/>
-      <c r="AH53" s="58"/>
-      <c r="AI53" s="59"/>
-      <c r="AJ53" s="59"/>
-      <c r="AK53" s="59"/>
-      <c r="AL53" s="60"/>
+      <c r="AH53" s="59"/>
+      <c r="AI53" s="60"/>
+      <c r="AJ53" s="60"/>
+      <c r="AK53" s="60"/>
+      <c r="AL53" s="61"/>
     </row>
     <row r="54" spans="4:38">
-      <c r="M54" s="58"/>
-      <c r="N54" s="59"/>
-      <c r="O54" s="59"/>
-      <c r="P54" s="59"/>
-      <c r="Q54" s="60"/>
+      <c r="M54" s="59"/>
+      <c r="N54" s="60"/>
+      <c r="O54" s="60"/>
+      <c r="P54" s="60"/>
+      <c r="Q54" s="61"/>
       <c r="W54" s="25"/>
-      <c r="X54" s="64" t="s">
+      <c r="X54" s="65" t="s">
         <v>391</v>
       </c>
-      <c r="Y54" s="56"/>
-      <c r="Z54" s="56"/>
-      <c r="AA54" s="57"/>
+      <c r="Y54" s="57"/>
+      <c r="Z54" s="57"/>
+      <c r="AA54" s="58"/>
       <c r="AB54" s="26"/>
-      <c r="AH54" s="58"/>
-      <c r="AI54" s="59"/>
-      <c r="AJ54" s="59"/>
-      <c r="AK54" s="59"/>
-      <c r="AL54" s="60"/>
+      <c r="AH54" s="59"/>
+      <c r="AI54" s="60"/>
+      <c r="AJ54" s="60"/>
+      <c r="AK54" s="60"/>
+      <c r="AL54" s="61"/>
     </row>
     <row r="55" spans="4:38" ht="15" thickBot="1">
-      <c r="M55" s="58"/>
-      <c r="N55" s="59"/>
-      <c r="O55" s="59"/>
-      <c r="P55" s="59"/>
-      <c r="Q55" s="60"/>
+      <c r="M55" s="59"/>
+      <c r="N55" s="60"/>
+      <c r="O55" s="60"/>
+      <c r="P55" s="60"/>
+      <c r="Q55" s="61"/>
       <c r="W55" s="25"/>
-      <c r="X55" s="61"/>
-      <c r="Y55" s="62"/>
-      <c r="Z55" s="62"/>
-      <c r="AA55" s="63"/>
+      <c r="X55" s="62"/>
+      <c r="Y55" s="63"/>
+      <c r="Z55" s="63"/>
+      <c r="AA55" s="64"/>
       <c r="AB55" s="26"/>
-      <c r="AH55" s="58"/>
-      <c r="AI55" s="59"/>
-      <c r="AJ55" s="59"/>
-      <c r="AK55" s="59"/>
-      <c r="AL55" s="60"/>
+      <c r="AH55" s="59"/>
+      <c r="AI55" s="60"/>
+      <c r="AJ55" s="60"/>
+      <c r="AK55" s="60"/>
+      <c r="AL55" s="61"/>
     </row>
     <row r="56" spans="4:38" ht="15" thickBot="1">
-      <c r="M56" s="61"/>
-      <c r="N56" s="62"/>
-      <c r="O56" s="62"/>
-      <c r="P56" s="62"/>
-      <c r="Q56" s="63"/>
+      <c r="M56" s="62"/>
+      <c r="N56" s="63"/>
+      <c r="O56" s="63"/>
+      <c r="P56" s="63"/>
+      <c r="Q56" s="64"/>
       <c r="W56" s="25"/>
       <c r="X56" s="17"/>
       <c r="Y56" s="17"/>
       <c r="Z56" s="17"/>
       <c r="AA56" s="17"/>
       <c r="AB56" s="26"/>
-      <c r="AH56" s="58"/>
-      <c r="AI56" s="59"/>
-      <c r="AJ56" s="59"/>
-      <c r="AK56" s="59"/>
-      <c r="AL56" s="60"/>
+      <c r="AH56" s="59"/>
+      <c r="AI56" s="60"/>
+      <c r="AJ56" s="60"/>
+      <c r="AK56" s="60"/>
+      <c r="AL56" s="61"/>
     </row>
     <row r="57" spans="4:38" ht="15" thickBot="1">
       <c r="W57" s="25"/>
@@ -31416,28 +38057,28 @@
       <c r="Z57" s="17"/>
       <c r="AA57" s="17"/>
       <c r="AB57" s="26"/>
-      <c r="AH57" s="61"/>
-      <c r="AI57" s="62"/>
-      <c r="AJ57" s="62"/>
-      <c r="AK57" s="62"/>
-      <c r="AL57" s="63"/>
+      <c r="AH57" s="62"/>
+      <c r="AI57" s="63"/>
+      <c r="AJ57" s="63"/>
+      <c r="AK57" s="63"/>
+      <c r="AL57" s="64"/>
     </row>
     <row r="58" spans="4:38">
       <c r="W58" s="25"/>
-      <c r="X58" s="64" t="s">
+      <c r="X58" s="65" t="s">
         <v>392</v>
       </c>
-      <c r="Y58" s="56"/>
-      <c r="Z58" s="56"/>
-      <c r="AA58" s="57"/>
+      <c r="Y58" s="57"/>
+      <c r="Z58" s="57"/>
+      <c r="AA58" s="58"/>
       <c r="AB58" s="26"/>
     </row>
     <row r="59" spans="4:38" ht="15" thickBot="1">
       <c r="W59" s="25"/>
-      <c r="X59" s="61"/>
-      <c r="Y59" s="62"/>
-      <c r="Z59" s="62"/>
-      <c r="AA59" s="63"/>
+      <c r="X59" s="62"/>
+      <c r="Y59" s="63"/>
+      <c r="Z59" s="63"/>
+      <c r="AA59" s="64"/>
       <c r="AB59" s="26"/>
     </row>
     <row r="60" spans="4:38">
@@ -35029,17 +41670,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="X34:AA35"/>
+    <mergeCell ref="X38:AA39"/>
+    <mergeCell ref="X42:AA43"/>
+    <mergeCell ref="X50:AA51"/>
+    <mergeCell ref="X54:AA55"/>
     <mergeCell ref="X58:AA59"/>
     <mergeCell ref="AH36:AL42"/>
     <mergeCell ref="AH51:AL57"/>
     <mergeCell ref="E44:H51"/>
     <mergeCell ref="M38:Q44"/>
     <mergeCell ref="M50:Q56"/>
-    <mergeCell ref="X34:AA35"/>
-    <mergeCell ref="X38:AA39"/>
-    <mergeCell ref="X42:AA43"/>
-    <mergeCell ref="X50:AA51"/>
-    <mergeCell ref="X54:AA55"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -35409,11 +42050,11 @@
     </row>
     <row r="56" spans="4:20" ht="15" thickBot="1">
       <c r="E56" s="16"/>
-      <c r="F56" s="65" t="s">
+      <c r="F56" s="66" t="s">
         <v>508</v>
       </c>
-      <c r="G56" s="66"/>
-      <c r="H56" s="67"/>
+      <c r="G56" s="67"/>
+      <c r="H56" s="68"/>
       <c r="I56" s="18"/>
     </row>
     <row r="57" spans="4:20">
@@ -35432,17 +42073,17 @@
     </row>
     <row r="59" spans="4:20" ht="15" thickBot="1">
       <c r="E59" s="16"/>
-      <c r="F59" s="65" t="s">
+      <c r="F59" s="66" t="s">
         <v>509</v>
       </c>
-      <c r="G59" s="66"/>
-      <c r="H59" s="67"/>
+      <c r="G59" s="67"/>
+      <c r="H59" s="68"/>
       <c r="I59" s="18"/>
-      <c r="L59" s="65" t="s">
+      <c r="L59" s="66" t="s">
         <v>511</v>
       </c>
-      <c r="M59" s="66"/>
-      <c r="N59" s="67"/>
+      <c r="M59" s="67"/>
+      <c r="N59" s="68"/>
     </row>
     <row r="60" spans="4:20" ht="15" thickBot="1">
       <c r="E60" s="19"/>
@@ -35473,18 +42114,18 @@
     </row>
     <row r="64" spans="4:20" ht="15" thickBot="1">
       <c r="E64" s="16"/>
-      <c r="F64" s="65" t="s">
+      <c r="F64" s="66" t="s">
         <v>508</v>
       </c>
-      <c r="G64" s="66"/>
-      <c r="H64" s="67"/>
+      <c r="G64" s="67"/>
+      <c r="H64" s="68"/>
       <c r="I64" s="18"/>
       <c r="P64" s="16"/>
-      <c r="Q64" s="65" t="s">
+      <c r="Q64" s="66" t="s">
         <v>509</v>
       </c>
-      <c r="R64" s="66"/>
-      <c r="S64" s="67"/>
+      <c r="R64" s="67"/>
+      <c r="S64" s="68"/>
       <c r="T64" s="18"/>
     </row>
     <row r="65" spans="1:52">
@@ -35513,23 +42154,23 @@
     </row>
     <row r="67" spans="1:52" ht="15" thickBot="1">
       <c r="E67" s="16"/>
-      <c r="F67" s="65" t="s">
+      <c r="F67" s="66" t="s">
         <v>509</v>
       </c>
-      <c r="G67" s="66"/>
-      <c r="H67" s="67"/>
+      <c r="G67" s="67"/>
+      <c r="H67" s="68"/>
       <c r="I67" s="18"/>
-      <c r="L67" s="65" t="s">
+      <c r="L67" s="66" t="s">
         <v>511</v>
       </c>
-      <c r="M67" s="66"/>
-      <c r="N67" s="67"/>
+      <c r="M67" s="67"/>
+      <c r="N67" s="68"/>
       <c r="P67" s="16"/>
-      <c r="Q67" s="65" t="s">
+      <c r="Q67" s="66" t="s">
         <v>508</v>
       </c>
-      <c r="R67" s="66"/>
-      <c r="S67" s="67"/>
+      <c r="R67" s="67"/>
+      <c r="S67" s="68"/>
       <c r="T67" s="18"/>
     </row>
     <row r="68" spans="1:52" ht="15" thickBot="1">

--- a/Cplusplus/设计模式.xlsx
+++ b/Cplusplus/设计模式.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="96" windowWidth="19200" windowHeight="11640" tabRatio="739" firstSheet="3" activeTab="14"/>
+    <workbookView xWindow="0" yWindow="96" windowWidth="19200" windowHeight="11640" tabRatio="739" firstSheet="5" activeTab="16"/>
   </bookViews>
   <sheets>
     <sheet name="设计模式概览" sheetId="1" r:id="rId1"/>
@@ -22,14 +22,16 @@
     <sheet name="外观模式" sheetId="16" r:id="rId13"/>
     <sheet name="享元模式" sheetId="17" r:id="rId14"/>
     <sheet name="代理模式" sheetId="18" r:id="rId15"/>
-    <sheet name="参照" sheetId="4" r:id="rId16"/>
+    <sheet name="职责链模式" sheetId="19" r:id="rId16"/>
+    <sheet name="命令模式" sheetId="20" r:id="rId17"/>
+    <sheet name="参照" sheetId="4" r:id="rId18"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2401" uniqueCount="1266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2640" uniqueCount="1403">
   <si>
     <t>★</t>
   </si>
@@ -3585,10 +3587,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>https://zhuanlan.zhihu.com/p/94877789</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>如果一个系统在运行时创建太多相同或者相似的对象，会占用大量内存和资源，降低系统性能。</t>
   </si>
   <si>
@@ -4274,6 +4272,445 @@
   </si>
   <si>
     <t>当需要为一个对象的访问提供一些额外的操作——智能引用代理。</t>
+  </si>
+  <si>
+    <t>https://zhuanlan.zhihu.com/p/94877789</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>职责链模式简介</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>职责链模式又叫责任链模式。</t>
+  </si>
+  <si>
+    <t>很多情况下，可以处理某个请求的对象可能不止一个，请求可以沿着某一条对象之间形成的关系一级一级由下家传递到上家，形成一条链——职责链。</t>
+  </si>
+  <si>
+    <t>职责链可以是直线，也可以是环或树形结构。常见的职责链形式是直线。</t>
+  </si>
+  <si>
+    <t>链上的每一个对象都是请求的处理者，客户端要做的仅仅是发送请求，不需要关心请求的处理细节过程。</t>
+  </si>
+  <si>
+    <t>由此，职责链模式将请求者和请求的接收者解耦。</t>
+  </si>
+  <si>
+    <t>职责链模式:</t>
+  </si>
+  <si>
+    <t>避免将一个请求的发送者和接收者耦合在一起，让多个对象都有机会处理请求。</t>
+  </si>
+  <si>
+    <t>将接收请求的对象连接成一条链，并且沿着这条链传递请求，直到有一个对象能够处理它为止。</t>
+  </si>
+  <si>
+    <t>职责链模式结构</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Handler（抽象处理者）：抽象处理者一般为抽象类，声明了一个处理请求的接口handleRequest()，定义了一个抽象处理者类型的对象，作为其对下家的引用，通过该引用可以形成一条责任链。</t>
+  </si>
+  <si>
+    <t>ConcreteHandler（具体处理者）： 是抽象处理者的子类，实现了处理请求的接口。在具体的实现中，如果该具体处理者能够处理该请求，就处理它，否则将该请求转发给后继者。具体处理者可以访问下一个对象。</t>
+  </si>
+  <si>
+    <t>由上述可知，在职责链模式中很多对象由每一个对象对其下家的引用连接起来形成一条链条，请求在这个链条上逐级传递，知道某一级能够处理这个请求为止。</t>
+  </si>
+  <si>
+    <t>客户端不知道也不必知道是哪一级处理者处理了该请求，因为每个处理者都有相同的接口handleRequest()。接下来通过一个实例来进一步认识职责链模式。</t>
+  </si>
+  <si>
+    <t>职责链模式代码实例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>场景:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对于不同金额的票据，公司不同级别的领导处理情况如下：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金额0~10万：组长可处理</t>
+  </si>
+  <si>
+    <t>金额10~30万：主管处理</t>
+  </si>
+  <si>
+    <t>金额30~60万：经理处理</t>
+  </si>
+  <si>
+    <t>金额超过60万：老板处理</t>
+  </si>
+  <si>
+    <t>票据类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>// 请求：票据</t>
+  </si>
+  <si>
+    <t>class Bill</t>
+  </si>
+  <si>
+    <t>Bill(){}</t>
+  </si>
+  <si>
+    <t>Bill(int iId, string iName, double iAccount){</t>
+  </si>
+  <si>
+    <t>id = iId;</t>
+  </si>
+  <si>
+    <t>name = iName;</t>
+  </si>
+  <si>
+    <t>account = iAccount;</t>
+  </si>
+  <si>
+    <t>double getAccount(){</t>
+  </si>
+  <si>
+    <t>return this-&gt;account;</t>
+  </si>
+  <si>
+    <t>printf("\nID:\t%d\n", id);</t>
+  </si>
+  <si>
+    <t>printf("Name:\t%s\n", name.c_str());</t>
+  </si>
+  <si>
+    <t>printf("Account:\t%f\n", account);</t>
+  </si>
+  <si>
+    <t>int id;</t>
+  </si>
+  <si>
+    <t>double account;</t>
+  </si>
+  <si>
+    <t>抽象处理者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>// 抽象处理者</t>
+  </si>
+  <si>
+    <t>class Approver</t>
+  </si>
+  <si>
+    <t>Approver(){}</t>
+  </si>
+  <si>
+    <t>Approver(string iName){</t>
+  </si>
+  <si>
+    <t>setName(iName);</t>
+  </si>
+  <si>
+    <t>// 添加上级</t>
+  </si>
+  <si>
+    <t>void setSuperior(Approver *iSuperior){</t>
+  </si>
+  <si>
+    <t>this-&gt;superior = iSuperior;</t>
+  </si>
+  <si>
+    <t>// 处理请求</t>
+  </si>
+  <si>
+    <t>virtual void handleRequest(Bill*) = 0;</t>
+  </si>
+  <si>
+    <t>void setName(string iName){</t>
+  </si>
+  <si>
+    <t>protected:</t>
+  </si>
+  <si>
+    <t>Approver *superior;</t>
+  </si>
+  <si>
+    <t>具体处理者</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>具体处理者：组长</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>// 具体处理者：组长</t>
+  </si>
+  <si>
+    <t>class GroupLeader :public Approver</t>
+  </si>
+  <si>
+    <t>GroupLeader(){}</t>
+  </si>
+  <si>
+    <t>GroupLeader(string iName){</t>
+  </si>
+  <si>
+    <t>void handleRequest(Bill *bill){</t>
+  </si>
+  <si>
+    <t>if (bill-&gt;getAccount() &lt; 10){</t>
+  </si>
+  <si>
+    <t>printf("组长 %s 处理了该票据，票据信息：",this-&gt;getName().c_str());</t>
+  </si>
+  <si>
+    <t>bill-&gt;print();</t>
+  </si>
+  <si>
+    <t>printf("组长无权处理，转交上级……\n");</t>
+  </si>
+  <si>
+    <t>this-&gt;superior-&gt;handleRequest(bill);</t>
+  </si>
+  <si>
+    <t>具体处理者：主管</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>// 具体处理者：主管</t>
+  </si>
+  <si>
+    <t>Head(){}</t>
+  </si>
+  <si>
+    <t>class Head :public Approver</t>
+  </si>
+  <si>
+    <t>Head(string iName){</t>
+  </si>
+  <si>
+    <t>if (bill-&gt;getAccount() &gt;= 10 &amp;&amp; bill-&gt;getAccount()&lt;30){</t>
+  </si>
+  <si>
+    <t>printf("主管 %s 处理了该票据，票据信息：", this-&gt;getName().c_str());</t>
+  </si>
+  <si>
+    <t>printf("主管无权处理，转交上级……\n");</t>
+  </si>
+  <si>
+    <t>具体处理者：经理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>// 具体处理者：经理</t>
+  </si>
+  <si>
+    <t>class Manager :public Approver</t>
+  </si>
+  <si>
+    <t>Manager(){}</t>
+  </si>
+  <si>
+    <t>Manager(string iName){</t>
+  </si>
+  <si>
+    <t>if (bill-&gt;getAccount() &gt;= 30 &amp;&amp; bill-&gt;getAccount()&lt;60){</t>
+  </si>
+  <si>
+    <t>printf("经理 %s 处理了该票据，票据信息：", this-&gt;getName().c_str());</t>
+  </si>
+  <si>
+    <t>printf("经理无权处理，转交上级……\n");</t>
+  </si>
+  <si>
+    <t>具体处理者：老板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>// 具体处理者：老板</t>
+  </si>
+  <si>
+    <t>class Boss :public Approver</t>
+  </si>
+  <si>
+    <t>Boss(){}</t>
+  </si>
+  <si>
+    <t>Boss(string iName){</t>
+  </si>
+  <si>
+    <t>printf("老板 %s 处理了该票据，票据信息：", this-&gt;getName().c_str());</t>
+  </si>
+  <si>
+    <t>客户端代码示例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户端创建了四个角色，分别是组长、主管、经理和老板，并设置了上下级关系。然后创建了4张票据，金额不等，都先统一交给组长处理。</t>
+  </si>
+  <si>
+    <t>#include "ChainOfResponsibility.h"</t>
+  </si>
+  <si>
+    <t>// 请求处理者：组长，兵哥，春总，老板</t>
+  </si>
+  <si>
+    <t>Approver *zuzhang, *bingge, *chunzong, *laoban;</t>
+  </si>
+  <si>
+    <t>zuzhang = new GroupLeader("孙大哥");</t>
+  </si>
+  <si>
+    <t>bingge = new Head("兵哥");</t>
+  </si>
+  <si>
+    <t>chunzong = new Manager("春总");</t>
+  </si>
+  <si>
+    <t>laoban = new Boss("张老板");</t>
+  </si>
+  <si>
+    <t>zuzhang-&gt;setSuperior(bingge);</t>
+  </si>
+  <si>
+    <t>bingge-&gt;setSuperior(chunzong);</t>
+  </si>
+  <si>
+    <t>chunzong-&gt;setSuperior(laoban);</t>
+  </si>
+  <si>
+    <t>// 创建报销单</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bill *bill1 = new Bill(1, "Jungle", 8); </t>
+  </si>
+  <si>
+    <t>Bill *bill2 = new Bill(2, "Lucy", 14.4);</t>
+  </si>
+  <si>
+    <t>Bill *bill3 = new Bill(3, "Jack", 32.9);</t>
+  </si>
+  <si>
+    <t>Bill *bill4 = new Bill(4, "Tom", 89);</t>
+  </si>
+  <si>
+    <t>// 全部先交给组长审批</t>
+  </si>
+  <si>
+    <t>zuzhang-&gt;handleRequest(bill1); printf("\n");</t>
+  </si>
+  <si>
+    <t>zuzhang-&gt;handleRequest(bill2); printf("\n");</t>
+  </si>
+  <si>
+    <t>zuzhang-&gt;handleRequest(bill3); printf("\n");</t>
+  </si>
+  <si>
+    <t>zuzhang-&gt;handleRequest(bill4);</t>
+  </si>
+  <si>
+    <t>职责链模式总结</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>将请求的接收者和处理者解耦，客户端无需知道具体处理者，只针对抽象处理者编程，简化了客户端编程过程，降低系统耦合度；</t>
+  </si>
+  <si>
+    <t>在系统中增加一个新的处理者时，只需要继承抽象处理者，重新实现handleRequest()接口，无需改动原有代码，符合开闭原则；</t>
+  </si>
+  <si>
+    <t>给对象分配职责时，职责链模式赋予系统更多灵活性。</t>
+  </si>
+  <si>
+    <t>请求没有一个明确的接收者，有可能遇到请求无法响应的问题；</t>
+  </si>
+  <si>
+    <t>比较长的职责链，其处理过程会很长。</t>
+  </si>
+  <si>
+    <t>建立职责链的工作是在客户端进行，如果建立不当，可能导致循环调用或者调用失败。</t>
+  </si>
+  <si>
+    <t>有多个对象处理同一个请求，具体由谁来处理是在运行时决定，客户端只需发出请求到职责链上，而无需关心具体是谁来处理；</t>
+  </si>
+  <si>
+    <t>可动态指定一组对象处理请求，客户端可以动态创建职责链来处理请求，还可以改变职责链中各个处理者之间的上下级关系。</t>
+  </si>
+  <si>
+    <t>适用环境:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>命令模式简介</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>命令模式可以将请求（命令）的发送者与接收者完全解耦，发送者与接收者之间没有直接引用关系</t>
+  </si>
+  <si>
+    <t>发送请求的对象只需要知道如何发送请求，而不必知道请求是如何完成的。下面是比较晦涩难懂的命令模式的定义</t>
+  </si>
+  <si>
+    <t>命令模式:</t>
+  </si>
+  <si>
+    <t>将一个请求封装为一个对象，从而可用不同的请求对客户进行参数化，对请求排队或者记录请求日志，以及支持可撤销的操作。</t>
+  </si>
+  <si>
+    <t>命令模式的定义比较复杂，也提到一些术语。这些将在下面的阐述和举例中做进一步说明。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>命令模式结构</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Command(抽象命令类):是一个抽象类，声明了用于执行命令的接口execute()。</t>
+  </si>
+  <si>
+    <t>Receiver(接收者):实现处理请求的具体操作(action)</t>
+  </si>
+  <si>
+    <t>ConcreteCommand(具体命令类):具体的命令类，实现了执行命令的接口execute()，它对应具体的接收者对象，将接收者（Receiver）的动作action()绑定其中。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在execu()方法中将调用接收者的动作action()。（这就是定义中的“将请求封装成一个对象”的体现）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Invoker(调用者):请求的发送者，通过命令对象来执行请求。一个调用者不需要在设计时确定其接收者，所以调用者通过聚合，与命令类产生关联。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 具体实现中，可以将一个具体命令对象注入到调用者中，再通过调用具体命令对象的execute()方法，实现简介请求命令执行者（接收者）的操作。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>命令模式代码实例</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>场景:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>房间中的开关（Button）就是命令模式的一个实现，本例使用命令模式来模拟开关功能，可控制的对象包括电灯（Lamp）和风扇（Fan）。</t>
+  </si>
+  <si>
+    <t>用户每次触摸（touch）开关，都可以打开或者关闭电灯或者电扇</t>
+  </si>
+  <si>
+    <t>抽象命令类仅声明execute()接口。</t>
+  </si>
+  <si>
+    <t>有两个具体命令类，分别是控制灯的LampCommand和控制风扇的FanCommand类</t>
+  </si>
+  <si>
+    <t>两个具体类中实现了execute()接口，即执行开关灯/风扇请求。</t>
+  </si>
+  <si>
+    <t>本例中的调用者是按钮Button，每次用户触摸touch()开关按钮，即是在发送请求。</t>
   </si>
 </sst>
 </file>
@@ -5757,6 +6194,192 @@
         <a:xfrm>
           <a:off x="571500" y="9692640"/>
           <a:ext cx="5463540" cy="3040380"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing14.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>167640</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>176133</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="571500" y="4389120"/>
+          <a:ext cx="4549140" cy="1822053"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>32824</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="571500" y="8595360"/>
+          <a:ext cx="5366824" cy="1920240"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing15.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>38</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="571500" y="4754880"/>
+          <a:ext cx="6819900" cy="2202180"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>51</xdr:col>
+      <xdr:colOff>99060</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="571500" y="8412480"/>
+          <a:ext cx="9243060" cy="2026920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -23505,12 +24128,12 @@
     </row>
     <row r="5" spans="1:52">
       <c r="D5" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="6" spans="1:52">
       <c r="D6" s="2" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="7" spans="1:52">
@@ -23540,7 +24163,7 @@
     <row r="8" spans="1:52">
       <c r="D8" s="10"/>
       <c r="E8" s="7" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="F8" s="10"/>
       <c r="G8" s="10"/>
@@ -23589,42 +24212,42 @@
     </row>
     <row r="11" spans="1:52">
       <c r="D11" s="5" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="12" spans="1:52">
       <c r="D12" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
     </row>
     <row r="13" spans="1:52">
       <c r="D13" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
     </row>
     <row r="24" spans="1:52">
       <c r="D24" s="2" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="25" spans="1:52">
       <c r="D25" s="5" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="26" spans="1:52">
       <c r="D26" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
     </row>
     <row r="27" spans="1:52">
       <c r="D27" s="5" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="28" spans="1:52">
       <c r="D28" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="32" spans="1:52">
@@ -23634,7 +24257,7 @@
         <v>0</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="E32" s="4"/>
       <c r="F32" s="4"/>
@@ -23687,12 +24310,12 @@
     </row>
     <row r="34" spans="1:52">
       <c r="D34" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
     </row>
     <row r="35" spans="1:52">
       <c r="D35" s="2" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
     </row>
     <row r="36" spans="1:52">
@@ -23700,13 +24323,13 @@
     </row>
     <row r="37" spans="1:52">
       <c r="D37" s="2" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
     </row>
     <row r="38" spans="1:52">
       <c r="D38" s="2"/>
       <c r="P38" s="2" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
     </row>
     <row r="39" spans="1:52">
@@ -23715,7 +24338,7 @@
     </row>
     <row r="40" spans="1:52">
       <c r="D40" s="2" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="41" spans="1:52">
@@ -23723,12 +24346,12 @@
     </row>
     <row r="42" spans="1:52">
       <c r="D42" s="2" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="43" spans="1:52">
       <c r="P43" s="2" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
     </row>
     <row r="48" spans="1:52">
@@ -23738,7 +24361,7 @@
         <v>0</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="E48" s="4"/>
       <c r="F48" s="4"/>
@@ -23794,17 +24417,17 @@
         <v>904</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="51" spans="4:26">
       <c r="D51" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="52" spans="4:26">
       <c r="D52" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
     </row>
     <row r="54" spans="4:26">
@@ -23812,7 +24435,7 @@
         <v>904</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="55" spans="4:26">
@@ -23843,7 +24466,7 @@
     <row r="56" spans="4:26">
       <c r="D56" s="10"/>
       <c r="E56" s="7" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="F56" s="7"/>
       <c r="G56" s="7"/>
@@ -23870,7 +24493,7 @@
     <row r="57" spans="4:26">
       <c r="D57" s="10"/>
       <c r="E57" s="7" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="F57" s="7"/>
       <c r="G57" s="7"/>
@@ -23952,7 +24575,7 @@
       <c r="D60" s="10"/>
       <c r="E60" s="7"/>
       <c r="F60" s="7" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="G60" s="7"/>
       <c r="H60" s="10"/>
@@ -23979,7 +24602,7 @@
       <c r="D61" s="10"/>
       <c r="E61" s="7"/>
       <c r="F61" s="7" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="G61" s="7"/>
       <c r="H61" s="10"/>
@@ -24033,7 +24656,7 @@
       <c r="D63" s="10"/>
       <c r="E63" s="7"/>
       <c r="F63" s="7" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="G63" s="7"/>
       <c r="H63" s="10"/>
@@ -24061,7 +24684,7 @@
       <c r="E64" s="7"/>
       <c r="F64" s="7"/>
       <c r="G64" s="7" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="H64" s="10"/>
       <c r="I64" s="10"/>
@@ -24167,12 +24790,12 @@
         <v>904</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
     </row>
     <row r="71" spans="4:26">
       <c r="D71" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="72" spans="4:26">
@@ -24196,7 +24819,7 @@
     <row r="73" spans="4:26">
       <c r="D73" s="10"/>
       <c r="E73" s="7" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="F73" s="7"/>
       <c r="G73" s="7"/>
@@ -24216,7 +24839,7 @@
     <row r="74" spans="4:26">
       <c r="D74" s="10"/>
       <c r="E74" s="7" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="F74" s="7"/>
       <c r="G74" s="7"/>
@@ -24277,7 +24900,7 @@
       <c r="D77" s="10"/>
       <c r="E77" s="7"/>
       <c r="F77" s="7" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="G77" s="7"/>
       <c r="H77" s="10"/>
@@ -24318,7 +24941,7 @@
       <c r="E79" s="7"/>
       <c r="F79" s="7"/>
       <c r="G79" s="7" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="H79" s="10"/>
       <c r="I79" s="10"/>
@@ -24396,7 +25019,7 @@
     <row r="83" spans="4:19">
       <c r="D83" s="10"/>
       <c r="E83" s="7" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="F83" s="7"/>
       <c r="G83" s="7"/>
@@ -24416,7 +25039,7 @@
     <row r="84" spans="4:19">
       <c r="D84" s="10"/>
       <c r="E84" s="7" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="F84" s="7"/>
       <c r="G84" s="7"/>
@@ -24477,7 +25100,7 @@
       <c r="D87" s="10"/>
       <c r="E87" s="7"/>
       <c r="F87" s="7" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="G87" s="7"/>
       <c r="H87" s="10"/>
@@ -24518,7 +25141,7 @@
       <c r="E89" s="7"/>
       <c r="F89" s="7"/>
       <c r="G89" s="7" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="H89" s="10"/>
       <c r="I89" s="10"/>
@@ -24596,12 +25219,12 @@
         <v>904</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="96" spans="4:19">
       <c r="D96" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="97" spans="4:28">
@@ -24634,7 +25257,7 @@
     <row r="98" spans="4:28">
       <c r="D98" s="10"/>
       <c r="E98" s="7" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="F98" s="7"/>
       <c r="G98" s="7"/>
@@ -24663,7 +25286,7 @@
     <row r="99" spans="4:28">
       <c r="D99" s="10"/>
       <c r="E99" s="7" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="F99" s="7"/>
       <c r="G99" s="7"/>
@@ -24751,7 +25374,7 @@
       <c r="D102" s="10"/>
       <c r="E102" s="7"/>
       <c r="F102" s="7" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="G102" s="7"/>
       <c r="H102" s="7"/>
@@ -24781,7 +25404,7 @@
       <c r="E103" s="7"/>
       <c r="F103" s="7"/>
       <c r="G103" s="7" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="H103" s="7"/>
       <c r="I103" s="7"/>
@@ -24811,7 +25434,7 @@
       <c r="F104" s="7"/>
       <c r="G104" s="7"/>
       <c r="H104" s="7" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="I104" s="7"/>
       <c r="J104" s="7"/>
@@ -24868,7 +25491,7 @@
       <c r="E106" s="7"/>
       <c r="F106" s="7"/>
       <c r="G106" s="7" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="H106" s="7"/>
       <c r="I106" s="7"/>
@@ -24898,7 +25521,7 @@
       <c r="F107" s="7"/>
       <c r="G107" s="7"/>
       <c r="H107" s="7" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="I107" s="7"/>
       <c r="J107" s="7"/>
@@ -24955,7 +25578,7 @@
       <c r="E109" s="7"/>
       <c r="F109" s="7"/>
       <c r="G109" s="7" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="H109" s="7"/>
       <c r="I109" s="7"/>
@@ -24985,7 +25608,7 @@
       <c r="F110" s="7"/>
       <c r="G110" s="7"/>
       <c r="H110" s="7" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="I110" s="7"/>
       <c r="J110" s="7"/>
@@ -25128,7 +25751,7 @@
       <c r="D115" s="10"/>
       <c r="E115" s="7"/>
       <c r="F115" s="7" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="G115" s="7"/>
       <c r="H115" s="7"/>
@@ -25157,7 +25780,7 @@
       <c r="D116" s="10"/>
       <c r="E116" s="7"/>
       <c r="F116" s="7" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="G116" s="7"/>
       <c r="H116" s="7"/>
@@ -25276,7 +25899,7 @@
       <c r="G120" s="7"/>
       <c r="H120" s="7"/>
       <c r="I120" s="7" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="J120" s="7"/>
       <c r="K120" s="10"/>
@@ -25505,7 +26128,7 @@
       <c r="D128" s="10"/>
       <c r="E128" s="7"/>
       <c r="F128" s="7" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="G128" s="7"/>
       <c r="H128" s="7"/>
@@ -25535,7 +26158,7 @@
       <c r="E129" s="7"/>
       <c r="F129" s="7"/>
       <c r="G129" s="7" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="H129" s="7"/>
       <c r="I129" s="7"/>
@@ -25564,7 +26187,7 @@
       <c r="E130" s="7"/>
       <c r="F130" s="7"/>
       <c r="G130" s="7" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="H130" s="7"/>
       <c r="I130" s="7"/>
@@ -25593,7 +26216,7 @@
       <c r="E131" s="7"/>
       <c r="F131" s="7"/>
       <c r="G131" s="7" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="H131" s="7"/>
       <c r="I131" s="7"/>
@@ -25622,7 +26245,7 @@
       <c r="E132" s="7"/>
       <c r="F132" s="7"/>
       <c r="G132" s="7" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="H132" s="7"/>
       <c r="I132" s="7"/>
@@ -25679,7 +26302,7 @@
       <c r="D134" s="10"/>
       <c r="E134" s="7"/>
       <c r="F134" s="7" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="G134" s="7"/>
       <c r="H134" s="7"/>
@@ -25766,7 +26389,7 @@
       <c r="D137" s="10"/>
       <c r="E137" s="7"/>
       <c r="F137" s="7" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="G137" s="7"/>
       <c r="H137" s="7"/>
@@ -25795,7 +26418,7 @@
       <c r="D138" s="10"/>
       <c r="E138" s="7"/>
       <c r="F138" s="7" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="G138" s="7"/>
       <c r="H138" s="7"/>
@@ -25881,7 +26504,7 @@
     <row r="141" spans="4:28">
       <c r="D141" s="10"/>
       <c r="E141" s="7" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="F141" s="7"/>
       <c r="G141" s="7"/>
@@ -25910,7 +26533,7 @@
     <row r="142" spans="4:28">
       <c r="D142" s="10"/>
       <c r="E142" s="7" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="F142" s="7"/>
       <c r="G142" s="7"/>
@@ -25968,7 +26591,7 @@
         <v>904</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
     </row>
     <row r="147" spans="4:32">
@@ -26038,7 +26661,7 @@
     <row r="149" spans="4:32">
       <c r="D149" s="10"/>
       <c r="E149" s="7" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="F149" s="7"/>
       <c r="G149" s="10"/>
@@ -26171,7 +26794,7 @@
       <c r="D153" s="10"/>
       <c r="E153" s="7"/>
       <c r="F153" s="7" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="G153" s="10"/>
       <c r="H153" s="10"/>
@@ -26237,7 +26860,7 @@
       <c r="D155" s="10"/>
       <c r="E155" s="7"/>
       <c r="F155" s="7" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="G155" s="10"/>
       <c r="H155" s="10"/>
@@ -26303,7 +26926,7 @@
       <c r="D157" s="10"/>
       <c r="E157" s="7"/>
       <c r="F157" s="7" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="G157" s="10"/>
       <c r="H157" s="10"/>
@@ -26336,7 +26959,7 @@
       <c r="D158" s="10"/>
       <c r="E158" s="7"/>
       <c r="F158" s="7" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="G158" s="10"/>
       <c r="H158" s="10"/>
@@ -26369,7 +26992,7 @@
       <c r="D159" s="10"/>
       <c r="E159" s="7"/>
       <c r="F159" s="7" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="G159" s="10"/>
       <c r="H159" s="10"/>
@@ -26402,7 +27025,7 @@
       <c r="D160" s="10"/>
       <c r="E160" s="7"/>
       <c r="F160" s="7" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="G160" s="10"/>
       <c r="H160" s="10"/>
@@ -26435,7 +27058,7 @@
       <c r="D161" s="10"/>
       <c r="E161" s="7"/>
       <c r="F161" s="7" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="G161" s="10"/>
       <c r="H161" s="10"/>
@@ -26468,7 +27091,7 @@
       <c r="D162" s="10"/>
       <c r="E162" s="7"/>
       <c r="F162" s="7" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="G162" s="10"/>
       <c r="H162" s="10"/>
@@ -26501,7 +27124,7 @@
       <c r="D163" s="10"/>
       <c r="E163" s="7"/>
       <c r="F163" s="7" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="G163" s="10"/>
       <c r="H163" s="10"/>
@@ -26534,7 +27157,7 @@
       <c r="D164" s="10"/>
       <c r="E164" s="7"/>
       <c r="F164" s="7" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="G164" s="10"/>
       <c r="H164" s="10"/>
@@ -26567,7 +27190,7 @@
       <c r="D165" s="10"/>
       <c r="E165" s="7"/>
       <c r="F165" s="7" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="G165" s="10"/>
       <c r="H165" s="10"/>
@@ -26633,7 +27256,7 @@
       <c r="D167" s="10"/>
       <c r="E167" s="7"/>
       <c r="F167" s="7" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="G167" s="10"/>
       <c r="H167" s="10"/>
@@ -26666,7 +27289,7 @@
       <c r="D168" s="10"/>
       <c r="E168" s="7"/>
       <c r="F168" s="7" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="G168" s="10"/>
       <c r="H168" s="10"/>
@@ -26699,7 +27322,7 @@
       <c r="D169" s="10"/>
       <c r="E169" s="7"/>
       <c r="F169" s="7" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="G169" s="10"/>
       <c r="H169" s="10"/>
@@ -26732,7 +27355,7 @@
       <c r="D170" s="10"/>
       <c r="E170" s="7"/>
       <c r="F170" s="7" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="G170" s="10"/>
       <c r="H170" s="10"/>
@@ -26765,7 +27388,7 @@
       <c r="D171" s="10"/>
       <c r="E171" s="7"/>
       <c r="F171" s="7" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="G171" s="10"/>
       <c r="H171" s="10"/>
@@ -26798,7 +27421,7 @@
       <c r="D172" s="10"/>
       <c r="E172" s="7"/>
       <c r="F172" s="7" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="G172" s="10"/>
       <c r="H172" s="10"/>
@@ -26831,7 +27454,7 @@
       <c r="D173" s="10"/>
       <c r="E173" s="7"/>
       <c r="F173" s="7" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="G173" s="10"/>
       <c r="H173" s="10"/>
@@ -26864,7 +27487,7 @@
       <c r="D174" s="10"/>
       <c r="E174" s="7"/>
       <c r="F174" s="7" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="G174" s="10"/>
       <c r="H174" s="10"/>
@@ -26897,7 +27520,7 @@
       <c r="D175" s="10"/>
       <c r="E175" s="7"/>
       <c r="F175" s="7" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="G175" s="10"/>
       <c r="H175" s="10"/>
@@ -26930,7 +27553,7 @@
       <c r="D176" s="10"/>
       <c r="E176" s="7"/>
       <c r="F176" s="7" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="G176" s="10"/>
       <c r="H176" s="10"/>
@@ -27190,12 +27813,12 @@
     </row>
     <row r="185" spans="4:32">
       <c r="D185" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="186" spans="4:32">
       <c r="D186" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
     </row>
     <row r="189" spans="4:32">
@@ -27203,22 +27826,22 @@
         <v>904</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="190" spans="4:32">
       <c r="D190" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="191" spans="4:32">
       <c r="D191" s="2" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="193" spans="4:36">
       <c r="D193" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="194" spans="4:36">
@@ -27259,7 +27882,7 @@
     <row r="195" spans="4:36">
       <c r="D195" s="10"/>
       <c r="E195" s="7" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="F195" s="7"/>
       <c r="G195" s="7"/>
@@ -27296,7 +27919,7 @@
     <row r="196" spans="4:36">
       <c r="D196" s="10"/>
       <c r="E196" s="7" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="F196" s="7"/>
       <c r="G196" s="7"/>
@@ -27408,7 +28031,7 @@
       <c r="D199" s="10"/>
       <c r="E199" s="7"/>
       <c r="F199" s="7" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="G199" s="7"/>
       <c r="H199" s="10"/>
@@ -27445,7 +28068,7 @@
       <c r="D200" s="10"/>
       <c r="E200" s="7"/>
       <c r="F200" s="7" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="G200" s="7"/>
       <c r="H200" s="10"/>
@@ -27519,7 +28142,7 @@
       <c r="D202" s="10"/>
       <c r="E202" s="7"/>
       <c r="F202" s="7" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="G202" s="7"/>
       <c r="H202" s="10"/>
@@ -27557,7 +28180,7 @@
       <c r="E203" s="7"/>
       <c r="F203" s="7"/>
       <c r="G203" s="7" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="H203" s="10"/>
       <c r="I203" s="10"/>
@@ -27593,7 +28216,7 @@
       <c r="D204" s="10"/>
       <c r="E204" s="7"/>
       <c r="F204" s="7" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="G204" s="7"/>
       <c r="H204" s="10"/>
@@ -27630,7 +28253,7 @@
       <c r="D205" s="10"/>
       <c r="E205" s="7"/>
       <c r="F205" s="7" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="G205" s="7"/>
       <c r="H205" s="10"/>
@@ -27668,7 +28291,7 @@
       <c r="E206" s="7"/>
       <c r="F206" s="7"/>
       <c r="G206" s="7" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="H206" s="10"/>
       <c r="I206" s="10"/>
@@ -27811,7 +28434,7 @@
     </row>
     <row r="211" spans="4:36">
       <c r="D211" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="212" spans="4:36">
@@ -27885,7 +28508,7 @@
     <row r="214" spans="4:36">
       <c r="D214" s="32"/>
       <c r="E214" s="33" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="F214" s="33"/>
       <c r="G214" s="32"/>
@@ -28026,7 +28649,7 @@
       <c r="D218" s="32"/>
       <c r="E218" s="33"/>
       <c r="F218" s="33" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="G218" s="32"/>
       <c r="H218" s="32"/>
@@ -28096,7 +28719,7 @@
       <c r="D220" s="32"/>
       <c r="E220" s="33"/>
       <c r="F220" s="33" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="G220" s="32"/>
       <c r="H220" s="32"/>
@@ -28166,7 +28789,7 @@
       <c r="D222" s="32"/>
       <c r="E222" s="33"/>
       <c r="F222" s="33" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="G222" s="32"/>
       <c r="H222" s="32"/>
@@ -28201,7 +28824,7 @@
       <c r="D223" s="32"/>
       <c r="E223" s="33"/>
       <c r="F223" s="33" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="G223" s="32"/>
       <c r="H223" s="32"/>
@@ -28236,7 +28859,7 @@
       <c r="D224" s="32"/>
       <c r="E224" s="33"/>
       <c r="F224" s="33" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="G224" s="32"/>
       <c r="H224" s="32"/>
@@ -28271,7 +28894,7 @@
       <c r="D225" s="32"/>
       <c r="E225" s="33"/>
       <c r="F225" s="33" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="G225" s="32"/>
       <c r="H225" s="32"/>
@@ -28306,7 +28929,7 @@
       <c r="D226" s="32"/>
       <c r="E226" s="33"/>
       <c r="F226" s="33" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="G226" s="32"/>
       <c r="H226" s="32"/>
@@ -28341,7 +28964,7 @@
       <c r="D227" s="32"/>
       <c r="E227" s="33"/>
       <c r="F227" s="33" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="G227" s="32"/>
       <c r="H227" s="32"/>
@@ -28376,7 +28999,7 @@
       <c r="D228" s="32"/>
       <c r="E228" s="33"/>
       <c r="F228" s="33" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="G228" s="32"/>
       <c r="H228" s="32"/>
@@ -28411,7 +29034,7 @@
       <c r="D229" s="32"/>
       <c r="E229" s="33"/>
       <c r="F229" s="33" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="G229" s="32"/>
       <c r="H229" s="32"/>
@@ -28446,7 +29069,7 @@
       <c r="D230" s="32"/>
       <c r="E230" s="33"/>
       <c r="F230" s="33" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="G230" s="32"/>
       <c r="H230" s="32"/>
@@ -28516,7 +29139,7 @@
       <c r="D232" s="32"/>
       <c r="E232" s="33"/>
       <c r="F232" s="33" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="G232" s="32"/>
       <c r="H232" s="32"/>
@@ -28551,7 +29174,7 @@
       <c r="D233" s="32"/>
       <c r="E233" s="33"/>
       <c r="F233" s="33" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="G233" s="32"/>
       <c r="H233" s="32"/>
@@ -28586,7 +29209,7 @@
       <c r="D234" s="32"/>
       <c r="E234" s="33"/>
       <c r="F234" s="33" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="G234" s="32"/>
       <c r="H234" s="32"/>
@@ -28621,7 +29244,7 @@
       <c r="D235" s="32"/>
       <c r="E235" s="33"/>
       <c r="F235" s="33" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="G235" s="32"/>
       <c r="H235" s="32"/>
@@ -28656,7 +29279,7 @@
       <c r="D236" s="32"/>
       <c r="E236" s="33"/>
       <c r="F236" s="33" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="G236" s="32"/>
       <c r="H236" s="32"/>
@@ -28691,7 +29314,7 @@
       <c r="D237" s="32"/>
       <c r="E237" s="33"/>
       <c r="F237" s="33" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="G237" s="32"/>
       <c r="H237" s="32"/>
@@ -28726,7 +29349,7 @@
       <c r="D238" s="32"/>
       <c r="E238" s="33"/>
       <c r="F238" s="33" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="G238" s="32"/>
       <c r="H238" s="32"/>
@@ -28761,7 +29384,7 @@
       <c r="D239" s="32"/>
       <c r="E239" s="33"/>
       <c r="F239" s="33" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="G239" s="32"/>
       <c r="H239" s="32"/>
@@ -28796,7 +29419,7 @@
       <c r="D240" s="32"/>
       <c r="E240" s="33"/>
       <c r="F240" s="33" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="G240" s="32"/>
       <c r="H240" s="32"/>
@@ -28831,7 +29454,7 @@
       <c r="D241" s="32"/>
       <c r="E241" s="33"/>
       <c r="F241" s="33" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="G241" s="32"/>
       <c r="H241" s="32"/>
@@ -29112,7 +29735,7 @@
         <v>0</v>
       </c>
       <c r="D252" s="1" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="E252" s="4"/>
       <c r="F252" s="4"/>
@@ -29173,7 +29796,7 @@
         <v>904</v>
       </c>
       <c r="E255" s="2" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="256" spans="1:52">
@@ -29181,7 +29804,7 @@
         <v>904</v>
       </c>
       <c r="E256" s="2" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="258" spans="4:5">
@@ -29194,7 +29817,7 @@
         <v>904</v>
       </c>
       <c r="E259" s="2" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
     </row>
     <row r="261" spans="4:5">
@@ -29207,7 +29830,7 @@
         <v>904</v>
       </c>
       <c r="E262" s="2" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="263" spans="4:5">
@@ -29215,7 +29838,7 @@
         <v>904</v>
       </c>
       <c r="E263" s="2" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
     </row>
   </sheetData>
@@ -29230,7 +29853,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:AZ176"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="D71" sqref="D71"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.77734375" defaultRowHeight="14.4"/>
   <sheetData>
@@ -29241,7 +29866,7 @@
         <v>0</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
@@ -29294,7 +29919,7 @@
     </row>
     <row r="5" spans="1:52">
       <c r="D5" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
     </row>
     <row r="6" spans="1:52">
@@ -29333,7 +29958,7 @@
     <row r="7" spans="1:52">
       <c r="D7" s="10"/>
       <c r="E7" s="7" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="F7" s="10"/>
       <c r="G7" s="10"/>
@@ -29400,12 +30025,12 @@
     </row>
     <row r="10" spans="1:52">
       <c r="D10" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="11" spans="1:52">
       <c r="D11" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="14" spans="1:52">
@@ -29415,7 +30040,7 @@
         <v>0</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
@@ -29468,17 +30093,17 @@
     </row>
     <row r="16" spans="1:52">
       <c r="D16" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="17" spans="4:4">
       <c r="D17" s="2" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
     </row>
     <row r="30" spans="4:4">
       <c r="D30" s="2" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="31" spans="4:4">
@@ -29486,13 +30111,13 @@
     </row>
     <row r="32" spans="4:4">
       <c r="D32" s="2" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="33" spans="1:52">
       <c r="D33" s="2"/>
       <c r="L33" s="2" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
     </row>
     <row r="34" spans="1:52">
@@ -29500,52 +30125,52 @@
     </row>
     <row r="35" spans="1:52">
       <c r="D35" s="2" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="37" spans="1:52">
       <c r="D37" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="38" spans="1:52">
       <c r="D38" s="2" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
     </row>
     <row r="39" spans="1:52">
       <c r="D39" s="2" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="40" spans="1:52">
       <c r="D40" s="2" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
     </row>
     <row r="41" spans="1:52">
       <c r="D41" s="2" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="42" spans="1:52">
       <c r="D42" s="2" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
     </row>
     <row r="45" spans="1:52">
@@ -29555,7 +30180,7 @@
         <v>0</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="E45" s="4"/>
       <c r="F45" s="4"/>
@@ -29608,32 +30233,32 @@
     </row>
     <row r="47" spans="1:52">
       <c r="D47" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="48" spans="1:52">
       <c r="D48" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="49" spans="4:4">
       <c r="D49" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
     </row>
     <row r="50" spans="4:4">
       <c r="D50" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="52" spans="4:4">
       <c r="D52" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
     </row>
     <row r="53" spans="4:4">
       <c r="D53" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="71" spans="4:17">
@@ -29641,12 +30266,12 @@
         <v>904</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
     </row>
     <row r="72" spans="4:17">
       <c r="D72" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="73" spans="4:17">
@@ -29668,7 +30293,7 @@
     <row r="74" spans="4:17">
       <c r="D74" s="10"/>
       <c r="E74" s="7" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="F74" s="7"/>
       <c r="G74" s="10"/>
@@ -29686,7 +30311,7 @@
     <row r="75" spans="4:17">
       <c r="D75" s="10"/>
       <c r="E75" s="7" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="F75" s="7"/>
       <c r="G75" s="10"/>
@@ -29741,7 +30366,7 @@
       <c r="D78" s="10"/>
       <c r="E78" s="7"/>
       <c r="F78" s="7" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="G78" s="10"/>
       <c r="H78" s="10"/>
@@ -29759,7 +30384,7 @@
       <c r="D79" s="10"/>
       <c r="E79" s="7"/>
       <c r="F79" s="7" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="G79" s="10"/>
       <c r="H79" s="10"/>
@@ -29812,12 +30437,12 @@
         <v>904</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="84" spans="4:19">
       <c r="D84" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
     </row>
     <row r="85" spans="4:19">
@@ -29841,7 +30466,7 @@
     <row r="86" spans="4:19">
       <c r="D86" s="10"/>
       <c r="E86" s="7" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="F86" s="7"/>
       <c r="G86" s="7"/>
@@ -29861,7 +30486,7 @@
     <row r="87" spans="4:19">
       <c r="D87" s="10"/>
       <c r="E87" s="7" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="F87" s="7"/>
       <c r="G87" s="7"/>
@@ -29922,7 +30547,7 @@
       <c r="D90" s="10"/>
       <c r="E90" s="7"/>
       <c r="F90" s="7" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="G90" s="7"/>
       <c r="H90" s="10"/>
@@ -29942,7 +30567,7 @@
       <c r="D91" s="10"/>
       <c r="E91" s="7"/>
       <c r="F91" s="7" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="G91" s="7"/>
       <c r="H91" s="10"/>
@@ -29963,7 +30588,7 @@
       <c r="E92" s="7"/>
       <c r="F92" s="7"/>
       <c r="G92" s="7" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="H92" s="10"/>
       <c r="I92" s="10"/>
@@ -30041,7 +30666,7 @@
         <v>904</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="98" spans="4:34">
@@ -30080,7 +30705,7 @@
     <row r="99" spans="4:34">
       <c r="D99" s="10"/>
       <c r="E99" s="7" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="F99" s="7"/>
       <c r="G99" s="7"/>
@@ -30115,7 +30740,7 @@
     <row r="100" spans="4:34">
       <c r="D100" s="10"/>
       <c r="E100" s="7" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="F100" s="7"/>
       <c r="G100" s="7"/>
@@ -30221,7 +30846,7 @@
       <c r="D103" s="10"/>
       <c r="E103" s="7"/>
       <c r="F103" s="7" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="G103" s="7"/>
       <c r="H103" s="10"/>
@@ -30256,7 +30881,7 @@
       <c r="D104" s="10"/>
       <c r="E104" s="7"/>
       <c r="F104" s="7" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="G104" s="7"/>
       <c r="H104" s="10"/>
@@ -30292,7 +30917,7 @@
       <c r="E105" s="7"/>
       <c r="F105" s="7"/>
       <c r="G105" s="7" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="H105" s="10"/>
       <c r="I105" s="10"/>
@@ -30327,7 +30952,7 @@
       <c r="E106" s="7"/>
       <c r="F106" s="7"/>
       <c r="G106" s="7" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="H106" s="10"/>
       <c r="I106" s="10"/>
@@ -30362,7 +30987,7 @@
       <c r="E107" s="7"/>
       <c r="F107" s="7"/>
       <c r="G107" s="7" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="H107" s="10"/>
       <c r="I107" s="10"/>
@@ -30397,7 +31022,7 @@
       <c r="E108" s="7"/>
       <c r="F108" s="7"/>
       <c r="G108" s="7" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="H108" s="10"/>
       <c r="I108" s="10"/>
@@ -30432,7 +31057,7 @@
       <c r="E109" s="7"/>
       <c r="F109" s="7"/>
       <c r="G109" s="7" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="H109" s="10"/>
       <c r="I109" s="10"/>
@@ -30570,7 +31195,7 @@
     <row r="113" spans="4:34">
       <c r="D113" s="10"/>
       <c r="E113" s="7" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="F113" s="7"/>
       <c r="G113" s="7"/>
@@ -30605,7 +31230,7 @@
     <row r="114" spans="4:34">
       <c r="D114" s="10"/>
       <c r="E114" s="7" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="F114" s="7"/>
       <c r="G114" s="7"/>
@@ -30711,7 +31336,7 @@
       <c r="D117" s="10"/>
       <c r="E117" s="7"/>
       <c r="F117" s="7" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="G117" s="7"/>
       <c r="H117" s="10"/>
@@ -30747,7 +31372,7 @@
       <c r="E118" s="7"/>
       <c r="F118" s="7"/>
       <c r="G118" s="7" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="H118" s="10"/>
       <c r="I118" s="10"/>
@@ -30782,7 +31407,7 @@
       <c r="E119" s="7"/>
       <c r="F119" s="7"/>
       <c r="G119" s="7" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="H119" s="10"/>
       <c r="I119" s="10"/>
@@ -30851,7 +31476,7 @@
       <c r="D121" s="10"/>
       <c r="E121" s="7"/>
       <c r="F121" s="7" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="G121" s="7"/>
       <c r="H121" s="10"/>
@@ -30887,7 +31512,7 @@
       <c r="E122" s="7"/>
       <c r="F122" s="7"/>
       <c r="G122" s="7" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="H122" s="10"/>
       <c r="I122" s="10"/>
@@ -30956,7 +31581,7 @@
       <c r="D124" s="10"/>
       <c r="E124" s="7"/>
       <c r="F124" s="7" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="G124" s="7"/>
       <c r="H124" s="10"/>
@@ -30992,7 +31617,7 @@
       <c r="E125" s="7"/>
       <c r="F125" s="7"/>
       <c r="G125" s="7" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="H125" s="10"/>
       <c r="I125" s="10"/>
@@ -31027,7 +31652,7 @@
       <c r="E126" s="7"/>
       <c r="F126" s="7"/>
       <c r="G126" s="7" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="H126" s="10"/>
       <c r="I126" s="10"/>
@@ -31062,7 +31687,7 @@
       <c r="E127" s="7"/>
       <c r="F127" s="7"/>
       <c r="G127" s="7" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="H127" s="10"/>
       <c r="I127" s="10"/>
@@ -31131,7 +31756,7 @@
       <c r="D129" s="10"/>
       <c r="E129" s="7"/>
       <c r="F129" s="7" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="G129" s="7"/>
       <c r="H129" s="10"/>
@@ -31167,7 +31792,7 @@
       <c r="E130" s="7"/>
       <c r="F130" s="7"/>
       <c r="G130" s="7" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="H130" s="10"/>
       <c r="I130" s="10"/>
@@ -31271,7 +31896,7 @@
       <c r="D133" s="10"/>
       <c r="E133" s="7"/>
       <c r="F133" s="7" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="G133" s="7"/>
       <c r="H133" s="10"/>
@@ -31306,7 +31931,7 @@
       <c r="D134" s="10"/>
       <c r="E134" s="7"/>
       <c r="F134" s="7" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="G134" s="7"/>
       <c r="H134" s="10"/>
@@ -31410,7 +32035,7 @@
         <v>904</v>
       </c>
       <c r="E138" s="2" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
     </row>
     <row r="139" spans="4:34">
@@ -31448,7 +32073,7 @@
     <row r="141" spans="4:34">
       <c r="D141" s="32"/>
       <c r="E141" s="33" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="F141" s="33"/>
       <c r="G141" s="32"/>
@@ -31517,7 +32142,7 @@
       <c r="D145" s="32"/>
       <c r="E145" s="33"/>
       <c r="F145" s="33" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="G145" s="32"/>
       <c r="H145" s="32"/>
@@ -31534,7 +32159,7 @@
       <c r="D146" s="32"/>
       <c r="E146" s="33"/>
       <c r="F146" s="33" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="G146" s="32"/>
       <c r="H146" s="32"/>
@@ -31551,7 +32176,7 @@
       <c r="D147" s="32"/>
       <c r="E147" s="33"/>
       <c r="F147" s="33" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="G147" s="32"/>
       <c r="H147" s="32"/>
@@ -31688,7 +32313,7 @@
         <v>0</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="E157" s="4"/>
       <c r="F157" s="4"/>
@@ -31749,7 +32374,7 @@
         <v>904</v>
       </c>
       <c r="E160" s="2" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
     </row>
     <row r="161" spans="4:5">
@@ -31757,7 +32382,7 @@
         <v>904</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="162" spans="4:5">
@@ -31765,7 +32390,7 @@
         <v>904</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
     </row>
     <row r="163" spans="4:5">
@@ -31773,7 +32398,7 @@
         <v>904</v>
       </c>
       <c r="E163" s="2" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="164" spans="4:5">
@@ -31781,7 +32406,7 @@
         <v>904</v>
       </c>
       <c r="E164" s="2" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="165" spans="4:5">
@@ -31789,7 +32414,7 @@
         <v>904</v>
       </c>
       <c r="E165" s="2" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="167" spans="4:5">
@@ -31802,7 +32427,7 @@
         <v>904</v>
       </c>
       <c r="E168" s="2" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
     </row>
     <row r="169" spans="4:5">
@@ -31810,12 +32435,12 @@
         <v>904</v>
       </c>
       <c r="E169" s="2" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
     </row>
     <row r="171" spans="4:5">
       <c r="D171" s="3" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
     </row>
     <row r="172" spans="4:5">
@@ -31823,7 +32448,7 @@
         <v>904</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="173" spans="4:5">
@@ -31831,7 +32456,7 @@
         <v>904</v>
       </c>
       <c r="E173" s="2" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="174" spans="4:5">
@@ -31839,7 +32464,7 @@
         <v>904</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
     </row>
     <row r="175" spans="4:5">
@@ -31847,7 +32472,7 @@
         <v>904</v>
       </c>
       <c r="E175" s="2" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
     </row>
     <row r="176" spans="4:5">
@@ -31855,7 +32480,7 @@
         <v>904</v>
       </c>
       <c r="E176" s="2" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
     </row>
   </sheetData>
@@ -31867,17 +32492,6376 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:AZ266"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="D39" sqref="D39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.77734375" defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="3" spans="1:52">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>1266</v>
+      </c>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="4"/>
+      <c r="S3" s="4"/>
+      <c r="T3" s="4"/>
+      <c r="U3" s="4"/>
+      <c r="V3" s="4"/>
+      <c r="W3" s="4"/>
+      <c r="X3" s="4"/>
+      <c r="Y3" s="4"/>
+      <c r="Z3" s="4"/>
+      <c r="AA3" s="4"/>
+      <c r="AB3" s="4"/>
+      <c r="AC3" s="4"/>
+      <c r="AD3" s="4"/>
+      <c r="AE3" s="4"/>
+      <c r="AF3" s="4"/>
+      <c r="AG3" s="4"/>
+      <c r="AH3" s="4"/>
+      <c r="AI3" s="4"/>
+      <c r="AJ3" s="4"/>
+      <c r="AK3" s="4"/>
+      <c r="AL3" s="4"/>
+      <c r="AM3" s="4"/>
+      <c r="AN3" s="4"/>
+      <c r="AO3" s="4"/>
+      <c r="AP3" s="4"/>
+      <c r="AQ3" s="4"/>
+      <c r="AR3" s="4"/>
+      <c r="AS3" s="4"/>
+      <c r="AT3" s="4"/>
+      <c r="AU3" s="4"/>
+      <c r="AV3" s="4"/>
+      <c r="AW3" s="4"/>
+      <c r="AX3" s="4"/>
+      <c r="AY3" s="4"/>
+      <c r="AZ3" s="4"/>
+    </row>
+    <row r="5" spans="1:52">
+      <c r="D5" t="s">
+        <v>1267</v>
+      </c>
+    </row>
+    <row r="6" spans="1:52">
+      <c r="D6" t="s">
+        <v>1268</v>
+      </c>
+    </row>
+    <row r="7" spans="1:52">
+      <c r="D7" t="s">
+        <v>1269</v>
+      </c>
+    </row>
+    <row r="8" spans="1:52">
+      <c r="D8" t="s">
+        <v>1270</v>
+      </c>
+    </row>
+    <row r="9" spans="1:52">
+      <c r="D9" s="3" t="s">
+        <v>1271</v>
+      </c>
+    </row>
+    <row r="10" spans="1:52">
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="10"/>
+      <c r="N10" s="10"/>
+      <c r="O10" s="10"/>
+      <c r="P10" s="10"/>
+      <c r="Q10" s="10"/>
+      <c r="R10" s="10"/>
+      <c r="S10" s="10"/>
+      <c r="T10" s="10"/>
+      <c r="U10" s="10"/>
+      <c r="V10" s="10"/>
+      <c r="W10" s="10"/>
+      <c r="X10" s="10"/>
+      <c r="Y10" s="10"/>
+      <c r="Z10" s="10"/>
+      <c r="AA10" s="10"/>
+      <c r="AB10" s="10"/>
+      <c r="AC10" s="10"/>
+      <c r="AD10" s="10"/>
+      <c r="AE10" s="10"/>
+      <c r="AF10" s="10"/>
+      <c r="AG10" s="10"/>
+      <c r="AH10" s="10"/>
+      <c r="AI10" s="10"/>
+      <c r="AJ10" s="10"/>
+      <c r="AK10" s="10"/>
+    </row>
+    <row r="11" spans="1:52">
+      <c r="D11" s="10"/>
+      <c r="E11" s="7" t="s">
+        <v>1272</v>
+      </c>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
+      <c r="L11" s="10"/>
+      <c r="M11" s="10"/>
+      <c r="N11" s="10"/>
+      <c r="O11" s="10"/>
+      <c r="P11" s="10"/>
+      <c r="Q11" s="10"/>
+      <c r="R11" s="10"/>
+      <c r="S11" s="10"/>
+      <c r="T11" s="10"/>
+      <c r="U11" s="10"/>
+      <c r="V11" s="10"/>
+      <c r="W11" s="10"/>
+      <c r="X11" s="10"/>
+      <c r="Y11" s="10"/>
+      <c r="Z11" s="10"/>
+      <c r="AA11" s="10"/>
+      <c r="AB11" s="10"/>
+      <c r="AC11" s="10"/>
+      <c r="AD11" s="10"/>
+      <c r="AE11" s="10"/>
+      <c r="AF11" s="10"/>
+      <c r="AG11" s="10"/>
+      <c r="AH11" s="10"/>
+      <c r="AI11" s="10"/>
+      <c r="AJ11" s="10"/>
+      <c r="AK11" s="10"/>
+    </row>
+    <row r="12" spans="1:52">
+      <c r="D12" s="10"/>
+      <c r="E12" s="7" t="s">
+        <v>1273</v>
+      </c>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
+      <c r="L12" s="10"/>
+      <c r="M12" s="10"/>
+      <c r="N12" s="10"/>
+      <c r="O12" s="10"/>
+      <c r="P12" s="10"/>
+      <c r="Q12" s="10"/>
+      <c r="R12" s="10"/>
+      <c r="S12" s="10"/>
+      <c r="T12" s="10"/>
+      <c r="U12" s="10"/>
+      <c r="V12" s="10"/>
+      <c r="W12" s="10"/>
+      <c r="X12" s="10"/>
+      <c r="Y12" s="10"/>
+      <c r="Z12" s="10"/>
+      <c r="AA12" s="10"/>
+      <c r="AB12" s="10"/>
+      <c r="AC12" s="10"/>
+      <c r="AD12" s="10"/>
+      <c r="AE12" s="10"/>
+      <c r="AF12" s="10"/>
+      <c r="AG12" s="10"/>
+      <c r="AH12" s="10"/>
+      <c r="AI12" s="10"/>
+      <c r="AJ12" s="10"/>
+      <c r="AK12" s="10"/>
+    </row>
+    <row r="13" spans="1:52">
+      <c r="D13" s="10"/>
+      <c r="E13" s="7" t="s">
+        <v>1274</v>
+      </c>
+      <c r="F13" s="10"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="10"/>
+      <c r="M13" s="10"/>
+      <c r="N13" s="10"/>
+      <c r="O13" s="10"/>
+      <c r="P13" s="10"/>
+      <c r="Q13" s="10"/>
+      <c r="R13" s="10"/>
+      <c r="S13" s="10"/>
+      <c r="T13" s="10"/>
+      <c r="U13" s="10"/>
+      <c r="V13" s="10"/>
+      <c r="W13" s="10"/>
+      <c r="X13" s="10"/>
+      <c r="Y13" s="10"/>
+      <c r="Z13" s="10"/>
+      <c r="AA13" s="10"/>
+      <c r="AB13" s="10"/>
+      <c r="AC13" s="10"/>
+      <c r="AD13" s="10"/>
+      <c r="AE13" s="10"/>
+      <c r="AF13" s="10"/>
+      <c r="AG13" s="10"/>
+      <c r="AH13" s="10"/>
+      <c r="AI13" s="10"/>
+      <c r="AJ13" s="10"/>
+      <c r="AK13" s="10"/>
+    </row>
+    <row r="14" spans="1:52">
+      <c r="D14" s="10"/>
+      <c r="E14" s="10"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="10"/>
+      <c r="M14" s="10"/>
+      <c r="N14" s="10"/>
+      <c r="O14" s="10"/>
+      <c r="P14" s="10"/>
+      <c r="Q14" s="10"/>
+      <c r="R14" s="10"/>
+      <c r="S14" s="10"/>
+      <c r="T14" s="10"/>
+      <c r="U14" s="10"/>
+      <c r="V14" s="10"/>
+      <c r="W14" s="10"/>
+      <c r="X14" s="10"/>
+      <c r="Y14" s="10"/>
+      <c r="Z14" s="10"/>
+      <c r="AA14" s="10"/>
+      <c r="AB14" s="10"/>
+      <c r="AC14" s="10"/>
+      <c r="AD14" s="10"/>
+      <c r="AE14" s="10"/>
+      <c r="AF14" s="10"/>
+      <c r="AG14" s="10"/>
+      <c r="AH14" s="10"/>
+      <c r="AI14" s="10"/>
+      <c r="AJ14" s="10"/>
+      <c r="AK14" s="10"/>
+    </row>
+    <row r="17" spans="1:52">
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>1275</v>
+      </c>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
+      <c r="M17" s="4"/>
+      <c r="N17" s="4"/>
+      <c r="O17" s="4"/>
+      <c r="P17" s="4"/>
+      <c r="Q17" s="4"/>
+      <c r="R17" s="4"/>
+      <c r="S17" s="4"/>
+      <c r="T17" s="4"/>
+      <c r="U17" s="4"/>
+      <c r="V17" s="4"/>
+      <c r="W17" s="4"/>
+      <c r="X17" s="4"/>
+      <c r="Y17" s="4"/>
+      <c r="Z17" s="4"/>
+      <c r="AA17" s="4"/>
+      <c r="AB17" s="4"/>
+      <c r="AC17" s="4"/>
+      <c r="AD17" s="4"/>
+      <c r="AE17" s="4"/>
+      <c r="AF17" s="4"/>
+      <c r="AG17" s="4"/>
+      <c r="AH17" s="4"/>
+      <c r="AI17" s="4"/>
+      <c r="AJ17" s="4"/>
+      <c r="AK17" s="4"/>
+      <c r="AL17" s="4"/>
+      <c r="AM17" s="4"/>
+      <c r="AN17" s="4"/>
+      <c r="AO17" s="4"/>
+      <c r="AP17" s="4"/>
+      <c r="AQ17" s="4"/>
+      <c r="AR17" s="4"/>
+      <c r="AS17" s="4"/>
+      <c r="AT17" s="4"/>
+      <c r="AU17" s="4"/>
+      <c r="AV17" s="4"/>
+      <c r="AW17" s="4"/>
+      <c r="AX17" s="4"/>
+      <c r="AY17" s="4"/>
+      <c r="AZ17" s="4"/>
+    </row>
+    <row r="19" spans="1:52">
+      <c r="D19" s="2" t="s">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="20" spans="1:52">
+      <c r="D20" s="2" t="s">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="22" spans="1:52">
+      <c r="D22" t="s">
+        <v>1278</v>
+      </c>
+    </row>
+    <row r="23" spans="1:52">
+      <c r="D23" s="2" t="s">
+        <v>1279</v>
+      </c>
+    </row>
+    <row r="37" spans="1:52">
+      <c r="A37" s="4"/>
+      <c r="B37" s="4"/>
+      <c r="C37" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>1280</v>
+      </c>
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="4"/>
+      <c r="H37" s="4"/>
+      <c r="I37" s="4"/>
+      <c r="J37" s="4"/>
+      <c r="K37" s="4"/>
+      <c r="L37" s="4"/>
+      <c r="M37" s="4"/>
+      <c r="N37" s="4"/>
+      <c r="O37" s="4"/>
+      <c r="P37" s="4"/>
+      <c r="Q37" s="4"/>
+      <c r="R37" s="4"/>
+      <c r="S37" s="4"/>
+      <c r="T37" s="4"/>
+      <c r="U37" s="4"/>
+      <c r="V37" s="4"/>
+      <c r="W37" s="4"/>
+      <c r="X37" s="4"/>
+      <c r="Y37" s="4"/>
+      <c r="Z37" s="4"/>
+      <c r="AA37" s="4"/>
+      <c r="AB37" s="4"/>
+      <c r="AC37" s="4"/>
+      <c r="AD37" s="4"/>
+      <c r="AE37" s="4"/>
+      <c r="AF37" s="4"/>
+      <c r="AG37" s="4"/>
+      <c r="AH37" s="4"/>
+      <c r="AI37" s="4"/>
+      <c r="AJ37" s="4"/>
+      <c r="AK37" s="4"/>
+      <c r="AL37" s="4"/>
+      <c r="AM37" s="4"/>
+      <c r="AN37" s="4"/>
+      <c r="AO37" s="4"/>
+      <c r="AP37" s="4"/>
+      <c r="AQ37" s="4"/>
+      <c r="AR37" s="4"/>
+      <c r="AS37" s="4"/>
+      <c r="AT37" s="4"/>
+      <c r="AU37" s="4"/>
+      <c r="AV37" s="4"/>
+      <c r="AW37" s="4"/>
+      <c r="AX37" s="4"/>
+      <c r="AY37" s="4"/>
+      <c r="AZ37" s="4"/>
+    </row>
+    <row r="39" spans="1:52">
+      <c r="D39" s="31" t="s">
+        <v>904</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>1281</v>
+      </c>
+    </row>
+    <row r="40" spans="1:52">
+      <c r="D40" t="s">
+        <v>1282</v>
+      </c>
+    </row>
+    <row r="41" spans="1:52">
+      <c r="D41" s="10"/>
+      <c r="E41" s="10"/>
+      <c r="F41" s="10"/>
+      <c r="G41" s="10"/>
+      <c r="H41" s="10"/>
+      <c r="I41" s="10"/>
+      <c r="J41" s="10"/>
+      <c r="K41" s="10"/>
+      <c r="L41" s="10"/>
+      <c r="M41" s="10"/>
+      <c r="N41" s="10"/>
+    </row>
+    <row r="42" spans="1:52">
+      <c r="D42" s="10"/>
+      <c r="E42" s="7" t="s">
+        <v>1283</v>
+      </c>
+      <c r="F42" s="10"/>
+      <c r="G42" s="10"/>
+      <c r="H42" s="10"/>
+      <c r="I42" s="10"/>
+      <c r="J42" s="10"/>
+      <c r="K42" s="10"/>
+      <c r="L42" s="10"/>
+      <c r="M42" s="10"/>
+      <c r="N42" s="10"/>
+    </row>
+    <row r="43" spans="1:52">
+      <c r="D43" s="10"/>
+      <c r="E43" s="7" t="s">
+        <v>1284</v>
+      </c>
+      <c r="F43" s="10"/>
+      <c r="G43" s="10"/>
+      <c r="H43" s="10"/>
+      <c r="I43" s="10"/>
+      <c r="J43" s="10"/>
+      <c r="K43" s="10"/>
+      <c r="L43" s="10"/>
+      <c r="M43" s="10"/>
+      <c r="N43" s="10"/>
+    </row>
+    <row r="44" spans="1:52">
+      <c r="D44" s="10"/>
+      <c r="E44" s="7" t="s">
+        <v>1285</v>
+      </c>
+      <c r="F44" s="10"/>
+      <c r="G44" s="10"/>
+      <c r="H44" s="10"/>
+      <c r="I44" s="10"/>
+      <c r="J44" s="10"/>
+      <c r="K44" s="10"/>
+      <c r="L44" s="10"/>
+      <c r="M44" s="10"/>
+      <c r="N44" s="10"/>
+    </row>
+    <row r="45" spans="1:52">
+      <c r="D45" s="10"/>
+      <c r="E45" s="7" t="s">
+        <v>1286</v>
+      </c>
+      <c r="F45" s="10"/>
+      <c r="G45" s="10"/>
+      <c r="H45" s="10"/>
+      <c r="I45" s="10"/>
+      <c r="J45" s="10"/>
+      <c r="K45" s="10"/>
+      <c r="L45" s="10"/>
+      <c r="M45" s="10"/>
+      <c r="N45" s="10"/>
+    </row>
+    <row r="46" spans="1:52">
+      <c r="D46" s="10"/>
+      <c r="E46" s="10"/>
+      <c r="F46" s="10"/>
+      <c r="G46" s="10"/>
+      <c r="H46" s="10"/>
+      <c r="I46" s="10"/>
+      <c r="J46" s="10"/>
+      <c r="K46" s="10"/>
+      <c r="L46" s="10"/>
+      <c r="M46" s="10"/>
+      <c r="N46" s="10"/>
+    </row>
+    <row r="60" spans="4:25">
+      <c r="D60" s="31" t="s">
+        <v>904</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>1287</v>
+      </c>
+    </row>
+    <row r="61" spans="4:25">
+      <c r="D61" s="10"/>
+      <c r="E61" s="10"/>
+      <c r="F61" s="10"/>
+      <c r="G61" s="10"/>
+      <c r="H61" s="10"/>
+      <c r="I61" s="10"/>
+      <c r="J61" s="10"/>
+      <c r="K61" s="10"/>
+      <c r="L61" s="10"/>
+      <c r="M61" s="10"/>
+      <c r="N61" s="10"/>
+      <c r="O61" s="10"/>
+      <c r="P61" s="10"/>
+      <c r="Q61" s="10"/>
+      <c r="R61" s="10"/>
+      <c r="S61" s="10"/>
+      <c r="T61" s="10"/>
+      <c r="U61" s="10"/>
+      <c r="V61" s="10"/>
+      <c r="W61" s="10"/>
+      <c r="X61" s="10"/>
+      <c r="Y61" s="10"/>
+    </row>
+    <row r="62" spans="4:25">
+      <c r="D62" s="10"/>
+      <c r="E62" s="7" t="s">
+        <v>1288</v>
+      </c>
+      <c r="F62" s="7"/>
+      <c r="G62" s="7"/>
+      <c r="H62" s="10"/>
+      <c r="I62" s="10"/>
+      <c r="J62" s="10"/>
+      <c r="K62" s="10"/>
+      <c r="L62" s="10"/>
+      <c r="M62" s="10"/>
+      <c r="N62" s="10"/>
+      <c r="O62" s="10"/>
+      <c r="P62" s="10"/>
+      <c r="Q62" s="10"/>
+      <c r="R62" s="10"/>
+      <c r="S62" s="10"/>
+      <c r="T62" s="10"/>
+      <c r="U62" s="10"/>
+      <c r="V62" s="10"/>
+      <c r="W62" s="10"/>
+      <c r="X62" s="10"/>
+      <c r="Y62" s="10"/>
+    </row>
+    <row r="63" spans="4:25">
+      <c r="D63" s="10"/>
+      <c r="E63" s="7" t="s">
+        <v>1289</v>
+      </c>
+      <c r="F63" s="7"/>
+      <c r="G63" s="7"/>
+      <c r="H63" s="10"/>
+      <c r="I63" s="10"/>
+      <c r="J63" s="10"/>
+      <c r="K63" s="10"/>
+      <c r="L63" s="10"/>
+      <c r="M63" s="10"/>
+      <c r="N63" s="10"/>
+      <c r="O63" s="10"/>
+      <c r="P63" s="10"/>
+      <c r="Q63" s="10"/>
+      <c r="R63" s="10"/>
+      <c r="S63" s="10"/>
+      <c r="T63" s="10"/>
+      <c r="U63" s="10"/>
+      <c r="V63" s="10"/>
+      <c r="W63" s="10"/>
+      <c r="X63" s="10"/>
+      <c r="Y63" s="10"/>
+    </row>
+    <row r="64" spans="4:25">
+      <c r="D64" s="10"/>
+      <c r="E64" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="F64" s="7"/>
+      <c r="G64" s="7"/>
+      <c r="H64" s="10"/>
+      <c r="I64" s="10"/>
+      <c r="J64" s="10"/>
+      <c r="K64" s="10"/>
+      <c r="L64" s="10"/>
+      <c r="M64" s="10"/>
+      <c r="N64" s="10"/>
+      <c r="O64" s="10"/>
+      <c r="P64" s="10"/>
+      <c r="Q64" s="10"/>
+      <c r="R64" s="10"/>
+      <c r="S64" s="10"/>
+      <c r="T64" s="10"/>
+      <c r="U64" s="10"/>
+      <c r="V64" s="10"/>
+      <c r="W64" s="10"/>
+      <c r="X64" s="10"/>
+      <c r="Y64" s="10"/>
+    </row>
+    <row r="65" spans="4:25">
+      <c r="D65" s="10"/>
+      <c r="E65" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="F65" s="7"/>
+      <c r="G65" s="7"/>
+      <c r="H65" s="10"/>
+      <c r="I65" s="10"/>
+      <c r="J65" s="10"/>
+      <c r="K65" s="10"/>
+      <c r="L65" s="10"/>
+      <c r="M65" s="10"/>
+      <c r="N65" s="10"/>
+      <c r="O65" s="10"/>
+      <c r="P65" s="10"/>
+      <c r="Q65" s="10"/>
+      <c r="R65" s="10"/>
+      <c r="S65" s="10"/>
+      <c r="T65" s="10"/>
+      <c r="U65" s="10"/>
+      <c r="V65" s="10"/>
+      <c r="W65" s="10"/>
+      <c r="X65" s="10"/>
+      <c r="Y65" s="10"/>
+    </row>
+    <row r="66" spans="4:25">
+      <c r="D66" s="10"/>
+      <c r="E66" s="7"/>
+      <c r="F66" s="7" t="s">
+        <v>1290</v>
+      </c>
+      <c r="G66" s="7"/>
+      <c r="H66" s="10"/>
+      <c r="I66" s="10"/>
+      <c r="J66" s="10"/>
+      <c r="K66" s="10"/>
+      <c r="L66" s="10"/>
+      <c r="M66" s="10"/>
+      <c r="N66" s="10"/>
+      <c r="O66" s="10"/>
+      <c r="P66" s="10"/>
+      <c r="Q66" s="10"/>
+      <c r="R66" s="10"/>
+      <c r="S66" s="10"/>
+      <c r="T66" s="10"/>
+      <c r="U66" s="10"/>
+      <c r="V66" s="10"/>
+      <c r="W66" s="10"/>
+      <c r="X66" s="10"/>
+      <c r="Y66" s="10"/>
+    </row>
+    <row r="67" spans="4:25">
+      <c r="D67" s="10"/>
+      <c r="E67" s="7"/>
+      <c r="F67" s="7" t="s">
+        <v>1291</v>
+      </c>
+      <c r="G67" s="7"/>
+      <c r="H67" s="10"/>
+      <c r="I67" s="10"/>
+      <c r="J67" s="10"/>
+      <c r="K67" s="10"/>
+      <c r="L67" s="10"/>
+      <c r="M67" s="10"/>
+      <c r="N67" s="10"/>
+      <c r="O67" s="10"/>
+      <c r="P67" s="10"/>
+      <c r="Q67" s="10"/>
+      <c r="R67" s="10"/>
+      <c r="S67" s="10"/>
+      <c r="T67" s="10"/>
+      <c r="U67" s="10"/>
+      <c r="V67" s="10"/>
+      <c r="W67" s="10"/>
+      <c r="X67" s="10"/>
+      <c r="Y67" s="10"/>
+    </row>
+    <row r="68" spans="4:25">
+      <c r="D68" s="10"/>
+      <c r="E68" s="7"/>
+      <c r="F68" s="7"/>
+      <c r="G68" s="7" t="s">
+        <v>1292</v>
+      </c>
+      <c r="H68" s="10"/>
+      <c r="I68" s="10"/>
+      <c r="J68" s="10"/>
+      <c r="K68" s="10"/>
+      <c r="L68" s="10"/>
+      <c r="M68" s="10"/>
+      <c r="N68" s="10"/>
+      <c r="O68" s="10"/>
+      <c r="P68" s="10"/>
+      <c r="Q68" s="10"/>
+      <c r="R68" s="10"/>
+      <c r="S68" s="10"/>
+      <c r="T68" s="10"/>
+      <c r="U68" s="10"/>
+      <c r="V68" s="10"/>
+      <c r="W68" s="10"/>
+      <c r="X68" s="10"/>
+      <c r="Y68" s="10"/>
+    </row>
+    <row r="69" spans="4:25">
+      <c r="D69" s="10"/>
+      <c r="E69" s="7"/>
+      <c r="F69" s="7"/>
+      <c r="G69" s="7" t="s">
+        <v>1293</v>
+      </c>
+      <c r="H69" s="10"/>
+      <c r="I69" s="10"/>
+      <c r="J69" s="10"/>
+      <c r="K69" s="10"/>
+      <c r="L69" s="10"/>
+      <c r="M69" s="10"/>
+      <c r="N69" s="10"/>
+      <c r="O69" s="10"/>
+      <c r="P69" s="10"/>
+      <c r="Q69" s="10"/>
+      <c r="R69" s="10"/>
+      <c r="S69" s="10"/>
+      <c r="T69" s="10"/>
+      <c r="U69" s="10"/>
+      <c r="V69" s="10"/>
+      <c r="W69" s="10"/>
+      <c r="X69" s="10"/>
+      <c r="Y69" s="10"/>
+    </row>
+    <row r="70" spans="4:25">
+      <c r="D70" s="10"/>
+      <c r="E70" s="7"/>
+      <c r="F70" s="7"/>
+      <c r="G70" s="7" t="s">
+        <v>1294</v>
+      </c>
+      <c r="H70" s="10"/>
+      <c r="I70" s="10"/>
+      <c r="J70" s="10"/>
+      <c r="K70" s="10"/>
+      <c r="L70" s="10"/>
+      <c r="M70" s="10"/>
+      <c r="N70" s="10"/>
+      <c r="O70" s="10"/>
+      <c r="P70" s="10"/>
+      <c r="Q70" s="10"/>
+      <c r="R70" s="10"/>
+      <c r="S70" s="10"/>
+      <c r="T70" s="10"/>
+      <c r="U70" s="10"/>
+      <c r="V70" s="10"/>
+      <c r="W70" s="10"/>
+      <c r="X70" s="10"/>
+      <c r="Y70" s="10"/>
+    </row>
+    <row r="71" spans="4:25">
+      <c r="D71" s="10"/>
+      <c r="E71" s="7"/>
+      <c r="F71" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="G71" s="7"/>
+      <c r="H71" s="10"/>
+      <c r="I71" s="10"/>
+      <c r="J71" s="10"/>
+      <c r="K71" s="10"/>
+      <c r="L71" s="10"/>
+      <c r="M71" s="10"/>
+      <c r="N71" s="10"/>
+      <c r="O71" s="10"/>
+      <c r="P71" s="10"/>
+      <c r="Q71" s="10"/>
+      <c r="R71" s="10"/>
+      <c r="S71" s="10"/>
+      <c r="T71" s="10"/>
+      <c r="U71" s="10"/>
+      <c r="V71" s="10"/>
+      <c r="W71" s="10"/>
+      <c r="X71" s="10"/>
+      <c r="Y71" s="10"/>
+    </row>
+    <row r="72" spans="4:25">
+      <c r="D72" s="10"/>
+      <c r="E72" s="7"/>
+      <c r="F72" s="7" t="s">
+        <v>1295</v>
+      </c>
+      <c r="G72" s="7"/>
+      <c r="H72" s="10"/>
+      <c r="I72" s="10"/>
+      <c r="J72" s="10"/>
+      <c r="K72" s="10"/>
+      <c r="L72" s="10"/>
+      <c r="M72" s="10"/>
+      <c r="N72" s="10"/>
+      <c r="O72" s="10"/>
+      <c r="P72" s="10"/>
+      <c r="Q72" s="10"/>
+      <c r="R72" s="10"/>
+      <c r="S72" s="10"/>
+      <c r="T72" s="10"/>
+      <c r="U72" s="10"/>
+      <c r="V72" s="10"/>
+      <c r="W72" s="10"/>
+      <c r="X72" s="10"/>
+      <c r="Y72" s="10"/>
+    </row>
+    <row r="73" spans="4:25">
+      <c r="D73" s="10"/>
+      <c r="E73" s="7"/>
+      <c r="F73" s="7"/>
+      <c r="G73" s="7" t="s">
+        <v>1296</v>
+      </c>
+      <c r="H73" s="10"/>
+      <c r="I73" s="10"/>
+      <c r="J73" s="10"/>
+      <c r="K73" s="10"/>
+      <c r="L73" s="10"/>
+      <c r="M73" s="10"/>
+      <c r="N73" s="10"/>
+      <c r="O73" s="10"/>
+      <c r="P73" s="10"/>
+      <c r="Q73" s="10"/>
+      <c r="R73" s="10"/>
+      <c r="S73" s="10"/>
+      <c r="T73" s="10"/>
+      <c r="U73" s="10"/>
+      <c r="V73" s="10"/>
+      <c r="W73" s="10"/>
+      <c r="X73" s="10"/>
+      <c r="Y73" s="10"/>
+    </row>
+    <row r="74" spans="4:25">
+      <c r="D74" s="10"/>
+      <c r="E74" s="7"/>
+      <c r="F74" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="G74" s="7"/>
+      <c r="H74" s="10"/>
+      <c r="I74" s="10"/>
+      <c r="J74" s="10"/>
+      <c r="K74" s="10"/>
+      <c r="L74" s="10"/>
+      <c r="M74" s="10"/>
+      <c r="N74" s="10"/>
+      <c r="O74" s="10"/>
+      <c r="P74" s="10"/>
+      <c r="Q74" s="10"/>
+      <c r="R74" s="10"/>
+      <c r="S74" s="10"/>
+      <c r="T74" s="10"/>
+      <c r="U74" s="10"/>
+      <c r="V74" s="10"/>
+      <c r="W74" s="10"/>
+      <c r="X74" s="10"/>
+      <c r="Y74" s="10"/>
+    </row>
+    <row r="75" spans="4:25">
+      <c r="D75" s="10"/>
+      <c r="E75" s="7"/>
+      <c r="F75" s="7" t="s">
+        <v>1098</v>
+      </c>
+      <c r="G75" s="7"/>
+      <c r="H75" s="10"/>
+      <c r="I75" s="10"/>
+      <c r="J75" s="10"/>
+      <c r="K75" s="10"/>
+      <c r="L75" s="10"/>
+      <c r="M75" s="10"/>
+      <c r="N75" s="10"/>
+      <c r="O75" s="10"/>
+      <c r="P75" s="10"/>
+      <c r="Q75" s="10"/>
+      <c r="R75" s="10"/>
+      <c r="S75" s="10"/>
+      <c r="T75" s="10"/>
+      <c r="U75" s="10"/>
+      <c r="V75" s="10"/>
+      <c r="W75" s="10"/>
+      <c r="X75" s="10"/>
+      <c r="Y75" s="10"/>
+    </row>
+    <row r="76" spans="4:25">
+      <c r="D76" s="10"/>
+      <c r="E76" s="7"/>
+      <c r="F76" s="7"/>
+      <c r="G76" s="7" t="s">
+        <v>1297</v>
+      </c>
+      <c r="H76" s="10"/>
+      <c r="I76" s="10"/>
+      <c r="J76" s="10"/>
+      <c r="K76" s="10"/>
+      <c r="L76" s="10"/>
+      <c r="M76" s="10"/>
+      <c r="N76" s="10"/>
+      <c r="O76" s="10"/>
+      <c r="P76" s="10"/>
+      <c r="Q76" s="10"/>
+      <c r="R76" s="10"/>
+      <c r="S76" s="10"/>
+      <c r="T76" s="10"/>
+      <c r="U76" s="10"/>
+      <c r="V76" s="10"/>
+      <c r="W76" s="10"/>
+      <c r="X76" s="10"/>
+      <c r="Y76" s="10"/>
+    </row>
+    <row r="77" spans="4:25">
+      <c r="D77" s="10"/>
+      <c r="E77" s="7"/>
+      <c r="F77" s="7"/>
+      <c r="G77" s="7" t="s">
+        <v>1298</v>
+      </c>
+      <c r="H77" s="10"/>
+      <c r="I77" s="10"/>
+      <c r="J77" s="10"/>
+      <c r="K77" s="10"/>
+      <c r="L77" s="10"/>
+      <c r="M77" s="10"/>
+      <c r="N77" s="10"/>
+      <c r="O77" s="10"/>
+      <c r="P77" s="10"/>
+      <c r="Q77" s="10"/>
+      <c r="R77" s="10"/>
+      <c r="S77" s="10"/>
+      <c r="T77" s="10"/>
+      <c r="U77" s="10"/>
+      <c r="V77" s="10"/>
+      <c r="W77" s="10"/>
+      <c r="X77" s="10"/>
+      <c r="Y77" s="10"/>
+    </row>
+    <row r="78" spans="4:25">
+      <c r="D78" s="10"/>
+      <c r="E78" s="7"/>
+      <c r="F78" s="7"/>
+      <c r="G78" s="7" t="s">
+        <v>1299</v>
+      </c>
+      <c r="H78" s="10"/>
+      <c r="I78" s="10"/>
+      <c r="J78" s="10"/>
+      <c r="K78" s="10"/>
+      <c r="L78" s="10"/>
+      <c r="M78" s="10"/>
+      <c r="N78" s="10"/>
+      <c r="O78" s="10"/>
+      <c r="P78" s="10"/>
+      <c r="Q78" s="10"/>
+      <c r="R78" s="10"/>
+      <c r="S78" s="10"/>
+      <c r="T78" s="10"/>
+      <c r="U78" s="10"/>
+      <c r="V78" s="10"/>
+      <c r="W78" s="10"/>
+      <c r="X78" s="10"/>
+      <c r="Y78" s="10"/>
+    </row>
+    <row r="79" spans="4:25">
+      <c r="D79" s="10"/>
+      <c r="E79" s="7"/>
+      <c r="F79" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="G79" s="7"/>
+      <c r="H79" s="10"/>
+      <c r="I79" s="10"/>
+      <c r="J79" s="10"/>
+      <c r="K79" s="10"/>
+      <c r="L79" s="10"/>
+      <c r="M79" s="10"/>
+      <c r="N79" s="10"/>
+      <c r="O79" s="10"/>
+      <c r="P79" s="10"/>
+      <c r="Q79" s="10"/>
+      <c r="R79" s="10"/>
+      <c r="S79" s="10"/>
+      <c r="T79" s="10"/>
+      <c r="U79" s="10"/>
+      <c r="V79" s="10"/>
+      <c r="W79" s="10"/>
+      <c r="X79" s="10"/>
+      <c r="Y79" s="10"/>
+    </row>
+    <row r="80" spans="4:25">
+      <c r="D80" s="10"/>
+      <c r="E80" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="F80" s="7"/>
+      <c r="G80" s="7"/>
+      <c r="H80" s="10"/>
+      <c r="I80" s="10"/>
+      <c r="J80" s="10"/>
+      <c r="K80" s="10"/>
+      <c r="L80" s="10"/>
+      <c r="M80" s="10"/>
+      <c r="N80" s="10"/>
+      <c r="O80" s="10"/>
+      <c r="P80" s="10"/>
+      <c r="Q80" s="10"/>
+      <c r="R80" s="10"/>
+      <c r="S80" s="10"/>
+      <c r="T80" s="10"/>
+      <c r="U80" s="10"/>
+      <c r="V80" s="10"/>
+      <c r="W80" s="10"/>
+      <c r="X80" s="10"/>
+      <c r="Y80" s="10"/>
+    </row>
+    <row r="81" spans="4:25">
+      <c r="D81" s="10"/>
+      <c r="E81" s="7"/>
+      <c r="F81" s="7" t="s">
+        <v>1300</v>
+      </c>
+      <c r="G81" s="7"/>
+      <c r="H81" s="10"/>
+      <c r="I81" s="10"/>
+      <c r="J81" s="10"/>
+      <c r="K81" s="10"/>
+      <c r="L81" s="10"/>
+      <c r="M81" s="10"/>
+      <c r="N81" s="10"/>
+      <c r="O81" s="10"/>
+      <c r="P81" s="10"/>
+      <c r="Q81" s="10"/>
+      <c r="R81" s="10"/>
+      <c r="S81" s="10"/>
+      <c r="T81" s="10"/>
+      <c r="U81" s="10"/>
+      <c r="V81" s="10"/>
+      <c r="W81" s="10"/>
+      <c r="X81" s="10"/>
+      <c r="Y81" s="10"/>
+    </row>
+    <row r="82" spans="4:25">
+      <c r="D82" s="10"/>
+      <c r="E82" s="7"/>
+      <c r="F82" s="7" t="s">
+        <v>826</v>
+      </c>
+      <c r="G82" s="7"/>
+      <c r="H82" s="10"/>
+      <c r="I82" s="10"/>
+      <c r="J82" s="10"/>
+      <c r="K82" s="10"/>
+      <c r="L82" s="10"/>
+      <c r="M82" s="10"/>
+      <c r="N82" s="10"/>
+      <c r="O82" s="10"/>
+      <c r="P82" s="10"/>
+      <c r="Q82" s="10"/>
+      <c r="R82" s="10"/>
+      <c r="S82" s="10"/>
+      <c r="T82" s="10"/>
+      <c r="U82" s="10"/>
+      <c r="V82" s="10"/>
+      <c r="W82" s="10"/>
+      <c r="X82" s="10"/>
+      <c r="Y82" s="10"/>
+    </row>
+    <row r="83" spans="4:25">
+      <c r="D83" s="10"/>
+      <c r="E83" s="7"/>
+      <c r="F83" s="7" t="s">
+        <v>1301</v>
+      </c>
+      <c r="G83" s="7"/>
+      <c r="H83" s="10"/>
+      <c r="I83" s="10"/>
+      <c r="J83" s="10"/>
+      <c r="K83" s="10"/>
+      <c r="L83" s="10"/>
+      <c r="M83" s="10"/>
+      <c r="N83" s="10"/>
+      <c r="O83" s="10"/>
+      <c r="P83" s="10"/>
+      <c r="Q83" s="10"/>
+      <c r="R83" s="10"/>
+      <c r="S83" s="10"/>
+      <c r="T83" s="10"/>
+      <c r="U83" s="10"/>
+      <c r="V83" s="10"/>
+      <c r="W83" s="10"/>
+      <c r="X83" s="10"/>
+      <c r="Y83" s="10"/>
+    </row>
+    <row r="84" spans="4:25">
+      <c r="D84" s="10"/>
+      <c r="E84" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="F84" s="7"/>
+      <c r="G84" s="7"/>
+      <c r="H84" s="10"/>
+      <c r="I84" s="10"/>
+      <c r="J84" s="10"/>
+      <c r="K84" s="10"/>
+      <c r="L84" s="10"/>
+      <c r="M84" s="10"/>
+      <c r="N84" s="10"/>
+      <c r="O84" s="10"/>
+      <c r="P84" s="10"/>
+      <c r="Q84" s="10"/>
+      <c r="R84" s="10"/>
+      <c r="S84" s="10"/>
+      <c r="T84" s="10"/>
+      <c r="U84" s="10"/>
+      <c r="V84" s="10"/>
+      <c r="W84" s="10"/>
+      <c r="X84" s="10"/>
+      <c r="Y84" s="10"/>
+    </row>
+    <row r="85" spans="4:25">
+      <c r="D85" s="10"/>
+      <c r="E85" s="10"/>
+      <c r="F85" s="10"/>
+      <c r="G85" s="10"/>
+      <c r="H85" s="10"/>
+      <c r="I85" s="10"/>
+      <c r="J85" s="10"/>
+      <c r="K85" s="10"/>
+      <c r="L85" s="10"/>
+      <c r="M85" s="10"/>
+      <c r="N85" s="10"/>
+      <c r="O85" s="10"/>
+      <c r="P85" s="10"/>
+      <c r="Q85" s="10"/>
+      <c r="R85" s="10"/>
+      <c r="S85" s="10"/>
+      <c r="T85" s="10"/>
+      <c r="U85" s="10"/>
+      <c r="V85" s="10"/>
+      <c r="W85" s="10"/>
+      <c r="X85" s="10"/>
+      <c r="Y85" s="10"/>
+    </row>
+    <row r="88" spans="4:25">
+      <c r="D88" s="31" t="s">
+        <v>904</v>
+      </c>
+      <c r="E88" s="2" t="s">
+        <v>1302</v>
+      </c>
+    </row>
+    <row r="89" spans="4:25">
+      <c r="D89" s="10"/>
+      <c r="E89" s="10"/>
+      <c r="F89" s="10"/>
+      <c r="G89" s="10"/>
+      <c r="H89" s="10"/>
+      <c r="I89" s="10"/>
+      <c r="J89" s="10"/>
+      <c r="K89" s="10"/>
+      <c r="L89" s="10"/>
+      <c r="M89" s="10"/>
+      <c r="N89" s="10"/>
+      <c r="O89" s="10"/>
+      <c r="P89" s="10"/>
+      <c r="Q89" s="10"/>
+      <c r="R89" s="10"/>
+      <c r="S89" s="10"/>
+      <c r="T89" s="10"/>
+      <c r="U89" s="10"/>
+      <c r="V89" s="10"/>
+      <c r="W89" s="10"/>
+      <c r="X89" s="10"/>
+      <c r="Y89" s="10"/>
+    </row>
+    <row r="90" spans="4:25">
+      <c r="D90" s="10"/>
+      <c r="E90" s="7" t="s">
+        <v>1303</v>
+      </c>
+      <c r="F90" s="7"/>
+      <c r="G90" s="7"/>
+      <c r="H90" s="10"/>
+      <c r="I90" s="10"/>
+      <c r="J90" s="10"/>
+      <c r="K90" s="10"/>
+      <c r="L90" s="10"/>
+      <c r="M90" s="10"/>
+      <c r="N90" s="10"/>
+      <c r="O90" s="10"/>
+      <c r="P90" s="10"/>
+      <c r="Q90" s="10"/>
+      <c r="R90" s="10"/>
+      <c r="S90" s="10"/>
+      <c r="T90" s="10"/>
+      <c r="U90" s="10"/>
+      <c r="V90" s="10"/>
+      <c r="W90" s="10"/>
+      <c r="X90" s="10"/>
+      <c r="Y90" s="10"/>
+    </row>
+    <row r="91" spans="4:25">
+      <c r="D91" s="10"/>
+      <c r="E91" s="7" t="s">
+        <v>1304</v>
+      </c>
+      <c r="F91" s="7"/>
+      <c r="G91" s="7"/>
+      <c r="H91" s="10"/>
+      <c r="I91" s="10"/>
+      <c r="J91" s="10"/>
+      <c r="K91" s="10"/>
+      <c r="L91" s="10"/>
+      <c r="M91" s="10"/>
+      <c r="N91" s="10"/>
+      <c r="O91" s="10"/>
+      <c r="P91" s="10"/>
+      <c r="Q91" s="10"/>
+      <c r="R91" s="10"/>
+      <c r="S91" s="10"/>
+      <c r="T91" s="10"/>
+      <c r="U91" s="10"/>
+      <c r="V91" s="10"/>
+      <c r="W91" s="10"/>
+      <c r="X91" s="10"/>
+      <c r="Y91" s="10"/>
+    </row>
+    <row r="92" spans="4:25">
+      <c r="D92" s="10"/>
+      <c r="E92" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="F92" s="7"/>
+      <c r="G92" s="7"/>
+      <c r="H92" s="10"/>
+      <c r="I92" s="10"/>
+      <c r="J92" s="10"/>
+      <c r="K92" s="10"/>
+      <c r="L92" s="10"/>
+      <c r="M92" s="10"/>
+      <c r="N92" s="10"/>
+      <c r="O92" s="10"/>
+      <c r="P92" s="10"/>
+      <c r="Q92" s="10"/>
+      <c r="R92" s="10"/>
+      <c r="S92" s="10"/>
+      <c r="T92" s="10"/>
+      <c r="U92" s="10"/>
+      <c r="V92" s="10"/>
+      <c r="W92" s="10"/>
+      <c r="X92" s="10"/>
+      <c r="Y92" s="10"/>
+    </row>
+    <row r="93" spans="4:25">
+      <c r="D93" s="10"/>
+      <c r="E93" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="F93" s="7"/>
+      <c r="G93" s="7"/>
+      <c r="H93" s="10"/>
+      <c r="I93" s="10"/>
+      <c r="J93" s="10"/>
+      <c r="K93" s="10"/>
+      <c r="L93" s="10"/>
+      <c r="M93" s="10"/>
+      <c r="N93" s="10"/>
+      <c r="O93" s="10"/>
+      <c r="P93" s="10"/>
+      <c r="Q93" s="10"/>
+      <c r="R93" s="10"/>
+      <c r="S93" s="10"/>
+      <c r="T93" s="10"/>
+      <c r="U93" s="10"/>
+      <c r="V93" s="10"/>
+      <c r="W93" s="10"/>
+      <c r="X93" s="10"/>
+      <c r="Y93" s="10"/>
+    </row>
+    <row r="94" spans="4:25">
+      <c r="D94" s="10"/>
+      <c r="E94" s="7"/>
+      <c r="F94" s="7" t="s">
+        <v>1305</v>
+      </c>
+      <c r="G94" s="7"/>
+      <c r="H94" s="10"/>
+      <c r="I94" s="10"/>
+      <c r="J94" s="10"/>
+      <c r="K94" s="10"/>
+      <c r="L94" s="10"/>
+      <c r="M94" s="10"/>
+      <c r="N94" s="10"/>
+      <c r="O94" s="10"/>
+      <c r="P94" s="10"/>
+      <c r="Q94" s="10"/>
+      <c r="R94" s="10"/>
+      <c r="S94" s="10"/>
+      <c r="T94" s="10"/>
+      <c r="U94" s="10"/>
+      <c r="V94" s="10"/>
+      <c r="W94" s="10"/>
+      <c r="X94" s="10"/>
+      <c r="Y94" s="10"/>
+    </row>
+    <row r="95" spans="4:25">
+      <c r="D95" s="10"/>
+      <c r="E95" s="7"/>
+      <c r="F95" s="7" t="s">
+        <v>1306</v>
+      </c>
+      <c r="G95" s="7"/>
+      <c r="H95" s="10"/>
+      <c r="I95" s="10"/>
+      <c r="J95" s="10"/>
+      <c r="K95" s="10"/>
+      <c r="L95" s="10"/>
+      <c r="M95" s="10"/>
+      <c r="N95" s="10"/>
+      <c r="O95" s="10"/>
+      <c r="P95" s="10"/>
+      <c r="Q95" s="10"/>
+      <c r="R95" s="10"/>
+      <c r="S95" s="10"/>
+      <c r="T95" s="10"/>
+      <c r="U95" s="10"/>
+      <c r="V95" s="10"/>
+      <c r="W95" s="10"/>
+      <c r="X95" s="10"/>
+      <c r="Y95" s="10"/>
+    </row>
+    <row r="96" spans="4:25">
+      <c r="D96" s="10"/>
+      <c r="E96" s="7"/>
+      <c r="F96" s="7"/>
+      <c r="G96" s="7" t="s">
+        <v>1307</v>
+      </c>
+      <c r="H96" s="10"/>
+      <c r="I96" s="10"/>
+      <c r="J96" s="10"/>
+      <c r="K96" s="10"/>
+      <c r="L96" s="10"/>
+      <c r="M96" s="10"/>
+      <c r="N96" s="10"/>
+      <c r="O96" s="10"/>
+      <c r="P96" s="10"/>
+      <c r="Q96" s="10"/>
+      <c r="R96" s="10"/>
+      <c r="S96" s="10"/>
+      <c r="T96" s="10"/>
+      <c r="U96" s="10"/>
+      <c r="V96" s="10"/>
+      <c r="W96" s="10"/>
+      <c r="X96" s="10"/>
+      <c r="Y96" s="10"/>
+    </row>
+    <row r="97" spans="4:25">
+      <c r="D97" s="10"/>
+      <c r="E97" s="7"/>
+      <c r="F97" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="G97" s="7"/>
+      <c r="H97" s="10"/>
+      <c r="I97" s="10"/>
+      <c r="J97" s="10"/>
+      <c r="K97" s="10"/>
+      <c r="L97" s="10"/>
+      <c r="M97" s="10"/>
+      <c r="N97" s="10"/>
+      <c r="O97" s="10"/>
+      <c r="P97" s="10"/>
+      <c r="Q97" s="10"/>
+      <c r="R97" s="10"/>
+      <c r="S97" s="10"/>
+      <c r="T97" s="10"/>
+      <c r="U97" s="10"/>
+      <c r="V97" s="10"/>
+      <c r="W97" s="10"/>
+      <c r="X97" s="10"/>
+      <c r="Y97" s="10"/>
+    </row>
+    <row r="98" spans="4:25">
+      <c r="D98" s="10"/>
+      <c r="E98" s="7"/>
+      <c r="F98" s="7" t="s">
+        <v>1308</v>
+      </c>
+      <c r="G98" s="7"/>
+      <c r="H98" s="10"/>
+      <c r="I98" s="10"/>
+      <c r="J98" s="10"/>
+      <c r="K98" s="10"/>
+      <c r="L98" s="10"/>
+      <c r="M98" s="10"/>
+      <c r="N98" s="10"/>
+      <c r="O98" s="10"/>
+      <c r="P98" s="10"/>
+      <c r="Q98" s="10"/>
+      <c r="R98" s="10"/>
+      <c r="S98" s="10"/>
+      <c r="T98" s="10"/>
+      <c r="U98" s="10"/>
+      <c r="V98" s="10"/>
+      <c r="W98" s="10"/>
+      <c r="X98" s="10"/>
+      <c r="Y98" s="10"/>
+    </row>
+    <row r="99" spans="4:25">
+      <c r="D99" s="10"/>
+      <c r="E99" s="7"/>
+      <c r="F99" s="7" t="s">
+        <v>1309</v>
+      </c>
+      <c r="G99" s="7"/>
+      <c r="H99" s="10"/>
+      <c r="I99" s="10"/>
+      <c r="J99" s="10"/>
+      <c r="K99" s="10"/>
+      <c r="L99" s="10"/>
+      <c r="M99" s="10"/>
+      <c r="N99" s="10"/>
+      <c r="O99" s="10"/>
+      <c r="P99" s="10"/>
+      <c r="Q99" s="10"/>
+      <c r="R99" s="10"/>
+      <c r="S99" s="10"/>
+      <c r="T99" s="10"/>
+      <c r="U99" s="10"/>
+      <c r="V99" s="10"/>
+      <c r="W99" s="10"/>
+      <c r="X99" s="10"/>
+      <c r="Y99" s="10"/>
+    </row>
+    <row r="100" spans="4:25">
+      <c r="D100" s="10"/>
+      <c r="E100" s="7"/>
+      <c r="F100" s="7"/>
+      <c r="G100" s="7" t="s">
+        <v>1310</v>
+      </c>
+      <c r="H100" s="10"/>
+      <c r="I100" s="10"/>
+      <c r="J100" s="10"/>
+      <c r="K100" s="10"/>
+      <c r="L100" s="10"/>
+      <c r="M100" s="10"/>
+      <c r="N100" s="10"/>
+      <c r="O100" s="10"/>
+      <c r="P100" s="10"/>
+      <c r="Q100" s="10"/>
+      <c r="R100" s="10"/>
+      <c r="S100" s="10"/>
+      <c r="T100" s="10"/>
+      <c r="U100" s="10"/>
+      <c r="V100" s="10"/>
+      <c r="W100" s="10"/>
+      <c r="X100" s="10"/>
+      <c r="Y100" s="10"/>
+    </row>
+    <row r="101" spans="4:25">
+      <c r="D101" s="10"/>
+      <c r="E101" s="7"/>
+      <c r="F101" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="G101" s="7"/>
+      <c r="H101" s="10"/>
+      <c r="I101" s="10"/>
+      <c r="J101" s="10"/>
+      <c r="K101" s="10"/>
+      <c r="L101" s="10"/>
+      <c r="M101" s="10"/>
+      <c r="N101" s="10"/>
+      <c r="O101" s="10"/>
+      <c r="P101" s="10"/>
+      <c r="Q101" s="10"/>
+      <c r="R101" s="10"/>
+      <c r="S101" s="10"/>
+      <c r="T101" s="10"/>
+      <c r="U101" s="10"/>
+      <c r="V101" s="10"/>
+      <c r="W101" s="10"/>
+      <c r="X101" s="10"/>
+      <c r="Y101" s="10"/>
+    </row>
+    <row r="102" spans="4:25">
+      <c r="D102" s="10"/>
+      <c r="E102" s="7"/>
+      <c r="F102" s="7" t="s">
+        <v>1311</v>
+      </c>
+      <c r="G102" s="7"/>
+      <c r="H102" s="10"/>
+      <c r="I102" s="10"/>
+      <c r="J102" s="10"/>
+      <c r="K102" s="10"/>
+      <c r="L102" s="10"/>
+      <c r="M102" s="10"/>
+      <c r="N102" s="10"/>
+      <c r="O102" s="10"/>
+      <c r="P102" s="10"/>
+      <c r="Q102" s="10"/>
+      <c r="R102" s="10"/>
+      <c r="S102" s="10"/>
+      <c r="T102" s="10"/>
+      <c r="U102" s="10"/>
+      <c r="V102" s="10"/>
+      <c r="W102" s="10"/>
+      <c r="X102" s="10"/>
+      <c r="Y102" s="10"/>
+    </row>
+    <row r="103" spans="4:25">
+      <c r="D103" s="10"/>
+      <c r="E103" s="7"/>
+      <c r="F103" s="7" t="s">
+        <v>1312</v>
+      </c>
+      <c r="G103" s="7"/>
+      <c r="H103" s="10"/>
+      <c r="I103" s="10"/>
+      <c r="J103" s="10"/>
+      <c r="K103" s="10"/>
+      <c r="L103" s="10"/>
+      <c r="M103" s="10"/>
+      <c r="N103" s="10"/>
+      <c r="O103" s="10"/>
+      <c r="P103" s="10"/>
+      <c r="Q103" s="10"/>
+      <c r="R103" s="10"/>
+      <c r="S103" s="10"/>
+      <c r="T103" s="10"/>
+      <c r="U103" s="10"/>
+      <c r="V103" s="10"/>
+      <c r="W103" s="10"/>
+      <c r="X103" s="10"/>
+      <c r="Y103" s="10"/>
+    </row>
+    <row r="104" spans="4:25">
+      <c r="D104" s="10"/>
+      <c r="E104" s="7"/>
+      <c r="F104" s="7" t="s">
+        <v>824</v>
+      </c>
+      <c r="G104" s="7"/>
+      <c r="H104" s="10"/>
+      <c r="I104" s="10"/>
+      <c r="J104" s="10"/>
+      <c r="K104" s="10"/>
+      <c r="L104" s="10"/>
+      <c r="M104" s="10"/>
+      <c r="N104" s="10"/>
+      <c r="O104" s="10"/>
+      <c r="P104" s="10"/>
+      <c r="Q104" s="10"/>
+      <c r="R104" s="10"/>
+      <c r="S104" s="10"/>
+      <c r="T104" s="10"/>
+      <c r="U104" s="10"/>
+      <c r="V104" s="10"/>
+      <c r="W104" s="10"/>
+      <c r="X104" s="10"/>
+      <c r="Y104" s="10"/>
+    </row>
+    <row r="105" spans="4:25">
+      <c r="D105" s="10"/>
+      <c r="E105" s="7"/>
+      <c r="F105" s="7"/>
+      <c r="G105" s="7" t="s">
+        <v>825</v>
+      </c>
+      <c r="H105" s="10"/>
+      <c r="I105" s="10"/>
+      <c r="J105" s="10"/>
+      <c r="K105" s="10"/>
+      <c r="L105" s="10"/>
+      <c r="M105" s="10"/>
+      <c r="N105" s="10"/>
+      <c r="O105" s="10"/>
+      <c r="P105" s="10"/>
+      <c r="Q105" s="10"/>
+      <c r="R105" s="10"/>
+      <c r="S105" s="10"/>
+      <c r="T105" s="10"/>
+      <c r="U105" s="10"/>
+      <c r="V105" s="10"/>
+      <c r="W105" s="10"/>
+      <c r="X105" s="10"/>
+      <c r="Y105" s="10"/>
+    </row>
+    <row r="106" spans="4:25">
+      <c r="D106" s="10"/>
+      <c r="E106" s="7"/>
+      <c r="F106" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="G106" s="7"/>
+      <c r="H106" s="10"/>
+      <c r="I106" s="10"/>
+      <c r="J106" s="10"/>
+      <c r="K106" s="10"/>
+      <c r="L106" s="10"/>
+      <c r="M106" s="10"/>
+      <c r="N106" s="10"/>
+      <c r="O106" s="10"/>
+      <c r="P106" s="10"/>
+      <c r="Q106" s="10"/>
+      <c r="R106" s="10"/>
+      <c r="S106" s="10"/>
+      <c r="T106" s="10"/>
+      <c r="U106" s="10"/>
+      <c r="V106" s="10"/>
+      <c r="W106" s="10"/>
+      <c r="X106" s="10"/>
+      <c r="Y106" s="10"/>
+    </row>
+    <row r="107" spans="4:25">
+      <c r="D107" s="10"/>
+      <c r="E107" s="7"/>
+      <c r="F107" s="7" t="s">
+        <v>1313</v>
+      </c>
+      <c r="G107" s="7"/>
+      <c r="H107" s="10"/>
+      <c r="I107" s="10"/>
+      <c r="J107" s="10"/>
+      <c r="K107" s="10"/>
+      <c r="L107" s="10"/>
+      <c r="M107" s="10"/>
+      <c r="N107" s="10"/>
+      <c r="O107" s="10"/>
+      <c r="P107" s="10"/>
+      <c r="Q107" s="10"/>
+      <c r="R107" s="10"/>
+      <c r="S107" s="10"/>
+      <c r="T107" s="10"/>
+      <c r="U107" s="10"/>
+      <c r="V107" s="10"/>
+      <c r="W107" s="10"/>
+      <c r="X107" s="10"/>
+      <c r="Y107" s="10"/>
+    </row>
+    <row r="108" spans="4:25">
+      <c r="D108" s="10"/>
+      <c r="E108" s="7"/>
+      <c r="F108" s="7"/>
+      <c r="G108" s="7" t="s">
+        <v>1293</v>
+      </c>
+      <c r="H108" s="10"/>
+      <c r="I108" s="10"/>
+      <c r="J108" s="10"/>
+      <c r="K108" s="10"/>
+      <c r="L108" s="10"/>
+      <c r="M108" s="10"/>
+      <c r="N108" s="10"/>
+      <c r="O108" s="10"/>
+      <c r="P108" s="10"/>
+      <c r="Q108" s="10"/>
+      <c r="R108" s="10"/>
+      <c r="S108" s="10"/>
+      <c r="T108" s="10"/>
+      <c r="U108" s="10"/>
+      <c r="V108" s="10"/>
+      <c r="W108" s="10"/>
+      <c r="X108" s="10"/>
+      <c r="Y108" s="10"/>
+    </row>
+    <row r="109" spans="4:25">
+      <c r="D109" s="10"/>
+      <c r="E109" s="7"/>
+      <c r="F109" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="G109" s="7"/>
+      <c r="H109" s="10"/>
+      <c r="I109" s="10"/>
+      <c r="J109" s="10"/>
+      <c r="K109" s="10"/>
+      <c r="L109" s="10"/>
+      <c r="M109" s="10"/>
+      <c r="N109" s="10"/>
+      <c r="O109" s="10"/>
+      <c r="P109" s="10"/>
+      <c r="Q109" s="10"/>
+      <c r="R109" s="10"/>
+      <c r="S109" s="10"/>
+      <c r="T109" s="10"/>
+      <c r="U109" s="10"/>
+      <c r="V109" s="10"/>
+      <c r="W109" s="10"/>
+      <c r="X109" s="10"/>
+      <c r="Y109" s="10"/>
+    </row>
+    <row r="110" spans="4:25">
+      <c r="D110" s="10"/>
+      <c r="E110" s="7" t="s">
+        <v>1314</v>
+      </c>
+      <c r="F110" s="7"/>
+      <c r="G110" s="7"/>
+      <c r="H110" s="10"/>
+      <c r="I110" s="10"/>
+      <c r="J110" s="10"/>
+      <c r="K110" s="10"/>
+      <c r="L110" s="10"/>
+      <c r="M110" s="10"/>
+      <c r="N110" s="10"/>
+      <c r="O110" s="10"/>
+      <c r="P110" s="10"/>
+      <c r="Q110" s="10"/>
+      <c r="R110" s="10"/>
+      <c r="S110" s="10"/>
+      <c r="T110" s="10"/>
+      <c r="U110" s="10"/>
+      <c r="V110" s="10"/>
+      <c r="W110" s="10"/>
+      <c r="X110" s="10"/>
+      <c r="Y110" s="10"/>
+    </row>
+    <row r="111" spans="4:25">
+      <c r="D111" s="10"/>
+      <c r="E111" s="7"/>
+      <c r="F111" s="7" t="s">
+        <v>1315</v>
+      </c>
+      <c r="G111" s="7"/>
+      <c r="H111" s="10"/>
+      <c r="I111" s="10"/>
+      <c r="J111" s="10"/>
+      <c r="K111" s="10"/>
+      <c r="L111" s="10"/>
+      <c r="M111" s="10"/>
+      <c r="N111" s="10"/>
+      <c r="O111" s="10"/>
+      <c r="P111" s="10"/>
+      <c r="Q111" s="10"/>
+      <c r="R111" s="10"/>
+      <c r="S111" s="10"/>
+      <c r="T111" s="10"/>
+      <c r="U111" s="10"/>
+      <c r="V111" s="10"/>
+      <c r="W111" s="10"/>
+      <c r="X111" s="10"/>
+      <c r="Y111" s="10"/>
+    </row>
+    <row r="112" spans="4:25">
+      <c r="D112" s="10"/>
+      <c r="E112" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="F112" s="7"/>
+      <c r="G112" s="7"/>
+      <c r="H112" s="10"/>
+      <c r="I112" s="10"/>
+      <c r="J112" s="10"/>
+      <c r="K112" s="10"/>
+      <c r="L112" s="10"/>
+      <c r="M112" s="10"/>
+      <c r="N112" s="10"/>
+      <c r="O112" s="10"/>
+      <c r="P112" s="10"/>
+      <c r="Q112" s="10"/>
+      <c r="R112" s="10"/>
+      <c r="S112" s="10"/>
+      <c r="T112" s="10"/>
+      <c r="U112" s="10"/>
+      <c r="V112" s="10"/>
+      <c r="W112" s="10"/>
+      <c r="X112" s="10"/>
+      <c r="Y112" s="10"/>
+    </row>
+    <row r="113" spans="4:35">
+      <c r="D113" s="10"/>
+      <c r="E113" s="7"/>
+      <c r="F113" s="7" t="s">
+        <v>826</v>
+      </c>
+      <c r="G113" s="7"/>
+      <c r="H113" s="10"/>
+      <c r="I113" s="10"/>
+      <c r="J113" s="10"/>
+      <c r="K113" s="10"/>
+      <c r="L113" s="10"/>
+      <c r="M113" s="10"/>
+      <c r="N113" s="10"/>
+      <c r="O113" s="10"/>
+      <c r="P113" s="10"/>
+      <c r="Q113" s="10"/>
+      <c r="R113" s="10"/>
+      <c r="S113" s="10"/>
+      <c r="T113" s="10"/>
+      <c r="U113" s="10"/>
+      <c r="V113" s="10"/>
+      <c r="W113" s="10"/>
+      <c r="X113" s="10"/>
+      <c r="Y113" s="10"/>
+    </row>
+    <row r="114" spans="4:35">
+      <c r="D114" s="10"/>
+      <c r="E114" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="F114" s="7"/>
+      <c r="G114" s="7"/>
+      <c r="H114" s="10"/>
+      <c r="I114" s="10"/>
+      <c r="J114" s="10"/>
+      <c r="K114" s="10"/>
+      <c r="L114" s="10"/>
+      <c r="M114" s="10"/>
+      <c r="N114" s="10"/>
+      <c r="O114" s="10"/>
+      <c r="P114" s="10"/>
+      <c r="Q114" s="10"/>
+      <c r="R114" s="10"/>
+      <c r="S114" s="10"/>
+      <c r="T114" s="10"/>
+      <c r="U114" s="10"/>
+      <c r="V114" s="10"/>
+      <c r="W114" s="10"/>
+      <c r="X114" s="10"/>
+      <c r="Y114" s="10"/>
+    </row>
+    <row r="115" spans="4:35">
+      <c r="D115" s="10"/>
+      <c r="E115" s="10"/>
+      <c r="F115" s="10"/>
+      <c r="G115" s="10"/>
+      <c r="H115" s="10"/>
+      <c r="I115" s="10"/>
+      <c r="J115" s="10"/>
+      <c r="K115" s="10"/>
+      <c r="L115" s="10"/>
+      <c r="M115" s="10"/>
+      <c r="N115" s="10"/>
+      <c r="O115" s="10"/>
+      <c r="P115" s="10"/>
+      <c r="Q115" s="10"/>
+      <c r="R115" s="10"/>
+      <c r="S115" s="10"/>
+      <c r="T115" s="10"/>
+      <c r="U115" s="10"/>
+      <c r="V115" s="10"/>
+      <c r="W115" s="10"/>
+      <c r="X115" s="10"/>
+      <c r="Y115" s="10"/>
+    </row>
+    <row r="118" spans="4:35">
+      <c r="D118" s="31" t="s">
+        <v>904</v>
+      </c>
+      <c r="E118" s="2" t="s">
+        <v>1316</v>
+      </c>
+    </row>
+    <row r="119" spans="4:35">
+      <c r="D119" s="2" t="s">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="120" spans="4:35">
+      <c r="D120" s="10"/>
+      <c r="E120" s="10"/>
+      <c r="F120" s="10"/>
+      <c r="G120" s="10"/>
+      <c r="H120" s="10"/>
+      <c r="I120" s="10"/>
+      <c r="J120" s="10"/>
+      <c r="K120" s="10"/>
+      <c r="L120" s="10"/>
+      <c r="M120" s="10"/>
+      <c r="N120" s="10"/>
+      <c r="O120" s="10"/>
+      <c r="P120" s="10"/>
+      <c r="Q120" s="10"/>
+      <c r="R120" s="10"/>
+      <c r="S120" s="10"/>
+      <c r="T120" s="10"/>
+      <c r="U120" s="10"/>
+      <c r="V120" s="10"/>
+      <c r="W120" s="10"/>
+      <c r="X120" s="10"/>
+      <c r="Y120" s="10"/>
+      <c r="Z120" s="10"/>
+      <c r="AA120" s="10"/>
+      <c r="AB120" s="10"/>
+      <c r="AC120" s="10"/>
+      <c r="AD120" s="10"/>
+      <c r="AE120" s="10"/>
+      <c r="AF120" s="10"/>
+      <c r="AG120" s="10"/>
+      <c r="AH120" s="10"/>
+      <c r="AI120" s="10"/>
+    </row>
+    <row r="121" spans="4:35">
+      <c r="D121" s="10"/>
+      <c r="E121" s="7" t="s">
+        <v>1318</v>
+      </c>
+      <c r="F121" s="7"/>
+      <c r="G121" s="7"/>
+      <c r="H121" s="7"/>
+      <c r="I121" s="10"/>
+      <c r="J121" s="10"/>
+      <c r="K121" s="10"/>
+      <c r="L121" s="10"/>
+      <c r="M121" s="10"/>
+      <c r="N121" s="10"/>
+      <c r="O121" s="10"/>
+      <c r="P121" s="10"/>
+      <c r="Q121" s="10"/>
+      <c r="R121" s="10"/>
+      <c r="S121" s="10"/>
+      <c r="T121" s="10"/>
+      <c r="U121" s="10"/>
+      <c r="V121" s="10"/>
+      <c r="W121" s="10"/>
+      <c r="X121" s="10"/>
+      <c r="Y121" s="10"/>
+      <c r="Z121" s="10"/>
+      <c r="AA121" s="10"/>
+      <c r="AB121" s="10"/>
+      <c r="AC121" s="10"/>
+      <c r="AD121" s="10"/>
+      <c r="AE121" s="10"/>
+      <c r="AF121" s="10"/>
+      <c r="AG121" s="10"/>
+      <c r="AH121" s="10"/>
+      <c r="AI121" s="10"/>
+    </row>
+    <row r="122" spans="4:35">
+      <c r="D122" s="10"/>
+      <c r="E122" s="7" t="s">
+        <v>1319</v>
+      </c>
+      <c r="F122" s="7"/>
+      <c r="G122" s="7"/>
+      <c r="H122" s="7"/>
+      <c r="I122" s="10"/>
+      <c r="J122" s="10"/>
+      <c r="K122" s="10"/>
+      <c r="L122" s="10"/>
+      <c r="M122" s="10"/>
+      <c r="N122" s="10"/>
+      <c r="O122" s="10"/>
+      <c r="P122" s="10"/>
+      <c r="Q122" s="10"/>
+      <c r="R122" s="10"/>
+      <c r="S122" s="10"/>
+      <c r="T122" s="10"/>
+      <c r="U122" s="10"/>
+      <c r="V122" s="10"/>
+      <c r="W122" s="10"/>
+      <c r="X122" s="10"/>
+      <c r="Y122" s="10"/>
+      <c r="Z122" s="10"/>
+      <c r="AA122" s="10"/>
+      <c r="AB122" s="10"/>
+      <c r="AC122" s="10"/>
+      <c r="AD122" s="10"/>
+      <c r="AE122" s="10"/>
+      <c r="AF122" s="10"/>
+      <c r="AG122" s="10"/>
+      <c r="AH122" s="10"/>
+      <c r="AI122" s="10"/>
+    </row>
+    <row r="123" spans="4:35">
+      <c r="D123" s="10"/>
+      <c r="E123" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="F123" s="7"/>
+      <c r="G123" s="7"/>
+      <c r="H123" s="7"/>
+      <c r="I123" s="10"/>
+      <c r="J123" s="10"/>
+      <c r="K123" s="10"/>
+      <c r="L123" s="10"/>
+      <c r="M123" s="10"/>
+      <c r="N123" s="10"/>
+      <c r="O123" s="10"/>
+      <c r="P123" s="10"/>
+      <c r="Q123" s="10"/>
+      <c r="R123" s="10"/>
+      <c r="S123" s="10"/>
+      <c r="T123" s="10"/>
+      <c r="U123" s="10"/>
+      <c r="V123" s="10"/>
+      <c r="W123" s="10"/>
+      <c r="X123" s="10"/>
+      <c r="Y123" s="10"/>
+      <c r="Z123" s="10"/>
+      <c r="AA123" s="10"/>
+      <c r="AB123" s="10"/>
+      <c r="AC123" s="10"/>
+      <c r="AD123" s="10"/>
+      <c r="AE123" s="10"/>
+      <c r="AF123" s="10"/>
+      <c r="AG123" s="10"/>
+      <c r="AH123" s="10"/>
+      <c r="AI123" s="10"/>
+    </row>
+    <row r="124" spans="4:35">
+      <c r="D124" s="10"/>
+      <c r="E124" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="F124" s="7"/>
+      <c r="G124" s="7"/>
+      <c r="H124" s="7"/>
+      <c r="I124" s="10"/>
+      <c r="J124" s="10"/>
+      <c r="K124" s="10"/>
+      <c r="L124" s="10"/>
+      <c r="M124" s="10"/>
+      <c r="N124" s="10"/>
+      <c r="O124" s="10"/>
+      <c r="P124" s="10"/>
+      <c r="Q124" s="10"/>
+      <c r="R124" s="10"/>
+      <c r="S124" s="10"/>
+      <c r="T124" s="10"/>
+      <c r="U124" s="10"/>
+      <c r="V124" s="10"/>
+      <c r="W124" s="10"/>
+      <c r="X124" s="10"/>
+      <c r="Y124" s="10"/>
+      <c r="Z124" s="10"/>
+      <c r="AA124" s="10"/>
+      <c r="AB124" s="10"/>
+      <c r="AC124" s="10"/>
+      <c r="AD124" s="10"/>
+      <c r="AE124" s="10"/>
+      <c r="AF124" s="10"/>
+      <c r="AG124" s="10"/>
+      <c r="AH124" s="10"/>
+      <c r="AI124" s="10"/>
+    </row>
+    <row r="125" spans="4:35">
+      <c r="D125" s="10"/>
+      <c r="E125" s="7"/>
+      <c r="F125" s="7" t="s">
+        <v>1320</v>
+      </c>
+      <c r="G125" s="7"/>
+      <c r="H125" s="7"/>
+      <c r="I125" s="10"/>
+      <c r="J125" s="10"/>
+      <c r="K125" s="10"/>
+      <c r="L125" s="10"/>
+      <c r="M125" s="10"/>
+      <c r="N125" s="10"/>
+      <c r="O125" s="10"/>
+      <c r="P125" s="10"/>
+      <c r="Q125" s="10"/>
+      <c r="R125" s="10"/>
+      <c r="S125" s="10"/>
+      <c r="T125" s="10"/>
+      <c r="U125" s="10"/>
+      <c r="V125" s="10"/>
+      <c r="W125" s="10"/>
+      <c r="X125" s="10"/>
+      <c r="Y125" s="10"/>
+      <c r="Z125" s="10"/>
+      <c r="AA125" s="10"/>
+      <c r="AB125" s="10"/>
+      <c r="AC125" s="10"/>
+      <c r="AD125" s="10"/>
+      <c r="AE125" s="10"/>
+      <c r="AF125" s="10"/>
+      <c r="AG125" s="10"/>
+      <c r="AH125" s="10"/>
+      <c r="AI125" s="10"/>
+    </row>
+    <row r="126" spans="4:35">
+      <c r="D126" s="10"/>
+      <c r="E126" s="7"/>
+      <c r="F126" s="7" t="s">
+        <v>1321</v>
+      </c>
+      <c r="G126" s="7"/>
+      <c r="H126" s="7"/>
+      <c r="I126" s="10"/>
+      <c r="J126" s="10"/>
+      <c r="K126" s="10"/>
+      <c r="L126" s="10"/>
+      <c r="M126" s="10"/>
+      <c r="N126" s="10"/>
+      <c r="O126" s="10"/>
+      <c r="P126" s="10"/>
+      <c r="Q126" s="10"/>
+      <c r="R126" s="10"/>
+      <c r="S126" s="10"/>
+      <c r="T126" s="10"/>
+      <c r="U126" s="10"/>
+      <c r="V126" s="10"/>
+      <c r="W126" s="10"/>
+      <c r="X126" s="10"/>
+      <c r="Y126" s="10"/>
+      <c r="Z126" s="10"/>
+      <c r="AA126" s="10"/>
+      <c r="AB126" s="10"/>
+      <c r="AC126" s="10"/>
+      <c r="AD126" s="10"/>
+      <c r="AE126" s="10"/>
+      <c r="AF126" s="10"/>
+      <c r="AG126" s="10"/>
+      <c r="AH126" s="10"/>
+      <c r="AI126" s="10"/>
+    </row>
+    <row r="127" spans="4:35">
+      <c r="D127" s="10"/>
+      <c r="E127" s="7"/>
+      <c r="F127" s="7"/>
+      <c r="G127" s="7" t="s">
+        <v>1307</v>
+      </c>
+      <c r="H127" s="7"/>
+      <c r="I127" s="10"/>
+      <c r="J127" s="10"/>
+      <c r="K127" s="10"/>
+      <c r="L127" s="10"/>
+      <c r="M127" s="10"/>
+      <c r="N127" s="10"/>
+      <c r="O127" s="10"/>
+      <c r="P127" s="10"/>
+      <c r="Q127" s="10"/>
+      <c r="R127" s="10"/>
+      <c r="S127" s="10"/>
+      <c r="T127" s="10"/>
+      <c r="U127" s="10"/>
+      <c r="V127" s="10"/>
+      <c r="W127" s="10"/>
+      <c r="X127" s="10"/>
+      <c r="Y127" s="10"/>
+      <c r="Z127" s="10"/>
+      <c r="AA127" s="10"/>
+      <c r="AB127" s="10"/>
+      <c r="AC127" s="10"/>
+      <c r="AD127" s="10"/>
+      <c r="AE127" s="10"/>
+      <c r="AF127" s="10"/>
+      <c r="AG127" s="10"/>
+      <c r="AH127" s="10"/>
+      <c r="AI127" s="10"/>
+    </row>
+    <row r="128" spans="4:35">
+      <c r="D128" s="10"/>
+      <c r="E128" s="7"/>
+      <c r="F128" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="G128" s="7"/>
+      <c r="H128" s="7"/>
+      <c r="I128" s="10"/>
+      <c r="J128" s="10"/>
+      <c r="K128" s="10"/>
+      <c r="L128" s="10"/>
+      <c r="M128" s="10"/>
+      <c r="N128" s="10"/>
+      <c r="O128" s="10"/>
+      <c r="P128" s="10"/>
+      <c r="Q128" s="10"/>
+      <c r="R128" s="10"/>
+      <c r="S128" s="10"/>
+      <c r="T128" s="10"/>
+      <c r="U128" s="10"/>
+      <c r="V128" s="10"/>
+      <c r="W128" s="10"/>
+      <c r="X128" s="10"/>
+      <c r="Y128" s="10"/>
+      <c r="Z128" s="10"/>
+      <c r="AA128" s="10"/>
+      <c r="AB128" s="10"/>
+      <c r="AC128" s="10"/>
+      <c r="AD128" s="10"/>
+      <c r="AE128" s="10"/>
+      <c r="AF128" s="10"/>
+      <c r="AG128" s="10"/>
+      <c r="AH128" s="10"/>
+      <c r="AI128" s="10"/>
+    </row>
+    <row r="129" spans="4:35">
+      <c r="D129" s="10"/>
+      <c r="E129" s="7"/>
+      <c r="F129" s="7" t="s">
+        <v>1311</v>
+      </c>
+      <c r="G129" s="7"/>
+      <c r="H129" s="7"/>
+      <c r="I129" s="10"/>
+      <c r="J129" s="10"/>
+      <c r="K129" s="10"/>
+      <c r="L129" s="10"/>
+      <c r="M129" s="10"/>
+      <c r="N129" s="10"/>
+      <c r="O129" s="10"/>
+      <c r="P129" s="10"/>
+      <c r="Q129" s="10"/>
+      <c r="R129" s="10"/>
+      <c r="S129" s="10"/>
+      <c r="T129" s="10"/>
+      <c r="U129" s="10"/>
+      <c r="V129" s="10"/>
+      <c r="W129" s="10"/>
+      <c r="X129" s="10"/>
+      <c r="Y129" s="10"/>
+      <c r="Z129" s="10"/>
+      <c r="AA129" s="10"/>
+      <c r="AB129" s="10"/>
+      <c r="AC129" s="10"/>
+      <c r="AD129" s="10"/>
+      <c r="AE129" s="10"/>
+      <c r="AF129" s="10"/>
+      <c r="AG129" s="10"/>
+      <c r="AH129" s="10"/>
+      <c r="AI129" s="10"/>
+    </row>
+    <row r="130" spans="4:35">
+      <c r="D130" s="10"/>
+      <c r="E130" s="7"/>
+      <c r="F130" s="7" t="s">
+        <v>1322</v>
+      </c>
+      <c r="G130" s="7"/>
+      <c r="H130" s="7"/>
+      <c r="I130" s="10"/>
+      <c r="J130" s="10"/>
+      <c r="K130" s="10"/>
+      <c r="L130" s="10"/>
+      <c r="M130" s="10"/>
+      <c r="N130" s="10"/>
+      <c r="O130" s="10"/>
+      <c r="P130" s="10"/>
+      <c r="Q130" s="10"/>
+      <c r="R130" s="10"/>
+      <c r="S130" s="10"/>
+      <c r="T130" s="10"/>
+      <c r="U130" s="10"/>
+      <c r="V130" s="10"/>
+      <c r="W130" s="10"/>
+      <c r="X130" s="10"/>
+      <c r="Y130" s="10"/>
+      <c r="Z130" s="10"/>
+      <c r="AA130" s="10"/>
+      <c r="AB130" s="10"/>
+      <c r="AC130" s="10"/>
+      <c r="AD130" s="10"/>
+      <c r="AE130" s="10"/>
+      <c r="AF130" s="10"/>
+      <c r="AG130" s="10"/>
+      <c r="AH130" s="10"/>
+      <c r="AI130" s="10"/>
+    </row>
+    <row r="131" spans="4:35">
+      <c r="D131" s="10"/>
+      <c r="E131" s="7"/>
+      <c r="F131" s="7"/>
+      <c r="G131" s="7" t="s">
+        <v>1323</v>
+      </c>
+      <c r="H131" s="7"/>
+      <c r="I131" s="10"/>
+      <c r="J131" s="10"/>
+      <c r="K131" s="10"/>
+      <c r="L131" s="10"/>
+      <c r="M131" s="10"/>
+      <c r="N131" s="10"/>
+      <c r="O131" s="10"/>
+      <c r="P131" s="10"/>
+      <c r="Q131" s="10"/>
+      <c r="R131" s="10"/>
+      <c r="S131" s="10"/>
+      <c r="T131" s="10"/>
+      <c r="U131" s="10"/>
+      <c r="V131" s="10"/>
+      <c r="W131" s="10"/>
+      <c r="X131" s="10"/>
+      <c r="Y131" s="10"/>
+      <c r="Z131" s="10"/>
+      <c r="AA131" s="10"/>
+      <c r="AB131" s="10"/>
+      <c r="AC131" s="10"/>
+      <c r="AD131" s="10"/>
+      <c r="AE131" s="10"/>
+      <c r="AF131" s="10"/>
+      <c r="AG131" s="10"/>
+      <c r="AH131" s="10"/>
+      <c r="AI131" s="10"/>
+    </row>
+    <row r="132" spans="4:35">
+      <c r="D132" s="10"/>
+      <c r="E132" s="7"/>
+      <c r="F132" s="7"/>
+      <c r="G132" s="7"/>
+      <c r="H132" s="7" t="s">
+        <v>1324</v>
+      </c>
+      <c r="I132" s="10"/>
+      <c r="J132" s="10"/>
+      <c r="K132" s="10"/>
+      <c r="L132" s="10"/>
+      <c r="M132" s="10"/>
+      <c r="N132" s="10"/>
+      <c r="O132" s="10"/>
+      <c r="P132" s="10"/>
+      <c r="Q132" s="10"/>
+      <c r="R132" s="10"/>
+      <c r="S132" s="10"/>
+      <c r="T132" s="10"/>
+      <c r="U132" s="10"/>
+      <c r="V132" s="10"/>
+      <c r="W132" s="10"/>
+      <c r="X132" s="10"/>
+      <c r="Y132" s="10"/>
+      <c r="Z132" s="10"/>
+      <c r="AA132" s="10"/>
+      <c r="AB132" s="10"/>
+      <c r="AC132" s="10"/>
+      <c r="AD132" s="10"/>
+      <c r="AE132" s="10"/>
+      <c r="AF132" s="10"/>
+      <c r="AG132" s="10"/>
+      <c r="AH132" s="10"/>
+      <c r="AI132" s="10"/>
+    </row>
+    <row r="133" spans="4:35">
+      <c r="D133" s="10"/>
+      <c r="E133" s="7"/>
+      <c r="F133" s="7"/>
+      <c r="G133" s="7"/>
+      <c r="H133" s="7" t="s">
+        <v>1325</v>
+      </c>
+      <c r="I133" s="10"/>
+      <c r="J133" s="10"/>
+      <c r="K133" s="10"/>
+      <c r="L133" s="10"/>
+      <c r="M133" s="10"/>
+      <c r="N133" s="10"/>
+      <c r="O133" s="10"/>
+      <c r="P133" s="10"/>
+      <c r="Q133" s="10"/>
+      <c r="R133" s="10"/>
+      <c r="S133" s="10"/>
+      <c r="T133" s="10"/>
+      <c r="U133" s="10"/>
+      <c r="V133" s="10"/>
+      <c r="W133" s="10"/>
+      <c r="X133" s="10"/>
+      <c r="Y133" s="10"/>
+      <c r="Z133" s="10"/>
+      <c r="AA133" s="10"/>
+      <c r="AB133" s="10"/>
+      <c r="AC133" s="10"/>
+      <c r="AD133" s="10"/>
+      <c r="AE133" s="10"/>
+      <c r="AF133" s="10"/>
+      <c r="AG133" s="10"/>
+      <c r="AH133" s="10"/>
+      <c r="AI133" s="10"/>
+    </row>
+    <row r="134" spans="4:35">
+      <c r="D134" s="10"/>
+      <c r="E134" s="7"/>
+      <c r="F134" s="7"/>
+      <c r="G134" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="H134" s="7"/>
+      <c r="I134" s="10"/>
+      <c r="J134" s="10"/>
+      <c r="K134" s="10"/>
+      <c r="L134" s="10"/>
+      <c r="M134" s="10"/>
+      <c r="N134" s="10"/>
+      <c r="O134" s="10"/>
+      <c r="P134" s="10"/>
+      <c r="Q134" s="10"/>
+      <c r="R134" s="10"/>
+      <c r="S134" s="10"/>
+      <c r="T134" s="10"/>
+      <c r="U134" s="10"/>
+      <c r="V134" s="10"/>
+      <c r="W134" s="10"/>
+      <c r="X134" s="10"/>
+      <c r="Y134" s="10"/>
+      <c r="Z134" s="10"/>
+      <c r="AA134" s="10"/>
+      <c r="AB134" s="10"/>
+      <c r="AC134" s="10"/>
+      <c r="AD134" s="10"/>
+      <c r="AE134" s="10"/>
+      <c r="AF134" s="10"/>
+      <c r="AG134" s="10"/>
+      <c r="AH134" s="10"/>
+      <c r="AI134" s="10"/>
+    </row>
+    <row r="135" spans="4:35">
+      <c r="D135" s="10"/>
+      <c r="E135" s="7"/>
+      <c r="F135" s="7"/>
+      <c r="G135" s="7" t="s">
+        <v>1119</v>
+      </c>
+      <c r="H135" s="7"/>
+      <c r="I135" s="10"/>
+      <c r="J135" s="10"/>
+      <c r="K135" s="10"/>
+      <c r="L135" s="10"/>
+      <c r="M135" s="10"/>
+      <c r="N135" s="10"/>
+      <c r="O135" s="10"/>
+      <c r="P135" s="10"/>
+      <c r="Q135" s="10"/>
+      <c r="R135" s="10"/>
+      <c r="S135" s="10"/>
+      <c r="T135" s="10"/>
+      <c r="U135" s="10"/>
+      <c r="V135" s="10"/>
+      <c r="W135" s="10"/>
+      <c r="X135" s="10"/>
+      <c r="Y135" s="10"/>
+      <c r="Z135" s="10"/>
+      <c r="AA135" s="10"/>
+      <c r="AB135" s="10"/>
+      <c r="AC135" s="10"/>
+      <c r="AD135" s="10"/>
+      <c r="AE135" s="10"/>
+      <c r="AF135" s="10"/>
+      <c r="AG135" s="10"/>
+      <c r="AH135" s="10"/>
+      <c r="AI135" s="10"/>
+    </row>
+    <row r="136" spans="4:35">
+      <c r="D136" s="10"/>
+      <c r="E136" s="7"/>
+      <c r="F136" s="7"/>
+      <c r="G136" s="7"/>
+      <c r="H136" s="7" t="s">
+        <v>1326</v>
+      </c>
+      <c r="I136" s="10"/>
+      <c r="J136" s="10"/>
+      <c r="K136" s="10"/>
+      <c r="L136" s="10"/>
+      <c r="M136" s="10"/>
+      <c r="N136" s="10"/>
+      <c r="O136" s="10"/>
+      <c r="P136" s="10"/>
+      <c r="Q136" s="10"/>
+      <c r="R136" s="10"/>
+      <c r="S136" s="10"/>
+      <c r="T136" s="10"/>
+      <c r="U136" s="10"/>
+      <c r="V136" s="10"/>
+      <c r="W136" s="10"/>
+      <c r="X136" s="10"/>
+      <c r="Y136" s="10"/>
+      <c r="Z136" s="10"/>
+      <c r="AA136" s="10"/>
+      <c r="AB136" s="10"/>
+      <c r="AC136" s="10"/>
+      <c r="AD136" s="10"/>
+      <c r="AE136" s="10"/>
+      <c r="AF136" s="10"/>
+      <c r="AG136" s="10"/>
+      <c r="AH136" s="10"/>
+      <c r="AI136" s="10"/>
+    </row>
+    <row r="137" spans="4:35">
+      <c r="D137" s="10"/>
+      <c r="E137" s="7"/>
+      <c r="F137" s="7"/>
+      <c r="G137" s="7"/>
+      <c r="H137" s="7" t="s">
+        <v>1327</v>
+      </c>
+      <c r="I137" s="10"/>
+      <c r="J137" s="10"/>
+      <c r="K137" s="10"/>
+      <c r="L137" s="10"/>
+      <c r="M137" s="10"/>
+      <c r="N137" s="10"/>
+      <c r="O137" s="10"/>
+      <c r="P137" s="10"/>
+      <c r="Q137" s="10"/>
+      <c r="R137" s="10"/>
+      <c r="S137" s="10"/>
+      <c r="T137" s="10"/>
+      <c r="U137" s="10"/>
+      <c r="V137" s="10"/>
+      <c r="W137" s="10"/>
+      <c r="X137" s="10"/>
+      <c r="Y137" s="10"/>
+      <c r="Z137" s="10"/>
+      <c r="AA137" s="10"/>
+      <c r="AB137" s="10"/>
+      <c r="AC137" s="10"/>
+      <c r="AD137" s="10"/>
+      <c r="AE137" s="10"/>
+      <c r="AF137" s="10"/>
+      <c r="AG137" s="10"/>
+      <c r="AH137" s="10"/>
+      <c r="AI137" s="10"/>
+    </row>
+    <row r="138" spans="4:35">
+      <c r="D138" s="10"/>
+      <c r="E138" s="7"/>
+      <c r="F138" s="7"/>
+      <c r="G138" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="H138" s="7"/>
+      <c r="I138" s="10"/>
+      <c r="J138" s="10"/>
+      <c r="K138" s="10"/>
+      <c r="L138" s="10"/>
+      <c r="M138" s="10"/>
+      <c r="N138" s="10"/>
+      <c r="O138" s="10"/>
+      <c r="P138" s="10"/>
+      <c r="Q138" s="10"/>
+      <c r="R138" s="10"/>
+      <c r="S138" s="10"/>
+      <c r="T138" s="10"/>
+      <c r="U138" s="10"/>
+      <c r="V138" s="10"/>
+      <c r="W138" s="10"/>
+      <c r="X138" s="10"/>
+      <c r="Y138" s="10"/>
+      <c r="Z138" s="10"/>
+      <c r="AA138" s="10"/>
+      <c r="AB138" s="10"/>
+      <c r="AC138" s="10"/>
+      <c r="AD138" s="10"/>
+      <c r="AE138" s="10"/>
+      <c r="AF138" s="10"/>
+      <c r="AG138" s="10"/>
+      <c r="AH138" s="10"/>
+      <c r="AI138" s="10"/>
+    </row>
+    <row r="139" spans="4:35">
+      <c r="D139" s="10"/>
+      <c r="E139" s="7"/>
+      <c r="F139" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="G139" s="7"/>
+      <c r="H139" s="7"/>
+      <c r="I139" s="10"/>
+      <c r="J139" s="10"/>
+      <c r="K139" s="10"/>
+      <c r="L139" s="10"/>
+      <c r="M139" s="10"/>
+      <c r="N139" s="10"/>
+      <c r="O139" s="10"/>
+      <c r="P139" s="10"/>
+      <c r="Q139" s="10"/>
+      <c r="R139" s="10"/>
+      <c r="S139" s="10"/>
+      <c r="T139" s="10"/>
+      <c r="U139" s="10"/>
+      <c r="V139" s="10"/>
+      <c r="W139" s="10"/>
+      <c r="X139" s="10"/>
+      <c r="Y139" s="10"/>
+      <c r="Z139" s="10"/>
+      <c r="AA139" s="10"/>
+      <c r="AB139" s="10"/>
+      <c r="AC139" s="10"/>
+      <c r="AD139" s="10"/>
+      <c r="AE139" s="10"/>
+      <c r="AF139" s="10"/>
+      <c r="AG139" s="10"/>
+      <c r="AH139" s="10"/>
+      <c r="AI139" s="10"/>
+    </row>
+    <row r="140" spans="4:35">
+      <c r="D140" s="10"/>
+      <c r="E140" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="F140" s="7"/>
+      <c r="G140" s="7"/>
+      <c r="H140" s="7"/>
+      <c r="I140" s="10"/>
+      <c r="J140" s="10"/>
+      <c r="K140" s="10"/>
+      <c r="L140" s="10"/>
+      <c r="M140" s="10"/>
+      <c r="N140" s="10"/>
+      <c r="O140" s="10"/>
+      <c r="P140" s="10"/>
+      <c r="Q140" s="10"/>
+      <c r="R140" s="10"/>
+      <c r="S140" s="10"/>
+      <c r="T140" s="10"/>
+      <c r="U140" s="10"/>
+      <c r="V140" s="10"/>
+      <c r="W140" s="10"/>
+      <c r="X140" s="10"/>
+      <c r="Y140" s="10"/>
+      <c r="Z140" s="10"/>
+      <c r="AA140" s="10"/>
+      <c r="AB140" s="10"/>
+      <c r="AC140" s="10"/>
+      <c r="AD140" s="10"/>
+      <c r="AE140" s="10"/>
+      <c r="AF140" s="10"/>
+      <c r="AG140" s="10"/>
+      <c r="AH140" s="10"/>
+      <c r="AI140" s="10"/>
+    </row>
+    <row r="141" spans="4:35">
+      <c r="D141" s="10"/>
+      <c r="E141" s="10"/>
+      <c r="F141" s="10"/>
+      <c r="G141" s="10"/>
+      <c r="H141" s="10"/>
+      <c r="I141" s="10"/>
+      <c r="J141" s="10"/>
+      <c r="K141" s="10"/>
+      <c r="L141" s="10"/>
+      <c r="M141" s="10"/>
+      <c r="N141" s="10"/>
+      <c r="O141" s="10"/>
+      <c r="P141" s="10"/>
+      <c r="Q141" s="10"/>
+      <c r="R141" s="10"/>
+      <c r="S141" s="10"/>
+      <c r="T141" s="10"/>
+      <c r="U141" s="10"/>
+      <c r="V141" s="10"/>
+      <c r="W141" s="10"/>
+      <c r="X141" s="10"/>
+      <c r="Y141" s="10"/>
+      <c r="Z141" s="10"/>
+      <c r="AA141" s="10"/>
+      <c r="AB141" s="10"/>
+      <c r="AC141" s="10"/>
+      <c r="AD141" s="10"/>
+      <c r="AE141" s="10"/>
+      <c r="AF141" s="10"/>
+      <c r="AG141" s="10"/>
+      <c r="AH141" s="10"/>
+      <c r="AI141" s="10"/>
+    </row>
+    <row r="144" spans="4:35">
+      <c r="D144" s="2" t="s">
+        <v>1328</v>
+      </c>
+    </row>
+    <row r="145" spans="4:35">
+      <c r="D145" s="10"/>
+      <c r="E145" s="10"/>
+      <c r="F145" s="10"/>
+      <c r="G145" s="10"/>
+      <c r="H145" s="10"/>
+      <c r="I145" s="10"/>
+      <c r="J145" s="10"/>
+      <c r="K145" s="10"/>
+      <c r="L145" s="10"/>
+      <c r="M145" s="10"/>
+      <c r="N145" s="10"/>
+      <c r="O145" s="10"/>
+      <c r="P145" s="10"/>
+      <c r="Q145" s="10"/>
+      <c r="R145" s="10"/>
+      <c r="S145" s="10"/>
+      <c r="T145" s="10"/>
+      <c r="U145" s="10"/>
+      <c r="V145" s="10"/>
+      <c r="W145" s="10"/>
+      <c r="X145" s="10"/>
+      <c r="Y145" s="10"/>
+      <c r="Z145" s="10"/>
+      <c r="AA145" s="10"/>
+      <c r="AB145" s="10"/>
+      <c r="AC145" s="10"/>
+      <c r="AD145" s="10"/>
+      <c r="AE145" s="10"/>
+      <c r="AF145" s="10"/>
+      <c r="AG145" s="10"/>
+      <c r="AH145" s="10"/>
+      <c r="AI145" s="10"/>
+    </row>
+    <row r="146" spans="4:35">
+      <c r="D146" s="10"/>
+      <c r="E146" s="7" t="s">
+        <v>1329</v>
+      </c>
+      <c r="F146" s="7"/>
+      <c r="G146" s="7"/>
+      <c r="H146" s="7"/>
+      <c r="I146" s="10"/>
+      <c r="J146" s="10"/>
+      <c r="K146" s="10"/>
+      <c r="L146" s="10"/>
+      <c r="M146" s="10"/>
+      <c r="N146" s="10"/>
+      <c r="O146" s="10"/>
+      <c r="P146" s="10"/>
+      <c r="Q146" s="10"/>
+      <c r="R146" s="10"/>
+      <c r="S146" s="10"/>
+      <c r="T146" s="10"/>
+      <c r="U146" s="10"/>
+      <c r="V146" s="10"/>
+      <c r="W146" s="10"/>
+      <c r="X146" s="10"/>
+      <c r="Y146" s="10"/>
+      <c r="Z146" s="10"/>
+      <c r="AA146" s="10"/>
+      <c r="AB146" s="10"/>
+      <c r="AC146" s="10"/>
+      <c r="AD146" s="10"/>
+      <c r="AE146" s="10"/>
+      <c r="AF146" s="10"/>
+      <c r="AG146" s="10"/>
+      <c r="AH146" s="10"/>
+      <c r="AI146" s="10"/>
+    </row>
+    <row r="147" spans="4:35">
+      <c r="D147" s="10"/>
+      <c r="E147" s="7" t="s">
+        <v>1331</v>
+      </c>
+      <c r="F147" s="7"/>
+      <c r="G147" s="7"/>
+      <c r="H147" s="7"/>
+      <c r="I147" s="10"/>
+      <c r="J147" s="10"/>
+      <c r="K147" s="10"/>
+      <c r="L147" s="10"/>
+      <c r="M147" s="10"/>
+      <c r="N147" s="10"/>
+      <c r="O147" s="10"/>
+      <c r="P147" s="10"/>
+      <c r="Q147" s="10"/>
+      <c r="R147" s="10"/>
+      <c r="S147" s="10"/>
+      <c r="T147" s="10"/>
+      <c r="U147" s="10"/>
+      <c r="V147" s="10"/>
+      <c r="W147" s="10"/>
+      <c r="X147" s="10"/>
+      <c r="Y147" s="10"/>
+      <c r="Z147" s="10"/>
+      <c r="AA147" s="10"/>
+      <c r="AB147" s="10"/>
+      <c r="AC147" s="10"/>
+      <c r="AD147" s="10"/>
+      <c r="AE147" s="10"/>
+      <c r="AF147" s="10"/>
+      <c r="AG147" s="10"/>
+      <c r="AH147" s="10"/>
+      <c r="AI147" s="10"/>
+    </row>
+    <row r="148" spans="4:35">
+      <c r="D148" s="10"/>
+      <c r="E148" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="F148" s="7"/>
+      <c r="G148" s="7"/>
+      <c r="H148" s="7"/>
+      <c r="I148" s="10"/>
+      <c r="J148" s="10"/>
+      <c r="K148" s="10"/>
+      <c r="L148" s="10"/>
+      <c r="M148" s="10"/>
+      <c r="N148" s="10"/>
+      <c r="O148" s="10"/>
+      <c r="P148" s="10"/>
+      <c r="Q148" s="10"/>
+      <c r="R148" s="10"/>
+      <c r="S148" s="10"/>
+      <c r="T148" s="10"/>
+      <c r="U148" s="10"/>
+      <c r="V148" s="10"/>
+      <c r="W148" s="10"/>
+      <c r="X148" s="10"/>
+      <c r="Y148" s="10"/>
+      <c r="Z148" s="10"/>
+      <c r="AA148" s="10"/>
+      <c r="AB148" s="10"/>
+      <c r="AC148" s="10"/>
+      <c r="AD148" s="10"/>
+      <c r="AE148" s="10"/>
+      <c r="AF148" s="10"/>
+      <c r="AG148" s="10"/>
+      <c r="AH148" s="10"/>
+      <c r="AI148" s="10"/>
+    </row>
+    <row r="149" spans="4:35">
+      <c r="D149" s="10"/>
+      <c r="E149" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="F149" s="7"/>
+      <c r="G149" s="7"/>
+      <c r="H149" s="7"/>
+      <c r="I149" s="10"/>
+      <c r="J149" s="10"/>
+      <c r="K149" s="10"/>
+      <c r="L149" s="10"/>
+      <c r="M149" s="10"/>
+      <c r="N149" s="10"/>
+      <c r="O149" s="10"/>
+      <c r="P149" s="10"/>
+      <c r="Q149" s="10"/>
+      <c r="R149" s="10"/>
+      <c r="S149" s="10"/>
+      <c r="T149" s="10"/>
+      <c r="U149" s="10"/>
+      <c r="V149" s="10"/>
+      <c r="W149" s="10"/>
+      <c r="X149" s="10"/>
+      <c r="Y149" s="10"/>
+      <c r="Z149" s="10"/>
+      <c r="AA149" s="10"/>
+      <c r="AB149" s="10"/>
+      <c r="AC149" s="10"/>
+      <c r="AD149" s="10"/>
+      <c r="AE149" s="10"/>
+      <c r="AF149" s="10"/>
+      <c r="AG149" s="10"/>
+      <c r="AH149" s="10"/>
+      <c r="AI149" s="10"/>
+    </row>
+    <row r="150" spans="4:35">
+      <c r="D150" s="10"/>
+      <c r="E150" s="7"/>
+      <c r="F150" s="7" t="s">
+        <v>1330</v>
+      </c>
+      <c r="G150" s="7"/>
+      <c r="H150" s="7"/>
+      <c r="I150" s="10"/>
+      <c r="J150" s="10"/>
+      <c r="K150" s="10"/>
+      <c r="L150" s="10"/>
+      <c r="M150" s="10"/>
+      <c r="N150" s="10"/>
+      <c r="O150" s="10"/>
+      <c r="P150" s="10"/>
+      <c r="Q150" s="10"/>
+      <c r="R150" s="10"/>
+      <c r="S150" s="10"/>
+      <c r="T150" s="10"/>
+      <c r="U150" s="10"/>
+      <c r="V150" s="10"/>
+      <c r="W150" s="10"/>
+      <c r="X150" s="10"/>
+      <c r="Y150" s="10"/>
+      <c r="Z150" s="10"/>
+      <c r="AA150" s="10"/>
+      <c r="AB150" s="10"/>
+      <c r="AC150" s="10"/>
+      <c r="AD150" s="10"/>
+      <c r="AE150" s="10"/>
+      <c r="AF150" s="10"/>
+      <c r="AG150" s="10"/>
+      <c r="AH150" s="10"/>
+      <c r="AI150" s="10"/>
+    </row>
+    <row r="151" spans="4:35">
+      <c r="D151" s="10"/>
+      <c r="E151" s="7"/>
+      <c r="F151" s="7" t="s">
+        <v>1332</v>
+      </c>
+      <c r="G151" s="7"/>
+      <c r="H151" s="7"/>
+      <c r="I151" s="10"/>
+      <c r="J151" s="10"/>
+      <c r="K151" s="10"/>
+      <c r="L151" s="10"/>
+      <c r="M151" s="10"/>
+      <c r="N151" s="10"/>
+      <c r="O151" s="10"/>
+      <c r="P151" s="10"/>
+      <c r="Q151" s="10"/>
+      <c r="R151" s="10"/>
+      <c r="S151" s="10"/>
+      <c r="T151" s="10"/>
+      <c r="U151" s="10"/>
+      <c r="V151" s="10"/>
+      <c r="W151" s="10"/>
+      <c r="X151" s="10"/>
+      <c r="Y151" s="10"/>
+      <c r="Z151" s="10"/>
+      <c r="AA151" s="10"/>
+      <c r="AB151" s="10"/>
+      <c r="AC151" s="10"/>
+      <c r="AD151" s="10"/>
+      <c r="AE151" s="10"/>
+      <c r="AF151" s="10"/>
+      <c r="AG151" s="10"/>
+      <c r="AH151" s="10"/>
+      <c r="AI151" s="10"/>
+    </row>
+    <row r="152" spans="4:35">
+      <c r="D152" s="10"/>
+      <c r="E152" s="7"/>
+      <c r="F152" s="7"/>
+      <c r="G152" s="7" t="s">
+        <v>1307</v>
+      </c>
+      <c r="H152" s="7"/>
+      <c r="I152" s="10"/>
+      <c r="J152" s="10"/>
+      <c r="K152" s="10"/>
+      <c r="L152" s="10"/>
+      <c r="M152" s="10"/>
+      <c r="N152" s="10"/>
+      <c r="O152" s="10"/>
+      <c r="P152" s="10"/>
+      <c r="Q152" s="10"/>
+      <c r="R152" s="10"/>
+      <c r="S152" s="10"/>
+      <c r="T152" s="10"/>
+      <c r="U152" s="10"/>
+      <c r="V152" s="10"/>
+      <c r="W152" s="10"/>
+      <c r="X152" s="10"/>
+      <c r="Y152" s="10"/>
+      <c r="Z152" s="10"/>
+      <c r="AA152" s="10"/>
+      <c r="AB152" s="10"/>
+      <c r="AC152" s="10"/>
+      <c r="AD152" s="10"/>
+      <c r="AE152" s="10"/>
+      <c r="AF152" s="10"/>
+      <c r="AG152" s="10"/>
+      <c r="AH152" s="10"/>
+      <c r="AI152" s="10"/>
+    </row>
+    <row r="153" spans="4:35">
+      <c r="D153" s="10"/>
+      <c r="E153" s="7"/>
+      <c r="F153" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="G153" s="7"/>
+      <c r="H153" s="7"/>
+      <c r="I153" s="10"/>
+      <c r="J153" s="10"/>
+      <c r="K153" s="10"/>
+      <c r="L153" s="10"/>
+      <c r="M153" s="10"/>
+      <c r="N153" s="10"/>
+      <c r="O153" s="10"/>
+      <c r="P153" s="10"/>
+      <c r="Q153" s="10"/>
+      <c r="R153" s="10"/>
+      <c r="S153" s="10"/>
+      <c r="T153" s="10"/>
+      <c r="U153" s="10"/>
+      <c r="V153" s="10"/>
+      <c r="W153" s="10"/>
+      <c r="X153" s="10"/>
+      <c r="Y153" s="10"/>
+      <c r="Z153" s="10"/>
+      <c r="AA153" s="10"/>
+      <c r="AB153" s="10"/>
+      <c r="AC153" s="10"/>
+      <c r="AD153" s="10"/>
+      <c r="AE153" s="10"/>
+      <c r="AF153" s="10"/>
+      <c r="AG153" s="10"/>
+      <c r="AH153" s="10"/>
+      <c r="AI153" s="10"/>
+    </row>
+    <row r="154" spans="4:35">
+      <c r="D154" s="10"/>
+      <c r="E154" s="7"/>
+      <c r="F154" s="7" t="s">
+        <v>1311</v>
+      </c>
+      <c r="G154" s="7"/>
+      <c r="H154" s="7"/>
+      <c r="I154" s="10"/>
+      <c r="J154" s="10"/>
+      <c r="K154" s="10"/>
+      <c r="L154" s="10"/>
+      <c r="M154" s="10"/>
+      <c r="N154" s="10"/>
+      <c r="O154" s="10"/>
+      <c r="P154" s="10"/>
+      <c r="Q154" s="10"/>
+      <c r="R154" s="10"/>
+      <c r="S154" s="10"/>
+      <c r="T154" s="10"/>
+      <c r="U154" s="10"/>
+      <c r="V154" s="10"/>
+      <c r="W154" s="10"/>
+      <c r="X154" s="10"/>
+      <c r="Y154" s="10"/>
+      <c r="Z154" s="10"/>
+      <c r="AA154" s="10"/>
+      <c r="AB154" s="10"/>
+      <c r="AC154" s="10"/>
+      <c r="AD154" s="10"/>
+      <c r="AE154" s="10"/>
+      <c r="AF154" s="10"/>
+      <c r="AG154" s="10"/>
+      <c r="AH154" s="10"/>
+      <c r="AI154" s="10"/>
+    </row>
+    <row r="155" spans="4:35">
+      <c r="D155" s="10"/>
+      <c r="E155" s="7"/>
+      <c r="F155" s="7" t="s">
+        <v>1322</v>
+      </c>
+      <c r="G155" s="7"/>
+      <c r="H155" s="7"/>
+      <c r="I155" s="10"/>
+      <c r="J155" s="10"/>
+      <c r="K155" s="10"/>
+      <c r="L155" s="10"/>
+      <c r="M155" s="10"/>
+      <c r="N155" s="10"/>
+      <c r="O155" s="10"/>
+      <c r="P155" s="10"/>
+      <c r="Q155" s="10"/>
+      <c r="R155" s="10"/>
+      <c r="S155" s="10"/>
+      <c r="T155" s="10"/>
+      <c r="U155" s="10"/>
+      <c r="V155" s="10"/>
+      <c r="W155" s="10"/>
+      <c r="X155" s="10"/>
+      <c r="Y155" s="10"/>
+      <c r="Z155" s="10"/>
+      <c r="AA155" s="10"/>
+      <c r="AB155" s="10"/>
+      <c r="AC155" s="10"/>
+      <c r="AD155" s="10"/>
+      <c r="AE155" s="10"/>
+      <c r="AF155" s="10"/>
+      <c r="AG155" s="10"/>
+      <c r="AH155" s="10"/>
+      <c r="AI155" s="10"/>
+    </row>
+    <row r="156" spans="4:35">
+      <c r="D156" s="10"/>
+      <c r="E156" s="7"/>
+      <c r="F156" s="7"/>
+      <c r="G156" s="7" t="s">
+        <v>1333</v>
+      </c>
+      <c r="H156" s="7"/>
+      <c r="I156" s="10"/>
+      <c r="J156" s="10"/>
+      <c r="K156" s="10"/>
+      <c r="L156" s="10"/>
+      <c r="M156" s="10"/>
+      <c r="N156" s="10"/>
+      <c r="O156" s="10"/>
+      <c r="P156" s="10"/>
+      <c r="Q156" s="10"/>
+      <c r="R156" s="10"/>
+      <c r="S156" s="10"/>
+      <c r="T156" s="10"/>
+      <c r="U156" s="10"/>
+      <c r="V156" s="10"/>
+      <c r="W156" s="10"/>
+      <c r="X156" s="10"/>
+      <c r="Y156" s="10"/>
+      <c r="Z156" s="10"/>
+      <c r="AA156" s="10"/>
+      <c r="AB156" s="10"/>
+      <c r="AC156" s="10"/>
+      <c r="AD156" s="10"/>
+      <c r="AE156" s="10"/>
+      <c r="AF156" s="10"/>
+      <c r="AG156" s="10"/>
+      <c r="AH156" s="10"/>
+      <c r="AI156" s="10"/>
+    </row>
+    <row r="157" spans="4:35">
+      <c r="D157" s="10"/>
+      <c r="E157" s="7"/>
+      <c r="F157" s="7"/>
+      <c r="G157" s="7"/>
+      <c r="H157" s="7" t="s">
+        <v>1334</v>
+      </c>
+      <c r="I157" s="10"/>
+      <c r="J157" s="10"/>
+      <c r="K157" s="10"/>
+      <c r="L157" s="10"/>
+      <c r="M157" s="10"/>
+      <c r="N157" s="10"/>
+      <c r="O157" s="10"/>
+      <c r="P157" s="10"/>
+      <c r="Q157" s="10"/>
+      <c r="R157" s="10"/>
+      <c r="S157" s="10"/>
+      <c r="T157" s="10"/>
+      <c r="U157" s="10"/>
+      <c r="V157" s="10"/>
+      <c r="W157" s="10"/>
+      <c r="X157" s="10"/>
+      <c r="Y157" s="10"/>
+      <c r="Z157" s="10"/>
+      <c r="AA157" s="10"/>
+      <c r="AB157" s="10"/>
+      <c r="AC157" s="10"/>
+      <c r="AD157" s="10"/>
+      <c r="AE157" s="10"/>
+      <c r="AF157" s="10"/>
+      <c r="AG157" s="10"/>
+      <c r="AH157" s="10"/>
+      <c r="AI157" s="10"/>
+    </row>
+    <row r="158" spans="4:35">
+      <c r="D158" s="10"/>
+      <c r="E158" s="7"/>
+      <c r="F158" s="7"/>
+      <c r="G158" s="7"/>
+      <c r="H158" s="7" t="s">
+        <v>1325</v>
+      </c>
+      <c r="I158" s="10"/>
+      <c r="J158" s="10"/>
+      <c r="K158" s="10"/>
+      <c r="L158" s="10"/>
+      <c r="M158" s="10"/>
+      <c r="N158" s="10"/>
+      <c r="O158" s="10"/>
+      <c r="P158" s="10"/>
+      <c r="Q158" s="10"/>
+      <c r="R158" s="10"/>
+      <c r="S158" s="10"/>
+      <c r="T158" s="10"/>
+      <c r="U158" s="10"/>
+      <c r="V158" s="10"/>
+      <c r="W158" s="10"/>
+      <c r="X158" s="10"/>
+      <c r="Y158" s="10"/>
+      <c r="Z158" s="10"/>
+      <c r="AA158" s="10"/>
+      <c r="AB158" s="10"/>
+      <c r="AC158" s="10"/>
+      <c r="AD158" s="10"/>
+      <c r="AE158" s="10"/>
+      <c r="AF158" s="10"/>
+      <c r="AG158" s="10"/>
+      <c r="AH158" s="10"/>
+      <c r="AI158" s="10"/>
+    </row>
+    <row r="159" spans="4:35">
+      <c r="D159" s="10"/>
+      <c r="E159" s="7"/>
+      <c r="F159" s="7"/>
+      <c r="G159" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="H159" s="7"/>
+      <c r="I159" s="10"/>
+      <c r="J159" s="10"/>
+      <c r="K159" s="10"/>
+      <c r="L159" s="10"/>
+      <c r="M159" s="10"/>
+      <c r="N159" s="10"/>
+      <c r="O159" s="10"/>
+      <c r="P159" s="10"/>
+      <c r="Q159" s="10"/>
+      <c r="R159" s="10"/>
+      <c r="S159" s="10"/>
+      <c r="T159" s="10"/>
+      <c r="U159" s="10"/>
+      <c r="V159" s="10"/>
+      <c r="W159" s="10"/>
+      <c r="X159" s="10"/>
+      <c r="Y159" s="10"/>
+      <c r="Z159" s="10"/>
+      <c r="AA159" s="10"/>
+      <c r="AB159" s="10"/>
+      <c r="AC159" s="10"/>
+      <c r="AD159" s="10"/>
+      <c r="AE159" s="10"/>
+      <c r="AF159" s="10"/>
+      <c r="AG159" s="10"/>
+      <c r="AH159" s="10"/>
+      <c r="AI159" s="10"/>
+    </row>
+    <row r="160" spans="4:35">
+      <c r="D160" s="10"/>
+      <c r="E160" s="7"/>
+      <c r="F160" s="7"/>
+      <c r="G160" s="7" t="s">
+        <v>1119</v>
+      </c>
+      <c r="H160" s="7"/>
+      <c r="I160" s="10"/>
+      <c r="J160" s="10"/>
+      <c r="K160" s="10"/>
+      <c r="L160" s="10"/>
+      <c r="M160" s="10"/>
+      <c r="N160" s="10"/>
+      <c r="O160" s="10"/>
+      <c r="P160" s="10"/>
+      <c r="Q160" s="10"/>
+      <c r="R160" s="10"/>
+      <c r="S160" s="10"/>
+      <c r="T160" s="10"/>
+      <c r="U160" s="10"/>
+      <c r="V160" s="10"/>
+      <c r="W160" s="10"/>
+      <c r="X160" s="10"/>
+      <c r="Y160" s="10"/>
+      <c r="Z160" s="10"/>
+      <c r="AA160" s="10"/>
+      <c r="AB160" s="10"/>
+      <c r="AC160" s="10"/>
+      <c r="AD160" s="10"/>
+      <c r="AE160" s="10"/>
+      <c r="AF160" s="10"/>
+      <c r="AG160" s="10"/>
+      <c r="AH160" s="10"/>
+      <c r="AI160" s="10"/>
+    </row>
+    <row r="161" spans="4:35">
+      <c r="D161" s="10"/>
+      <c r="E161" s="7"/>
+      <c r="F161" s="7"/>
+      <c r="G161" s="7"/>
+      <c r="H161" s="7" t="s">
+        <v>1335</v>
+      </c>
+      <c r="I161" s="10"/>
+      <c r="J161" s="10"/>
+      <c r="K161" s="10"/>
+      <c r="L161" s="10"/>
+      <c r="M161" s="10"/>
+      <c r="N161" s="10"/>
+      <c r="O161" s="10"/>
+      <c r="P161" s="10"/>
+      <c r="Q161" s="10"/>
+      <c r="R161" s="10"/>
+      <c r="S161" s="10"/>
+      <c r="T161" s="10"/>
+      <c r="U161" s="10"/>
+      <c r="V161" s="10"/>
+      <c r="W161" s="10"/>
+      <c r="X161" s="10"/>
+      <c r="Y161" s="10"/>
+      <c r="Z161" s="10"/>
+      <c r="AA161" s="10"/>
+      <c r="AB161" s="10"/>
+      <c r="AC161" s="10"/>
+      <c r="AD161" s="10"/>
+      <c r="AE161" s="10"/>
+      <c r="AF161" s="10"/>
+      <c r="AG161" s="10"/>
+      <c r="AH161" s="10"/>
+      <c r="AI161" s="10"/>
+    </row>
+    <row r="162" spans="4:35">
+      <c r="D162" s="10"/>
+      <c r="E162" s="7"/>
+      <c r="F162" s="7"/>
+      <c r="G162" s="7"/>
+      <c r="H162" s="7" t="s">
+        <v>1327</v>
+      </c>
+      <c r="I162" s="10"/>
+      <c r="J162" s="10"/>
+      <c r="K162" s="10"/>
+      <c r="L162" s="10"/>
+      <c r="M162" s="10"/>
+      <c r="N162" s="10"/>
+      <c r="O162" s="10"/>
+      <c r="P162" s="10"/>
+      <c r="Q162" s="10"/>
+      <c r="R162" s="10"/>
+      <c r="S162" s="10"/>
+      <c r="T162" s="10"/>
+      <c r="U162" s="10"/>
+      <c r="V162" s="10"/>
+      <c r="W162" s="10"/>
+      <c r="X162" s="10"/>
+      <c r="Y162" s="10"/>
+      <c r="Z162" s="10"/>
+      <c r="AA162" s="10"/>
+      <c r="AB162" s="10"/>
+      <c r="AC162" s="10"/>
+      <c r="AD162" s="10"/>
+      <c r="AE162" s="10"/>
+      <c r="AF162" s="10"/>
+      <c r="AG162" s="10"/>
+      <c r="AH162" s="10"/>
+      <c r="AI162" s="10"/>
+    </row>
+    <row r="163" spans="4:35">
+      <c r="D163" s="10"/>
+      <c r="E163" s="7"/>
+      <c r="F163" s="7"/>
+      <c r="G163" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="H163" s="7"/>
+      <c r="I163" s="10"/>
+      <c r="J163" s="10"/>
+      <c r="K163" s="10"/>
+      <c r="L163" s="10"/>
+      <c r="M163" s="10"/>
+      <c r="N163" s="10"/>
+      <c r="O163" s="10"/>
+      <c r="P163" s="10"/>
+      <c r="Q163" s="10"/>
+      <c r="R163" s="10"/>
+      <c r="S163" s="10"/>
+      <c r="T163" s="10"/>
+      <c r="U163" s="10"/>
+      <c r="V163" s="10"/>
+      <c r="W163" s="10"/>
+      <c r="X163" s="10"/>
+      <c r="Y163" s="10"/>
+      <c r="Z163" s="10"/>
+      <c r="AA163" s="10"/>
+      <c r="AB163" s="10"/>
+      <c r="AC163" s="10"/>
+      <c r="AD163" s="10"/>
+      <c r="AE163" s="10"/>
+      <c r="AF163" s="10"/>
+      <c r="AG163" s="10"/>
+      <c r="AH163" s="10"/>
+      <c r="AI163" s="10"/>
+    </row>
+    <row r="164" spans="4:35">
+      <c r="D164" s="10"/>
+      <c r="E164" s="7"/>
+      <c r="F164" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="G164" s="7"/>
+      <c r="H164" s="7"/>
+      <c r="I164" s="10"/>
+      <c r="J164" s="10"/>
+      <c r="K164" s="10"/>
+      <c r="L164" s="10"/>
+      <c r="M164" s="10"/>
+      <c r="N164" s="10"/>
+      <c r="O164" s="10"/>
+      <c r="P164" s="10"/>
+      <c r="Q164" s="10"/>
+      <c r="R164" s="10"/>
+      <c r="S164" s="10"/>
+      <c r="T164" s="10"/>
+      <c r="U164" s="10"/>
+      <c r="V164" s="10"/>
+      <c r="W164" s="10"/>
+      <c r="X164" s="10"/>
+      <c r="Y164" s="10"/>
+      <c r="Z164" s="10"/>
+      <c r="AA164" s="10"/>
+      <c r="AB164" s="10"/>
+      <c r="AC164" s="10"/>
+      <c r="AD164" s="10"/>
+      <c r="AE164" s="10"/>
+      <c r="AF164" s="10"/>
+      <c r="AG164" s="10"/>
+      <c r="AH164" s="10"/>
+      <c r="AI164" s="10"/>
+    </row>
+    <row r="165" spans="4:35">
+      <c r="D165" s="10"/>
+      <c r="E165" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="F165" s="7"/>
+      <c r="G165" s="7"/>
+      <c r="H165" s="7"/>
+      <c r="I165" s="10"/>
+      <c r="J165" s="10"/>
+      <c r="K165" s="10"/>
+      <c r="L165" s="10"/>
+      <c r="M165" s="10"/>
+      <c r="N165" s="10"/>
+      <c r="O165" s="10"/>
+      <c r="P165" s="10"/>
+      <c r="Q165" s="10"/>
+      <c r="R165" s="10"/>
+      <c r="S165" s="10"/>
+      <c r="T165" s="10"/>
+      <c r="U165" s="10"/>
+      <c r="V165" s="10"/>
+      <c r="W165" s="10"/>
+      <c r="X165" s="10"/>
+      <c r="Y165" s="10"/>
+      <c r="Z165" s="10"/>
+      <c r="AA165" s="10"/>
+      <c r="AB165" s="10"/>
+      <c r="AC165" s="10"/>
+      <c r="AD165" s="10"/>
+      <c r="AE165" s="10"/>
+      <c r="AF165" s="10"/>
+      <c r="AG165" s="10"/>
+      <c r="AH165" s="10"/>
+      <c r="AI165" s="10"/>
+    </row>
+    <row r="166" spans="4:35">
+      <c r="D166" s="10"/>
+      <c r="E166" s="10"/>
+      <c r="F166" s="10"/>
+      <c r="G166" s="10"/>
+      <c r="H166" s="10"/>
+      <c r="I166" s="10"/>
+      <c r="J166" s="10"/>
+      <c r="K166" s="10"/>
+      <c r="L166" s="10"/>
+      <c r="M166" s="10"/>
+      <c r="N166" s="10"/>
+      <c r="O166" s="10"/>
+      <c r="P166" s="10"/>
+      <c r="Q166" s="10"/>
+      <c r="R166" s="10"/>
+      <c r="S166" s="10"/>
+      <c r="T166" s="10"/>
+      <c r="U166" s="10"/>
+      <c r="V166" s="10"/>
+      <c r="W166" s="10"/>
+      <c r="X166" s="10"/>
+      <c r="Y166" s="10"/>
+      <c r="Z166" s="10"/>
+      <c r="AA166" s="10"/>
+      <c r="AB166" s="10"/>
+      <c r="AC166" s="10"/>
+      <c r="AD166" s="10"/>
+      <c r="AE166" s="10"/>
+      <c r="AF166" s="10"/>
+      <c r="AG166" s="10"/>
+      <c r="AH166" s="10"/>
+      <c r="AI166" s="10"/>
+    </row>
+    <row r="169" spans="4:35">
+      <c r="D169" s="2" t="s">
+        <v>1336</v>
+      </c>
+    </row>
+    <row r="170" spans="4:35">
+      <c r="D170" s="10"/>
+      <c r="E170" s="10"/>
+      <c r="F170" s="10"/>
+      <c r="G170" s="10"/>
+      <c r="H170" s="10"/>
+      <c r="I170" s="10"/>
+      <c r="J170" s="10"/>
+      <c r="K170" s="10"/>
+      <c r="L170" s="10"/>
+      <c r="M170" s="10"/>
+      <c r="N170" s="10"/>
+      <c r="O170" s="10"/>
+      <c r="P170" s="10"/>
+      <c r="Q170" s="10"/>
+      <c r="R170" s="10"/>
+      <c r="S170" s="10"/>
+      <c r="T170" s="10"/>
+      <c r="U170" s="10"/>
+      <c r="V170" s="10"/>
+      <c r="W170" s="10"/>
+      <c r="X170" s="10"/>
+      <c r="Y170" s="10"/>
+      <c r="Z170" s="10"/>
+      <c r="AA170" s="10"/>
+      <c r="AB170" s="10"/>
+      <c r="AC170" s="10"/>
+      <c r="AD170" s="10"/>
+      <c r="AE170" s="10"/>
+      <c r="AF170" s="10"/>
+      <c r="AG170" s="10"/>
+      <c r="AH170" s="10"/>
+      <c r="AI170" s="10"/>
+    </row>
+    <row r="171" spans="4:35">
+      <c r="D171" s="10"/>
+      <c r="E171" s="7" t="s">
+        <v>1337</v>
+      </c>
+      <c r="F171" s="7"/>
+      <c r="G171" s="7"/>
+      <c r="H171" s="7"/>
+      <c r="I171" s="10"/>
+      <c r="J171" s="10"/>
+      <c r="K171" s="10"/>
+      <c r="L171" s="10"/>
+      <c r="M171" s="10"/>
+      <c r="N171" s="10"/>
+      <c r="O171" s="10"/>
+      <c r="P171" s="10"/>
+      <c r="Q171" s="10"/>
+      <c r="R171" s="10"/>
+      <c r="S171" s="10"/>
+      <c r="T171" s="10"/>
+      <c r="U171" s="10"/>
+      <c r="V171" s="10"/>
+      <c r="W171" s="10"/>
+      <c r="X171" s="10"/>
+      <c r="Y171" s="10"/>
+      <c r="Z171" s="10"/>
+      <c r="AA171" s="10"/>
+      <c r="AB171" s="10"/>
+      <c r="AC171" s="10"/>
+      <c r="AD171" s="10"/>
+      <c r="AE171" s="10"/>
+      <c r="AF171" s="10"/>
+      <c r="AG171" s="10"/>
+      <c r="AH171" s="10"/>
+      <c r="AI171" s="10"/>
+    </row>
+    <row r="172" spans="4:35">
+      <c r="D172" s="10"/>
+      <c r="E172" s="7" t="s">
+        <v>1338</v>
+      </c>
+      <c r="F172" s="7"/>
+      <c r="G172" s="7"/>
+      <c r="H172" s="7"/>
+      <c r="I172" s="10"/>
+      <c r="J172" s="10"/>
+      <c r="K172" s="10"/>
+      <c r="L172" s="10"/>
+      <c r="M172" s="10"/>
+      <c r="N172" s="10"/>
+      <c r="O172" s="10"/>
+      <c r="P172" s="10"/>
+      <c r="Q172" s="10"/>
+      <c r="R172" s="10"/>
+      <c r="S172" s="10"/>
+      <c r="T172" s="10"/>
+      <c r="U172" s="10"/>
+      <c r="V172" s="10"/>
+      <c r="W172" s="10"/>
+      <c r="X172" s="10"/>
+      <c r="Y172" s="10"/>
+      <c r="Z172" s="10"/>
+      <c r="AA172" s="10"/>
+      <c r="AB172" s="10"/>
+      <c r="AC172" s="10"/>
+      <c r="AD172" s="10"/>
+      <c r="AE172" s="10"/>
+      <c r="AF172" s="10"/>
+      <c r="AG172" s="10"/>
+      <c r="AH172" s="10"/>
+      <c r="AI172" s="10"/>
+    </row>
+    <row r="173" spans="4:35">
+      <c r="D173" s="10"/>
+      <c r="E173" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="F173" s="7"/>
+      <c r="G173" s="7"/>
+      <c r="H173" s="7"/>
+      <c r="I173" s="10"/>
+      <c r="J173" s="10"/>
+      <c r="K173" s="10"/>
+      <c r="L173" s="10"/>
+      <c r="M173" s="10"/>
+      <c r="N173" s="10"/>
+      <c r="O173" s="10"/>
+      <c r="P173" s="10"/>
+      <c r="Q173" s="10"/>
+      <c r="R173" s="10"/>
+      <c r="S173" s="10"/>
+      <c r="T173" s="10"/>
+      <c r="U173" s="10"/>
+      <c r="V173" s="10"/>
+      <c r="W173" s="10"/>
+      <c r="X173" s="10"/>
+      <c r="Y173" s="10"/>
+      <c r="Z173" s="10"/>
+      <c r="AA173" s="10"/>
+      <c r="AB173" s="10"/>
+      <c r="AC173" s="10"/>
+      <c r="AD173" s="10"/>
+      <c r="AE173" s="10"/>
+      <c r="AF173" s="10"/>
+      <c r="AG173" s="10"/>
+      <c r="AH173" s="10"/>
+      <c r="AI173" s="10"/>
+    </row>
+    <row r="174" spans="4:35">
+      <c r="D174" s="10"/>
+      <c r="E174" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="F174" s="7"/>
+      <c r="G174" s="7"/>
+      <c r="H174" s="7"/>
+      <c r="I174" s="10"/>
+      <c r="J174" s="10"/>
+      <c r="K174" s="10"/>
+      <c r="L174" s="10"/>
+      <c r="M174" s="10"/>
+      <c r="N174" s="10"/>
+      <c r="O174" s="10"/>
+      <c r="P174" s="10"/>
+      <c r="Q174" s="10"/>
+      <c r="R174" s="10"/>
+      <c r="S174" s="10"/>
+      <c r="T174" s="10"/>
+      <c r="U174" s="10"/>
+      <c r="V174" s="10"/>
+      <c r="W174" s="10"/>
+      <c r="X174" s="10"/>
+      <c r="Y174" s="10"/>
+      <c r="Z174" s="10"/>
+      <c r="AA174" s="10"/>
+      <c r="AB174" s="10"/>
+      <c r="AC174" s="10"/>
+      <c r="AD174" s="10"/>
+      <c r="AE174" s="10"/>
+      <c r="AF174" s="10"/>
+      <c r="AG174" s="10"/>
+      <c r="AH174" s="10"/>
+      <c r="AI174" s="10"/>
+    </row>
+    <row r="175" spans="4:35">
+      <c r="D175" s="10"/>
+      <c r="E175" s="7"/>
+      <c r="F175" s="7" t="s">
+        <v>1339</v>
+      </c>
+      <c r="G175" s="7"/>
+      <c r="H175" s="7"/>
+      <c r="I175" s="10"/>
+      <c r="J175" s="10"/>
+      <c r="K175" s="10"/>
+      <c r="L175" s="10"/>
+      <c r="M175" s="10"/>
+      <c r="N175" s="10"/>
+      <c r="O175" s="10"/>
+      <c r="P175" s="10"/>
+      <c r="Q175" s="10"/>
+      <c r="R175" s="10"/>
+      <c r="S175" s="10"/>
+      <c r="T175" s="10"/>
+      <c r="U175" s="10"/>
+      <c r="V175" s="10"/>
+      <c r="W175" s="10"/>
+      <c r="X175" s="10"/>
+      <c r="Y175" s="10"/>
+      <c r="Z175" s="10"/>
+      <c r="AA175" s="10"/>
+      <c r="AB175" s="10"/>
+      <c r="AC175" s="10"/>
+      <c r="AD175" s="10"/>
+      <c r="AE175" s="10"/>
+      <c r="AF175" s="10"/>
+      <c r="AG175" s="10"/>
+      <c r="AH175" s="10"/>
+      <c r="AI175" s="10"/>
+    </row>
+    <row r="176" spans="4:35">
+      <c r="D176" s="10"/>
+      <c r="E176" s="7"/>
+      <c r="F176" s="7" t="s">
+        <v>1340</v>
+      </c>
+      <c r="G176" s="7"/>
+      <c r="H176" s="7"/>
+      <c r="I176" s="10"/>
+      <c r="J176" s="10"/>
+      <c r="K176" s="10"/>
+      <c r="L176" s="10"/>
+      <c r="M176" s="10"/>
+      <c r="N176" s="10"/>
+      <c r="O176" s="10"/>
+      <c r="P176" s="10"/>
+      <c r="Q176" s="10"/>
+      <c r="R176" s="10"/>
+      <c r="S176" s="10"/>
+      <c r="T176" s="10"/>
+      <c r="U176" s="10"/>
+      <c r="V176" s="10"/>
+      <c r="W176" s="10"/>
+      <c r="X176" s="10"/>
+      <c r="Y176" s="10"/>
+      <c r="Z176" s="10"/>
+      <c r="AA176" s="10"/>
+      <c r="AB176" s="10"/>
+      <c r="AC176" s="10"/>
+      <c r="AD176" s="10"/>
+      <c r="AE176" s="10"/>
+      <c r="AF176" s="10"/>
+      <c r="AG176" s="10"/>
+      <c r="AH176" s="10"/>
+      <c r="AI176" s="10"/>
+    </row>
+    <row r="177" spans="4:35">
+      <c r="D177" s="10"/>
+      <c r="E177" s="7"/>
+      <c r="F177" s="7"/>
+      <c r="G177" s="7" t="s">
+        <v>1307</v>
+      </c>
+      <c r="H177" s="7"/>
+      <c r="I177" s="10"/>
+      <c r="J177" s="10"/>
+      <c r="K177" s="10"/>
+      <c r="L177" s="10"/>
+      <c r="M177" s="10"/>
+      <c r="N177" s="10"/>
+      <c r="O177" s="10"/>
+      <c r="P177" s="10"/>
+      <c r="Q177" s="10"/>
+      <c r="R177" s="10"/>
+      <c r="S177" s="10"/>
+      <c r="T177" s="10"/>
+      <c r="U177" s="10"/>
+      <c r="V177" s="10"/>
+      <c r="W177" s="10"/>
+      <c r="X177" s="10"/>
+      <c r="Y177" s="10"/>
+      <c r="Z177" s="10"/>
+      <c r="AA177" s="10"/>
+      <c r="AB177" s="10"/>
+      <c r="AC177" s="10"/>
+      <c r="AD177" s="10"/>
+      <c r="AE177" s="10"/>
+      <c r="AF177" s="10"/>
+      <c r="AG177" s="10"/>
+      <c r="AH177" s="10"/>
+      <c r="AI177" s="10"/>
+    </row>
+    <row r="178" spans="4:35">
+      <c r="D178" s="10"/>
+      <c r="E178" s="7"/>
+      <c r="F178" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="G178" s="7"/>
+      <c r="H178" s="7"/>
+      <c r="I178" s="10"/>
+      <c r="J178" s="10"/>
+      <c r="K178" s="10"/>
+      <c r="L178" s="10"/>
+      <c r="M178" s="10"/>
+      <c r="N178" s="10"/>
+      <c r="O178" s="10"/>
+      <c r="P178" s="10"/>
+      <c r="Q178" s="10"/>
+      <c r="R178" s="10"/>
+      <c r="S178" s="10"/>
+      <c r="T178" s="10"/>
+      <c r="U178" s="10"/>
+      <c r="V178" s="10"/>
+      <c r="W178" s="10"/>
+      <c r="X178" s="10"/>
+      <c r="Y178" s="10"/>
+      <c r="Z178" s="10"/>
+      <c r="AA178" s="10"/>
+      <c r="AB178" s="10"/>
+      <c r="AC178" s="10"/>
+      <c r="AD178" s="10"/>
+      <c r="AE178" s="10"/>
+      <c r="AF178" s="10"/>
+      <c r="AG178" s="10"/>
+      <c r="AH178" s="10"/>
+      <c r="AI178" s="10"/>
+    </row>
+    <row r="179" spans="4:35">
+      <c r="D179" s="10"/>
+      <c r="E179" s="7"/>
+      <c r="F179" s="7" t="s">
+        <v>1311</v>
+      </c>
+      <c r="G179" s="7"/>
+      <c r="H179" s="7"/>
+      <c r="I179" s="10"/>
+      <c r="J179" s="10"/>
+      <c r="K179" s="10"/>
+      <c r="L179" s="10"/>
+      <c r="M179" s="10"/>
+      <c r="N179" s="10"/>
+      <c r="O179" s="10"/>
+      <c r="P179" s="10"/>
+      <c r="Q179" s="10"/>
+      <c r="R179" s="10"/>
+      <c r="S179" s="10"/>
+      <c r="T179" s="10"/>
+      <c r="U179" s="10"/>
+      <c r="V179" s="10"/>
+      <c r="W179" s="10"/>
+      <c r="X179" s="10"/>
+      <c r="Y179" s="10"/>
+      <c r="Z179" s="10"/>
+      <c r="AA179" s="10"/>
+      <c r="AB179" s="10"/>
+      <c r="AC179" s="10"/>
+      <c r="AD179" s="10"/>
+      <c r="AE179" s="10"/>
+      <c r="AF179" s="10"/>
+      <c r="AG179" s="10"/>
+      <c r="AH179" s="10"/>
+      <c r="AI179" s="10"/>
+    </row>
+    <row r="180" spans="4:35">
+      <c r="D180" s="10"/>
+      <c r="E180" s="7"/>
+      <c r="F180" s="7" t="s">
+        <v>1322</v>
+      </c>
+      <c r="G180" s="7"/>
+      <c r="H180" s="7"/>
+      <c r="I180" s="10"/>
+      <c r="J180" s="10"/>
+      <c r="K180" s="10"/>
+      <c r="L180" s="10"/>
+      <c r="M180" s="10"/>
+      <c r="N180" s="10"/>
+      <c r="O180" s="10"/>
+      <c r="P180" s="10"/>
+      <c r="Q180" s="10"/>
+      <c r="R180" s="10"/>
+      <c r="S180" s="10"/>
+      <c r="T180" s="10"/>
+      <c r="U180" s="10"/>
+      <c r="V180" s="10"/>
+      <c r="W180" s="10"/>
+      <c r="X180" s="10"/>
+      <c r="Y180" s="10"/>
+      <c r="Z180" s="10"/>
+      <c r="AA180" s="10"/>
+      <c r="AB180" s="10"/>
+      <c r="AC180" s="10"/>
+      <c r="AD180" s="10"/>
+      <c r="AE180" s="10"/>
+      <c r="AF180" s="10"/>
+      <c r="AG180" s="10"/>
+      <c r="AH180" s="10"/>
+      <c r="AI180" s="10"/>
+    </row>
+    <row r="181" spans="4:35">
+      <c r="D181" s="10"/>
+      <c r="E181" s="7"/>
+      <c r="F181" s="7"/>
+      <c r="G181" s="7" t="s">
+        <v>1341</v>
+      </c>
+      <c r="H181" s="7"/>
+      <c r="I181" s="10"/>
+      <c r="J181" s="10"/>
+      <c r="K181" s="10"/>
+      <c r="L181" s="10"/>
+      <c r="M181" s="10"/>
+      <c r="N181" s="10"/>
+      <c r="O181" s="10"/>
+      <c r="P181" s="10"/>
+      <c r="Q181" s="10"/>
+      <c r="R181" s="10"/>
+      <c r="S181" s="10"/>
+      <c r="T181" s="10"/>
+      <c r="U181" s="10"/>
+      <c r="V181" s="10"/>
+      <c r="W181" s="10"/>
+      <c r="X181" s="10"/>
+      <c r="Y181" s="10"/>
+      <c r="Z181" s="10"/>
+      <c r="AA181" s="10"/>
+      <c r="AB181" s="10"/>
+      <c r="AC181" s="10"/>
+      <c r="AD181" s="10"/>
+      <c r="AE181" s="10"/>
+      <c r="AF181" s="10"/>
+      <c r="AG181" s="10"/>
+      <c r="AH181" s="10"/>
+      <c r="AI181" s="10"/>
+    </row>
+    <row r="182" spans="4:35">
+      <c r="D182" s="10"/>
+      <c r="E182" s="7"/>
+      <c r="F182" s="7"/>
+      <c r="G182" s="7"/>
+      <c r="H182" s="7" t="s">
+        <v>1342</v>
+      </c>
+      <c r="I182" s="10"/>
+      <c r="J182" s="10"/>
+      <c r="K182" s="10"/>
+      <c r="L182" s="10"/>
+      <c r="M182" s="10"/>
+      <c r="N182" s="10"/>
+      <c r="O182" s="10"/>
+      <c r="P182" s="10"/>
+      <c r="Q182" s="10"/>
+      <c r="R182" s="10"/>
+      <c r="S182" s="10"/>
+      <c r="T182" s="10"/>
+      <c r="U182" s="10"/>
+      <c r="V182" s="10"/>
+      <c r="W182" s="10"/>
+      <c r="X182" s="10"/>
+      <c r="Y182" s="10"/>
+      <c r="Z182" s="10"/>
+      <c r="AA182" s="10"/>
+      <c r="AB182" s="10"/>
+      <c r="AC182" s="10"/>
+      <c r="AD182" s="10"/>
+      <c r="AE182" s="10"/>
+      <c r="AF182" s="10"/>
+      <c r="AG182" s="10"/>
+      <c r="AH182" s="10"/>
+      <c r="AI182" s="10"/>
+    </row>
+    <row r="183" spans="4:35">
+      <c r="D183" s="10"/>
+      <c r="E183" s="7"/>
+      <c r="F183" s="7"/>
+      <c r="G183" s="7"/>
+      <c r="H183" s="7" t="s">
+        <v>1325</v>
+      </c>
+      <c r="I183" s="10"/>
+      <c r="J183" s="10"/>
+      <c r="K183" s="10"/>
+      <c r="L183" s="10"/>
+      <c r="M183" s="10"/>
+      <c r="N183" s="10"/>
+      <c r="O183" s="10"/>
+      <c r="P183" s="10"/>
+      <c r="Q183" s="10"/>
+      <c r="R183" s="10"/>
+      <c r="S183" s="10"/>
+      <c r="T183" s="10"/>
+      <c r="U183" s="10"/>
+      <c r="V183" s="10"/>
+      <c r="W183" s="10"/>
+      <c r="X183" s="10"/>
+      <c r="Y183" s="10"/>
+      <c r="Z183" s="10"/>
+      <c r="AA183" s="10"/>
+      <c r="AB183" s="10"/>
+      <c r="AC183" s="10"/>
+      <c r="AD183" s="10"/>
+      <c r="AE183" s="10"/>
+      <c r="AF183" s="10"/>
+      <c r="AG183" s="10"/>
+      <c r="AH183" s="10"/>
+      <c r="AI183" s="10"/>
+    </row>
+    <row r="184" spans="4:35">
+      <c r="D184" s="10"/>
+      <c r="E184" s="7"/>
+      <c r="F184" s="7"/>
+      <c r="G184" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="H184" s="7"/>
+      <c r="I184" s="10"/>
+      <c r="J184" s="10"/>
+      <c r="K184" s="10"/>
+      <c r="L184" s="10"/>
+      <c r="M184" s="10"/>
+      <c r="N184" s="10"/>
+      <c r="O184" s="10"/>
+      <c r="P184" s="10"/>
+      <c r="Q184" s="10"/>
+      <c r="R184" s="10"/>
+      <c r="S184" s="10"/>
+      <c r="T184" s="10"/>
+      <c r="U184" s="10"/>
+      <c r="V184" s="10"/>
+      <c r="W184" s="10"/>
+      <c r="X184" s="10"/>
+      <c r="Y184" s="10"/>
+      <c r="Z184" s="10"/>
+      <c r="AA184" s="10"/>
+      <c r="AB184" s="10"/>
+      <c r="AC184" s="10"/>
+      <c r="AD184" s="10"/>
+      <c r="AE184" s="10"/>
+      <c r="AF184" s="10"/>
+      <c r="AG184" s="10"/>
+      <c r="AH184" s="10"/>
+      <c r="AI184" s="10"/>
+    </row>
+    <row r="185" spans="4:35">
+      <c r="D185" s="10"/>
+      <c r="E185" s="7"/>
+      <c r="F185" s="7"/>
+      <c r="G185" s="7" t="s">
+        <v>1119</v>
+      </c>
+      <c r="H185" s="7"/>
+      <c r="I185" s="10"/>
+      <c r="J185" s="10"/>
+      <c r="K185" s="10"/>
+      <c r="L185" s="10"/>
+      <c r="M185" s="10"/>
+      <c r="N185" s="10"/>
+      <c r="O185" s="10"/>
+      <c r="P185" s="10"/>
+      <c r="Q185" s="10"/>
+      <c r="R185" s="10"/>
+      <c r="S185" s="10"/>
+      <c r="T185" s="10"/>
+      <c r="U185" s="10"/>
+      <c r="V185" s="10"/>
+      <c r="W185" s="10"/>
+      <c r="X185" s="10"/>
+      <c r="Y185" s="10"/>
+      <c r="Z185" s="10"/>
+      <c r="AA185" s="10"/>
+      <c r="AB185" s="10"/>
+      <c r="AC185" s="10"/>
+      <c r="AD185" s="10"/>
+      <c r="AE185" s="10"/>
+      <c r="AF185" s="10"/>
+      <c r="AG185" s="10"/>
+      <c r="AH185" s="10"/>
+      <c r="AI185" s="10"/>
+    </row>
+    <row r="186" spans="4:35">
+      <c r="D186" s="10"/>
+      <c r="E186" s="7"/>
+      <c r="F186" s="7"/>
+      <c r="G186" s="7"/>
+      <c r="H186" s="7" t="s">
+        <v>1343</v>
+      </c>
+      <c r="I186" s="10"/>
+      <c r="J186" s="10"/>
+      <c r="K186" s="10"/>
+      <c r="L186" s="10"/>
+      <c r="M186" s="10"/>
+      <c r="N186" s="10"/>
+      <c r="O186" s="10"/>
+      <c r="P186" s="10"/>
+      <c r="Q186" s="10"/>
+      <c r="R186" s="10"/>
+      <c r="S186" s="10"/>
+      <c r="T186" s="10"/>
+      <c r="U186" s="10"/>
+      <c r="V186" s="10"/>
+      <c r="W186" s="10"/>
+      <c r="X186" s="10"/>
+      <c r="Y186" s="10"/>
+      <c r="Z186" s="10"/>
+      <c r="AA186" s="10"/>
+      <c r="AB186" s="10"/>
+      <c r="AC186" s="10"/>
+      <c r="AD186" s="10"/>
+      <c r="AE186" s="10"/>
+      <c r="AF186" s="10"/>
+      <c r="AG186" s="10"/>
+      <c r="AH186" s="10"/>
+      <c r="AI186" s="10"/>
+    </row>
+    <row r="187" spans="4:35">
+      <c r="D187" s="10"/>
+      <c r="E187" s="7"/>
+      <c r="F187" s="7"/>
+      <c r="G187" s="7"/>
+      <c r="H187" s="7" t="s">
+        <v>1327</v>
+      </c>
+      <c r="I187" s="10"/>
+      <c r="J187" s="10"/>
+      <c r="K187" s="10"/>
+      <c r="L187" s="10"/>
+      <c r="M187" s="10"/>
+      <c r="N187" s="10"/>
+      <c r="O187" s="10"/>
+      <c r="P187" s="10"/>
+      <c r="Q187" s="10"/>
+      <c r="R187" s="10"/>
+      <c r="S187" s="10"/>
+      <c r="T187" s="10"/>
+      <c r="U187" s="10"/>
+      <c r="V187" s="10"/>
+      <c r="W187" s="10"/>
+      <c r="X187" s="10"/>
+      <c r="Y187" s="10"/>
+      <c r="Z187" s="10"/>
+      <c r="AA187" s="10"/>
+      <c r="AB187" s="10"/>
+      <c r="AC187" s="10"/>
+      <c r="AD187" s="10"/>
+      <c r="AE187" s="10"/>
+      <c r="AF187" s="10"/>
+      <c r="AG187" s="10"/>
+      <c r="AH187" s="10"/>
+      <c r="AI187" s="10"/>
+    </row>
+    <row r="188" spans="4:35">
+      <c r="D188" s="10"/>
+      <c r="E188" s="7"/>
+      <c r="F188" s="7"/>
+      <c r="G188" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="H188" s="7"/>
+      <c r="I188" s="10"/>
+      <c r="J188" s="10"/>
+      <c r="K188" s="10"/>
+      <c r="L188" s="10"/>
+      <c r="M188" s="10"/>
+      <c r="N188" s="10"/>
+      <c r="O188" s="10"/>
+      <c r="P188" s="10"/>
+      <c r="Q188" s="10"/>
+      <c r="R188" s="10"/>
+      <c r="S188" s="10"/>
+      <c r="T188" s="10"/>
+      <c r="U188" s="10"/>
+      <c r="V188" s="10"/>
+      <c r="W188" s="10"/>
+      <c r="X188" s="10"/>
+      <c r="Y188" s="10"/>
+      <c r="Z188" s="10"/>
+      <c r="AA188" s="10"/>
+      <c r="AB188" s="10"/>
+      <c r="AC188" s="10"/>
+      <c r="AD188" s="10"/>
+      <c r="AE188" s="10"/>
+      <c r="AF188" s="10"/>
+      <c r="AG188" s="10"/>
+      <c r="AH188" s="10"/>
+      <c r="AI188" s="10"/>
+    </row>
+    <row r="189" spans="4:35">
+      <c r="D189" s="10"/>
+      <c r="E189" s="7"/>
+      <c r="F189" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="G189" s="7"/>
+      <c r="H189" s="7"/>
+      <c r="I189" s="10"/>
+      <c r="J189" s="10"/>
+      <c r="K189" s="10"/>
+      <c r="L189" s="10"/>
+      <c r="M189" s="10"/>
+      <c r="N189" s="10"/>
+      <c r="O189" s="10"/>
+      <c r="P189" s="10"/>
+      <c r="Q189" s="10"/>
+      <c r="R189" s="10"/>
+      <c r="S189" s="10"/>
+      <c r="T189" s="10"/>
+      <c r="U189" s="10"/>
+      <c r="V189" s="10"/>
+      <c r="W189" s="10"/>
+      <c r="X189" s="10"/>
+      <c r="Y189" s="10"/>
+      <c r="Z189" s="10"/>
+      <c r="AA189" s="10"/>
+      <c r="AB189" s="10"/>
+      <c r="AC189" s="10"/>
+      <c r="AD189" s="10"/>
+      <c r="AE189" s="10"/>
+      <c r="AF189" s="10"/>
+      <c r="AG189" s="10"/>
+      <c r="AH189" s="10"/>
+      <c r="AI189" s="10"/>
+    </row>
+    <row r="190" spans="4:35">
+      <c r="D190" s="10"/>
+      <c r="E190" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="F190" s="7"/>
+      <c r="G190" s="7"/>
+      <c r="H190" s="7"/>
+      <c r="I190" s="10"/>
+      <c r="J190" s="10"/>
+      <c r="K190" s="10"/>
+      <c r="L190" s="10"/>
+      <c r="M190" s="10"/>
+      <c r="N190" s="10"/>
+      <c r="O190" s="10"/>
+      <c r="P190" s="10"/>
+      <c r="Q190" s="10"/>
+      <c r="R190" s="10"/>
+      <c r="S190" s="10"/>
+      <c r="T190" s="10"/>
+      <c r="U190" s="10"/>
+      <c r="V190" s="10"/>
+      <c r="W190" s="10"/>
+      <c r="X190" s="10"/>
+      <c r="Y190" s="10"/>
+      <c r="Z190" s="10"/>
+      <c r="AA190" s="10"/>
+      <c r="AB190" s="10"/>
+      <c r="AC190" s="10"/>
+      <c r="AD190" s="10"/>
+      <c r="AE190" s="10"/>
+      <c r="AF190" s="10"/>
+      <c r="AG190" s="10"/>
+      <c r="AH190" s="10"/>
+      <c r="AI190" s="10"/>
+    </row>
+    <row r="191" spans="4:35">
+      <c r="D191" s="10"/>
+      <c r="E191" s="10"/>
+      <c r="F191" s="10"/>
+      <c r="G191" s="10"/>
+      <c r="H191" s="10"/>
+      <c r="I191" s="10"/>
+      <c r="J191" s="10"/>
+      <c r="K191" s="10"/>
+      <c r="L191" s="10"/>
+      <c r="M191" s="10"/>
+      <c r="N191" s="10"/>
+      <c r="O191" s="10"/>
+      <c r="P191" s="10"/>
+      <c r="Q191" s="10"/>
+      <c r="R191" s="10"/>
+      <c r="S191" s="10"/>
+      <c r="T191" s="10"/>
+      <c r="U191" s="10"/>
+      <c r="V191" s="10"/>
+      <c r="W191" s="10"/>
+      <c r="X191" s="10"/>
+      <c r="Y191" s="10"/>
+      <c r="Z191" s="10"/>
+      <c r="AA191" s="10"/>
+      <c r="AB191" s="10"/>
+      <c r="AC191" s="10"/>
+      <c r="AD191" s="10"/>
+      <c r="AE191" s="10"/>
+      <c r="AF191" s="10"/>
+      <c r="AG191" s="10"/>
+      <c r="AH191" s="10"/>
+      <c r="AI191" s="10"/>
+    </row>
+    <row r="194" spans="4:34">
+      <c r="D194" s="2" t="s">
+        <v>1344</v>
+      </c>
+    </row>
+    <row r="195" spans="4:34">
+      <c r="D195" s="10"/>
+      <c r="E195" s="10"/>
+      <c r="F195" s="10"/>
+      <c r="G195" s="10"/>
+      <c r="H195" s="10"/>
+      <c r="I195" s="10"/>
+      <c r="J195" s="10"/>
+      <c r="K195" s="10"/>
+      <c r="L195" s="10"/>
+      <c r="M195" s="10"/>
+      <c r="N195" s="10"/>
+      <c r="O195" s="10"/>
+      <c r="P195" s="10"/>
+      <c r="Q195" s="10"/>
+      <c r="R195" s="10"/>
+      <c r="S195" s="10"/>
+      <c r="T195" s="10"/>
+      <c r="U195" s="10"/>
+      <c r="V195" s="10"/>
+      <c r="W195" s="10"/>
+      <c r="X195" s="10"/>
+      <c r="Y195" s="10"/>
+      <c r="Z195" s="10"/>
+      <c r="AA195" s="10"/>
+      <c r="AB195" s="10"/>
+      <c r="AC195" s="10"/>
+      <c r="AD195" s="10"/>
+      <c r="AE195" s="10"/>
+      <c r="AF195" s="10"/>
+      <c r="AG195" s="10"/>
+      <c r="AH195" s="10"/>
+    </row>
+    <row r="196" spans="4:34">
+      <c r="D196" s="10"/>
+      <c r="E196" s="7" t="s">
+        <v>1345</v>
+      </c>
+      <c r="F196" s="7"/>
+      <c r="G196" s="7"/>
+      <c r="H196" s="10"/>
+      <c r="I196" s="10"/>
+      <c r="J196" s="10"/>
+      <c r="K196" s="10"/>
+      <c r="L196" s="10"/>
+      <c r="M196" s="10"/>
+      <c r="N196" s="10"/>
+      <c r="O196" s="10"/>
+      <c r="P196" s="10"/>
+      <c r="Q196" s="10"/>
+      <c r="R196" s="10"/>
+      <c r="S196" s="10"/>
+      <c r="T196" s="10"/>
+      <c r="U196" s="10"/>
+      <c r="V196" s="10"/>
+      <c r="W196" s="10"/>
+      <c r="X196" s="10"/>
+      <c r="Y196" s="10"/>
+      <c r="Z196" s="10"/>
+      <c r="AA196" s="10"/>
+      <c r="AB196" s="10"/>
+      <c r="AC196" s="10"/>
+      <c r="AD196" s="10"/>
+      <c r="AE196" s="10"/>
+      <c r="AF196" s="10"/>
+      <c r="AG196" s="10"/>
+      <c r="AH196" s="10"/>
+    </row>
+    <row r="197" spans="4:34">
+      <c r="D197" s="10"/>
+      <c r="E197" s="7" t="s">
+        <v>1346</v>
+      </c>
+      <c r="F197" s="7"/>
+      <c r="G197" s="7"/>
+      <c r="H197" s="10"/>
+      <c r="I197" s="10"/>
+      <c r="J197" s="10"/>
+      <c r="K197" s="10"/>
+      <c r="L197" s="10"/>
+      <c r="M197" s="10"/>
+      <c r="N197" s="10"/>
+      <c r="O197" s="10"/>
+      <c r="P197" s="10"/>
+      <c r="Q197" s="10"/>
+      <c r="R197" s="10"/>
+      <c r="S197" s="10"/>
+      <c r="T197" s="10"/>
+      <c r="U197" s="10"/>
+      <c r="V197" s="10"/>
+      <c r="W197" s="10"/>
+      <c r="X197" s="10"/>
+      <c r="Y197" s="10"/>
+      <c r="Z197" s="10"/>
+      <c r="AA197" s="10"/>
+      <c r="AB197" s="10"/>
+      <c r="AC197" s="10"/>
+      <c r="AD197" s="10"/>
+      <c r="AE197" s="10"/>
+      <c r="AF197" s="10"/>
+      <c r="AG197" s="10"/>
+      <c r="AH197" s="10"/>
+    </row>
+    <row r="198" spans="4:34">
+      <c r="D198" s="10"/>
+      <c r="E198" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="F198" s="7"/>
+      <c r="G198" s="7"/>
+      <c r="H198" s="10"/>
+      <c r="I198" s="10"/>
+      <c r="J198" s="10"/>
+      <c r="K198" s="10"/>
+      <c r="L198" s="10"/>
+      <c r="M198" s="10"/>
+      <c r="N198" s="10"/>
+      <c r="O198" s="10"/>
+      <c r="P198" s="10"/>
+      <c r="Q198" s="10"/>
+      <c r="R198" s="10"/>
+      <c r="S198" s="10"/>
+      <c r="T198" s="10"/>
+      <c r="U198" s="10"/>
+      <c r="V198" s="10"/>
+      <c r="W198" s="10"/>
+      <c r="X198" s="10"/>
+      <c r="Y198" s="10"/>
+      <c r="Z198" s="10"/>
+      <c r="AA198" s="10"/>
+      <c r="AB198" s="10"/>
+      <c r="AC198" s="10"/>
+      <c r="AD198" s="10"/>
+      <c r="AE198" s="10"/>
+      <c r="AF198" s="10"/>
+      <c r="AG198" s="10"/>
+      <c r="AH198" s="10"/>
+    </row>
+    <row r="199" spans="4:34">
+      <c r="D199" s="10"/>
+      <c r="E199" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="F199" s="7"/>
+      <c r="G199" s="7"/>
+      <c r="H199" s="10"/>
+      <c r="I199" s="10"/>
+      <c r="J199" s="10"/>
+      <c r="K199" s="10"/>
+      <c r="L199" s="10"/>
+      <c r="M199" s="10"/>
+      <c r="N199" s="10"/>
+      <c r="O199" s="10"/>
+      <c r="P199" s="10"/>
+      <c r="Q199" s="10"/>
+      <c r="R199" s="10"/>
+      <c r="S199" s="10"/>
+      <c r="T199" s="10"/>
+      <c r="U199" s="10"/>
+      <c r="V199" s="10"/>
+      <c r="W199" s="10"/>
+      <c r="X199" s="10"/>
+      <c r="Y199" s="10"/>
+      <c r="Z199" s="10"/>
+      <c r="AA199" s="10"/>
+      <c r="AB199" s="10"/>
+      <c r="AC199" s="10"/>
+      <c r="AD199" s="10"/>
+      <c r="AE199" s="10"/>
+      <c r="AF199" s="10"/>
+      <c r="AG199" s="10"/>
+      <c r="AH199" s="10"/>
+    </row>
+    <row r="200" spans="4:34">
+      <c r="D200" s="10"/>
+      <c r="E200" s="7"/>
+      <c r="F200" s="7" t="s">
+        <v>1347</v>
+      </c>
+      <c r="G200" s="7"/>
+      <c r="H200" s="10"/>
+      <c r="I200" s="10"/>
+      <c r="J200" s="10"/>
+      <c r="K200" s="10"/>
+      <c r="L200" s="10"/>
+      <c r="M200" s="10"/>
+      <c r="N200" s="10"/>
+      <c r="O200" s="10"/>
+      <c r="P200" s="10"/>
+      <c r="Q200" s="10"/>
+      <c r="R200" s="10"/>
+      <c r="S200" s="10"/>
+      <c r="T200" s="10"/>
+      <c r="U200" s="10"/>
+      <c r="V200" s="10"/>
+      <c r="W200" s="10"/>
+      <c r="X200" s="10"/>
+      <c r="Y200" s="10"/>
+      <c r="Z200" s="10"/>
+      <c r="AA200" s="10"/>
+      <c r="AB200" s="10"/>
+      <c r="AC200" s="10"/>
+      <c r="AD200" s="10"/>
+      <c r="AE200" s="10"/>
+      <c r="AF200" s="10"/>
+      <c r="AG200" s="10"/>
+      <c r="AH200" s="10"/>
+    </row>
+    <row r="201" spans="4:34">
+      <c r="D201" s="10"/>
+      <c r="E201" s="7"/>
+      <c r="F201" s="7" t="s">
+        <v>1348</v>
+      </c>
+      <c r="G201" s="7"/>
+      <c r="H201" s="10"/>
+      <c r="I201" s="10"/>
+      <c r="J201" s="10"/>
+      <c r="K201" s="10"/>
+      <c r="L201" s="10"/>
+      <c r="M201" s="10"/>
+      <c r="N201" s="10"/>
+      <c r="O201" s="10"/>
+      <c r="P201" s="10"/>
+      <c r="Q201" s="10"/>
+      <c r="R201" s="10"/>
+      <c r="S201" s="10"/>
+      <c r="T201" s="10"/>
+      <c r="U201" s="10"/>
+      <c r="V201" s="10"/>
+      <c r="W201" s="10"/>
+      <c r="X201" s="10"/>
+      <c r="Y201" s="10"/>
+      <c r="Z201" s="10"/>
+      <c r="AA201" s="10"/>
+      <c r="AB201" s="10"/>
+      <c r="AC201" s="10"/>
+      <c r="AD201" s="10"/>
+      <c r="AE201" s="10"/>
+      <c r="AF201" s="10"/>
+      <c r="AG201" s="10"/>
+      <c r="AH201" s="10"/>
+    </row>
+    <row r="202" spans="4:34">
+      <c r="D202" s="10"/>
+      <c r="E202" s="7"/>
+      <c r="F202" s="7"/>
+      <c r="G202" s="7" t="s">
+        <v>1307</v>
+      </c>
+      <c r="H202" s="10"/>
+      <c r="I202" s="10"/>
+      <c r="J202" s="10"/>
+      <c r="K202" s="10"/>
+      <c r="L202" s="10"/>
+      <c r="M202" s="10"/>
+      <c r="N202" s="10"/>
+      <c r="O202" s="10"/>
+      <c r="P202" s="10"/>
+      <c r="Q202" s="10"/>
+      <c r="R202" s="10"/>
+      <c r="S202" s="10"/>
+      <c r="T202" s="10"/>
+      <c r="U202" s="10"/>
+      <c r="V202" s="10"/>
+      <c r="W202" s="10"/>
+      <c r="X202" s="10"/>
+      <c r="Y202" s="10"/>
+      <c r="Z202" s="10"/>
+      <c r="AA202" s="10"/>
+      <c r="AB202" s="10"/>
+      <c r="AC202" s="10"/>
+      <c r="AD202" s="10"/>
+      <c r="AE202" s="10"/>
+      <c r="AF202" s="10"/>
+      <c r="AG202" s="10"/>
+      <c r="AH202" s="10"/>
+    </row>
+    <row r="203" spans="4:34">
+      <c r="D203" s="10"/>
+      <c r="E203" s="7"/>
+      <c r="F203" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="G203" s="7"/>
+      <c r="H203" s="10"/>
+      <c r="I203" s="10"/>
+      <c r="J203" s="10"/>
+      <c r="K203" s="10"/>
+      <c r="L203" s="10"/>
+      <c r="M203" s="10"/>
+      <c r="N203" s="10"/>
+      <c r="O203" s="10"/>
+      <c r="P203" s="10"/>
+      <c r="Q203" s="10"/>
+      <c r="R203" s="10"/>
+      <c r="S203" s="10"/>
+      <c r="T203" s="10"/>
+      <c r="U203" s="10"/>
+      <c r="V203" s="10"/>
+      <c r="W203" s="10"/>
+      <c r="X203" s="10"/>
+      <c r="Y203" s="10"/>
+      <c r="Z203" s="10"/>
+      <c r="AA203" s="10"/>
+      <c r="AB203" s="10"/>
+      <c r="AC203" s="10"/>
+      <c r="AD203" s="10"/>
+      <c r="AE203" s="10"/>
+      <c r="AF203" s="10"/>
+      <c r="AG203" s="10"/>
+      <c r="AH203" s="10"/>
+    </row>
+    <row r="204" spans="4:34">
+      <c r="D204" s="10"/>
+      <c r="E204" s="7"/>
+      <c r="F204" s="7" t="s">
+        <v>1311</v>
+      </c>
+      <c r="G204" s="7"/>
+      <c r="H204" s="10"/>
+      <c r="I204" s="10"/>
+      <c r="J204" s="10"/>
+      <c r="K204" s="10"/>
+      <c r="L204" s="10"/>
+      <c r="M204" s="10"/>
+      <c r="N204" s="10"/>
+      <c r="O204" s="10"/>
+      <c r="P204" s="10"/>
+      <c r="Q204" s="10"/>
+      <c r="R204" s="10"/>
+      <c r="S204" s="10"/>
+      <c r="T204" s="10"/>
+      <c r="U204" s="10"/>
+      <c r="V204" s="10"/>
+      <c r="W204" s="10"/>
+      <c r="X204" s="10"/>
+      <c r="Y204" s="10"/>
+      <c r="Z204" s="10"/>
+      <c r="AA204" s="10"/>
+      <c r="AB204" s="10"/>
+      <c r="AC204" s="10"/>
+      <c r="AD204" s="10"/>
+      <c r="AE204" s="10"/>
+      <c r="AF204" s="10"/>
+      <c r="AG204" s="10"/>
+      <c r="AH204" s="10"/>
+    </row>
+    <row r="205" spans="4:34">
+      <c r="D205" s="10"/>
+      <c r="E205" s="7"/>
+      <c r="F205" s="7" t="s">
+        <v>1322</v>
+      </c>
+      <c r="G205" s="7"/>
+      <c r="H205" s="10"/>
+      <c r="I205" s="10"/>
+      <c r="J205" s="10"/>
+      <c r="K205" s="10"/>
+      <c r="L205" s="10"/>
+      <c r="M205" s="10"/>
+      <c r="N205" s="10"/>
+      <c r="O205" s="10"/>
+      <c r="P205" s="10"/>
+      <c r="Q205" s="10"/>
+      <c r="R205" s="10"/>
+      <c r="S205" s="10"/>
+      <c r="T205" s="10"/>
+      <c r="U205" s="10"/>
+      <c r="V205" s="10"/>
+      <c r="W205" s="10"/>
+      <c r="X205" s="10"/>
+      <c r="Y205" s="10"/>
+      <c r="Z205" s="10"/>
+      <c r="AA205" s="10"/>
+      <c r="AB205" s="10"/>
+      <c r="AC205" s="10"/>
+      <c r="AD205" s="10"/>
+      <c r="AE205" s="10"/>
+      <c r="AF205" s="10"/>
+      <c r="AG205" s="10"/>
+      <c r="AH205" s="10"/>
+    </row>
+    <row r="206" spans="4:34">
+      <c r="D206" s="10"/>
+      <c r="E206" s="7"/>
+      <c r="F206" s="7"/>
+      <c r="G206" s="7" t="s">
+        <v>1349</v>
+      </c>
+      <c r="H206" s="10"/>
+      <c r="I206" s="10"/>
+      <c r="J206" s="10"/>
+      <c r="K206" s="10"/>
+      <c r="L206" s="10"/>
+      <c r="M206" s="10"/>
+      <c r="N206" s="10"/>
+      <c r="O206" s="10"/>
+      <c r="P206" s="10"/>
+      <c r="Q206" s="10"/>
+      <c r="R206" s="10"/>
+      <c r="S206" s="10"/>
+      <c r="T206" s="10"/>
+      <c r="U206" s="10"/>
+      <c r="V206" s="10"/>
+      <c r="W206" s="10"/>
+      <c r="X206" s="10"/>
+      <c r="Y206" s="10"/>
+      <c r="Z206" s="10"/>
+      <c r="AA206" s="10"/>
+      <c r="AB206" s="10"/>
+      <c r="AC206" s="10"/>
+      <c r="AD206" s="10"/>
+      <c r="AE206" s="10"/>
+      <c r="AF206" s="10"/>
+      <c r="AG206" s="10"/>
+      <c r="AH206" s="10"/>
+    </row>
+    <row r="207" spans="4:34">
+      <c r="D207" s="10"/>
+      <c r="E207" s="7"/>
+      <c r="F207" s="7"/>
+      <c r="G207" s="7" t="s">
+        <v>1325</v>
+      </c>
+      <c r="H207" s="10"/>
+      <c r="I207" s="10"/>
+      <c r="J207" s="10"/>
+      <c r="K207" s="10"/>
+      <c r="L207" s="10"/>
+      <c r="M207" s="10"/>
+      <c r="N207" s="10"/>
+      <c r="O207" s="10"/>
+      <c r="P207" s="10"/>
+      <c r="Q207" s="10"/>
+      <c r="R207" s="10"/>
+      <c r="S207" s="10"/>
+      <c r="T207" s="10"/>
+      <c r="U207" s="10"/>
+      <c r="V207" s="10"/>
+      <c r="W207" s="10"/>
+      <c r="X207" s="10"/>
+      <c r="Y207" s="10"/>
+      <c r="Z207" s="10"/>
+      <c r="AA207" s="10"/>
+      <c r="AB207" s="10"/>
+      <c r="AC207" s="10"/>
+      <c r="AD207" s="10"/>
+      <c r="AE207" s="10"/>
+      <c r="AF207" s="10"/>
+      <c r="AG207" s="10"/>
+      <c r="AH207" s="10"/>
+    </row>
+    <row r="208" spans="4:34">
+      <c r="D208" s="10"/>
+      <c r="E208" s="7"/>
+      <c r="F208" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="G208" s="7"/>
+      <c r="H208" s="10"/>
+      <c r="I208" s="10"/>
+      <c r="J208" s="10"/>
+      <c r="K208" s="10"/>
+      <c r="L208" s="10"/>
+      <c r="M208" s="10"/>
+      <c r="N208" s="10"/>
+      <c r="O208" s="10"/>
+      <c r="P208" s="10"/>
+      <c r="Q208" s="10"/>
+      <c r="R208" s="10"/>
+      <c r="S208" s="10"/>
+      <c r="T208" s="10"/>
+      <c r="U208" s="10"/>
+      <c r="V208" s="10"/>
+      <c r="W208" s="10"/>
+      <c r="X208" s="10"/>
+      <c r="Y208" s="10"/>
+      <c r="Z208" s="10"/>
+      <c r="AA208" s="10"/>
+      <c r="AB208" s="10"/>
+      <c r="AC208" s="10"/>
+      <c r="AD208" s="10"/>
+      <c r="AE208" s="10"/>
+      <c r="AF208" s="10"/>
+      <c r="AG208" s="10"/>
+      <c r="AH208" s="10"/>
+    </row>
+    <row r="209" spans="4:34">
+      <c r="D209" s="10"/>
+      <c r="E209" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="F209" s="7"/>
+      <c r="G209" s="7"/>
+      <c r="H209" s="10"/>
+      <c r="I209" s="10"/>
+      <c r="J209" s="10"/>
+      <c r="K209" s="10"/>
+      <c r="L209" s="10"/>
+      <c r="M209" s="10"/>
+      <c r="N209" s="10"/>
+      <c r="O209" s="10"/>
+      <c r="P209" s="10"/>
+      <c r="Q209" s="10"/>
+      <c r="R209" s="10"/>
+      <c r="S209" s="10"/>
+      <c r="T209" s="10"/>
+      <c r="U209" s="10"/>
+      <c r="V209" s="10"/>
+      <c r="W209" s="10"/>
+      <c r="X209" s="10"/>
+      <c r="Y209" s="10"/>
+      <c r="Z209" s="10"/>
+      <c r="AA209" s="10"/>
+      <c r="AB209" s="10"/>
+      <c r="AC209" s="10"/>
+      <c r="AD209" s="10"/>
+      <c r="AE209" s="10"/>
+      <c r="AF209" s="10"/>
+      <c r="AG209" s="10"/>
+      <c r="AH209" s="10"/>
+    </row>
+    <row r="210" spans="4:34">
+      <c r="D210" s="10"/>
+      <c r="E210" s="10"/>
+      <c r="F210" s="10"/>
+      <c r="G210" s="10"/>
+      <c r="H210" s="10"/>
+      <c r="I210" s="10"/>
+      <c r="J210" s="10"/>
+      <c r="K210" s="10"/>
+      <c r="L210" s="10"/>
+      <c r="M210" s="10"/>
+      <c r="N210" s="10"/>
+      <c r="O210" s="10"/>
+      <c r="P210" s="10"/>
+      <c r="Q210" s="10"/>
+      <c r="R210" s="10"/>
+      <c r="S210" s="10"/>
+      <c r="T210" s="10"/>
+      <c r="U210" s="10"/>
+      <c r="V210" s="10"/>
+      <c r="W210" s="10"/>
+      <c r="X210" s="10"/>
+      <c r="Y210" s="10"/>
+      <c r="Z210" s="10"/>
+      <c r="AA210" s="10"/>
+      <c r="AB210" s="10"/>
+      <c r="AC210" s="10"/>
+      <c r="AD210" s="10"/>
+      <c r="AE210" s="10"/>
+      <c r="AF210" s="10"/>
+      <c r="AG210" s="10"/>
+      <c r="AH210" s="10"/>
+    </row>
+    <row r="213" spans="4:34">
+      <c r="D213" s="31" t="s">
+        <v>904</v>
+      </c>
+      <c r="E213" s="2" t="s">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="214" spans="4:34">
+      <c r="D214" t="s">
+        <v>1351</v>
+      </c>
+    </row>
+    <row r="215" spans="4:34">
+      <c r="D215" s="10"/>
+      <c r="E215" s="10"/>
+      <c r="F215" s="10"/>
+      <c r="G215" s="10"/>
+      <c r="H215" s="10"/>
+      <c r="I215" s="10"/>
+      <c r="J215" s="10"/>
+      <c r="K215" s="10"/>
+      <c r="L215" s="10"/>
+      <c r="M215" s="10"/>
+      <c r="N215" s="10"/>
+      <c r="O215" s="10"/>
+      <c r="P215" s="10"/>
+      <c r="Q215" s="10"/>
+      <c r="R215" s="10"/>
+      <c r="S215" s="10"/>
+      <c r="T215" s="10"/>
+      <c r="U215" s="10"/>
+      <c r="V215" s="10"/>
+      <c r="W215" s="10"/>
+      <c r="X215" s="10"/>
+      <c r="Y215" s="10"/>
+    </row>
+    <row r="216" spans="4:34">
+      <c r="D216" s="10"/>
+      <c r="E216" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="F216" s="7"/>
+      <c r="G216" s="10"/>
+      <c r="H216" s="10"/>
+      <c r="I216" s="10"/>
+      <c r="J216" s="10"/>
+      <c r="K216" s="10"/>
+      <c r="L216" s="10"/>
+      <c r="M216" s="10"/>
+      <c r="N216" s="10"/>
+      <c r="O216" s="10"/>
+      <c r="P216" s="10"/>
+      <c r="Q216" s="10"/>
+      <c r="R216" s="10"/>
+      <c r="S216" s="10"/>
+      <c r="T216" s="10"/>
+      <c r="U216" s="10"/>
+      <c r="V216" s="10"/>
+      <c r="W216" s="10"/>
+      <c r="X216" s="10"/>
+      <c r="Y216" s="10"/>
+    </row>
+    <row r="217" spans="4:34">
+      <c r="D217" s="10"/>
+      <c r="E217" s="7" t="s">
+        <v>1352</v>
+      </c>
+      <c r="F217" s="7"/>
+      <c r="G217" s="10"/>
+      <c r="H217" s="10"/>
+      <c r="I217" s="10"/>
+      <c r="J217" s="10"/>
+      <c r="K217" s="10"/>
+      <c r="L217" s="10"/>
+      <c r="M217" s="10"/>
+      <c r="N217" s="10"/>
+      <c r="O217" s="10"/>
+      <c r="P217" s="10"/>
+      <c r="Q217" s="10"/>
+      <c r="R217" s="10"/>
+      <c r="S217" s="10"/>
+      <c r="T217" s="10"/>
+      <c r="U217" s="10"/>
+      <c r="V217" s="10"/>
+      <c r="W217" s="10"/>
+      <c r="X217" s="10"/>
+      <c r="Y217" s="10"/>
+    </row>
+    <row r="218" spans="4:34">
+      <c r="D218" s="10"/>
+      <c r="E218" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="F218" s="7"/>
+      <c r="G218" s="10"/>
+      <c r="H218" s="10"/>
+      <c r="I218" s="10"/>
+      <c r="J218" s="10"/>
+      <c r="K218" s="10"/>
+      <c r="L218" s="10"/>
+      <c r="M218" s="10"/>
+      <c r="N218" s="10"/>
+      <c r="O218" s="10"/>
+      <c r="P218" s="10"/>
+      <c r="Q218" s="10"/>
+      <c r="R218" s="10"/>
+      <c r="S218" s="10"/>
+      <c r="T218" s="10"/>
+      <c r="U218" s="10"/>
+      <c r="V218" s="10"/>
+      <c r="W218" s="10"/>
+      <c r="X218" s="10"/>
+      <c r="Y218" s="10"/>
+    </row>
+    <row r="219" spans="4:34">
+      <c r="D219" s="10"/>
+      <c r="E219" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="F219" s="7"/>
+      <c r="G219" s="10"/>
+      <c r="H219" s="10"/>
+      <c r="I219" s="10"/>
+      <c r="J219" s="10"/>
+      <c r="K219" s="10"/>
+      <c r="L219" s="10"/>
+      <c r="M219" s="10"/>
+      <c r="N219" s="10"/>
+      <c r="O219" s="10"/>
+      <c r="P219" s="10"/>
+      <c r="Q219" s="10"/>
+      <c r="R219" s="10"/>
+      <c r="S219" s="10"/>
+      <c r="T219" s="10"/>
+      <c r="U219" s="10"/>
+      <c r="V219" s="10"/>
+      <c r="W219" s="10"/>
+      <c r="X219" s="10"/>
+      <c r="Y219" s="10"/>
+    </row>
+    <row r="220" spans="4:34">
+      <c r="D220" s="10"/>
+      <c r="E220" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="F220" s="7"/>
+      <c r="G220" s="10"/>
+      <c r="H220" s="10"/>
+      <c r="I220" s="10"/>
+      <c r="J220" s="10"/>
+      <c r="K220" s="10"/>
+      <c r="L220" s="10"/>
+      <c r="M220" s="10"/>
+      <c r="N220" s="10"/>
+      <c r="O220" s="10"/>
+      <c r="P220" s="10"/>
+      <c r="Q220" s="10"/>
+      <c r="R220" s="10"/>
+      <c r="S220" s="10"/>
+      <c r="T220" s="10"/>
+      <c r="U220" s="10"/>
+      <c r="V220" s="10"/>
+      <c r="W220" s="10"/>
+      <c r="X220" s="10"/>
+      <c r="Y220" s="10"/>
+    </row>
+    <row r="221" spans="4:34">
+      <c r="D221" s="10"/>
+      <c r="E221" s="7"/>
+      <c r="F221" s="7" t="s">
+        <v>1353</v>
+      </c>
+      <c r="G221" s="10"/>
+      <c r="H221" s="10"/>
+      <c r="I221" s="10"/>
+      <c r="J221" s="10"/>
+      <c r="K221" s="10"/>
+      <c r="L221" s="10"/>
+      <c r="M221" s="10"/>
+      <c r="N221" s="10"/>
+      <c r="O221" s="10"/>
+      <c r="P221" s="10"/>
+      <c r="Q221" s="10"/>
+      <c r="R221" s="10"/>
+      <c r="S221" s="10"/>
+      <c r="T221" s="10"/>
+      <c r="U221" s="10"/>
+      <c r="V221" s="10"/>
+      <c r="W221" s="10"/>
+      <c r="X221" s="10"/>
+      <c r="Y221" s="10"/>
+    </row>
+    <row r="222" spans="4:34">
+      <c r="D222" s="10"/>
+      <c r="E222" s="7"/>
+      <c r="F222" s="7" t="s">
+        <v>1354</v>
+      </c>
+      <c r="G222" s="10"/>
+      <c r="H222" s="10"/>
+      <c r="I222" s="10"/>
+      <c r="J222" s="10"/>
+      <c r="K222" s="10"/>
+      <c r="L222" s="10"/>
+      <c r="M222" s="10"/>
+      <c r="N222" s="10"/>
+      <c r="O222" s="10"/>
+      <c r="P222" s="10"/>
+      <c r="Q222" s="10"/>
+      <c r="R222" s="10"/>
+      <c r="S222" s="10"/>
+      <c r="T222" s="10"/>
+      <c r="U222" s="10"/>
+      <c r="V222" s="10"/>
+      <c r="W222" s="10"/>
+      <c r="X222" s="10"/>
+      <c r="Y222" s="10"/>
+    </row>
+    <row r="223" spans="4:34">
+      <c r="D223" s="10"/>
+      <c r="E223" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="F223" s="7"/>
+      <c r="G223" s="10"/>
+      <c r="H223" s="10"/>
+      <c r="I223" s="10"/>
+      <c r="J223" s="10"/>
+      <c r="K223" s="10"/>
+      <c r="L223" s="10"/>
+      <c r="M223" s="10"/>
+      <c r="N223" s="10"/>
+      <c r="O223" s="10"/>
+      <c r="P223" s="10"/>
+      <c r="Q223" s="10"/>
+      <c r="R223" s="10"/>
+      <c r="S223" s="10"/>
+      <c r="T223" s="10"/>
+      <c r="U223" s="10"/>
+      <c r="V223" s="10"/>
+      <c r="W223" s="10"/>
+      <c r="X223" s="10"/>
+      <c r="Y223" s="10"/>
+    </row>
+    <row r="224" spans="4:34">
+      <c r="D224" s="10"/>
+      <c r="E224" s="7"/>
+      <c r="F224" s="7" t="s">
+        <v>1355</v>
+      </c>
+      <c r="G224" s="10"/>
+      <c r="H224" s="10"/>
+      <c r="I224" s="10"/>
+      <c r="J224" s="10"/>
+      <c r="K224" s="10"/>
+      <c r="L224" s="10"/>
+      <c r="M224" s="10"/>
+      <c r="N224" s="10"/>
+      <c r="O224" s="10"/>
+      <c r="P224" s="10"/>
+      <c r="Q224" s="10"/>
+      <c r="R224" s="10"/>
+      <c r="S224" s="10"/>
+      <c r="T224" s="10"/>
+      <c r="U224" s="10"/>
+      <c r="V224" s="10"/>
+      <c r="W224" s="10"/>
+      <c r="X224" s="10"/>
+      <c r="Y224" s="10"/>
+    </row>
+    <row r="225" spans="4:25">
+      <c r="D225" s="10"/>
+      <c r="E225" s="7"/>
+      <c r="F225" s="7" t="s">
+        <v>1356</v>
+      </c>
+      <c r="G225" s="10"/>
+      <c r="H225" s="10"/>
+      <c r="I225" s="10"/>
+      <c r="J225" s="10"/>
+      <c r="K225" s="10"/>
+      <c r="L225" s="10"/>
+      <c r="M225" s="10"/>
+      <c r="N225" s="10"/>
+      <c r="O225" s="10"/>
+      <c r="P225" s="10"/>
+      <c r="Q225" s="10"/>
+      <c r="R225" s="10"/>
+      <c r="S225" s="10"/>
+      <c r="T225" s="10"/>
+      <c r="U225" s="10"/>
+      <c r="V225" s="10"/>
+      <c r="W225" s="10"/>
+      <c r="X225" s="10"/>
+      <c r="Y225" s="10"/>
+    </row>
+    <row r="226" spans="4:25">
+      <c r="D226" s="10"/>
+      <c r="E226" s="7"/>
+      <c r="F226" s="7" t="s">
+        <v>1357</v>
+      </c>
+      <c r="G226" s="10"/>
+      <c r="H226" s="10"/>
+      <c r="I226" s="10"/>
+      <c r="J226" s="10"/>
+      <c r="K226" s="10"/>
+      <c r="L226" s="10"/>
+      <c r="M226" s="10"/>
+      <c r="N226" s="10"/>
+      <c r="O226" s="10"/>
+      <c r="P226" s="10"/>
+      <c r="Q226" s="10"/>
+      <c r="R226" s="10"/>
+      <c r="S226" s="10"/>
+      <c r="T226" s="10"/>
+      <c r="U226" s="10"/>
+      <c r="V226" s="10"/>
+      <c r="W226" s="10"/>
+      <c r="X226" s="10"/>
+      <c r="Y226" s="10"/>
+    </row>
+    <row r="227" spans="4:25">
+      <c r="D227" s="10"/>
+      <c r="E227" s="7"/>
+      <c r="F227" s="7" t="s">
+        <v>1358</v>
+      </c>
+      <c r="G227" s="10"/>
+      <c r="H227" s="10"/>
+      <c r="I227" s="10"/>
+      <c r="J227" s="10"/>
+      <c r="K227" s="10"/>
+      <c r="L227" s="10"/>
+      <c r="M227" s="10"/>
+      <c r="N227" s="10"/>
+      <c r="O227" s="10"/>
+      <c r="P227" s="10"/>
+      <c r="Q227" s="10"/>
+      <c r="R227" s="10"/>
+      <c r="S227" s="10"/>
+      <c r="T227" s="10"/>
+      <c r="U227" s="10"/>
+      <c r="V227" s="10"/>
+      <c r="W227" s="10"/>
+      <c r="X227" s="10"/>
+      <c r="Y227" s="10"/>
+    </row>
+    <row r="228" spans="4:25">
+      <c r="D228" s="10"/>
+      <c r="E228" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="F228" s="7"/>
+      <c r="G228" s="10"/>
+      <c r="H228" s="10"/>
+      <c r="I228" s="10"/>
+      <c r="J228" s="10"/>
+      <c r="K228" s="10"/>
+      <c r="L228" s="10"/>
+      <c r="M228" s="10"/>
+      <c r="N228" s="10"/>
+      <c r="O228" s="10"/>
+      <c r="P228" s="10"/>
+      <c r="Q228" s="10"/>
+      <c r="R228" s="10"/>
+      <c r="S228" s="10"/>
+      <c r="T228" s="10"/>
+      <c r="U228" s="10"/>
+      <c r="V228" s="10"/>
+      <c r="W228" s="10"/>
+      <c r="X228" s="10"/>
+      <c r="Y228" s="10"/>
+    </row>
+    <row r="229" spans="4:25">
+      <c r="D229" s="10"/>
+      <c r="E229" s="7"/>
+      <c r="F229" s="7" t="s">
+        <v>1359</v>
+      </c>
+      <c r="G229" s="10"/>
+      <c r="H229" s="10"/>
+      <c r="I229" s="10"/>
+      <c r="J229" s="10"/>
+      <c r="K229" s="10"/>
+      <c r="L229" s="10"/>
+      <c r="M229" s="10"/>
+      <c r="N229" s="10"/>
+      <c r="O229" s="10"/>
+      <c r="P229" s="10"/>
+      <c r="Q229" s="10"/>
+      <c r="R229" s="10"/>
+      <c r="S229" s="10"/>
+      <c r="T229" s="10"/>
+      <c r="U229" s="10"/>
+      <c r="V229" s="10"/>
+      <c r="W229" s="10"/>
+      <c r="X229" s="10"/>
+      <c r="Y229" s="10"/>
+    </row>
+    <row r="230" spans="4:25">
+      <c r="D230" s="10"/>
+      <c r="E230" s="7"/>
+      <c r="F230" s="7" t="s">
+        <v>1360</v>
+      </c>
+      <c r="G230" s="10"/>
+      <c r="H230" s="10"/>
+      <c r="I230" s="10"/>
+      <c r="J230" s="10"/>
+      <c r="K230" s="10"/>
+      <c r="L230" s="10"/>
+      <c r="M230" s="10"/>
+      <c r="N230" s="10"/>
+      <c r="O230" s="10"/>
+      <c r="P230" s="10"/>
+      <c r="Q230" s="10"/>
+      <c r="R230" s="10"/>
+      <c r="S230" s="10"/>
+      <c r="T230" s="10"/>
+      <c r="U230" s="10"/>
+      <c r="V230" s="10"/>
+      <c r="W230" s="10"/>
+      <c r="X230" s="10"/>
+      <c r="Y230" s="10"/>
+    </row>
+    <row r="231" spans="4:25">
+      <c r="D231" s="10"/>
+      <c r="E231" s="7"/>
+      <c r="F231" s="7" t="s">
+        <v>1361</v>
+      </c>
+      <c r="G231" s="10"/>
+      <c r="H231" s="10"/>
+      <c r="I231" s="10"/>
+      <c r="J231" s="10"/>
+      <c r="K231" s="10"/>
+      <c r="L231" s="10"/>
+      <c r="M231" s="10"/>
+      <c r="N231" s="10"/>
+      <c r="O231" s="10"/>
+      <c r="P231" s="10"/>
+      <c r="Q231" s="10"/>
+      <c r="R231" s="10"/>
+      <c r="S231" s="10"/>
+      <c r="T231" s="10"/>
+      <c r="U231" s="10"/>
+      <c r="V231" s="10"/>
+      <c r="W231" s="10"/>
+      <c r="X231" s="10"/>
+      <c r="Y231" s="10"/>
+    </row>
+    <row r="232" spans="4:25">
+      <c r="D232" s="10"/>
+      <c r="E232" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="F232" s="7"/>
+      <c r="G232" s="10"/>
+      <c r="H232" s="10"/>
+      <c r="I232" s="10"/>
+      <c r="J232" s="10"/>
+      <c r="K232" s="10"/>
+      <c r="L232" s="10"/>
+      <c r="M232" s="10"/>
+      <c r="N232" s="10"/>
+      <c r="O232" s="10"/>
+      <c r="P232" s="10"/>
+      <c r="Q232" s="10"/>
+      <c r="R232" s="10"/>
+      <c r="S232" s="10"/>
+      <c r="T232" s="10"/>
+      <c r="U232" s="10"/>
+      <c r="V232" s="10"/>
+      <c r="W232" s="10"/>
+      <c r="X232" s="10"/>
+      <c r="Y232" s="10"/>
+    </row>
+    <row r="233" spans="4:25">
+      <c r="D233" s="10"/>
+      <c r="E233" s="7"/>
+      <c r="F233" s="7" t="s">
+        <v>1362</v>
+      </c>
+      <c r="G233" s="10"/>
+      <c r="H233" s="10"/>
+      <c r="I233" s="10"/>
+      <c r="J233" s="10"/>
+      <c r="K233" s="10"/>
+      <c r="L233" s="10"/>
+      <c r="M233" s="10"/>
+      <c r="N233" s="10"/>
+      <c r="O233" s="10"/>
+      <c r="P233" s="10"/>
+      <c r="Q233" s="10"/>
+      <c r="R233" s="10"/>
+      <c r="S233" s="10"/>
+      <c r="T233" s="10"/>
+      <c r="U233" s="10"/>
+      <c r="V233" s="10"/>
+      <c r="W233" s="10"/>
+      <c r="X233" s="10"/>
+      <c r="Y233" s="10"/>
+    </row>
+    <row r="234" spans="4:25">
+      <c r="D234" s="10"/>
+      <c r="E234" s="7"/>
+      <c r="F234" s="7" t="s">
+        <v>1363</v>
+      </c>
+      <c r="G234" s="10"/>
+      <c r="H234" s="10"/>
+      <c r="I234" s="10"/>
+      <c r="J234" s="10"/>
+      <c r="K234" s="10"/>
+      <c r="L234" s="10"/>
+      <c r="M234" s="10"/>
+      <c r="N234" s="10"/>
+      <c r="O234" s="10"/>
+      <c r="P234" s="10"/>
+      <c r="Q234" s="10"/>
+      <c r="R234" s="10"/>
+      <c r="S234" s="10"/>
+      <c r="T234" s="10"/>
+      <c r="U234" s="10"/>
+      <c r="V234" s="10"/>
+      <c r="W234" s="10"/>
+      <c r="X234" s="10"/>
+      <c r="Y234" s="10"/>
+    </row>
+    <row r="235" spans="4:25">
+      <c r="D235" s="10"/>
+      <c r="E235" s="7"/>
+      <c r="F235" s="7" t="s">
+        <v>1364</v>
+      </c>
+      <c r="G235" s="10"/>
+      <c r="H235" s="10"/>
+      <c r="I235" s="10"/>
+      <c r="J235" s="10"/>
+      <c r="K235" s="10"/>
+      <c r="L235" s="10"/>
+      <c r="M235" s="10"/>
+      <c r="N235" s="10"/>
+      <c r="O235" s="10"/>
+      <c r="P235" s="10"/>
+      <c r="Q235" s="10"/>
+      <c r="R235" s="10"/>
+      <c r="S235" s="10"/>
+      <c r="T235" s="10"/>
+      <c r="U235" s="10"/>
+      <c r="V235" s="10"/>
+      <c r="W235" s="10"/>
+      <c r="X235" s="10"/>
+      <c r="Y235" s="10"/>
+    </row>
+    <row r="236" spans="4:25">
+      <c r="D236" s="10"/>
+      <c r="E236" s="7"/>
+      <c r="F236" s="7" t="s">
+        <v>1365</v>
+      </c>
+      <c r="G236" s="10"/>
+      <c r="H236" s="10"/>
+      <c r="I236" s="10"/>
+      <c r="J236" s="10"/>
+      <c r="K236" s="10"/>
+      <c r="L236" s="10"/>
+      <c r="M236" s="10"/>
+      <c r="N236" s="10"/>
+      <c r="O236" s="10"/>
+      <c r="P236" s="10"/>
+      <c r="Q236" s="10"/>
+      <c r="R236" s="10"/>
+      <c r="S236" s="10"/>
+      <c r="T236" s="10"/>
+      <c r="U236" s="10"/>
+      <c r="V236" s="10"/>
+      <c r="W236" s="10"/>
+      <c r="X236" s="10"/>
+      <c r="Y236" s="10"/>
+    </row>
+    <row r="237" spans="4:25">
+      <c r="D237" s="10"/>
+      <c r="E237" s="7"/>
+      <c r="F237" s="7" t="s">
+        <v>1366</v>
+      </c>
+      <c r="G237" s="10"/>
+      <c r="H237" s="10"/>
+      <c r="I237" s="10"/>
+      <c r="J237" s="10"/>
+      <c r="K237" s="10"/>
+      <c r="L237" s="10"/>
+      <c r="M237" s="10"/>
+      <c r="N237" s="10"/>
+      <c r="O237" s="10"/>
+      <c r="P237" s="10"/>
+      <c r="Q237" s="10"/>
+      <c r="R237" s="10"/>
+      <c r="S237" s="10"/>
+      <c r="T237" s="10"/>
+      <c r="U237" s="10"/>
+      <c r="V237" s="10"/>
+      <c r="W237" s="10"/>
+      <c r="X237" s="10"/>
+      <c r="Y237" s="10"/>
+    </row>
+    <row r="238" spans="4:25">
+      <c r="D238" s="10"/>
+      <c r="E238" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="F238" s="7"/>
+      <c r="G238" s="10"/>
+      <c r="H238" s="10"/>
+      <c r="I238" s="10"/>
+      <c r="J238" s="10"/>
+      <c r="K238" s="10"/>
+      <c r="L238" s="10"/>
+      <c r="M238" s="10"/>
+      <c r="N238" s="10"/>
+      <c r="O238" s="10"/>
+      <c r="P238" s="10"/>
+      <c r="Q238" s="10"/>
+      <c r="R238" s="10"/>
+      <c r="S238" s="10"/>
+      <c r="T238" s="10"/>
+      <c r="U238" s="10"/>
+      <c r="V238" s="10"/>
+      <c r="W238" s="10"/>
+      <c r="X238" s="10"/>
+      <c r="Y238" s="10"/>
+    </row>
+    <row r="239" spans="4:25">
+      <c r="D239" s="10"/>
+      <c r="E239" s="7"/>
+      <c r="F239" s="7" t="s">
+        <v>1367</v>
+      </c>
+      <c r="G239" s="10"/>
+      <c r="H239" s="10"/>
+      <c r="I239" s="10"/>
+      <c r="J239" s="10"/>
+      <c r="K239" s="10"/>
+      <c r="L239" s="10"/>
+      <c r="M239" s="10"/>
+      <c r="N239" s="10"/>
+      <c r="O239" s="10"/>
+      <c r="P239" s="10"/>
+      <c r="Q239" s="10"/>
+      <c r="R239" s="10"/>
+      <c r="S239" s="10"/>
+      <c r="T239" s="10"/>
+      <c r="U239" s="10"/>
+      <c r="V239" s="10"/>
+      <c r="W239" s="10"/>
+      <c r="X239" s="10"/>
+      <c r="Y239" s="10"/>
+    </row>
+    <row r="240" spans="4:25">
+      <c r="D240" s="10"/>
+      <c r="E240" s="7"/>
+      <c r="F240" s="7" t="s">
+        <v>1368</v>
+      </c>
+      <c r="G240" s="10"/>
+      <c r="H240" s="10"/>
+      <c r="I240" s="10"/>
+      <c r="J240" s="10"/>
+      <c r="K240" s="10"/>
+      <c r="L240" s="10"/>
+      <c r="M240" s="10"/>
+      <c r="N240" s="10"/>
+      <c r="O240" s="10"/>
+      <c r="P240" s="10"/>
+      <c r="Q240" s="10"/>
+      <c r="R240" s="10"/>
+      <c r="S240" s="10"/>
+      <c r="T240" s="10"/>
+      <c r="U240" s="10"/>
+      <c r="V240" s="10"/>
+      <c r="W240" s="10"/>
+      <c r="X240" s="10"/>
+      <c r="Y240" s="10"/>
+    </row>
+    <row r="241" spans="1:52">
+      <c r="D241" s="10"/>
+      <c r="E241" s="7"/>
+      <c r="F241" s="7" t="s">
+        <v>1369</v>
+      </c>
+      <c r="G241" s="10"/>
+      <c r="H241" s="10"/>
+      <c r="I241" s="10"/>
+      <c r="J241" s="10"/>
+      <c r="K241" s="10"/>
+      <c r="L241" s="10"/>
+      <c r="M241" s="10"/>
+      <c r="N241" s="10"/>
+      <c r="O241" s="10"/>
+      <c r="P241" s="10"/>
+      <c r="Q241" s="10"/>
+      <c r="R241" s="10"/>
+      <c r="S241" s="10"/>
+      <c r="T241" s="10"/>
+      <c r="U241" s="10"/>
+      <c r="V241" s="10"/>
+      <c r="W241" s="10"/>
+      <c r="X241" s="10"/>
+      <c r="Y241" s="10"/>
+    </row>
+    <row r="242" spans="1:52">
+      <c r="D242" s="10"/>
+      <c r="E242" s="7"/>
+      <c r="F242" s="7" t="s">
+        <v>1370</v>
+      </c>
+      <c r="G242" s="10"/>
+      <c r="H242" s="10"/>
+      <c r="I242" s="10"/>
+      <c r="J242" s="10"/>
+      <c r="K242" s="10"/>
+      <c r="L242" s="10"/>
+      <c r="M242" s="10"/>
+      <c r="N242" s="10"/>
+      <c r="O242" s="10"/>
+      <c r="P242" s="10"/>
+      <c r="Q242" s="10"/>
+      <c r="R242" s="10"/>
+      <c r="S242" s="10"/>
+      <c r="T242" s="10"/>
+      <c r="U242" s="10"/>
+      <c r="V242" s="10"/>
+      <c r="W242" s="10"/>
+      <c r="X242" s="10"/>
+      <c r="Y242" s="10"/>
+    </row>
+    <row r="243" spans="1:52">
+      <c r="D243" s="10"/>
+      <c r="E243" s="7"/>
+      <c r="F243" s="7" t="s">
+        <v>1371</v>
+      </c>
+      <c r="G243" s="10"/>
+      <c r="H243" s="10"/>
+      <c r="I243" s="10"/>
+      <c r="J243" s="10"/>
+      <c r="K243" s="10"/>
+      <c r="L243" s="10"/>
+      <c r="M243" s="10"/>
+      <c r="N243" s="10"/>
+      <c r="O243" s="10"/>
+      <c r="P243" s="10"/>
+      <c r="Q243" s="10"/>
+      <c r="R243" s="10"/>
+      <c r="S243" s="10"/>
+      <c r="T243" s="10"/>
+      <c r="U243" s="10"/>
+      <c r="V243" s="10"/>
+      <c r="W243" s="10"/>
+      <c r="X243" s="10"/>
+      <c r="Y243" s="10"/>
+    </row>
+    <row r="244" spans="1:52">
+      <c r="D244" s="10"/>
+      <c r="E244" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="F244" s="7"/>
+      <c r="G244" s="10"/>
+      <c r="H244" s="10"/>
+      <c r="I244" s="10"/>
+      <c r="J244" s="10"/>
+      <c r="K244" s="10"/>
+      <c r="L244" s="10"/>
+      <c r="M244" s="10"/>
+      <c r="N244" s="10"/>
+      <c r="O244" s="10"/>
+      <c r="P244" s="10"/>
+      <c r="Q244" s="10"/>
+      <c r="R244" s="10"/>
+      <c r="S244" s="10"/>
+      <c r="T244" s="10"/>
+      <c r="U244" s="10"/>
+      <c r="V244" s="10"/>
+      <c r="W244" s="10"/>
+      <c r="X244" s="10"/>
+      <c r="Y244" s="10"/>
+    </row>
+    <row r="245" spans="1:52">
+      <c r="D245" s="10"/>
+      <c r="E245" s="7"/>
+      <c r="F245" s="7" t="s">
+        <v>990</v>
+      </c>
+      <c r="G245" s="10"/>
+      <c r="H245" s="10"/>
+      <c r="I245" s="10"/>
+      <c r="J245" s="10"/>
+      <c r="K245" s="10"/>
+      <c r="L245" s="10"/>
+      <c r="M245" s="10"/>
+      <c r="N245" s="10"/>
+      <c r="O245" s="10"/>
+      <c r="P245" s="10"/>
+      <c r="Q245" s="10"/>
+      <c r="R245" s="10"/>
+      <c r="S245" s="10"/>
+      <c r="T245" s="10"/>
+      <c r="U245" s="10"/>
+      <c r="V245" s="10"/>
+      <c r="W245" s="10"/>
+      <c r="X245" s="10"/>
+      <c r="Y245" s="10"/>
+    </row>
+    <row r="246" spans="1:52">
+      <c r="D246" s="10"/>
+      <c r="E246" s="7"/>
+      <c r="F246" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="G246" s="10"/>
+      <c r="H246" s="10"/>
+      <c r="I246" s="10"/>
+      <c r="J246" s="10"/>
+      <c r="K246" s="10"/>
+      <c r="L246" s="10"/>
+      <c r="M246" s="10"/>
+      <c r="N246" s="10"/>
+      <c r="O246" s="10"/>
+      <c r="P246" s="10"/>
+      <c r="Q246" s="10"/>
+      <c r="R246" s="10"/>
+      <c r="S246" s="10"/>
+      <c r="T246" s="10"/>
+      <c r="U246" s="10"/>
+      <c r="V246" s="10"/>
+      <c r="W246" s="10"/>
+      <c r="X246" s="10"/>
+      <c r="Y246" s="10"/>
+    </row>
+    <row r="247" spans="1:52">
+      <c r="D247" s="10"/>
+      <c r="E247" s="7"/>
+      <c r="F247" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="G247" s="10"/>
+      <c r="H247" s="10"/>
+      <c r="I247" s="10"/>
+      <c r="J247" s="10"/>
+      <c r="K247" s="10"/>
+      <c r="L247" s="10"/>
+      <c r="M247" s="10"/>
+      <c r="N247" s="10"/>
+      <c r="O247" s="10"/>
+      <c r="P247" s="10"/>
+      <c r="Q247" s="10"/>
+      <c r="R247" s="10"/>
+      <c r="S247" s="10"/>
+      <c r="T247" s="10"/>
+      <c r="U247" s="10"/>
+      <c r="V247" s="10"/>
+      <c r="W247" s="10"/>
+      <c r="X247" s="10"/>
+      <c r="Y247" s="10"/>
+    </row>
+    <row r="248" spans="1:52">
+      <c r="D248" s="10"/>
+      <c r="E248" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="F248" s="7"/>
+      <c r="G248" s="10"/>
+      <c r="H248" s="10"/>
+      <c r="I248" s="10"/>
+      <c r="J248" s="10"/>
+      <c r="K248" s="10"/>
+      <c r="L248" s="10"/>
+      <c r="M248" s="10"/>
+      <c r="N248" s="10"/>
+      <c r="O248" s="10"/>
+      <c r="P248" s="10"/>
+      <c r="Q248" s="10"/>
+      <c r="R248" s="10"/>
+      <c r="S248" s="10"/>
+      <c r="T248" s="10"/>
+      <c r="U248" s="10"/>
+      <c r="V248" s="10"/>
+      <c r="W248" s="10"/>
+      <c r="X248" s="10"/>
+      <c r="Y248" s="10"/>
+    </row>
+    <row r="249" spans="1:52">
+      <c r="D249" s="10"/>
+      <c r="E249" s="10"/>
+      <c r="F249" s="10"/>
+      <c r="G249" s="10"/>
+      <c r="H249" s="10"/>
+      <c r="I249" s="10"/>
+      <c r="J249" s="10"/>
+      <c r="K249" s="10"/>
+      <c r="L249" s="10"/>
+      <c r="M249" s="10"/>
+      <c r="N249" s="10"/>
+      <c r="O249" s="10"/>
+      <c r="P249" s="10"/>
+      <c r="Q249" s="10"/>
+      <c r="R249" s="10"/>
+      <c r="S249" s="10"/>
+      <c r="T249" s="10"/>
+      <c r="U249" s="10"/>
+      <c r="V249" s="10"/>
+      <c r="W249" s="10"/>
+      <c r="X249" s="10"/>
+      <c r="Y249" s="10"/>
+    </row>
+    <row r="252" spans="1:52">
+      <c r="A252" s="4"/>
+      <c r="B252" s="4"/>
+      <c r="C252" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D252" s="1" t="s">
+        <v>1372</v>
+      </c>
+      <c r="E252" s="4"/>
+      <c r="F252" s="4"/>
+      <c r="G252" s="4"/>
+      <c r="H252" s="4"/>
+      <c r="I252" s="4"/>
+      <c r="J252" s="4"/>
+      <c r="K252" s="4"/>
+      <c r="L252" s="4"/>
+      <c r="M252" s="4"/>
+      <c r="N252" s="4"/>
+      <c r="O252" s="4"/>
+      <c r="P252" s="4"/>
+      <c r="Q252" s="4"/>
+      <c r="R252" s="4"/>
+      <c r="S252" s="4"/>
+      <c r="T252" s="4"/>
+      <c r="U252" s="4"/>
+      <c r="V252" s="4"/>
+      <c r="W252" s="4"/>
+      <c r="X252" s="4"/>
+      <c r="Y252" s="4"/>
+      <c r="Z252" s="4"/>
+      <c r="AA252" s="4"/>
+      <c r="AB252" s="4"/>
+      <c r="AC252" s="4"/>
+      <c r="AD252" s="4"/>
+      <c r="AE252" s="4"/>
+      <c r="AF252" s="4"/>
+      <c r="AG252" s="4"/>
+      <c r="AH252" s="4"/>
+      <c r="AI252" s="4"/>
+      <c r="AJ252" s="4"/>
+      <c r="AK252" s="4"/>
+      <c r="AL252" s="4"/>
+      <c r="AM252" s="4"/>
+      <c r="AN252" s="4"/>
+      <c r="AO252" s="4"/>
+      <c r="AP252" s="4"/>
+      <c r="AQ252" s="4"/>
+      <c r="AR252" s="4"/>
+      <c r="AS252" s="4"/>
+      <c r="AT252" s="4"/>
+      <c r="AU252" s="4"/>
+      <c r="AV252" s="4"/>
+      <c r="AW252" s="4"/>
+      <c r="AX252" s="4"/>
+      <c r="AY252" s="4"/>
+      <c r="AZ252" s="4"/>
+    </row>
+    <row r="254" spans="1:52">
+      <c r="D254" s="3" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="255" spans="1:52">
+      <c r="D255" s="31" t="s">
+        <v>904</v>
+      </c>
+      <c r="E255" s="2" t="s">
+        <v>1373</v>
+      </c>
+    </row>
+    <row r="256" spans="1:52">
+      <c r="D256" s="31" t="s">
+        <v>904</v>
+      </c>
+      <c r="E256" s="2" t="s">
+        <v>1374</v>
+      </c>
+    </row>
+    <row r="257" spans="4:5">
+      <c r="D257" s="31" t="s">
+        <v>904</v>
+      </c>
+      <c r="E257" s="2" t="s">
+        <v>1375</v>
+      </c>
+    </row>
+    <row r="259" spans="4:5">
+      <c r="D259" s="3" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="260" spans="4:5">
+      <c r="D260" s="31" t="s">
+        <v>904</v>
+      </c>
+      <c r="E260" s="2" t="s">
+        <v>1376</v>
+      </c>
+    </row>
+    <row r="261" spans="4:5">
+      <c r="D261" s="31" t="s">
+        <v>904</v>
+      </c>
+      <c r="E261" s="2" t="s">
+        <v>1377</v>
+      </c>
+    </row>
+    <row r="262" spans="4:5">
+      <c r="D262" s="31" t="s">
+        <v>904</v>
+      </c>
+      <c r="E262" s="2" t="s">
+        <v>1378</v>
+      </c>
+    </row>
+    <row r="264" spans="4:5">
+      <c r="D264" s="3" t="s">
+        <v>1381</v>
+      </c>
+    </row>
+    <row r="265" spans="4:5">
+      <c r="D265" s="31" t="s">
+        <v>904</v>
+      </c>
+      <c r="E265" s="2" t="s">
+        <v>1379</v>
+      </c>
+    </row>
+    <row r="266" spans="4:5">
+      <c r="D266" s="31" t="s">
+        <v>904</v>
+      </c>
+      <c r="E266" s="2" t="s">
+        <v>1380</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:AZ62"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.77734375" defaultRowHeight="14.4"/>
+  <sheetData>
+    <row r="3" spans="1:52">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>1382</v>
+      </c>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="4"/>
+      <c r="S3" s="4"/>
+      <c r="T3" s="4"/>
+      <c r="U3" s="4"/>
+      <c r="V3" s="4"/>
+      <c r="W3" s="4"/>
+      <c r="X3" s="4"/>
+      <c r="Y3" s="4"/>
+      <c r="Z3" s="4"/>
+      <c r="AA3" s="4"/>
+      <c r="AB3" s="4"/>
+      <c r="AC3" s="4"/>
+      <c r="AD3" s="4"/>
+      <c r="AE3" s="4"/>
+      <c r="AF3" s="4"/>
+      <c r="AG3" s="4"/>
+      <c r="AH3" s="4"/>
+      <c r="AI3" s="4"/>
+      <c r="AJ3" s="4"/>
+      <c r="AK3" s="4"/>
+      <c r="AL3" s="4"/>
+      <c r="AM3" s="4"/>
+      <c r="AN3" s="4"/>
+      <c r="AO3" s="4"/>
+      <c r="AP3" s="4"/>
+      <c r="AQ3" s="4"/>
+      <c r="AR3" s="4"/>
+      <c r="AS3" s="4"/>
+      <c r="AT3" s="4"/>
+      <c r="AU3" s="4"/>
+      <c r="AV3" s="4"/>
+      <c r="AW3" s="4"/>
+      <c r="AX3" s="4"/>
+      <c r="AY3" s="4"/>
+      <c r="AZ3" s="4"/>
+    </row>
+    <row r="5" spans="1:52">
+      <c r="D5" t="s">
+        <v>1383</v>
+      </c>
+    </row>
+    <row r="6" spans="1:52">
+      <c r="D6" t="s">
+        <v>1384</v>
+      </c>
+    </row>
+    <row r="7" spans="1:52">
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10"/>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
+      <c r="M7" s="10"/>
+      <c r="N7" s="10"/>
+      <c r="O7" s="10"/>
+      <c r="P7" s="10"/>
+      <c r="Q7" s="10"/>
+      <c r="R7" s="10"/>
+      <c r="S7" s="10"/>
+      <c r="T7" s="10"/>
+      <c r="U7" s="10"/>
+      <c r="V7" s="10"/>
+      <c r="W7" s="10"/>
+      <c r="X7" s="10"/>
+      <c r="Y7" s="10"/>
+      <c r="Z7" s="10"/>
+      <c r="AA7" s="10"/>
+      <c r="AB7" s="10"/>
+      <c r="AC7" s="10"/>
+      <c r="AD7" s="10"/>
+      <c r="AE7" s="10"/>
+      <c r="AF7" s="10"/>
+      <c r="AG7" s="10"/>
+      <c r="AH7" s="10"/>
+      <c r="AI7" s="10"/>
+      <c r="AJ7" s="10"/>
+      <c r="AK7" s="10"/>
+      <c r="AL7" s="10"/>
+      <c r="AM7" s="10"/>
+      <c r="AN7" s="10"/>
+      <c r="AO7" s="10"/>
+      <c r="AP7" s="10"/>
+      <c r="AQ7" s="10"/>
+      <c r="AR7" s="10"/>
+      <c r="AS7" s="10"/>
+      <c r="AT7" s="10"/>
+      <c r="AU7" s="10"/>
+    </row>
+    <row r="8" spans="1:52">
+      <c r="D8" s="10"/>
+      <c r="E8" s="7" t="s">
+        <v>1385</v>
+      </c>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="10"/>
+      <c r="N8" s="10"/>
+      <c r="O8" s="10"/>
+      <c r="P8" s="10"/>
+      <c r="Q8" s="10"/>
+      <c r="R8" s="10"/>
+      <c r="S8" s="10"/>
+      <c r="T8" s="10"/>
+      <c r="U8" s="10"/>
+      <c r="V8" s="10"/>
+      <c r="W8" s="10"/>
+      <c r="X8" s="10"/>
+      <c r="Y8" s="10"/>
+      <c r="Z8" s="10"/>
+      <c r="AA8" s="10"/>
+      <c r="AB8" s="10"/>
+      <c r="AC8" s="10"/>
+      <c r="AD8" s="10"/>
+      <c r="AE8" s="10"/>
+      <c r="AF8" s="10"/>
+      <c r="AG8" s="10"/>
+      <c r="AH8" s="10"/>
+      <c r="AI8" s="10"/>
+      <c r="AJ8" s="10"/>
+      <c r="AK8" s="10"/>
+      <c r="AL8" s="10"/>
+      <c r="AM8" s="10"/>
+      <c r="AN8" s="10"/>
+      <c r="AO8" s="10"/>
+      <c r="AP8" s="10"/>
+      <c r="AQ8" s="10"/>
+      <c r="AR8" s="10"/>
+      <c r="AS8" s="10"/>
+      <c r="AT8" s="10"/>
+      <c r="AU8" s="10"/>
+    </row>
+    <row r="9" spans="1:52">
+      <c r="D9" s="10"/>
+      <c r="E9" s="7" t="s">
+        <v>1386</v>
+      </c>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
+      <c r="L9" s="10"/>
+      <c r="M9" s="10"/>
+      <c r="N9" s="10"/>
+      <c r="O9" s="10"/>
+      <c r="P9" s="10"/>
+      <c r="Q9" s="10"/>
+      <c r="R9" s="10"/>
+      <c r="S9" s="10"/>
+      <c r="T9" s="10"/>
+      <c r="U9" s="10"/>
+      <c r="V9" s="10"/>
+      <c r="W9" s="10"/>
+      <c r="X9" s="10"/>
+      <c r="Y9" s="10"/>
+      <c r="Z9" s="10"/>
+      <c r="AA9" s="10"/>
+      <c r="AB9" s="10"/>
+      <c r="AC9" s="10"/>
+      <c r="AD9" s="10"/>
+      <c r="AE9" s="10"/>
+      <c r="AF9" s="10"/>
+      <c r="AG9" s="10"/>
+      <c r="AH9" s="10"/>
+      <c r="AI9" s="10"/>
+      <c r="AJ9" s="10"/>
+      <c r="AK9" s="10"/>
+      <c r="AL9" s="10"/>
+      <c r="AM9" s="10"/>
+      <c r="AN9" s="10"/>
+      <c r="AO9" s="10"/>
+      <c r="AP9" s="10"/>
+      <c r="AQ9" s="10"/>
+      <c r="AR9" s="10"/>
+      <c r="AS9" s="10"/>
+      <c r="AT9" s="10"/>
+      <c r="AU9" s="10"/>
+    </row>
+    <row r="10" spans="1:52">
+      <c r="D10" s="10"/>
+      <c r="E10" s="10"/>
+      <c r="F10" s="10"/>
+      <c r="G10" s="10"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="10"/>
+      <c r="N10" s="10"/>
+      <c r="O10" s="10"/>
+      <c r="P10" s="10"/>
+      <c r="Q10" s="10"/>
+      <c r="R10" s="10"/>
+      <c r="S10" s="10"/>
+      <c r="T10" s="10"/>
+      <c r="U10" s="10"/>
+      <c r="V10" s="10"/>
+      <c r="W10" s="10"/>
+      <c r="X10" s="10"/>
+      <c r="Y10" s="10"/>
+      <c r="Z10" s="10"/>
+      <c r="AA10" s="10"/>
+      <c r="AB10" s="10"/>
+      <c r="AC10" s="10"/>
+      <c r="AD10" s="10"/>
+      <c r="AE10" s="10"/>
+      <c r="AF10" s="10"/>
+      <c r="AG10" s="10"/>
+      <c r="AH10" s="10"/>
+      <c r="AI10" s="10"/>
+      <c r="AJ10" s="10"/>
+      <c r="AK10" s="10"/>
+      <c r="AL10" s="10"/>
+      <c r="AM10" s="10"/>
+      <c r="AN10" s="10"/>
+      <c r="AO10" s="10"/>
+      <c r="AP10" s="10"/>
+      <c r="AQ10" s="10"/>
+      <c r="AR10" s="10"/>
+      <c r="AS10" s="10"/>
+      <c r="AT10" s="10"/>
+      <c r="AU10" s="10"/>
+    </row>
+    <row r="12" spans="1:52">
+      <c r="D12" t="s">
+        <v>1387</v>
+      </c>
+    </row>
+    <row r="15" spans="1:52">
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>1388</v>
+      </c>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4"/>
+      <c r="N15" s="4"/>
+      <c r="O15" s="4"/>
+      <c r="P15" s="4"/>
+      <c r="Q15" s="4"/>
+      <c r="R15" s="4"/>
+      <c r="S15" s="4"/>
+      <c r="T15" s="4"/>
+      <c r="U15" s="4"/>
+      <c r="V15" s="4"/>
+      <c r="W15" s="4"/>
+      <c r="X15" s="4"/>
+      <c r="Y15" s="4"/>
+      <c r="Z15" s="4"/>
+      <c r="AA15" s="4"/>
+      <c r="AB15" s="4"/>
+      <c r="AC15" s="4"/>
+      <c r="AD15" s="4"/>
+      <c r="AE15" s="4"/>
+      <c r="AF15" s="4"/>
+      <c r="AG15" s="4"/>
+      <c r="AH15" s="4"/>
+      <c r="AI15" s="4"/>
+      <c r="AJ15" s="4"/>
+      <c r="AK15" s="4"/>
+      <c r="AL15" s="4"/>
+      <c r="AM15" s="4"/>
+      <c r="AN15" s="4"/>
+      <c r="AO15" s="4"/>
+      <c r="AP15" s="4"/>
+      <c r="AQ15" s="4"/>
+      <c r="AR15" s="4"/>
+      <c r="AS15" s="4"/>
+      <c r="AT15" s="4"/>
+      <c r="AU15" s="4"/>
+      <c r="AV15" s="4"/>
+      <c r="AW15" s="4"/>
+      <c r="AX15" s="4"/>
+      <c r="AY15" s="4"/>
+      <c r="AZ15" s="4"/>
+    </row>
+    <row r="17" spans="4:15">
+      <c r="D17" s="2" t="s">
+        <v>1389</v>
+      </c>
+    </row>
+    <row r="18" spans="4:15">
+      <c r="D18" s="2"/>
+    </row>
+    <row r="19" spans="4:15">
+      <c r="D19" s="2" t="s">
+        <v>1391</v>
+      </c>
+    </row>
+    <row r="20" spans="4:15">
+      <c r="D20" s="2"/>
+      <c r="O20" s="2" t="s">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="21" spans="4:15">
+      <c r="D21" s="2"/>
+      <c r="O21" s="2"/>
+    </row>
+    <row r="22" spans="4:15">
+      <c r="D22" s="2" t="s">
+        <v>1393</v>
+      </c>
+    </row>
+    <row r="23" spans="4:15">
+      <c r="D23" s="2"/>
+      <c r="J23" s="2" t="s">
+        <v>1394</v>
+      </c>
+    </row>
+    <row r="24" spans="4:15">
+      <c r="D24" s="2"/>
+      <c r="J24" s="2"/>
+    </row>
+    <row r="25" spans="4:15">
+      <c r="D25" s="2" t="s">
+        <v>1390</v>
+      </c>
+    </row>
+    <row r="41" spans="1:52">
+      <c r="A41" s="4"/>
+      <c r="B41" s="4"/>
+      <c r="C41" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>1395</v>
+      </c>
+      <c r="E41" s="4"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="4"/>
+      <c r="H41" s="4"/>
+      <c r="I41" s="4"/>
+      <c r="J41" s="4"/>
+      <c r="K41" s="4"/>
+      <c r="L41" s="4"/>
+      <c r="M41" s="4"/>
+      <c r="N41" s="4"/>
+      <c r="O41" s="4"/>
+      <c r="P41" s="4"/>
+      <c r="Q41" s="4"/>
+      <c r="R41" s="4"/>
+      <c r="S41" s="4"/>
+      <c r="T41" s="4"/>
+      <c r="U41" s="4"/>
+      <c r="V41" s="4"/>
+      <c r="W41" s="4"/>
+      <c r="X41" s="4"/>
+      <c r="Y41" s="4"/>
+      <c r="Z41" s="4"/>
+      <c r="AA41" s="4"/>
+      <c r="AB41" s="4"/>
+      <c r="AC41" s="4"/>
+      <c r="AD41" s="4"/>
+      <c r="AE41" s="4"/>
+      <c r="AF41" s="4"/>
+      <c r="AG41" s="4"/>
+      <c r="AH41" s="4"/>
+      <c r="AI41" s="4"/>
+      <c r="AJ41" s="4"/>
+      <c r="AK41" s="4"/>
+      <c r="AL41" s="4"/>
+      <c r="AM41" s="4"/>
+      <c r="AN41" s="4"/>
+      <c r="AO41" s="4"/>
+      <c r="AP41" s="4"/>
+      <c r="AQ41" s="4"/>
+      <c r="AR41" s="4"/>
+      <c r="AS41" s="4"/>
+      <c r="AT41" s="4"/>
+      <c r="AU41" s="4"/>
+      <c r="AV41" s="4"/>
+      <c r="AW41" s="4"/>
+      <c r="AX41" s="4"/>
+      <c r="AY41" s="4"/>
+      <c r="AZ41" s="4"/>
+    </row>
+    <row r="43" spans="1:52">
+      <c r="D43" s="31" t="s">
+        <v>904</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>1396</v>
+      </c>
+    </row>
+    <row r="44" spans="1:52">
+      <c r="D44" s="2" t="s">
+        <v>1397</v>
+      </c>
+    </row>
+    <row r="45" spans="1:52">
+      <c r="D45" s="2" t="s">
+        <v>1398</v>
+      </c>
+    </row>
+    <row r="59" spans="4:4">
+      <c r="D59" t="s">
+        <v>1399</v>
+      </c>
+    </row>
+    <row r="60" spans="4:4">
+      <c r="D60" t="s">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="61" spans="4:4">
+      <c r="D61" t="s">
+        <v>1401</v>
+      </c>
+    </row>
+    <row r="62" spans="4:4">
+      <c r="D62" t="s">
+        <v>1402</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B8"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="Q30" sqref="Q30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
     <row r="8" spans="2:2">
       <c r="B8" s="12" t="s">
-        <v>1070</v>
+        <v>1265</v>
       </c>
     </row>
   </sheetData>
